--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14960" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26614,11 +26614,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -26634,21 +26634,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26662,10 +26648,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26677,24 +26687,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26723,28 +26718,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -26753,16 +26726,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26781,6 +26746,34 @@
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26899,7 +26892,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26911,13 +26928,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26935,43 +27000,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26983,7 +27030,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26995,79 +27054,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27084,8 +27077,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27094,7 +27087,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27110,15 +27118,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27149,21 +27148,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -27178,151 +27162,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -27383,12 +27376,7 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -27424,7 +27412,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2814320" y="21882100"/>
+          <a:off x="2713990" y="21669375"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27465,7 +27453,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -27712,6 +27700,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -27720,17 +27709,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.8285714285714" style="1"/>
-    <col min="2" max="2" width="20.8285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.8285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8296296296296" style="1"/>
+    <col min="2" max="2" width="20.8296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3259259259259" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5037037037037" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -27750,9 +27739,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="40" spans="1:5">
+    <row r="2" ht="37.5" hidden="1" spans="1:5">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -27767,9 +27756,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="24" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -27809,7 +27798,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="40" hidden="1" spans="2:4">
+    <row r="6" ht="37.5" hidden="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -27820,7 +27809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="80" hidden="1" spans="2:4">
+    <row r="7" ht="75" hidden="1" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -27831,7 +27820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="40" hidden="1" spans="2:4">
+    <row r="8" ht="37.5" hidden="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -27842,7 +27831,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="40" hidden="1" spans="2:4">
+    <row r="9" ht="37.5" hidden="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -27853,7 +27842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="60" hidden="1" spans="2:5">
+    <row r="10" ht="56.25" hidden="1" spans="2:5">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -27867,7 +27856,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="40" hidden="1" spans="2:4">
+    <row r="11" ht="37.5" hidden="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
@@ -27878,7 +27867,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" ht="40" hidden="1" spans="2:4">
+    <row r="12" ht="37.5" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -27889,7 +27878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="40" hidden="1" spans="2:4">
+    <row r="13" ht="37.5" hidden="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -27900,7 +27889,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="40" hidden="1" spans="2:4">
+    <row r="14" ht="37.5" hidden="1" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
@@ -27911,9 +27900,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" ht="40" spans="1:4">
+    <row r="15" ht="37.5" hidden="1" spans="1:4">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>48</v>
@@ -27925,9 +27914,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="40" spans="1:5">
+    <row r="16" ht="37.5" hidden="1" spans="1:5">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>51</v>
@@ -27942,7 +27931,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" ht="40" hidden="1" spans="2:4">
+    <row r="17" ht="37.5" hidden="1" spans="2:4">
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
@@ -27953,7 +27942,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" ht="24" hidden="1" spans="2:4">
+    <row r="18" hidden="1" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -27964,7 +27953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" ht="40" hidden="1" spans="2:5">
+    <row r="19" ht="37.5" hidden="1" spans="2:5">
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
@@ -27978,9 +27967,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" ht="100" spans="1:5">
+    <row r="20" ht="75" hidden="1" spans="1:5">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>65</v>
@@ -28009,9 +27998,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" ht="40" spans="1:4">
+    <row r="22" ht="37.5" hidden="1" spans="1:4">
       <c r="A22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>73</v>
@@ -28023,9 +28012,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" ht="120" spans="1:5">
+    <row r="23" ht="93.75" spans="1:5">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>76</v>
@@ -28040,7 +28029,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" ht="24" hidden="1" spans="2:4">
+    <row r="24" hidden="1" spans="2:4">
       <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
@@ -28051,7 +28040,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" ht="40" hidden="1" spans="2:5">
+    <row r="25" ht="37.5" hidden="1" spans="2:5">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
@@ -28067,7 +28056,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>87</v>
@@ -28101,7 +28090,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" ht="40" hidden="1" spans="2:4">
+    <row r="29" ht="37.5" hidden="1" spans="2:4">
       <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
@@ -28112,9 +28101,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" ht="40" spans="1:4">
+    <row r="30" ht="37.5" hidden="1" spans="1:4">
       <c r="A30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>99</v>
@@ -28126,7 +28115,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" ht="40" hidden="1" spans="2:5">
+    <row r="31" ht="37.5" hidden="1" spans="2:5">
       <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
@@ -28140,9 +28129,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" ht="60" spans="1:5">
+    <row r="32" ht="37.5" hidden="1" spans="1:5">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>106</v>
@@ -28157,9 +28146,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" ht="40" spans="1:5">
+    <row r="33" ht="37.5" spans="1:5">
       <c r="A33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>110</v>
@@ -28174,7 +28163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="180" hidden="1" spans="2:5">
+    <row r="34" ht="150" hidden="1" spans="2:5">
       <c r="B34" s="1" t="s">
         <v>113</v>
       </c>
@@ -28188,9 +28177,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" ht="40" spans="1:4">
+    <row r="35" ht="37.5" hidden="1" spans="1:4">
       <c r="A35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>117</v>
@@ -28202,9 +28191,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" ht="120" spans="1:5">
+    <row r="36" ht="93.75" spans="1:5">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>120</v>
@@ -28219,9 +28208,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" ht="60" spans="1:4">
+    <row r="37" ht="56.25" hidden="1" spans="1:4">
       <c r="A37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>124</v>
@@ -28233,7 +28222,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" ht="40" hidden="1" spans="2:5">
+    <row r="38" ht="37.5" hidden="1" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>127</v>
       </c>
@@ -28247,9 +28236,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" hidden="1" spans="1:4">
       <c r="A39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>131</v>
@@ -28261,9 +28250,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" ht="40" spans="1:5">
+    <row r="40" ht="37.5" spans="1:5">
       <c r="A40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>134</v>
@@ -28278,9 +28267,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" ht="24" spans="1:4">
+    <row r="41" hidden="1" spans="1:4">
       <c r="A41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>138</v>
@@ -28292,9 +28281,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" ht="40" spans="1:5">
+    <row r="42" ht="37.5" hidden="1" spans="1:5">
       <c r="A42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>141</v>
@@ -28309,9 +28298,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" hidden="1" spans="1:4">
       <c r="A43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>145</v>
@@ -28334,9 +28323,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" hidden="1" spans="1:5">
       <c r="A45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>151</v>
@@ -28351,9 +28340,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" ht="24" spans="1:4">
+    <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>155</v>
@@ -28376,9 +28365,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" ht="40" spans="1:4">
+    <row r="48" ht="37.5" hidden="1" spans="1:4">
       <c r="A48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>161</v>
@@ -28401,9 +28390,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" ht="40" spans="1:5">
+    <row r="50" ht="37.5" hidden="1" spans="1:5">
       <c r="A50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>167</v>
@@ -28418,7 +28407,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" ht="40" hidden="1" spans="2:4">
+    <row r="51" ht="37.5" hidden="1" spans="2:4">
       <c r="B51" s="1" t="s">
         <v>171</v>
       </c>
@@ -28429,7 +28418,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" ht="23" hidden="1" spans="2:4">
+    <row r="52" hidden="1" spans="2:4">
       <c r="B52" s="1" t="s">
         <v>174</v>
       </c>
@@ -28440,9 +28429,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" hidden="1" spans="1:4">
       <c r="A53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>177</v>
@@ -28465,7 +28454,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" ht="40" hidden="1" spans="2:5">
+    <row r="55" ht="37.5" hidden="1" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>183</v>
       </c>
@@ -28479,7 +28468,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" ht="40" hidden="1" spans="2:5">
+    <row r="56" ht="37.5" hidden="1" spans="2:5">
       <c r="B56" s="1" t="s">
         <v>187</v>
       </c>
@@ -28493,9 +28482,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" hidden="1" spans="1:5">
       <c r="A57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>191</v>
@@ -28510,7 +28499,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" ht="40" hidden="1" spans="2:4">
+    <row r="58" ht="37.5" hidden="1" spans="2:4">
       <c r="B58" s="1" t="s">
         <v>195</v>
       </c>
@@ -28521,9 +28510,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" ht="40" spans="1:5">
+    <row r="59" ht="37.5" hidden="1" spans="1:5">
       <c r="A59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>198</v>
@@ -28538,7 +28527,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" ht="40" hidden="1" spans="2:5">
+    <row r="60" ht="37.5" hidden="1" spans="2:5">
       <c r="B60" s="1" t="s">
         <v>202</v>
       </c>
@@ -28563,7 +28552,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" ht="40" hidden="1" spans="2:5">
+    <row r="62" ht="37.5" hidden="1" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>209</v>
       </c>
@@ -28577,7 +28566,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" ht="40" hidden="1" spans="2:4">
+    <row r="63" hidden="1" spans="2:4">
       <c r="B63" s="1" t="s">
         <v>213</v>
       </c>
@@ -28588,9 +28577,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" ht="40" spans="1:5">
+    <row r="64" ht="37.5" hidden="1" spans="1:5">
       <c r="A64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>216</v>
@@ -28605,7 +28594,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" ht="40" hidden="1" spans="2:4">
+    <row r="65" ht="37.5" hidden="1" spans="2:4">
       <c r="B65" s="1" t="s">
         <v>220</v>
       </c>
@@ -28633,7 +28622,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" ht="40" hidden="1" spans="2:5">
+    <row r="67" ht="37.5" hidden="1" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>227</v>
       </c>
@@ -28647,9 +28636,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" hidden="1" spans="1:5">
       <c r="A68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>231</v>
@@ -28678,9 +28667,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" hidden="1" spans="1:4">
       <c r="A70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>239</v>
@@ -28694,7 +28683,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>242</v>
@@ -28709,7 +28698,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" ht="40" hidden="1" spans="2:5">
+    <row r="72" ht="37.5" hidden="1" spans="2:5">
       <c r="B72" s="1" t="s">
         <v>246</v>
       </c>
@@ -28734,7 +28723,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" ht="40" hidden="1" spans="2:5">
+    <row r="74" ht="37.5" hidden="1" spans="2:5">
       <c r="B74" s="1" t="s">
         <v>253</v>
       </c>
@@ -28750,7 +28739,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>257</v>
@@ -28773,7 +28762,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="77" ht="40" hidden="1" spans="2:5">
+    <row r="77" ht="37.5" hidden="1" spans="2:5">
       <c r="B77" s="1" t="s">
         <v>263</v>
       </c>
@@ -28789,7 +28778,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>267</v>
@@ -28804,7 +28793,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" ht="24" hidden="1" spans="2:5">
+    <row r="79" hidden="1" spans="2:5">
       <c r="B79" s="1" t="s">
         <v>271</v>
       </c>
@@ -28818,7 +28807,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="80" ht="24" hidden="1" spans="2:5">
+    <row r="80" hidden="1" spans="2:5">
       <c r="B80" s="1" t="s">
         <v>275</v>
       </c>
@@ -28832,9 +28821,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" hidden="1" spans="1:4">
       <c r="A81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>279</v>
@@ -28846,9 +28835,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" hidden="1" spans="1:4">
       <c r="A82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>282</v>
@@ -28860,7 +28849,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" ht="40" hidden="1" spans="2:4">
+    <row r="83" ht="37.5" hidden="1" spans="2:4">
       <c r="B83" s="1" t="s">
         <v>284</v>
       </c>
@@ -28871,9 +28860,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" hidden="1" spans="1:4">
       <c r="A84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>287</v>
@@ -28885,9 +28874,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" ht="40" spans="1:5">
+    <row r="85" ht="37.5" hidden="1" spans="1:5">
       <c r="A85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>290</v>
@@ -28902,9 +28891,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" hidden="1" spans="1:4">
       <c r="A86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>294</v>
@@ -28916,9 +28905,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" hidden="1" spans="1:4">
       <c r="A87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>297</v>
@@ -28930,9 +28919,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" ht="60" spans="1:5">
+    <row r="88" ht="56.25" hidden="1" spans="1:5">
       <c r="A88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>300</v>
@@ -28947,9 +28936,9 @@
         <v>303</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" hidden="1" spans="1:4">
       <c r="A89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>304</v>
@@ -28961,9 +28950,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" hidden="1" spans="1:4">
       <c r="A90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>307</v>
@@ -28977,7 +28966,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>310</v>
@@ -28989,7 +28978,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" ht="24" hidden="1" spans="2:4">
+    <row r="92" hidden="1" spans="2:4">
       <c r="B92" s="1" t="s">
         <v>313</v>
       </c>
@@ -29011,9 +29000,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" hidden="1" spans="1:4">
       <c r="A94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>319</v>
@@ -29025,7 +29014,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" ht="24" hidden="1" spans="2:4">
+    <row r="95" hidden="1" spans="2:4">
       <c r="B95" s="1" t="s">
         <v>322</v>
       </c>
@@ -29036,9 +29025,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="96" ht="24" spans="1:4">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>325</v>
@@ -29050,9 +29039,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="97" ht="23" spans="1:4">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>328</v>
@@ -29064,9 +29053,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" ht="40" spans="1:5">
+    <row r="98" ht="37.5" hidden="1" spans="1:5">
       <c r="A98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>331</v>
@@ -29081,9 +29070,9 @@
         <v>334</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" hidden="1" spans="1:4">
       <c r="A99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>335</v>
@@ -29095,9 +29084,9 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" ht="24" spans="1:4">
+    <row r="100" hidden="1" spans="1:4">
       <c r="A100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>338</v>
@@ -29153,7 +29142,10 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="2:5">
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>1</v>
+      </c>
       <c r="B105" s="1" t="s">
         <v>353</v>
       </c>
@@ -29167,7 +29159,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="106" ht="24" hidden="1" spans="2:4">
+    <row r="106" hidden="1" spans="2:4">
       <c r="B106" s="1" t="s">
         <v>357</v>
       </c>
@@ -29178,7 +29170,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" ht="40" hidden="1" spans="2:4">
+    <row r="107" ht="37.5" hidden="1" spans="2:4">
       <c r="B107" s="1" t="s">
         <v>360</v>
       </c>
@@ -29189,7 +29181,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="108" ht="24" hidden="1" spans="2:4">
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>1</v>
+      </c>
       <c r="B108" s="1" t="s">
         <v>363</v>
       </c>
@@ -29200,7 +29195,10 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" ht="40" hidden="1" spans="2:5">
+    <row r="109" ht="37.5" spans="1:5">
+      <c r="A109" s="1">
+        <v>1</v>
+      </c>
       <c r="B109" s="1" t="s">
         <v>366</v>
       </c>
@@ -29214,7 +29212,10 @@
         <v>369</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="2:4">
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>1</v>
+      </c>
       <c r="B110" s="1" t="s">
         <v>370</v>
       </c>
@@ -29225,7 +29226,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="111" ht="40" hidden="1" spans="2:5">
+    <row r="111" ht="37.5" spans="1:5">
+      <c r="A111" s="1">
+        <v>1</v>
+      </c>
       <c r="B111" s="1" t="s">
         <v>373</v>
       </c>
@@ -29250,7 +29254,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="113" ht="40" hidden="1" spans="2:4">
+    <row r="113" ht="37.5" hidden="1" spans="2:4">
       <c r="B113" s="1" t="s">
         <v>380</v>
       </c>
@@ -29261,7 +29265,10 @@
         <v>382</v>
       </c>
     </row>
-    <row r="114" ht="40" hidden="1" spans="2:5">
+    <row r="114" ht="37.5" spans="1:5">
+      <c r="A114" s="1">
+        <v>1</v>
+      </c>
       <c r="B114" s="1" t="s">
         <v>383</v>
       </c>
@@ -29286,7 +29293,10 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" ht="40" hidden="1" spans="2:5">
+    <row r="116" ht="37.5" spans="1:5">
+      <c r="A116" s="1">
+        <v>1</v>
+      </c>
       <c r="B116" s="1" t="s">
         <v>390</v>
       </c>
@@ -29300,7 +29310,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="117" ht="40" hidden="1" spans="2:5">
+    <row r="117" hidden="1" spans="2:5">
       <c r="B117" s="1" t="s">
         <v>394</v>
       </c>
@@ -29314,7 +29324,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="118" ht="24" hidden="1" spans="2:4">
+    <row r="118" hidden="1" spans="2:4">
       <c r="B118" s="1" t="s">
         <v>398</v>
       </c>
@@ -29325,7 +29335,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" ht="40" hidden="1" spans="2:4">
+    <row r="119" ht="37.5" hidden="1" spans="2:4">
       <c r="B119" s="1" t="s">
         <v>401</v>
       </c>
@@ -29336,7 +29346,10 @@
         <v>403</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="2:5">
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>1</v>
+      </c>
       <c r="B120" s="1" t="s">
         <v>404</v>
       </c>
@@ -29350,7 +29363,10 @@
         <v>407</v>
       </c>
     </row>
-    <row r="121" ht="40" hidden="1" spans="2:4">
+    <row r="121" ht="37.5" spans="1:4">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
       <c r="B121" s="1" t="s">
         <v>408</v>
       </c>
@@ -29361,7 +29377,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="122" ht="24" hidden="1" spans="2:4">
+    <row r="122" hidden="1" spans="2:4">
       <c r="B122" s="1" t="s">
         <v>411</v>
       </c>
@@ -29372,7 +29388,10 @@
         <v>413</v>
       </c>
     </row>
-    <row r="123" ht="24" hidden="1" spans="2:4">
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
       <c r="B123" s="1" t="s">
         <v>414</v>
       </c>
@@ -29383,7 +29402,10 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" ht="40" hidden="1" spans="2:4">
+    <row r="124" ht="37.5" spans="1:4">
+      <c r="A124" s="1">
+        <v>1</v>
+      </c>
       <c r="B124" s="1" t="s">
         <v>417</v>
       </c>
@@ -29405,7 +29427,10 @@
         <v>422</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="2:4">
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
+        <v>1</v>
+      </c>
       <c r="B126" s="1" t="s">
         <v>423</v>
       </c>
@@ -29416,7 +29441,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="127" ht="23" hidden="1" spans="2:4">
+    <row r="127" hidden="1" spans="2:4">
       <c r="B127" s="1" t="s">
         <v>426</v>
       </c>
@@ -29427,7 +29452,10 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="2:4">
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>1</v>
+      </c>
       <c r="B128" s="1" t="s">
         <v>429</v>
       </c>
@@ -29438,7 +29466,10 @@
         <v>431</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="2:4">
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
+        <v>1</v>
+      </c>
       <c r="B129" s="1" t="s">
         <v>432</v>
       </c>
@@ -29449,7 +29480,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="2:5">
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>1</v>
+      </c>
       <c r="B130" s="1" t="s">
         <v>435</v>
       </c>
@@ -29463,7 +29497,10 @@
         <v>438</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="2:4">
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
+        <v>1</v>
+      </c>
       <c r="B131" s="1" t="s">
         <v>439</v>
       </c>
@@ -29474,7 +29511,10 @@
         <v>441</v>
       </c>
     </row>
-    <row r="132" ht="40" hidden="1" spans="2:4">
+    <row r="132" ht="37.5" spans="1:4">
+      <c r="A132" s="1">
+        <v>1</v>
+      </c>
       <c r="B132" s="1" t="s">
         <v>442</v>
       </c>
@@ -29485,7 +29525,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="133" ht="40" hidden="1" spans="2:4">
+    <row r="133" ht="37.5" hidden="1" spans="2:4">
       <c r="B133" s="1" t="s">
         <v>445</v>
       </c>
@@ -29496,7 +29536,10 @@
         <v>447</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="2:4">
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>1</v>
+      </c>
       <c r="B134" s="1" t="s">
         <v>448</v>
       </c>
@@ -29507,7 +29550,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="135" ht="100" hidden="1" spans="2:5">
+    <row r="135" ht="75" spans="1:5">
+      <c r="A135" s="1">
+        <v>1</v>
+      </c>
       <c r="B135" s="1" t="s">
         <v>451</v>
       </c>
@@ -29521,7 +29567,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="136" ht="24" hidden="1" spans="2:4">
+    <row r="136" hidden="1" spans="2:4">
       <c r="B136" s="1" t="s">
         <v>455</v>
       </c>
@@ -29532,7 +29578,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="137" ht="24" hidden="1" spans="2:4">
+    <row r="137" hidden="1" spans="2:4">
       <c r="B137" s="1" t="s">
         <v>458</v>
       </c>
@@ -29543,7 +29589,10 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" ht="23" hidden="1" spans="2:4">
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
+        <v>1</v>
+      </c>
       <c r="B138" s="1" t="s">
         <v>461</v>
       </c>
@@ -29554,7 +29603,10 @@
         <v>463</v>
       </c>
     </row>
-    <row r="139" ht="24" hidden="1" spans="2:4">
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
+        <v>1</v>
+      </c>
       <c r="B139" s="1" t="s">
         <v>464</v>
       </c>
@@ -29565,7 +29617,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="140" ht="24" hidden="1" spans="2:4">
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
+        <v>1</v>
+      </c>
       <c r="B140" s="1" t="s">
         <v>467</v>
       </c>
@@ -29590,7 +29645,10 @@
         <v>473</v>
       </c>
     </row>
-    <row r="142" ht="40" hidden="1" spans="2:4">
+    <row r="142" ht="37.5" spans="1:4">
+      <c r="A142" s="1">
+        <v>1</v>
+      </c>
       <c r="B142" s="1" t="s">
         <v>474</v>
       </c>
@@ -29601,7 +29659,10 @@
         <v>476</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="2:4">
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
+        <v>1</v>
+      </c>
       <c r="B143" s="1" t="s">
         <v>477</v>
       </c>
@@ -29612,7 +29673,10 @@
         <v>479</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="2:4">
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
+        <v>1</v>
+      </c>
       <c r="B144" s="1" t="s">
         <v>480</v>
       </c>
@@ -29623,7 +29687,10 @@
         <v>482</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="2:5">
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>1</v>
+      </c>
       <c r="B145" s="1" t="s">
         <v>483</v>
       </c>
@@ -29637,7 +29704,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="146" ht="40" hidden="1" spans="2:4">
+    <row r="146" ht="37.5" hidden="1" spans="2:4">
       <c r="B146" s="1" t="s">
         <v>487</v>
       </c>
@@ -29659,7 +29726,10 @@
         <v>492</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="2:5">
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>1</v>
+      </c>
       <c r="B148" s="1" t="s">
         <v>493</v>
       </c>
@@ -29673,7 +29743,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="149" ht="40" hidden="1" spans="2:4">
+    <row r="149" ht="37.5" hidden="1" spans="2:4">
       <c r="B149" s="1" t="s">
         <v>497</v>
       </c>
@@ -29695,7 +29765,10 @@
         <v>502</v>
       </c>
     </row>
-    <row r="151" ht="24" hidden="1" spans="2:4">
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
+        <v>1</v>
+      </c>
       <c r="B151" s="1" t="s">
         <v>503</v>
       </c>
@@ -29706,7 +29779,10 @@
         <v>505</v>
       </c>
     </row>
-    <row r="152" ht="40" hidden="1" spans="2:5">
+    <row r="152" ht="37.5" spans="1:5">
+      <c r="A152" s="1">
+        <v>1</v>
+      </c>
       <c r="B152" s="1" t="s">
         <v>506</v>
       </c>
@@ -29734,7 +29810,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="154" ht="24" hidden="1" spans="2:4">
+    <row r="154" hidden="1" spans="2:4">
       <c r="B154" s="1" t="s">
         <v>514</v>
       </c>
@@ -29745,7 +29821,10 @@
         <v>516</v>
       </c>
     </row>
-    <row r="155" ht="23" hidden="1" spans="2:4">
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
+        <v>1</v>
+      </c>
       <c r="B155" s="1" t="s">
         <v>517</v>
       </c>
@@ -29756,7 +29835,10 @@
         <v>519</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="2:5">
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>1</v>
+      </c>
       <c r="B156" s="1" t="s">
         <v>520</v>
       </c>
@@ -29770,7 +29852,10 @@
         <v>523</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="2:5">
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>1</v>
+      </c>
       <c r="B157" s="1" t="s">
         <v>524</v>
       </c>
@@ -29784,7 +29869,10 @@
         <v>527</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="2:4">
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
+        <v>1</v>
+      </c>
       <c r="B158" s="1" t="s">
         <v>528</v>
       </c>
@@ -29795,7 +29883,10 @@
         <v>530</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="2:5">
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>1</v>
+      </c>
       <c r="B159" s="1" t="s">
         <v>531</v>
       </c>
@@ -29809,7 +29900,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" ht="24" hidden="1" spans="2:4">
+    <row r="160" hidden="1" spans="2:4">
       <c r="B160" s="1" t="s">
         <v>535</v>
       </c>
@@ -29820,7 +29911,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="161" ht="40" hidden="1" spans="2:4">
+    <row r="161" ht="37.5" hidden="1" spans="2:4">
       <c r="B161" s="1" t="s">
         <v>538</v>
       </c>
@@ -29831,7 +29922,10 @@
         <v>540</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="2:4">
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
+        <v>1</v>
+      </c>
       <c r="B162" s="1" t="s">
         <v>541</v>
       </c>
@@ -29842,7 +29936,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="163" ht="23" hidden="1" spans="2:4">
+    <row r="163" hidden="1" spans="2:4">
       <c r="B163" s="1" t="s">
         <v>544</v>
       </c>
@@ -29853,7 +29947,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="164" ht="24" hidden="1" spans="2:4">
+    <row r="164" hidden="1" spans="2:4">
       <c r="B164" s="1" t="s">
         <v>547</v>
       </c>
@@ -29864,7 +29958,10 @@
         <v>549</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="2:4">
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
+        <v>1</v>
+      </c>
       <c r="B165" s="1" t="s">
         <v>550</v>
       </c>
@@ -29875,7 +29972,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="166" ht="24" hidden="1" spans="2:4">
+    <row r="166" hidden="1" spans="2:4">
       <c r="B166" s="1" t="s">
         <v>553</v>
       </c>
@@ -29886,7 +29983,10 @@
         <v>555</v>
       </c>
     </row>
-    <row r="167" ht="40" hidden="1" spans="2:4">
+    <row r="167" ht="37.5" spans="1:4">
+      <c r="A167" s="1">
+        <v>1</v>
+      </c>
       <c r="B167" s="1" t="s">
         <v>556</v>
       </c>
@@ -29897,7 +29997,10 @@
         <v>558</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="2:4">
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
+        <v>1</v>
+      </c>
       <c r="B168" s="1" t="s">
         <v>559</v>
       </c>
@@ -29908,7 +30011,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="169" ht="100" hidden="1" spans="2:5">
+    <row r="169" ht="75" hidden="1" spans="2:5">
       <c r="B169" s="1" t="s">
         <v>562</v>
       </c>
@@ -29922,7 +30025,10 @@
         <v>565</v>
       </c>
     </row>
-    <row r="170" ht="40" hidden="1" spans="2:4">
+    <row r="170" ht="37.5" spans="1:4">
+      <c r="A170" s="1">
+        <v>1</v>
+      </c>
       <c r="B170" s="1" t="s">
         <v>566</v>
       </c>
@@ -29933,7 +30039,10 @@
         <v>568</v>
       </c>
     </row>
-    <row r="171" ht="40" hidden="1" spans="2:4">
+    <row r="171" ht="37.5" spans="1:4">
+      <c r="A171" s="1">
+        <v>1</v>
+      </c>
       <c r="B171" s="1" t="s">
         <v>569</v>
       </c>
@@ -29944,7 +30053,10 @@
         <v>571</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="2:4">
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
+        <v>1</v>
+      </c>
       <c r="B172" s="1" t="s">
         <v>572</v>
       </c>
@@ -29955,7 +30067,10 @@
         <v>574</v>
       </c>
     </row>
-    <row r="173" ht="100" hidden="1" spans="2:5">
+    <row r="173" ht="75" spans="1:5">
+      <c r="A173" s="1">
+        <v>1</v>
+      </c>
       <c r="B173" s="1" t="s">
         <v>575</v>
       </c>
@@ -29969,7 +30084,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="174" ht="24" hidden="1" spans="2:4">
+    <row r="174" hidden="1" spans="2:4">
       <c r="B174" s="1" t="s">
         <v>579</v>
       </c>
@@ -29991,7 +30106,10 @@
         <v>584</v>
       </c>
     </row>
-    <row r="176" ht="23" hidden="1" spans="2:5">
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>1</v>
+      </c>
       <c r="B176" s="1" t="s">
         <v>585</v>
       </c>
@@ -30005,7 +30123,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="177" ht="24" hidden="1" spans="2:4">
+    <row r="177" hidden="1" spans="2:4">
       <c r="B177" s="1" t="s">
         <v>589</v>
       </c>
@@ -30016,7 +30134,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="178" ht="23" hidden="1" spans="2:4">
+    <row r="178" hidden="1" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>592</v>
       </c>
@@ -30027,7 +30145,10 @@
         <v>594</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="2:4">
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
+        <v>1</v>
+      </c>
       <c r="B179" s="1" t="s">
         <v>595</v>
       </c>
@@ -30049,7 +30170,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="181" ht="40" hidden="1" spans="2:4">
+    <row r="181" ht="37.5" hidden="1" spans="2:4">
       <c r="B181" s="1" t="s">
         <v>601</v>
       </c>
@@ -30060,7 +30181,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="182" ht="24" hidden="1" spans="2:4">
+    <row r="182" hidden="1" spans="2:4">
       <c r="B182" s="1" t="s">
         <v>604</v>
       </c>
@@ -30071,7 +30192,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="183" ht="40" hidden="1" spans="2:4">
+    <row r="183" ht="37.5" hidden="1" spans="2:4">
       <c r="B183" s="1" t="s">
         <v>607</v>
       </c>
@@ -30082,7 +30203,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="184" ht="24" hidden="1" spans="2:4">
+    <row r="184" hidden="1" spans="2:4">
       <c r="B184" s="1" t="s">
         <v>610</v>
       </c>
@@ -30093,7 +30214,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="185" ht="40" hidden="1" spans="2:4">
+    <row r="185" ht="37.5" hidden="1" spans="2:4">
       <c r="B185" s="1" t="s">
         <v>613</v>
       </c>
@@ -30104,7 +30225,10 @@
         <v>615</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="2:4">
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
+        <v>1</v>
+      </c>
       <c r="B186" s="1" t="s">
         <v>616</v>
       </c>
@@ -30115,7 +30239,10 @@
         <v>618</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="2:4">
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
+        <v>1</v>
+      </c>
       <c r="B187" s="1" t="s">
         <v>619</v>
       </c>
@@ -30148,7 +30275,10 @@
         <v>627</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="2:4">
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
+        <v>1</v>
+      </c>
       <c r="B190" s="1" t="s">
         <v>628</v>
       </c>
@@ -30159,7 +30289,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="191" ht="24" hidden="1" spans="2:5">
+    <row r="191" hidden="1" spans="2:5">
       <c r="B191" s="1" t="s">
         <v>631</v>
       </c>
@@ -30173,7 +30303,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="192" ht="40" hidden="1" spans="2:4">
+    <row r="192" ht="37.5" hidden="1" spans="2:4">
       <c r="B192" s="1" t="s">
         <v>635</v>
       </c>
@@ -30184,7 +30314,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="193" ht="40" hidden="1" spans="2:4">
+    <row r="193" ht="37.5" hidden="1" spans="2:4">
       <c r="B193" s="1" t="s">
         <v>638</v>
       </c>
@@ -30195,7 +30325,10 @@
         <v>640</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="2:4">
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
+        <v>1</v>
+      </c>
       <c r="B194" s="1" t="s">
         <v>641</v>
       </c>
@@ -30217,7 +30350,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="196" ht="40" hidden="1" spans="2:4">
+    <row r="196" ht="37.5" hidden="1" spans="2:4">
       <c r="B196" s="1" t="s">
         <v>647</v>
       </c>
@@ -30228,7 +30361,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="197" ht="24" hidden="1" spans="2:4">
+    <row r="197" hidden="1" spans="2:4">
       <c r="B197" s="1" t="s">
         <v>650</v>
       </c>
@@ -30239,7 +30372,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="198" ht="40" hidden="1" spans="2:4">
+    <row r="198" ht="37.5" hidden="1" spans="2:4">
       <c r="B198" s="1" t="s">
         <v>653</v>
       </c>
@@ -30250,7 +30383,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="199" ht="40" hidden="1" spans="2:4">
+    <row r="199" ht="37.5" hidden="1" spans="2:4">
       <c r="B199" s="1" t="s">
         <v>656</v>
       </c>
@@ -30261,7 +30394,10 @@
         <v>658</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="2:4">
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
+        <v>1</v>
+      </c>
       <c r="B200" s="1" t="s">
         <v>659</v>
       </c>
@@ -30272,7 +30408,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="201" ht="40" hidden="1" spans="2:4">
+    <row r="201" ht="37.5" hidden="1" spans="2:4">
       <c r="B201" s="1" t="s">
         <v>662</v>
       </c>
@@ -30283,7 +30419,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="202" ht="24" hidden="1" spans="2:4">
+    <row r="202" hidden="1" spans="2:4">
       <c r="B202" s="1" t="s">
         <v>665</v>
       </c>
@@ -30294,7 +30430,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="203" ht="24" hidden="1" spans="2:4">
+    <row r="203" hidden="1" spans="2:4">
       <c r="B203" s="1" t="s">
         <v>668</v>
       </c>
@@ -30338,7 +30474,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="207" ht="40" hidden="1" spans="2:4">
+    <row r="207" ht="37.5" hidden="1" spans="2:4">
       <c r="B207" s="1" t="s">
         <v>680</v>
       </c>
@@ -30374,7 +30510,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="210" ht="40" hidden="1" spans="2:4">
+    <row r="210" ht="37.5" hidden="1" spans="2:4">
       <c r="B210" s="1" t="s">
         <v>690</v>
       </c>
@@ -30385,7 +30521,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="211" ht="40" hidden="1" spans="2:4">
+    <row r="211" ht="37.5" hidden="1" spans="2:4">
       <c r="B211" s="1" t="s">
         <v>693</v>
       </c>
@@ -30407,7 +30543,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="213" ht="40" hidden="1" spans="2:4">
+    <row r="213" ht="37.5" hidden="1" spans="2:4">
       <c r="B213" s="1" t="s">
         <v>699</v>
       </c>
@@ -30418,7 +30554,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="214" ht="80" hidden="1" spans="2:5">
+    <row r="214" ht="75" hidden="1" spans="2:5">
       <c r="B214" s="1" t="s">
         <v>702</v>
       </c>
@@ -30432,7 +30568,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="215" ht="40" hidden="1" spans="2:5">
+    <row r="215" ht="37.5" hidden="1" spans="2:5">
       <c r="B215" s="1" t="s">
         <v>706</v>
       </c>
@@ -30460,7 +30596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" ht="24" hidden="1" spans="2:4">
+    <row r="217" hidden="1" spans="2:4">
       <c r="B217" s="1" t="s">
         <v>713</v>
       </c>
@@ -30496,7 +30632,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="220" ht="40" hidden="1" spans="2:4">
+    <row r="220" ht="37.5" hidden="1" spans="2:4">
       <c r="B220" s="1" t="s">
         <v>723</v>
       </c>
@@ -30543,7 +30679,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="224" ht="40" hidden="1" spans="2:4">
+    <row r="224" ht="37.5" hidden="1" spans="2:4">
       <c r="B224" s="1" t="s">
         <v>736</v>
       </c>
@@ -30576,7 +30712,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="227" ht="40" hidden="1" spans="2:4">
+    <row r="227" ht="37.5" hidden="1" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>745</v>
       </c>
@@ -30598,7 +30734,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="229" ht="40" hidden="1" spans="2:4">
+    <row r="229" ht="37.5" hidden="1" spans="2:4">
       <c r="B229" s="1" t="s">
         <v>751</v>
       </c>
@@ -30709,7 +30845,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="238" ht="24" hidden="1" spans="2:5">
+    <row r="238" hidden="1" spans="2:5">
       <c r="B238" s="1" t="s">
         <v>782</v>
       </c>
@@ -30723,7 +30859,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="239" ht="40" hidden="1" spans="2:5">
+    <row r="239" ht="37.5" hidden="1" spans="2:5">
       <c r="B239" s="1" t="s">
         <v>786</v>
       </c>
@@ -30798,7 +30934,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="245" ht="40" hidden="1" spans="2:4">
+    <row r="245" ht="37.5" hidden="1" spans="2:4">
       <c r="B245" s="1" t="s">
         <v>807</v>
       </c>
@@ -30809,7 +30945,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="246" ht="40" hidden="1" spans="2:4">
+    <row r="246" ht="37.5" hidden="1" spans="2:4">
       <c r="B246" s="1" t="s">
         <v>810</v>
       </c>
@@ -30831,7 +30967,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="248" ht="40" hidden="1" spans="2:4">
+    <row r="248" ht="37.5" hidden="1" spans="2:4">
       <c r="B248" s="1" t="s">
         <v>816</v>
       </c>
@@ -30842,7 +30978,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="249" ht="40" hidden="1" spans="2:4">
+    <row r="249" ht="37.5" hidden="1" spans="2:4">
       <c r="B249" s="1" t="s">
         <v>819</v>
       </c>
@@ -30853,7 +30989,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="250" ht="40" hidden="1" spans="2:4">
+    <row r="250" ht="37.5" hidden="1" spans="2:4">
       <c r="B250" s="1" t="s">
         <v>822</v>
       </c>
@@ -30875,7 +31011,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="252" ht="40" hidden="1" spans="2:5">
+    <row r="252" ht="37.5" hidden="1" spans="2:5">
       <c r="B252" s="1" t="s">
         <v>828</v>
       </c>
@@ -30900,7 +31036,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="254" ht="24" hidden="1" spans="2:4">
+    <row r="254" hidden="1" spans="2:4">
       <c r="B254" s="1" t="s">
         <v>835</v>
       </c>
@@ -30911,7 +31047,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="255" ht="24" hidden="1" spans="2:4">
+    <row r="255" hidden="1" spans="2:4">
       <c r="B255" s="1" t="s">
         <v>838</v>
       </c>
@@ -30944,7 +31080,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="258" ht="40" hidden="1" spans="2:4">
+    <row r="258" ht="37.5" hidden="1" spans="2:4">
       <c r="B258" s="1" t="s">
         <v>847</v>
       </c>
@@ -30955,7 +31091,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="259" ht="40" hidden="1" spans="2:4">
+    <row r="259" ht="37.5" hidden="1" spans="2:4">
       <c r="B259" s="1" t="s">
         <v>850</v>
       </c>
@@ -30966,7 +31102,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="260" ht="24" hidden="1" spans="2:4">
+    <row r="260" hidden="1" spans="2:4">
       <c r="B260" s="1" t="s">
         <v>853</v>
       </c>
@@ -30977,7 +31113,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="261" ht="40" hidden="1" spans="2:4">
+    <row r="261" ht="37.5" hidden="1" spans="2:4">
       <c r="B261" s="1" t="s">
         <v>856</v>
       </c>
@@ -30988,7 +31124,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="262" ht="24" hidden="1" spans="2:4">
+    <row r="262" hidden="1" spans="2:4">
       <c r="B262" s="1" t="s">
         <v>859</v>
       </c>
@@ -31010,7 +31146,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="264" ht="40" hidden="1" spans="2:4">
+    <row r="264" ht="37.5" hidden="1" spans="2:4">
       <c r="B264" s="1" t="s">
         <v>865</v>
       </c>
@@ -31021,7 +31157,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="265" ht="24" hidden="1" spans="2:4">
+    <row r="265" hidden="1" spans="2:4">
       <c r="B265" s="1" t="s">
         <v>868</v>
       </c>
@@ -31046,7 +31182,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="267" ht="40" hidden="1" spans="2:4">
+    <row r="267" ht="37.5" hidden="1" spans="2:4">
       <c r="B267" s="1" t="s">
         <v>875</v>
       </c>
@@ -31057,7 +31193,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="268" ht="80" hidden="1" spans="2:5">
+    <row r="268" ht="75" hidden="1" spans="2:5">
       <c r="B268" s="1" t="s">
         <v>878</v>
       </c>
@@ -31071,7 +31207,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="269" ht="60" hidden="1" spans="2:5">
+    <row r="269" ht="56.25" hidden="1" spans="2:5">
       <c r="B269" s="1" t="s">
         <v>882</v>
       </c>
@@ -31096,7 +31232,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="271" ht="24" hidden="1" spans="2:4">
+    <row r="271" hidden="1" spans="2:4">
       <c r="B271" s="1" t="s">
         <v>889</v>
       </c>
@@ -31107,7 +31243,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="272" ht="40" hidden="1" spans="2:4">
+    <row r="272" ht="37.5" hidden="1" spans="2:4">
       <c r="B272" s="1" t="s">
         <v>892</v>
       </c>
@@ -31118,7 +31254,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="273" ht="24" hidden="1" spans="2:4">
+    <row r="273" hidden="1" spans="2:4">
       <c r="B273" s="1" t="s">
         <v>895</v>
       </c>
@@ -31129,7 +31265,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="274" ht="40" hidden="1" spans="2:4">
+    <row r="274" ht="37.5" hidden="1" spans="2:4">
       <c r="B274" s="1" t="s">
         <v>898</v>
       </c>
@@ -31140,7 +31276,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="275" ht="40" hidden="1" spans="2:4">
+    <row r="275" ht="37.5" hidden="1" spans="2:4">
       <c r="B275" s="1" t="s">
         <v>901</v>
       </c>
@@ -31173,7 +31309,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="278" ht="40" hidden="1" spans="2:4">
+    <row r="278" ht="37.5" hidden="1" spans="2:4">
       <c r="B278" s="1" t="s">
         <v>910</v>
       </c>
@@ -31184,7 +31320,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="279" ht="24" hidden="1" spans="2:4">
+    <row r="279" hidden="1" spans="2:4">
       <c r="B279" s="1" t="s">
         <v>913</v>
       </c>
@@ -31195,7 +31331,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="280" ht="24" hidden="1" spans="2:4">
+    <row r="280" hidden="1" spans="2:4">
       <c r="B280" s="1" t="s">
         <v>916</v>
       </c>
@@ -31217,7 +31353,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="282" ht="40" hidden="1" spans="2:4">
+    <row r="282" ht="37.5" hidden="1" spans="2:4">
       <c r="B282" s="1" t="s">
         <v>922</v>
       </c>
@@ -31228,7 +31364,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="283" ht="40" hidden="1" spans="2:5">
+    <row r="283" ht="37.5" hidden="1" spans="2:5">
       <c r="B283" s="1" t="s">
         <v>925</v>
       </c>
@@ -31242,7 +31378,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="284" ht="24" hidden="1" spans="2:4">
+    <row r="284" hidden="1" spans="2:4">
       <c r="B284" s="1" t="s">
         <v>929</v>
       </c>
@@ -31264,7 +31400,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="286" ht="80" hidden="1" spans="2:5">
+    <row r="286" ht="75" hidden="1" spans="2:5">
       <c r="B286" s="1" t="s">
         <v>935</v>
       </c>
@@ -31300,7 +31436,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="289" ht="100" hidden="1" spans="2:5">
+    <row r="289" ht="75" hidden="1" spans="2:5">
       <c r="B289" s="1" t="s">
         <v>945</v>
       </c>
@@ -31314,7 +31450,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="290" ht="40" hidden="1" spans="2:4">
+    <row r="290" ht="37.5" hidden="1" spans="2:4">
       <c r="B290" s="1" t="s">
         <v>949</v>
       </c>
@@ -31325,7 +31461,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="291" ht="40" hidden="1" spans="2:5">
+    <row r="291" ht="37.5" hidden="1" spans="2:5">
       <c r="B291" s="1" t="s">
         <v>952</v>
       </c>
@@ -31372,7 +31508,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="295" ht="24" hidden="1" spans="2:4">
+    <row r="295" hidden="1" spans="2:4">
       <c r="B295" s="1" t="s">
         <v>965</v>
       </c>
@@ -31383,7 +31519,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="296" ht="40" hidden="1" spans="2:4">
+    <row r="296" ht="37.5" hidden="1" spans="2:4">
       <c r="B296" s="1" t="s">
         <v>968</v>
       </c>
@@ -31427,7 +31563,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="300" ht="24" hidden="1" spans="2:4">
+    <row r="300" hidden="1" spans="2:4">
       <c r="B300" s="1" t="s">
         <v>980</v>
       </c>
@@ -31438,7 +31574,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="301" ht="40" hidden="1" spans="2:5">
+    <row r="301" ht="37.5" hidden="1" spans="2:5">
       <c r="B301" s="1" t="s">
         <v>983</v>
       </c>
@@ -31466,7 +31602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="40" hidden="1" spans="2:4">
+    <row r="303" ht="37.5" hidden="1" spans="2:4">
       <c r="B303" s="1" t="s">
         <v>990</v>
       </c>
@@ -31477,7 +31613,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="304" ht="23" hidden="1" spans="2:4">
+    <row r="304" hidden="1" spans="2:4">
       <c r="B304" s="1" t="s">
         <v>993</v>
       </c>
@@ -31488,7 +31624,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="305" ht="40" hidden="1" spans="2:4">
+    <row r="305" ht="37.5" hidden="1" spans="2:4">
       <c r="B305" s="1" t="s">
         <v>996</v>
       </c>
@@ -31510,7 +31646,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="307" ht="40" hidden="1" spans="2:4">
+    <row r="307" ht="37.5" hidden="1" spans="2:4">
       <c r="B307" s="1" t="s">
         <v>1002</v>
       </c>
@@ -31521,7 +31657,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="308" ht="24" hidden="1" spans="2:4">
+    <row r="308" hidden="1" spans="2:4">
       <c r="B308" s="1" t="s">
         <v>1005</v>
       </c>
@@ -31543,7 +31679,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="310" ht="40" hidden="1" spans="2:4">
+    <row r="310" ht="37.5" hidden="1" spans="2:4">
       <c r="B310" s="1" t="s">
         <v>1011</v>
       </c>
@@ -31576,7 +31712,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="313" ht="40" hidden="1" spans="2:4">
+    <row r="313" ht="37.5" hidden="1" spans="2:4">
       <c r="B313" s="1" t="s">
         <v>1020</v>
       </c>
@@ -31587,7 +31723,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="314" ht="100" hidden="1" spans="2:5">
+    <row r="314" ht="75" hidden="1" spans="2:5">
       <c r="B314" s="1" t="s">
         <v>1023</v>
       </c>
@@ -31612,7 +31748,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="316" ht="40" hidden="1" spans="2:4">
+    <row r="316" ht="37.5" hidden="1" spans="2:4">
       <c r="B316" s="1" t="s">
         <v>1030</v>
       </c>
@@ -31634,7 +31770,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="318" ht="40" hidden="1" spans="2:5">
+    <row r="318" ht="37.5" hidden="1" spans="2:5">
       <c r="B318" s="1" t="s">
         <v>1036</v>
       </c>
@@ -31662,7 +31798,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="320" ht="23" hidden="1" spans="2:4">
+    <row r="320" hidden="1" spans="2:4">
       <c r="B320" s="1" t="s">
         <v>1043</v>
       </c>
@@ -31673,7 +31809,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="321" ht="135" hidden="1" spans="2:5">
+    <row r="321" ht="112.5" hidden="1" spans="2:5">
       <c r="B321" s="1" t="s">
         <v>1046</v>
       </c>
@@ -31712,7 +31848,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="324" ht="24" hidden="1" spans="2:4">
+    <row r="324" hidden="1" spans="2:4">
       <c r="B324" s="1" t="s">
         <v>1057</v>
       </c>
@@ -31784,7 +31920,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="330" ht="40" hidden="1" spans="2:4">
+    <row r="330" ht="37.5" hidden="1" spans="2:4">
       <c r="B330" s="1" t="s">
         <v>1077</v>
       </c>
@@ -31806,7 +31942,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="332" ht="40" hidden="1" spans="2:4">
+    <row r="332" ht="37.5" hidden="1" spans="2:4">
       <c r="B332" s="1" t="s">
         <v>1083</v>
       </c>
@@ -31839,7 +31975,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="335" ht="40" hidden="1" spans="2:5">
+    <row r="335" ht="37.5" hidden="1" spans="2:5">
       <c r="B335" s="1" t="s">
         <v>1092</v>
       </c>
@@ -31911,7 +32047,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="341" ht="140" hidden="1" spans="2:5">
+    <row r="341" ht="93.75" hidden="1" spans="2:5">
       <c r="B341" s="1" t="s">
         <v>1112</v>
       </c>
@@ -31925,7 +32061,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="342" ht="40" hidden="1" spans="2:4">
+    <row r="342" ht="37.5" hidden="1" spans="2:4">
       <c r="B342" s="1" t="s">
         <v>1116</v>
       </c>
@@ -31936,7 +32072,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="343" ht="40" hidden="1" spans="2:4">
+    <row r="343" ht="37.5" hidden="1" spans="2:4">
       <c r="B343" s="1" t="s">
         <v>1119</v>
       </c>
@@ -31958,7 +32094,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="345" ht="40" hidden="1" spans="2:4">
+    <row r="345" ht="37.5" hidden="1" spans="2:4">
       <c r="B345" s="1" t="s">
         <v>1125</v>
       </c>
@@ -31980,7 +32116,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="347" ht="24" hidden="1" spans="2:4">
+    <row r="347" hidden="1" spans="2:4">
       <c r="B347" s="1" t="s">
         <v>1131</v>
       </c>
@@ -32019,7 +32155,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="350" ht="24" hidden="1" spans="2:4">
+    <row r="350" hidden="1" spans="2:4">
       <c r="B350" s="1" t="s">
         <v>1141</v>
       </c>
@@ -32041,7 +32177,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="352" ht="24" hidden="1" spans="2:4">
+    <row r="352" hidden="1" spans="2:4">
       <c r="B352" s="1" t="s">
         <v>1147</v>
       </c>
@@ -32121,7 +32257,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="359" ht="40" hidden="1" spans="2:4">
+    <row r="359" ht="37.5" hidden="1" spans="2:4">
       <c r="B359" s="1" t="s">
         <v>1169</v>
       </c>
@@ -32132,7 +32268,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="360" ht="23" hidden="1" spans="2:4">
+    <row r="360" ht="37.5" hidden="1" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>1172</v>
       </c>
@@ -32143,7 +32279,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="361" ht="24" hidden="1" spans="2:4">
+    <row r="361" hidden="1" spans="2:4">
       <c r="B361" s="1" t="s">
         <v>1175</v>
       </c>
@@ -32154,7 +32290,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="362" ht="40" hidden="1" spans="2:5">
+    <row r="362" ht="37.5" hidden="1" spans="2:5">
       <c r="B362" s="1" t="s">
         <v>1178</v>
       </c>
@@ -32193,7 +32329,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="365" ht="40" hidden="1" spans="2:5">
+    <row r="365" ht="37.5" hidden="1" spans="2:5">
       <c r="B365" s="1" t="s">
         <v>1189</v>
       </c>
@@ -32218,7 +32354,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="367" ht="40" hidden="1" spans="2:5">
+    <row r="367" ht="37.5" hidden="1" spans="2:5">
       <c r="B367" s="1" t="s">
         <v>1196</v>
       </c>
@@ -32243,7 +32379,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="369" ht="40" hidden="1" spans="2:4">
+    <row r="369" ht="37.5" hidden="1" spans="2:4">
       <c r="B369" s="1" t="s">
         <v>1203</v>
       </c>
@@ -32282,7 +32418,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="372" ht="24" hidden="1" spans="2:5">
+    <row r="372" hidden="1" spans="2:5">
       <c r="B372" s="1" t="s">
         <v>1214</v>
       </c>
@@ -32296,7 +32432,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="373" ht="40" hidden="1" spans="2:4">
+    <row r="373" ht="37.5" hidden="1" spans="2:4">
       <c r="B373" s="1" t="s">
         <v>1218</v>
       </c>
@@ -32307,7 +32443,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="374" ht="40" hidden="1" spans="2:4">
+    <row r="374" ht="37.5" hidden="1" spans="2:4">
       <c r="B374" s="1" t="s">
         <v>1221</v>
       </c>
@@ -32318,7 +32454,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="375" ht="60" hidden="1" spans="2:4">
+    <row r="375" ht="56.25" hidden="1" spans="2:4">
       <c r="B375" s="1" t="s">
         <v>1224</v>
       </c>
@@ -32329,7 +32465,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="376" ht="24" hidden="1" spans="2:4">
+    <row r="376" hidden="1" spans="2:4">
       <c r="B376" s="1" t="s">
         <v>1227</v>
       </c>
@@ -32384,7 +32520,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="381" ht="40" hidden="1" spans="2:4">
+    <row r="381" ht="37.5" hidden="1" spans="2:4">
       <c r="B381" s="1" t="s">
         <v>1242</v>
       </c>
@@ -32395,7 +32531,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="382" ht="40" hidden="1" spans="2:4">
+    <row r="382" ht="37.5" hidden="1" spans="2:4">
       <c r="B382" s="1" t="s">
         <v>1245</v>
       </c>
@@ -32406,7 +32542,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="383" ht="40" hidden="1" spans="2:4">
+    <row r="383" ht="37.5" hidden="1" spans="2:4">
       <c r="B383" s="1" t="s">
         <v>1248</v>
       </c>
@@ -32439,7 +32575,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="386" ht="40" hidden="1" spans="2:4">
+    <row r="386" ht="37.5" hidden="1" spans="2:4">
       <c r="B386" s="1" t="s">
         <v>1257</v>
       </c>
@@ -32450,7 +32586,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="387" ht="40" hidden="1" spans="2:4">
+    <row r="387" ht="37.5" hidden="1" spans="2:4">
       <c r="B387" s="1" t="s">
         <v>1260</v>
       </c>
@@ -32461,7 +32597,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="388" ht="23" hidden="1" spans="2:4">
+    <row r="388" hidden="1" spans="2:4">
       <c r="B388" s="1" t="s">
         <v>1263</v>
       </c>
@@ -32530,7 +32666,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="394" ht="24" hidden="1" spans="2:4">
+    <row r="394" hidden="1" spans="2:4">
       <c r="B394" s="1" t="s">
         <v>1282</v>
       </c>
@@ -32585,7 +32721,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="399" ht="40" hidden="1" spans="2:5">
+    <row r="399" ht="37.5" hidden="1" spans="2:5">
       <c r="B399" s="1" t="s">
         <v>1296</v>
       </c>
@@ -32610,7 +32746,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="401" ht="200" hidden="1" spans="2:5">
+    <row r="401" ht="168.75" hidden="1" spans="2:5">
       <c r="B401" s="1" t="s">
         <v>1303</v>
       </c>
@@ -32635,7 +32771,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="403" ht="23" hidden="1" spans="2:5">
+    <row r="403" hidden="1" spans="2:5">
       <c r="B403" s="1" t="s">
         <v>1310</v>
       </c>
@@ -32649,7 +32785,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="404" ht="24" hidden="1" spans="2:4">
+    <row r="404" hidden="1" spans="2:4">
       <c r="B404" s="1" t="s">
         <v>1314</v>
       </c>
@@ -32660,7 +32796,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="405" ht="134" hidden="1" spans="2:5">
+    <row r="405" ht="112.5" hidden="1" spans="2:5">
       <c r="B405" s="1" t="s">
         <v>1317</v>
       </c>
@@ -32674,7 +32810,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="406" ht="40" hidden="1" spans="2:4">
+    <row r="406" ht="37.5" hidden="1" spans="2:4">
       <c r="B406" s="1" t="s">
         <v>1321</v>
       </c>
@@ -32685,7 +32821,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="407" ht="24" hidden="1" spans="2:5">
+    <row r="407" hidden="1" spans="2:5">
       <c r="B407" s="1" t="s">
         <v>1324</v>
       </c>
@@ -32721,7 +32857,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="410" ht="23" hidden="1" spans="2:4">
+    <row r="410" hidden="1" spans="2:4">
       <c r="B410" s="1" t="s">
         <v>1334</v>
       </c>
@@ -32732,7 +32868,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="411" ht="40" hidden="1" spans="2:4">
+    <row r="411" ht="37.5" hidden="1" spans="2:4">
       <c r="B411" s="1" t="s">
         <v>1337</v>
       </c>
@@ -32743,7 +32879,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="412" ht="40" hidden="1" spans="2:4">
+    <row r="412" ht="37.5" hidden="1" spans="2:4">
       <c r="B412" s="1" t="s">
         <v>1340</v>
       </c>
@@ -32754,7 +32890,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="413" ht="40" hidden="1" spans="2:4">
+    <row r="413" ht="37.5" hidden="1" spans="2:4">
       <c r="B413" s="1" t="s">
         <v>1343</v>
       </c>
@@ -32776,7 +32912,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="415" ht="24" hidden="1" spans="2:5">
+    <row r="415" hidden="1" spans="2:5">
       <c r="B415" s="1" t="s">
         <v>1349</v>
       </c>
@@ -32801,7 +32937,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="417" ht="24" hidden="1" spans="2:4">
+    <row r="417" hidden="1" spans="2:4">
       <c r="B417" s="1" t="s">
         <v>1356</v>
       </c>
@@ -32812,7 +32948,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="418" ht="40" hidden="1" spans="2:5">
+    <row r="418" ht="37.5" hidden="1" spans="2:5">
       <c r="B418" s="1" t="s">
         <v>1359</v>
       </c>
@@ -32826,7 +32962,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="419" ht="40" hidden="1" spans="2:5">
+    <row r="419" ht="37.5" hidden="1" spans="2:5">
       <c r="B419" s="1" t="s">
         <v>1363</v>
       </c>
@@ -32851,7 +32987,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="421" ht="24" hidden="1" spans="2:4">
+    <row r="421" hidden="1" spans="2:4">
       <c r="B421" s="1" t="s">
         <v>1370</v>
       </c>
@@ -32862,7 +32998,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="422" ht="23" hidden="1" spans="2:4">
+    <row r="422" hidden="1" spans="2:4">
       <c r="B422" s="1" t="s">
         <v>1373</v>
       </c>
@@ -32873,7 +33009,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="423" ht="24" hidden="1" spans="2:4">
+    <row r="423" hidden="1" spans="2:4">
       <c r="B423" s="1" t="s">
         <v>1376</v>
       </c>
@@ -32884,7 +33020,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="424" ht="24" hidden="1" spans="2:4">
+    <row r="424" hidden="1" spans="2:4">
       <c r="B424" s="1" t="s">
         <v>1379</v>
       </c>
@@ -32895,7 +33031,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="425" ht="24" hidden="1" spans="2:4">
+    <row r="425" hidden="1" spans="2:4">
       <c r="B425" s="1" t="s">
         <v>1382</v>
       </c>
@@ -32906,7 +33042,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="426" ht="24" hidden="1" spans="2:4">
+    <row r="426" hidden="1" spans="2:4">
       <c r="B426" s="1" t="s">
         <v>1385</v>
       </c>
@@ -32917,7 +33053,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="427" ht="23" hidden="1" spans="2:5">
+    <row r="427" hidden="1" spans="2:5">
       <c r="B427" s="1" t="s">
         <v>1388</v>
       </c>
@@ -32931,7 +33067,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="428" ht="40" hidden="1" spans="2:4">
+    <row r="428" ht="37.5" hidden="1" spans="2:4">
       <c r="B428" s="1" t="s">
         <v>1392</v>
       </c>
@@ -32953,7 +33089,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="430" ht="23" hidden="1" spans="2:4">
+    <row r="430" hidden="1" spans="2:4">
       <c r="B430" s="1" t="s">
         <v>1398</v>
       </c>
@@ -32986,7 +33122,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="433" ht="24" hidden="1" spans="2:4">
+    <row r="433" hidden="1" spans="2:4">
       <c r="B433" s="1" t="s">
         <v>1407</v>
       </c>
@@ -32997,7 +33133,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="434" ht="40" hidden="1" spans="2:4">
+    <row r="434" ht="37.5" hidden="1" spans="2:4">
       <c r="B434" s="1" t="s">
         <v>1410</v>
       </c>
@@ -33008,7 +33144,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="435" ht="24" hidden="1" spans="2:4">
+    <row r="435" hidden="1" spans="2:4">
       <c r="B435" s="1" t="s">
         <v>1413</v>
       </c>
@@ -33052,7 +33188,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="439" ht="40" hidden="1" spans="2:4">
+    <row r="439" ht="37.5" hidden="1" spans="2:4">
       <c r="B439" s="1" t="s">
         <v>1425</v>
       </c>
@@ -33063,7 +33199,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="440" ht="40" hidden="1" spans="2:4">
+    <row r="440" ht="37.5" hidden="1" spans="2:4">
       <c r="B440" s="1" t="s">
         <v>1428</v>
       </c>
@@ -33074,7 +33210,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="441" ht="24" hidden="1" spans="2:4">
+    <row r="441" hidden="1" spans="2:4">
       <c r="B441" s="1" t="s">
         <v>1431</v>
       </c>
@@ -33099,7 +33235,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="443" ht="24" hidden="1" spans="2:4">
+    <row r="443" hidden="1" spans="2:4">
       <c r="B443" s="1" t="s">
         <v>1438</v>
       </c>
@@ -33121,7 +33257,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="445" ht="40" hidden="1" spans="2:4">
+    <row r="445" ht="37.5" hidden="1" spans="2:4">
       <c r="B445" s="1" t="s">
         <v>1444</v>
       </c>
@@ -33157,7 +33293,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="448" ht="40" hidden="1" spans="2:4">
+    <row r="448" ht="37.5" hidden="1" spans="2:4">
       <c r="B448" s="1" t="s">
         <v>1454</v>
       </c>
@@ -33168,7 +33304,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="449" ht="23" hidden="1" spans="2:4">
+    <row r="449" hidden="1" spans="2:4">
       <c r="B449" s="1" t="s">
         <v>1457</v>
       </c>
@@ -33190,7 +33326,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="451" ht="24" hidden="1" spans="2:4">
+    <row r="451" hidden="1" spans="2:4">
       <c r="B451" s="1" t="s">
         <v>1463</v>
       </c>
@@ -33201,7 +33337,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="452" ht="24" hidden="1" spans="2:4">
+    <row r="452" hidden="1" spans="2:4">
       <c r="B452" s="1" t="s">
         <v>1466</v>
       </c>
@@ -33223,7 +33359,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="454" ht="24" hidden="1" spans="2:4">
+    <row r="454" hidden="1" spans="2:4">
       <c r="B454" s="1" t="s">
         <v>1472</v>
       </c>
@@ -33245,7 +33381,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="456" ht="24" hidden="1" spans="2:4">
+    <row r="456" hidden="1" spans="2:4">
       <c r="B456" s="1" t="s">
         <v>1478</v>
       </c>
@@ -33278,7 +33414,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="459" ht="40" hidden="1" spans="2:4">
+    <row r="459" ht="37.5" hidden="1" spans="2:4">
       <c r="B459" s="1" t="s">
         <v>1487</v>
       </c>
@@ -33300,7 +33436,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="461" ht="24" hidden="1" spans="2:4">
+    <row r="461" hidden="1" spans="2:4">
       <c r="B461" s="1" t="s">
         <v>1493</v>
       </c>
@@ -33322,7 +33458,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="463" ht="23" hidden="1" spans="2:4">
+    <row r="463" hidden="1" spans="2:4">
       <c r="B463" s="1" t="s">
         <v>1499</v>
       </c>
@@ -33333,7 +33469,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="464" ht="40" hidden="1" spans="2:4">
+    <row r="464" ht="37.5" hidden="1" spans="2:4">
       <c r="B464" s="1" t="s">
         <v>1502</v>
       </c>
@@ -33377,7 +33513,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="468" ht="40" hidden="1" spans="2:4">
+    <row r="468" ht="37.5" hidden="1" spans="2:4">
       <c r="B468" s="1" t="s">
         <v>1514</v>
       </c>
@@ -33454,7 +33590,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="475" ht="24" hidden="1" spans="2:4">
+    <row r="475" hidden="1" spans="2:4">
       <c r="B475" s="1" t="s">
         <v>1535</v>
       </c>
@@ -33476,7 +33612,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="477" ht="24" hidden="1" spans="2:4">
+    <row r="477" hidden="1" spans="2:4">
       <c r="B477" s="1" t="s">
         <v>1540</v>
       </c>
@@ -33487,7 +33623,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="478" ht="24" hidden="1" spans="2:4">
+    <row r="478" hidden="1" spans="2:4">
       <c r="B478" s="1" t="s">
         <v>1543</v>
       </c>
@@ -33498,7 +33634,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="479" ht="24" hidden="1" spans="2:4">
+    <row r="479" hidden="1" spans="2:4">
       <c r="B479" s="1" t="s">
         <v>1546</v>
       </c>
@@ -33509,7 +33645,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="480" ht="24" hidden="1" spans="2:4">
+    <row r="480" hidden="1" spans="2:4">
       <c r="B480" s="1" t="s">
         <v>1549</v>
       </c>
@@ -33520,7 +33656,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="481" ht="24" hidden="1" spans="2:4">
+    <row r="481" hidden="1" spans="2:4">
       <c r="B481" s="1" t="s">
         <v>1552</v>
       </c>
@@ -33531,7 +33667,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="482" ht="23" hidden="1" spans="2:4">
+    <row r="482" hidden="1" spans="2:4">
       <c r="B482" s="1" t="s">
         <v>1555</v>
       </c>
@@ -33553,7 +33689,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="484" ht="24" hidden="1" spans="2:4">
+    <row r="484" hidden="1" spans="2:4">
       <c r="B484" s="1" t="s">
         <v>1561</v>
       </c>
@@ -33564,7 +33700,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="485" ht="24" hidden="1" spans="2:4">
+    <row r="485" hidden="1" spans="2:4">
       <c r="B485" s="1" t="s">
         <v>1564</v>
       </c>
@@ -33575,7 +33711,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="486" ht="23" hidden="1" spans="2:4">
+    <row r="486" hidden="1" spans="2:4">
       <c r="B486" s="1" t="s">
         <v>1567</v>
       </c>
@@ -33586,7 +33722,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="487" ht="58" hidden="1" spans="2:5">
+    <row r="487" ht="37.5" hidden="1" spans="2:5">
       <c r="B487" s="1" t="s">
         <v>1570</v>
       </c>
@@ -33614,7 +33750,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="489" ht="40" hidden="1" spans="2:4">
+    <row r="489" ht="37.5" hidden="1" spans="2:4">
       <c r="B489" s="1" t="s">
         <v>1578</v>
       </c>
@@ -33625,7 +33761,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="490" ht="60" hidden="1" spans="2:5">
+    <row r="490" ht="56.25" hidden="1" spans="2:5">
       <c r="B490" s="1" t="s">
         <v>1581</v>
       </c>
@@ -33650,7 +33786,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="492" ht="40" hidden="1" spans="2:4">
+    <row r="492" ht="37.5" hidden="1" spans="2:4">
       <c r="B492" s="1" t="s">
         <v>1588</v>
       </c>
@@ -33661,7 +33797,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="493" ht="40" hidden="1" spans="2:4">
+    <row r="493" ht="37.5" hidden="1" spans="2:4">
       <c r="B493" s="1" t="s">
         <v>1591</v>
       </c>
@@ -33672,7 +33808,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="494" ht="40" hidden="1" spans="2:4">
+    <row r="494" ht="37.5" hidden="1" spans="2:4">
       <c r="B494" s="1" t="s">
         <v>1594</v>
       </c>
@@ -33683,7 +33819,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="495" ht="40" hidden="1" spans="2:4">
+    <row r="495" ht="37.5" hidden="1" spans="2:4">
       <c r="B495" s="1" t="s">
         <v>1597</v>
       </c>
@@ -33694,7 +33830,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="496" ht="40" hidden="1" spans="2:4">
+    <row r="496" ht="37.5" hidden="1" spans="2:4">
       <c r="B496" s="1" t="s">
         <v>1600</v>
       </c>
@@ -33716,7 +33852,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="498" ht="40" hidden="1" spans="2:5">
+    <row r="498" ht="37.5" hidden="1" spans="2:5">
       <c r="B498" s="1" t="s">
         <v>1606</v>
       </c>
@@ -33730,7 +33866,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="499" ht="24" hidden="1" spans="2:4">
+    <row r="499" hidden="1" spans="2:4">
       <c r="B499" s="1" t="s">
         <v>1610</v>
       </c>
@@ -33741,7 +33877,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="500" ht="40" hidden="1" spans="2:5">
+    <row r="500" ht="37.5" hidden="1" spans="2:5">
       <c r="B500" s="1" t="s">
         <v>1613</v>
       </c>
@@ -33755,7 +33891,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="501" ht="40" hidden="1" spans="2:4">
+    <row r="501" ht="37.5" hidden="1" spans="2:4">
       <c r="B501" s="1" t="s">
         <v>1617</v>
       </c>
@@ -33766,7 +33902,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="502" ht="40" hidden="1" spans="2:4">
+    <row r="502" ht="37.5" hidden="1" spans="2:4">
       <c r="B502" s="1" t="s">
         <v>1620</v>
       </c>
@@ -33788,7 +33924,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="504" ht="23" hidden="1" spans="2:4">
+    <row r="504" hidden="1" spans="2:4">
       <c r="B504" s="1" t="s">
         <v>1626</v>
       </c>
@@ -33799,7 +33935,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="505" ht="40" hidden="1" spans="2:5">
+    <row r="505" ht="37.5" hidden="1" spans="2:5">
       <c r="B505" s="1" t="s">
         <v>1629</v>
       </c>
@@ -33813,7 +33949,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="506" ht="40" hidden="1" spans="2:4">
+    <row r="506" ht="37.5" hidden="1" spans="2:4">
       <c r="B506" s="1" t="s">
         <v>1633</v>
       </c>
@@ -33838,7 +33974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" ht="60" hidden="1" spans="2:5">
+    <row r="508" ht="37.5" hidden="1" spans="2:5">
       <c r="B508" s="1" t="s">
         <v>1639</v>
       </c>
@@ -33863,7 +33999,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="510" ht="23" hidden="1" spans="2:4">
+    <row r="510" hidden="1" spans="2:4">
       <c r="B510" s="1" t="s">
         <v>1646</v>
       </c>
@@ -33874,7 +34010,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="511" ht="40" hidden="1" spans="2:5">
+    <row r="511" ht="37.5" hidden="1" spans="2:5">
       <c r="B511" s="1" t="s">
         <v>1649</v>
       </c>
@@ -33902,7 +34038,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="513" ht="40" hidden="1" spans="2:4">
+    <row r="513" ht="37.5" hidden="1" spans="2:4">
       <c r="B513" s="1" t="s">
         <v>1657</v>
       </c>
@@ -33913,7 +34049,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="514" ht="40" hidden="1" spans="2:4">
+    <row r="514" ht="37.5" hidden="1" spans="2:4">
       <c r="B514" s="1" t="s">
         <v>1660</v>
       </c>
@@ -33924,7 +34060,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="515" ht="40" hidden="1" spans="2:4">
+    <row r="515" ht="37.5" hidden="1" spans="2:4">
       <c r="B515" s="1" t="s">
         <v>1663</v>
       </c>
@@ -33935,7 +34071,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="516" ht="40" hidden="1" spans="2:4">
+    <row r="516" ht="37.5" hidden="1" spans="2:4">
       <c r="B516" s="1" t="s">
         <v>1666</v>
       </c>
@@ -33946,7 +34082,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="517" ht="40" hidden="1" spans="2:4">
+    <row r="517" ht="37.5" hidden="1" spans="2:4">
       <c r="B517" s="1" t="s">
         <v>1669</v>
       </c>
@@ -33957,7 +34093,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="518" ht="40" hidden="1" spans="2:4">
+    <row r="518" ht="37.5" hidden="1" spans="2:4">
       <c r="B518" s="1" t="s">
         <v>1672</v>
       </c>
@@ -33968,7 +34104,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="519" ht="40" hidden="1" spans="2:4">
+    <row r="519" ht="37.5" hidden="1" spans="2:4">
       <c r="B519" s="1" t="s">
         <v>1675</v>
       </c>
@@ -33979,7 +34115,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="520" ht="60" hidden="1" spans="2:5">
+    <row r="520" ht="56.25" hidden="1" spans="2:5">
       <c r="B520" s="1" t="s">
         <v>1678</v>
       </c>
@@ -33993,7 +34129,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="521" ht="44" hidden="1" spans="2:5">
+    <row r="521" ht="37.5" hidden="1" spans="2:5">
       <c r="B521" s="1" t="s">
         <v>1682</v>
       </c>
@@ -34007,7 +34143,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="522" ht="40" hidden="1" spans="2:4">
+    <row r="522" ht="37.5" hidden="1" spans="2:4">
       <c r="B522" s="1" t="s">
         <v>1686</v>
       </c>
@@ -34018,7 +34154,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="523" ht="24" hidden="1" spans="2:4">
+    <row r="523" hidden="1" spans="2:4">
       <c r="B523" s="1" t="s">
         <v>1689</v>
       </c>
@@ -34029,7 +34165,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="524" ht="40" hidden="1" spans="2:4">
+    <row r="524" ht="37.5" hidden="1" spans="2:4">
       <c r="B524" s="1" t="s">
         <v>1692</v>
       </c>
@@ -34051,7 +34187,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="526" ht="40" hidden="1" spans="2:4">
+    <row r="526" ht="37.5" hidden="1" spans="2:4">
       <c r="B526" s="1" t="s">
         <v>1698</v>
       </c>
@@ -34062,7 +34198,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="527" ht="24" hidden="1" spans="2:4">
+    <row r="527" hidden="1" spans="2:4">
       <c r="B527" s="1" t="s">
         <v>1701</v>
       </c>
@@ -34095,7 +34231,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="530" ht="40" hidden="1" spans="2:4">
+    <row r="530" ht="37.5" hidden="1" spans="2:4">
       <c r="B530" s="1" t="s">
         <v>1710</v>
       </c>
@@ -34106,7 +34242,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="531" ht="40" hidden="1" spans="2:4">
+    <row r="531" ht="37.5" hidden="1" spans="2:4">
       <c r="B531" s="1" t="s">
         <v>1713</v>
       </c>
@@ -34117,7 +34253,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="532" ht="40" hidden="1" spans="2:4">
+    <row r="532" ht="37.5" hidden="1" spans="2:4">
       <c r="B532" s="1" t="s">
         <v>1716</v>
       </c>
@@ -34128,7 +34264,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="533" ht="40" hidden="1" spans="2:4">
+    <row r="533" ht="37.5" hidden="1" spans="2:4">
       <c r="B533" s="1" t="s">
         <v>1719</v>
       </c>
@@ -34139,7 +34275,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="534" ht="80" hidden="1" spans="2:5">
+    <row r="534" ht="75" hidden="1" spans="2:5">
       <c r="B534" s="1" t="s">
         <v>1722</v>
       </c>
@@ -34164,7 +34300,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="536" ht="40" hidden="1" spans="2:5">
+    <row r="536" ht="37.5" hidden="1" spans="2:5">
       <c r="B536" s="1" t="s">
         <v>1729</v>
       </c>
@@ -34178,7 +34314,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="537" ht="24" hidden="1" spans="2:4">
+    <row r="537" hidden="1" spans="2:4">
       <c r="B537" s="1" t="s">
         <v>1733</v>
       </c>
@@ -34200,7 +34336,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="539" ht="24" hidden="1" spans="2:4">
+    <row r="539" hidden="1" spans="2:4">
       <c r="B539" s="1" t="s">
         <v>1739</v>
       </c>
@@ -34261,7 +34397,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="544" ht="40" hidden="1" spans="2:4">
+    <row r="544" ht="37.5" hidden="1" spans="2:4">
       <c r="B544" s="1" t="s">
         <v>1756</v>
       </c>
@@ -34272,7 +34408,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="545" ht="23" hidden="1" spans="2:4">
+    <row r="545" hidden="1" spans="2:4">
       <c r="B545" s="1" t="s">
         <v>1759</v>
       </c>
@@ -34283,7 +34419,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="546" ht="40" hidden="1" spans="2:5">
+    <row r="546" hidden="1" spans="2:5">
       <c r="B546" s="1" t="s">
         <v>1762</v>
       </c>
@@ -34311,7 +34447,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="548" ht="40" hidden="1" spans="2:5">
+    <row r="548" ht="37.5" hidden="1" spans="2:5">
       <c r="B548" s="1" t="s">
         <v>1770</v>
       </c>
@@ -34325,7 +34461,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="549" ht="24" hidden="1" spans="2:4">
+    <row r="549" hidden="1" spans="2:4">
       <c r="B549" s="1" t="s">
         <v>1774</v>
       </c>
@@ -34336,7 +34472,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="550" ht="40" hidden="1" spans="2:4">
+    <row r="550" ht="37.5" hidden="1" spans="2:4">
       <c r="B550" s="1" t="s">
         <v>1777</v>
       </c>
@@ -34358,7 +34494,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="552" ht="40" hidden="1" spans="2:4">
+    <row r="552" ht="37.5" hidden="1" spans="2:4">
       <c r="B552" s="1" t="s">
         <v>1783</v>
       </c>
@@ -34369,7 +34505,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="553" ht="40" hidden="1" spans="2:4">
+    <row r="553" ht="37.5" hidden="1" spans="2:4">
       <c r="B553" s="1" t="s">
         <v>1786</v>
       </c>
@@ -34391,7 +34527,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="555" ht="24" hidden="1" spans="2:4">
+    <row r="555" hidden="1" spans="2:4">
       <c r="B555" s="1" t="s">
         <v>1792</v>
       </c>
@@ -34413,7 +34549,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="557" ht="24" hidden="1" spans="2:4">
+    <row r="557" hidden="1" spans="2:4">
       <c r="B557" s="1" t="s">
         <v>1798</v>
       </c>
@@ -34424,7 +34560,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="558" ht="40" hidden="1" spans="2:4">
+    <row r="558" ht="37.5" hidden="1" spans="2:4">
       <c r="B558" s="1" t="s">
         <v>1801</v>
       </c>
@@ -34435,7 +34571,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="559" ht="24" hidden="1" spans="2:5">
+    <row r="559" hidden="1" spans="2:5">
       <c r="B559" s="1" t="s">
         <v>1804</v>
       </c>
@@ -34449,7 +34585,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="560" ht="24" hidden="1" spans="2:4">
+    <row r="560" hidden="1" spans="2:4">
       <c r="B560" s="1" t="s">
         <v>1808</v>
       </c>
@@ -34499,7 +34635,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="564" ht="40" hidden="1" spans="2:4">
+    <row r="564" ht="37.5" hidden="1" spans="2:4">
       <c r="B564" s="1" t="s">
         <v>1822</v>
       </c>
@@ -34510,7 +34646,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="565" ht="24" hidden="1" spans="2:4">
+    <row r="565" hidden="1" spans="2:4">
       <c r="B565" s="1" t="s">
         <v>1825</v>
       </c>
@@ -34521,7 +34657,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="566" ht="100" hidden="1" spans="2:5">
+    <row r="566" ht="75" hidden="1" spans="2:5">
       <c r="B566" s="1" t="s">
         <v>1828</v>
       </c>
@@ -34574,7 +34710,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="570" ht="40" hidden="1" spans="2:4">
+    <row r="570" ht="37.5" hidden="1" spans="2:4">
       <c r="B570" s="1" t="s">
         <v>1843</v>
       </c>
@@ -34585,7 +34721,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="571" ht="24" hidden="1" spans="2:4">
+    <row r="571" hidden="1" spans="2:4">
       <c r="B571" s="1" t="s">
         <v>1846</v>
       </c>
@@ -34596,7 +34732,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="572" ht="23" hidden="1" spans="2:4">
+    <row r="572" hidden="1" spans="2:4">
       <c r="B572" s="1" t="s">
         <v>1849</v>
       </c>
@@ -34621,7 +34757,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="574" ht="23" hidden="1" spans="2:4">
+    <row r="574" hidden="1" spans="2:4">
       <c r="B574" s="1" t="s">
         <v>1856</v>
       </c>
@@ -34632,7 +34768,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="575" ht="44" hidden="1" spans="2:4">
+    <row r="575" ht="37.5" hidden="1" spans="2:4">
       <c r="B575" s="1" t="s">
         <v>1859</v>
       </c>
@@ -34643,7 +34779,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="576" ht="24" hidden="1" spans="2:4">
+    <row r="576" hidden="1" spans="2:4">
       <c r="B576" s="1" t="s">
         <v>1862</v>
       </c>
@@ -34654,7 +34790,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="577" ht="24" hidden="1" spans="2:4">
+    <row r="577" hidden="1" spans="2:4">
       <c r="B577" s="1" t="s">
         <v>1865</v>
       </c>
@@ -34676,7 +34812,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="579" ht="24" hidden="1" spans="2:4">
+    <row r="579" hidden="1" spans="2:4">
       <c r="B579" s="1" t="s">
         <v>1871</v>
       </c>
@@ -34687,7 +34823,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="580" ht="40" hidden="1" spans="2:4">
+    <row r="580" ht="37.5" hidden="1" spans="2:4">
       <c r="B580" s="1" t="s">
         <v>1874</v>
       </c>
@@ -34709,7 +34845,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="582" ht="24" hidden="1" spans="2:4">
+    <row r="582" hidden="1" spans="2:4">
       <c r="B582" s="1" t="s">
         <v>1880</v>
       </c>
@@ -34778,7 +34914,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="588" ht="24" hidden="1" spans="2:4">
+    <row r="588" hidden="1" spans="2:4">
       <c r="B588" s="1" t="s">
         <v>1899</v>
       </c>
@@ -34800,7 +34936,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="590" ht="40" hidden="1" spans="2:4">
+    <row r="590" ht="37.5" hidden="1" spans="2:4">
       <c r="B590" s="1" t="s">
         <v>1905</v>
       </c>
@@ -34833,7 +34969,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="593" ht="40" hidden="1" spans="2:5">
+    <row r="593" ht="37.5" hidden="1" spans="2:5">
       <c r="B593" s="1" t="s">
         <v>1914</v>
       </c>
@@ -34894,7 +35030,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="598" ht="40" hidden="1" spans="2:5">
+    <row r="598" ht="37.5" hidden="1" spans="2:5">
       <c r="B598" s="1" t="s">
         <v>1931</v>
       </c>
@@ -34919,7 +35055,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="600" ht="24" hidden="1" spans="2:4">
+    <row r="600" hidden="1" spans="2:4">
       <c r="B600" s="1" t="s">
         <v>1938</v>
       </c>
@@ -34930,7 +35066,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="601" ht="24" hidden="1" spans="2:4">
+    <row r="601" hidden="1" spans="2:4">
       <c r="B601" s="1" t="s">
         <v>1941</v>
       </c>
@@ -34966,7 +35102,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="604" ht="24" hidden="1" spans="2:5">
+    <row r="604" hidden="1" spans="2:5">
       <c r="B604" s="1" t="s">
         <v>1951</v>
       </c>
@@ -34991,7 +35127,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="606" ht="24" hidden="1" spans="2:4">
+    <row r="606" hidden="1" spans="2:4">
       <c r="B606" s="1" t="s">
         <v>1958</v>
       </c>
@@ -35002,7 +35138,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="607" ht="24" hidden="1" spans="2:5">
+    <row r="607" hidden="1" spans="2:5">
       <c r="B607" s="1" t="s">
         <v>1961</v>
       </c>
@@ -35016,7 +35152,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="608" ht="24" hidden="1" spans="2:5">
+    <row r="608" hidden="1" spans="2:5">
       <c r="B608" s="1" t="s">
         <v>1965</v>
       </c>
@@ -35030,7 +35166,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="609" ht="40" hidden="1" spans="2:5">
+    <row r="609" ht="37.5" hidden="1" spans="2:5">
       <c r="B609" s="1" t="s">
         <v>1968</v>
       </c>
@@ -35055,7 +35191,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="611" ht="24" hidden="1" spans="2:5">
+    <row r="611" hidden="1" spans="2:5">
       <c r="B611" s="1" t="s">
         <v>1975</v>
       </c>
@@ -35105,7 +35241,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="615" ht="40" hidden="1" spans="2:4">
+    <row r="615" ht="37.5" hidden="1" spans="2:4">
       <c r="B615" s="1" t="s">
         <v>1989</v>
       </c>
@@ -35138,7 +35274,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="618" ht="24" hidden="1" spans="2:4">
+    <row r="618" hidden="1" spans="2:4">
       <c r="B618" s="1" t="s">
         <v>1998</v>
       </c>
@@ -35171,7 +35307,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="621" ht="24" hidden="1" spans="2:4">
+    <row r="621" hidden="1" spans="2:4">
       <c r="B621" s="1" t="s">
         <v>2007</v>
       </c>
@@ -35196,7 +35332,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="623" ht="24" hidden="1" spans="2:4">
+    <row r="623" hidden="1" spans="2:4">
       <c r="B623" s="1" t="s">
         <v>2014</v>
       </c>
@@ -35229,7 +35365,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="626" ht="40" hidden="1" spans="2:4">
+    <row r="626" ht="37.5" hidden="1" spans="2:4">
       <c r="B626" s="1" t="s">
         <v>2023</v>
       </c>
@@ -35262,7 +35398,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="629" ht="23" hidden="1" spans="2:4">
+    <row r="629" hidden="1" spans="2:4">
       <c r="B629" s="1" t="s">
         <v>2032</v>
       </c>
@@ -35273,7 +35409,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="630" ht="40" hidden="1" spans="2:4">
+    <row r="630" ht="37.5" hidden="1" spans="2:4">
       <c r="B630" s="1" t="s">
         <v>2035</v>
       </c>
@@ -35284,7 +35420,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="631" ht="24" hidden="1" spans="2:4">
+    <row r="631" hidden="1" spans="2:4">
       <c r="B631" s="1" t="s">
         <v>2038</v>
       </c>
@@ -35295,7 +35431,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="632" ht="24" hidden="1" spans="2:4">
+    <row r="632" hidden="1" spans="2:4">
       <c r="B632" s="1" t="s">
         <v>2041</v>
       </c>
@@ -35306,7 +35442,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="633" ht="40" hidden="1" spans="2:4">
+    <row r="633" ht="37.5" hidden="1" spans="2:4">
       <c r="B633" s="1" t="s">
         <v>2044</v>
       </c>
@@ -35408,7 +35544,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="642" ht="40" hidden="1" spans="2:4">
+    <row r="642" ht="37.5" hidden="1" spans="2:4">
       <c r="B642" s="1" t="s">
         <v>2072</v>
       </c>
@@ -35419,7 +35555,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="643" ht="40" hidden="1" spans="2:4">
+    <row r="643" ht="37.5" hidden="1" spans="2:4">
       <c r="B643" s="1" t="s">
         <v>2075</v>
       </c>
@@ -35480,7 +35616,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="648" ht="24" hidden="1" spans="2:4">
+    <row r="648" hidden="1" spans="2:4">
       <c r="B648" s="1" t="s">
         <v>2092</v>
       </c>
@@ -35491,7 +35627,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="649" ht="40" hidden="1" spans="2:5">
+    <row r="649" ht="37.5" hidden="1" spans="2:5">
       <c r="B649" s="1" t="s">
         <v>2095</v>
       </c>
@@ -35505,7 +35641,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="650" ht="40" hidden="1" spans="2:4">
+    <row r="650" ht="37.5" hidden="1" spans="2:4">
       <c r="B650" s="1" t="s">
         <v>2099</v>
       </c>
@@ -35527,7 +35663,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="652" ht="24" hidden="1" spans="2:4">
+    <row r="652" hidden="1" spans="2:4">
       <c r="B652" s="1" t="s">
         <v>2105</v>
       </c>
@@ -35538,7 +35674,7 @@
         <v>2107</v>
       </c>
     </row>
-    <row r="653" ht="60" hidden="1" spans="2:5">
+    <row r="653" ht="37.5" hidden="1" spans="2:5">
       <c r="B653" s="1" t="s">
         <v>2108</v>
       </c>
@@ -35552,7 +35688,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="654" ht="23" hidden="1" spans="2:4">
+    <row r="654" hidden="1" spans="2:4">
       <c r="B654" s="1" t="s">
         <v>2112</v>
       </c>
@@ -35563,7 +35699,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="655" ht="40" hidden="1" spans="2:4">
+    <row r="655" ht="37.5" hidden="1" spans="2:4">
       <c r="B655" s="1" t="s">
         <v>2115</v>
       </c>
@@ -35588,7 +35724,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="657" ht="40" hidden="1" spans="2:5">
+    <row r="657" ht="37.5" hidden="1" spans="2:5">
       <c r="B657" s="1" t="s">
         <v>2121</v>
       </c>
@@ -35616,7 +35752,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="659" ht="24" hidden="1" spans="2:5">
+    <row r="659" hidden="1" spans="2:5">
       <c r="B659" s="1" t="s">
         <v>2127</v>
       </c>
@@ -35630,7 +35766,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="660" ht="24" hidden="1" spans="2:4">
+    <row r="660" hidden="1" spans="2:4">
       <c r="B660" s="1" t="s">
         <v>2131</v>
       </c>
@@ -35721,7 +35857,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="668" ht="24" hidden="1" spans="2:4">
+    <row r="668" hidden="1" spans="2:4">
       <c r="B668" s="1" t="s">
         <v>2156</v>
       </c>
@@ -35732,7 +35868,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="669" ht="40" hidden="1" spans="2:4">
+    <row r="669" ht="37.5" hidden="1" spans="2:4">
       <c r="B669" s="1" t="s">
         <v>2159</v>
       </c>
@@ -35831,7 +35967,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="678" ht="40" hidden="1" spans="2:5">
+    <row r="678" hidden="1" spans="2:5">
       <c r="B678" s="1" t="s">
         <v>2186</v>
       </c>
@@ -35867,7 +36003,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="681" ht="40" hidden="1" spans="2:4">
+    <row r="681" ht="37.5" hidden="1" spans="2:4">
       <c r="B681" s="1" t="s">
         <v>2195</v>
       </c>
@@ -35878,7 +36014,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="682" ht="23" hidden="1" spans="2:4">
+    <row r="682" hidden="1" spans="2:4">
       <c r="B682" s="1" t="s">
         <v>2198</v>
       </c>
@@ -35903,7 +36039,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="684" ht="40" hidden="1" spans="2:5">
+    <row r="684" ht="37.5" hidden="1" spans="2:5">
       <c r="B684" s="1" t="s">
         <v>2205</v>
       </c>
@@ -35931,7 +36067,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="686" ht="140" hidden="1" spans="2:5">
+    <row r="686" ht="112.5" hidden="1" spans="2:5">
       <c r="B686" s="1" t="s">
         <v>2213</v>
       </c>
@@ -35959,7 +36095,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="688" ht="24" hidden="1" spans="2:4">
+    <row r="688" hidden="1" spans="2:4">
       <c r="B688" s="1" t="s">
         <v>2221</v>
       </c>
@@ -35981,7 +36117,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="690" ht="40" hidden="1" spans="2:4">
+    <row r="690" ht="37.5" hidden="1" spans="2:4">
       <c r="B690" s="1" t="s">
         <v>2227</v>
       </c>
@@ -36014,7 +36150,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="693" ht="23" hidden="1" spans="2:4">
+    <row r="693" hidden="1" spans="2:4">
       <c r="B693" s="1" t="s">
         <v>2236</v>
       </c>
@@ -36047,7 +36183,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="696" ht="23" hidden="1" spans="2:4">
+    <row r="696" hidden="1" spans="2:4">
       <c r="B696" s="1" t="s">
         <v>2245</v>
       </c>
@@ -36058,7 +36194,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="697" ht="24" hidden="1" spans="2:4">
+    <row r="697" hidden="1" spans="2:4">
       <c r="B697" s="1" t="s">
         <v>2248</v>
       </c>
@@ -36091,7 +36227,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="700" ht="40" hidden="1" spans="2:4">
+    <row r="700" ht="37.5" hidden="1" spans="2:4">
       <c r="B700" s="1" t="s">
         <v>2257</v>
       </c>
@@ -36127,7 +36263,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="703" ht="80" hidden="1" spans="2:5">
+    <row r="703" ht="56.25" hidden="1" spans="2:5">
       <c r="B703" s="1" t="s">
         <v>2267</v>
       </c>
@@ -36141,7 +36277,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="704" ht="40" hidden="1" spans="2:4">
+    <row r="704" ht="37.5" hidden="1" spans="2:4">
       <c r="B704" s="1" t="s">
         <v>2271</v>
       </c>
@@ -36152,7 +36288,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="705" ht="24" hidden="1" spans="2:4">
+    <row r="705" hidden="1" spans="2:4">
       <c r="B705" s="1" t="s">
         <v>2274</v>
       </c>
@@ -36199,7 +36335,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="709" ht="24" hidden="1" spans="2:4">
+    <row r="709" hidden="1" spans="2:4">
       <c r="B709" s="1" t="s">
         <v>2287</v>
       </c>
@@ -36257,7 +36393,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="714" ht="24" hidden="1" spans="2:4">
+    <row r="714" hidden="1" spans="2:4">
       <c r="B714" s="1" t="s">
         <v>2303</v>
       </c>
@@ -36268,7 +36404,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="715" ht="40" hidden="1" spans="2:4">
+    <row r="715" ht="37.5" hidden="1" spans="2:4">
       <c r="B715" s="1" t="s">
         <v>2306</v>
       </c>
@@ -36279,7 +36415,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="716" ht="40" hidden="1" spans="2:4">
+    <row r="716" ht="37.5" hidden="1" spans="2:4">
       <c r="B716" s="1" t="s">
         <v>2309</v>
       </c>
@@ -36337,7 +36473,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="721" ht="40" hidden="1" spans="2:4">
+    <row r="721" ht="37.5" hidden="1" spans="2:4">
       <c r="B721" s="1" t="s">
         <v>2325</v>
       </c>
@@ -36348,7 +36484,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="722" ht="23" hidden="1" spans="2:4">
+    <row r="722" hidden="1" spans="2:4">
       <c r="B722" s="1" t="s">
         <v>2328</v>
       </c>
@@ -36439,7 +36575,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="730" ht="40" hidden="1" spans="2:4">
+    <row r="730" ht="37.5" hidden="1" spans="2:4">
       <c r="B730" s="1" t="s">
         <v>2352</v>
       </c>
@@ -36503,7 +36639,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="735" ht="24" hidden="1" spans="2:4">
+    <row r="735" hidden="1" spans="2:4">
       <c r="B735" s="1" t="s">
         <v>2370</v>
       </c>
@@ -36514,7 +36650,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="736" ht="24" hidden="1" spans="2:4">
+    <row r="736" hidden="1" spans="2:4">
       <c r="B736" s="1" t="s">
         <v>2373</v>
       </c>
@@ -36536,7 +36672,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="738" ht="40" hidden="1" spans="2:4">
+    <row r="738" ht="37.5" hidden="1" spans="2:4">
       <c r="B738" s="1" t="s">
         <v>2379</v>
       </c>
@@ -36558,7 +36694,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="740" ht="40" hidden="1" spans="2:5">
+    <row r="740" ht="37.5" hidden="1" spans="2:5">
       <c r="B740" s="1" t="s">
         <v>2385</v>
       </c>
@@ -36572,7 +36708,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="741" ht="40" hidden="1" spans="2:4">
+    <row r="741" ht="37.5" hidden="1" spans="2:4">
       <c r="B741" s="1" t="s">
         <v>2389</v>
       </c>
@@ -36594,7 +36730,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="743" ht="23" hidden="1" spans="2:4">
+    <row r="743" hidden="1" spans="2:4">
       <c r="B743" s="1" t="s">
         <v>2395</v>
       </c>
@@ -36660,7 +36796,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="749" ht="24" hidden="1" spans="2:4">
+    <row r="749" hidden="1" spans="2:4">
       <c r="B749" s="1" t="s">
         <v>2413</v>
       </c>
@@ -36710,7 +36846,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="753" ht="24" hidden="1" spans="2:4">
+    <row r="753" hidden="1" spans="2:4">
       <c r="B753" s="1" t="s">
         <v>2426</v>
       </c>
@@ -36743,7 +36879,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="756" ht="24" hidden="1" spans="2:4">
+    <row r="756" hidden="1" spans="2:4">
       <c r="B756" s="1" t="s">
         <v>2435</v>
       </c>
@@ -36754,7 +36890,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="757" ht="40" hidden="1" spans="2:4">
+    <row r="757" ht="37.5" hidden="1" spans="2:4">
       <c r="B757" s="1" t="s">
         <v>2438</v>
       </c>
@@ -36801,7 +36937,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="761" ht="24" hidden="1" spans="2:4">
+    <row r="761" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2451</v>
       </c>
@@ -36812,7 +36948,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="762" ht="24" hidden="1" spans="2:4">
+    <row r="762" hidden="1" spans="2:4">
       <c r="B762" s="1" t="s">
         <v>2454</v>
       </c>
@@ -36834,7 +36970,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="764" ht="24" hidden="1" spans="2:4">
+    <row r="764" hidden="1" spans="2:4">
       <c r="B764" s="1" t="s">
         <v>2460</v>
       </c>
@@ -36856,7 +36992,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="766" ht="24" hidden="1" spans="2:4">
+    <row r="766" hidden="1" spans="2:4">
       <c r="B766" s="1" t="s">
         <v>2466</v>
       </c>
@@ -36867,7 +37003,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="767" ht="24" hidden="1" spans="2:4">
+    <row r="767" hidden="1" spans="2:4">
       <c r="B767" s="1" t="s">
         <v>2469</v>
       </c>
@@ -36889,7 +37025,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="769" ht="24" hidden="1" spans="2:5">
+    <row r="769" hidden="1" spans="2:5">
       <c r="B769" s="1" t="s">
         <v>2475</v>
       </c>
@@ -36914,7 +37050,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="771" ht="24" hidden="1" spans="2:4">
+    <row r="771" hidden="1" spans="2:4">
       <c r="B771" s="1" t="s">
         <v>2482</v>
       </c>
@@ -36925,7 +37061,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="772" ht="40" hidden="1" spans="2:4">
+    <row r="772" ht="37.5" hidden="1" spans="2:4">
       <c r="B772" s="1" t="s">
         <v>831</v>
       </c>
@@ -36936,7 +37072,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="773" ht="24" hidden="1" spans="2:4">
+    <row r="773" hidden="1" spans="2:4">
       <c r="B773" s="1" t="s">
         <v>2487</v>
       </c>
@@ -36947,7 +37083,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="774" ht="24" hidden="1" spans="2:4">
+    <row r="774" hidden="1" spans="2:4">
       <c r="B774" s="1" t="s">
         <v>2490</v>
       </c>
@@ -36958,7 +37094,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="775" ht="40" hidden="1" spans="2:4">
+    <row r="775" ht="37.5" hidden="1" spans="2:4">
       <c r="B775" s="1" t="s">
         <v>2493</v>
       </c>
@@ -36994,7 +37130,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="778" ht="40" hidden="1" spans="2:4">
+    <row r="778" ht="37.5" hidden="1" spans="2:4">
       <c r="B778" s="1" t="s">
         <v>2503</v>
       </c>
@@ -37093,7 +37229,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="787" ht="140" hidden="1" spans="2:5">
+    <row r="787" ht="131.25" hidden="1" spans="2:5">
       <c r="B787" s="1" t="s">
         <v>2530</v>
       </c>
@@ -37107,7 +37243,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="788" ht="24" hidden="1" spans="2:4">
+    <row r="788" hidden="1" spans="2:4">
       <c r="B788" s="1" t="s">
         <v>2534</v>
       </c>
@@ -37140,7 +37276,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="791" ht="40" hidden="1" spans="2:5">
+    <row r="791" ht="37.5" hidden="1" spans="2:5">
       <c r="B791" s="1" t="s">
         <v>2543</v>
       </c>
@@ -37168,7 +37304,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="793" ht="23" hidden="1" spans="2:4">
+    <row r="793" hidden="1" spans="2:4">
       <c r="B793" s="1" t="s">
         <v>2551</v>
       </c>
@@ -37223,7 +37359,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="798" ht="40" hidden="1" spans="2:4">
+    <row r="798" ht="37.5" hidden="1" spans="2:4">
       <c r="B798" s="1" t="s">
         <v>2566</v>
       </c>
@@ -37245,7 +37381,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="800" ht="140" hidden="1" spans="2:5">
+    <row r="800" ht="112.5" hidden="1" spans="2:5">
       <c r="B800" s="1" t="s">
         <v>2572</v>
       </c>
@@ -37270,7 +37406,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="802" ht="24" hidden="1" spans="2:4">
+    <row r="802" hidden="1" spans="2:4">
       <c r="B802" s="1" t="s">
         <v>2579</v>
       </c>
@@ -37281,7 +37417,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="803" ht="23" hidden="1" spans="2:4">
+    <row r="803" hidden="1" spans="2:4">
       <c r="B803" s="1" t="s">
         <v>2582</v>
       </c>
@@ -37314,7 +37450,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="806" ht="24" hidden="1" spans="2:4">
+    <row r="806" hidden="1" spans="2:4">
       <c r="B806" s="1" t="s">
         <v>2591</v>
       </c>
@@ -37350,7 +37486,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="809" ht="40" hidden="1" spans="2:4">
+    <row r="809" ht="37.5" hidden="1" spans="2:4">
       <c r="B809" s="1" t="s">
         <v>2601</v>
       </c>
@@ -37383,7 +37519,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="812" ht="24" hidden="1" spans="2:4">
+    <row r="812" hidden="1" spans="2:4">
       <c r="B812" s="1" t="s">
         <v>2610</v>
       </c>
@@ -37394,7 +37530,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="813" ht="24" hidden="1" spans="2:4">
+    <row r="813" hidden="1" spans="2:4">
       <c r="B813" s="1" t="s">
         <v>2613</v>
       </c>
@@ -37405,7 +37541,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="814" ht="40" hidden="1" spans="2:5">
+    <row r="814" ht="37.5" hidden="1" spans="2:5">
       <c r="B814" s="1" t="s">
         <v>2616</v>
       </c>
@@ -37466,7 +37602,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="819" ht="40" hidden="1" spans="2:4">
+    <row r="819" ht="37.5" hidden="1" spans="2:4">
       <c r="B819" s="1" t="s">
         <v>2632</v>
       </c>
@@ -37513,7 +37649,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="823" ht="40" hidden="1" spans="2:4">
+    <row r="823" ht="37.5" hidden="1" spans="2:4">
       <c r="B823" s="1" t="s">
         <v>2645</v>
       </c>
@@ -37535,7 +37671,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="825" ht="23" hidden="1" spans="2:4">
+    <row r="825" hidden="1" spans="2:4">
       <c r="B825" s="1" t="s">
         <v>2651</v>
       </c>
@@ -37546,7 +37682,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="826" ht="24" hidden="1" spans="2:4">
+    <row r="826" hidden="1" spans="2:4">
       <c r="B826" s="1" t="s">
         <v>2654</v>
       </c>
@@ -37568,7 +37704,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="828" ht="23" hidden="1" spans="2:4">
+    <row r="828" hidden="1" spans="2:4">
       <c r="B828" s="1" t="s">
         <v>2660</v>
       </c>
@@ -37579,7 +37715,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="829" ht="160" hidden="1" spans="2:5">
+    <row r="829" ht="150" hidden="1" spans="2:5">
       <c r="B829" s="1" t="s">
         <v>2663</v>
       </c>
@@ -37618,7 +37754,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="832" ht="24" hidden="1" spans="2:4">
+    <row r="832" hidden="1" spans="2:4">
       <c r="B832" s="1" t="s">
         <v>2674</v>
       </c>
@@ -37629,7 +37765,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="833" ht="120" hidden="1" spans="2:5">
+    <row r="833" ht="112.5" hidden="1" spans="2:5">
       <c r="B833" s="1" t="s">
         <v>2677</v>
       </c>
@@ -37665,7 +37801,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="836" ht="40" hidden="1" spans="2:5">
+    <row r="836" ht="37.5" hidden="1" spans="2:5">
       <c r="B836" s="1" t="s">
         <v>2687</v>
       </c>
@@ -37701,7 +37837,7 @@
         <v>2695</v>
       </c>
     </row>
-    <row r="839" ht="24" hidden="1" spans="2:4">
+    <row r="839" hidden="1" spans="2:4">
       <c r="B839" s="1" t="s">
         <v>2696</v>
       </c>
@@ -37767,7 +37903,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="845" ht="24" hidden="1" spans="2:4">
+    <row r="845" hidden="1" spans="2:4">
       <c r="B845" s="1" t="s">
         <v>2714</v>
       </c>
@@ -37789,7 +37925,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="847" ht="40" hidden="1" spans="2:4">
+    <row r="847" ht="37.5" hidden="1" spans="2:4">
       <c r="B847" s="1" t="s">
         <v>2720</v>
       </c>
@@ -37869,7 +38005,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="854" ht="24" hidden="1" spans="2:4">
+    <row r="854" ht="37.5" hidden="1" spans="2:4">
       <c r="B854" s="1" t="s">
         <v>2742</v>
       </c>
@@ -37913,7 +38049,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="858" ht="23" hidden="1" spans="2:4">
+    <row r="858" hidden="1" spans="2:4">
       <c r="B858" s="1" t="s">
         <v>2754</v>
       </c>
@@ -37957,7 +38093,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="862" ht="24" hidden="1" spans="2:5">
+    <row r="862" hidden="1" spans="2:5">
       <c r="B862" s="1" t="s">
         <v>2766</v>
       </c>
@@ -37971,7 +38107,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="863" ht="40" hidden="1" spans="2:4">
+    <row r="863" ht="37.5" hidden="1" spans="2:4">
       <c r="B863" s="1" t="s">
         <v>2770</v>
       </c>
@@ -37982,7 +38118,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="864" ht="40" hidden="1" spans="2:4">
+    <row r="864" ht="37.5" hidden="1" spans="2:4">
       <c r="B864" s="1" t="s">
         <v>2773</v>
       </c>
@@ -37993,7 +38129,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="865" ht="24" hidden="1" spans="2:4">
+    <row r="865" hidden="1" spans="2:4">
       <c r="B865" s="1" t="s">
         <v>2776</v>
       </c>
@@ -38037,7 +38173,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="869" ht="24" hidden="1" spans="2:4">
+    <row r="869" hidden="1" spans="2:4">
       <c r="B869" s="1" t="s">
         <v>2788</v>
       </c>
@@ -38062,7 +38198,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="871" ht="24" hidden="1" spans="2:4">
+    <row r="871" hidden="1" spans="2:4">
       <c r="B871" s="1" t="s">
         <v>2795</v>
       </c>
@@ -38084,7 +38220,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="873" ht="24" hidden="1" spans="2:4">
+    <row r="873" hidden="1" spans="2:4">
       <c r="B873" s="1" t="s">
         <v>2801</v>
       </c>
@@ -38106,7 +38242,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="875" ht="24" hidden="1" spans="2:4">
+    <row r="875" hidden="1" spans="2:4">
       <c r="B875" s="1" t="s">
         <v>2807</v>
       </c>
@@ -38153,7 +38289,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="879" ht="40" hidden="1" spans="2:5">
+    <row r="879" ht="37.5" hidden="1" spans="2:5">
       <c r="B879" s="1" t="s">
         <v>2820</v>
       </c>
@@ -38167,7 +38303,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="880" ht="24" hidden="1" spans="2:4">
+    <row r="880" hidden="1" spans="2:4">
       <c r="B880" s="1" t="s">
         <v>2824</v>
       </c>
@@ -38189,7 +38325,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="882" ht="23" hidden="1" spans="2:4">
+    <row r="882" hidden="1" spans="2:4">
       <c r="B882" s="1" t="s">
         <v>2830</v>
       </c>
@@ -38247,7 +38383,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="887" ht="23" hidden="1" spans="2:4">
+    <row r="887" hidden="1" spans="2:4">
       <c r="B887" s="1" t="s">
         <v>2846</v>
       </c>
@@ -38291,7 +38427,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="891" ht="96" hidden="1" spans="2:5">
+    <row r="891" ht="75" hidden="1" spans="2:5">
       <c r="B891" s="1" t="s">
         <v>2858</v>
       </c>
@@ -38316,7 +38452,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="893" ht="24" hidden="1" spans="2:4">
+    <row r="893" hidden="1" spans="2:4">
       <c r="B893" s="1" t="s">
         <v>2865</v>
       </c>
@@ -38338,7 +38474,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="895" ht="40" hidden="1" spans="2:4">
+    <row r="895" ht="37.5" hidden="1" spans="2:4">
       <c r="B895" s="1" t="s">
         <v>2871</v>
       </c>
@@ -38415,7 +38551,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="902" ht="24" hidden="1" spans="2:4">
+    <row r="902" hidden="1" spans="2:4">
       <c r="B902" s="1" t="s">
         <v>2892</v>
       </c>
@@ -38426,7 +38562,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="903" ht="24" hidden="1" spans="2:4">
+    <row r="903" hidden="1" spans="2:4">
       <c r="B903" s="1" t="s">
         <v>2895</v>
       </c>
@@ -38448,7 +38584,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="905" ht="40" hidden="1" spans="2:4">
+    <row r="905" ht="37.5" hidden="1" spans="2:4">
       <c r="B905" s="1" t="s">
         <v>2901</v>
       </c>
@@ -38514,7 +38650,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="911" ht="24" hidden="1" spans="2:4">
+    <row r="911" hidden="1" spans="2:4">
       <c r="B911" s="1" t="s">
         <v>2919</v>
       </c>
@@ -38525,7 +38661,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="912" ht="100" hidden="1" spans="2:5">
+    <row r="912" ht="75" hidden="1" spans="2:5">
       <c r="B912" s="1" t="s">
         <v>2922</v>
       </c>
@@ -38539,7 +38675,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="913" ht="60" hidden="1" spans="2:5">
+    <row r="913" ht="56.25" hidden="1" spans="2:5">
       <c r="B913" s="1" t="s">
         <v>2926</v>
       </c>
@@ -38553,7 +38689,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="914" ht="60" hidden="1" spans="2:5">
+    <row r="914" ht="56.25" hidden="1" spans="2:5">
       <c r="B914" s="1" t="s">
         <v>2930</v>
       </c>
@@ -38592,7 +38728,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="917" ht="24" hidden="1" spans="2:4">
+    <row r="917" hidden="1" spans="2:4">
       <c r="B917" s="1" t="s">
         <v>2940</v>
       </c>
@@ -38636,7 +38772,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="921" ht="24" hidden="1" spans="2:4">
+    <row r="921" hidden="1" spans="2:4">
       <c r="B921" s="1" t="s">
         <v>2952</v>
       </c>
@@ -38647,7 +38783,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="922" ht="44" hidden="1" spans="2:4">
+    <row r="922" hidden="1" spans="2:4">
       <c r="B922" s="1" t="s">
         <v>2955</v>
       </c>
@@ -38669,7 +38805,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="924" ht="116" hidden="1" spans="2:5">
+    <row r="924" ht="93.75" hidden="1" spans="2:5">
       <c r="B924" s="1" t="s">
         <v>2961</v>
       </c>
@@ -38705,7 +38841,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="927" ht="24" hidden="1" spans="2:4">
+    <row r="927" hidden="1" spans="2:4">
       <c r="B927" s="1" t="s">
         <v>2971</v>
       </c>
@@ -38738,7 +38874,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="930" ht="24" hidden="1" spans="2:5">
+    <row r="930" hidden="1" spans="2:5">
       <c r="B930" s="1" t="s">
         <v>2980</v>
       </c>
@@ -38763,7 +38899,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="932" ht="24" hidden="1" spans="2:4">
+    <row r="932" hidden="1" spans="2:4">
       <c r="B932" s="1" t="s">
         <v>2987</v>
       </c>
@@ -38774,7 +38910,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="933" ht="40" hidden="1" spans="2:4">
+    <row r="933" ht="37.5" hidden="1" spans="2:4">
       <c r="B933" s="1" t="s">
         <v>2990</v>
       </c>
@@ -38843,7 +38979,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="939" ht="40" hidden="1" spans="2:4">
+    <row r="939" ht="37.5" hidden="1" spans="2:4">
       <c r="B939" s="1" t="s">
         <v>3009</v>
       </c>
@@ -38898,7 +39034,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="944" ht="24" hidden="1" spans="2:5">
+    <row r="944" hidden="1" spans="2:5">
       <c r="B944" s="1" t="s">
         <v>3024</v>
       </c>
@@ -38912,7 +39048,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="945" ht="40" hidden="1" spans="2:4">
+    <row r="945" ht="37.5" hidden="1" spans="2:4">
       <c r="B945" s="1" t="s">
         <v>3028</v>
       </c>
@@ -38923,7 +39059,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="946" ht="60" hidden="1" spans="2:5">
+    <row r="946" ht="56.25" hidden="1" spans="2:5">
       <c r="B946" s="1" t="s">
         <v>3031</v>
       </c>
@@ -38948,7 +39084,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="948" ht="24" hidden="1" spans="2:4">
+    <row r="948" hidden="1" spans="2:4">
       <c r="B948" s="1" t="s">
         <v>3038</v>
       </c>
@@ -38959,7 +39095,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="949" ht="23" hidden="1" spans="2:4">
+    <row r="949" hidden="1" spans="2:4">
       <c r="B949" s="1" t="s">
         <v>3041</v>
       </c>
@@ -38970,7 +39106,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="950" ht="23" hidden="1" spans="2:5">
+    <row r="950" hidden="1" spans="2:5">
       <c r="B950" s="1" t="s">
         <v>3044</v>
       </c>
@@ -38995,7 +39131,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="952" ht="24" hidden="1" spans="2:4">
+    <row r="952" hidden="1" spans="2:4">
       <c r="B952" s="1" t="s">
         <v>3050</v>
       </c>
@@ -39017,7 +39153,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="954" ht="120" hidden="1" spans="2:5">
+    <row r="954" ht="112.5" hidden="1" spans="2:5">
       <c r="B954" s="1" t="s">
         <v>3056</v>
       </c>
@@ -39031,7 +39167,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="955" ht="120" hidden="1" spans="2:5">
+    <row r="955" ht="93.75" hidden="1" spans="2:5">
       <c r="B955" s="1" t="s">
         <v>3060</v>
       </c>
@@ -39045,7 +39181,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="956" ht="24" hidden="1" spans="2:4">
+    <row r="956" hidden="1" spans="2:4">
       <c r="B956" s="1" t="s">
         <v>3064</v>
       </c>
@@ -39056,7 +39192,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="957" ht="40" hidden="1" spans="2:4">
+    <row r="957" ht="37.5" hidden="1" spans="2:4">
       <c r="B957" s="1" t="s">
         <v>3067</v>
       </c>
@@ -39089,7 +39225,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="960" ht="40" hidden="1" spans="2:4">
+    <row r="960" ht="37.5" hidden="1" spans="2:4">
       <c r="B960" s="1" t="s">
         <v>3076</v>
       </c>
@@ -39100,7 +39236,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="961" ht="24" hidden="1" spans="2:4">
+    <row r="961" hidden="1" spans="2:4">
       <c r="B961" s="1" t="s">
         <v>3079</v>
       </c>
@@ -39111,7 +39247,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="962" ht="24" hidden="1" spans="2:5">
+    <row r="962" hidden="1" spans="2:5">
       <c r="B962" s="1" t="s">
         <v>3082</v>
       </c>
@@ -39125,7 +39261,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="963" ht="40" hidden="1" spans="2:5">
+    <row r="963" ht="37.5" hidden="1" spans="2:5">
       <c r="B963" s="1" t="s">
         <v>3086</v>
       </c>
@@ -39139,7 +39275,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="964" ht="24" hidden="1" spans="2:5">
+    <row r="964" hidden="1" spans="2:5">
       <c r="B964" s="1" t="s">
         <v>3090</v>
       </c>
@@ -39153,7 +39289,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="965" ht="23" hidden="1" spans="2:4">
+    <row r="965" hidden="1" spans="2:4">
       <c r="B965" s="1" t="s">
         <v>3094</v>
       </c>
@@ -39197,7 +39333,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="969" ht="24" hidden="1" spans="2:4">
+    <row r="969" hidden="1" spans="2:4">
       <c r="B969" s="1" t="s">
         <v>3106</v>
       </c>
@@ -39266,7 +39402,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="975" ht="40" hidden="1" spans="2:4">
+    <row r="975" ht="37.5" hidden="1" spans="2:4">
       <c r="B975" s="1" t="s">
         <v>3124</v>
       </c>
@@ -39338,7 +39474,7 @@
         <v>3143</v>
       </c>
     </row>
-    <row r="981" ht="24" hidden="1" spans="2:4">
+    <row r="981" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
         <v>3144</v>
       </c>
@@ -39349,7 +39485,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="982" ht="24" hidden="1" spans="2:4">
+    <row r="982" hidden="1" spans="2:4">
       <c r="B982" s="1" t="s">
         <v>3147</v>
       </c>
@@ -39404,7 +39540,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="987" ht="40" hidden="1" spans="2:4">
+    <row r="987" ht="37.5" hidden="1" spans="2:4">
       <c r="B987" s="1" t="s">
         <v>3162</v>
       </c>
@@ -39426,7 +39562,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="989" ht="43" hidden="1" spans="2:4">
+    <row r="989" hidden="1" spans="2:4">
       <c r="B989" s="1" t="s">
         <v>3168</v>
       </c>
@@ -39448,7 +39584,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="991" ht="40" hidden="1" spans="2:4">
+    <row r="991" ht="37.5" hidden="1" spans="2:4">
       <c r="B991" s="1" t="s">
         <v>3174</v>
       </c>
@@ -39470,7 +39606,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="993" ht="24" hidden="1" spans="2:4">
+    <row r="993" hidden="1" spans="2:4">
       <c r="B993" s="1" t="s">
         <v>3180</v>
       </c>
@@ -39481,7 +39617,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="994" ht="40" hidden="1" spans="2:5">
+    <row r="994" ht="37.5" hidden="1" spans="2:5">
       <c r="B994" s="1" t="s">
         <v>3182</v>
       </c>
@@ -39517,7 +39653,7 @@
         <v>3191</v>
       </c>
     </row>
-    <row r="997" ht="120" hidden="1" spans="2:5">
+    <row r="997" ht="93.75" hidden="1" spans="2:5">
       <c r="B997" s="1" t="s">
         <v>3192</v>
       </c>
@@ -39553,7 +39689,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="1000" ht="120" hidden="1" spans="2:5">
+    <row r="1000" ht="93.75" hidden="1" spans="2:5">
       <c r="B1000" s="1" t="s">
         <v>3202</v>
       </c>
@@ -39567,7 +39703,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="1001" ht="40" hidden="1" spans="2:4">
+    <row r="1001" ht="37.5" hidden="1" spans="2:4">
       <c r="B1001" s="1" t="s">
         <v>3206</v>
       </c>
@@ -39578,7 +39714,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="1002" ht="40" hidden="1" spans="2:4">
+    <row r="1002" ht="37.5" hidden="1" spans="2:4">
       <c r="B1002" s="1" t="s">
         <v>3209</v>
       </c>
@@ -39589,7 +39725,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="1003" ht="40" hidden="1" spans="2:4">
+    <row r="1003" ht="37.5" hidden="1" spans="2:4">
       <c r="B1003" s="1" t="s">
         <v>3212</v>
       </c>
@@ -39636,7 +39772,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="1007" ht="24" hidden="1" spans="2:4">
+    <row r="1007" hidden="1" spans="2:4">
       <c r="B1007" s="1" t="s">
         <v>3225</v>
       </c>
@@ -39658,7 +39794,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="1009" ht="24" hidden="1" spans="2:4">
+    <row r="1009" hidden="1" spans="2:4">
       <c r="B1009" s="1" t="s">
         <v>3231</v>
       </c>
@@ -39755,7 +39891,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="1017" ht="23" hidden="1" spans="2:4">
+    <row r="1017" hidden="1" spans="2:4">
       <c r="B1017" s="1" t="s">
         <v>3257</v>
       </c>
@@ -39799,7 +39935,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="1021" ht="24" hidden="1" spans="2:4">
+    <row r="1021" hidden="1" spans="2:4">
       <c r="B1021" s="1" t="s">
         <v>3269</v>
       </c>
@@ -39810,7 +39946,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="1022" ht="23" hidden="1" spans="2:4">
+    <row r="1022" hidden="1" spans="2:4">
       <c r="B1022" s="1" t="s">
         <v>3272</v>
       </c>
@@ -39835,7 +39971,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="1024" ht="24" hidden="1" spans="2:4">
+    <row r="1024" hidden="1" spans="2:4">
       <c r="B1024" s="1" t="s">
         <v>3278</v>
       </c>
@@ -39860,7 +39996,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="1026" ht="24" hidden="1" spans="2:4">
+    <row r="1026" hidden="1" spans="2:4">
       <c r="B1026" s="1" t="s">
         <v>3285</v>
       </c>
@@ -39915,7 +40051,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="1031" ht="24" hidden="1" spans="2:4">
+    <row r="1031" hidden="1" spans="2:4">
       <c r="B1031" s="1" t="s">
         <v>3300</v>
       </c>
@@ -39937,7 +40073,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="1033" ht="40" hidden="1" spans="2:5">
+    <row r="1033" ht="37.5" hidden="1" spans="2:5">
       <c r="B1033" s="1" t="s">
         <v>3306</v>
       </c>
@@ -39962,7 +40098,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="1035" ht="40" hidden="1" spans="2:4">
+    <row r="1035" ht="37.5" hidden="1" spans="2:4">
       <c r="B1035" s="1" t="s">
         <v>3312</v>
       </c>
@@ -39973,7 +40109,7 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="1036" ht="80" hidden="1" spans="2:5">
+    <row r="1036" ht="56.25" hidden="1" spans="2:5">
       <c r="B1036" s="1" t="s">
         <v>3315</v>
       </c>
@@ -39987,7 +40123,7 @@
         <v>3318</v>
       </c>
     </row>
-    <row r="1037" ht="40" hidden="1" spans="2:4">
+    <row r="1037" ht="37.5" hidden="1" spans="2:4">
       <c r="B1037" s="1" t="s">
         <v>3319</v>
       </c>
@@ -40053,7 +40189,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="1043" ht="80" hidden="1" spans="2:5">
+    <row r="1043" ht="56.25" hidden="1" spans="2:5">
       <c r="B1043" s="1" t="s">
         <v>3336</v>
       </c>
@@ -40067,7 +40203,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="1044" ht="40" hidden="1" spans="2:4">
+    <row r="1044" ht="37.5" hidden="1" spans="2:4">
       <c r="B1044" s="1" t="s">
         <v>3340</v>
       </c>
@@ -40144,7 +40280,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="1051" ht="24" hidden="1" spans="2:5">
+    <row r="1051" hidden="1" spans="2:5">
       <c r="B1051" s="1" t="s">
         <v>3361</v>
       </c>
@@ -40169,7 +40305,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="1053" ht="40" hidden="1" spans="2:4">
+    <row r="1053" ht="37.5" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
         <v>3368</v>
       </c>
@@ -40191,7 +40327,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="1055" ht="24" hidden="1" spans="2:4">
+    <row r="1055" hidden="1" spans="2:4">
       <c r="B1055" s="1" t="s">
         <v>3374</v>
       </c>
@@ -40213,7 +40349,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="1057" ht="80" hidden="1" spans="2:5">
+    <row r="1057" ht="75" hidden="1" spans="2:5">
       <c r="B1057" s="1" t="s">
         <v>3380</v>
       </c>
@@ -40238,7 +40374,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="1059" ht="40" hidden="1" spans="2:4">
+    <row r="1059" ht="37.5" hidden="1" spans="2:4">
       <c r="B1059" s="1" t="s">
         <v>3387</v>
       </c>
@@ -40315,7 +40451,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="1066" ht="24" hidden="1" spans="2:4">
+    <row r="1066" hidden="1" spans="2:4">
       <c r="B1066" s="1" t="s">
         <v>3408</v>
       </c>
@@ -40326,7 +40462,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="1067" ht="23" hidden="1" spans="2:4">
+    <row r="1067" hidden="1" spans="2:4">
       <c r="B1067" s="1" t="s">
         <v>3411</v>
       </c>
@@ -40348,7 +40484,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1069" ht="24" hidden="1" spans="2:4">
+    <row r="1069" hidden="1" spans="2:4">
       <c r="B1069" s="1" t="s">
         <v>3417</v>
       </c>
@@ -40395,7 +40531,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="1073" ht="24" hidden="1" spans="2:4">
+    <row r="1073" hidden="1" spans="2:4">
       <c r="B1073" s="1" t="s">
         <v>3430</v>
       </c>
@@ -40417,7 +40553,7 @@
         <v>3435</v>
       </c>
     </row>
-    <row r="1075" ht="100" hidden="1" spans="2:5">
+    <row r="1075" ht="75" hidden="1" spans="2:5">
       <c r="B1075" s="1" t="s">
         <v>3436</v>
       </c>
@@ -40445,7 +40581,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="1077" ht="24" hidden="1" spans="2:4">
+    <row r="1077" hidden="1" spans="2:4">
       <c r="B1077" s="1" t="s">
         <v>3444</v>
       </c>
@@ -40456,7 +40592,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="1078" ht="24" hidden="1" spans="2:4">
+    <row r="1078" hidden="1" spans="2:4">
       <c r="B1078" s="1" t="s">
         <v>3447</v>
       </c>
@@ -40489,7 +40625,7 @@
         <v>3455</v>
       </c>
     </row>
-    <row r="1081" ht="140" hidden="1" spans="2:5">
+    <row r="1081" ht="112.5" hidden="1" spans="2:5">
       <c r="B1081" s="1" t="s">
         <v>3456</v>
       </c>
@@ -40514,7 +40650,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="1083" ht="24" hidden="1" spans="2:4">
+    <row r="1083" hidden="1" spans="2:4">
       <c r="B1083" s="1" t="s">
         <v>3463</v>
       </c>
@@ -40539,7 +40675,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="1085" ht="40" hidden="1" spans="2:4">
+    <row r="1085" ht="37.5" hidden="1" spans="2:4">
       <c r="B1085" s="1" t="s">
         <v>3470</v>
       </c>
@@ -40550,7 +40686,7 @@
         <v>3472</v>
       </c>
     </row>
-    <row r="1086" ht="24" hidden="1" spans="2:4">
+    <row r="1086" hidden="1" spans="2:4">
       <c r="B1086" s="1" t="s">
         <v>3473</v>
       </c>
@@ -40561,7 +40697,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="1087" ht="24" hidden="1" spans="2:4">
+    <row r="1087" hidden="1" spans="2:4">
       <c r="B1087" s="1" t="s">
         <v>3476</v>
       </c>
@@ -40572,7 +40708,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="1088" ht="40" hidden="1" spans="2:4">
+    <row r="1088" ht="37.5" hidden="1" spans="2:4">
       <c r="B1088" s="1" t="s">
         <v>3479</v>
       </c>
@@ -40616,7 +40752,7 @@
         <v>3490</v>
       </c>
     </row>
-    <row r="1092" ht="40" hidden="1" spans="2:4">
+    <row r="1092" ht="37.5" hidden="1" spans="2:4">
       <c r="B1092" s="1" t="s">
         <v>3491</v>
       </c>
@@ -40638,7 +40774,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="1094" ht="24" hidden="1" spans="2:4">
+    <row r="1094" hidden="1" spans="2:4">
       <c r="B1094" s="1" t="s">
         <v>3497</v>
       </c>
@@ -40649,7 +40785,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="1095" ht="24" hidden="1" spans="2:4">
+    <row r="1095" hidden="1" spans="2:4">
       <c r="B1095" s="1" t="s">
         <v>3500</v>
       </c>
@@ -40660,7 +40796,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="1096" ht="24" hidden="1" spans="2:4">
+    <row r="1096" hidden="1" spans="2:4">
       <c r="B1096" s="1" t="s">
         <v>3503</v>
       </c>
@@ -40671,7 +40807,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="1097" ht="24" hidden="1" spans="2:5">
+    <row r="1097" hidden="1" spans="2:5">
       <c r="B1097" s="1" t="s">
         <v>3506</v>
       </c>
@@ -40685,7 +40821,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="1098" ht="23" hidden="1" spans="2:4">
+    <row r="1098" hidden="1" spans="2:4">
       <c r="B1098" s="1" t="s">
         <v>3509</v>
       </c>
@@ -40696,7 +40832,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="1099" ht="24" hidden="1" spans="2:4">
+    <row r="1099" hidden="1" spans="2:4">
       <c r="B1099" s="1" t="s">
         <v>3512</v>
       </c>
@@ -40718,7 +40854,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="1101" ht="40" hidden="1" spans="2:4">
+    <row r="1101" ht="37.5" hidden="1" spans="2:4">
       <c r="B1101" s="1" t="s">
         <v>3518</v>
       </c>
@@ -40768,7 +40904,7 @@
         <v>3531</v>
       </c>
     </row>
-    <row r="1105" ht="40" hidden="1" spans="2:4">
+    <row r="1105" ht="37.5" hidden="1" spans="2:4">
       <c r="B1105" s="1" t="s">
         <v>3532</v>
       </c>
@@ -40779,7 +40915,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="1106" ht="23" hidden="1" spans="2:4">
+    <row r="1106" hidden="1" spans="2:4">
       <c r="B1106" s="1" t="s">
         <v>3535</v>
       </c>
@@ -40790,7 +40926,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="1107" ht="24" hidden="1" spans="2:4">
+    <row r="1107" hidden="1" spans="2:4">
       <c r="B1107" s="1" t="s">
         <v>3538</v>
       </c>
@@ -40812,7 +40948,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="1109" ht="60" hidden="1" spans="2:5">
+    <row r="1109" ht="37.5" hidden="1" spans="2:5">
       <c r="B1109" s="1" t="s">
         <v>3544</v>
       </c>
@@ -40826,7 +40962,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="1110" ht="40" hidden="1" spans="2:5">
+    <row r="1110" ht="37.5" hidden="1" spans="2:5">
       <c r="B1110" s="1" t="s">
         <v>3548</v>
       </c>
@@ -40840,7 +40976,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="1111" ht="24" hidden="1" spans="2:4">
+    <row r="1111" hidden="1" spans="2:4">
       <c r="B1111" s="1" t="s">
         <v>3552</v>
       </c>
@@ -40862,7 +40998,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="1113" ht="40" hidden="1" spans="2:4">
+    <row r="1113" hidden="1" spans="2:4">
       <c r="B1113" s="1" t="s">
         <v>3558</v>
       </c>
@@ -40873,7 +41009,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="1114" ht="80" hidden="1" spans="2:5">
+    <row r="1114" ht="56.25" hidden="1" spans="2:5">
       <c r="B1114" s="1" t="s">
         <v>3561</v>
       </c>
@@ -40923,7 +41059,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="1118" ht="40" hidden="1" spans="2:5">
+    <row r="1118" ht="37.5" hidden="1" spans="2:5">
       <c r="B1118" s="1" t="s">
         <v>3575</v>
       </c>
@@ -40951,7 +41087,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="1120" ht="40" hidden="1" spans="2:4">
+    <row r="1120" ht="37.5" hidden="1" spans="2:4">
       <c r="B1120" s="1" t="s">
         <v>3583</v>
       </c>
@@ -40962,7 +41098,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="1121" ht="40" hidden="1" spans="2:5">
+    <row r="1121" ht="37.5" hidden="1" spans="2:5">
       <c r="B1121" s="1" t="s">
         <v>3586</v>
       </c>
@@ -40976,7 +41112,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="1122" ht="160" hidden="1" spans="2:5">
+    <row r="1122" ht="131.25" hidden="1" spans="2:5">
       <c r="B1122" s="1" t="s">
         <v>3590</v>
       </c>
@@ -40990,7 +41126,7 @@
         <v>3593</v>
       </c>
     </row>
-    <row r="1123" ht="40" hidden="1" spans="2:5">
+    <row r="1123" ht="37.5" hidden="1" spans="2:5">
       <c r="B1123" s="1" t="s">
         <v>3594</v>
       </c>
@@ -41004,7 +41140,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="1124" ht="40" hidden="1" spans="2:4">
+    <row r="1124" ht="37.5" hidden="1" spans="2:4">
       <c r="B1124" s="1" t="s">
         <v>3598</v>
       </c>
@@ -41015,7 +41151,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="1125" ht="24" hidden="1" spans="2:4">
+    <row r="1125" hidden="1" spans="2:4">
       <c r="B1125" s="1" t="s">
         <v>3601</v>
       </c>
@@ -41026,7 +41162,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="1126" ht="40" hidden="1" spans="2:5">
+    <row r="1126" ht="37.5" hidden="1" spans="2:5">
       <c r="B1126" s="1" t="s">
         <v>3604</v>
       </c>
@@ -41051,7 +41187,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="1128" ht="60" hidden="1" spans="2:5">
+    <row r="1128" ht="56.25" hidden="1" spans="2:5">
       <c r="B1128" s="1" t="s">
         <v>3611</v>
       </c>
@@ -41076,7 +41212,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="1130" ht="40" hidden="1" spans="2:4">
+    <row r="1130" ht="37.5" hidden="1" spans="2:4">
       <c r="B1130" s="1" t="s">
         <v>3618</v>
       </c>
@@ -41087,7 +41223,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="1131" ht="40" hidden="1" spans="2:4">
+    <row r="1131" ht="37.5" hidden="1" spans="2:4">
       <c r="B1131" s="1" t="s">
         <v>3621</v>
       </c>
@@ -41109,7 +41245,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="1133" ht="23" hidden="1" spans="2:4">
+    <row r="1133" hidden="1" spans="2:4">
       <c r="B1133" s="1" t="s">
         <v>3627</v>
       </c>
@@ -41120,7 +41256,7 @@
         <v>3629</v>
       </c>
     </row>
-    <row r="1134" ht="120" hidden="1" spans="2:5">
+    <row r="1134" ht="93.75" hidden="1" spans="2:5">
       <c r="B1134" s="1" t="s">
         <v>3630</v>
       </c>
@@ -41134,7 +41270,7 @@
         <v>3633</v>
       </c>
     </row>
-    <row r="1135" ht="40" hidden="1" spans="2:4">
+    <row r="1135" ht="37.5" hidden="1" spans="2:4">
       <c r="B1135" s="1" t="s">
         <v>3634</v>
       </c>
@@ -41145,7 +41281,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="1136" ht="60" hidden="1" spans="2:5">
+    <row r="1136" ht="56.25" hidden="1" spans="2:5">
       <c r="B1136" s="1" t="s">
         <v>3637</v>
       </c>
@@ -41159,7 +41295,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="1137" ht="40" hidden="1" spans="2:4">
+    <row r="1137" ht="37.5" hidden="1" spans="2:4">
       <c r="B1137" s="1" t="s">
         <v>3641</v>
       </c>
@@ -41170,7 +41306,7 @@
         <v>3643</v>
       </c>
     </row>
-    <row r="1138" ht="40" hidden="1" spans="2:4">
+    <row r="1138" ht="37.5" hidden="1" spans="2:4">
       <c r="B1138" s="1" t="s">
         <v>3644</v>
       </c>
@@ -41181,7 +41317,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="1139" ht="23" hidden="1" spans="2:4">
+    <row r="1139" hidden="1" spans="2:4">
       <c r="B1139" s="1" t="s">
         <v>3647</v>
       </c>
@@ -41192,7 +41328,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="1140" ht="77" hidden="1" spans="2:5">
+    <row r="1140" ht="56.25" hidden="1" spans="2:5">
       <c r="B1140" s="1" t="s">
         <v>3650</v>
       </c>
@@ -41217,7 +41353,7 @@
         <v>3656</v>
       </c>
     </row>
-    <row r="1142" ht="24" hidden="1" spans="2:4">
+    <row r="1142" hidden="1" spans="2:4">
       <c r="B1142" s="1" t="s">
         <v>3657</v>
       </c>
@@ -41228,7 +41364,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="1143" ht="40" hidden="1" spans="2:4">
+    <row r="1143" ht="37.5" hidden="1" spans="2:4">
       <c r="B1143" s="1" t="s">
         <v>3660</v>
       </c>
@@ -41239,7 +41375,7 @@
         <v>3662</v>
       </c>
     </row>
-    <row r="1144" ht="120" hidden="1" spans="2:5">
+    <row r="1144" ht="112.5" hidden="1" spans="2:5">
       <c r="B1144" s="1" t="s">
         <v>3663</v>
       </c>
@@ -41253,7 +41389,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="1145" ht="77" hidden="1" spans="2:5">
+    <row r="1145" ht="56.25" hidden="1" spans="2:5">
       <c r="B1145" s="1" t="s">
         <v>3667</v>
       </c>
@@ -41267,7 +41403,7 @@
         <v>3670</v>
       </c>
     </row>
-    <row r="1146" ht="160" hidden="1" spans="2:5">
+    <row r="1146" ht="131.25" hidden="1" spans="2:5">
       <c r="B1146" s="1" t="s">
         <v>3671</v>
       </c>
@@ -41292,7 +41428,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="1148" ht="140" hidden="1" spans="2:5">
+    <row r="1148" ht="131.25" hidden="1" spans="2:5">
       <c r="B1148" s="1" t="s">
         <v>3678</v>
       </c>
@@ -41306,7 +41442,7 @@
         <v>3681</v>
       </c>
     </row>
-    <row r="1149" ht="160" hidden="1" spans="2:5">
+    <row r="1149" ht="131.25" hidden="1" spans="2:5">
       <c r="B1149" s="1" t="s">
         <v>3682</v>
       </c>
@@ -41320,7 +41456,7 @@
         <v>3685</v>
       </c>
     </row>
-    <row r="1150" ht="40" hidden="1" spans="2:4">
+    <row r="1150" ht="37.5" hidden="1" spans="2:4">
       <c r="B1150" s="1" t="s">
         <v>3686</v>
       </c>
@@ -41331,7 +41467,7 @@
         <v>3688</v>
       </c>
     </row>
-    <row r="1151" ht="40" hidden="1" spans="2:5">
+    <row r="1151" ht="37.5" hidden="1" spans="2:5">
       <c r="B1151" s="1" t="s">
         <v>3689</v>
       </c>
@@ -41345,7 +41481,7 @@
         <v>3692</v>
       </c>
     </row>
-    <row r="1152" ht="180" hidden="1" spans="2:5">
+    <row r="1152" ht="150" hidden="1" spans="2:5">
       <c r="B1152" s="1" t="s">
         <v>3693</v>
       </c>
@@ -41417,7 +41553,7 @@
         <v>3712</v>
       </c>
     </row>
-    <row r="1158" ht="40" hidden="1" spans="2:4">
+    <row r="1158" ht="37.5" hidden="1" spans="2:4">
       <c r="B1158" s="1" t="s">
         <v>3713</v>
       </c>
@@ -41439,7 +41575,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="1160" ht="40" hidden="1" spans="2:4">
+    <row r="1160" ht="37.5" hidden="1" spans="2:4">
       <c r="B1160" s="1" t="s">
         <v>3719</v>
       </c>
@@ -41489,7 +41625,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="1164" ht="40" hidden="1" spans="2:4">
+    <row r="1164" ht="37.5" hidden="1" spans="2:4">
       <c r="B1164" s="1" t="s">
         <v>3733</v>
       </c>
@@ -41536,7 +41672,7 @@
         <v>3745</v>
       </c>
     </row>
-    <row r="1168" ht="23" hidden="1" spans="2:4">
+    <row r="1168" hidden="1" spans="2:4">
       <c r="B1168" s="1" t="s">
         <v>3746</v>
       </c>
@@ -41638,7 +41774,7 @@
         <v>3773</v>
       </c>
     </row>
-    <row r="1177" ht="23" hidden="1" spans="2:4">
+    <row r="1177" hidden="1" spans="2:4">
       <c r="B1177" s="1" t="s">
         <v>3774</v>
       </c>
@@ -41649,7 +41785,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="1178" ht="24" hidden="1" spans="2:5">
+    <row r="1178" hidden="1" spans="2:5">
       <c r="B1178" s="1" t="s">
         <v>3777</v>
       </c>
@@ -41663,7 +41799,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="1179" ht="24" hidden="1" spans="2:4">
+    <row r="1179" hidden="1" spans="2:4">
       <c r="B1179" s="1" t="s">
         <v>3781</v>
       </c>
@@ -41674,7 +41810,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="1180" ht="24" hidden="1" spans="2:4">
+    <row r="1180" hidden="1" spans="2:4">
       <c r="B1180" s="1" t="s">
         <v>3784</v>
       </c>
@@ -41696,7 +41832,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="1182" ht="106" hidden="1" spans="2:5">
+    <row r="1182" ht="93.75" hidden="1" spans="2:5">
       <c r="B1182" s="1" t="s">
         <v>3790</v>
       </c>
@@ -41754,7 +41890,7 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="1187" ht="40" hidden="1" spans="2:5">
+    <row r="1187" ht="37.5" hidden="1" spans="2:5">
       <c r="B1187" s="1" t="s">
         <v>3806</v>
       </c>
@@ -41793,7 +41929,7 @@
         <v>3816</v>
       </c>
     </row>
-    <row r="1190" ht="120" hidden="1" spans="2:5">
+    <row r="1190" ht="112.5" hidden="1" spans="2:5">
       <c r="B1190" s="1" t="s">
         <v>3817</v>
       </c>
@@ -41832,7 +41968,7 @@
         <v>3827</v>
       </c>
     </row>
-    <row r="1193" ht="60" hidden="1" spans="2:5">
+    <row r="1193" ht="56.25" hidden="1" spans="2:5">
       <c r="B1193" s="1" t="s">
         <v>3828</v>
       </c>
@@ -41901,7 +42037,7 @@
         <v>3846</v>
       </c>
     </row>
-    <row r="1199" ht="24" hidden="1" spans="2:4">
+    <row r="1199" hidden="1" spans="2:4">
       <c r="B1199" s="1" t="s">
         <v>3847</v>
       </c>
@@ -41912,7 +42048,7 @@
         <v>3849</v>
       </c>
     </row>
-    <row r="1200" ht="24" hidden="1" spans="2:5">
+    <row r="1200" hidden="1" spans="2:5">
       <c r="B1200" s="1" t="s">
         <v>3850</v>
       </c>
@@ -41940,7 +42076,7 @@
         <v>3857</v>
       </c>
     </row>
-    <row r="1202" ht="24" hidden="1" spans="2:4">
+    <row r="1202" hidden="1" spans="2:4">
       <c r="B1202" s="1" t="s">
         <v>3858</v>
       </c>
@@ -41951,7 +42087,7 @@
         <v>3860</v>
       </c>
     </row>
-    <row r="1203" ht="23" hidden="1" spans="2:4">
+    <row r="1203" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
         <v>3861</v>
       </c>
@@ -41973,7 +42109,7 @@
         <v>3866</v>
       </c>
     </row>
-    <row r="1205" ht="24" hidden="1" spans="2:4">
+    <row r="1205" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
         <v>3867</v>
       </c>
@@ -42042,7 +42178,7 @@
         <v>3885</v>
       </c>
     </row>
-    <row r="1211" ht="100" hidden="1" spans="2:5">
+    <row r="1211" ht="75" hidden="1" spans="2:5">
       <c r="B1211" s="1" t="s">
         <v>3886</v>
       </c>
@@ -42092,7 +42228,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="1215" ht="23" hidden="1" spans="2:5">
+    <row r="1215" hidden="1" spans="2:5">
       <c r="B1215" s="1" t="s">
         <v>3899</v>
       </c>
@@ -42189,7 +42325,7 @@
         <v>3925</v>
       </c>
     </row>
-    <row r="1223" ht="24" hidden="1" spans="2:4">
+    <row r="1223" hidden="1" spans="2:4">
       <c r="B1223" s="1" t="s">
         <v>3926</v>
       </c>
@@ -42200,7 +42336,7 @@
         <v>3928</v>
       </c>
     </row>
-    <row r="1224" ht="40" hidden="1" spans="2:4">
+    <row r="1224" ht="37.5" hidden="1" spans="2:4">
       <c r="B1224" s="1" t="s">
         <v>3929</v>
       </c>
@@ -42222,7 +42358,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="1226" ht="24" hidden="1" spans="2:4">
+    <row r="1226" hidden="1" spans="2:4">
       <c r="B1226" s="1" t="s">
         <v>3935</v>
       </c>
@@ -42233,7 +42369,7 @@
         <v>3937</v>
       </c>
     </row>
-    <row r="1227" ht="120" hidden="1" spans="2:5">
+    <row r="1227" ht="112.5" hidden="1" spans="2:5">
       <c r="B1227" s="1" t="s">
         <v>3938</v>
       </c>
@@ -42294,7 +42430,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="1232" ht="40" hidden="1" spans="2:4">
+    <row r="1232" ht="37.5" hidden="1" spans="2:4">
       <c r="B1232" s="1" t="s">
         <v>3955</v>
       </c>
@@ -42371,7 +42507,7 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="1239" ht="80" hidden="1" spans="2:5">
+    <row r="1239" ht="75" hidden="1" spans="2:5">
       <c r="B1239" s="1" t="s">
         <v>3976</v>
       </c>
@@ -42385,7 +42521,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="1240" ht="24" hidden="1" spans="2:4">
+    <row r="1240" hidden="1" spans="2:4">
       <c r="B1240" s="1" t="s">
         <v>3980</v>
       </c>
@@ -42407,7 +42543,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="1242" ht="40" hidden="1" spans="2:4">
+    <row r="1242" ht="37.5" hidden="1" spans="2:4">
       <c r="B1242" s="1" t="s">
         <v>3986</v>
       </c>
@@ -42440,7 +42576,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="1245" ht="40" hidden="1" spans="2:4">
+    <row r="1245" ht="37.5" hidden="1" spans="2:4">
       <c r="B1245" s="1" t="s">
         <v>3995</v>
       </c>
@@ -42476,7 +42612,7 @@
         <v>4003</v>
       </c>
     </row>
-    <row r="1248" ht="40" hidden="1" spans="2:4">
+    <row r="1248" ht="37.5" hidden="1" spans="2:4">
       <c r="B1248" s="1" t="s">
         <v>4004</v>
       </c>
@@ -42487,7 +42623,7 @@
         <v>4006</v>
       </c>
     </row>
-    <row r="1249" ht="40" hidden="1" spans="2:4">
+    <row r="1249" ht="37.5" hidden="1" spans="2:4">
       <c r="B1249" s="1" t="s">
         <v>4007</v>
       </c>
@@ -42509,7 +42645,7 @@
         <v>4012</v>
       </c>
     </row>
-    <row r="1251" ht="23" hidden="1" spans="2:4">
+    <row r="1251" hidden="1" spans="2:4">
       <c r="B1251" s="1" t="s">
         <v>4013</v>
       </c>
@@ -42520,7 +42656,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="1252" ht="40" hidden="1" spans="2:5">
+    <row r="1252" ht="37.5" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
         <v>4016</v>
       </c>
@@ -42548,7 +42684,7 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="1254" ht="40" hidden="1" spans="2:4">
+    <row r="1254" ht="37.5" hidden="1" spans="2:4">
       <c r="B1254" s="1" t="s">
         <v>4024</v>
       </c>
@@ -42581,7 +42717,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="1257" ht="40" hidden="1" spans="2:4">
+    <row r="1257" ht="37.5" hidden="1" spans="2:4">
       <c r="B1257" s="1" t="s">
         <v>4033</v>
       </c>
@@ -42603,7 +42739,7 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="1259" ht="40" hidden="1" spans="2:5">
+    <row r="1259" ht="37.5" hidden="1" spans="2:5">
       <c r="B1259" s="1" t="s">
         <v>4039</v>
       </c>
@@ -42661,7 +42797,7 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="1264" ht="24" hidden="1" spans="2:4">
+    <row r="1264" hidden="1" spans="2:4">
       <c r="B1264" s="1" t="s">
         <v>4055</v>
       </c>
@@ -42763,7 +42899,7 @@
         <v>4082</v>
       </c>
     </row>
-    <row r="1273" ht="40" hidden="1" spans="2:4">
+    <row r="1273" ht="37.5" hidden="1" spans="2:4">
       <c r="B1273" s="1" t="s">
         <v>4083</v>
       </c>
@@ -42774,7 +42910,7 @@
         <v>4085</v>
       </c>
     </row>
-    <row r="1274" ht="40" hidden="1" spans="2:4">
+    <row r="1274" ht="37.5" hidden="1" spans="2:4">
       <c r="B1274" s="1" t="s">
         <v>4086</v>
       </c>
@@ -42796,7 +42932,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="1276" ht="24" hidden="1" spans="2:4">
+    <row r="1276" hidden="1" spans="2:4">
       <c r="B1276" s="1" t="s">
         <v>4092</v>
       </c>
@@ -42887,7 +43023,7 @@
         <v>4116</v>
       </c>
     </row>
-    <row r="1284" ht="40" hidden="1" spans="2:4">
+    <row r="1284" ht="37.5" hidden="1" spans="2:4">
       <c r="B1284" s="1" t="s">
         <v>4117</v>
       </c>
@@ -42981,7 +43117,7 @@
         <v>4142</v>
       </c>
     </row>
-    <row r="1292" ht="24" hidden="1" spans="2:4">
+    <row r="1292" hidden="1" spans="2:4">
       <c r="B1292" s="1" t="s">
         <v>4143</v>
       </c>
@@ -43003,7 +43139,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="1294" ht="100" hidden="1" spans="2:5">
+    <row r="1294" ht="93.75" hidden="1" spans="2:5">
       <c r="B1294" s="1" t="s">
         <v>4149</v>
       </c>
@@ -43028,7 +43164,7 @@
         <v>4155</v>
       </c>
     </row>
-    <row r="1296" ht="24" hidden="1" spans="2:4">
+    <row r="1296" hidden="1" spans="2:4">
       <c r="B1296" s="1" t="s">
         <v>4156</v>
       </c>
@@ -43061,7 +43197,7 @@
         <v>4164</v>
       </c>
     </row>
-    <row r="1299" ht="40" hidden="1" spans="2:4">
+    <row r="1299" ht="37.5" hidden="1" spans="2:4">
       <c r="B1299" s="1" t="s">
         <v>4165</v>
       </c>
@@ -43094,7 +43230,7 @@
         <v>4173</v>
       </c>
     </row>
-    <row r="1302" ht="40" hidden="1" spans="2:5">
+    <row r="1302" hidden="1" spans="2:5">
       <c r="B1302" s="1" t="s">
         <v>4174</v>
       </c>
@@ -43108,7 +43244,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="1303" ht="24" hidden="1" spans="2:4">
+    <row r="1303" hidden="1" spans="2:4">
       <c r="B1303" s="1" t="s">
         <v>4177</v>
       </c>
@@ -43119,7 +43255,7 @@
         <v>4179</v>
       </c>
     </row>
-    <row r="1304" ht="40" hidden="1" spans="2:4">
+    <row r="1304" ht="37.5" hidden="1" spans="2:4">
       <c r="B1304" s="1" t="s">
         <v>4180</v>
       </c>
@@ -43196,7 +43332,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="1311" ht="40" hidden="1" spans="2:4">
+    <row r="1311" ht="37.5" hidden="1" spans="2:4">
       <c r="B1311" s="1" t="s">
         <v>4201</v>
       </c>
@@ -43218,7 +43354,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="1313" ht="180" hidden="1" spans="2:5">
+    <row r="1313" ht="150" hidden="1" spans="2:5">
       <c r="B1313" s="1" t="s">
         <v>4207</v>
       </c>
@@ -43254,7 +43390,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="1316" ht="40" hidden="1" spans="2:5">
+    <row r="1316" ht="37.5" hidden="1" spans="2:5">
       <c r="B1316" s="1" t="s">
         <v>4217</v>
       </c>
@@ -43268,7 +43404,7 @@
         <v>4220</v>
       </c>
     </row>
-    <row r="1317" ht="24" hidden="1" spans="2:4">
+    <row r="1317" hidden="1" spans="2:4">
       <c r="B1317" s="1" t="s">
         <v>4221</v>
       </c>
@@ -43279,7 +43415,7 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="1318" ht="40" hidden="1" spans="2:4">
+    <row r="1318" ht="37.5" hidden="1" spans="2:4">
       <c r="B1318" s="1" t="s">
         <v>4224</v>
       </c>
@@ -43359,7 +43495,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="1325" ht="24" hidden="1" spans="2:4">
+    <row r="1325" hidden="1" spans="2:4">
       <c r="B1325" s="1" t="s">
         <v>4246</v>
       </c>
@@ -43395,7 +43531,7 @@
         <v>4255</v>
       </c>
     </row>
-    <row r="1328" ht="40" hidden="1" spans="2:4">
+    <row r="1328" ht="37.5" hidden="1" spans="2:4">
       <c r="B1328" s="1" t="s">
         <v>4256</v>
       </c>
@@ -43439,7 +43575,7 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="1332" ht="23" hidden="1" spans="2:5">
+    <row r="1332" hidden="1" spans="2:5">
       <c r="B1332" s="1" t="s">
         <v>4268</v>
       </c>
@@ -43453,7 +43589,7 @@
         <v>4271</v>
       </c>
     </row>
-    <row r="1333" ht="40" hidden="1" spans="2:4">
+    <row r="1333" ht="37.5" hidden="1" spans="2:4">
       <c r="B1333" s="1" t="s">
         <v>4272</v>
       </c>
@@ -43530,7 +43666,7 @@
         <v>4292</v>
       </c>
     </row>
-    <row r="1340" ht="24" hidden="1" spans="2:4">
+    <row r="1340" hidden="1" spans="2:4">
       <c r="B1340" s="1" t="s">
         <v>4293</v>
       </c>
@@ -43563,7 +43699,7 @@
         <v>4301</v>
       </c>
     </row>
-    <row r="1343" ht="60" hidden="1" spans="2:5">
+    <row r="1343" ht="56.25" hidden="1" spans="2:5">
       <c r="B1343" s="1" t="s">
         <v>4302</v>
       </c>
@@ -43632,7 +43768,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="1349" ht="60" hidden="1" spans="2:5">
+    <row r="1349" ht="56.25" hidden="1" spans="2:5">
       <c r="B1349" s="1" t="s">
         <v>4321</v>
       </c>
@@ -43668,7 +43804,7 @@
         <v>4330</v>
       </c>
     </row>
-    <row r="1352" ht="40" hidden="1" spans="2:4">
+    <row r="1352" ht="37.5" hidden="1" spans="2:4">
       <c r="B1352" s="1" t="s">
         <v>4331</v>
       </c>
@@ -43690,7 +43826,7 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="1354" ht="24" hidden="1" spans="2:4">
+    <row r="1354" hidden="1" spans="2:4">
       <c r="B1354" s="1" t="s">
         <v>4337</v>
       </c>
@@ -43723,7 +43859,7 @@
         <v>4345</v>
       </c>
     </row>
-    <row r="1357" ht="24" hidden="1" spans="2:4">
+    <row r="1357" hidden="1" spans="2:4">
       <c r="B1357" s="1" t="s">
         <v>4346</v>
       </c>
@@ -43734,7 +43870,7 @@
         <v>4348</v>
       </c>
     </row>
-    <row r="1358" ht="40" hidden="1" spans="2:5">
+    <row r="1358" ht="37.5" hidden="1" spans="2:5">
       <c r="B1358" s="1" t="s">
         <v>4349</v>
       </c>
@@ -43817,7 +43953,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="1365" ht="40" hidden="1" spans="2:4">
+    <row r="1365" ht="37.5" hidden="1" spans="2:4">
       <c r="B1365" s="1" t="s">
         <v>4372</v>
       </c>
@@ -43828,7 +43964,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="1366" ht="40" hidden="1" spans="2:4">
+    <row r="1366" ht="37.5" hidden="1" spans="2:4">
       <c r="B1366" s="1" t="s">
         <v>4375</v>
       </c>
@@ -43839,7 +43975,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="1367" ht="23" hidden="1" spans="2:4">
+    <row r="1367" hidden="1" spans="2:4">
       <c r="B1367" s="1" t="s">
         <v>4378</v>
       </c>
@@ -43905,7 +44041,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="1373" ht="40" hidden="1" spans="2:4">
+    <row r="1373" ht="37.5" hidden="1" spans="2:4">
       <c r="B1373" s="1" t="s">
         <v>4395</v>
       </c>
@@ -43927,7 +44063,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="1375" ht="40" hidden="1" spans="2:4">
+    <row r="1375" ht="37.5" hidden="1" spans="2:4">
       <c r="B1375" s="1" t="s">
         <v>4401</v>
       </c>
@@ -43971,7 +44107,7 @@
         <v>4412</v>
       </c>
     </row>
-    <row r="1379" ht="24" hidden="1" spans="2:4">
+    <row r="1379" hidden="1" spans="2:4">
       <c r="B1379" s="1" t="s">
         <v>4413</v>
       </c>
@@ -43993,7 +44129,7 @@
         <v>4418</v>
       </c>
     </row>
-    <row r="1381" ht="140" hidden="1" spans="2:5">
+    <row r="1381" ht="112.5" hidden="1" spans="2:5">
       <c r="B1381" s="1" t="s">
         <v>4419</v>
       </c>
@@ -44007,7 +44143,7 @@
         <v>4422</v>
       </c>
     </row>
-    <row r="1382" ht="40" hidden="1" spans="2:5">
+    <row r="1382" ht="37.5" hidden="1" spans="2:5">
       <c r="B1382" s="1" t="s">
         <v>4423</v>
       </c>
@@ -44021,7 +44157,7 @@
         <v>4426</v>
       </c>
     </row>
-    <row r="1383" ht="40" hidden="1" spans="2:5">
+    <row r="1383" ht="37.5" hidden="1" spans="2:5">
       <c r="B1383" s="1" t="s">
         <v>4427</v>
       </c>
@@ -44079,7 +44215,7 @@
         <v>4442</v>
       </c>
     </row>
-    <row r="1388" ht="23" hidden="1" spans="2:4">
+    <row r="1388" hidden="1" spans="2:4">
       <c r="B1388" s="1" t="s">
         <v>4443</v>
       </c>
@@ -44112,7 +44248,7 @@
         <v>4451</v>
       </c>
     </row>
-    <row r="1391" ht="24" hidden="1" spans="2:4">
+    <row r="1391" hidden="1" spans="2:4">
       <c r="B1391" s="1" t="s">
         <v>4452</v>
       </c>
@@ -44123,7 +44259,7 @@
         <v>4454</v>
       </c>
     </row>
-    <row r="1392" ht="24" hidden="1" spans="2:4">
+    <row r="1392" hidden="1" spans="2:4">
       <c r="B1392" s="1" t="s">
         <v>4455</v>
       </c>
@@ -44200,7 +44336,7 @@
         <v>4475</v>
       </c>
     </row>
-    <row r="1399" ht="60" hidden="1" spans="2:5">
+    <row r="1399" ht="56.25" hidden="1" spans="2:5">
       <c r="B1399" s="1" t="s">
         <v>4476</v>
       </c>
@@ -44308,7 +44444,7 @@
         <v>4505</v>
       </c>
     </row>
-    <row r="1408" ht="40" hidden="1" spans="2:5">
+    <row r="1408" ht="37.5" hidden="1" spans="2:5">
       <c r="B1408" s="1" t="s">
         <v>4506</v>
       </c>
@@ -44366,7 +44502,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="1413" ht="24" hidden="1" spans="2:4">
+    <row r="1413" hidden="1" spans="2:4">
       <c r="B1413" s="1" t="s">
         <v>4522</v>
       </c>
@@ -44399,7 +44535,7 @@
         <v>4530</v>
       </c>
     </row>
-    <row r="1416" ht="24" hidden="1" spans="2:4">
+    <row r="1416" hidden="1" spans="2:4">
       <c r="B1416" s="1" t="s">
         <v>4531</v>
       </c>
@@ -44421,7 +44557,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="1418" ht="40" hidden="1" spans="2:4">
+    <row r="1418" ht="37.5" hidden="1" spans="2:4">
       <c r="B1418" s="1" t="s">
         <v>4537</v>
       </c>
@@ -44432,7 +44568,7 @@
         <v>4539</v>
       </c>
     </row>
-    <row r="1419" ht="40" hidden="1" spans="2:4">
+    <row r="1419" ht="37.5" hidden="1" spans="2:4">
       <c r="B1419" s="1" t="s">
         <v>4540</v>
       </c>
@@ -44476,7 +44612,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="1423" ht="40" hidden="1" spans="2:4">
+    <row r="1423" ht="37.5" hidden="1" spans="2:4">
       <c r="B1423" s="1" t="s">
         <v>4551</v>
       </c>
@@ -44498,7 +44634,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="1425" ht="40" hidden="1" spans="2:4">
+    <row r="1425" ht="37.5" hidden="1" spans="2:4">
       <c r="B1425" s="1" t="s">
         <v>4557</v>
       </c>
@@ -44520,7 +44656,7 @@
         <v>4562</v>
       </c>
     </row>
-    <row r="1427" ht="40" hidden="1" spans="2:4">
+    <row r="1427" ht="37.5" hidden="1" spans="2:4">
       <c r="B1427" s="1" t="s">
         <v>4563</v>
       </c>
@@ -44542,7 +44678,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="1429" ht="24" hidden="1" spans="2:4">
+    <row r="1429" hidden="1" spans="2:4">
       <c r="B1429" s="1" t="s">
         <v>4569</v>
       </c>
@@ -44553,7 +44689,7 @@
         <v>4571</v>
       </c>
     </row>
-    <row r="1430" ht="24" hidden="1" spans="2:4">
+    <row r="1430" hidden="1" spans="2:4">
       <c r="B1430" s="1" t="s">
         <v>4572</v>
       </c>
@@ -44580,6 +44716,7 @@
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="equal" val="1"/>
+        <customFilter operator="equal" val="2"/>
       </customFilters>
     </filterColumn>
   </autoFilter>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -26631,10 +26631,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -26659,14 +26659,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26680,8 +26695,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26703,19 +26764,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26727,63 +26779,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26905,37 +26905,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26947,7 +26929,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26959,25 +26953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27001,19 +26977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27025,7 +26989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27037,25 +27001,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27073,7 +27049,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27085,7 +27073,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27099,11 +27099,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27111,8 +27128,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27156,32 +27173,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -27196,151 +27187,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -27440,7 +27440,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713990" y="21193125"/>
+          <a:off x="2713990" y="16668750"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27737,7 +27737,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A267" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A219" workbookViewId="0">
       <selection activeCell="A1432" sqref="A1432"/>
     </sheetView>
   </sheetViews>
@@ -27785,7 +27785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" hidden="1" spans="1:5">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -28279,7 +28279,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" ht="37.5" spans="1:5">
+    <row r="40" ht="37.5" hidden="1" spans="1:5">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -28710,7 +28710,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" hidden="1" spans="1:5">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -28805,7 +28805,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" hidden="1" spans="1:5">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -29579,7 +29579,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="135" ht="75" spans="1:5">
+    <row r="135" ht="75" hidden="1" spans="1:5">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -29850,7 +29850,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" hidden="1" spans="1:4">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -30716,7 +30716,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" hidden="1" spans="1:4">
       <c r="A222" s="1">
         <v>0</v>
       </c>
@@ -30926,7 +30926,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" hidden="1" spans="1:5">
       <c r="A237" s="1">
         <v>0</v>
       </c>
@@ -31290,7 +31290,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" hidden="1" spans="1:4">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -31329,7 +31329,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" hidden="1" spans="1:5">
       <c r="A266" s="1">
         <v>0</v>
       </c>
@@ -31600,7 +31600,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="286" ht="75" spans="1:6">
+    <row r="286" ht="75" hidden="1" spans="1:6">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -31777,7 +31777,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" hidden="1" spans="1:4">
       <c r="A299" s="1">
         <v>0</v>
       </c>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -26632,9 +26632,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -26665,11 +26665,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26680,18 +26680,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26704,18 +26697,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26734,46 +26719,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26797,6 +26743,60 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26905,121 +26905,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27037,7 +26929,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27049,7 +26983,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27061,13 +27025,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27079,13 +27073,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27096,56 +27096,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -27173,6 +27123,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -27188,159 +27156,191 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -27440,7 +27440,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713990" y="16668750"/>
+          <a:off x="2713990" y="14287500"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27737,8 +27737,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="A1432" sqref="A1432"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="F1435" sqref="F1435:F1437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -27748,7 +27748,7 @@
     <col min="3" max="3" width="20.3259259259259" style="1" customWidth="1"/>
     <col min="4" max="4" width="22.8296296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="28.5037037037037" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -29324,7 +29324,7 @@
     </row>
     <row r="116" ht="37.5" spans="1:5">
       <c r="A116" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>390</v>
@@ -29419,7 +29419,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>414</v>
@@ -29433,7 +29433,7 @@
     </row>
     <row r="124" ht="37.5" spans="1:4">
       <c r="A124" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>417</v>
@@ -29794,9 +29794,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" hidden="1" spans="1:4">
       <c r="A151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>503</v>
@@ -29808,9 +29808,9 @@
         <v>505</v>
       </c>
     </row>
-    <row r="152" ht="37.5" spans="1:5">
+    <row r="152" ht="37.5" hidden="1" spans="1:5">
       <c r="A152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>506</v>
@@ -30014,7 +30014,7 @@
     </row>
     <row r="167" ht="37.5" spans="1:4">
       <c r="A167" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>556</v>
@@ -30028,7 +30028,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>559</v>
@@ -30174,9 +30174,9 @@
         <v>594</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" hidden="1" spans="1:4">
       <c r="A179" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>595</v>
@@ -30309,7 +30309,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>629</v>
@@ -30592,7 +30592,7 @@
     </row>
     <row r="213" ht="37.5" spans="1:4">
       <c r="A213" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>700</v>
@@ -30651,7 +30651,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>714</v>
@@ -30676,7 +30676,7 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>720</v>
@@ -30730,9 +30730,9 @@
         <v>732</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" hidden="1" spans="1:5">
       <c r="A223" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>733</v>
@@ -30824,7 +30824,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>755</v>
@@ -30866,7 +30866,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>765</v>
@@ -30881,9 +30881,9 @@
         <v>768</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" hidden="1" spans="1:4">
       <c r="A234" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>769</v>
@@ -30945,7 +30945,7 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>784</v>
@@ -30979,7 +30979,7 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>792</v>
@@ -30994,9 +30994,9 @@
         <v>795</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" hidden="1" spans="1:5">
       <c r="A241" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>796</v>
@@ -31011,9 +31011,9 @@
         <v>799</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" hidden="1" spans="1:4">
       <c r="A242" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>800</v>
@@ -31025,9 +31025,9 @@
         <v>802</v>
       </c>
     </row>
-    <row r="243" ht="37.5" spans="1:5">
+    <row r="243" ht="37.5" hidden="1" spans="1:5">
       <c r="A243" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>803</v>
@@ -31055,7 +31055,7 @@
     </row>
     <row r="245" ht="37.5" spans="1:4">
       <c r="A245" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>810</v>
@@ -31111,7 +31111,7 @@
     </row>
     <row r="249" ht="37.5" spans="1:4">
       <c r="A249" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>823</v>
@@ -31136,7 +31136,7 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>829</v>
@@ -31164,7 +31164,7 @@
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>836</v>
@@ -31178,7 +31178,7 @@
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>839</v>
@@ -31228,7 +31228,7 @@
     </row>
     <row r="258" ht="37.5" spans="1:4">
       <c r="A258" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>851</v>
@@ -31242,7 +31242,7 @@
     </row>
     <row r="259" ht="37.5" spans="1:4">
       <c r="A259" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>854</v>
@@ -31278,7 +31278,7 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>863</v>
@@ -31348,7 +31348,7 @@
     </row>
     <row r="267" ht="37.5" spans="1:5">
       <c r="A267" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>879</v>
@@ -31365,7 +31365,7 @@
     </row>
     <row r="268" ht="75" spans="1:5">
       <c r="A268" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>883</v>
@@ -31382,7 +31382,7 @@
     </row>
     <row r="269" ht="56.25" spans="1:5">
       <c r="A269" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>887</v>
@@ -31410,7 +31410,7 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>894</v>
@@ -31457,7 +31457,7 @@
     </row>
     <row r="275" ht="37.5" spans="1:4">
       <c r="A275" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>906</v>
@@ -31504,7 +31504,7 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>918</v>
@@ -31554,7 +31554,7 @@
     </row>
     <row r="283" ht="37.5" spans="1:5">
       <c r="A283" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>930</v>
@@ -31585,7 +31585,7 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>937</v>
@@ -31620,7 +31620,7 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>945</v>
@@ -31648,7 +31648,7 @@
     </row>
     <row r="289" ht="75" spans="1:5">
       <c r="A289" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>951</v>
@@ -31740,7 +31740,7 @@
     </row>
     <row r="296" ht="37.5" spans="1:4">
       <c r="A296" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>974</v>
@@ -31754,7 +31754,7 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>977</v>
@@ -31793,7 +31793,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>986</v>
@@ -44950,6 +44950,7 @@
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
+    <workbookView windowHeight="15040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26632,9 +26632,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -26659,6 +26659,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -26673,8 +26695,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26688,19 +26711,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26711,15 +26734,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26735,37 +26767,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26779,24 +26795,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26905,7 +26905,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26917,49 +26923,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26977,19 +26959,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27001,43 +27007,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27055,7 +27037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27067,13 +27055,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27085,7 +27073,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27096,6 +27096,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -27125,33 +27149,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27171,17 +27173,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -27196,151 +27187,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -27405,6 +27405,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -27440,7 +27445,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713990" y="14287500"/>
+          <a:off x="2814320" y="34378900"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27481,7 +27486,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -27728,7 +27733,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -27737,17 +27741,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="F1435" sqref="F1435:F1437"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.8296296296296" style="1"/>
-    <col min="2" max="2" width="20.8296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3259259259259" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.8296296296296" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5037037037037" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8285714285714" style="1"/>
+    <col min="2" max="2" width="20.8285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5071428571429" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27768,7 +27772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="37.5" hidden="1" spans="1:5">
+    <row r="2" ht="40" hidden="1" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -27785,7 +27789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:5">
+    <row r="3" ht="24" hidden="1" spans="1:5">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -27827,7 +27831,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="37.5" hidden="1" spans="2:4">
+    <row r="6" ht="40" hidden="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -27838,7 +27842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="75" hidden="1" spans="2:4">
+    <row r="7" ht="80" hidden="1" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -27849,7 +27853,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="37.5" hidden="1" spans="2:4">
+    <row r="8" ht="40" hidden="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -27860,7 +27864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="37.5" hidden="1" spans="2:4">
+    <row r="9" ht="40" hidden="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -27871,7 +27875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="56.25" hidden="1" spans="2:5">
+    <row r="10" ht="60" hidden="1" spans="2:5">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -27885,7 +27889,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="37.5" hidden="1" spans="2:4">
+    <row r="11" ht="40" hidden="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
@@ -27896,7 +27900,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" ht="37.5" hidden="1" spans="2:4">
+    <row r="12" ht="40" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -27907,7 +27911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="37.5" hidden="1" spans="2:4">
+    <row r="13" ht="40" hidden="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -27918,7 +27922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="37.5" hidden="1" spans="2:4">
+    <row r="14" ht="40" hidden="1" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
@@ -27929,7 +27933,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" ht="37.5" hidden="1" spans="1:4">
+    <row r="15" ht="40" hidden="1" spans="1:4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -27943,7 +27947,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="37.5" hidden="1" spans="1:5">
+    <row r="16" ht="40" hidden="1" spans="1:5">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -27960,7 +27964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" ht="37.5" hidden="1" spans="2:4">
+    <row r="17" ht="40" hidden="1" spans="2:4">
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
@@ -27971,7 +27975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="2:4">
+    <row r="18" ht="24" hidden="1" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -27982,7 +27986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" ht="37.5" hidden="1" spans="2:5">
+    <row r="19" ht="40" hidden="1" spans="2:5">
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
@@ -27996,7 +28000,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" ht="75" hidden="1" spans="1:5">
+    <row r="20" ht="100" hidden="1" spans="1:5">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -28027,7 +28031,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" ht="37.5" hidden="1" spans="1:4">
+    <row r="22" ht="40" hidden="1" spans="1:4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -28041,7 +28045,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" ht="93.75" hidden="1" spans="1:5">
+    <row r="23" ht="120" hidden="1" spans="1:5">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -28058,7 +28062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="2:4">
+    <row r="24" ht="24" hidden="1" spans="2:4">
       <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
@@ -28069,7 +28073,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" ht="37.5" hidden="1" spans="2:5">
+    <row r="25" ht="40" hidden="1" spans="2:5">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
@@ -28119,7 +28123,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" ht="37.5" hidden="1" spans="2:4">
+    <row r="29" ht="40" hidden="1" spans="2:4">
       <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
@@ -28130,7 +28134,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" ht="37.5" hidden="1" spans="1:4">
+    <row r="30" ht="40" hidden="1" spans="1:4">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -28144,7 +28148,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" ht="37.5" hidden="1" spans="2:5">
+    <row r="31" ht="40" hidden="1" spans="2:5">
       <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
@@ -28158,7 +28162,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" ht="37.5" hidden="1" spans="1:5">
+    <row r="32" ht="60" hidden="1" spans="1:5">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -28175,7 +28179,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" ht="37.5" hidden="1" spans="1:5">
+    <row r="33" ht="40" hidden="1" spans="1:5">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -28192,7 +28196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="150" hidden="1" spans="2:5">
+    <row r="34" ht="180" hidden="1" spans="2:5">
       <c r="B34" s="1" t="s">
         <v>113</v>
       </c>
@@ -28206,7 +28210,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" ht="37.5" hidden="1" spans="1:4">
+    <row r="35" ht="40" hidden="1" spans="1:4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -28220,7 +28224,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" ht="93.75" hidden="1" spans="1:5">
+    <row r="36" ht="120" hidden="1" spans="1:5">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -28237,7 +28241,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" ht="56.25" hidden="1" spans="1:4">
+    <row r="37" ht="60" hidden="1" spans="1:4">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -28251,7 +28255,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" ht="37.5" hidden="1" spans="2:5">
+    <row r="38" ht="40" hidden="1" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>127</v>
       </c>
@@ -28279,7 +28283,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" ht="37.5" hidden="1" spans="1:5">
+    <row r="40" ht="40" hidden="1" spans="1:5">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -28296,7 +28300,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:4">
+    <row r="41" ht="24" hidden="1" spans="1:4">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -28310,7 +28314,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" ht="37.5" hidden="1" spans="1:5">
+    <row r="42" ht="40" hidden="1" spans="1:5">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -28369,7 +28373,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:4">
+    <row r="46" ht="24" hidden="1" spans="1:4">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -28394,7 +28398,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" ht="37.5" hidden="1" spans="1:4">
+    <row r="48" ht="40" hidden="1" spans="1:4">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -28419,7 +28423,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" ht="37.5" hidden="1" spans="1:5">
+    <row r="50" ht="40" hidden="1" spans="1:5">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -28436,7 +28440,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" ht="37.5" hidden="1" spans="2:4">
+    <row r="51" ht="40" hidden="1" spans="2:4">
       <c r="B51" s="1" t="s">
         <v>171</v>
       </c>
@@ -28447,7 +28451,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="2:4">
+    <row r="52" ht="23" hidden="1" spans="2:4">
       <c r="B52" s="1" t="s">
         <v>174</v>
       </c>
@@ -28483,7 +28487,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" ht="37.5" hidden="1" spans="2:5">
+    <row r="55" ht="40" hidden="1" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>183</v>
       </c>
@@ -28497,7 +28501,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" ht="37.5" hidden="1" spans="2:5">
+    <row r="56" ht="40" hidden="1" spans="2:5">
       <c r="B56" s="1" t="s">
         <v>187</v>
       </c>
@@ -28528,7 +28532,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" ht="37.5" hidden="1" spans="2:4">
+    <row r="58" ht="40" hidden="1" spans="2:4">
       <c r="B58" s="1" t="s">
         <v>195</v>
       </c>
@@ -28539,7 +28543,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" ht="37.5" hidden="1" spans="1:5">
+    <row r="59" ht="40" hidden="1" spans="1:5">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -28556,7 +28560,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" ht="37.5" hidden="1" spans="2:5">
+    <row r="60" ht="40" hidden="1" spans="2:5">
       <c r="B60" s="1" t="s">
         <v>202</v>
       </c>
@@ -28581,7 +28585,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" ht="37.5" hidden="1" spans="2:5">
+    <row r="62" ht="40" hidden="1" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>209</v>
       </c>
@@ -28595,7 +28599,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="2:4">
+    <row r="63" ht="24" hidden="1" spans="2:4">
       <c r="B63" s="1" t="s">
         <v>213</v>
       </c>
@@ -28606,7 +28610,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" ht="37.5" hidden="1" spans="1:5">
+    <row r="64" ht="40" hidden="1" spans="1:5">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -28623,7 +28627,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" ht="37.5" hidden="1" spans="2:4">
+    <row r="65" ht="40" hidden="1" spans="2:4">
       <c r="B65" s="1" t="s">
         <v>220</v>
       </c>
@@ -28651,7 +28655,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" ht="37.5" hidden="1" spans="2:5">
+    <row r="67" ht="40" hidden="1" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>227</v>
       </c>
@@ -28727,7 +28731,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" ht="37.5" hidden="1" spans="2:5">
+    <row r="72" ht="40" hidden="1" spans="2:5">
       <c r="B72" s="1" t="s">
         <v>246</v>
       </c>
@@ -28752,7 +28756,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" ht="37.5" hidden="1" spans="2:5">
+    <row r="74" ht="40" hidden="1" spans="2:5">
       <c r="B74" s="1" t="s">
         <v>253</v>
       </c>
@@ -28791,7 +28795,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="77" ht="37.5" hidden="1" spans="2:5">
+    <row r="77" ht="40" hidden="1" spans="2:5">
       <c r="B77" s="1" t="s">
         <v>263</v>
       </c>
@@ -28822,7 +28826,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="2:5">
+    <row r="79" ht="24" hidden="1" spans="2:5">
       <c r="B79" s="1" t="s">
         <v>271</v>
       </c>
@@ -28836,7 +28840,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="2:5">
+    <row r="80" ht="24" hidden="1" spans="2:5">
       <c r="B80" s="1" t="s">
         <v>275</v>
       </c>
@@ -28878,7 +28882,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" ht="37.5" hidden="1" spans="2:4">
+    <row r="83" ht="40" hidden="1" spans="2:4">
       <c r="B83" s="1" t="s">
         <v>284</v>
       </c>
@@ -28903,7 +28907,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" ht="37.5" hidden="1" spans="1:5">
+    <row r="85" ht="40" hidden="1" spans="1:5">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -28948,7 +28952,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" ht="56.25" hidden="1" spans="1:5">
+    <row r="88" ht="60" hidden="1" spans="1:5">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -29007,7 +29011,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="2:4">
+    <row r="92" ht="24" hidden="1" spans="2:4">
       <c r="B92" s="1" t="s">
         <v>313</v>
       </c>
@@ -29043,7 +29047,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="2:4">
+    <row r="95" ht="24" hidden="1" spans="2:4">
       <c r="B95" s="1" t="s">
         <v>322</v>
       </c>
@@ -29054,7 +29058,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
+    <row r="96" ht="24" hidden="1" spans="1:4">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -29068,7 +29072,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:4">
+    <row r="97" ht="23" hidden="1" spans="1:4">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -29082,7 +29086,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" ht="37.5" hidden="1" spans="1:5">
+    <row r="98" ht="40" hidden="1" spans="1:5">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -29113,7 +29117,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:4">
+    <row r="100" ht="24" hidden="1" spans="1:4">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -29188,7 +29192,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="2:4">
+    <row r="106" ht="24" hidden="1" spans="2:4">
       <c r="B106" s="1" t="s">
         <v>357</v>
       </c>
@@ -29199,7 +29203,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" ht="37.5" hidden="1" spans="2:4">
+    <row r="107" ht="40" hidden="1" spans="2:4">
       <c r="B107" s="1" t="s">
         <v>360</v>
       </c>
@@ -29210,7 +29214,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:4">
+    <row r="108" ht="24" hidden="1" spans="1:4">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -29224,7 +29228,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" ht="37.5" hidden="1" spans="1:5">
+    <row r="109" ht="40" hidden="1" spans="1:5">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -29255,7 +29259,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="111" ht="37.5" hidden="1" spans="1:5">
+    <row r="111" ht="40" hidden="1" spans="1:5">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -29283,7 +29287,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="113" ht="37.5" hidden="1" spans="2:4">
+    <row r="113" ht="40" hidden="1" spans="2:4">
       <c r="B113" s="1" t="s">
         <v>380</v>
       </c>
@@ -29294,7 +29298,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="114" ht="37.5" hidden="1" spans="1:5">
+    <row r="114" ht="40" hidden="1" spans="1:5">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -29322,7 +29326,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" ht="37.5" spans="1:5">
+    <row r="116" ht="40" spans="1:5">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -29339,7 +29343,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="2:5">
+    <row r="117" ht="40" hidden="1" spans="2:5">
       <c r="B117" s="1" t="s">
         <v>394</v>
       </c>
@@ -29353,7 +29357,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="2:4">
+    <row r="118" ht="24" hidden="1" spans="2:4">
       <c r="B118" s="1" t="s">
         <v>398</v>
       </c>
@@ -29364,7 +29368,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" ht="37.5" hidden="1" spans="2:4">
+    <row r="119" ht="40" hidden="1" spans="2:4">
       <c r="B119" s="1" t="s">
         <v>401</v>
       </c>
@@ -29392,7 +29396,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="121" ht="37.5" hidden="1" spans="1:4">
+    <row r="121" ht="40" hidden="1" spans="1:4">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -29406,7 +29410,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="2:4">
+    <row r="122" ht="24" hidden="1" spans="2:4">
       <c r="B122" s="1" t="s">
         <v>411</v>
       </c>
@@ -29417,7 +29421,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" ht="24" spans="1:4">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -29431,7 +29435,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" ht="37.5" spans="1:4">
+    <row r="124" ht="40" spans="1:4">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -29470,7 +29474,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="2:4">
+    <row r="127" ht="23" hidden="1" spans="2:4">
       <c r="B127" s="1" t="s">
         <v>426</v>
       </c>
@@ -29540,7 +29544,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="132" ht="37.5" hidden="1" spans="1:4">
+    <row r="132" ht="40" hidden="1" spans="1:4">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -29554,7 +29558,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="133" ht="37.5" hidden="1" spans="2:4">
+    <row r="133" ht="40" hidden="1" spans="2:4">
       <c r="B133" s="1" t="s">
         <v>445</v>
       </c>
@@ -29579,7 +29583,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="135" ht="75" hidden="1" spans="1:5">
+    <row r="135" ht="100" hidden="1" spans="1:5">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -29596,7 +29600,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="2:4">
+    <row r="136" ht="24" hidden="1" spans="2:4">
       <c r="B136" s="1" t="s">
         <v>455</v>
       </c>
@@ -29607,7 +29611,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="2:4">
+    <row r="137" ht="24" hidden="1" spans="2:4">
       <c r="B137" s="1" t="s">
         <v>458</v>
       </c>
@@ -29618,7 +29622,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:4">
+    <row r="138" ht="23" hidden="1" spans="1:4">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -29632,7 +29636,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:4">
+    <row r="139" ht="24" hidden="1" spans="1:4">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -29646,7 +29650,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:4">
+    <row r="140" ht="24" hidden="1" spans="1:4">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -29674,7 +29678,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="142" ht="37.5" hidden="1" spans="1:4">
+    <row r="142" ht="40" hidden="1" spans="1:4">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -29733,7 +29737,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="146" ht="37.5" hidden="1" spans="2:4">
+    <row r="146" ht="40" hidden="1" spans="2:4">
       <c r="B146" s="1" t="s">
         <v>487</v>
       </c>
@@ -29772,7 +29776,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="149" ht="37.5" hidden="1" spans="2:4">
+    <row r="149" ht="40" hidden="1" spans="2:4">
       <c r="B149" s="1" t="s">
         <v>497</v>
       </c>
@@ -29794,7 +29798,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:4">
+    <row r="151" ht="24" hidden="1" spans="1:4">
       <c r="A151" s="1">
         <v>0</v>
       </c>
@@ -29808,7 +29812,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="152" ht="37.5" hidden="1" spans="1:5">
+    <row r="152" ht="40" hidden="1" spans="1:5">
       <c r="A152" s="1">
         <v>0</v>
       </c>
@@ -29839,7 +29843,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="2:4">
+    <row r="154" ht="24" hidden="1" spans="2:4">
       <c r="B154" s="1" t="s">
         <v>514</v>
       </c>
@@ -29850,7 +29854,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:4">
+    <row r="155" ht="23" hidden="1" spans="1:4">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -29929,7 +29933,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="2:4">
+    <row r="160" ht="24" hidden="1" spans="2:4">
       <c r="B160" s="1" t="s">
         <v>535</v>
       </c>
@@ -29940,7 +29944,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="161" ht="37.5" hidden="1" spans="2:4">
+    <row r="161" ht="40" hidden="1" spans="2:4">
       <c r="B161" s="1" t="s">
         <v>538</v>
       </c>
@@ -29965,7 +29969,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="2:4">
+    <row r="163" ht="23" hidden="1" spans="2:4">
       <c r="B163" s="1" t="s">
         <v>544</v>
       </c>
@@ -29976,7 +29980,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="2:4">
+    <row r="164" ht="24" hidden="1" spans="2:4">
       <c r="B164" s="1" t="s">
         <v>547</v>
       </c>
@@ -30001,7 +30005,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="2:4">
+    <row r="166" ht="24" hidden="1" spans="2:4">
       <c r="B166" s="1" t="s">
         <v>553</v>
       </c>
@@ -30012,7 +30016,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="167" ht="37.5" spans="1:4">
+    <row r="167" ht="40" spans="1:4">
       <c r="A167" s="1">
         <v>2</v>
       </c>
@@ -30040,7 +30044,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="169" ht="75" hidden="1" spans="2:5">
+    <row r="169" ht="100" hidden="1" spans="2:5">
       <c r="B169" s="1" t="s">
         <v>562</v>
       </c>
@@ -30054,7 +30058,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="170" ht="37.5" hidden="1" spans="1:4">
+    <row r="170" ht="40" hidden="1" spans="1:4">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -30068,7 +30072,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="171" ht="37.5" hidden="1" spans="1:4">
+    <row r="171" ht="40" hidden="1" spans="1:4">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -30096,7 +30100,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="173" ht="75" hidden="1" spans="1:5">
+    <row r="173" ht="100" hidden="1" spans="1:5">
       <c r="A173" s="1">
         <v>0</v>
       </c>
@@ -30113,7 +30117,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="2:4">
+    <row r="174" ht="24" hidden="1" spans="2:4">
       <c r="B174" s="1" t="s">
         <v>579</v>
       </c>
@@ -30135,7 +30139,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:5">
+    <row r="176" ht="23" hidden="1" spans="1:5">
       <c r="A176" s="1">
         <v>0</v>
       </c>
@@ -30152,7 +30156,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="2:4">
+    <row r="177" ht="24" hidden="1" spans="2:4">
       <c r="B177" s="1" t="s">
         <v>589</v>
       </c>
@@ -30163,7 +30167,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="2:4">
+    <row r="178" ht="23" hidden="1" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>592</v>
       </c>
@@ -30199,7 +30203,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="181" ht="37.5" hidden="1" spans="2:4">
+    <row r="181" ht="40" hidden="1" spans="2:4">
       <c r="B181" s="1" t="s">
         <v>601</v>
       </c>
@@ -30210,7 +30214,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="2:4">
+    <row r="182" ht="24" hidden="1" spans="2:4">
       <c r="B182" s="1" t="s">
         <v>604</v>
       </c>
@@ -30221,7 +30225,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="183" ht="37.5" hidden="1" spans="2:4">
+    <row r="183" ht="40" hidden="1" spans="2:4">
       <c r="B183" s="1" t="s">
         <v>607</v>
       </c>
@@ -30232,7 +30236,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="2:4">
+    <row r="184" ht="24" hidden="1" spans="2:4">
       <c r="B184" s="1" t="s">
         <v>610</v>
       </c>
@@ -30243,7 +30247,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="185" ht="37.5" hidden="1" spans="2:4">
+    <row r="185" ht="40" hidden="1" spans="2:4">
       <c r="B185" s="1" t="s">
         <v>613</v>
       </c>
@@ -30321,7 +30325,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="2:5">
+    <row r="191" ht="24" hidden="1" spans="2:5">
       <c r="B191" s="1" t="s">
         <v>632</v>
       </c>
@@ -30335,7 +30339,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="192" ht="37.5" hidden="1" spans="2:4">
+    <row r="192" ht="40" hidden="1" spans="2:4">
       <c r="B192" s="1" t="s">
         <v>636</v>
       </c>
@@ -30346,7 +30350,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="193" ht="37.5" hidden="1" spans="2:4">
+    <row r="193" ht="40" hidden="1" spans="2:4">
       <c r="B193" s="1" t="s">
         <v>639</v>
       </c>
@@ -30382,7 +30386,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="196" ht="37.5" hidden="1" spans="2:4">
+    <row r="196" ht="40" hidden="1" spans="2:4">
       <c r="B196" s="1" t="s">
         <v>648</v>
       </c>
@@ -30393,7 +30397,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="2:4">
+    <row r="197" ht="24" hidden="1" spans="2:4">
       <c r="B197" s="1" t="s">
         <v>651</v>
       </c>
@@ -30404,7 +30408,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="198" ht="37.5" hidden="1" spans="2:4">
+    <row r="198" ht="40" hidden="1" spans="2:4">
       <c r="B198" s="1" t="s">
         <v>654</v>
       </c>
@@ -30415,7 +30419,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="199" ht="37.5" hidden="1" spans="2:4">
+    <row r="199" ht="40" hidden="1" spans="2:4">
       <c r="B199" s="1" t="s">
         <v>657</v>
       </c>
@@ -30440,7 +30444,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="201" ht="37.5" hidden="1" spans="1:4">
+    <row r="201" ht="40" hidden="1" spans="1:4">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -30454,7 +30458,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="2:4">
+    <row r="202" ht="24" hidden="1" spans="2:4">
       <c r="B202" s="1" t="s">
         <v>666</v>
       </c>
@@ -30465,7 +30469,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="2:4">
+    <row r="203" ht="24" hidden="1" spans="2:4">
       <c r="B203" s="1" t="s">
         <v>669</v>
       </c>
@@ -30512,7 +30516,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="207" ht="37.5" hidden="1" spans="1:4">
+    <row r="207" ht="40" hidden="1" spans="1:4">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -30554,7 +30558,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="210" ht="37.5" hidden="1" spans="2:4">
+    <row r="210" ht="40" hidden="1" spans="2:4">
       <c r="B210" s="1" t="s">
         <v>691</v>
       </c>
@@ -30565,7 +30569,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="211" ht="37.5" hidden="1" spans="1:4">
+    <row r="211" ht="40" hidden="1" spans="1:4">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -30590,7 +30594,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="213" ht="37.5" spans="1:4">
+    <row r="213" ht="40" spans="1:4">
       <c r="A213" s="1">
         <v>1</v>
       </c>
@@ -30604,7 +30608,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="214" ht="75" hidden="1" spans="2:5">
+    <row r="214" ht="80" hidden="1" spans="2:5">
       <c r="B214" s="1" t="s">
         <v>703</v>
       </c>
@@ -30618,7 +30622,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="215" ht="37.5" hidden="1" spans="2:5">
+    <row r="215" ht="40" hidden="1" spans="2:5">
       <c r="B215" s="1" t="s">
         <v>707</v>
       </c>
@@ -30649,7 +30653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" ht="24" spans="1:4">
       <c r="A217" s="1">
         <v>1</v>
       </c>
@@ -30691,7 +30695,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="220" ht="37.5" hidden="1" spans="2:4">
+    <row r="220" ht="40" hidden="1" spans="2:4">
       <c r="B220" s="1" t="s">
         <v>724</v>
       </c>
@@ -30747,7 +30751,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="224" ht="37.5" spans="1:4">
+    <row r="224" ht="40" spans="1:4">
       <c r="A224" s="1">
         <v>3</v>
       </c>
@@ -30783,7 +30787,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="227" ht="37.5" hidden="1" spans="2:4">
+    <row r="227" ht="40" hidden="1" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>746</v>
       </c>
@@ -30808,7 +30812,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="229" ht="37.5" spans="1:4">
+    <row r="229" ht="40" spans="1:4">
       <c r="A229" s="1">
         <v>3</v>
       </c>
@@ -30943,7 +30947,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" ht="24" spans="1:5">
       <c r="A238" s="1">
         <v>1</v>
       </c>
@@ -30960,7 +30964,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="239" ht="37.5" hidden="1" spans="1:5">
+    <row r="239" ht="40" hidden="1" spans="1:5">
       <c r="A239" s="1">
         <v>0</v>
       </c>
@@ -31025,7 +31029,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="243" ht="37.5" hidden="1" spans="1:5">
+    <row r="243" ht="40" hidden="1" spans="1:5">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -31053,7 +31057,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="245" ht="37.5" spans="1:4">
+    <row r="245" ht="40" spans="1:4">
       <c r="A245" s="1">
         <v>1</v>
       </c>
@@ -31067,7 +31071,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="246" ht="37.5" hidden="1" spans="1:5">
+    <row r="246" ht="40" hidden="1" spans="1:5">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -31098,7 +31102,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="248" ht="37.5" hidden="1" spans="2:4">
+    <row r="248" ht="40" hidden="1" spans="2:4">
       <c r="B248" s="1" t="s">
         <v>820</v>
       </c>
@@ -31109,7 +31113,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="249" ht="37.5" spans="1:4">
+    <row r="249" ht="40" spans="1:4">
       <c r="A249" s="1">
         <v>1</v>
       </c>
@@ -31123,7 +31127,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="250" ht="37.5" hidden="1" spans="2:4">
+    <row r="250" ht="40" hidden="1" spans="2:4">
       <c r="B250" s="1" t="s">
         <v>826</v>
       </c>
@@ -31148,7 +31152,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="252" ht="37.5" hidden="1" spans="2:5">
+    <row r="252" ht="40" hidden="1" spans="2:5">
       <c r="B252" s="1" t="s">
         <v>832</v>
       </c>
@@ -31176,7 +31180,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" ht="24" spans="1:4">
       <c r="A254" s="1">
         <v>1</v>
       </c>
@@ -31190,7 +31194,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:4">
+    <row r="255" ht="24" hidden="1" spans="1:4">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -31226,7 +31230,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="258" ht="37.5" spans="1:4">
+    <row r="258" ht="40" spans="1:4">
       <c r="A258" s="1">
         <v>1</v>
       </c>
@@ -31240,7 +31244,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="259" ht="37.5" spans="1:4">
+    <row r="259" ht="40" spans="1:4">
       <c r="A259" s="1">
         <v>1</v>
       </c>
@@ -31254,7 +31258,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="2:4">
+    <row r="260" ht="24" hidden="1" spans="2:4">
       <c r="B260" s="1" t="s">
         <v>857</v>
       </c>
@@ -31265,7 +31269,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="261" ht="37.5" hidden="1" spans="2:4">
+    <row r="261" ht="40" hidden="1" spans="2:4">
       <c r="B261" s="1" t="s">
         <v>860</v>
       </c>
@@ -31276,7 +31280,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" ht="24" spans="1:4">
       <c r="A262" s="1">
         <v>1</v>
       </c>
@@ -31304,7 +31308,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="264" ht="37.5" hidden="1" spans="1:4">
+    <row r="264" ht="40" hidden="1" spans="1:4">
       <c r="A264" s="1">
         <v>0</v>
       </c>
@@ -31318,7 +31322,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="2:4">
+    <row r="265" ht="24" hidden="1" spans="2:4">
       <c r="B265" s="1" t="s">
         <v>872</v>
       </c>
@@ -31346,7 +31350,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="267" ht="37.5" spans="1:5">
+    <row r="267" ht="40" spans="1:5">
       <c r="A267" s="1">
         <v>1</v>
       </c>
@@ -31363,7 +31367,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="268" ht="75" spans="1:5">
+    <row r="268" ht="80" spans="1:5">
       <c r="A268" s="1">
         <v>1</v>
       </c>
@@ -31380,7 +31384,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="269" ht="56.25" spans="1:5">
+    <row r="269" ht="60" spans="1:5">
       <c r="A269" s="1">
         <v>2</v>
       </c>
@@ -31408,7 +31412,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" ht="24" spans="1:4">
       <c r="A271" s="1">
         <v>1</v>
       </c>
@@ -31422,7 +31426,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="272" ht="37.5" hidden="1" spans="2:4">
+    <row r="272" ht="40" hidden="1" spans="2:4">
       <c r="B272" s="1" t="s">
         <v>897</v>
       </c>
@@ -31433,7 +31437,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="2:4">
+    <row r="273" ht="24" hidden="1" spans="2:4">
       <c r="B273" s="1" t="s">
         <v>900</v>
       </c>
@@ -31444,7 +31448,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="274" ht="37.5" hidden="1" spans="2:4">
+    <row r="274" ht="40" hidden="1" spans="2:4">
       <c r="B274" s="1" t="s">
         <v>903</v>
       </c>
@@ -31455,7 +31459,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="275" ht="37.5" spans="1:4">
+    <row r="275" ht="40" spans="1:4">
       <c r="A275" s="1">
         <v>1</v>
       </c>
@@ -31491,7 +31495,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="278" ht="37.5" hidden="1" spans="2:4">
+    <row r="278" ht="40" hidden="1" spans="2:4">
       <c r="B278" s="1" t="s">
         <v>915</v>
       </c>
@@ -31502,7 +31506,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" ht="24" hidden="1" spans="1:4">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -31516,7 +31520,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:4">
+    <row r="280" ht="24" hidden="1" spans="1:4">
       <c r="A280" s="1">
         <v>0</v>
       </c>
@@ -31541,7 +31545,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="282" ht="37.5" hidden="1" spans="2:4">
+    <row r="282" ht="40" hidden="1" spans="2:4">
       <c r="B282" s="1" t="s">
         <v>927</v>
       </c>
@@ -31552,7 +31556,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="283" ht="37.5" spans="1:5">
+    <row r="283" ht="40" spans="1:5">
       <c r="A283" s="1">
         <v>1</v>
       </c>
@@ -31569,7 +31573,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:4">
+    <row r="284" ht="24" hidden="1" spans="1:4">
       <c r="A284" s="1">
         <v>0</v>
       </c>
@@ -31600,7 +31604,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="286" ht="75" hidden="1" spans="1:6">
+    <row r="286" ht="80" hidden="1" spans="1:6">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -31646,7 +31650,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="289" ht="75" spans="1:5">
+    <row r="289" ht="100" spans="1:5">
       <c r="A289" s="1">
         <v>1</v>
       </c>
@@ -31663,7 +31667,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="290" ht="37.5" hidden="1" spans="2:4">
+    <row r="290" ht="40" hidden="1" spans="2:4">
       <c r="B290" s="1" t="s">
         <v>955</v>
       </c>
@@ -31674,7 +31678,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="291" ht="37.5" hidden="1" spans="2:5">
+    <row r="291" ht="40" hidden="1" spans="2:5">
       <c r="B291" s="1" t="s">
         <v>958</v>
       </c>
@@ -31724,7 +31728,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:4">
+    <row r="295" ht="24" hidden="1" spans="1:4">
       <c r="A295" s="1">
         <v>0</v>
       </c>
@@ -31738,7 +31742,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="296" ht="37.5" spans="1:4">
+    <row r="296" ht="40" spans="1:4">
       <c r="A296" s="1">
         <v>1</v>
       </c>
@@ -31791,7 +31795,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" ht="24" spans="1:4">
       <c r="A300" s="1">
         <v>1</v>
       </c>
@@ -31805,7 +31809,10 @@
         <v>988</v>
       </c>
     </row>
-    <row r="301" ht="37.5" hidden="1" spans="2:5">
+    <row r="301" ht="40" spans="1:5">
+      <c r="A301" s="1">
+        <v>1</v>
+      </c>
       <c r="B301" s="1" t="s">
         <v>989</v>
       </c>
@@ -31819,7 +31826,10 @@
         <v>992</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="2:5">
+    <row r="302" spans="1:5">
+      <c r="A302" s="1">
+        <v>1</v>
+      </c>
       <c r="B302" s="1" t="s">
         <v>993</v>
       </c>
@@ -31833,7 +31843,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="37.5" hidden="1" spans="2:4">
+    <row r="303" ht="40" spans="1:4">
+      <c r="A303" s="1">
+        <v>1</v>
+      </c>
       <c r="B303" s="1" t="s">
         <v>996</v>
       </c>
@@ -31844,7 +31857,10 @@
         <v>998</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="2:4">
+    <row r="304" ht="23" spans="1:4">
+      <c r="A304" s="1">
+        <v>1</v>
+      </c>
       <c r="B304" s="1" t="s">
         <v>999</v>
       </c>
@@ -31855,7 +31871,10 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="305" ht="37.5" hidden="1" spans="2:4">
+    <row r="305" ht="40" spans="1:4">
+      <c r="A305" s="1">
+        <v>1</v>
+      </c>
       <c r="B305" s="1" t="s">
         <v>1002</v>
       </c>
@@ -31877,7 +31896,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="307" ht="37.5" hidden="1" spans="2:4">
+    <row r="307" ht="40" hidden="1" spans="2:4">
       <c r="B307" s="1" t="s">
         <v>1008</v>
       </c>
@@ -31888,7 +31907,10 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="2:4">
+    <row r="308" ht="24" spans="1:4">
+      <c r="A308" s="1">
+        <v>1</v>
+      </c>
       <c r="B308" s="1" t="s">
         <v>1011</v>
       </c>
@@ -31910,7 +31932,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="310" ht="37.5" hidden="1" spans="2:4">
+    <row r="310" ht="40" hidden="1" spans="2:4">
       <c r="B310" s="1" t="s">
         <v>1017</v>
       </c>
@@ -31932,7 +31954,10 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="2:4">
+    <row r="312" spans="1:4">
+      <c r="A312" s="1">
+        <v>1</v>
+      </c>
       <c r="B312" s="1" t="s">
         <v>1023</v>
       </c>
@@ -31943,7 +31968,10 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="313" ht="37.5" hidden="1" spans="2:4">
+    <row r="313" ht="40" spans="1:4">
+      <c r="A313" s="1">
+        <v>1</v>
+      </c>
       <c r="B313" s="1" t="s">
         <v>1026</v>
       </c>
@@ -31954,7 +31982,10 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="314" ht="75" hidden="1" spans="2:5">
+    <row r="314" ht="100" spans="1:5">
+      <c r="A314" s="1">
+        <v>1</v>
+      </c>
       <c r="B314" s="1" t="s">
         <v>1029</v>
       </c>
@@ -31979,7 +32010,10 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="316" ht="37.5" hidden="1" spans="2:4">
+    <row r="316" ht="40" spans="1:4">
+      <c r="A316" s="1">
+        <v>1</v>
+      </c>
       <c r="B316" s="1" t="s">
         <v>1036</v>
       </c>
@@ -32001,7 +32035,10 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="318" ht="37.5" hidden="1" spans="2:5">
+    <row r="318" ht="40" spans="1:5">
+      <c r="A318" s="1">
+        <v>1</v>
+      </c>
       <c r="B318" s="1" t="s">
         <v>1042</v>
       </c>
@@ -32015,7 +32052,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="2:5">
+    <row r="319" spans="1:5">
+      <c r="A319" s="1">
+        <v>1</v>
+      </c>
       <c r="B319" s="1" t="s">
         <v>1045</v>
       </c>
@@ -32029,7 +32069,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="2:4">
+    <row r="320" ht="23" hidden="1" spans="2:4">
       <c r="B320" s="1" t="s">
         <v>1049</v>
       </c>
@@ -32040,7 +32080,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="321" ht="112.5" hidden="1" spans="2:5">
+    <row r="321" ht="135" hidden="1" spans="2:5">
       <c r="B321" s="1" t="s">
         <v>1052</v>
       </c>
@@ -32079,7 +32119,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="2:4">
+    <row r="324" ht="24" hidden="1" spans="2:4">
       <c r="B324" s="1" t="s">
         <v>1063</v>
       </c>
@@ -32090,7 +32130,10 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="2:4">
+    <row r="325" spans="1:4">
+      <c r="A325" s="1">
+        <v>1</v>
+      </c>
       <c r="B325" s="1" t="s">
         <v>1066</v>
       </c>
@@ -32101,7 +32144,10 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="2:4">
+    <row r="326" spans="1:4">
+      <c r="A326" s="1">
+        <v>1</v>
+      </c>
       <c r="B326" s="1" t="s">
         <v>1069</v>
       </c>
@@ -32112,7 +32158,10 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="2:5">
+    <row r="327" spans="1:5">
+      <c r="A327" s="1">
+        <v>1</v>
+      </c>
       <c r="B327" s="1" t="s">
         <v>1072</v>
       </c>
@@ -32137,7 +32186,10 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="2:5">
+    <row r="329" spans="1:5">
+      <c r="A329" s="1">
+        <v>1</v>
+      </c>
       <c r="B329" s="1" t="s">
         <v>1079</v>
       </c>
@@ -32151,7 +32203,10 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="330" ht="37.5" hidden="1" spans="2:4">
+    <row r="330" ht="40" spans="1:4">
+      <c r="A330" s="1">
+        <v>1</v>
+      </c>
       <c r="B330" s="1" t="s">
         <v>1083</v>
       </c>
@@ -32162,7 +32217,10 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="2:4">
+    <row r="331" spans="1:4">
+      <c r="A331" s="1">
+        <v>1</v>
+      </c>
       <c r="B331" s="1" t="s">
         <v>1086</v>
       </c>
@@ -32173,7 +32231,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="332" ht="37.5" hidden="1" spans="2:4">
+    <row r="332" ht="40" hidden="1" spans="2:4">
       <c r="B332" s="1" t="s">
         <v>1089</v>
       </c>
@@ -32206,7 +32264,10 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="335" ht="37.5" hidden="1" spans="2:5">
+    <row r="335" ht="40" spans="1:5">
+      <c r="A335" s="1">
+        <v>1</v>
+      </c>
       <c r="B335" s="1" t="s">
         <v>1098</v>
       </c>
@@ -32242,7 +32303,10 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="2:4">
+    <row r="338" spans="1:4">
+      <c r="A338" s="1">
+        <v>1</v>
+      </c>
       <c r="B338" s="1" t="s">
         <v>1108</v>
       </c>
@@ -32264,7 +32328,10 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="2:5">
+    <row r="340" spans="1:5">
+      <c r="A340" s="1">
+        <v>1</v>
+      </c>
       <c r="B340" s="1" t="s">
         <v>1114</v>
       </c>
@@ -32278,7 +32345,10 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="341" ht="93.75" hidden="1" spans="2:5">
+    <row r="341" ht="140" spans="1:5">
+      <c r="A341" s="1">
+        <v>1</v>
+      </c>
       <c r="B341" s="1" t="s">
         <v>1118</v>
       </c>
@@ -32292,7 +32362,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="342" ht="37.5" hidden="1" spans="2:4">
+    <row r="342" ht="40" hidden="1" spans="2:4">
       <c r="B342" s="1" t="s">
         <v>1122</v>
       </c>
@@ -32303,7 +32373,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="343" ht="37.5" hidden="1" spans="2:4">
+    <row r="343" ht="40" hidden="1" spans="2:4">
       <c r="B343" s="1" t="s">
         <v>1125</v>
       </c>
@@ -32325,7 +32395,10 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="345" ht="37.5" hidden="1" spans="2:4">
+    <row r="345" ht="40" spans="1:4">
+      <c r="A345" s="1">
+        <v>1</v>
+      </c>
       <c r="B345" s="1" t="s">
         <v>1131</v>
       </c>
@@ -32336,7 +32409,10 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="2:4">
+    <row r="346" spans="1:4">
+      <c r="A346" s="1">
+        <v>1</v>
+      </c>
       <c r="B346" s="1" t="s">
         <v>1134</v>
       </c>
@@ -32347,7 +32423,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="2:4">
+    <row r="347" ht="24" hidden="1" spans="2:4">
       <c r="B347" s="1" t="s">
         <v>1137</v>
       </c>
@@ -32358,7 +32434,10 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="2:5">
+    <row r="348" spans="1:5">
+      <c r="A348" s="1">
+        <v>1</v>
+      </c>
       <c r="B348" s="1" t="s">
         <v>1140</v>
       </c>
@@ -32372,7 +32451,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" hidden="1" spans="2:5">
+    <row r="349" spans="1:5">
+      <c r="A349" s="1">
+        <v>1</v>
+      </c>
       <c r="B349" s="1" t="s">
         <v>1143</v>
       </c>
@@ -32386,7 +32468,10 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="2:4">
+    <row r="350" ht="24" spans="1:4">
+      <c r="A350" s="1">
+        <v>1</v>
+      </c>
       <c r="B350" s="1" t="s">
         <v>1147</v>
       </c>
@@ -32408,7 +32493,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="2:4">
+    <row r="352" ht="24" hidden="1" spans="2:4">
       <c r="B352" s="1" t="s">
         <v>1153</v>
       </c>
@@ -32419,7 +32504,10 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="2:4">
+    <row r="353" spans="1:4">
+      <c r="A353" s="1">
+        <v>1</v>
+      </c>
       <c r="B353" s="1" t="s">
         <v>1156</v>
       </c>
@@ -32430,7 +32518,10 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="2:4">
+    <row r="354" spans="1:4">
+      <c r="A354" s="1">
+        <v>1</v>
+      </c>
       <c r="B354" s="1" t="s">
         <v>1159</v>
       </c>
@@ -32441,7 +32532,10 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="2:5">
+    <row r="355" spans="1:5">
+      <c r="A355" s="1">
+        <v>1</v>
+      </c>
       <c r="B355" s="1" t="s">
         <v>1162</v>
       </c>
@@ -32466,7 +32560,10 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="2:4">
+    <row r="357" spans="1:4">
+      <c r="A357" s="1">
+        <v>1</v>
+      </c>
       <c r="B357" s="1" t="s">
         <v>1169</v>
       </c>
@@ -32488,7 +32585,10 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="359" ht="37.5" hidden="1" spans="2:4">
+    <row r="359" ht="40" spans="1:4">
+      <c r="A359" s="1">
+        <v>1</v>
+      </c>
       <c r="B359" s="1" t="s">
         <v>1175</v>
       </c>
@@ -32499,7 +32599,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="360" ht="37.5" hidden="1" spans="2:4">
+    <row r="360" ht="23" hidden="1" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>1178</v>
       </c>
@@ -32510,7 +32610,10 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="2:4">
+    <row r="361" ht="24" spans="1:4">
+      <c r="A361" s="1">
+        <v>1</v>
+      </c>
       <c r="B361" s="1" t="s">
         <v>1181</v>
       </c>
@@ -32521,7 +32624,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="362" ht="37.5" hidden="1" spans="2:5">
+    <row r="362" ht="40" hidden="1" spans="2:5">
       <c r="B362" s="1" t="s">
         <v>1184</v>
       </c>
@@ -32549,7 +32652,10 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="2:4">
+    <row r="364" spans="1:4">
+      <c r="A364" s="1">
+        <v>1</v>
+      </c>
       <c r="B364" s="1" t="s">
         <v>1192</v>
       </c>
@@ -32560,7 +32666,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="365" ht="37.5" hidden="1" spans="2:5">
+    <row r="365" ht="40" hidden="1" spans="2:5">
       <c r="B365" s="1" t="s">
         <v>1195</v>
       </c>
@@ -32585,7 +32691,10 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="367" ht="37.5" hidden="1" spans="2:5">
+    <row r="367" ht="40" spans="1:5">
+      <c r="A367" s="1">
+        <v>1</v>
+      </c>
       <c r="B367" s="1" t="s">
         <v>1202</v>
       </c>
@@ -32610,7 +32719,10 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="369" ht="37.5" hidden="1" spans="2:4">
+    <row r="369" ht="40" spans="1:4">
+      <c r="A369" s="1">
+        <v>1</v>
+      </c>
       <c r="B369" s="1" t="s">
         <v>1209</v>
       </c>
@@ -32649,7 +32761,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="2:5">
+    <row r="372" ht="24" hidden="1" spans="2:5">
       <c r="B372" s="1" t="s">
         <v>1220</v>
       </c>
@@ -32663,7 +32775,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="373" ht="37.5" hidden="1" spans="2:4">
+    <row r="373" ht="40" hidden="1" spans="2:4">
       <c r="B373" s="1" t="s">
         <v>1224</v>
       </c>
@@ -32674,7 +32786,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="374" ht="37.5" hidden="1" spans="2:4">
+    <row r="374" ht="40" hidden="1" spans="2:4">
       <c r="B374" s="1" t="s">
         <v>1227</v>
       </c>
@@ -32685,7 +32797,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="375" ht="56.25" hidden="1" spans="2:4">
+    <row r="375" ht="60" hidden="1" spans="2:4">
       <c r="B375" s="1" t="s">
         <v>1230</v>
       </c>
@@ -32696,7 +32808,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="376" hidden="1" spans="2:4">
+    <row r="376" ht="24" hidden="1" spans="2:4">
       <c r="B376" s="1" t="s">
         <v>1233</v>
       </c>
@@ -32707,7 +32819,10 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="2:4">
+    <row r="377" spans="1:4">
+      <c r="A377" s="1">
+        <v>1</v>
+      </c>
       <c r="B377" s="1" t="s">
         <v>1236</v>
       </c>
@@ -32751,7 +32866,10 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="381" ht="37.5" hidden="1" spans="2:4">
+    <row r="381" ht="40" spans="1:4">
+      <c r="A381" s="1">
+        <v>1</v>
+      </c>
       <c r="B381" s="1" t="s">
         <v>1248</v>
       </c>
@@ -32762,7 +32880,10 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="382" ht="37.5" hidden="1" spans="2:4">
+    <row r="382" ht="40" spans="1:4">
+      <c r="A382" s="1">
+        <v>1</v>
+      </c>
       <c r="B382" s="1" t="s">
         <v>1251</v>
       </c>
@@ -32773,7 +32894,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="383" ht="37.5" hidden="1" spans="2:4">
+    <row r="383" ht="40" hidden="1" spans="2:4">
       <c r="B383" s="1" t="s">
         <v>1254</v>
       </c>
@@ -32784,7 +32905,10 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="2:4">
+    <row r="384" spans="1:4">
+      <c r="A384" s="1">
+        <v>1</v>
+      </c>
       <c r="B384" s="1" t="s">
         <v>1257</v>
       </c>
@@ -32806,7 +32930,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="386" ht="37.5" hidden="1" spans="2:4">
+    <row r="386" ht="40" hidden="1" spans="2:4">
       <c r="B386" s="1" t="s">
         <v>1263</v>
       </c>
@@ -32817,7 +32941,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="387" ht="37.5" hidden="1" spans="2:4">
+    <row r="387" ht="40" hidden="1" spans="2:4">
       <c r="B387" s="1" t="s">
         <v>1266</v>
       </c>
@@ -32828,7 +32952,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="2:4">
+    <row r="388" ht="23" hidden="1" spans="2:4">
       <c r="B388" s="1" t="s">
         <v>1269</v>
       </c>
@@ -32839,7 +32963,10 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="2:5">
+    <row r="389" spans="1:5">
+      <c r="A389" s="1">
+        <v>1</v>
+      </c>
       <c r="B389" s="1" t="s">
         <v>1272</v>
       </c>
@@ -32853,7 +32980,10 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="2:4">
+    <row r="390" spans="1:4">
+      <c r="A390" s="1">
+        <v>1</v>
+      </c>
       <c r="B390" s="1" t="s">
         <v>1276</v>
       </c>
@@ -32875,7 +33005,10 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="2:4">
+    <row r="392" spans="1:4">
+      <c r="A392" s="1">
+        <v>1</v>
+      </c>
       <c r="B392" s="1" t="s">
         <v>1282</v>
       </c>
@@ -32886,7 +33019,10 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="2:4">
+    <row r="393" spans="1:4">
+      <c r="A393" s="1">
+        <v>1</v>
+      </c>
       <c r="B393" s="1" t="s">
         <v>1285</v>
       </c>
@@ -32897,7 +33033,10 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="2:4">
+    <row r="394" ht="24" spans="1:4">
+      <c r="A394" s="1">
+        <v>1</v>
+      </c>
       <c r="B394" s="1" t="s">
         <v>1288</v>
       </c>
@@ -32908,7 +33047,10 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="2:4">
+    <row r="395" spans="1:4">
+      <c r="A395" s="1">
+        <v>1</v>
+      </c>
       <c r="B395" s="1" t="s">
         <v>1291</v>
       </c>
@@ -32930,7 +33072,10 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="2:4">
+    <row r="397" spans="1:4">
+      <c r="A397" s="1">
+        <v>1</v>
+      </c>
       <c r="B397" s="1" t="s">
         <v>1296</v>
       </c>
@@ -32952,7 +33097,10 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="399" ht="37.5" hidden="1" spans="2:5">
+    <row r="399" ht="40" spans="1:5">
+      <c r="A399" s="1">
+        <v>1</v>
+      </c>
       <c r="B399" s="1" t="s">
         <v>1302</v>
       </c>
@@ -32977,7 +33125,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="401" ht="168.75" hidden="1" spans="2:5">
+    <row r="401" ht="200" hidden="1" spans="2:5">
       <c r="B401" s="1" t="s">
         <v>1309</v>
       </c>
@@ -33002,7 +33150,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="2:5">
+    <row r="403" ht="23" hidden="1" spans="2:5">
       <c r="B403" s="1" t="s">
         <v>1316</v>
       </c>
@@ -33016,7 +33164,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="2:4">
+    <row r="404" ht="24" hidden="1" spans="2:4">
       <c r="B404" s="1" t="s">
         <v>1320</v>
       </c>
@@ -33027,7 +33175,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="405" ht="112.5" hidden="1" spans="2:5">
+    <row r="405" ht="134" hidden="1" spans="2:5">
       <c r="B405" s="1" t="s">
         <v>1323</v>
       </c>
@@ -33041,7 +33189,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="406" ht="37.5" hidden="1" spans="2:4">
+    <row r="406" ht="40" hidden="1" spans="2:4">
       <c r="B406" s="1" t="s">
         <v>1327</v>
       </c>
@@ -33052,7 +33200,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="2:5">
+    <row r="407" ht="24" hidden="1" spans="2:5">
       <c r="B407" s="1" t="s">
         <v>1330</v>
       </c>
@@ -33088,7 +33236,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="2:4">
+    <row r="410" ht="23" hidden="1" spans="2:4">
       <c r="B410" s="1" t="s">
         <v>1340</v>
       </c>
@@ -33099,7 +33247,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="411" ht="37.5" hidden="1" spans="2:4">
+    <row r="411" ht="40" hidden="1" spans="2:4">
       <c r="B411" s="1" t="s">
         <v>1343</v>
       </c>
@@ -33110,7 +33258,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="412" ht="37.5" hidden="1" spans="2:4">
+    <row r="412" ht="40" hidden="1" spans="2:4">
       <c r="B412" s="1" t="s">
         <v>1346</v>
       </c>
@@ -33121,7 +33269,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="413" ht="37.5" hidden="1" spans="2:4">
+    <row r="413" ht="40" hidden="1" spans="2:4">
       <c r="B413" s="1" t="s">
         <v>1349</v>
       </c>
@@ -33143,7 +33291,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="2:5">
+    <row r="415" ht="24" hidden="1" spans="2:5">
       <c r="B415" s="1" t="s">
         <v>1355</v>
       </c>
@@ -33168,7 +33316,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="2:4">
+    <row r="417" ht="24" hidden="1" spans="2:4">
       <c r="B417" s="1" t="s">
         <v>1362</v>
       </c>
@@ -33179,7 +33327,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="418" ht="37.5" hidden="1" spans="2:5">
+    <row r="418" ht="40" hidden="1" spans="2:5">
       <c r="B418" s="1" t="s">
         <v>1365</v>
       </c>
@@ -33193,7 +33341,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="419" ht="37.5" hidden="1" spans="2:5">
+    <row r="419" ht="40" hidden="1" spans="2:5">
       <c r="B419" s="1" t="s">
         <v>1369</v>
       </c>
@@ -33218,7 +33366,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="421" hidden="1" spans="2:4">
+    <row r="421" ht="24" hidden="1" spans="2:4">
       <c r="B421" s="1" t="s">
         <v>1376</v>
       </c>
@@ -33229,7 +33377,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="2:4">
+    <row r="422" ht="23" hidden="1" spans="2:4">
       <c r="B422" s="1" t="s">
         <v>1379</v>
       </c>
@@ -33240,7 +33388,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="2:4">
+    <row r="423" ht="24" hidden="1" spans="2:4">
       <c r="B423" s="1" t="s">
         <v>1382</v>
       </c>
@@ -33251,7 +33399,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="2:4">
+    <row r="424" ht="24" hidden="1" spans="2:4">
       <c r="B424" s="1" t="s">
         <v>1385</v>
       </c>
@@ -33262,7 +33410,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="2:4">
+    <row r="425" ht="24" hidden="1" spans="2:4">
       <c r="B425" s="1" t="s">
         <v>1388</v>
       </c>
@@ -33273,7 +33421,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="426" hidden="1" spans="2:4">
+    <row r="426" ht="24" hidden="1" spans="2:4">
       <c r="B426" s="1" t="s">
         <v>1391</v>
       </c>
@@ -33284,7 +33432,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="2:5">
+    <row r="427" ht="23" hidden="1" spans="2:5">
       <c r="B427" s="1" t="s">
         <v>1394</v>
       </c>
@@ -33298,7 +33446,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="428" ht="37.5" hidden="1" spans="2:4">
+    <row r="428" ht="40" hidden="1" spans="2:4">
       <c r="B428" s="1" t="s">
         <v>1398</v>
       </c>
@@ -33320,7 +33468,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="2:4">
+    <row r="430" ht="23" hidden="1" spans="2:4">
       <c r="B430" s="1" t="s">
         <v>1404</v>
       </c>
@@ -33353,7 +33501,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="2:4">
+    <row r="433" ht="24" hidden="1" spans="2:4">
       <c r="B433" s="1" t="s">
         <v>1413</v>
       </c>
@@ -33364,7 +33512,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="434" ht="37.5" hidden="1" spans="2:4">
+    <row r="434" ht="40" hidden="1" spans="2:4">
       <c r="B434" s="1" t="s">
         <v>1416</v>
       </c>
@@ -33375,7 +33523,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="2:4">
+    <row r="435" ht="24" hidden="1" spans="2:4">
       <c r="B435" s="1" t="s">
         <v>1419</v>
       </c>
@@ -33419,7 +33567,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="439" ht="37.5" hidden="1" spans="2:4">
+    <row r="439" ht="40" hidden="1" spans="2:4">
       <c r="B439" s="1" t="s">
         <v>1431</v>
       </c>
@@ -33430,7 +33578,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="440" ht="37.5" hidden="1" spans="2:4">
+    <row r="440" ht="40" hidden="1" spans="2:4">
       <c r="B440" s="1" t="s">
         <v>1434</v>
       </c>
@@ -33441,7 +33589,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="2:4">
+    <row r="441" ht="24" hidden="1" spans="2:4">
       <c r="B441" s="1" t="s">
         <v>1437</v>
       </c>
@@ -33466,7 +33614,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="2:4">
+    <row r="443" ht="24" hidden="1" spans="2:4">
       <c r="B443" s="1" t="s">
         <v>1444</v>
       </c>
@@ -33488,7 +33636,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="445" ht="37.5" hidden="1" spans="2:4">
+    <row r="445" ht="40" hidden="1" spans="2:4">
       <c r="B445" s="1" t="s">
         <v>1450</v>
       </c>
@@ -33524,7 +33672,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="448" ht="37.5" hidden="1" spans="2:4">
+    <row r="448" ht="40" hidden="1" spans="2:4">
       <c r="B448" s="1" t="s">
         <v>1460</v>
       </c>
@@ -33535,7 +33683,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="449" hidden="1" spans="2:4">
+    <row r="449" ht="23" hidden="1" spans="2:4">
       <c r="B449" s="1" t="s">
         <v>1463</v>
       </c>
@@ -33557,7 +33705,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="451" hidden="1" spans="2:4">
+    <row r="451" ht="24" hidden="1" spans="2:4">
       <c r="B451" s="1" t="s">
         <v>1469</v>
       </c>
@@ -33568,7 +33716,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="452" hidden="1" spans="2:4">
+    <row r="452" ht="24" hidden="1" spans="2:4">
       <c r="B452" s="1" t="s">
         <v>1472</v>
       </c>
@@ -33590,7 +33738,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="454" hidden="1" spans="2:4">
+    <row r="454" ht="24" hidden="1" spans="2:4">
       <c r="B454" s="1" t="s">
         <v>1478</v>
       </c>
@@ -33612,7 +33760,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="456" hidden="1" spans="2:4">
+    <row r="456" ht="24" hidden="1" spans="2:4">
       <c r="B456" s="1" t="s">
         <v>1484</v>
       </c>
@@ -33645,7 +33793,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="459" ht="37.5" hidden="1" spans="2:4">
+    <row r="459" ht="40" hidden="1" spans="2:4">
       <c r="B459" s="1" t="s">
         <v>1493</v>
       </c>
@@ -33667,7 +33815,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="461" hidden="1" spans="2:4">
+    <row r="461" ht="24" hidden="1" spans="2:4">
       <c r="B461" s="1" t="s">
         <v>1499</v>
       </c>
@@ -33689,7 +33837,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="2:4">
+    <row r="463" ht="23" hidden="1" spans="2:4">
       <c r="B463" s="1" t="s">
         <v>1505</v>
       </c>
@@ -33700,7 +33848,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="464" ht="37.5" hidden="1" spans="2:4">
+    <row r="464" ht="40" hidden="1" spans="2:4">
       <c r="B464" s="1" t="s">
         <v>1508</v>
       </c>
@@ -33744,7 +33892,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="468" ht="37.5" hidden="1" spans="2:4">
+    <row r="468" ht="40" hidden="1" spans="2:4">
       <c r="B468" s="1" t="s">
         <v>1520</v>
       </c>
@@ -33821,7 +33969,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="475" hidden="1" spans="2:4">
+    <row r="475" ht="24" hidden="1" spans="2:4">
       <c r="B475" s="1" t="s">
         <v>1541</v>
       </c>
@@ -33843,7 +33991,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="477" hidden="1" spans="2:4">
+    <row r="477" ht="24" hidden="1" spans="2:4">
       <c r="B477" s="1" t="s">
         <v>1546</v>
       </c>
@@ -33854,7 +34002,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="2:4">
+    <row r="478" ht="24" hidden="1" spans="2:4">
       <c r="B478" s="1" t="s">
         <v>1549</v>
       </c>
@@ -33865,7 +34013,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="2:4">
+    <row r="479" ht="24" hidden="1" spans="2:4">
       <c r="B479" s="1" t="s">
         <v>1552</v>
       </c>
@@ -33876,7 +34024,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="2:4">
+    <row r="480" ht="24" hidden="1" spans="2:4">
       <c r="B480" s="1" t="s">
         <v>1555</v>
       </c>
@@ -33887,7 +34035,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="2:4">
+    <row r="481" ht="24" hidden="1" spans="2:4">
       <c r="B481" s="1" t="s">
         <v>1558</v>
       </c>
@@ -33898,7 +34046,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="482" hidden="1" spans="2:4">
+    <row r="482" ht="23" hidden="1" spans="2:4">
       <c r="B482" s="1" t="s">
         <v>1561</v>
       </c>
@@ -33920,7 +34068,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="484" hidden="1" spans="2:4">
+    <row r="484" ht="24" hidden="1" spans="2:4">
       <c r="B484" s="1" t="s">
         <v>1567</v>
       </c>
@@ -33931,7 +34079,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="2:4">
+    <row r="485" ht="24" hidden="1" spans="2:4">
       <c r="B485" s="1" t="s">
         <v>1570</v>
       </c>
@@ -33942,7 +34090,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="2:4">
+    <row r="486" ht="23" hidden="1" spans="2:4">
       <c r="B486" s="1" t="s">
         <v>1573</v>
       </c>
@@ -33953,7 +34101,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="487" ht="37.5" hidden="1" spans="2:5">
+    <row r="487" ht="58" hidden="1" spans="2:5">
       <c r="B487" s="1" t="s">
         <v>1576</v>
       </c>
@@ -33981,7 +34129,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="489" ht="37.5" hidden="1" spans="2:4">
+    <row r="489" ht="40" hidden="1" spans="2:4">
       <c r="B489" s="1" t="s">
         <v>1584</v>
       </c>
@@ -33992,7 +34140,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="490" ht="56.25" hidden="1" spans="2:5">
+    <row r="490" ht="60" hidden="1" spans="2:5">
       <c r="B490" s="1" t="s">
         <v>1587</v>
       </c>
@@ -34017,7 +34165,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="492" ht="37.5" hidden="1" spans="2:4">
+    <row r="492" ht="40" hidden="1" spans="2:4">
       <c r="B492" s="1" t="s">
         <v>1594</v>
       </c>
@@ -34028,7 +34176,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="493" ht="37.5" hidden="1" spans="2:4">
+    <row r="493" ht="40" hidden="1" spans="2:4">
       <c r="B493" s="1" t="s">
         <v>1597</v>
       </c>
@@ -34039,7 +34187,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="494" ht="37.5" hidden="1" spans="2:4">
+    <row r="494" ht="40" hidden="1" spans="2:4">
       <c r="B494" s="1" t="s">
         <v>1600</v>
       </c>
@@ -34050,7 +34198,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="495" ht="37.5" hidden="1" spans="2:4">
+    <row r="495" ht="40" hidden="1" spans="2:4">
       <c r="B495" s="1" t="s">
         <v>1603</v>
       </c>
@@ -34061,7 +34209,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="496" ht="37.5" hidden="1" spans="2:4">
+    <row r="496" ht="40" hidden="1" spans="2:4">
       <c r="B496" s="1" t="s">
         <v>1606</v>
       </c>
@@ -34083,7 +34231,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="498" ht="37.5" hidden="1" spans="2:5">
+    <row r="498" ht="40" hidden="1" spans="2:5">
       <c r="B498" s="1" t="s">
         <v>1612</v>
       </c>
@@ -34097,7 +34245,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="2:4">
+    <row r="499" ht="24" hidden="1" spans="2:4">
       <c r="B499" s="1" t="s">
         <v>1616</v>
       </c>
@@ -34108,7 +34256,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="500" ht="37.5" hidden="1" spans="2:5">
+    <row r="500" ht="40" hidden="1" spans="2:5">
       <c r="B500" s="1" t="s">
         <v>1619</v>
       </c>
@@ -34122,7 +34270,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="501" ht="37.5" hidden="1" spans="2:4">
+    <row r="501" ht="40" hidden="1" spans="2:4">
       <c r="B501" s="1" t="s">
         <v>1623</v>
       </c>
@@ -34133,7 +34281,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="502" ht="37.5" hidden="1" spans="2:4">
+    <row r="502" ht="40" hidden="1" spans="2:4">
       <c r="B502" s="1" t="s">
         <v>1626</v>
       </c>
@@ -34155,7 +34303,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="504" hidden="1" spans="2:4">
+    <row r="504" ht="23" hidden="1" spans="2:4">
       <c r="B504" s="1" t="s">
         <v>1632</v>
       </c>
@@ -34166,7 +34314,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="505" ht="37.5" hidden="1" spans="2:5">
+    <row r="505" ht="40" hidden="1" spans="2:5">
       <c r="B505" s="1" t="s">
         <v>1635</v>
       </c>
@@ -34180,7 +34328,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="506" ht="37.5" hidden="1" spans="2:4">
+    <row r="506" ht="40" hidden="1" spans="2:4">
       <c r="B506" s="1" t="s">
         <v>1639</v>
       </c>
@@ -34205,7 +34353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" ht="37.5" hidden="1" spans="2:5">
+    <row r="508" ht="60" hidden="1" spans="2:5">
       <c r="B508" s="1" t="s">
         <v>1645</v>
       </c>
@@ -34230,7 +34378,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="510" hidden="1" spans="2:4">
+    <row r="510" ht="23" hidden="1" spans="2:4">
       <c r="B510" s="1" t="s">
         <v>1652</v>
       </c>
@@ -34241,7 +34389,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="511" ht="37.5" hidden="1" spans="2:5">
+    <row r="511" ht="40" hidden="1" spans="2:5">
       <c r="B511" s="1" t="s">
         <v>1655</v>
       </c>
@@ -34269,7 +34417,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="513" ht="37.5" hidden="1" spans="2:4">
+    <row r="513" ht="40" hidden="1" spans="2:4">
       <c r="B513" s="1" t="s">
         <v>1663</v>
       </c>
@@ -34280,7 +34428,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="514" ht="37.5" hidden="1" spans="2:4">
+    <row r="514" ht="40" hidden="1" spans="2:4">
       <c r="B514" s="1" t="s">
         <v>1666</v>
       </c>
@@ -34291,7 +34439,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="515" ht="37.5" hidden="1" spans="2:4">
+    <row r="515" ht="40" hidden="1" spans="2:4">
       <c r="B515" s="1" t="s">
         <v>1669</v>
       </c>
@@ -34302,7 +34450,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="516" ht="37.5" hidden="1" spans="2:4">
+    <row r="516" ht="40" hidden="1" spans="2:4">
       <c r="B516" s="1" t="s">
         <v>1672</v>
       </c>
@@ -34313,7 +34461,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="517" ht="37.5" hidden="1" spans="2:4">
+    <row r="517" ht="40" hidden="1" spans="2:4">
       <c r="B517" s="1" t="s">
         <v>1675</v>
       </c>
@@ -34324,7 +34472,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="518" ht="37.5" hidden="1" spans="2:4">
+    <row r="518" ht="40" hidden="1" spans="2:4">
       <c r="B518" s="1" t="s">
         <v>1678</v>
       </c>
@@ -34335,7 +34483,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="519" ht="37.5" hidden="1" spans="2:4">
+    <row r="519" ht="40" hidden="1" spans="2:4">
       <c r="B519" s="1" t="s">
         <v>1681</v>
       </c>
@@ -34346,7 +34494,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="520" ht="56.25" hidden="1" spans="2:5">
+    <row r="520" ht="60" hidden="1" spans="2:5">
       <c r="B520" s="1" t="s">
         <v>1684</v>
       </c>
@@ -34360,7 +34508,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="521" ht="37.5" hidden="1" spans="2:5">
+    <row r="521" ht="44" hidden="1" spans="2:5">
       <c r="B521" s="1" t="s">
         <v>1688</v>
       </c>
@@ -34374,7 +34522,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="522" ht="37.5" hidden="1" spans="2:4">
+    <row r="522" ht="40" hidden="1" spans="2:4">
       <c r="B522" s="1" t="s">
         <v>1692</v>
       </c>
@@ -34385,7 +34533,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="2:4">
+    <row r="523" ht="24" hidden="1" spans="2:4">
       <c r="B523" s="1" t="s">
         <v>1695</v>
       </c>
@@ -34396,7 +34544,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="524" ht="37.5" hidden="1" spans="2:4">
+    <row r="524" ht="40" hidden="1" spans="2:4">
       <c r="B524" s="1" t="s">
         <v>1698</v>
       </c>
@@ -34418,7 +34566,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="526" ht="37.5" hidden="1" spans="2:4">
+    <row r="526" ht="40" hidden="1" spans="2:4">
       <c r="B526" s="1" t="s">
         <v>1704</v>
       </c>
@@ -34429,7 +34577,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="2:4">
+    <row r="527" ht="24" hidden="1" spans="2:4">
       <c r="B527" s="1" t="s">
         <v>1707</v>
       </c>
@@ -34462,7 +34610,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="530" ht="37.5" hidden="1" spans="2:4">
+    <row r="530" ht="40" hidden="1" spans="2:4">
       <c r="B530" s="1" t="s">
         <v>1716</v>
       </c>
@@ -34473,7 +34621,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="531" ht="37.5" hidden="1" spans="2:4">
+    <row r="531" ht="40" hidden="1" spans="2:4">
       <c r="B531" s="1" t="s">
         <v>1719</v>
       </c>
@@ -34484,7 +34632,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="532" ht="37.5" hidden="1" spans="2:4">
+    <row r="532" ht="40" hidden="1" spans="2:4">
       <c r="B532" s="1" t="s">
         <v>1722</v>
       </c>
@@ -34495,7 +34643,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="533" ht="37.5" hidden="1" spans="2:4">
+    <row r="533" ht="40" hidden="1" spans="2:4">
       <c r="B533" s="1" t="s">
         <v>1725</v>
       </c>
@@ -34506,7 +34654,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="534" ht="75" hidden="1" spans="2:5">
+    <row r="534" ht="80" hidden="1" spans="2:5">
       <c r="B534" s="1" t="s">
         <v>1728</v>
       </c>
@@ -34531,7 +34679,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="536" ht="37.5" hidden="1" spans="2:5">
+    <row r="536" ht="40" hidden="1" spans="2:5">
       <c r="B536" s="1" t="s">
         <v>1735</v>
       </c>
@@ -34545,7 +34693,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="537" hidden="1" spans="2:4">
+    <row r="537" ht="24" hidden="1" spans="2:4">
       <c r="B537" s="1" t="s">
         <v>1739</v>
       </c>
@@ -34567,7 +34715,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="539" hidden="1" spans="2:4">
+    <row r="539" ht="24" hidden="1" spans="2:4">
       <c r="B539" s="1" t="s">
         <v>1745</v>
       </c>
@@ -34628,7 +34776,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="544" ht="37.5" hidden="1" spans="2:4">
+    <row r="544" ht="40" hidden="1" spans="2:4">
       <c r="B544" s="1" t="s">
         <v>1762</v>
       </c>
@@ -34639,7 +34787,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="2:4">
+    <row r="545" ht="23" hidden="1" spans="2:4">
       <c r="B545" s="1" t="s">
         <v>1765</v>
       </c>
@@ -34650,7 +34798,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="2:5">
+    <row r="546" ht="40" hidden="1" spans="2:5">
       <c r="B546" s="1" t="s">
         <v>1768</v>
       </c>
@@ -34678,7 +34826,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="548" ht="37.5" hidden="1" spans="2:5">
+    <row r="548" ht="40" hidden="1" spans="2:5">
       <c r="B548" s="1" t="s">
         <v>1776</v>
       </c>
@@ -34692,7 +34840,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="549" hidden="1" spans="2:4">
+    <row r="549" ht="24" hidden="1" spans="2:4">
       <c r="B549" s="1" t="s">
         <v>1780</v>
       </c>
@@ -34703,7 +34851,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="550" ht="37.5" hidden="1" spans="2:4">
+    <row r="550" ht="40" hidden="1" spans="2:4">
       <c r="B550" s="1" t="s">
         <v>1783</v>
       </c>
@@ -34725,7 +34873,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="552" ht="37.5" hidden="1" spans="2:4">
+    <row r="552" ht="40" hidden="1" spans="2:4">
       <c r="B552" s="1" t="s">
         <v>1789</v>
       </c>
@@ -34736,7 +34884,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="553" ht="37.5" hidden="1" spans="2:4">
+    <row r="553" ht="40" hidden="1" spans="2:4">
       <c r="B553" s="1" t="s">
         <v>1792</v>
       </c>
@@ -34758,7 +34906,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="555" hidden="1" spans="2:4">
+    <row r="555" ht="24" hidden="1" spans="2:4">
       <c r="B555" s="1" t="s">
         <v>1798</v>
       </c>
@@ -34780,7 +34928,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="2:4">
+    <row r="557" ht="24" hidden="1" spans="2:4">
       <c r="B557" s="1" t="s">
         <v>1804</v>
       </c>
@@ -34791,7 +34939,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="558" ht="37.5" hidden="1" spans="2:4">
+    <row r="558" ht="40" hidden="1" spans="2:4">
       <c r="B558" s="1" t="s">
         <v>1807</v>
       </c>
@@ -34802,7 +34950,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="559" hidden="1" spans="2:5">
+    <row r="559" ht="24" hidden="1" spans="2:5">
       <c r="B559" s="1" t="s">
         <v>1810</v>
       </c>
@@ -34816,7 +34964,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="560" hidden="1" spans="2:4">
+    <row r="560" ht="24" hidden="1" spans="2:4">
       <c r="B560" s="1" t="s">
         <v>1814</v>
       </c>
@@ -34866,7 +35014,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="564" ht="37.5" hidden="1" spans="2:4">
+    <row r="564" ht="40" hidden="1" spans="2:4">
       <c r="B564" s="1" t="s">
         <v>1828</v>
       </c>
@@ -34877,7 +35025,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="565" hidden="1" spans="2:4">
+    <row r="565" ht="24" hidden="1" spans="2:4">
       <c r="B565" s="1" t="s">
         <v>1831</v>
       </c>
@@ -34888,7 +35036,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="566" ht="75" hidden="1" spans="2:5">
+    <row r="566" ht="100" hidden="1" spans="2:5">
       <c r="B566" s="1" t="s">
         <v>1834</v>
       </c>
@@ -34941,7 +35089,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="570" ht="37.5" hidden="1" spans="2:4">
+    <row r="570" ht="40" hidden="1" spans="2:4">
       <c r="B570" s="1" t="s">
         <v>1849</v>
       </c>
@@ -34952,7 +35100,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="571" hidden="1" spans="2:4">
+    <row r="571" ht="24" hidden="1" spans="2:4">
       <c r="B571" s="1" t="s">
         <v>1852</v>
       </c>
@@ -34963,7 +35111,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="572" hidden="1" spans="2:4">
+    <row r="572" ht="23" hidden="1" spans="2:4">
       <c r="B572" s="1" t="s">
         <v>1855</v>
       </c>
@@ -34988,7 +35136,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="2:4">
+    <row r="574" ht="23" hidden="1" spans="2:4">
       <c r="B574" s="1" t="s">
         <v>1862</v>
       </c>
@@ -34999,7 +35147,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="575" ht="37.5" hidden="1" spans="2:4">
+    <row r="575" ht="44" hidden="1" spans="2:4">
       <c r="B575" s="1" t="s">
         <v>1865</v>
       </c>
@@ -35010,7 +35158,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="576" hidden="1" spans="2:4">
+    <row r="576" ht="24" hidden="1" spans="2:4">
       <c r="B576" s="1" t="s">
         <v>1868</v>
       </c>
@@ -35021,7 +35169,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="2:4">
+    <row r="577" ht="24" hidden="1" spans="2:4">
       <c r="B577" s="1" t="s">
         <v>1871</v>
       </c>
@@ -35043,7 +35191,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="579" hidden="1" spans="2:4">
+    <row r="579" ht="24" hidden="1" spans="2:4">
       <c r="B579" s="1" t="s">
         <v>1877</v>
       </c>
@@ -35054,7 +35202,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="580" ht="37.5" hidden="1" spans="2:4">
+    <row r="580" ht="40" hidden="1" spans="2:4">
       <c r="B580" s="1" t="s">
         <v>1880</v>
       </c>
@@ -35076,7 +35224,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="582" hidden="1" spans="2:4">
+    <row r="582" ht="24" hidden="1" spans="2:4">
       <c r="B582" s="1" t="s">
         <v>1886</v>
       </c>
@@ -35145,7 +35293,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="588" hidden="1" spans="2:4">
+    <row r="588" ht="24" hidden="1" spans="2:4">
       <c r="B588" s="1" t="s">
         <v>1905</v>
       </c>
@@ -35167,7 +35315,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="590" ht="37.5" hidden="1" spans="2:4">
+    <row r="590" ht="40" hidden="1" spans="2:4">
       <c r="B590" s="1" t="s">
         <v>1911</v>
       </c>
@@ -35200,7 +35348,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="593" ht="37.5" hidden="1" spans="2:5">
+    <row r="593" ht="40" hidden="1" spans="2:5">
       <c r="B593" s="1" t="s">
         <v>1920</v>
       </c>
@@ -35261,7 +35409,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="598" ht="37.5" hidden="1" spans="2:5">
+    <row r="598" ht="40" hidden="1" spans="2:5">
       <c r="B598" s="1" t="s">
         <v>1937</v>
       </c>
@@ -35286,7 +35434,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="2:4">
+    <row r="600" ht="24" hidden="1" spans="2:4">
       <c r="B600" s="1" t="s">
         <v>1944</v>
       </c>
@@ -35297,7 +35445,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="2:4">
+    <row r="601" ht="24" hidden="1" spans="2:4">
       <c r="B601" s="1" t="s">
         <v>1947</v>
       </c>
@@ -35333,7 +35481,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="604" hidden="1" spans="2:5">
+    <row r="604" ht="24" hidden="1" spans="2:5">
       <c r="B604" s="1" t="s">
         <v>1957</v>
       </c>
@@ -35358,7 +35506,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="606" hidden="1" spans="2:4">
+    <row r="606" ht="24" hidden="1" spans="2:4">
       <c r="B606" s="1" t="s">
         <v>1964</v>
       </c>
@@ -35369,7 +35517,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="607" hidden="1" spans="2:5">
+    <row r="607" ht="24" hidden="1" spans="2:5">
       <c r="B607" s="1" t="s">
         <v>1967</v>
       </c>
@@ -35383,7 +35531,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="608" hidden="1" spans="2:5">
+    <row r="608" ht="24" hidden="1" spans="2:5">
       <c r="B608" s="1" t="s">
         <v>1971</v>
       </c>
@@ -35397,7 +35545,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="609" ht="37.5" hidden="1" spans="2:5">
+    <row r="609" ht="40" hidden="1" spans="2:5">
       <c r="B609" s="1" t="s">
         <v>1974</v>
       </c>
@@ -35422,7 +35570,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="611" hidden="1" spans="2:5">
+    <row r="611" ht="24" hidden="1" spans="2:5">
       <c r="B611" s="1" t="s">
         <v>1981</v>
       </c>
@@ -35472,7 +35620,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="615" ht="37.5" hidden="1" spans="2:4">
+    <row r="615" ht="40" hidden="1" spans="2:4">
       <c r="B615" s="1" t="s">
         <v>1995</v>
       </c>
@@ -35505,7 +35653,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="618" hidden="1" spans="2:4">
+    <row r="618" ht="24" hidden="1" spans="2:4">
       <c r="B618" s="1" t="s">
         <v>2004</v>
       </c>
@@ -35538,7 +35686,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="621" hidden="1" spans="2:4">
+    <row r="621" ht="24" hidden="1" spans="2:4">
       <c r="B621" s="1" t="s">
         <v>2013</v>
       </c>
@@ -35563,7 +35711,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="623" hidden="1" spans="2:4">
+    <row r="623" ht="24" hidden="1" spans="2:4">
       <c r="B623" s="1" t="s">
         <v>2020</v>
       </c>
@@ -35596,7 +35744,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="626" ht="37.5" hidden="1" spans="2:4">
+    <row r="626" ht="40" hidden="1" spans="2:4">
       <c r="B626" s="1" t="s">
         <v>2029</v>
       </c>
@@ -35629,7 +35777,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="629" hidden="1" spans="2:4">
+    <row r="629" ht="23" hidden="1" spans="2:4">
       <c r="B629" s="1" t="s">
         <v>2038</v>
       </c>
@@ -35640,7 +35788,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="630" ht="37.5" hidden="1" spans="2:4">
+    <row r="630" ht="40" hidden="1" spans="2:4">
       <c r="B630" s="1" t="s">
         <v>2041</v>
       </c>
@@ -35651,7 +35799,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="631" hidden="1" spans="2:4">
+    <row r="631" ht="24" hidden="1" spans="2:4">
       <c r="B631" s="1" t="s">
         <v>2044</v>
       </c>
@@ -35662,7 +35810,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="632" hidden="1" spans="2:4">
+    <row r="632" ht="24" hidden="1" spans="2:4">
       <c r="B632" s="1" t="s">
         <v>2047</v>
       </c>
@@ -35673,7 +35821,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="633" ht="37.5" hidden="1" spans="2:4">
+    <row r="633" ht="40" hidden="1" spans="2:4">
       <c r="B633" s="1" t="s">
         <v>2050</v>
       </c>
@@ -35775,7 +35923,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="642" ht="37.5" hidden="1" spans="2:4">
+    <row r="642" ht="40" hidden="1" spans="2:4">
       <c r="B642" s="1" t="s">
         <v>2078</v>
       </c>
@@ -35786,7 +35934,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="643" ht="37.5" hidden="1" spans="2:4">
+    <row r="643" ht="40" hidden="1" spans="2:4">
       <c r="B643" s="1" t="s">
         <v>2081</v>
       </c>
@@ -35847,7 +35995,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="648" hidden="1" spans="2:4">
+    <row r="648" ht="24" hidden="1" spans="2:4">
       <c r="B648" s="1" t="s">
         <v>2098</v>
       </c>
@@ -35858,7 +36006,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="649" ht="37.5" hidden="1" spans="2:5">
+    <row r="649" ht="40" hidden="1" spans="2:5">
       <c r="B649" s="1" t="s">
         <v>2101</v>
       </c>
@@ -35872,7 +36020,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="650" ht="37.5" hidden="1" spans="2:4">
+    <row r="650" ht="40" hidden="1" spans="2:4">
       <c r="B650" s="1" t="s">
         <v>2105</v>
       </c>
@@ -35894,7 +36042,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="652" hidden="1" spans="2:4">
+    <row r="652" ht="24" hidden="1" spans="2:4">
       <c r="B652" s="1" t="s">
         <v>2111</v>
       </c>
@@ -35905,7 +36053,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="653" ht="37.5" hidden="1" spans="2:5">
+    <row r="653" ht="60" hidden="1" spans="2:5">
       <c r="B653" s="1" t="s">
         <v>2114</v>
       </c>
@@ -35919,7 +36067,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="654" hidden="1" spans="2:4">
+    <row r="654" ht="23" hidden="1" spans="2:4">
       <c r="B654" s="1" t="s">
         <v>2118</v>
       </c>
@@ -35930,7 +36078,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="655" ht="37.5" hidden="1" spans="2:4">
+    <row r="655" ht="40" hidden="1" spans="2:4">
       <c r="B655" s="1" t="s">
         <v>2121</v>
       </c>
@@ -35955,7 +36103,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="657" ht="37.5" hidden="1" spans="2:5">
+    <row r="657" ht="40" hidden="1" spans="2:5">
       <c r="B657" s="1" t="s">
         <v>2127</v>
       </c>
@@ -35983,7 +36131,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="659" hidden="1" spans="2:5">
+    <row r="659" ht="24" hidden="1" spans="2:5">
       <c r="B659" s="1" t="s">
         <v>2133</v>
       </c>
@@ -35997,7 +36145,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="660" hidden="1" spans="2:4">
+    <row r="660" ht="24" hidden="1" spans="2:4">
       <c r="B660" s="1" t="s">
         <v>2137</v>
       </c>
@@ -36088,7 +36236,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="668" hidden="1" spans="2:4">
+    <row r="668" ht="24" hidden="1" spans="2:4">
       <c r="B668" s="1" t="s">
         <v>2162</v>
       </c>
@@ -36099,7 +36247,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="669" ht="37.5" hidden="1" spans="2:4">
+    <row r="669" ht="40" hidden="1" spans="2:4">
       <c r="B669" s="1" t="s">
         <v>2165</v>
       </c>
@@ -36198,7 +36346,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="678" hidden="1" spans="2:5">
+    <row r="678" ht="40" hidden="1" spans="2:5">
       <c r="B678" s="1" t="s">
         <v>2192</v>
       </c>
@@ -36234,7 +36382,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="681" ht="37.5" hidden="1" spans="2:4">
+    <row r="681" ht="40" hidden="1" spans="2:4">
       <c r="B681" s="1" t="s">
         <v>2201</v>
       </c>
@@ -36245,7 +36393,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="682" hidden="1" spans="2:4">
+    <row r="682" ht="23" hidden="1" spans="2:4">
       <c r="B682" s="1" t="s">
         <v>2204</v>
       </c>
@@ -36270,7 +36418,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="684" ht="37.5" hidden="1" spans="2:5">
+    <row r="684" ht="40" hidden="1" spans="2:5">
       <c r="B684" s="1" t="s">
         <v>2211</v>
       </c>
@@ -36298,7 +36446,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="686" ht="112.5" hidden="1" spans="2:5">
+    <row r="686" ht="140" hidden="1" spans="2:5">
       <c r="B686" s="1" t="s">
         <v>2219</v>
       </c>
@@ -36326,7 +36474,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="688" hidden="1" spans="2:4">
+    <row r="688" ht="24" hidden="1" spans="2:4">
       <c r="B688" s="1" t="s">
         <v>2227</v>
       </c>
@@ -36348,7 +36496,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="690" ht="37.5" hidden="1" spans="2:4">
+    <row r="690" ht="40" hidden="1" spans="2:4">
       <c r="B690" s="1" t="s">
         <v>2233</v>
       </c>
@@ -36381,7 +36529,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="693" hidden="1" spans="2:4">
+    <row r="693" ht="23" hidden="1" spans="2:4">
       <c r="B693" s="1" t="s">
         <v>2242</v>
       </c>
@@ -36414,7 +36562,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="696" hidden="1" spans="2:4">
+    <row r="696" ht="23" hidden="1" spans="2:4">
       <c r="B696" s="1" t="s">
         <v>2251</v>
       </c>
@@ -36425,7 +36573,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="697" hidden="1" spans="2:4">
+    <row r="697" ht="24" hidden="1" spans="2:4">
       <c r="B697" s="1" t="s">
         <v>2254</v>
       </c>
@@ -36458,7 +36606,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="700" ht="37.5" hidden="1" spans="2:4">
+    <row r="700" ht="40" hidden="1" spans="2:4">
       <c r="B700" s="1" t="s">
         <v>2263</v>
       </c>
@@ -36494,7 +36642,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="703" ht="56.25" hidden="1" spans="2:5">
+    <row r="703" ht="80" hidden="1" spans="2:5">
       <c r="B703" s="1" t="s">
         <v>2273</v>
       </c>
@@ -36508,7 +36656,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="704" ht="37.5" hidden="1" spans="2:4">
+    <row r="704" ht="40" hidden="1" spans="2:4">
       <c r="B704" s="1" t="s">
         <v>2277</v>
       </c>
@@ -36519,7 +36667,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="705" hidden="1" spans="2:4">
+    <row r="705" ht="24" hidden="1" spans="2:4">
       <c r="B705" s="1" t="s">
         <v>2280</v>
       </c>
@@ -36566,7 +36714,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="709" hidden="1" spans="2:4">
+    <row r="709" ht="24" hidden="1" spans="2:4">
       <c r="B709" s="1" t="s">
         <v>2293</v>
       </c>
@@ -36624,7 +36772,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="714" hidden="1" spans="2:4">
+    <row r="714" ht="24" hidden="1" spans="2:4">
       <c r="B714" s="1" t="s">
         <v>2309</v>
       </c>
@@ -36635,7 +36783,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="715" ht="37.5" hidden="1" spans="2:4">
+    <row r="715" ht="40" hidden="1" spans="2:4">
       <c r="B715" s="1" t="s">
         <v>2312</v>
       </c>
@@ -36646,7 +36794,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="716" ht="37.5" hidden="1" spans="2:4">
+    <row r="716" ht="40" hidden="1" spans="2:4">
       <c r="B716" s="1" t="s">
         <v>2315</v>
       </c>
@@ -36704,7 +36852,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="721" ht="37.5" hidden="1" spans="2:4">
+    <row r="721" ht="40" hidden="1" spans="2:4">
       <c r="B721" s="1" t="s">
         <v>2331</v>
       </c>
@@ -36715,7 +36863,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="722" hidden="1" spans="2:4">
+    <row r="722" ht="23" hidden="1" spans="2:4">
       <c r="B722" s="1" t="s">
         <v>2334</v>
       </c>
@@ -36806,7 +36954,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="730" ht="37.5" hidden="1" spans="2:4">
+    <row r="730" ht="40" hidden="1" spans="2:4">
       <c r="B730" s="1" t="s">
         <v>2358</v>
       </c>
@@ -36870,7 +37018,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="735" hidden="1" spans="2:4">
+    <row r="735" ht="24" hidden="1" spans="2:4">
       <c r="B735" s="1" t="s">
         <v>2376</v>
       </c>
@@ -36881,7 +37029,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="736" hidden="1" spans="2:4">
+    <row r="736" ht="24" hidden="1" spans="2:4">
       <c r="B736" s="1" t="s">
         <v>2379</v>
       </c>
@@ -36903,7 +37051,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="738" ht="37.5" hidden="1" spans="2:4">
+    <row r="738" ht="40" hidden="1" spans="2:4">
       <c r="B738" s="1" t="s">
         <v>2385</v>
       </c>
@@ -36925,7 +37073,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="740" ht="37.5" hidden="1" spans="2:5">
+    <row r="740" ht="40" hidden="1" spans="2:5">
       <c r="B740" s="1" t="s">
         <v>2391</v>
       </c>
@@ -36939,7 +37087,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="741" ht="37.5" hidden="1" spans="2:4">
+    <row r="741" ht="40" hidden="1" spans="2:4">
       <c r="B741" s="1" t="s">
         <v>2395</v>
       </c>
@@ -36961,7 +37109,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="743" hidden="1" spans="2:4">
+    <row r="743" ht="23" hidden="1" spans="2:4">
       <c r="B743" s="1" t="s">
         <v>2401</v>
       </c>
@@ -37027,7 +37175,7 @@
         <v>2418</v>
       </c>
     </row>
-    <row r="749" hidden="1" spans="2:4">
+    <row r="749" ht="24" hidden="1" spans="2:4">
       <c r="B749" s="1" t="s">
         <v>2419</v>
       </c>
@@ -37077,7 +37225,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="753" hidden="1" spans="2:4">
+    <row r="753" ht="24" hidden="1" spans="2:4">
       <c r="B753" s="1" t="s">
         <v>2432</v>
       </c>
@@ -37110,7 +37258,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="756" hidden="1" spans="2:4">
+    <row r="756" ht="24" hidden="1" spans="2:4">
       <c r="B756" s="1" t="s">
         <v>2441</v>
       </c>
@@ -37121,7 +37269,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="757" ht="37.5" hidden="1" spans="2:4">
+    <row r="757" ht="40" hidden="1" spans="2:4">
       <c r="B757" s="1" t="s">
         <v>2444</v>
       </c>
@@ -37168,7 +37316,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="761" hidden="1" spans="2:4">
+    <row r="761" ht="24" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2457</v>
       </c>
@@ -37179,7 +37327,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="762" hidden="1" spans="2:4">
+    <row r="762" ht="24" hidden="1" spans="2:4">
       <c r="B762" s="1" t="s">
         <v>2460</v>
       </c>
@@ -37201,7 +37349,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="764" hidden="1" spans="2:4">
+    <row r="764" ht="24" hidden="1" spans="2:4">
       <c r="B764" s="1" t="s">
         <v>2466</v>
       </c>
@@ -37223,7 +37371,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="766" hidden="1" spans="2:4">
+    <row r="766" ht="24" hidden="1" spans="2:4">
       <c r="B766" s="1" t="s">
         <v>2472</v>
       </c>
@@ -37234,7 +37382,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="767" hidden="1" spans="2:4">
+    <row r="767" ht="24" hidden="1" spans="2:4">
       <c r="B767" s="1" t="s">
         <v>2475</v>
       </c>
@@ -37256,7 +37404,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="769" hidden="1" spans="2:5">
+    <row r="769" ht="24" hidden="1" spans="2:5">
       <c r="B769" s="1" t="s">
         <v>2481</v>
       </c>
@@ -37281,7 +37429,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="771" hidden="1" spans="2:4">
+    <row r="771" ht="24" hidden="1" spans="2:4">
       <c r="B771" s="1" t="s">
         <v>2488</v>
       </c>
@@ -37292,7 +37440,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="772" ht="37.5" hidden="1" spans="2:4">
+    <row r="772" ht="40" hidden="1" spans="2:4">
       <c r="B772" s="1" t="s">
         <v>835</v>
       </c>
@@ -37303,7 +37451,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="773" hidden="1" spans="2:4">
+    <row r="773" ht="24" hidden="1" spans="2:4">
       <c r="B773" s="1" t="s">
         <v>2493</v>
       </c>
@@ -37314,7 +37462,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="774" hidden="1" spans="2:4">
+    <row r="774" ht="24" hidden="1" spans="2:4">
       <c r="B774" s="1" t="s">
         <v>2496</v>
       </c>
@@ -37325,7 +37473,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="775" ht="37.5" hidden="1" spans="2:4">
+    <row r="775" ht="40" hidden="1" spans="2:4">
       <c r="B775" s="1" t="s">
         <v>2499</v>
       </c>
@@ -37361,7 +37509,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="778" ht="37.5" hidden="1" spans="2:4">
+    <row r="778" ht="40" hidden="1" spans="2:4">
       <c r="B778" s="1" t="s">
         <v>2509</v>
       </c>
@@ -37460,7 +37608,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="787" ht="131.25" hidden="1" spans="2:5">
+    <row r="787" ht="140" hidden="1" spans="2:5">
       <c r="B787" s="1" t="s">
         <v>2536</v>
       </c>
@@ -37474,7 +37622,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="788" hidden="1" spans="2:4">
+    <row r="788" ht="24" hidden="1" spans="2:4">
       <c r="B788" s="1" t="s">
         <v>2540</v>
       </c>
@@ -37507,7 +37655,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="791" ht="37.5" hidden="1" spans="2:5">
+    <row r="791" ht="40" hidden="1" spans="2:5">
       <c r="B791" s="1" t="s">
         <v>2549</v>
       </c>
@@ -37535,7 +37683,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="793" hidden="1" spans="2:4">
+    <row r="793" ht="23" hidden="1" spans="2:4">
       <c r="B793" s="1" t="s">
         <v>2557</v>
       </c>
@@ -37590,7 +37738,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="798" ht="37.5" hidden="1" spans="2:4">
+    <row r="798" ht="40" hidden="1" spans="2:4">
       <c r="B798" s="1" t="s">
         <v>2572</v>
       </c>
@@ -37612,7 +37760,7 @@
         <v>2577</v>
       </c>
     </row>
-    <row r="800" ht="112.5" hidden="1" spans="2:5">
+    <row r="800" ht="140" hidden="1" spans="2:5">
       <c r="B800" s="1" t="s">
         <v>2578</v>
       </c>
@@ -37637,7 +37785,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="802" hidden="1" spans="2:4">
+    <row r="802" ht="24" hidden="1" spans="2:4">
       <c r="B802" s="1" t="s">
         <v>2585</v>
       </c>
@@ -37648,7 +37796,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="803" hidden="1" spans="2:4">
+    <row r="803" ht="23" hidden="1" spans="2:4">
       <c r="B803" s="1" t="s">
         <v>2588</v>
       </c>
@@ -37681,7 +37829,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="806" hidden="1" spans="2:4">
+    <row r="806" ht="24" hidden="1" spans="2:4">
       <c r="B806" s="1" t="s">
         <v>2597</v>
       </c>
@@ -37717,7 +37865,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="809" ht="37.5" hidden="1" spans="2:4">
+    <row r="809" ht="40" hidden="1" spans="2:4">
       <c r="B809" s="1" t="s">
         <v>2607</v>
       </c>
@@ -37750,7 +37898,7 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="812" hidden="1" spans="2:4">
+    <row r="812" ht="24" hidden="1" spans="2:4">
       <c r="B812" s="1" t="s">
         <v>2616</v>
       </c>
@@ -37761,7 +37909,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="813" hidden="1" spans="2:4">
+    <row r="813" ht="24" hidden="1" spans="2:4">
       <c r="B813" s="1" t="s">
         <v>2619</v>
       </c>
@@ -37772,7 +37920,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="814" ht="37.5" hidden="1" spans="2:5">
+    <row r="814" ht="40" hidden="1" spans="2:5">
       <c r="B814" s="1" t="s">
         <v>2622</v>
       </c>
@@ -37833,7 +37981,7 @@
         <v>2637</v>
       </c>
     </row>
-    <row r="819" ht="37.5" hidden="1" spans="2:4">
+    <row r="819" ht="40" hidden="1" spans="2:4">
       <c r="B819" s="1" t="s">
         <v>2638</v>
       </c>
@@ -37880,7 +38028,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="823" ht="37.5" hidden="1" spans="2:4">
+    <row r="823" ht="40" hidden="1" spans="2:4">
       <c r="B823" s="1" t="s">
         <v>2651</v>
       </c>
@@ -37902,7 +38050,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="825" hidden="1" spans="2:4">
+    <row r="825" ht="23" hidden="1" spans="2:4">
       <c r="B825" s="1" t="s">
         <v>2657</v>
       </c>
@@ -37913,7 +38061,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="826" hidden="1" spans="2:4">
+    <row r="826" ht="24" hidden="1" spans="2:4">
       <c r="B826" s="1" t="s">
         <v>2660</v>
       </c>
@@ -37935,7 +38083,7 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="828" hidden="1" spans="2:4">
+    <row r="828" ht="23" hidden="1" spans="2:4">
       <c r="B828" s="1" t="s">
         <v>2666</v>
       </c>
@@ -37946,7 +38094,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="829" ht="150" hidden="1" spans="2:5">
+    <row r="829" ht="160" hidden="1" spans="2:5">
       <c r="B829" s="1" t="s">
         <v>2669</v>
       </c>
@@ -37985,7 +38133,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="832" hidden="1" spans="2:4">
+    <row r="832" ht="24" hidden="1" spans="2:4">
       <c r="B832" s="1" t="s">
         <v>2680</v>
       </c>
@@ -37996,7 +38144,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="833" ht="112.5" hidden="1" spans="2:5">
+    <row r="833" ht="120" hidden="1" spans="2:5">
       <c r="B833" s="1" t="s">
         <v>2683</v>
       </c>
@@ -38032,7 +38180,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="836" ht="37.5" hidden="1" spans="2:5">
+    <row r="836" ht="40" hidden="1" spans="2:5">
       <c r="B836" s="1" t="s">
         <v>2693</v>
       </c>
@@ -38068,7 +38216,7 @@
         <v>2701</v>
       </c>
     </row>
-    <row r="839" hidden="1" spans="2:4">
+    <row r="839" ht="24" hidden="1" spans="2:4">
       <c r="B839" s="1" t="s">
         <v>2702</v>
       </c>
@@ -38134,7 +38282,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="845" hidden="1" spans="2:4">
+    <row r="845" ht="24" hidden="1" spans="2:4">
       <c r="B845" s="1" t="s">
         <v>2720</v>
       </c>
@@ -38156,7 +38304,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="847" ht="37.5" hidden="1" spans="2:4">
+    <row r="847" ht="40" hidden="1" spans="2:4">
       <c r="B847" s="1" t="s">
         <v>2726</v>
       </c>
@@ -38236,7 +38384,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="854" ht="37.5" hidden="1" spans="2:4">
+    <row r="854" ht="24" hidden="1" spans="2:4">
       <c r="B854" s="1" t="s">
         <v>2748</v>
       </c>
@@ -38280,7 +38428,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="858" hidden="1" spans="2:4">
+    <row r="858" ht="23" hidden="1" spans="2:4">
       <c r="B858" s="1" t="s">
         <v>2760</v>
       </c>
@@ -38324,7 +38472,7 @@
         <v>2771</v>
       </c>
     </row>
-    <row r="862" hidden="1" spans="2:5">
+    <row r="862" ht="24" hidden="1" spans="2:5">
       <c r="B862" s="1" t="s">
         <v>2772</v>
       </c>
@@ -38338,7 +38486,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="863" ht="37.5" hidden="1" spans="2:4">
+    <row r="863" ht="40" hidden="1" spans="2:4">
       <c r="B863" s="1" t="s">
         <v>2776</v>
       </c>
@@ -38349,7 +38497,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="864" ht="37.5" hidden="1" spans="2:4">
+    <row r="864" ht="40" hidden="1" spans="2:4">
       <c r="B864" s="1" t="s">
         <v>2779</v>
       </c>
@@ -38360,7 +38508,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="865" hidden="1" spans="2:4">
+    <row r="865" ht="24" hidden="1" spans="2:4">
       <c r="B865" s="1" t="s">
         <v>2782</v>
       </c>
@@ -38404,7 +38552,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="869" hidden="1" spans="2:4">
+    <row r="869" ht="24" hidden="1" spans="2:4">
       <c r="B869" s="1" t="s">
         <v>2794</v>
       </c>
@@ -38429,7 +38577,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="871" hidden="1" spans="2:4">
+    <row r="871" ht="24" hidden="1" spans="2:4">
       <c r="B871" s="1" t="s">
         <v>2801</v>
       </c>
@@ -38451,7 +38599,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="873" hidden="1" spans="2:4">
+    <row r="873" ht="24" hidden="1" spans="2:4">
       <c r="B873" s="1" t="s">
         <v>2807</v>
       </c>
@@ -38473,7 +38621,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="875" hidden="1" spans="2:4">
+    <row r="875" ht="24" hidden="1" spans="2:4">
       <c r="B875" s="1" t="s">
         <v>2813</v>
       </c>
@@ -38520,7 +38668,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="879" ht="37.5" hidden="1" spans="2:5">
+    <row r="879" ht="40" hidden="1" spans="2:5">
       <c r="B879" s="1" t="s">
         <v>2826</v>
       </c>
@@ -38534,7 +38682,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="880" hidden="1" spans="2:4">
+    <row r="880" ht="24" hidden="1" spans="2:4">
       <c r="B880" s="1" t="s">
         <v>2830</v>
       </c>
@@ -38556,7 +38704,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="882" hidden="1" spans="2:4">
+    <row r="882" ht="23" hidden="1" spans="2:4">
       <c r="B882" s="1" t="s">
         <v>2836</v>
       </c>
@@ -38614,7 +38762,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="887" hidden="1" spans="2:4">
+    <row r="887" ht="23" hidden="1" spans="2:4">
       <c r="B887" s="1" t="s">
         <v>2852</v>
       </c>
@@ -38658,7 +38806,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="891" ht="75" hidden="1" spans="2:5">
+    <row r="891" ht="96" hidden="1" spans="2:5">
       <c r="B891" s="1" t="s">
         <v>2864</v>
       </c>
@@ -38683,7 +38831,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="893" hidden="1" spans="2:4">
+    <row r="893" ht="24" hidden="1" spans="2:4">
       <c r="B893" s="1" t="s">
         <v>2871</v>
       </c>
@@ -38705,7 +38853,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="895" ht="37.5" hidden="1" spans="2:4">
+    <row r="895" ht="40" hidden="1" spans="2:4">
       <c r="B895" s="1" t="s">
         <v>2877</v>
       </c>
@@ -38782,7 +38930,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="902" hidden="1" spans="2:4">
+    <row r="902" ht="24" hidden="1" spans="2:4">
       <c r="B902" s="1" t="s">
         <v>2898</v>
       </c>
@@ -38793,7 +38941,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="903" hidden="1" spans="2:4">
+    <row r="903" ht="24" hidden="1" spans="2:4">
       <c r="B903" s="1" t="s">
         <v>2901</v>
       </c>
@@ -38815,7 +38963,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="905" ht="37.5" hidden="1" spans="2:4">
+    <row r="905" ht="40" hidden="1" spans="2:4">
       <c r="B905" s="1" t="s">
         <v>2907</v>
       </c>
@@ -38881,7 +39029,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="911" hidden="1" spans="2:4">
+    <row r="911" ht="24" hidden="1" spans="2:4">
       <c r="B911" s="1" t="s">
         <v>2925</v>
       </c>
@@ -38892,7 +39040,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="912" ht="75" hidden="1" spans="2:5">
+    <row r="912" ht="100" hidden="1" spans="2:5">
       <c r="B912" s="1" t="s">
         <v>2928</v>
       </c>
@@ -38906,7 +39054,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="913" ht="56.25" hidden="1" spans="2:5">
+    <row r="913" ht="60" hidden="1" spans="2:5">
       <c r="B913" s="1" t="s">
         <v>2932</v>
       </c>
@@ -38920,7 +39068,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="914" ht="56.25" hidden="1" spans="2:5">
+    <row r="914" ht="60" hidden="1" spans="2:5">
       <c r="B914" s="1" t="s">
         <v>2936</v>
       </c>
@@ -38959,7 +39107,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="917" hidden="1" spans="2:4">
+    <row r="917" ht="24" hidden="1" spans="2:4">
       <c r="B917" s="1" t="s">
         <v>2946</v>
       </c>
@@ -39003,7 +39151,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="921" hidden="1" spans="2:4">
+    <row r="921" ht="24" hidden="1" spans="2:4">
       <c r="B921" s="1" t="s">
         <v>2958</v>
       </c>
@@ -39014,7 +39162,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="922" hidden="1" spans="2:4">
+    <row r="922" ht="44" hidden="1" spans="2:4">
       <c r="B922" s="1" t="s">
         <v>2961</v>
       </c>
@@ -39036,7 +39184,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="924" ht="93.75" hidden="1" spans="2:5">
+    <row r="924" ht="116" hidden="1" spans="2:5">
       <c r="B924" s="1" t="s">
         <v>2967</v>
       </c>
@@ -39072,7 +39220,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="927" hidden="1" spans="2:4">
+    <row r="927" ht="24" hidden="1" spans="2:4">
       <c r="B927" s="1" t="s">
         <v>2977</v>
       </c>
@@ -39105,7 +39253,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="930" hidden="1" spans="2:5">
+    <row r="930" ht="24" hidden="1" spans="2:5">
       <c r="B930" s="1" t="s">
         <v>2986</v>
       </c>
@@ -39130,7 +39278,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="932" hidden="1" spans="2:4">
+    <row r="932" ht="24" hidden="1" spans="2:4">
       <c r="B932" s="1" t="s">
         <v>2993</v>
       </c>
@@ -39141,7 +39289,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="933" ht="37.5" hidden="1" spans="2:4">
+    <row r="933" ht="40" hidden="1" spans="2:4">
       <c r="B933" s="1" t="s">
         <v>2996</v>
       </c>
@@ -39210,7 +39358,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="939" ht="37.5" hidden="1" spans="2:4">
+    <row r="939" ht="40" hidden="1" spans="2:4">
       <c r="B939" s="1" t="s">
         <v>3015</v>
       </c>
@@ -39265,7 +39413,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="944" hidden="1" spans="2:5">
+    <row r="944" ht="24" hidden="1" spans="2:5">
       <c r="B944" s="1" t="s">
         <v>3030</v>
       </c>
@@ -39279,7 +39427,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="945" ht="37.5" hidden="1" spans="2:4">
+    <row r="945" ht="40" hidden="1" spans="2:4">
       <c r="B945" s="1" t="s">
         <v>3034</v>
       </c>
@@ -39290,7 +39438,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="946" ht="56.25" hidden="1" spans="2:5">
+    <row r="946" ht="60" hidden="1" spans="2:5">
       <c r="B946" s="1" t="s">
         <v>3037</v>
       </c>
@@ -39315,7 +39463,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="948" hidden="1" spans="2:4">
+    <row r="948" ht="24" hidden="1" spans="2:4">
       <c r="B948" s="1" t="s">
         <v>3044</v>
       </c>
@@ -39326,7 +39474,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="949" hidden="1" spans="2:4">
+    <row r="949" ht="23" hidden="1" spans="2:4">
       <c r="B949" s="1" t="s">
         <v>3047</v>
       </c>
@@ -39337,7 +39485,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="950" hidden="1" spans="2:5">
+    <row r="950" ht="23" hidden="1" spans="2:5">
       <c r="B950" s="1" t="s">
         <v>3050</v>
       </c>
@@ -39362,7 +39510,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="952" hidden="1" spans="2:4">
+    <row r="952" ht="24" hidden="1" spans="2:4">
       <c r="B952" s="1" t="s">
         <v>3056</v>
       </c>
@@ -39384,7 +39532,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="954" ht="112.5" hidden="1" spans="2:5">
+    <row r="954" ht="120" hidden="1" spans="2:5">
       <c r="B954" s="1" t="s">
         <v>3062</v>
       </c>
@@ -39398,7 +39546,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="955" ht="93.75" hidden="1" spans="2:5">
+    <row r="955" ht="120" hidden="1" spans="2:5">
       <c r="B955" s="1" t="s">
         <v>3066</v>
       </c>
@@ -39412,7 +39560,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="956" hidden="1" spans="2:4">
+    <row r="956" ht="24" hidden="1" spans="2:4">
       <c r="B956" s="1" t="s">
         <v>3070</v>
       </c>
@@ -39423,7 +39571,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="957" ht="37.5" hidden="1" spans="2:4">
+    <row r="957" ht="40" hidden="1" spans="2:4">
       <c r="B957" s="1" t="s">
         <v>3073</v>
       </c>
@@ -39456,7 +39604,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="960" ht="37.5" hidden="1" spans="2:4">
+    <row r="960" ht="40" hidden="1" spans="2:4">
       <c r="B960" s="1" t="s">
         <v>3082</v>
       </c>
@@ -39467,7 +39615,7 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="961" hidden="1" spans="2:4">
+    <row r="961" ht="24" hidden="1" spans="2:4">
       <c r="B961" s="1" t="s">
         <v>3085</v>
       </c>
@@ -39478,7 +39626,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="962" hidden="1" spans="2:5">
+    <row r="962" ht="24" hidden="1" spans="2:5">
       <c r="B962" s="1" t="s">
         <v>3088</v>
       </c>
@@ -39492,7 +39640,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="963" ht="37.5" hidden="1" spans="2:5">
+    <row r="963" ht="40" hidden="1" spans="2:5">
       <c r="B963" s="1" t="s">
         <v>3092</v>
       </c>
@@ -39506,7 +39654,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="964" hidden="1" spans="2:5">
+    <row r="964" ht="24" hidden="1" spans="2:5">
       <c r="B964" s="1" t="s">
         <v>3096</v>
       </c>
@@ -39520,7 +39668,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="965" hidden="1" spans="2:4">
+    <row r="965" ht="23" hidden="1" spans="2:4">
       <c r="B965" s="1" t="s">
         <v>3100</v>
       </c>
@@ -39564,7 +39712,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="969" hidden="1" spans="2:4">
+    <row r="969" ht="24" hidden="1" spans="2:4">
       <c r="B969" s="1" t="s">
         <v>3112</v>
       </c>
@@ -39633,7 +39781,7 @@
         <v>3129</v>
       </c>
     </row>
-    <row r="975" ht="37.5" hidden="1" spans="2:4">
+    <row r="975" ht="40" hidden="1" spans="2:4">
       <c r="B975" s="1" t="s">
         <v>3130</v>
       </c>
@@ -39705,7 +39853,7 @@
         <v>3149</v>
       </c>
     </row>
-    <row r="981" hidden="1" spans="2:4">
+    <row r="981" ht="24" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
         <v>3150</v>
       </c>
@@ -39716,7 +39864,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="982" hidden="1" spans="2:4">
+    <row r="982" ht="24" hidden="1" spans="2:4">
       <c r="B982" s="1" t="s">
         <v>3153</v>
       </c>
@@ -39771,7 +39919,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="987" ht="37.5" hidden="1" spans="2:4">
+    <row r="987" ht="40" hidden="1" spans="2:4">
       <c r="B987" s="1" t="s">
         <v>3168</v>
       </c>
@@ -39793,7 +39941,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="989" hidden="1" spans="2:4">
+    <row r="989" ht="43" hidden="1" spans="2:4">
       <c r="B989" s="1" t="s">
         <v>3174</v>
       </c>
@@ -39815,7 +39963,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="991" ht="37.5" hidden="1" spans="2:4">
+    <row r="991" ht="40" hidden="1" spans="2:4">
       <c r="B991" s="1" t="s">
         <v>3180</v>
       </c>
@@ -39837,7 +39985,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="993" hidden="1" spans="2:4">
+    <row r="993" ht="24" hidden="1" spans="2:4">
       <c r="B993" s="1" t="s">
         <v>3186</v>
       </c>
@@ -39848,7 +39996,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="994" ht="37.5" hidden="1" spans="2:5">
+    <row r="994" ht="40" hidden="1" spans="2:5">
       <c r="B994" s="1" t="s">
         <v>3188</v>
       </c>
@@ -39884,7 +40032,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="997" ht="93.75" hidden="1" spans="2:5">
+    <row r="997" ht="120" hidden="1" spans="2:5">
       <c r="B997" s="1" t="s">
         <v>3198</v>
       </c>
@@ -39920,7 +40068,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="1000" ht="93.75" hidden="1" spans="2:5">
+    <row r="1000" ht="120" hidden="1" spans="2:5">
       <c r="B1000" s="1" t="s">
         <v>3208</v>
       </c>
@@ -39934,7 +40082,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="1001" ht="37.5" hidden="1" spans="2:4">
+    <row r="1001" ht="40" hidden="1" spans="2:4">
       <c r="B1001" s="1" t="s">
         <v>3212</v>
       </c>
@@ -39945,7 +40093,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="1002" ht="37.5" hidden="1" spans="2:4">
+    <row r="1002" ht="40" hidden="1" spans="2:4">
       <c r="B1002" s="1" t="s">
         <v>3215</v>
       </c>
@@ -39956,7 +40104,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="1003" ht="37.5" hidden="1" spans="2:4">
+    <row r="1003" ht="40" hidden="1" spans="2:4">
       <c r="B1003" s="1" t="s">
         <v>3218</v>
       </c>
@@ -40003,7 +40151,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="1007" hidden="1" spans="2:4">
+    <row r="1007" ht="24" hidden="1" spans="2:4">
       <c r="B1007" s="1" t="s">
         <v>3231</v>
       </c>
@@ -40025,7 +40173,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="1009" hidden="1" spans="2:4">
+    <row r="1009" ht="24" hidden="1" spans="2:4">
       <c r="B1009" s="1" t="s">
         <v>3237</v>
       </c>
@@ -40122,7 +40270,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="1017" hidden="1" spans="2:4">
+    <row r="1017" ht="23" hidden="1" spans="2:4">
       <c r="B1017" s="1" t="s">
         <v>3263</v>
       </c>
@@ -40166,7 +40314,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="1021" hidden="1" spans="2:4">
+    <row r="1021" ht="24" hidden="1" spans="2:4">
       <c r="B1021" s="1" t="s">
         <v>3275</v>
       </c>
@@ -40177,7 +40325,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="1022" hidden="1" spans="2:4">
+    <row r="1022" ht="23" hidden="1" spans="2:4">
       <c r="B1022" s="1" t="s">
         <v>3278</v>
       </c>
@@ -40202,7 +40350,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="1024" hidden="1" spans="2:4">
+    <row r="1024" ht="24" hidden="1" spans="2:4">
       <c r="B1024" s="1" t="s">
         <v>3284</v>
       </c>
@@ -40227,7 +40375,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="1026" hidden="1" spans="2:4">
+    <row r="1026" ht="24" hidden="1" spans="2:4">
       <c r="B1026" s="1" t="s">
         <v>3291</v>
       </c>
@@ -40282,7 +40430,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="1031" hidden="1" spans="2:4">
+    <row r="1031" ht="24" hidden="1" spans="2:4">
       <c r="B1031" s="1" t="s">
         <v>3306</v>
       </c>
@@ -40304,7 +40452,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="1033" ht="37.5" hidden="1" spans="2:5">
+    <row r="1033" ht="40" hidden="1" spans="2:5">
       <c r="B1033" s="1" t="s">
         <v>3312</v>
       </c>
@@ -40329,7 +40477,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="1035" ht="37.5" hidden="1" spans="2:4">
+    <row r="1035" ht="40" hidden="1" spans="2:4">
       <c r="B1035" s="1" t="s">
         <v>3318</v>
       </c>
@@ -40340,7 +40488,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="1036" ht="56.25" hidden="1" spans="2:5">
+    <row r="1036" ht="80" hidden="1" spans="2:5">
       <c r="B1036" s="1" t="s">
         <v>3321</v>
       </c>
@@ -40354,7 +40502,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="1037" ht="37.5" hidden="1" spans="2:4">
+    <row r="1037" ht="40" hidden="1" spans="2:4">
       <c r="B1037" s="1" t="s">
         <v>3325</v>
       </c>
@@ -40420,7 +40568,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="1043" ht="56.25" hidden="1" spans="2:5">
+    <row r="1043" ht="80" hidden="1" spans="2:5">
       <c r="B1043" s="1" t="s">
         <v>3342</v>
       </c>
@@ -40434,7 +40582,7 @@
         <v>3345</v>
       </c>
     </row>
-    <row r="1044" ht="37.5" hidden="1" spans="2:4">
+    <row r="1044" ht="40" hidden="1" spans="2:4">
       <c r="B1044" s="1" t="s">
         <v>3346</v>
       </c>
@@ -40511,7 +40659,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="1051" hidden="1" spans="2:5">
+    <row r="1051" ht="24" hidden="1" spans="2:5">
       <c r="B1051" s="1" t="s">
         <v>3367</v>
       </c>
@@ -40536,7 +40684,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="1053" ht="37.5" hidden="1" spans="2:4">
+    <row r="1053" ht="40" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
         <v>3374</v>
       </c>
@@ -40558,7 +40706,7 @@
         <v>3379</v>
       </c>
     </row>
-    <row r="1055" hidden="1" spans="2:4">
+    <row r="1055" ht="24" hidden="1" spans="2:4">
       <c r="B1055" s="1" t="s">
         <v>3380</v>
       </c>
@@ -40580,7 +40728,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="1057" ht="75" hidden="1" spans="2:5">
+    <row r="1057" ht="80" hidden="1" spans="2:5">
       <c r="B1057" s="1" t="s">
         <v>3386</v>
       </c>
@@ -40605,7 +40753,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="1059" ht="37.5" hidden="1" spans="2:4">
+    <row r="1059" ht="40" hidden="1" spans="2:4">
       <c r="B1059" s="1" t="s">
         <v>3393</v>
       </c>
@@ -40682,7 +40830,7 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="1066" hidden="1" spans="2:4">
+    <row r="1066" ht="24" hidden="1" spans="2:4">
       <c r="B1066" s="1" t="s">
         <v>3414</v>
       </c>
@@ -40693,7 +40841,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="1067" hidden="1" spans="2:4">
+    <row r="1067" ht="23" hidden="1" spans="2:4">
       <c r="B1067" s="1" t="s">
         <v>3417</v>
       </c>
@@ -40715,7 +40863,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="1069" hidden="1" spans="2:4">
+    <row r="1069" ht="24" hidden="1" spans="2:4">
       <c r="B1069" s="1" t="s">
         <v>3423</v>
       </c>
@@ -40762,7 +40910,7 @@
         <v>3435</v>
       </c>
     </row>
-    <row r="1073" hidden="1" spans="2:4">
+    <row r="1073" ht="24" hidden="1" spans="2:4">
       <c r="B1073" s="1" t="s">
         <v>3436</v>
       </c>
@@ -40784,7 +40932,7 @@
         <v>3441</v>
       </c>
     </row>
-    <row r="1075" ht="75" hidden="1" spans="2:5">
+    <row r="1075" ht="100" hidden="1" spans="2:5">
       <c r="B1075" s="1" t="s">
         <v>3442</v>
       </c>
@@ -40812,7 +40960,7 @@
         <v>3449</v>
       </c>
     </row>
-    <row r="1077" hidden="1" spans="2:4">
+    <row r="1077" ht="24" hidden="1" spans="2:4">
       <c r="B1077" s="1" t="s">
         <v>3450</v>
       </c>
@@ -40823,7 +40971,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="1078" hidden="1" spans="2:4">
+    <row r="1078" ht="24" hidden="1" spans="2:4">
       <c r="B1078" s="1" t="s">
         <v>3453</v>
       </c>
@@ -40856,7 +41004,7 @@
         <v>3461</v>
       </c>
     </row>
-    <row r="1081" ht="112.5" hidden="1" spans="2:5">
+    <row r="1081" ht="140" hidden="1" spans="2:5">
       <c r="B1081" s="1" t="s">
         <v>3462</v>
       </c>
@@ -40881,7 +41029,7 @@
         <v>3468</v>
       </c>
     </row>
-    <row r="1083" hidden="1" spans="2:4">
+    <row r="1083" ht="24" hidden="1" spans="2:4">
       <c r="B1083" s="1" t="s">
         <v>3469</v>
       </c>
@@ -40906,7 +41054,7 @@
         <v>3475</v>
       </c>
     </row>
-    <row r="1085" ht="37.5" hidden="1" spans="2:4">
+    <row r="1085" ht="40" hidden="1" spans="2:4">
       <c r="B1085" s="1" t="s">
         <v>3476</v>
       </c>
@@ -40917,7 +41065,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="1086" hidden="1" spans="2:4">
+    <row r="1086" ht="24" hidden="1" spans="2:4">
       <c r="B1086" s="1" t="s">
         <v>3479</v>
       </c>
@@ -40928,7 +41076,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="1087" hidden="1" spans="2:4">
+    <row r="1087" ht="24" hidden="1" spans="2:4">
       <c r="B1087" s="1" t="s">
         <v>3482</v>
       </c>
@@ -40939,7 +41087,7 @@
         <v>3484</v>
       </c>
     </row>
-    <row r="1088" ht="37.5" hidden="1" spans="2:4">
+    <row r="1088" ht="40" hidden="1" spans="2:4">
       <c r="B1088" s="1" t="s">
         <v>3485</v>
       </c>
@@ -40983,7 +41131,7 @@
         <v>3496</v>
       </c>
     </row>
-    <row r="1092" ht="37.5" hidden="1" spans="2:4">
+    <row r="1092" ht="40" hidden="1" spans="2:4">
       <c r="B1092" s="1" t="s">
         <v>3497</v>
       </c>
@@ -41005,7 +41153,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="1094" hidden="1" spans="2:4">
+    <row r="1094" ht="24" hidden="1" spans="2:4">
       <c r="B1094" s="1" t="s">
         <v>3503</v>
       </c>
@@ -41016,7 +41164,7 @@
         <v>3505</v>
       </c>
     </row>
-    <row r="1095" hidden="1" spans="2:4">
+    <row r="1095" ht="24" hidden="1" spans="2:4">
       <c r="B1095" s="1" t="s">
         <v>3506</v>
       </c>
@@ -41027,7 +41175,7 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="1096" hidden="1" spans="2:4">
+    <row r="1096" ht="24" hidden="1" spans="2:4">
       <c r="B1096" s="1" t="s">
         <v>3509</v>
       </c>
@@ -41038,7 +41186,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="1097" hidden="1" spans="2:5">
+    <row r="1097" ht="24" hidden="1" spans="2:5">
       <c r="B1097" s="1" t="s">
         <v>3512</v>
       </c>
@@ -41052,7 +41200,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="1098" hidden="1" spans="2:4">
+    <row r="1098" ht="23" hidden="1" spans="2:4">
       <c r="B1098" s="1" t="s">
         <v>3515</v>
       </c>
@@ -41063,7 +41211,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="1099" hidden="1" spans="2:4">
+    <row r="1099" ht="24" hidden="1" spans="2:4">
       <c r="B1099" s="1" t="s">
         <v>3518</v>
       </c>
@@ -41085,7 +41233,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="1101" ht="37.5" hidden="1" spans="2:4">
+    <row r="1101" ht="40" hidden="1" spans="2:4">
       <c r="B1101" s="1" t="s">
         <v>3524</v>
       </c>
@@ -41135,7 +41283,7 @@
         <v>3537</v>
       </c>
     </row>
-    <row r="1105" ht="37.5" hidden="1" spans="2:4">
+    <row r="1105" ht="40" hidden="1" spans="2:4">
       <c r="B1105" s="1" t="s">
         <v>3538</v>
       </c>
@@ -41146,7 +41294,7 @@
         <v>3540</v>
       </c>
     </row>
-    <row r="1106" hidden="1" spans="2:4">
+    <row r="1106" ht="23" hidden="1" spans="2:4">
       <c r="B1106" s="1" t="s">
         <v>3541</v>
       </c>
@@ -41157,7 +41305,7 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="1107" hidden="1" spans="2:4">
+    <row r="1107" ht="24" hidden="1" spans="2:4">
       <c r="B1107" s="1" t="s">
         <v>3544</v>
       </c>
@@ -41179,7 +41327,7 @@
         <v>3549</v>
       </c>
     </row>
-    <row r="1109" ht="37.5" hidden="1" spans="2:5">
+    <row r="1109" ht="60" hidden="1" spans="2:5">
       <c r="B1109" s="1" t="s">
         <v>3550</v>
       </c>
@@ -41193,7 +41341,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="1110" ht="37.5" hidden="1" spans="2:5">
+    <row r="1110" ht="40" hidden="1" spans="2:5">
       <c r="B1110" s="1" t="s">
         <v>3554</v>
       </c>
@@ -41207,7 +41355,7 @@
         <v>3557</v>
       </c>
     </row>
-    <row r="1111" hidden="1" spans="2:4">
+    <row r="1111" ht="24" hidden="1" spans="2:4">
       <c r="B1111" s="1" t="s">
         <v>3558</v>
       </c>
@@ -41229,7 +41377,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="1113" hidden="1" spans="2:4">
+    <row r="1113" ht="40" hidden="1" spans="2:4">
       <c r="B1113" s="1" t="s">
         <v>3564</v>
       </c>
@@ -41240,7 +41388,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="1114" ht="56.25" hidden="1" spans="2:5">
+    <row r="1114" ht="80" hidden="1" spans="2:5">
       <c r="B1114" s="1" t="s">
         <v>3567</v>
       </c>
@@ -41290,7 +41438,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="1118" ht="37.5" hidden="1" spans="2:5">
+    <row r="1118" ht="40" hidden="1" spans="2:5">
       <c r="B1118" s="1" t="s">
         <v>3581</v>
       </c>
@@ -41318,7 +41466,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="1120" ht="37.5" hidden="1" spans="2:4">
+    <row r="1120" ht="40" hidden="1" spans="2:4">
       <c r="B1120" s="1" t="s">
         <v>3589</v>
       </c>
@@ -41329,7 +41477,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="1121" ht="37.5" hidden="1" spans="2:5">
+    <row r="1121" ht="40" hidden="1" spans="2:5">
       <c r="B1121" s="1" t="s">
         <v>3592</v>
       </c>
@@ -41343,7 +41491,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="1122" ht="131.25" hidden="1" spans="2:5">
+    <row r="1122" ht="160" hidden="1" spans="2:5">
       <c r="B1122" s="1" t="s">
         <v>3596</v>
       </c>
@@ -41357,7 +41505,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="1123" ht="37.5" hidden="1" spans="2:5">
+    <row r="1123" ht="40" hidden="1" spans="2:5">
       <c r="B1123" s="1" t="s">
         <v>3600</v>
       </c>
@@ -41371,7 +41519,7 @@
         <v>3603</v>
       </c>
     </row>
-    <row r="1124" ht="37.5" hidden="1" spans="2:4">
+    <row r="1124" ht="40" hidden="1" spans="2:4">
       <c r="B1124" s="1" t="s">
         <v>3604</v>
       </c>
@@ -41382,7 +41530,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="1125" hidden="1" spans="2:4">
+    <row r="1125" ht="24" hidden="1" spans="2:4">
       <c r="B1125" s="1" t="s">
         <v>3607</v>
       </c>
@@ -41393,7 +41541,7 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="1126" ht="37.5" hidden="1" spans="2:5">
+    <row r="1126" ht="40" hidden="1" spans="2:5">
       <c r="B1126" s="1" t="s">
         <v>3610</v>
       </c>
@@ -41418,7 +41566,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="1128" ht="56.25" hidden="1" spans="2:5">
+    <row r="1128" ht="60" hidden="1" spans="2:5">
       <c r="B1128" s="1" t="s">
         <v>3617</v>
       </c>
@@ -41443,7 +41591,7 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="1130" ht="37.5" hidden="1" spans="2:4">
+    <row r="1130" ht="40" hidden="1" spans="2:4">
       <c r="B1130" s="1" t="s">
         <v>3624</v>
       </c>
@@ -41454,7 +41602,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="1131" ht="37.5" hidden="1" spans="2:4">
+    <row r="1131" ht="40" hidden="1" spans="2:4">
       <c r="B1131" s="1" t="s">
         <v>3627</v>
       </c>
@@ -41476,7 +41624,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="1133" hidden="1" spans="2:4">
+    <row r="1133" ht="23" hidden="1" spans="2:4">
       <c r="B1133" s="1" t="s">
         <v>3633</v>
       </c>
@@ -41487,7 +41635,7 @@
         <v>3635</v>
       </c>
     </row>
-    <row r="1134" ht="93.75" hidden="1" spans="2:5">
+    <row r="1134" ht="120" hidden="1" spans="2:5">
       <c r="B1134" s="1" t="s">
         <v>3636</v>
       </c>
@@ -41501,7 +41649,7 @@
         <v>3639</v>
       </c>
     </row>
-    <row r="1135" ht="37.5" hidden="1" spans="2:4">
+    <row r="1135" ht="40" hidden="1" spans="2:4">
       <c r="B1135" s="1" t="s">
         <v>3640</v>
       </c>
@@ -41512,7 +41660,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="1136" ht="56.25" hidden="1" spans="2:5">
+    <row r="1136" ht="60" hidden="1" spans="2:5">
       <c r="B1136" s="1" t="s">
         <v>3643</v>
       </c>
@@ -41526,7 +41674,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="1137" ht="37.5" hidden="1" spans="2:4">
+    <row r="1137" ht="40" hidden="1" spans="2:4">
       <c r="B1137" s="1" t="s">
         <v>3647</v>
       </c>
@@ -41537,7 +41685,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="1138" ht="37.5" hidden="1" spans="2:4">
+    <row r="1138" ht="40" hidden="1" spans="2:4">
       <c r="B1138" s="1" t="s">
         <v>3650</v>
       </c>
@@ -41548,7 +41696,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="1139" hidden="1" spans="2:4">
+    <row r="1139" ht="23" hidden="1" spans="2:4">
       <c r="B1139" s="1" t="s">
         <v>3653</v>
       </c>
@@ -41559,7 +41707,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="1140" ht="56.25" hidden="1" spans="2:5">
+    <row r="1140" ht="77" hidden="1" spans="2:5">
       <c r="B1140" s="1" t="s">
         <v>3656</v>
       </c>
@@ -41584,7 +41732,7 @@
         <v>3662</v>
       </c>
     </row>
-    <row r="1142" hidden="1" spans="2:4">
+    <row r="1142" ht="24" hidden="1" spans="2:4">
       <c r="B1142" s="1" t="s">
         <v>3663</v>
       </c>
@@ -41595,7 +41743,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="1143" ht="37.5" hidden="1" spans="2:4">
+    <row r="1143" ht="40" hidden="1" spans="2:4">
       <c r="B1143" s="1" t="s">
         <v>3666</v>
       </c>
@@ -41606,7 +41754,7 @@
         <v>3668</v>
       </c>
     </row>
-    <row r="1144" ht="112.5" hidden="1" spans="2:5">
+    <row r="1144" ht="120" hidden="1" spans="2:5">
       <c r="B1144" s="1" t="s">
         <v>3669</v>
       </c>
@@ -41620,7 +41768,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="1145" ht="56.25" hidden="1" spans="2:5">
+    <row r="1145" ht="77" hidden="1" spans="2:5">
       <c r="B1145" s="1" t="s">
         <v>3673</v>
       </c>
@@ -41634,7 +41782,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="1146" ht="131.25" hidden="1" spans="2:5">
+    <row r="1146" ht="160" hidden="1" spans="2:5">
       <c r="B1146" s="1" t="s">
         <v>3677</v>
       </c>
@@ -41659,7 +41807,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="1148" ht="131.25" hidden="1" spans="2:5">
+    <row r="1148" ht="140" hidden="1" spans="2:5">
       <c r="B1148" s="1" t="s">
         <v>3684</v>
       </c>
@@ -41673,7 +41821,7 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="1149" ht="131.25" hidden="1" spans="2:5">
+    <row r="1149" ht="160" hidden="1" spans="2:5">
       <c r="B1149" s="1" t="s">
         <v>3688</v>
       </c>
@@ -41687,7 +41835,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="1150" ht="37.5" hidden="1" spans="2:4">
+    <row r="1150" ht="40" hidden="1" spans="2:4">
       <c r="B1150" s="1" t="s">
         <v>3692</v>
       </c>
@@ -41698,7 +41846,7 @@
         <v>3694</v>
       </c>
     </row>
-    <row r="1151" ht="37.5" hidden="1" spans="2:5">
+    <row r="1151" ht="40" hidden="1" spans="2:5">
       <c r="B1151" s="1" t="s">
         <v>3695</v>
       </c>
@@ -41712,7 +41860,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="1152" ht="150" hidden="1" spans="2:5">
+    <row r="1152" ht="180" hidden="1" spans="2:5">
       <c r="B1152" s="1" t="s">
         <v>3699</v>
       </c>
@@ -41784,7 +41932,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="1158" ht="37.5" hidden="1" spans="2:4">
+    <row r="1158" ht="40" hidden="1" spans="2:4">
       <c r="B1158" s="1" t="s">
         <v>3719</v>
       </c>
@@ -41806,7 +41954,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="1160" ht="37.5" hidden="1" spans="2:4">
+    <row r="1160" ht="40" hidden="1" spans="2:4">
       <c r="B1160" s="1" t="s">
         <v>3725</v>
       </c>
@@ -41856,7 +42004,7 @@
         <v>3738</v>
       </c>
     </row>
-    <row r="1164" ht="37.5" hidden="1" spans="2:4">
+    <row r="1164" ht="40" hidden="1" spans="2:4">
       <c r="B1164" s="1" t="s">
         <v>3739</v>
       </c>
@@ -41903,7 +42051,7 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="1168" hidden="1" spans="2:4">
+    <row r="1168" ht="23" hidden="1" spans="2:4">
       <c r="B1168" s="1" t="s">
         <v>3752</v>
       </c>
@@ -42005,7 +42153,7 @@
         <v>3779</v>
       </c>
     </row>
-    <row r="1177" hidden="1" spans="2:4">
+    <row r="1177" ht="23" hidden="1" spans="2:4">
       <c r="B1177" s="1" t="s">
         <v>3780</v>
       </c>
@@ -42016,7 +42164,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="1178" hidden="1" spans="2:5">
+    <row r="1178" ht="24" hidden="1" spans="2:5">
       <c r="B1178" s="1" t="s">
         <v>3783</v>
       </c>
@@ -42030,7 +42178,7 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="1179" hidden="1" spans="2:4">
+    <row r="1179" ht="24" hidden="1" spans="2:4">
       <c r="B1179" s="1" t="s">
         <v>3787</v>
       </c>
@@ -42041,7 +42189,7 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="1180" hidden="1" spans="2:4">
+    <row r="1180" ht="24" hidden="1" spans="2:4">
       <c r="B1180" s="1" t="s">
         <v>3790</v>
       </c>
@@ -42063,7 +42211,7 @@
         <v>3795</v>
       </c>
     </row>
-    <row r="1182" ht="93.75" hidden="1" spans="2:5">
+    <row r="1182" ht="106" hidden="1" spans="2:5">
       <c r="B1182" s="1" t="s">
         <v>3796</v>
       </c>
@@ -42121,7 +42269,7 @@
         <v>3811</v>
       </c>
     </row>
-    <row r="1187" ht="37.5" hidden="1" spans="2:5">
+    <row r="1187" ht="40" hidden="1" spans="2:5">
       <c r="B1187" s="1" t="s">
         <v>3812</v>
       </c>
@@ -42160,7 +42308,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="1190" ht="112.5" hidden="1" spans="2:5">
+    <row r="1190" ht="120" hidden="1" spans="2:5">
       <c r="B1190" s="1" t="s">
         <v>3823</v>
       </c>
@@ -42199,7 +42347,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="1193" ht="56.25" hidden="1" spans="2:5">
+    <row r="1193" ht="60" hidden="1" spans="2:5">
       <c r="B1193" s="1" t="s">
         <v>3834</v>
       </c>
@@ -42268,7 +42416,7 @@
         <v>3852</v>
       </c>
     </row>
-    <row r="1199" hidden="1" spans="2:4">
+    <row r="1199" ht="24" hidden="1" spans="2:4">
       <c r="B1199" s="1" t="s">
         <v>3853</v>
       </c>
@@ -42279,7 +42427,7 @@
         <v>3855</v>
       </c>
     </row>
-    <row r="1200" hidden="1" spans="2:5">
+    <row r="1200" ht="24" hidden="1" spans="2:5">
       <c r="B1200" s="1" t="s">
         <v>3856</v>
       </c>
@@ -42307,7 +42455,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="1202" hidden="1" spans="2:4">
+    <row r="1202" ht="24" hidden="1" spans="2:4">
       <c r="B1202" s="1" t="s">
         <v>3864</v>
       </c>
@@ -42318,7 +42466,7 @@
         <v>3866</v>
       </c>
     </row>
-    <row r="1203" hidden="1" spans="2:4">
+    <row r="1203" ht="23" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
         <v>3867</v>
       </c>
@@ -42340,7 +42488,7 @@
         <v>3872</v>
       </c>
     </row>
-    <row r="1205" hidden="1" spans="2:4">
+    <row r="1205" ht="24" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
         <v>3873</v>
       </c>
@@ -42409,7 +42557,7 @@
         <v>3891</v>
       </c>
     </row>
-    <row r="1211" ht="75" hidden="1" spans="2:5">
+    <row r="1211" ht="100" hidden="1" spans="2:5">
       <c r="B1211" s="1" t="s">
         <v>3892</v>
       </c>
@@ -42459,7 +42607,7 @@
         <v>3904</v>
       </c>
     </row>
-    <row r="1215" hidden="1" spans="2:5">
+    <row r="1215" ht="23" hidden="1" spans="2:5">
       <c r="B1215" s="1" t="s">
         <v>3905</v>
       </c>
@@ -42556,7 +42704,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="1223" hidden="1" spans="2:4">
+    <row r="1223" ht="24" hidden="1" spans="2:4">
       <c r="B1223" s="1" t="s">
         <v>3932</v>
       </c>
@@ -42567,7 +42715,7 @@
         <v>3934</v>
       </c>
     </row>
-    <row r="1224" ht="37.5" hidden="1" spans="2:4">
+    <row r="1224" ht="40" hidden="1" spans="2:4">
       <c r="B1224" s="1" t="s">
         <v>3935</v>
       </c>
@@ -42589,7 +42737,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="1226" hidden="1" spans="2:4">
+    <row r="1226" ht="24" hidden="1" spans="2:4">
       <c r="B1226" s="1" t="s">
         <v>3941</v>
       </c>
@@ -42600,7 +42748,7 @@
         <v>3943</v>
       </c>
     </row>
-    <row r="1227" ht="112.5" hidden="1" spans="2:5">
+    <row r="1227" ht="120" hidden="1" spans="2:5">
       <c r="B1227" s="1" t="s">
         <v>3944</v>
       </c>
@@ -42661,7 +42809,7 @@
         <v>3960</v>
       </c>
     </row>
-    <row r="1232" ht="37.5" hidden="1" spans="2:4">
+    <row r="1232" ht="40" hidden="1" spans="2:4">
       <c r="B1232" s="1" t="s">
         <v>3961</v>
       </c>
@@ -42738,7 +42886,7 @@
         <v>3981</v>
       </c>
     </row>
-    <row r="1239" ht="75" hidden="1" spans="2:5">
+    <row r="1239" ht="80" hidden="1" spans="2:5">
       <c r="B1239" s="1" t="s">
         <v>3982</v>
       </c>
@@ -42752,7 +42900,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="1240" hidden="1" spans="2:4">
+    <row r="1240" ht="24" hidden="1" spans="2:4">
       <c r="B1240" s="1" t="s">
         <v>3986</v>
       </c>
@@ -42774,7 +42922,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="1242" ht="37.5" hidden="1" spans="2:4">
+    <row r="1242" ht="40" hidden="1" spans="2:4">
       <c r="B1242" s="1" t="s">
         <v>3992</v>
       </c>
@@ -42807,7 +42955,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="1245" ht="37.5" hidden="1" spans="2:4">
+    <row r="1245" ht="40" hidden="1" spans="2:4">
       <c r="B1245" s="1" t="s">
         <v>4001</v>
       </c>
@@ -42843,7 +42991,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="1248" ht="37.5" hidden="1" spans="2:4">
+    <row r="1248" ht="40" hidden="1" spans="2:4">
       <c r="B1248" s="1" t="s">
         <v>4010</v>
       </c>
@@ -42854,7 +43002,7 @@
         <v>4012</v>
       </c>
     </row>
-    <row r="1249" ht="37.5" hidden="1" spans="2:4">
+    <row r="1249" ht="40" hidden="1" spans="2:4">
       <c r="B1249" s="1" t="s">
         <v>4013</v>
       </c>
@@ -42876,7 +43024,7 @@
         <v>4018</v>
       </c>
     </row>
-    <row r="1251" hidden="1" spans="2:4">
+    <row r="1251" ht="23" hidden="1" spans="2:4">
       <c r="B1251" s="1" t="s">
         <v>4019</v>
       </c>
@@ -42887,7 +43035,7 @@
         <v>4021</v>
       </c>
     </row>
-    <row r="1252" ht="37.5" hidden="1" spans="2:5">
+    <row r="1252" ht="40" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
         <v>4022</v>
       </c>
@@ -42915,7 +43063,7 @@
         <v>4029</v>
       </c>
     </row>
-    <row r="1254" ht="37.5" hidden="1" spans="2:4">
+    <row r="1254" ht="40" hidden="1" spans="2:4">
       <c r="B1254" s="1" t="s">
         <v>4030</v>
       </c>
@@ -42948,7 +43096,7 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="1257" ht="37.5" hidden="1" spans="2:4">
+    <row r="1257" ht="40" hidden="1" spans="2:4">
       <c r="B1257" s="1" t="s">
         <v>4039</v>
       </c>
@@ -42970,7 +43118,7 @@
         <v>4044</v>
       </c>
     </row>
-    <row r="1259" ht="37.5" hidden="1" spans="2:5">
+    <row r="1259" ht="40" hidden="1" spans="2:5">
       <c r="B1259" s="1" t="s">
         <v>4045</v>
       </c>
@@ -43028,7 +43176,7 @@
         <v>4060</v>
       </c>
     </row>
-    <row r="1264" hidden="1" spans="2:4">
+    <row r="1264" ht="24" hidden="1" spans="2:4">
       <c r="B1264" s="1" t="s">
         <v>4061</v>
       </c>
@@ -43130,7 +43278,7 @@
         <v>4088</v>
       </c>
     </row>
-    <row r="1273" ht="37.5" hidden="1" spans="2:4">
+    <row r="1273" ht="40" hidden="1" spans="2:4">
       <c r="B1273" s="1" t="s">
         <v>4089</v>
       </c>
@@ -43141,7 +43289,7 @@
         <v>4091</v>
       </c>
     </row>
-    <row r="1274" ht="37.5" hidden="1" spans="2:4">
+    <row r="1274" ht="40" hidden="1" spans="2:4">
       <c r="B1274" s="1" t="s">
         <v>4092</v>
       </c>
@@ -43163,7 +43311,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="1276" hidden="1" spans="2:4">
+    <row r="1276" ht="24" hidden="1" spans="2:4">
       <c r="B1276" s="1" t="s">
         <v>4098</v>
       </c>
@@ -43254,7 +43402,7 @@
         <v>4122</v>
       </c>
     </row>
-    <row r="1284" ht="37.5" hidden="1" spans="2:4">
+    <row r="1284" ht="40" hidden="1" spans="2:4">
       <c r="B1284" s="1" t="s">
         <v>4123</v>
       </c>
@@ -43348,7 +43496,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="1292" hidden="1" spans="2:4">
+    <row r="1292" ht="24" hidden="1" spans="2:4">
       <c r="B1292" s="1" t="s">
         <v>4149</v>
       </c>
@@ -43370,7 +43518,7 @@
         <v>4154</v>
       </c>
     </row>
-    <row r="1294" ht="93.75" hidden="1" spans="2:5">
+    <row r="1294" ht="100" hidden="1" spans="2:5">
       <c r="B1294" s="1" t="s">
         <v>4155</v>
       </c>
@@ -43395,7 +43543,7 @@
         <v>4161</v>
       </c>
     </row>
-    <row r="1296" hidden="1" spans="2:4">
+    <row r="1296" ht="24" hidden="1" spans="2:4">
       <c r="B1296" s="1" t="s">
         <v>4162</v>
       </c>
@@ -43428,7 +43576,7 @@
         <v>4170</v>
       </c>
     </row>
-    <row r="1299" ht="37.5" hidden="1" spans="2:4">
+    <row r="1299" ht="40" hidden="1" spans="2:4">
       <c r="B1299" s="1" t="s">
         <v>4171</v>
       </c>
@@ -43461,7 +43609,7 @@
         <v>4179</v>
       </c>
     </row>
-    <row r="1302" hidden="1" spans="2:5">
+    <row r="1302" ht="40" hidden="1" spans="2:5">
       <c r="B1302" s="1" t="s">
         <v>4180</v>
       </c>
@@ -43475,7 +43623,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="1303" hidden="1" spans="2:4">
+    <row r="1303" ht="24" hidden="1" spans="2:4">
       <c r="B1303" s="1" t="s">
         <v>4183</v>
       </c>
@@ -43486,7 +43634,7 @@
         <v>4185</v>
       </c>
     </row>
-    <row r="1304" ht="37.5" hidden="1" spans="2:4">
+    <row r="1304" ht="40" hidden="1" spans="2:4">
       <c r="B1304" s="1" t="s">
         <v>4186</v>
       </c>
@@ -43563,7 +43711,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="1311" ht="37.5" hidden="1" spans="2:4">
+    <row r="1311" ht="40" hidden="1" spans="2:4">
       <c r="B1311" s="1" t="s">
         <v>4207</v>
       </c>
@@ -43585,7 +43733,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="1313" ht="150" hidden="1" spans="2:5">
+    <row r="1313" ht="180" hidden="1" spans="2:5">
       <c r="B1313" s="1" t="s">
         <v>4213</v>
       </c>
@@ -43621,7 +43769,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="1316" ht="37.5" hidden="1" spans="2:5">
+    <row r="1316" ht="40" hidden="1" spans="2:5">
       <c r="B1316" s="1" t="s">
         <v>4223</v>
       </c>
@@ -43635,7 +43783,7 @@
         <v>4226</v>
       </c>
     </row>
-    <row r="1317" hidden="1" spans="2:4">
+    <row r="1317" ht="24" hidden="1" spans="2:4">
       <c r="B1317" s="1" t="s">
         <v>4227</v>
       </c>
@@ -43646,7 +43794,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="1318" ht="37.5" hidden="1" spans="2:4">
+    <row r="1318" ht="40" hidden="1" spans="2:4">
       <c r="B1318" s="1" t="s">
         <v>4230</v>
       </c>
@@ -43726,7 +43874,7 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="1325" hidden="1" spans="2:4">
+    <row r="1325" ht="24" hidden="1" spans="2:4">
       <c r="B1325" s="1" t="s">
         <v>4252</v>
       </c>
@@ -43762,7 +43910,7 @@
         <v>4261</v>
       </c>
     </row>
-    <row r="1328" ht="37.5" hidden="1" spans="2:4">
+    <row r="1328" ht="40" hidden="1" spans="2:4">
       <c r="B1328" s="1" t="s">
         <v>4262</v>
       </c>
@@ -43806,7 +43954,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="1332" hidden="1" spans="2:5">
+    <row r="1332" ht="23" hidden="1" spans="2:5">
       <c r="B1332" s="1" t="s">
         <v>4274</v>
       </c>
@@ -43820,7 +43968,7 @@
         <v>4277</v>
       </c>
     </row>
-    <row r="1333" ht="37.5" hidden="1" spans="2:4">
+    <row r="1333" ht="40" hidden="1" spans="2:4">
       <c r="B1333" s="1" t="s">
         <v>4278</v>
       </c>
@@ -43897,7 +44045,7 @@
         <v>4298</v>
       </c>
     </row>
-    <row r="1340" hidden="1" spans="2:4">
+    <row r="1340" ht="24" hidden="1" spans="2:4">
       <c r="B1340" s="1" t="s">
         <v>4299</v>
       </c>
@@ -43930,7 +44078,7 @@
         <v>4307</v>
       </c>
     </row>
-    <row r="1343" ht="56.25" hidden="1" spans="2:5">
+    <row r="1343" ht="60" hidden="1" spans="2:5">
       <c r="B1343" s="1" t="s">
         <v>4308</v>
       </c>
@@ -43999,7 +44147,7 @@
         <v>4326</v>
       </c>
     </row>
-    <row r="1349" ht="56.25" hidden="1" spans="2:5">
+    <row r="1349" ht="60" hidden="1" spans="2:5">
       <c r="B1349" s="1" t="s">
         <v>4327</v>
       </c>
@@ -44035,7 +44183,7 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="1352" ht="37.5" hidden="1" spans="2:4">
+    <row r="1352" ht="40" hidden="1" spans="2:4">
       <c r="B1352" s="1" t="s">
         <v>4337</v>
       </c>
@@ -44057,7 +44205,7 @@
         <v>4342</v>
       </c>
     </row>
-    <row r="1354" hidden="1" spans="2:4">
+    <row r="1354" ht="24" hidden="1" spans="2:4">
       <c r="B1354" s="1" t="s">
         <v>4343</v>
       </c>
@@ -44090,7 +44238,7 @@
         <v>4351</v>
       </c>
     </row>
-    <row r="1357" hidden="1" spans="2:4">
+    <row r="1357" ht="24" hidden="1" spans="2:4">
       <c r="B1357" s="1" t="s">
         <v>4352</v>
       </c>
@@ -44101,7 +44249,7 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="1358" ht="37.5" hidden="1" spans="2:5">
+    <row r="1358" ht="40" hidden="1" spans="2:5">
       <c r="B1358" s="1" t="s">
         <v>4355</v>
       </c>
@@ -44184,7 +44332,7 @@
         <v>4377</v>
       </c>
     </row>
-    <row r="1365" ht="37.5" hidden="1" spans="2:4">
+    <row r="1365" ht="40" hidden="1" spans="2:4">
       <c r="B1365" s="1" t="s">
         <v>4378</v>
       </c>
@@ -44195,7 +44343,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="1366" ht="37.5" hidden="1" spans="2:4">
+    <row r="1366" ht="40" hidden="1" spans="2:4">
       <c r="B1366" s="1" t="s">
         <v>4381</v>
       </c>
@@ -44206,7 +44354,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="1367" hidden="1" spans="2:4">
+    <row r="1367" ht="23" hidden="1" spans="2:4">
       <c r="B1367" s="1" t="s">
         <v>4384</v>
       </c>
@@ -44272,7 +44420,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="1373" ht="37.5" hidden="1" spans="2:4">
+    <row r="1373" ht="40" hidden="1" spans="2:4">
       <c r="B1373" s="1" t="s">
         <v>4401</v>
       </c>
@@ -44294,7 +44442,7 @@
         <v>4406</v>
       </c>
     </row>
-    <row r="1375" ht="37.5" hidden="1" spans="2:4">
+    <row r="1375" ht="40" hidden="1" spans="2:4">
       <c r="B1375" s="1" t="s">
         <v>4407</v>
       </c>
@@ -44338,7 +44486,7 @@
         <v>4418</v>
       </c>
     </row>
-    <row r="1379" hidden="1" spans="2:4">
+    <row r="1379" ht="24" hidden="1" spans="2:4">
       <c r="B1379" s="1" t="s">
         <v>4419</v>
       </c>
@@ -44360,7 +44508,7 @@
         <v>4424</v>
       </c>
     </row>
-    <row r="1381" ht="112.5" hidden="1" spans="2:5">
+    <row r="1381" ht="140" hidden="1" spans="2:5">
       <c r="B1381" s="1" t="s">
         <v>4425</v>
       </c>
@@ -44374,7 +44522,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="1382" ht="37.5" hidden="1" spans="2:5">
+    <row r="1382" ht="40" hidden="1" spans="2:5">
       <c r="B1382" s="1" t="s">
         <v>4429</v>
       </c>
@@ -44388,7 +44536,7 @@
         <v>4432</v>
       </c>
     </row>
-    <row r="1383" ht="37.5" hidden="1" spans="2:5">
+    <row r="1383" ht="40" hidden="1" spans="2:5">
       <c r="B1383" s="1" t="s">
         <v>4433</v>
       </c>
@@ -44446,7 +44594,7 @@
         <v>4448</v>
       </c>
     </row>
-    <row r="1388" hidden="1" spans="2:4">
+    <row r="1388" ht="23" hidden="1" spans="2:4">
       <c r="B1388" s="1" t="s">
         <v>4449</v>
       </c>
@@ -44479,7 +44627,7 @@
         <v>4457</v>
       </c>
     </row>
-    <row r="1391" hidden="1" spans="2:4">
+    <row r="1391" ht="24" hidden="1" spans="2:4">
       <c r="B1391" s="1" t="s">
         <v>4458</v>
       </c>
@@ -44490,7 +44638,7 @@
         <v>4460</v>
       </c>
     </row>
-    <row r="1392" hidden="1" spans="2:4">
+    <row r="1392" ht="24" hidden="1" spans="2:4">
       <c r="B1392" s="1" t="s">
         <v>4461</v>
       </c>
@@ -44567,7 +44715,7 @@
         <v>4481</v>
       </c>
     </row>
-    <row r="1399" ht="56.25" hidden="1" spans="2:5">
+    <row r="1399" ht="60" hidden="1" spans="2:5">
       <c r="B1399" s="1" t="s">
         <v>4482</v>
       </c>
@@ -44675,7 +44823,7 @@
         <v>4511</v>
       </c>
     </row>
-    <row r="1408" ht="37.5" hidden="1" spans="2:5">
+    <row r="1408" ht="40" hidden="1" spans="2:5">
       <c r="B1408" s="1" t="s">
         <v>4512</v>
       </c>
@@ -44733,7 +44881,7 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="1413" hidden="1" spans="2:4">
+    <row r="1413" ht="24" hidden="1" spans="2:4">
       <c r="B1413" s="1" t="s">
         <v>4528</v>
       </c>
@@ -44766,7 +44914,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="1416" hidden="1" spans="2:4">
+    <row r="1416" ht="24" hidden="1" spans="2:4">
       <c r="B1416" s="1" t="s">
         <v>4537</v>
       </c>
@@ -44788,7 +44936,7 @@
         <v>4542</v>
       </c>
     </row>
-    <row r="1418" ht="37.5" hidden="1" spans="2:4">
+    <row r="1418" ht="40" hidden="1" spans="2:4">
       <c r="B1418" s="1" t="s">
         <v>4543</v>
       </c>
@@ -44799,7 +44947,7 @@
         <v>4545</v>
       </c>
     </row>
-    <row r="1419" ht="37.5" hidden="1" spans="2:4">
+    <row r="1419" ht="40" hidden="1" spans="2:4">
       <c r="B1419" s="1" t="s">
         <v>4546</v>
       </c>
@@ -44843,7 +44991,7 @@
         <v>4556</v>
       </c>
     </row>
-    <row r="1423" ht="37.5" hidden="1" spans="2:4">
+    <row r="1423" ht="40" hidden="1" spans="2:4">
       <c r="B1423" s="1" t="s">
         <v>4557</v>
       </c>
@@ -44865,7 +45013,7 @@
         <v>4562</v>
       </c>
     </row>
-    <row r="1425" ht="37.5" hidden="1" spans="2:4">
+    <row r="1425" ht="40" hidden="1" spans="2:4">
       <c r="B1425" s="1" t="s">
         <v>4563</v>
       </c>
@@ -44887,7 +45035,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="1427" ht="37.5" hidden="1" spans="2:4">
+    <row r="1427" ht="40" hidden="1" spans="2:4">
       <c r="B1427" s="1" t="s">
         <v>4569</v>
       </c>
@@ -44909,7 +45057,7 @@
         <v>4574</v>
       </c>
     </row>
-    <row r="1429" hidden="1" spans="2:4">
+    <row r="1429" ht="24" hidden="1" spans="2:4">
       <c r="B1429" s="1" t="s">
         <v>4575</v>
       </c>
@@ -44920,7 +45068,7 @@
         <v>4577</v>
       </c>
     </row>
-    <row r="1430" hidden="1" spans="2:4">
+    <row r="1430" ht="24" hidden="1" spans="2:4">
       <c r="B1430" s="1" t="s">
         <v>4578</v>
       </c>
@@ -44950,7 +45098,6 @@
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
-        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15040" tabRatio="500"/>
+    <workbookView windowHeight="15100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -6624,12 +6624,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
       <t>inter</t>
     </r>
     <r>
@@ -7056,7 +7050,7 @@
     <t>a.永久的，终身的</t>
   </si>
   <si>
-    <t xml:space="preserve">perpetuate  </t>
+    <t xml:space="preserve">perpetuate ,permanent </t>
   </si>
   <si>
     <t>exhausted</t>
@@ -26631,10 +26625,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -26665,47 +26659,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26720,6 +26675,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -26728,7 +26698,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26758,10 +26735,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26774,14 +26751,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26795,8 +26773,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26905,7 +26899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26917,7 +26911,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26929,37 +27031,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26971,49 +27061,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27025,67 +27079,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27108,6 +27102,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -27123,10 +27150,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -27146,198 +27190,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -27445,7 +27439,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2814320" y="34378900"/>
+          <a:off x="2814320" y="14884400"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27741,8 +27735,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" outlineLevelCol="5"/>
@@ -29328,7 +29322,7 @@
     </row>
     <row r="116" ht="40" spans="1:5">
       <c r="A116" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>390</v>
@@ -29381,7 +29375,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>404</v>
@@ -29423,7 +29417,7 @@
     </row>
     <row r="123" ht="24" spans="1:4">
       <c r="A123" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>414</v>
@@ -29437,7 +29431,7 @@
     </row>
     <row r="124" ht="40" spans="1:4">
       <c r="A124" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>417</v>
@@ -30018,7 +30012,7 @@
     </row>
     <row r="167" ht="40" spans="1:4">
       <c r="A167" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>556</v>
@@ -30032,7 +30026,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>559</v>
@@ -30313,7 +30307,7 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>629</v>
@@ -30594,9 +30588,9 @@
         <v>699</v>
       </c>
     </row>
-    <row r="213" ht="40" spans="1:4">
+    <row r="213" ht="40" hidden="1" spans="1:4">
       <c r="A213" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>700</v>
@@ -30653,9 +30647,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" ht="24" spans="1:4">
+    <row r="217" ht="24" hidden="1" spans="1:4">
       <c r="A217" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>714</v>
@@ -30678,9 +30672,9 @@
         <v>719</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" hidden="1" spans="1:5">
       <c r="A219" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>720</v>
@@ -30753,7 +30747,7 @@
     </row>
     <row r="224" ht="40" spans="1:4">
       <c r="A224" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>737</v>
@@ -30814,7 +30808,7 @@
     </row>
     <row r="229" ht="40" spans="1:4">
       <c r="A229" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>752</v>
@@ -30826,9 +30820,9 @@
         <v>754</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" hidden="1" spans="1:4">
       <c r="A230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>755</v>
@@ -30870,7 +30864,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>765</v>
@@ -30947,9 +30941,9 @@
         <v>783</v>
       </c>
     </row>
-    <row r="238" ht="24" spans="1:5">
+    <row r="238" ht="24" hidden="1" spans="1:5">
       <c r="A238" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>784</v>
@@ -30981,9 +30975,9 @@
         <v>791</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" hidden="1" spans="1:5">
       <c r="A240" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>792</v>
@@ -31057,9 +31051,9 @@
         <v>809</v>
       </c>
     </row>
-    <row r="245" ht="40" spans="1:4">
+    <row r="245" ht="40" hidden="1" spans="1:4">
       <c r="A245" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>810</v>
@@ -31115,7 +31109,7 @@
     </row>
     <row r="249" ht="40" spans="1:4">
       <c r="A249" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>823</v>
@@ -31166,9 +31160,9 @@
         <v>835</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" hidden="1" spans="1:4">
       <c r="A253" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>836</v>
@@ -31180,9 +31174,9 @@
         <v>838</v>
       </c>
     </row>
-    <row r="254" ht="24" spans="1:4">
+    <row r="254" ht="24" hidden="1" spans="1:4">
       <c r="A254" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>839</v>
@@ -31230,9 +31224,9 @@
         <v>850</v>
       </c>
     </row>
-    <row r="258" ht="40" spans="1:4">
+    <row r="258" ht="40" hidden="1" spans="1:4">
       <c r="A258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>851</v>
@@ -31244,9 +31238,9 @@
         <v>853</v>
       </c>
     </row>
-    <row r="259" ht="40" spans="1:4">
+    <row r="259" ht="40" hidden="1" spans="1:4">
       <c r="A259" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>854</v>
@@ -31280,9 +31274,9 @@
         <v>862</v>
       </c>
     </row>
-    <row r="262" ht="24" spans="1:4">
+    <row r="262" ht="24" hidden="1" spans="1:4">
       <c r="A262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>863</v>
@@ -31350,9 +31344,9 @@
         <v>878</v>
       </c>
     </row>
-    <row r="267" ht="40" spans="1:5">
+    <row r="267" ht="40" hidden="1" spans="1:5">
       <c r="A267" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>879</v>
@@ -31367,9 +31361,9 @@
         <v>882</v>
       </c>
     </row>
-    <row r="268" ht="80" spans="1:5">
+    <row r="268" ht="80" hidden="1" spans="1:5">
       <c r="A268" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>883</v>
@@ -31386,7 +31380,7 @@
     </row>
     <row r="269" ht="60" spans="1:5">
       <c r="A269" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>887</v>
@@ -31412,9 +31406,9 @@
         <v>893</v>
       </c>
     </row>
-    <row r="271" ht="24" spans="1:4">
+    <row r="271" ht="24" hidden="1" spans="1:4">
       <c r="A271" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>894</v>
@@ -31459,9 +31453,9 @@
         <v>905</v>
       </c>
     </row>
-    <row r="275" ht="40" spans="1:4">
+    <row r="275" ht="40" hidden="1" spans="1:4">
       <c r="A275" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>906</v>
@@ -31556,9 +31550,9 @@
         <v>929</v>
       </c>
     </row>
-    <row r="283" ht="40" spans="1:5">
+    <row r="283" ht="40" hidden="1" spans="1:5">
       <c r="A283" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>930</v>
@@ -31589,7 +31583,7 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>937</v>
@@ -31622,9 +31616,9 @@
       </c>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" hidden="1" spans="1:4">
       <c r="A287" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>945</v>
@@ -31650,9 +31644,9 @@
         <v>950</v>
       </c>
     </row>
-    <row r="289" ht="100" spans="1:5">
+    <row r="289" ht="100" hidden="1" spans="1:5">
       <c r="A289" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>951</v>
@@ -31742,9 +31736,9 @@
         <v>973</v>
       </c>
     </row>
-    <row r="296" ht="40" spans="1:4">
+    <row r="296" ht="40" hidden="1" spans="1:4">
       <c r="A296" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>974</v>
@@ -31756,9 +31750,9 @@
         <v>976</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" hidden="1" spans="1:4">
       <c r="A297" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>977</v>
@@ -31795,9 +31789,9 @@
         <v>985</v>
       </c>
     </row>
-    <row r="300" ht="24" spans="1:4">
+    <row r="300" ht="24" hidden="1" spans="1:4">
       <c r="A300" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>986</v>
@@ -31809,9 +31803,9 @@
         <v>988</v>
       </c>
     </row>
-    <row r="301" ht="40" spans="1:5">
+    <row r="301" ht="40" hidden="1" spans="1:5">
       <c r="A301" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>989</v>
@@ -31828,7 +31822,7 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>993</v>
@@ -31845,7 +31839,7 @@
     </row>
     <row r="303" ht="40" spans="1:4">
       <c r="A303" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>996</v>
@@ -31857,9 +31851,9 @@
         <v>998</v>
       </c>
     </row>
-    <row r="304" ht="23" spans="1:4">
+    <row r="304" ht="23" hidden="1" spans="1:4">
       <c r="A304" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>999</v>
@@ -31871,9 +31865,9 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="305" ht="40" spans="1:4">
+    <row r="305" ht="40" hidden="1" spans="1:4">
       <c r="A305" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>1002</v>
@@ -31909,7 +31903,7 @@
     </row>
     <row r="308" ht="24" spans="1:4">
       <c r="A308" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>1011</v>
@@ -31954,9 +31948,9 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" hidden="1" spans="1:4">
       <c r="A312" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>1023</v>
@@ -31970,7 +31964,7 @@
     </row>
     <row r="313" ht="40" spans="1:4">
       <c r="A313" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>1026</v>
@@ -31982,9 +31976,9 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="314" ht="100" spans="1:5">
+    <row r="314" ht="100" hidden="1" spans="1:5">
       <c r="A314" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>1029</v>
@@ -32010,9 +32004,9 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="316" ht="40" spans="1:4">
+    <row r="316" ht="40" hidden="1" spans="1:4">
       <c r="A316" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>1036</v>
@@ -32035,9 +32029,9 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="318" ht="40" spans="1:5">
+    <row r="318" ht="40" hidden="1" spans="1:5">
       <c r="A318" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>1042</v>
@@ -32054,7 +32048,7 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>1045</v>
@@ -32130,9 +32124,9 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" hidden="1" spans="1:4">
       <c r="A325" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>1066</v>
@@ -32146,7 +32140,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>1069</v>
@@ -32186,9 +32180,9 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" hidden="1" spans="1:5">
       <c r="A329" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>1079</v>
@@ -32203,9 +32197,9 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="330" ht="40" spans="1:4">
+    <row r="330" ht="40" hidden="1" spans="1:4">
       <c r="A330" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>1083</v>
@@ -32217,9 +32211,9 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" hidden="1" spans="1:4">
       <c r="A331" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>1086</v>
@@ -32266,7 +32260,7 @@
     </row>
     <row r="335" ht="40" spans="1:5">
       <c r="A335" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>1098</v>
@@ -32303,9 +32297,9 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" hidden="1" spans="1:4">
       <c r="A338" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>1108</v>
@@ -32330,7 +32324,7 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>1114</v>
@@ -32347,7 +32341,7 @@
     </row>
     <row r="341" ht="140" spans="1:5">
       <c r="A341" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>1118</v>
@@ -32397,7 +32391,7 @@
     </row>
     <row r="345" ht="40" spans="1:4">
       <c r="A345" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>1131</v>
@@ -32411,7 +32405,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>1134</v>
@@ -32434,9 +32428,9 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" hidden="1" spans="1:5">
       <c r="A348" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>1140</v>
@@ -32453,7 +32447,7 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>1143</v>
@@ -32470,7 +32464,7 @@
     </row>
     <row r="350" ht="24" spans="1:4">
       <c r="A350" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>1147</v>
@@ -32504,9 +32498,9 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" hidden="1" spans="1:4">
       <c r="A353" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>1156</v>
@@ -32520,7 +32514,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>1159</v>
@@ -32534,7 +32528,7 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1162</v>
@@ -32560,9 +32554,9 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" hidden="1" spans="1:4">
       <c r="A357" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>1169</v>
@@ -32587,7 +32581,7 @@
     </row>
     <row r="359" ht="40" spans="1:4">
       <c r="A359" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>1175</v>
@@ -32610,9 +32604,9 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="361" ht="24" spans="1:4">
+    <row r="361" ht="24" hidden="1" spans="1:4">
       <c r="A361" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>1181</v>
@@ -32654,7 +32648,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>1192</v>
@@ -32691,9 +32685,9 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="367" ht="40" spans="1:5">
+    <row r="367" ht="40" hidden="1" spans="1:5">
       <c r="A367" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>1202</v>
@@ -32719,9 +32713,9 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="369" ht="40" spans="1:4">
+    <row r="369" ht="40" hidden="1" spans="1:4">
       <c r="A369" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>1209</v>
@@ -32819,9 +32813,9 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" hidden="1" spans="1:4">
       <c r="A377" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>1236</v>
@@ -32866,9 +32860,9 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="381" ht="40" spans="1:4">
+    <row r="381" ht="40" hidden="1" spans="1:4">
       <c r="A381" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>1248</v>
@@ -32882,7 +32876,7 @@
     </row>
     <row r="382" ht="40" spans="1:4">
       <c r="A382" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>1251</v>
@@ -32905,9 +32899,9 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" hidden="1" spans="1:4">
       <c r="A384" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>1257</v>
@@ -32963,9 +32957,9 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" hidden="1" spans="1:5">
       <c r="A389" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>1272</v>
@@ -32982,7 +32976,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>1276</v>
@@ -33005,9 +32999,9 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" hidden="1" spans="1:4">
       <c r="A392" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>1282</v>
@@ -33021,7 +33015,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1285</v>
@@ -33033,9 +33027,9 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="394" ht="24" spans="1:4">
+    <row r="394" ht="24" hidden="1" spans="1:4">
       <c r="A394" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>1288</v>
@@ -33047,9 +33041,9 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" hidden="1" spans="1:4">
       <c r="A395" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>1291</v>
@@ -33072,9 +33066,9 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" hidden="1" spans="1:4">
       <c r="A397" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>1296</v>
@@ -33099,7 +33093,7 @@
     </row>
     <row r="399" ht="40" spans="1:5">
       <c r="A399" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>1302</v>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -27439,7 +27439,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2814320" y="14884400"/>
+          <a:off x="2814320" y="27952700"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27735,8 +27735,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" outlineLevelCol="5"/>
@@ -29320,9 +29320,9 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" ht="40" spans="1:5">
+    <row r="116" ht="40" hidden="1" spans="1:5">
       <c r="A116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>390</v>
@@ -29375,7 +29375,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>404</v>
@@ -29415,9 +29415,9 @@
         <v>413</v>
       </c>
     </row>
-    <row r="123" ht="24" spans="1:4">
+    <row r="123" ht="24" hidden="1" spans="1:4">
       <c r="A123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>414</v>
@@ -29429,9 +29429,9 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" ht="40" spans="1:4">
+    <row r="124" ht="40" hidden="1" spans="1:4">
       <c r="A124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>417</v>
@@ -30010,9 +30010,9 @@
         <v>555</v>
       </c>
     </row>
-    <row r="167" ht="40" spans="1:4">
+    <row r="167" ht="40" hidden="1" spans="1:4">
       <c r="A167" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>556</v>
@@ -30024,9 +30024,9 @@
         <v>558</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" hidden="1" spans="1:4">
       <c r="A168" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>559</v>
@@ -30305,9 +30305,9 @@
         <v>628</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" hidden="1" spans="1:4">
       <c r="A190" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>629</v>
@@ -30747,7 +30747,7 @@
     </row>
     <row r="224" ht="40" spans="1:4">
       <c r="A224" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>737</v>
@@ -30808,7 +30808,7 @@
     </row>
     <row r="229" ht="40" spans="1:4">
       <c r="A229" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>752</v>
@@ -30864,7 +30864,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>765</v>
@@ -31109,7 +31109,7 @@
     </row>
     <row r="249" ht="40" spans="1:4">
       <c r="A249" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>823</v>
@@ -31132,9 +31132,9 @@
         <v>828</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" hidden="1" spans="1:4">
       <c r="A251" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>829</v>
@@ -31380,7 +31380,7 @@
     </row>
     <row r="269" ht="60" spans="1:5">
       <c r="A269" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>887</v>
@@ -31583,7 +31583,7 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>937</v>
@@ -31822,7 +31822,7 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>993</v>
@@ -31839,7 +31839,7 @@
     </row>
     <row r="303" ht="40" spans="1:4">
       <c r="A303" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>996</v>
@@ -31903,7 +31903,7 @@
     </row>
     <row r="308" ht="24" spans="1:4">
       <c r="A308" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>1011</v>
@@ -31964,7 +31964,7 @@
     </row>
     <row r="313" ht="40" spans="1:4">
       <c r="A313" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>1026</v>
@@ -32048,7 +32048,7 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>1045</v>
@@ -32140,7 +32140,7 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>1069</v>
@@ -32152,9 +32152,9 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" hidden="1" spans="1:5">
       <c r="A327" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>1072</v>
@@ -32260,7 +32260,7 @@
     </row>
     <row r="335" ht="40" spans="1:5">
       <c r="A335" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>1098</v>
@@ -32324,7 +32324,7 @@
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>1114</v>
@@ -32341,7 +32341,7 @@
     </row>
     <row r="341" ht="140" spans="1:5">
       <c r="A341" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>1118</v>
@@ -32391,7 +32391,7 @@
     </row>
     <row r="345" ht="40" spans="1:4">
       <c r="A345" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>1131</v>
@@ -32405,7 +32405,7 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>1134</v>
@@ -32447,7 +32447,7 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>1143</v>
@@ -32464,7 +32464,7 @@
     </row>
     <row r="350" ht="24" spans="1:4">
       <c r="A350" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>1147</v>
@@ -32514,7 +32514,7 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>1159</v>
@@ -32528,7 +32528,7 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1162</v>
@@ -32581,7 +32581,7 @@
     </row>
     <row r="359" ht="40" spans="1:4">
       <c r="A359" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>1175</v>
@@ -32648,7 +32648,7 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>1192</v>
@@ -32876,7 +32876,7 @@
     </row>
     <row r="382" ht="40" spans="1:4">
       <c r="A382" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>1251</v>
@@ -32976,7 +32976,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>1276</v>
@@ -33015,7 +33015,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1285</v>
@@ -33093,7 +33093,7 @@
     </row>
     <row r="399" ht="40" spans="1:5">
       <c r="A399" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>1302</v>
@@ -33108,7 +33108,10 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="2:4">
+    <row r="400" spans="1:4">
+      <c r="A400" s="1">
+        <v>1</v>
+      </c>
       <c r="B400" s="1" t="s">
         <v>1306</v>
       </c>
@@ -33119,7 +33122,10 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="401" ht="200" hidden="1" spans="2:5">
+    <row r="401" ht="200" spans="1:5">
+      <c r="A401" s="1">
+        <v>1</v>
+      </c>
       <c r="B401" s="1" t="s">
         <v>1309</v>
       </c>
@@ -33144,7 +33150,10 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="403" ht="23" hidden="1" spans="2:5">
+    <row r="403" ht="23" spans="1:5">
+      <c r="A403" s="1">
+        <v>1</v>
+      </c>
       <c r="B403" s="1" t="s">
         <v>1316</v>
       </c>
@@ -33158,7 +33167,10 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="404" ht="24" hidden="1" spans="2:4">
+    <row r="404" ht="24" spans="1:4">
+      <c r="A404" s="1">
+        <v>1</v>
+      </c>
       <c r="B404" s="1" t="s">
         <v>1320</v>
       </c>
@@ -33194,7 +33206,10 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="407" ht="24" hidden="1" spans="2:5">
+    <row r="407" ht="24" spans="1:5">
+      <c r="A407" s="1">
+        <v>1</v>
+      </c>
       <c r="B407" s="1" t="s">
         <v>1330</v>
       </c>
@@ -33285,7 +33300,10 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="415" ht="24" hidden="1" spans="2:5">
+    <row r="415" ht="24" spans="1:5">
+      <c r="A415" s="1">
+        <v>1</v>
+      </c>
       <c r="B415" s="1" t="s">
         <v>1355</v>
       </c>
@@ -33299,7 +33317,10 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="2:4">
+    <row r="416" spans="1:4">
+      <c r="A416" s="1">
+        <v>1</v>
+      </c>
       <c r="B416" s="1" t="s">
         <v>1359</v>
       </c>
@@ -33321,7 +33342,10 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="418" ht="40" hidden="1" spans="2:5">
+    <row r="418" ht="40" spans="1:5">
+      <c r="A418" s="1">
+        <v>1</v>
+      </c>
       <c r="B418" s="1" t="s">
         <v>1365</v>
       </c>
@@ -33335,7 +33359,10 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="419" ht="40" hidden="1" spans="2:5">
+    <row r="419" ht="40" spans="1:5">
+      <c r="A419" s="1">
+        <v>1</v>
+      </c>
       <c r="B419" s="1" t="s">
         <v>1369</v>
       </c>
@@ -33349,7 +33376,10 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="420" hidden="1" spans="2:4">
+    <row r="420" spans="1:4">
+      <c r="A420" s="1">
+        <v>1</v>
+      </c>
       <c r="B420" s="1" t="s">
         <v>1373</v>
       </c>
@@ -33426,7 +33456,10 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="427" ht="23" hidden="1" spans="2:5">
+    <row r="427" ht="23" spans="1:5">
+      <c r="A427" s="1">
+        <v>1</v>
+      </c>
       <c r="B427" s="1" t="s">
         <v>1394</v>
       </c>
@@ -33451,7 +33484,10 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="2:4">
+    <row r="429" spans="1:4">
+      <c r="A429" s="1">
+        <v>1</v>
+      </c>
       <c r="B429" s="1" t="s">
         <v>1401</v>
       </c>
@@ -33462,7 +33498,10 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="430" ht="23" hidden="1" spans="2:4">
+    <row r="430" ht="23" spans="1:4">
+      <c r="A430" s="1">
+        <v>1</v>
+      </c>
       <c r="B430" s="1" t="s">
         <v>1404</v>
       </c>
@@ -33473,7 +33512,10 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="2:4">
+    <row r="431" spans="1:4">
+      <c r="A431" s="1">
+        <v>1</v>
+      </c>
       <c r="B431" s="1" t="s">
         <v>1407</v>
       </c>
@@ -33484,7 +33526,10 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="2:4">
+    <row r="432" spans="1:4">
+      <c r="A432" s="1">
+        <v>1</v>
+      </c>
       <c r="B432" s="1" t="s">
         <v>1410</v>
       </c>
@@ -33495,7 +33540,10 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="433" ht="24" hidden="1" spans="2:4">
+    <row r="433" ht="24" spans="1:4">
+      <c r="A433" s="1">
+        <v>1</v>
+      </c>
       <c r="B433" s="1" t="s">
         <v>1413</v>
       </c>
@@ -33561,7 +33609,10 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="439" ht="40" hidden="1" spans="2:4">
+    <row r="439" ht="40" spans="1:4">
+      <c r="A439" s="1">
+        <v>1</v>
+      </c>
       <c r="B439" s="1" t="s">
         <v>1431</v>
       </c>
@@ -33572,7 +33623,10 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="440" ht="40" hidden="1" spans="2:4">
+    <row r="440" ht="40" spans="1:4">
+      <c r="A440" s="1">
+        <v>1</v>
+      </c>
       <c r="B440" s="1" t="s">
         <v>1434</v>
       </c>
@@ -33619,7 +33673,10 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="2:4">
+    <row r="444" spans="1:4">
+      <c r="A444" s="1">
+        <v>1</v>
+      </c>
       <c r="B444" s="1" t="s">
         <v>1447</v>
       </c>
@@ -33666,7 +33723,10 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="448" ht="40" hidden="1" spans="2:4">
+    <row r="448" ht="40" spans="1:4">
+      <c r="A448" s="1">
+        <v>1</v>
+      </c>
       <c r="B448" s="1" t="s">
         <v>1460</v>
       </c>
@@ -33699,7 +33759,10 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="451" ht="24" hidden="1" spans="2:4">
+    <row r="451" ht="24" spans="1:4">
+      <c r="A451" s="1">
+        <v>1</v>
+      </c>
       <c r="B451" s="1" t="s">
         <v>1469</v>
       </c>
@@ -33721,7 +33784,10 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="2:4">
+    <row r="453" spans="1:4">
+      <c r="A453" s="1">
+        <v>1</v>
+      </c>
       <c r="B453" s="1" t="s">
         <v>1475</v>
       </c>
@@ -33743,7 +33809,10 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="455" hidden="1" spans="2:4">
+    <row r="455" spans="1:4">
+      <c r="A455" s="1">
+        <v>1</v>
+      </c>
       <c r="B455" s="1" t="s">
         <v>1481</v>
       </c>
@@ -33754,7 +33823,10 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="456" ht="24" hidden="1" spans="2:4">
+    <row r="456" ht="24" spans="1:4">
+      <c r="A456" s="1">
+        <v>1</v>
+      </c>
       <c r="B456" s="1" t="s">
         <v>1484</v>
       </c>
@@ -33787,7 +33859,10 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="459" ht="40" hidden="1" spans="2:4">
+    <row r="459" ht="40" spans="1:4">
+      <c r="A459" s="1">
+        <v>1</v>
+      </c>
       <c r="B459" s="1" t="s">
         <v>1493</v>
       </c>
@@ -33820,7 +33895,10 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="2:4">
+    <row r="462" spans="1:4">
+      <c r="A462" s="1">
+        <v>1</v>
+      </c>
       <c r="B462" s="1" t="s">
         <v>1502</v>
       </c>
@@ -33842,7 +33920,10 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="464" ht="40" hidden="1" spans="2:4">
+    <row r="464" ht="40" spans="1:4">
+      <c r="A464" s="1">
+        <v>1</v>
+      </c>
       <c r="B464" s="1" t="s">
         <v>1508</v>
       </c>
@@ -33853,7 +33934,10 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="2:4">
+    <row r="465" spans="1:4">
+      <c r="A465" s="1">
+        <v>1</v>
+      </c>
       <c r="B465" s="1" t="s">
         <v>1511</v>
       </c>
@@ -33908,7 +33992,10 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="2:4">
+    <row r="470" spans="1:4">
+      <c r="A470" s="1">
+        <v>1</v>
+      </c>
       <c r="B470" s="1" t="s">
         <v>1526</v>
       </c>
@@ -33952,7 +34039,10 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="2:4">
+    <row r="474" spans="1:4">
+      <c r="A474" s="1">
+        <v>1</v>
+      </c>
       <c r="B474" s="1" t="s">
         <v>1538</v>
       </c>
@@ -34051,7 +34141,10 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="2:4">
+    <row r="483" spans="1:4">
+      <c r="A483" s="1">
+        <v>1</v>
+      </c>
       <c r="B483" s="1" t="s">
         <v>1564</v>
       </c>
@@ -34134,7 +34227,10 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="490" ht="60" hidden="1" spans="2:5">
+    <row r="490" ht="60" spans="1:5">
+      <c r="A490" s="1">
+        <v>1</v>
+      </c>
       <c r="B490" s="1" t="s">
         <v>1587</v>
       </c>
@@ -34148,7 +34244,10 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="2:4">
+    <row r="491" spans="1:4">
+      <c r="A491" s="1">
+        <v>1</v>
+      </c>
       <c r="B491" s="1" t="s">
         <v>1591</v>
       </c>
@@ -34170,7 +34269,10 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="493" ht="40" hidden="1" spans="2:4">
+    <row r="493" ht="40" spans="1:4">
+      <c r="A493" s="1">
+        <v>1</v>
+      </c>
       <c r="B493" s="1" t="s">
         <v>1597</v>
       </c>
@@ -34181,7 +34283,10 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="494" ht="40" hidden="1" spans="2:4">
+    <row r="494" ht="40" spans="1:4">
+      <c r="A494" s="1">
+        <v>1</v>
+      </c>
       <c r="B494" s="1" t="s">
         <v>1600</v>
       </c>
@@ -34192,7 +34297,10 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="495" ht="40" hidden="1" spans="2:4">
+    <row r="495" ht="40" spans="1:4">
+      <c r="A495" s="1">
+        <v>1</v>
+      </c>
       <c r="B495" s="1" t="s">
         <v>1603</v>
       </c>
@@ -34225,7 +34333,10 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="498" ht="40" hidden="1" spans="2:5">
+    <row r="498" ht="40" spans="1:5">
+      <c r="A498" s="1">
+        <v>1</v>
+      </c>
       <c r="B498" s="1" t="s">
         <v>1612</v>
       </c>
@@ -34250,7 +34361,10 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="500" ht="40" hidden="1" spans="2:5">
+    <row r="500" ht="40" spans="1:5">
+      <c r="A500" s="1">
+        <v>1</v>
+      </c>
       <c r="B500" s="1" t="s">
         <v>1619</v>
       </c>
@@ -45091,7 +45205,6 @@
         <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
-        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -27442,7 +27442,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2814320" y="6438900"/>
+          <a:off x="2814320" y="98399600"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27738,8 +27738,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A526" workbookViewId="0">
-      <selection activeCell="A502" sqref="A502"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A314" workbookViewId="0">
+      <selection activeCell="A349" sqref="A349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" outlineLevelCol="5"/>
@@ -27769,7 +27769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="40" hidden="1" spans="1:5">
+    <row r="2" ht="40" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -27786,7 +27786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="24" hidden="1" spans="1:5">
+    <row r="3" ht="24" spans="1:5">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -27930,7 +27930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" ht="40" hidden="1" spans="1:4">
+    <row r="15" ht="40" spans="1:4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -27944,7 +27944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="40" hidden="1" spans="1:5">
+    <row r="16" ht="40" spans="1:5">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -27997,7 +27997,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" ht="100" hidden="1" spans="1:5">
+    <row r="20" ht="100" spans="1:5">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -28028,7 +28028,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" ht="40" hidden="1" spans="1:4">
+    <row r="22" ht="40" spans="1:4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -28042,7 +28042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" ht="120" hidden="1" spans="1:5">
+    <row r="23" ht="120" spans="1:5">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -28084,7 +28084,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:4">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -28131,7 +28131,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" ht="40" hidden="1" spans="1:4">
+    <row r="30" ht="40" spans="1:4">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -28159,7 +28159,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" ht="60" hidden="1" spans="1:5">
+    <row r="32" ht="60" spans="1:5">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -28176,7 +28176,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" ht="40" hidden="1" spans="1:5">
+    <row r="33" ht="40" spans="1:5">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -28207,7 +28207,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" ht="40" hidden="1" spans="1:4">
+    <row r="35" ht="40" spans="1:4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -28221,7 +28221,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" ht="120" hidden="1" spans="1:5">
+    <row r="36" ht="120" spans="1:5">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -28238,7 +28238,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" ht="60" hidden="1" spans="1:4">
+    <row r="37" ht="60" spans="1:4">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -28266,7 +28266,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:4">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -28280,7 +28280,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" ht="40" hidden="1" spans="1:5">
+    <row r="40" ht="40" spans="1:5">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -28297,7 +28297,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" ht="24" hidden="1" spans="1:4">
+    <row r="41" ht="24" spans="1:4">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -28311,7 +28311,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" ht="40" hidden="1" spans="1:5">
+    <row r="42" ht="40" spans="1:5">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -28328,7 +28328,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:4">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -28353,7 +28353,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:5">
+    <row r="45" spans="1:5">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -28370,7 +28370,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" ht="24" hidden="1" spans="1:4">
+    <row r="46" ht="24" spans="1:4">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -28395,7 +28395,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" ht="40" hidden="1" spans="1:4">
+    <row r="48" ht="40" spans="1:4">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -28420,7 +28420,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" ht="40" hidden="1" spans="1:5">
+    <row r="50" ht="40" spans="1:5">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -28459,7 +28459,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:4">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -28512,7 +28512,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:5">
+    <row r="57" spans="1:5">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -28540,7 +28540,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" ht="40" hidden="1" spans="1:5">
+    <row r="59" ht="40" spans="1:5">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -28607,7 +28607,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" ht="40" hidden="1" spans="1:5">
+    <row r="64" ht="40" spans="1:5">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -28635,7 +28635,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:5">
+    <row r="66" spans="1:5">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -28666,7 +28666,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:5">
+    <row r="68" spans="1:5">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -28697,7 +28697,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:4">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -28711,7 +28711,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:5">
+    <row r="71" spans="1:5">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -28767,7 +28767,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:4">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -28806,7 +28806,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:5">
+    <row r="78" spans="1:5">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -28851,7 +28851,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:4">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -28865,7 +28865,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:4">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -28890,7 +28890,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:4">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -28904,7 +28904,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" ht="40" hidden="1" spans="1:5">
+    <row r="85" ht="40" spans="1:5">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -28921,7 +28921,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:4">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -28935,7 +28935,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:4">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -28949,7 +28949,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" ht="60" hidden="1" spans="1:5">
+    <row r="88" ht="60" spans="1:5">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -28966,7 +28966,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:4">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -28980,7 +28980,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:4">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -28994,7 +28994,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:4">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -29030,7 +29030,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:4">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -29055,7 +29055,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="96" ht="24" hidden="1" spans="1:4">
+    <row r="96" ht="24" spans="1:4">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -29069,7 +29069,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="97" ht="23" hidden="1" spans="1:4">
+    <row r="97" ht="23" spans="1:4">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -29083,7 +29083,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" ht="40" hidden="1" spans="1:5">
+    <row r="98" ht="40" spans="1:5">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -29100,7 +29100,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:4">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>0</v>
       </c>
@@ -29114,7 +29114,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" ht="24" hidden="1" spans="1:4">
+    <row r="100" ht="24" spans="1:4">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -29172,7 +29172,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:5">
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -29211,7 +29211,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="108" ht="24" hidden="1" spans="1:4">
+    <row r="108" ht="24" spans="1:4">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -29225,7 +29225,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" ht="40" hidden="1" spans="1:5">
+    <row r="109" ht="40" spans="1:5">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -29242,7 +29242,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:4">
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -29256,7 +29256,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="111" ht="40" hidden="1" spans="1:5">
+    <row r="111" ht="40" spans="1:5">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -29295,7 +29295,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="114" ht="40" hidden="1" spans="1:5">
+    <row r="114" ht="40" spans="1:5">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -29323,7 +29323,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" ht="40" hidden="1" spans="1:5">
+    <row r="116" ht="40" spans="1:5">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -29393,7 +29393,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="121" ht="40" hidden="1" spans="1:4">
+    <row r="121" ht="40" spans="1:4">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -29418,7 +29418,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="123" ht="24" hidden="1" spans="1:4">
+    <row r="123" ht="24" spans="1:4">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -29432,7 +29432,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" ht="40" hidden="1" spans="1:4">
+    <row r="124" ht="40" spans="1:4">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -29457,7 +29457,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:4">
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>0</v>
       </c>
@@ -29482,7 +29482,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:4">
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>0</v>
       </c>
@@ -29496,7 +29496,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:4">
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -29510,7 +29510,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:5">
+    <row r="130" spans="1:5">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -29527,7 +29527,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:4">
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>0</v>
       </c>
@@ -29541,7 +29541,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="132" ht="40" hidden="1" spans="1:4">
+    <row r="132" ht="40" spans="1:4">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -29566,7 +29566,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:4">
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -29580,7 +29580,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="135" ht="100" hidden="1" spans="1:5">
+    <row r="135" ht="100" spans="1:5">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -29619,7 +29619,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" ht="23" hidden="1" spans="1:4">
+    <row r="138" ht="23" spans="1:4">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -29633,7 +29633,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="139" ht="24" hidden="1" spans="1:4">
+    <row r="139" ht="24" spans="1:4">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -29647,7 +29647,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="140" ht="24" hidden="1" spans="1:4">
+    <row r="140" ht="24" spans="1:4">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -29675,7 +29675,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="142" ht="40" hidden="1" spans="1:4">
+    <row r="142" ht="40" spans="1:4">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -29689,7 +29689,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:4">
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>0</v>
       </c>
@@ -29703,7 +29703,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:4">
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -29717,7 +29717,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:5">
+    <row r="145" spans="1:5">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -29756,7 +29756,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:5">
+    <row r="148" spans="1:5">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -29795,7 +29795,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="151" ht="24" hidden="1" spans="1:4">
+    <row r="151" ht="24" spans="1:4">
       <c r="A151" s="1">
         <v>0</v>
       </c>
@@ -29809,7 +29809,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="152" ht="40" hidden="1" spans="1:5">
+    <row r="152" ht="40" spans="1:5">
       <c r="A152" s="1">
         <v>0</v>
       </c>
@@ -29851,7 +29851,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="155" ht="23" hidden="1" spans="1:4">
+    <row r="155" ht="23" spans="1:4">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -29865,7 +29865,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:5">
+    <row r="156" spans="1:5">
       <c r="A156" s="1">
         <v>0</v>
       </c>
@@ -29882,7 +29882,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:5">
+    <row r="157" spans="1:5">
       <c r="A157" s="1">
         <v>0</v>
       </c>
@@ -29899,7 +29899,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:4">
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>0</v>
       </c>
@@ -29913,7 +29913,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:5">
+    <row r="159" spans="1:5">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -29952,7 +29952,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:4">
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -29988,7 +29988,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:4">
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>0</v>
       </c>
@@ -30013,7 +30013,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="167" ht="40" hidden="1" spans="1:4">
+    <row r="167" ht="40" spans="1:4">
       <c r="A167" s="1">
         <v>0</v>
       </c>
@@ -30027,7 +30027,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:4">
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>0</v>
       </c>
@@ -30055,7 +30055,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="170" ht="40" hidden="1" spans="1:4">
+    <row r="170" ht="40" spans="1:4">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -30069,7 +30069,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="171" ht="40" hidden="1" spans="1:4">
+    <row r="171" ht="40" spans="1:4">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -30083,7 +30083,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="172" hidden="1" spans="1:4">
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>0</v>
       </c>
@@ -30097,7 +30097,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="173" ht="100" hidden="1" spans="1:5">
+    <row r="173" ht="100" spans="1:5">
       <c r="A173" s="1">
         <v>0</v>
       </c>
@@ -30136,7 +30136,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="176" ht="23" hidden="1" spans="1:5">
+    <row r="176" ht="23" spans="1:5">
       <c r="A176" s="1">
         <v>0</v>
       </c>
@@ -30175,7 +30175,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:4">
+    <row r="179" spans="1:4">
       <c r="A179" s="1">
         <v>0</v>
       </c>
@@ -30255,7 +30255,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:5">
+    <row r="186" spans="1:5">
       <c r="A186" s="1">
         <v>0</v>
       </c>
@@ -30272,7 +30272,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:4">
+    <row r="187" spans="1:4">
       <c r="A187" s="1">
         <v>0</v>
       </c>
@@ -30308,7 +30308,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:4">
+    <row r="190" spans="1:4">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -30358,7 +30358,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:4">
+    <row r="194" spans="1:4">
       <c r="A194" s="1">
         <v>0</v>
       </c>
@@ -30427,7 +30427,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:4">
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>0</v>
       </c>
@@ -30441,7 +30441,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="201" ht="40" hidden="1" spans="1:4">
+    <row r="201" ht="40" spans="1:4">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -30499,7 +30499,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:4">
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>0</v>
       </c>
@@ -30513,7 +30513,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="207" ht="40" hidden="1" spans="1:4">
+    <row r="207" ht="40" spans="1:4">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -30538,7 +30538,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:5">
+    <row r="209" spans="1:5">
       <c r="A209" s="1">
         <v>0</v>
       </c>
@@ -30566,7 +30566,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="211" ht="40" hidden="1" spans="1:4">
+    <row r="211" ht="40" spans="1:4">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -30591,7 +30591,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="213" ht="40" hidden="1" spans="1:4">
+    <row r="213" ht="40" spans="1:4">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -30633,7 +30633,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:5">
+    <row r="216" spans="1:5">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -30650,7 +30650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" ht="24" hidden="1" spans="1:4">
+    <row r="217" ht="24" spans="1:4">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -30675,7 +30675,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:5">
+    <row r="219" spans="1:5">
       <c r="A219" s="1">
         <v>0</v>
       </c>
@@ -30703,7 +30703,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:4">
+    <row r="221" spans="1:4">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -30717,7 +30717,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:4">
+    <row r="222" spans="1:4">
       <c r="A222" s="1">
         <v>0</v>
       </c>
@@ -30731,7 +30731,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:5">
+    <row r="223" spans="1:5">
       <c r="A223" s="1">
         <v>0</v>
       </c>
@@ -30795,7 +30795,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:4">
+    <row r="228" spans="1:4">
       <c r="A228" s="1">
         <v>0</v>
       </c>
@@ -30823,7 +30823,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:4">
+    <row r="230" spans="1:4">
       <c r="A230" s="1">
         <v>0</v>
       </c>
@@ -30851,7 +30851,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:4">
+    <row r="232" spans="1:4">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -30865,7 +30865,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:5">
+    <row r="233" spans="1:5">
       <c r="A233" s="1">
         <v>0</v>
       </c>
@@ -30882,7 +30882,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:4">
+    <row r="234" spans="1:4">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -30896,7 +30896,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:5">
+    <row r="235" spans="1:5">
       <c r="A235" s="1">
         <v>0</v>
       </c>
@@ -30927,7 +30927,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:5">
+    <row r="237" spans="1:5">
       <c r="A237" s="1">
         <v>0</v>
       </c>
@@ -30944,7 +30944,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="238" ht="24" hidden="1" spans="1:5">
+    <row r="238" ht="24" spans="1:5">
       <c r="A238" s="1">
         <v>0</v>
       </c>
@@ -30961,7 +30961,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="239" ht="40" hidden="1" spans="1:5">
+    <row r="239" ht="40" spans="1:5">
       <c r="A239" s="1">
         <v>0</v>
       </c>
@@ -30978,7 +30978,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:5">
+    <row r="240" spans="1:5">
       <c r="A240" s="1">
         <v>0</v>
       </c>
@@ -30995,7 +30995,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:5">
+    <row r="241" spans="1:5">
       <c r="A241" s="1">
         <v>0</v>
       </c>
@@ -31012,7 +31012,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:4">
+    <row r="242" spans="1:4">
       <c r="A242" s="1">
         <v>0</v>
       </c>
@@ -31026,7 +31026,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="243" ht="40" hidden="1" spans="1:5">
+    <row r="243" ht="40" spans="1:5">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -31054,7 +31054,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="245" ht="40" hidden="1" spans="1:4">
+    <row r="245" ht="40" spans="1:4">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -31068,7 +31068,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="246" ht="40" hidden="1" spans="1:5">
+    <row r="246" ht="40" spans="1:5">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -31085,7 +31085,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:4">
+    <row r="247" spans="1:4">
       <c r="A247" s="1">
         <v>0</v>
       </c>
@@ -31110,7 +31110,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="249" ht="40" hidden="1" spans="1:4">
+    <row r="249" ht="40" spans="1:4">
       <c r="A249" s="1">
         <v>0</v>
       </c>
@@ -31135,7 +31135,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:4">
+    <row r="251" spans="1:4">
       <c r="A251" s="1">
         <v>0</v>
       </c>
@@ -31163,7 +31163,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:4">
+    <row r="253" spans="1:4">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -31177,7 +31177,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="254" ht="24" hidden="1" spans="1:4">
+    <row r="254" ht="24" spans="1:4">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -31191,7 +31191,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="255" ht="24" hidden="1" spans="1:4">
+    <row r="255" ht="24" spans="1:4">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -31227,7 +31227,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="258" ht="40" hidden="1" spans="1:4">
+    <row r="258" ht="40" spans="1:4">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -31241,7 +31241,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="259" ht="40" hidden="1" spans="1:4">
+    <row r="259" ht="40" spans="1:4">
       <c r="A259" s="1">
         <v>0</v>
       </c>
@@ -31277,7 +31277,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="262" ht="24" hidden="1" spans="1:4">
+    <row r="262" ht="24" spans="1:4">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -31291,7 +31291,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:4">
+    <row r="263" spans="1:4">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -31305,7 +31305,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="264" ht="40" hidden="1" spans="1:4">
+    <row r="264" ht="40" spans="1:4">
       <c r="A264" s="1">
         <v>0</v>
       </c>
@@ -31330,7 +31330,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="266" hidden="1" spans="1:5">
+    <row r="266" spans="1:5">
       <c r="A266" s="1">
         <v>0</v>
       </c>
@@ -31347,7 +31347,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="267" ht="40" hidden="1" spans="1:5">
+    <row r="267" ht="40" spans="1:5">
       <c r="A267" s="1">
         <v>0</v>
       </c>
@@ -31364,7 +31364,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="268" ht="80" hidden="1" spans="1:5">
+    <row r="268" ht="80" spans="1:5">
       <c r="A268" s="1">
         <v>0</v>
       </c>
@@ -31409,7 +31409,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="271" ht="24" hidden="1" spans="1:4">
+    <row r="271" ht="24" spans="1:4">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -31456,7 +31456,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="275" ht="40" hidden="1" spans="1:4">
+    <row r="275" ht="40" spans="1:4">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -31503,7 +31503,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="279" ht="24" hidden="1" spans="1:4">
+    <row r="279" ht="24" spans="1:4">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -31517,7 +31517,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="280" ht="24" hidden="1" spans="1:4">
+    <row r="280" ht="24" spans="1:4">
       <c r="A280" s="1">
         <v>0</v>
       </c>
@@ -31553,7 +31553,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="283" ht="40" hidden="1" spans="1:5">
+    <row r="283" ht="40" spans="1:5">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -31570,7 +31570,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="284" ht="24" hidden="1" spans="1:4">
+    <row r="284" ht="24" spans="1:4">
       <c r="A284" s="1">
         <v>0</v>
       </c>
@@ -31601,7 +31601,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="286" ht="80" hidden="1" spans="1:6">
+    <row r="286" ht="80" spans="1:6">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -31619,7 +31619,7 @@
       </c>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" hidden="1" spans="1:4">
+    <row r="287" spans="1:4">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -31633,7 +31633,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:4">
+    <row r="288" spans="1:4">
       <c r="A288" s="1">
         <v>0</v>
       </c>
@@ -31647,7 +31647,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="289" ht="100" hidden="1" spans="1:5">
+    <row r="289" ht="100" spans="1:5">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -31689,7 +31689,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:4">
+    <row r="292" spans="1:4">
       <c r="A292" s="1">
         <v>0</v>
       </c>
@@ -31725,7 +31725,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="295" ht="24" hidden="1" spans="1:4">
+    <row r="295" ht="24" spans="1:4">
       <c r="A295" s="1">
         <v>0</v>
       </c>
@@ -31739,7 +31739,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="296" ht="40" hidden="1" spans="1:4">
+    <row r="296" ht="40" spans="1:4">
       <c r="A296" s="1">
         <v>0</v>
       </c>
@@ -31753,7 +31753,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:4">
+    <row r="297" spans="1:4">
       <c r="A297" s="1">
         <v>0</v>
       </c>
@@ -31778,7 +31778,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:4">
+    <row r="299" spans="1:4">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -31792,7 +31792,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="300" ht="24" hidden="1" spans="1:4">
+    <row r="300" ht="24" spans="1:4">
       <c r="A300" s="1">
         <v>0</v>
       </c>
@@ -31806,7 +31806,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="301" ht="40" hidden="1" spans="1:5">
+    <row r="301" ht="40" spans="1:5">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -31823,7 +31823,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:5">
+    <row r="302" spans="1:5">
       <c r="A302" s="1">
         <v>0</v>
       </c>
@@ -31840,7 +31840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="40" hidden="1" spans="1:4">
+    <row r="303" ht="40" spans="1:4">
       <c r="A303" s="1">
         <v>0</v>
       </c>
@@ -31854,7 +31854,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="304" ht="23" hidden="1" spans="1:4">
+    <row r="304" ht="23" spans="1:4">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -31868,7 +31868,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="305" ht="40" hidden="1" spans="1:4">
+    <row r="305" ht="40" spans="1:4">
       <c r="A305" s="1">
         <v>0</v>
       </c>
@@ -31904,7 +31904,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="308" ht="24" hidden="1" spans="1:4">
+    <row r="308" ht="24" spans="1:4">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -31951,7 +31951,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="312" hidden="1" spans="1:4">
+    <row r="312" spans="1:4">
       <c r="A312" s="1">
         <v>0</v>
       </c>
@@ -31979,7 +31979,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="314" ht="100" hidden="1" spans="1:5">
+    <row r="314" ht="100" spans="1:5">
       <c r="A314" s="1">
         <v>0</v>
       </c>
@@ -32007,7 +32007,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="316" ht="40" hidden="1" spans="1:4">
+    <row r="316" ht="40" spans="1:4">
       <c r="A316" s="1">
         <v>0</v>
       </c>
@@ -32032,7 +32032,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="318" ht="40" hidden="1" spans="1:5">
+    <row r="318" ht="40" spans="1:5">
       <c r="A318" s="1">
         <v>0</v>
       </c>
@@ -32049,7 +32049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="1:5">
+    <row r="319" spans="1:5">
       <c r="A319" s="1">
         <v>0</v>
       </c>
@@ -32127,7 +32127,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="1:4">
+    <row r="325" spans="1:4">
       <c r="A325" s="1">
         <v>0</v>
       </c>
@@ -32141,7 +32141,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:4">
+    <row r="326" spans="1:4">
       <c r="A326" s="1">
         <v>0</v>
       </c>
@@ -32155,7 +32155,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:5">
+    <row r="327" spans="1:5">
       <c r="A327" s="1">
         <v>0</v>
       </c>
@@ -32183,7 +32183,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:5">
+    <row r="329" spans="1:5">
       <c r="A329" s="1">
         <v>0</v>
       </c>
@@ -32200,7 +32200,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="330" ht="40" hidden="1" spans="1:4">
+    <row r="330" ht="40" spans="1:4">
       <c r="A330" s="1">
         <v>0</v>
       </c>
@@ -32214,7 +32214,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:4">
+    <row r="331" spans="1:4">
       <c r="A331" s="1">
         <v>0</v>
       </c>
@@ -32261,7 +32261,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="335" ht="40" hidden="1" spans="1:5">
+    <row r="335" ht="40" spans="1:5">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -32300,7 +32300,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:4">
+    <row r="338" spans="1:4">
       <c r="A338" s="1">
         <v>0</v>
       </c>
@@ -32325,7 +32325,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:5">
+    <row r="340" spans="1:5">
       <c r="A340" s="1">
         <v>0</v>
       </c>
@@ -32342,7 +32342,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="341" ht="140" hidden="1" spans="1:5">
+    <row r="341" ht="140" spans="1:5">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -32392,7 +32392,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="345" ht="40" hidden="1" spans="1:4">
+    <row r="345" ht="40" spans="1:4">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -32406,7 +32406,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:4">
+    <row r="346" spans="1:4">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -32431,7 +32431,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:5">
+    <row r="348" spans="1:5">
       <c r="A348" s="1">
         <v>0</v>
       </c>
@@ -32448,9 +32448,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" hidden="1" spans="1:5">
+    <row r="349" spans="1:5">
       <c r="A349" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>1143</v>
@@ -32465,7 +32465,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="350" ht="24" hidden="1" spans="1:4">
+    <row r="350" ht="24" spans="1:4">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -32501,7 +32501,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:4">
+    <row r="353" spans="1:4">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -32515,7 +32515,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="354" hidden="1" spans="1:4">
+    <row r="354" spans="1:4">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -32557,7 +32557,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="1:4">
+    <row r="357" spans="1:4">
       <c r="A357" s="1">
         <v>0</v>
       </c>
@@ -32582,7 +32582,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="359" ht="40" hidden="1" spans="1:4">
+    <row r="359" ht="40" spans="1:4">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -32607,7 +32607,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="361" ht="24" hidden="1" spans="1:4">
+    <row r="361" ht="24" spans="1:4">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -32649,7 +32649,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="364" hidden="1" spans="1:4">
+    <row r="364" spans="1:4">
       <c r="A364" s="1">
         <v>0</v>
       </c>
@@ -32688,7 +32688,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="367" ht="40" hidden="1" spans="1:5">
+    <row r="367" ht="40" spans="1:5">
       <c r="A367" s="1">
         <v>0</v>
       </c>
@@ -32716,7 +32716,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="369" ht="40" hidden="1" spans="1:4">
+    <row r="369" ht="40" spans="1:4">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -32816,7 +32816,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="1:4">
+    <row r="377" spans="1:4">
       <c r="A377" s="1">
         <v>0</v>
       </c>
@@ -32863,7 +32863,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="381" ht="40" hidden="1" spans="1:4">
+    <row r="381" ht="40" spans="1:4">
       <c r="A381" s="1">
         <v>0</v>
       </c>
@@ -32902,7 +32902,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:4">
+    <row r="384" spans="1:4">
       <c r="A384" s="1">
         <v>0</v>
       </c>
@@ -32960,7 +32960,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:5">
+    <row r="389" spans="1:5">
       <c r="A389" s="1">
         <v>0</v>
       </c>
@@ -33002,7 +33002,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:4">
+    <row r="392" spans="1:4">
       <c r="A392" s="1">
         <v>0</v>
       </c>
@@ -33030,7 +33030,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="394" ht="24" hidden="1" spans="1:4">
+    <row r="394" ht="24" spans="1:4">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -33044,7 +33044,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:4">
+    <row r="395" spans="1:4">
       <c r="A395" s="1">
         <v>0</v>
       </c>
@@ -33069,7 +33069,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:4">
+    <row r="397" spans="1:4">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -33094,7 +33094,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="399" ht="40" hidden="1" spans="1:5">
+    <row r="399" ht="40" spans="1:5">
       <c r="A399" s="1">
         <v>0</v>
       </c>
@@ -33111,7 +33111,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:4">
+    <row r="400" spans="1:4">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -33125,7 +33125,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="401" ht="200" hidden="1" spans="1:5">
+    <row r="401" ht="200" spans="1:5">
       <c r="A401" s="1">
         <v>0</v>
       </c>
@@ -33153,7 +33153,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="403" ht="23" hidden="1" spans="1:5">
+    <row r="403" ht="23" spans="1:5">
       <c r="A403" s="1">
         <v>0</v>
       </c>
@@ -33209,7 +33209,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="407" ht="24" hidden="1" spans="1:5">
+    <row r="407" ht="24" spans="1:5">
       <c r="A407" s="1">
         <v>0</v>
       </c>
@@ -33303,7 +33303,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="415" ht="24" hidden="1" spans="1:5">
+    <row r="415" ht="24" spans="1:5">
       <c r="A415" s="1">
         <v>0</v>
       </c>
@@ -33320,7 +33320,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="1:4">
+    <row r="416" spans="1:4">
       <c r="A416" s="1">
         <v>0</v>
       </c>
@@ -33345,7 +33345,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="418" ht="40" hidden="1" spans="1:5">
+    <row r="418" ht="40" spans="1:5">
       <c r="A418" s="1">
         <v>0</v>
       </c>
@@ -33362,7 +33362,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="419" ht="40" hidden="1" spans="1:5">
+    <row r="419" ht="40" spans="1:5">
       <c r="A419" s="1">
         <v>0</v>
       </c>
@@ -33379,7 +33379,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="420" hidden="1" spans="1:4">
+    <row r="420" spans="1:4">
       <c r="A420" s="1">
         <v>0</v>
       </c>
@@ -33487,7 +33487,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="1:4">
+    <row r="429" spans="1:4">
       <c r="A429" s="1">
         <v>0</v>
       </c>
@@ -33501,7 +33501,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="430" ht="23" hidden="1" spans="1:4">
+    <row r="430" ht="23" spans="1:4">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -33515,7 +33515,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="1:4">
+    <row r="431" spans="1:4">
       <c r="A431" s="1">
         <v>0</v>
       </c>
@@ -33529,7 +33529,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="1:4">
+    <row r="432" spans="1:4">
       <c r="A432" s="1">
         <v>0</v>
       </c>
@@ -33543,7 +33543,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="433" ht="24" hidden="1" spans="1:4">
+    <row r="433" ht="24" spans="1:4">
       <c r="A433" s="1">
         <v>0</v>
       </c>
@@ -33612,7 +33612,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="439" ht="40" hidden="1" spans="1:4">
+    <row r="439" ht="40" spans="1:4">
       <c r="A439" s="1">
         <v>0</v>
       </c>
@@ -33626,7 +33626,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="440" ht="40" hidden="1" spans="1:4">
+    <row r="440" ht="40" spans="1:4">
       <c r="A440" s="1">
         <v>0</v>
       </c>
@@ -33676,7 +33676,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:4">
+    <row r="444" spans="1:4">
       <c r="A444" s="1">
         <v>0</v>
       </c>
@@ -33726,7 +33726,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="448" ht="40" hidden="1" spans="1:4">
+    <row r="448" ht="40" spans="1:4">
       <c r="A448" s="1">
         <v>0</v>
       </c>
@@ -33762,7 +33762,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="451" ht="24" hidden="1" spans="1:4">
+    <row r="451" ht="24" spans="1:4">
       <c r="A451" s="1">
         <v>0</v>
       </c>
@@ -33787,7 +33787,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:4">
+    <row r="453" spans="1:4">
       <c r="A453" s="1">
         <v>0</v>
       </c>
@@ -33826,7 +33826,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="456" ht="24" hidden="1" spans="1:4">
+    <row r="456" ht="24" spans="1:4">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -33862,7 +33862,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="459" ht="40" hidden="1" spans="1:4">
+    <row r="459" ht="40" spans="1:4">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -33898,7 +33898,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:4">
+    <row r="462" spans="1:4">
       <c r="A462" s="1">
         <v>0</v>
       </c>
@@ -33937,7 +33937,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="465" hidden="1" spans="1:4">
+    <row r="465" spans="1:4">
       <c r="A465" s="1">
         <v>0</v>
       </c>
@@ -33995,7 +33995,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:4">
+    <row r="470" spans="1:4">
       <c r="A470" s="1">
         <v>0</v>
       </c>
@@ -34042,7 +34042,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="1:4">
+    <row r="474" spans="1:4">
       <c r="A474" s="1">
         <v>0</v>
       </c>
@@ -34144,7 +34144,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:4">
+    <row r="483" spans="1:4">
       <c r="A483" s="1">
         <v>0</v>
       </c>
@@ -34230,7 +34230,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="490" ht="60" hidden="1" spans="1:5">
+    <row r="490" ht="60" spans="1:5">
       <c r="A490" s="1">
         <v>0</v>
       </c>
@@ -34247,7 +34247,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="1:4">
+    <row r="491" spans="1:4">
       <c r="A491" s="1">
         <v>0</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="493" ht="40" hidden="1" spans="1:4">
+    <row r="493" ht="40" spans="1:4">
       <c r="A493" s="1">
         <v>0</v>
       </c>
@@ -34286,7 +34286,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="494" ht="40" hidden="1" spans="1:4">
+    <row r="494" ht="40" spans="1:4">
       <c r="A494" s="1">
         <v>0</v>
       </c>
@@ -34300,7 +34300,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="495" ht="40" hidden="1" spans="1:4">
+    <row r="495" ht="40" spans="1:4">
       <c r="A495" s="1">
         <v>0</v>
       </c>
@@ -34336,7 +34336,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="498" ht="40" hidden="1" spans="1:5">
+    <row r="498" ht="40" spans="1:5">
       <c r="A498" s="1">
         <v>0</v>
       </c>
@@ -45357,10 +45357,11 @@
   </sheetData>
   <autoFilter ref="A1:A1431">
     <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-        <customFilter operator="equal" val="2"/>
-      </customFilters>
+      <filters>
+        <filter val="0"/>
+        <filter val="1"/>
+        <filter val="2"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <sortState ref="A154:E163">

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15100" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -6624,6 +6624,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
       <t>inter</t>
     </r>
     <r>
@@ -26628,9 +26634,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -26663,7 +26669,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26677,43 +26705,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -26722,8 +26713,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26738,8 +26730,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26753,34 +26776,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26791,9 +26791,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26902,19 +26908,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26926,19 +26932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26950,31 +26950,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26992,43 +27004,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27046,37 +27064,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27124,6 +27130,47 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -27134,21 +27181,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27167,174 +27199,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -27402,11 +27408,6 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -27442,7 +27443,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2814320" y="98399600"/>
+          <a:off x="2713990" y="3810000"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27483,7 +27484,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -27730,6 +27731,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -27738,17 +27740,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="A349" sqref="A349"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D404" sqref="D404"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.8285714285714" style="1"/>
-    <col min="2" max="2" width="20.8285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.8285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5071428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8296296296296" style="1"/>
+    <col min="2" max="2" width="20.8296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3259259259259" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5037037037037" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27769,7 +27771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="40" spans="1:5">
+    <row r="2" ht="37.5" hidden="1" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -27786,7 +27788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="24" spans="1:5">
+    <row r="3" hidden="1" spans="1:5">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -27828,7 +27830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="40" hidden="1" spans="2:4">
+    <row r="6" ht="37.5" hidden="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -27839,7 +27841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="80" hidden="1" spans="2:4">
+    <row r="7" ht="75" hidden="1" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -27850,7 +27852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="40" hidden="1" spans="2:4">
+    <row r="8" ht="37.5" hidden="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -27861,7 +27863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="40" hidden="1" spans="2:4">
+    <row r="9" ht="37.5" hidden="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -27872,7 +27874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="60" hidden="1" spans="2:5">
+    <row r="10" ht="56.25" hidden="1" spans="2:5">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -27886,7 +27888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="40" hidden="1" spans="2:4">
+    <row r="11" ht="37.5" hidden="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
@@ -27897,7 +27899,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" ht="40" hidden="1" spans="2:4">
+    <row r="12" ht="37.5" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -27908,7 +27910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="40" hidden="1" spans="2:4">
+    <row r="13" ht="37.5" hidden="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -27919,7 +27921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="40" hidden="1" spans="2:4">
+    <row r="14" ht="37.5" hidden="1" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
@@ -27930,7 +27932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" ht="40" spans="1:4">
+    <row r="15" ht="37.5" hidden="1" spans="1:4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -27944,7 +27946,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="40" spans="1:5">
+    <row r="16" ht="37.5" hidden="1" spans="1:5">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -27961,7 +27963,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" ht="40" hidden="1" spans="2:4">
+    <row r="17" ht="37.5" hidden="1" spans="2:4">
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
@@ -27972,7 +27974,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" ht="24" hidden="1" spans="2:4">
+    <row r="18" hidden="1" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -27983,7 +27985,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" ht="40" hidden="1" spans="2:5">
+    <row r="19" ht="37.5" hidden="1" spans="2:5">
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
@@ -27997,7 +27999,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" ht="100" spans="1:5">
+    <row r="20" ht="75" hidden="1" spans="1:5">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -28028,7 +28030,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" ht="40" spans="1:4">
+    <row r="22" ht="37.5" hidden="1" spans="1:4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -28042,7 +28044,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" ht="120" spans="1:5">
+    <row r="23" ht="93.75" hidden="1" spans="1:5">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -28059,7 +28061,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" ht="24" hidden="1" spans="2:4">
+    <row r="24" hidden="1" spans="2:4">
       <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
@@ -28070,7 +28072,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" ht="40" hidden="1" spans="2:5">
+    <row r="25" ht="37.5" hidden="1" spans="2:5">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
@@ -28084,7 +28086,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" hidden="1" spans="1:4">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -28120,7 +28122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" ht="40" hidden="1" spans="2:4">
+    <row r="29" ht="37.5" hidden="1" spans="2:4">
       <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
@@ -28131,7 +28133,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" ht="40" spans="1:4">
+    <row r="30" ht="37.5" hidden="1" spans="1:4">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -28145,7 +28147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" ht="40" hidden="1" spans="2:5">
+    <row r="31" ht="37.5" hidden="1" spans="2:5">
       <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
@@ -28159,7 +28161,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" ht="60" spans="1:5">
+    <row r="32" ht="37.5" hidden="1" spans="1:5">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -28176,7 +28178,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" ht="40" spans="1:5">
+    <row r="33" ht="37.5" hidden="1" spans="1:5">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -28193,7 +28195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="180" hidden="1" spans="2:5">
+    <row r="34" ht="150" hidden="1" spans="2:5">
       <c r="B34" s="1" t="s">
         <v>113</v>
       </c>
@@ -28207,7 +28209,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" ht="40" spans="1:4">
+    <row r="35" ht="37.5" hidden="1" spans="1:4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -28221,7 +28223,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" ht="120" spans="1:5">
+    <row r="36" ht="93.75" hidden="1" spans="1:5">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -28238,7 +28240,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" ht="60" spans="1:4">
+    <row r="37" ht="56.25" hidden="1" spans="1:4">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -28252,7 +28254,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" ht="40" hidden="1" spans="2:5">
+    <row r="38" ht="37.5" hidden="1" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>127</v>
       </c>
@@ -28266,7 +28268,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" hidden="1" spans="1:4">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -28280,7 +28282,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" ht="40" spans="1:5">
+    <row r="40" ht="37.5" hidden="1" spans="1:5">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -28297,7 +28299,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" ht="24" spans="1:4">
+    <row r="41" hidden="1" spans="1:4">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -28311,7 +28313,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" ht="40" spans="1:5">
+    <row r="42" ht="37.5" hidden="1" spans="1:5">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -28328,7 +28330,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" hidden="1" spans="1:4">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -28353,7 +28355,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" hidden="1" spans="1:5">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -28370,7 +28372,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" ht="24" spans="1:4">
+    <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -28395,7 +28397,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" ht="40" spans="1:4">
+    <row r="48" ht="37.5" hidden="1" spans="1:4">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -28420,7 +28422,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" ht="40" spans="1:5">
+    <row r="50" ht="37.5" hidden="1" spans="1:5">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -28437,7 +28439,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" ht="40" hidden="1" spans="2:4">
+    <row r="51" ht="37.5" hidden="1" spans="2:4">
       <c r="B51" s="1" t="s">
         <v>171</v>
       </c>
@@ -28448,7 +28450,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" ht="23" hidden="1" spans="2:4">
+    <row r="52" hidden="1" spans="2:4">
       <c r="B52" s="1" t="s">
         <v>174</v>
       </c>
@@ -28459,7 +28461,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" hidden="1" spans="1:4">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -28484,7 +28486,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" ht="40" hidden="1" spans="2:5">
+    <row r="55" ht="37.5" hidden="1" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>183</v>
       </c>
@@ -28498,7 +28500,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" ht="40" hidden="1" spans="2:5">
+    <row r="56" ht="37.5" hidden="1" spans="2:5">
       <c r="B56" s="1" t="s">
         <v>187</v>
       </c>
@@ -28512,7 +28514,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" hidden="1" spans="1:5">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -28529,7 +28531,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" ht="40" hidden="1" spans="2:4">
+    <row r="58" ht="37.5" hidden="1" spans="2:4">
       <c r="B58" s="1" t="s">
         <v>195</v>
       </c>
@@ -28540,7 +28542,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" ht="40" spans="1:5">
+    <row r="59" ht="37.5" hidden="1" spans="1:5">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -28557,7 +28559,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" ht="40" hidden="1" spans="2:5">
+    <row r="60" ht="37.5" hidden="1" spans="2:5">
       <c r="B60" s="1" t="s">
         <v>202</v>
       </c>
@@ -28582,7 +28584,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" ht="40" hidden="1" spans="2:5">
+    <row r="62" ht="37.5" hidden="1" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>209</v>
       </c>
@@ -28596,7 +28598,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" ht="24" hidden="1" spans="2:4">
+    <row r="63" hidden="1" spans="2:4">
       <c r="B63" s="1" t="s">
         <v>213</v>
       </c>
@@ -28607,7 +28609,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" ht="40" spans="1:5">
+    <row r="64" ht="37.5" hidden="1" spans="1:5">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -28624,7 +28626,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" ht="40" hidden="1" spans="2:4">
+    <row r="65" ht="37.5" hidden="1" spans="2:4">
       <c r="B65" s="1" t="s">
         <v>220</v>
       </c>
@@ -28635,7 +28637,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" hidden="1" spans="1:5">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -28652,7 +28654,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" ht="40" hidden="1" spans="2:5">
+    <row r="67" ht="37.5" hidden="1" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>227</v>
       </c>
@@ -28666,7 +28668,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" hidden="1" spans="1:5">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -28697,7 +28699,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" hidden="1" spans="1:4">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -28711,7 +28713,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" hidden="1" spans="1:5">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -28728,7 +28730,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" ht="40" hidden="1" spans="2:5">
+    <row r="72" ht="37.5" hidden="1" spans="2:5">
       <c r="B72" s="1" t="s">
         <v>246</v>
       </c>
@@ -28753,7 +28755,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" ht="40" hidden="1" spans="2:5">
+    <row r="74" ht="37.5" hidden="1" spans="2:5">
       <c r="B74" s="1" t="s">
         <v>253</v>
       </c>
@@ -28767,7 +28769,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" hidden="1" spans="1:4">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -28792,7 +28794,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="77" ht="40" hidden="1" spans="2:5">
+    <row r="77" ht="37.5" hidden="1" spans="2:5">
       <c r="B77" s="1" t="s">
         <v>263</v>
       </c>
@@ -28806,7 +28808,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" hidden="1" spans="1:5">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -28823,7 +28825,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" ht="24" hidden="1" spans="2:5">
+    <row r="79" hidden="1" spans="2:5">
       <c r="B79" s="1" t="s">
         <v>271</v>
       </c>
@@ -28837,7 +28839,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="80" ht="24" hidden="1" spans="2:5">
+    <row r="80" hidden="1" spans="2:5">
       <c r="B80" s="1" t="s">
         <v>275</v>
       </c>
@@ -28851,7 +28853,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" hidden="1" spans="1:4">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -28865,7 +28867,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" hidden="1" spans="1:4">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -28879,7 +28881,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" ht="40" hidden="1" spans="2:4">
+    <row r="83" ht="37.5" hidden="1" spans="2:4">
       <c r="B83" s="1" t="s">
         <v>284</v>
       </c>
@@ -28890,7 +28892,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" hidden="1" spans="1:4">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -28904,7 +28906,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" ht="40" spans="1:5">
+    <row r="85" ht="37.5" hidden="1" spans="1:5">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -28921,7 +28923,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" hidden="1" spans="1:4">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -28935,7 +28937,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" hidden="1" spans="1:4">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -28949,7 +28951,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" ht="60" spans="1:5">
+    <row r="88" ht="56.25" hidden="1" spans="1:5">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -28966,7 +28968,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" hidden="1" spans="1:4">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -28980,7 +28982,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" hidden="1" spans="1:4">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -28994,7 +28996,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" hidden="1" spans="1:4">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -29008,7 +29010,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" ht="24" hidden="1" spans="2:4">
+    <row r="92" hidden="1" spans="2:4">
       <c r="B92" s="1" t="s">
         <v>313</v>
       </c>
@@ -29030,7 +29032,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" hidden="1" spans="1:4">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -29044,7 +29046,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" ht="24" hidden="1" spans="2:4">
+    <row r="95" hidden="1" spans="2:4">
       <c r="B95" s="1" t="s">
         <v>322</v>
       </c>
@@ -29055,7 +29057,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="96" ht="24" spans="1:4">
+    <row r="96" hidden="1" spans="1:4">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -29069,7 +29071,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="97" ht="23" spans="1:4">
+    <row r="97" hidden="1" spans="1:4">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -29083,7 +29085,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" ht="40" spans="1:5">
+    <row r="98" ht="37.5" hidden="1" spans="1:5">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -29100,7 +29102,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" hidden="1" spans="1:4">
       <c r="A99" s="1">
         <v>0</v>
       </c>
@@ -29114,7 +29116,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" ht="24" spans="1:4">
+    <row r="100" hidden="1" spans="1:4">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -29172,7 +29174,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" hidden="1" spans="1:5">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -29189,7 +29191,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="106" ht="24" hidden="1" spans="2:4">
+    <row r="106" hidden="1" spans="2:4">
       <c r="B106" s="1" t="s">
         <v>357</v>
       </c>
@@ -29200,7 +29202,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" ht="40" hidden="1" spans="2:4">
+    <row r="107" ht="37.5" hidden="1" spans="2:4">
       <c r="B107" s="1" t="s">
         <v>360</v>
       </c>
@@ -29211,7 +29213,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="108" ht="24" spans="1:4">
+    <row r="108" hidden="1" spans="1:4">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -29225,7 +29227,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" ht="40" spans="1:5">
+    <row r="109" ht="37.5" hidden="1" spans="1:5">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -29242,7 +29244,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" hidden="1" spans="1:4">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -29256,7 +29258,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="111" ht="40" spans="1:5">
+    <row r="111" ht="37.5" hidden="1" spans="1:5">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -29284,7 +29286,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="113" ht="40" hidden="1" spans="2:4">
+    <row r="113" ht="37.5" hidden="1" spans="2:4">
       <c r="B113" s="1" t="s">
         <v>380</v>
       </c>
@@ -29295,7 +29297,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="114" ht="40" spans="1:5">
+    <row r="114" ht="37.5" hidden="1" spans="1:5">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -29323,7 +29325,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" ht="40" spans="1:5">
+    <row r="116" ht="37.5" hidden="1" spans="1:5">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -29340,7 +29342,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="117" ht="40" hidden="1" spans="2:5">
+    <row r="117" hidden="1" spans="2:5">
       <c r="B117" s="1" t="s">
         <v>394</v>
       </c>
@@ -29354,7 +29356,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="118" ht="24" hidden="1" spans="2:4">
+    <row r="118" hidden="1" spans="2:4">
       <c r="B118" s="1" t="s">
         <v>398</v>
       </c>
@@ -29365,7 +29367,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" ht="40" hidden="1" spans="2:4">
+    <row r="119" ht="37.5" hidden="1" spans="2:4">
       <c r="B119" s="1" t="s">
         <v>401</v>
       </c>
@@ -29376,9 +29378,9 @@
         <v>403</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" hidden="1" spans="1:5">
       <c r="A120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>404</v>
@@ -29393,7 +29395,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="121" ht="40" spans="1:4">
+    <row r="121" ht="37.5" hidden="1" spans="1:4">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -29407,7 +29409,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="122" ht="24" hidden="1" spans="2:4">
+    <row r="122" hidden="1" spans="2:4">
       <c r="B122" s="1" t="s">
         <v>411</v>
       </c>
@@ -29418,7 +29420,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="123" ht="24" spans="1:4">
+    <row r="123" hidden="1" spans="1:4">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -29432,7 +29434,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" ht="40" spans="1:4">
+    <row r="124" ht="37.5" hidden="1" spans="1:4">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -29457,7 +29459,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" hidden="1" spans="1:4">
       <c r="A126" s="1">
         <v>0</v>
       </c>
@@ -29471,7 +29473,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="127" ht="23" hidden="1" spans="2:4">
+    <row r="127" hidden="1" spans="2:4">
       <c r="B127" s="1" t="s">
         <v>426</v>
       </c>
@@ -29482,7 +29484,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" hidden="1" spans="1:4">
       <c r="A128" s="1">
         <v>0</v>
       </c>
@@ -29496,7 +29498,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" hidden="1" spans="1:4">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -29510,7 +29512,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" hidden="1" spans="1:5">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -29527,7 +29529,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" hidden="1" spans="1:4">
       <c r="A131" s="1">
         <v>0</v>
       </c>
@@ -29541,7 +29543,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="132" ht="40" spans="1:4">
+    <row r="132" ht="37.5" hidden="1" spans="1:4">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -29555,7 +29557,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="133" ht="40" hidden="1" spans="2:4">
+    <row r="133" ht="37.5" hidden="1" spans="2:4">
       <c r="B133" s="1" t="s">
         <v>445</v>
       </c>
@@ -29566,7 +29568,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" hidden="1" spans="1:4">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -29580,7 +29582,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="135" ht="100" spans="1:5">
+    <row r="135" ht="75" hidden="1" spans="1:5">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -29597,7 +29599,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="136" ht="24" hidden="1" spans="2:4">
+    <row r="136" hidden="1" spans="2:4">
       <c r="B136" s="1" t="s">
         <v>455</v>
       </c>
@@ -29608,7 +29610,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="137" ht="24" hidden="1" spans="2:4">
+    <row r="137" hidden="1" spans="2:4">
       <c r="B137" s="1" t="s">
         <v>458</v>
       </c>
@@ -29619,7 +29621,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" ht="23" spans="1:4">
+    <row r="138" hidden="1" spans="1:4">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -29633,7 +29635,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="139" ht="24" spans="1:4">
+    <row r="139" hidden="1" spans="1:4">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -29647,7 +29649,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="140" ht="24" spans="1:4">
+    <row r="140" hidden="1" spans="1:4">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -29675,7 +29677,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="142" ht="40" spans="1:4">
+    <row r="142" ht="37.5" hidden="1" spans="1:4">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -29689,7 +29691,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" hidden="1" spans="1:4">
       <c r="A143" s="1">
         <v>0</v>
       </c>
@@ -29703,7 +29705,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" hidden="1" spans="1:4">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -29717,7 +29719,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" hidden="1" spans="1:5">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -29734,7 +29736,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="146" ht="40" hidden="1" spans="2:4">
+    <row r="146" ht="37.5" hidden="1" spans="2:4">
       <c r="B146" s="1" t="s">
         <v>487</v>
       </c>
@@ -29756,7 +29758,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" hidden="1" spans="1:5">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -29773,7 +29775,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="149" ht="40" hidden="1" spans="2:4">
+    <row r="149" ht="37.5" hidden="1" spans="2:4">
       <c r="B149" s="1" t="s">
         <v>497</v>
       </c>
@@ -29795,7 +29797,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="151" ht="24" spans="1:4">
+    <row r="151" hidden="1" spans="1:4">
       <c r="A151" s="1">
         <v>0</v>
       </c>
@@ -29809,7 +29811,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="152" ht="40" spans="1:5">
+    <row r="152" ht="37.5" hidden="1" spans="1:5">
       <c r="A152" s="1">
         <v>0</v>
       </c>
@@ -29840,7 +29842,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="154" ht="24" hidden="1" spans="2:4">
+    <row r="154" hidden="1" spans="2:4">
       <c r="B154" s="1" t="s">
         <v>514</v>
       </c>
@@ -29851,7 +29853,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="155" ht="23" spans="1:4">
+    <row r="155" hidden="1" spans="1:4">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -29865,7 +29867,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" hidden="1" spans="1:5">
       <c r="A156" s="1">
         <v>0</v>
       </c>
@@ -29882,7 +29884,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" hidden="1" spans="1:5">
       <c r="A157" s="1">
         <v>0</v>
       </c>
@@ -29899,7 +29901,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" hidden="1" spans="1:4">
       <c r="A158" s="1">
         <v>0</v>
       </c>
@@ -29913,7 +29915,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" hidden="1" spans="1:5">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -29930,7 +29932,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" ht="24" hidden="1" spans="2:4">
+    <row r="160" hidden="1" spans="2:4">
       <c r="B160" s="1" t="s">
         <v>535</v>
       </c>
@@ -29941,7 +29943,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="161" ht="40" hidden="1" spans="2:4">
+    <row r="161" ht="37.5" hidden="1" spans="2:4">
       <c r="B161" s="1" t="s">
         <v>538</v>
       </c>
@@ -29952,7 +29954,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" hidden="1" spans="1:4">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -29966,7 +29968,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="163" ht="23" hidden="1" spans="2:4">
+    <row r="163" hidden="1" spans="2:4">
       <c r="B163" s="1" t="s">
         <v>544</v>
       </c>
@@ -29977,7 +29979,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="164" ht="24" hidden="1" spans="2:4">
+    <row r="164" hidden="1" spans="2:4">
       <c r="B164" s="1" t="s">
         <v>547</v>
       </c>
@@ -29988,7 +29990,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" hidden="1" spans="1:4">
       <c r="A165" s="1">
         <v>0</v>
       </c>
@@ -30002,7 +30004,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="166" ht="24" hidden="1" spans="2:4">
+    <row r="166" hidden="1" spans="2:4">
       <c r="B166" s="1" t="s">
         <v>553</v>
       </c>
@@ -30013,7 +30015,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="167" ht="40" spans="1:4">
+    <row r="167" ht="37.5" hidden="1" spans="1:4">
       <c r="A167" s="1">
         <v>0</v>
       </c>
@@ -30027,7 +30029,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" hidden="1" spans="1:4">
       <c r="A168" s="1">
         <v>0</v>
       </c>
@@ -30041,7 +30043,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="169" ht="100" hidden="1" spans="2:5">
+    <row r="169" ht="75" hidden="1" spans="2:5">
       <c r="B169" s="1" t="s">
         <v>562</v>
       </c>
@@ -30055,7 +30057,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="170" ht="40" spans="1:4">
+    <row r="170" ht="37.5" hidden="1" spans="1:4">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -30069,7 +30071,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="171" ht="40" spans="1:4">
+    <row r="171" ht="37.5" hidden="1" spans="1:4">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -30083,7 +30085,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" hidden="1" spans="1:4">
       <c r="A172" s="1">
         <v>0</v>
       </c>
@@ -30097,7 +30099,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="173" ht="100" spans="1:5">
+    <row r="173" ht="75" hidden="1" spans="1:5">
       <c r="A173" s="1">
         <v>0</v>
       </c>
@@ -30114,7 +30116,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="174" ht="24" hidden="1" spans="2:4">
+    <row r="174" hidden="1" spans="2:4">
       <c r="B174" s="1" t="s">
         <v>579</v>
       </c>
@@ -30136,7 +30138,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="176" ht="23" spans="1:5">
+    <row r="176" hidden="1" spans="1:5">
       <c r="A176" s="1">
         <v>0</v>
       </c>
@@ -30153,7 +30155,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="177" ht="24" hidden="1" spans="2:4">
+    <row r="177" hidden="1" spans="2:4">
       <c r="B177" s="1" t="s">
         <v>589</v>
       </c>
@@ -30164,7 +30166,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="178" ht="23" hidden="1" spans="2:4">
+    <row r="178" hidden="1" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>592</v>
       </c>
@@ -30175,7 +30177,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" hidden="1" spans="1:4">
       <c r="A179" s="1">
         <v>0</v>
       </c>
@@ -30200,7 +30202,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="181" ht="40" hidden="1" spans="2:4">
+    <row r="181" ht="37.5" hidden="1" spans="2:4">
       <c r="B181" s="1" t="s">
         <v>601</v>
       </c>
@@ -30211,7 +30213,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="182" ht="24" hidden="1" spans="2:4">
+    <row r="182" hidden="1" spans="2:4">
       <c r="B182" s="1" t="s">
         <v>604</v>
       </c>
@@ -30222,7 +30224,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="183" ht="40" hidden="1" spans="2:4">
+    <row r="183" ht="37.5" hidden="1" spans="2:4">
       <c r="B183" s="1" t="s">
         <v>607</v>
       </c>
@@ -30233,7 +30235,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="184" ht="24" hidden="1" spans="2:4">
+    <row r="184" hidden="1" spans="2:4">
       <c r="B184" s="1" t="s">
         <v>610</v>
       </c>
@@ -30244,7 +30246,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="185" ht="40" hidden="1" spans="2:4">
+    <row r="185" ht="37.5" hidden="1" spans="2:4">
       <c r="B185" s="1" t="s">
         <v>613</v>
       </c>
@@ -30255,7 +30257,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" hidden="1" spans="1:5">
       <c r="A186" s="1">
         <v>0</v>
       </c>
@@ -30272,7 +30274,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" hidden="1" spans="1:4">
       <c r="A187" s="1">
         <v>0</v>
       </c>
@@ -30308,7 +30310,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" hidden="1" spans="1:4">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -30322,7 +30324,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="191" ht="24" hidden="1" spans="2:5">
+    <row r="191" hidden="1" spans="2:5">
       <c r="B191" s="1" t="s">
         <v>632</v>
       </c>
@@ -30336,7 +30338,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="192" ht="40" hidden="1" spans="2:4">
+    <row r="192" ht="37.5" hidden="1" spans="2:4">
       <c r="B192" s="1" t="s">
         <v>636</v>
       </c>
@@ -30347,7 +30349,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="193" ht="40" hidden="1" spans="2:4">
+    <row r="193" ht="37.5" hidden="1" spans="2:4">
       <c r="B193" s="1" t="s">
         <v>639</v>
       </c>
@@ -30358,7 +30360,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" hidden="1" spans="1:4">
       <c r="A194" s="1">
         <v>0</v>
       </c>
@@ -30383,7 +30385,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="196" ht="40" hidden="1" spans="2:4">
+    <row r="196" ht="37.5" hidden="1" spans="2:4">
       <c r="B196" s="1" t="s">
         <v>648</v>
       </c>
@@ -30394,7 +30396,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="197" ht="24" hidden="1" spans="2:4">
+    <row r="197" hidden="1" spans="2:4">
       <c r="B197" s="1" t="s">
         <v>651</v>
       </c>
@@ -30405,7 +30407,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="198" ht="40" hidden="1" spans="2:4">
+    <row r="198" ht="37.5" hidden="1" spans="2:4">
       <c r="B198" s="1" t="s">
         <v>654</v>
       </c>
@@ -30416,7 +30418,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="199" ht="40" hidden="1" spans="2:4">
+    <row r="199" ht="37.5" hidden="1" spans="2:4">
       <c r="B199" s="1" t="s">
         <v>657</v>
       </c>
@@ -30427,7 +30429,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" hidden="1" spans="1:4">
       <c r="A200" s="1">
         <v>0</v>
       </c>
@@ -30441,7 +30443,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="201" ht="40" spans="1:4">
+    <row r="201" ht="37.5" hidden="1" spans="1:4">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -30455,7 +30457,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="202" ht="24" hidden="1" spans="2:4">
+    <row r="202" hidden="1" spans="2:4">
       <c r="B202" s="1" t="s">
         <v>666</v>
       </c>
@@ -30466,7 +30468,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="203" ht="24" hidden="1" spans="2:4">
+    <row r="203" hidden="1" spans="2:4">
       <c r="B203" s="1" t="s">
         <v>669</v>
       </c>
@@ -30499,7 +30501,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" hidden="1" spans="1:4">
       <c r="A206" s="1">
         <v>0</v>
       </c>
@@ -30513,7 +30515,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="207" ht="40" spans="1:4">
+    <row r="207" ht="37.5" hidden="1" spans="1:4">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -30538,7 +30540,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" hidden="1" spans="1:5">
       <c r="A209" s="1">
         <v>0</v>
       </c>
@@ -30555,7 +30557,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="210" ht="40" hidden="1" spans="2:4">
+    <row r="210" ht="37.5" hidden="1" spans="2:4">
       <c r="B210" s="1" t="s">
         <v>691</v>
       </c>
@@ -30566,7 +30568,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="211" ht="40" spans="1:4">
+    <row r="211" ht="37.5" hidden="1" spans="1:4">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -30591,7 +30593,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="213" ht="40" spans="1:4">
+    <row r="213" ht="37.5" hidden="1" spans="1:4">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -30605,7 +30607,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="214" ht="80" hidden="1" spans="2:5">
+    <row r="214" ht="75" hidden="1" spans="2:5">
       <c r="B214" s="1" t="s">
         <v>703</v>
       </c>
@@ -30619,7 +30621,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="215" ht="40" hidden="1" spans="2:5">
+    <row r="215" ht="37.5" hidden="1" spans="2:5">
       <c r="B215" s="1" t="s">
         <v>707</v>
       </c>
@@ -30633,7 +30635,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" hidden="1" spans="1:5">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -30650,7 +30652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" ht="24" spans="1:4">
+    <row r="217" hidden="1" spans="1:4">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -30675,7 +30677,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" hidden="1" spans="1:5">
       <c r="A219" s="1">
         <v>0</v>
       </c>
@@ -30692,7 +30694,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="220" ht="40" hidden="1" spans="2:4">
+    <row r="220" ht="37.5" hidden="1" spans="2:4">
       <c r="B220" s="1" t="s">
         <v>724</v>
       </c>
@@ -30703,7 +30705,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" hidden="1" spans="1:4">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -30717,7 +30719,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" hidden="1" spans="1:4">
       <c r="A222" s="1">
         <v>0</v>
       </c>
@@ -30731,7 +30733,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" hidden="1" spans="1:5">
       <c r="A223" s="1">
         <v>0</v>
       </c>
@@ -30748,9 +30750,9 @@
         <v>736</v>
       </c>
     </row>
-    <row r="224" ht="40" spans="1:4">
+    <row r="224" ht="37.5" spans="1:4">
       <c r="A224" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>737</v>
@@ -30784,7 +30786,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="227" ht="40" hidden="1" spans="2:4">
+    <row r="227" ht="37.5" hidden="1" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>746</v>
       </c>
@@ -30795,7 +30797,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" hidden="1" spans="1:4">
       <c r="A228" s="1">
         <v>0</v>
       </c>
@@ -30809,9 +30811,9 @@
         <v>751</v>
       </c>
     </row>
-    <row r="229" ht="40" spans="1:4">
+    <row r="229" ht="37.5" spans="1:4">
       <c r="A229" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>752</v>
@@ -30823,7 +30825,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" hidden="1" spans="1:4">
       <c r="A230" s="1">
         <v>0</v>
       </c>
@@ -30851,7 +30853,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" hidden="1" spans="1:4">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -30865,7 +30867,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" hidden="1" spans="1:5">
       <c r="A233" s="1">
         <v>0</v>
       </c>
@@ -30882,7 +30884,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" hidden="1" spans="1:4">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -30896,7 +30898,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" hidden="1" spans="1:5">
       <c r="A235" s="1">
         <v>0</v>
       </c>
@@ -30927,7 +30929,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" hidden="1" spans="1:5">
       <c r="A237" s="1">
         <v>0</v>
       </c>
@@ -30944,7 +30946,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="238" ht="24" spans="1:5">
+    <row r="238" hidden="1" spans="1:5">
       <c r="A238" s="1">
         <v>0</v>
       </c>
@@ -30961,7 +30963,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="239" ht="40" spans="1:5">
+    <row r="239" ht="37.5" hidden="1" spans="1:5">
       <c r="A239" s="1">
         <v>0</v>
       </c>
@@ -30978,7 +30980,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" hidden="1" spans="1:5">
       <c r="A240" s="1">
         <v>0</v>
       </c>
@@ -30995,7 +30997,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" hidden="1" spans="1:5">
       <c r="A241" s="1">
         <v>0</v>
       </c>
@@ -31012,7 +31014,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" hidden="1" spans="1:4">
       <c r="A242" s="1">
         <v>0</v>
       </c>
@@ -31026,7 +31028,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="243" ht="40" spans="1:5">
+    <row r="243" ht="37.5" hidden="1" spans="1:5">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -31054,7 +31056,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="245" ht="40" spans="1:4">
+    <row r="245" ht="37.5" hidden="1" spans="1:4">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -31068,7 +31070,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="246" ht="40" spans="1:5">
+    <row r="246" ht="37.5" hidden="1" spans="1:5">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -31085,7 +31087,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" hidden="1" spans="1:4">
       <c r="A247" s="1">
         <v>0</v>
       </c>
@@ -31099,7 +31101,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="248" ht="40" hidden="1" spans="2:4">
+    <row r="248" ht="37.5" hidden="1" spans="2:4">
       <c r="B248" s="1" t="s">
         <v>820</v>
       </c>
@@ -31110,7 +31112,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="249" ht="40" spans="1:4">
+    <row r="249" ht="37.5" hidden="1" spans="1:4">
       <c r="A249" s="1">
         <v>0</v>
       </c>
@@ -31124,7 +31126,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="250" ht="40" hidden="1" spans="2:4">
+    <row r="250" ht="37.5" hidden="1" spans="2:4">
       <c r="B250" s="1" t="s">
         <v>826</v>
       </c>
@@ -31135,7 +31137,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" hidden="1" spans="1:4">
       <c r="A251" s="1">
         <v>0</v>
       </c>
@@ -31149,7 +31151,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="252" ht="40" hidden="1" spans="2:5">
+    <row r="252" ht="37.5" hidden="1" spans="2:5">
       <c r="B252" s="1" t="s">
         <v>832</v>
       </c>
@@ -31163,7 +31165,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" hidden="1" spans="1:4">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -31177,7 +31179,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="254" ht="24" spans="1:4">
+    <row r="254" hidden="1" spans="1:4">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -31191,7 +31193,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="255" ht="24" spans="1:4">
+    <row r="255" hidden="1" spans="1:4">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -31227,7 +31229,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="258" ht="40" spans="1:4">
+    <row r="258" ht="37.5" hidden="1" spans="1:4">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -31241,7 +31243,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="259" ht="40" spans="1:4">
+    <row r="259" ht="37.5" hidden="1" spans="1:4">
       <c r="A259" s="1">
         <v>0</v>
       </c>
@@ -31255,7 +31257,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="260" ht="24" hidden="1" spans="2:4">
+    <row r="260" hidden="1" spans="2:4">
       <c r="B260" s="1" t="s">
         <v>857</v>
       </c>
@@ -31266,7 +31268,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="261" ht="40" hidden="1" spans="2:4">
+    <row r="261" ht="37.5" hidden="1" spans="2:4">
       <c r="B261" s="1" t="s">
         <v>860</v>
       </c>
@@ -31277,7 +31279,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="262" ht="24" spans="1:4">
+    <row r="262" hidden="1" spans="1:4">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -31291,7 +31293,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" hidden="1" spans="1:4">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -31305,7 +31307,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="264" ht="40" spans="1:4">
+    <row r="264" ht="37.5" hidden="1" spans="1:4">
       <c r="A264" s="1">
         <v>0</v>
       </c>
@@ -31319,7 +31321,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="265" ht="24" hidden="1" spans="2:4">
+    <row r="265" hidden="1" spans="2:4">
       <c r="B265" s="1" t="s">
         <v>872</v>
       </c>
@@ -31330,7 +31332,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" hidden="1" spans="1:5">
       <c r="A266" s="1">
         <v>0</v>
       </c>
@@ -31347,7 +31349,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="267" ht="40" spans="1:5">
+    <row r="267" ht="37.5" hidden="1" spans="1:5">
       <c r="A267" s="1">
         <v>0</v>
       </c>
@@ -31364,7 +31366,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="268" ht="80" spans="1:5">
+    <row r="268" ht="75" hidden="1" spans="1:5">
       <c r="A268" s="1">
         <v>0</v>
       </c>
@@ -31381,9 +31383,9 @@
         <v>886</v>
       </c>
     </row>
-    <row r="269" ht="60" spans="1:5">
+    <row r="269" ht="56.25" hidden="1" spans="1:5">
       <c r="A269" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>887</v>
@@ -31409,7 +31411,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="271" ht="24" spans="1:4">
+    <row r="271" hidden="1" spans="1:4">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -31423,7 +31425,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="272" ht="40" hidden="1" spans="2:4">
+    <row r="272" ht="37.5" hidden="1" spans="2:4">
       <c r="B272" s="1" t="s">
         <v>897</v>
       </c>
@@ -31434,7 +31436,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="273" ht="24" hidden="1" spans="2:4">
+    <row r="273" hidden="1" spans="2:4">
       <c r="B273" s="1" t="s">
         <v>900</v>
       </c>
@@ -31445,7 +31447,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="274" ht="40" hidden="1" spans="2:4">
+    <row r="274" ht="37.5" hidden="1" spans="2:4">
       <c r="B274" s="1" t="s">
         <v>903</v>
       </c>
@@ -31456,7 +31458,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="275" ht="40" spans="1:4">
+    <row r="275" ht="37.5" hidden="1" spans="1:4">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -31492,7 +31494,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="278" ht="40" hidden="1" spans="2:4">
+    <row r="278" ht="37.5" hidden="1" spans="2:4">
       <c r="B278" s="1" t="s">
         <v>915</v>
       </c>
@@ -31503,7 +31505,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="279" ht="24" spans="1:4">
+    <row r="279" hidden="1" spans="1:4">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -31517,7 +31519,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="280" ht="24" spans="1:4">
+    <row r="280" hidden="1" spans="1:4">
       <c r="A280" s="1">
         <v>0</v>
       </c>
@@ -31542,7 +31544,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="282" ht="40" hidden="1" spans="2:4">
+    <row r="282" ht="37.5" hidden="1" spans="2:4">
       <c r="B282" s="1" t="s">
         <v>927</v>
       </c>
@@ -31553,7 +31555,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="283" ht="40" spans="1:5">
+    <row r="283" ht="37.5" hidden="1" spans="1:5">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -31570,7 +31572,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="284" ht="24" spans="1:4">
+    <row r="284" hidden="1" spans="1:4">
       <c r="A284" s="1">
         <v>0</v>
       </c>
@@ -31586,7 +31588,7 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>937</v>
@@ -31601,7 +31603,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="286" ht="80" spans="1:6">
+    <row r="286" ht="75" hidden="1" spans="1:6">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -31619,7 +31621,7 @@
       </c>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" hidden="1" spans="1:4">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -31633,7 +31635,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" hidden="1" spans="1:4">
       <c r="A288" s="1">
         <v>0</v>
       </c>
@@ -31647,7 +31649,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="289" ht="100" spans="1:5">
+    <row r="289" ht="75" hidden="1" spans="1:5">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -31664,7 +31666,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="290" ht="40" hidden="1" spans="2:4">
+    <row r="290" ht="37.5" hidden="1" spans="2:4">
       <c r="B290" s="1" t="s">
         <v>955</v>
       </c>
@@ -31675,7 +31677,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="291" ht="40" hidden="1" spans="2:5">
+    <row r="291" ht="37.5" hidden="1" spans="2:5">
       <c r="B291" s="1" t="s">
         <v>958</v>
       </c>
@@ -31689,7 +31691,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" hidden="1" spans="1:4">
       <c r="A292" s="1">
         <v>0</v>
       </c>
@@ -31725,7 +31727,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="295" ht="24" spans="1:4">
+    <row r="295" hidden="1" spans="1:4">
       <c r="A295" s="1">
         <v>0</v>
       </c>
@@ -31739,7 +31741,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="296" ht="40" spans="1:4">
+    <row r="296" ht="37.5" hidden="1" spans="1:4">
       <c r="A296" s="1">
         <v>0</v>
       </c>
@@ -31753,7 +31755,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" hidden="1" spans="1:4">
       <c r="A297" s="1">
         <v>0</v>
       </c>
@@ -31778,7 +31780,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" hidden="1" spans="1:4">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -31792,7 +31794,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="300" ht="24" spans="1:4">
+    <row r="300" hidden="1" spans="1:4">
       <c r="A300" s="1">
         <v>0</v>
       </c>
@@ -31806,7 +31808,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="301" ht="40" spans="1:5">
+    <row r="301" ht="37.5" hidden="1" spans="1:5">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -31823,7 +31825,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" hidden="1" spans="1:5">
       <c r="A302" s="1">
         <v>0</v>
       </c>
@@ -31840,7 +31842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="40" spans="1:4">
+    <row r="303" ht="37.5" hidden="1" spans="1:4">
       <c r="A303" s="1">
         <v>0</v>
       </c>
@@ -31854,7 +31856,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="304" ht="23" spans="1:4">
+    <row r="304" hidden="1" spans="1:4">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -31868,7 +31870,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="305" ht="40" spans="1:4">
+    <row r="305" ht="37.5" hidden="1" spans="1:4">
       <c r="A305" s="1">
         <v>0</v>
       </c>
@@ -31893,7 +31895,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="307" ht="40" hidden="1" spans="2:4">
+    <row r="307" ht="37.5" hidden="1" spans="2:4">
       <c r="B307" s="1" t="s">
         <v>1008</v>
       </c>
@@ -31904,7 +31906,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="308" ht="24" spans="1:4">
+    <row r="308" hidden="1" spans="1:4">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -31929,7 +31931,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="310" ht="40" hidden="1" spans="2:4">
+    <row r="310" ht="37.5" hidden="1" spans="2:4">
       <c r="B310" s="1" t="s">
         <v>1017</v>
       </c>
@@ -31951,7 +31953,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" hidden="1" spans="1:4">
       <c r="A312" s="1">
         <v>0</v>
       </c>
@@ -31965,9 +31967,9 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="313" ht="40" spans="1:4">
+    <row r="313" ht="37.5" spans="1:4">
       <c r="A313" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>1026</v>
@@ -31979,7 +31981,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="314" ht="100" spans="1:5">
+    <row r="314" ht="75" hidden="1" spans="1:5">
       <c r="A314" s="1">
         <v>0</v>
       </c>
@@ -32007,7 +32009,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="316" ht="40" spans="1:4">
+    <row r="316" ht="37.5" hidden="1" spans="1:4">
       <c r="A316" s="1">
         <v>0</v>
       </c>
@@ -32032,7 +32034,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="318" ht="40" spans="1:5">
+    <row r="318" ht="37.5" hidden="1" spans="1:5">
       <c r="A318" s="1">
         <v>0</v>
       </c>
@@ -32049,7 +32051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" hidden="1" spans="1:5">
       <c r="A319" s="1">
         <v>0</v>
       </c>
@@ -32066,7 +32068,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="320" ht="23" hidden="1" spans="2:4">
+    <row r="320" hidden="1" spans="2:4">
       <c r="B320" s="1" t="s">
         <v>1049</v>
       </c>
@@ -32077,7 +32079,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="321" ht="135" hidden="1" spans="2:5">
+    <row r="321" ht="112.5" hidden="1" spans="2:5">
       <c r="B321" s="1" t="s">
         <v>1052</v>
       </c>
@@ -32116,7 +32118,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="324" ht="24" hidden="1" spans="2:4">
+    <row r="324" hidden="1" spans="2:4">
       <c r="B324" s="1" t="s">
         <v>1063</v>
       </c>
@@ -32127,7 +32129,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" hidden="1" spans="1:4">
       <c r="A325" s="1">
         <v>0</v>
       </c>
@@ -32141,7 +32143,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" hidden="1" spans="1:4">
       <c r="A326" s="1">
         <v>0</v>
       </c>
@@ -32155,7 +32157,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" hidden="1" spans="1:5">
       <c r="A327" s="1">
         <v>0</v>
       </c>
@@ -32183,7 +32185,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" hidden="1" spans="1:5">
       <c r="A329" s="1">
         <v>0</v>
       </c>
@@ -32200,7 +32202,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="330" ht="40" spans="1:4">
+    <row r="330" ht="37.5" hidden="1" spans="1:4">
       <c r="A330" s="1">
         <v>0</v>
       </c>
@@ -32214,7 +32216,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" hidden="1" spans="1:4">
       <c r="A331" s="1">
         <v>0</v>
       </c>
@@ -32228,7 +32230,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="332" ht="40" hidden="1" spans="2:4">
+    <row r="332" ht="37.5" hidden="1" spans="2:4">
       <c r="B332" s="1" t="s">
         <v>1089</v>
       </c>
@@ -32261,7 +32263,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="335" ht="40" spans="1:5">
+    <row r="335" ht="37.5" hidden="1" spans="1:5">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -32300,7 +32302,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" hidden="1" spans="1:4">
       <c r="A338" s="1">
         <v>0</v>
       </c>
@@ -32325,7 +32327,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" hidden="1" spans="1:5">
       <c r="A340" s="1">
         <v>0</v>
       </c>
@@ -32342,7 +32344,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="341" ht="140" spans="1:5">
+    <row r="341" ht="93.75" hidden="1" spans="1:5">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -32359,7 +32361,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="342" ht="40" hidden="1" spans="2:4">
+    <row r="342" ht="37.5" hidden="1" spans="2:4">
       <c r="B342" s="1" t="s">
         <v>1122</v>
       </c>
@@ -32370,7 +32372,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="343" ht="40" hidden="1" spans="2:4">
+    <row r="343" ht="37.5" hidden="1" spans="2:4">
       <c r="B343" s="1" t="s">
         <v>1125</v>
       </c>
@@ -32392,7 +32394,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="345" ht="40" spans="1:4">
+    <row r="345" ht="37.5" hidden="1" spans="1:4">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -32406,7 +32408,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" hidden="1" spans="1:4">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -32420,7 +32422,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="347" ht="24" hidden="1" spans="2:4">
+    <row r="347" hidden="1" spans="2:4">
       <c r="B347" s="1" t="s">
         <v>1137</v>
       </c>
@@ -32431,7 +32433,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" hidden="1" spans="1:5">
       <c r="A348" s="1">
         <v>0</v>
       </c>
@@ -32448,9 +32450,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" hidden="1" spans="1:5">
       <c r="A349" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>1143</v>
@@ -32465,7 +32467,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="350" ht="24" spans="1:4">
+    <row r="350" hidden="1" spans="1:4">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -32490,7 +32492,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="352" ht="24" hidden="1" spans="2:4">
+    <row r="352" hidden="1" spans="2:4">
       <c r="B352" s="1" t="s">
         <v>1153</v>
       </c>
@@ -32501,7 +32503,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" hidden="1" spans="1:4">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -32515,7 +32517,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" hidden="1" spans="1:4">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -32531,7 +32533,7 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1162</v>
@@ -32557,7 +32559,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" hidden="1" spans="1:4">
       <c r="A357" s="1">
         <v>0</v>
       </c>
@@ -32582,7 +32584,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="359" ht="40" spans="1:4">
+    <row r="359" ht="37.5" hidden="1" spans="1:4">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -32596,7 +32598,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="360" ht="23" hidden="1" spans="2:4">
+    <row r="360" ht="37.5" hidden="1" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>1178</v>
       </c>
@@ -32607,7 +32609,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="361" ht="24" spans="1:4">
+    <row r="361" hidden="1" spans="1:4">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -32621,7 +32623,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="362" ht="40" hidden="1" spans="2:5">
+    <row r="362" ht="37.5" hidden="1" spans="2:5">
       <c r="B362" s="1" t="s">
         <v>1184</v>
       </c>
@@ -32649,7 +32651,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" hidden="1" spans="1:4">
       <c r="A364" s="1">
         <v>0</v>
       </c>
@@ -32663,7 +32665,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="365" ht="40" hidden="1" spans="2:5">
+    <row r="365" ht="37.5" hidden="1" spans="2:5">
       <c r="B365" s="1" t="s">
         <v>1195</v>
       </c>
@@ -32688,7 +32690,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="367" ht="40" spans="1:5">
+    <row r="367" ht="37.5" hidden="1" spans="1:5">
       <c r="A367" s="1">
         <v>0</v>
       </c>
@@ -32716,7 +32718,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="369" ht="40" spans="1:4">
+    <row r="369" ht="37.5" hidden="1" spans="1:4">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -32758,7 +32760,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="372" ht="24" hidden="1" spans="2:5">
+    <row r="372" hidden="1" spans="2:5">
       <c r="B372" s="1" t="s">
         <v>1220</v>
       </c>
@@ -32772,7 +32774,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="373" ht="40" hidden="1" spans="2:4">
+    <row r="373" ht="37.5" hidden="1" spans="2:4">
       <c r="B373" s="1" t="s">
         <v>1224</v>
       </c>
@@ -32783,7 +32785,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="374" ht="40" hidden="1" spans="2:4">
+    <row r="374" ht="37.5" hidden="1" spans="2:4">
       <c r="B374" s="1" t="s">
         <v>1227</v>
       </c>
@@ -32794,7 +32796,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="375" ht="60" hidden="1" spans="2:4">
+    <row r="375" ht="56.25" hidden="1" spans="2:4">
       <c r="B375" s="1" t="s">
         <v>1230</v>
       </c>
@@ -32805,7 +32807,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="376" ht="24" hidden="1" spans="2:4">
+    <row r="376" hidden="1" spans="2:4">
       <c r="B376" s="1" t="s">
         <v>1233</v>
       </c>
@@ -32816,7 +32818,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" hidden="1" spans="1:4">
       <c r="A377" s="1">
         <v>0</v>
       </c>
@@ -32863,7 +32865,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="381" ht="40" spans="1:4">
+    <row r="381" ht="37.5" hidden="1" spans="1:4">
       <c r="A381" s="1">
         <v>0</v>
       </c>
@@ -32877,7 +32879,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="382" ht="40" spans="1:4">
+    <row r="382" ht="37.5" spans="1:4">
       <c r="A382" s="1">
         <v>2</v>
       </c>
@@ -32891,7 +32893,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="383" ht="40" hidden="1" spans="2:4">
+    <row r="383" ht="37.5" hidden="1" spans="2:4">
       <c r="B383" s="1" t="s">
         <v>1254</v>
       </c>
@@ -32902,7 +32904,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" hidden="1" spans="1:4">
       <c r="A384" s="1">
         <v>0</v>
       </c>
@@ -32927,7 +32929,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="386" ht="40" hidden="1" spans="2:4">
+    <row r="386" ht="37.5" hidden="1" spans="2:4">
       <c r="B386" s="1" t="s">
         <v>1263</v>
       </c>
@@ -32938,7 +32940,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="387" ht="40" hidden="1" spans="2:4">
+    <row r="387" ht="37.5" hidden="1" spans="2:4">
       <c r="B387" s="1" t="s">
         <v>1266</v>
       </c>
@@ -32949,7 +32951,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="388" ht="23" hidden="1" spans="2:4">
+    <row r="388" hidden="1" spans="2:4">
       <c r="B388" s="1" t="s">
         <v>1269</v>
       </c>
@@ -32960,7 +32962,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" hidden="1" spans="1:5">
       <c r="A389" s="1">
         <v>0</v>
       </c>
@@ -32979,7 +32981,7 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>1276</v>
@@ -33002,7 +33004,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" hidden="1" spans="1:4">
       <c r="A392" s="1">
         <v>0</v>
       </c>
@@ -33018,7 +33020,7 @@
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>1285</v>
@@ -33030,7 +33032,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="394" ht="24" spans="1:4">
+    <row r="394" hidden="1" spans="1:4">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -33044,7 +33046,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" hidden="1" spans="1:4">
       <c r="A395" s="1">
         <v>0</v>
       </c>
@@ -33069,7 +33071,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" hidden="1" spans="1:4">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -33094,7 +33096,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="399" ht="40" spans="1:5">
+    <row r="399" ht="37.5" hidden="1" spans="1:5">
       <c r="A399" s="1">
         <v>0</v>
       </c>
@@ -33111,7 +33113,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" hidden="1" spans="1:4">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -33125,7 +33127,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="401" ht="200" spans="1:5">
+    <row r="401" ht="168.75" hidden="1" spans="1:5">
       <c r="A401" s="1">
         <v>0</v>
       </c>
@@ -33153,7 +33155,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="403" ht="23" spans="1:5">
+    <row r="403" hidden="1" spans="1:5">
       <c r="A403" s="1">
         <v>0</v>
       </c>
@@ -33170,9 +33172,9 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="404" ht="24" spans="1:4">
+    <row r="404" spans="1:4">
       <c r="A404" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>1320</v>
@@ -33184,7 +33186,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="405" ht="134" hidden="1" spans="2:5">
+    <row r="405" ht="112.5" hidden="1" spans="2:5">
       <c r="B405" s="1" t="s">
         <v>1323</v>
       </c>
@@ -33198,7 +33200,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="406" ht="40" hidden="1" spans="2:4">
+    <row r="406" ht="37.5" hidden="1" spans="2:4">
       <c r="B406" s="1" t="s">
         <v>1327</v>
       </c>
@@ -33209,7 +33211,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="407" ht="24" spans="1:5">
+    <row r="407" hidden="1" spans="1:5">
       <c r="A407" s="1">
         <v>0</v>
       </c>
@@ -33248,7 +33250,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="410" ht="23" hidden="1" spans="2:4">
+    <row r="410" hidden="1" spans="2:4">
       <c r="B410" s="1" t="s">
         <v>1340</v>
       </c>
@@ -33259,7 +33261,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="411" ht="40" hidden="1" spans="2:4">
+    <row r="411" ht="37.5" hidden="1" spans="2:4">
       <c r="B411" s="1" t="s">
         <v>1343</v>
       </c>
@@ -33270,7 +33272,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="412" ht="40" hidden="1" spans="2:4">
+    <row r="412" ht="37.5" hidden="1" spans="2:4">
       <c r="B412" s="1" t="s">
         <v>1346</v>
       </c>
@@ -33281,7 +33283,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="413" ht="40" hidden="1" spans="2:4">
+    <row r="413" ht="37.5" hidden="1" spans="2:4">
       <c r="B413" s="1" t="s">
         <v>1349</v>
       </c>
@@ -33303,7 +33305,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="415" ht="24" spans="1:5">
+    <row r="415" hidden="1" spans="1:5">
       <c r="A415" s="1">
         <v>0</v>
       </c>
@@ -33320,7 +33322,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" hidden="1" spans="1:4">
       <c r="A416" s="1">
         <v>0</v>
       </c>
@@ -33334,7 +33336,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="417" ht="24" hidden="1" spans="2:4">
+    <row r="417" hidden="1" spans="2:4">
       <c r="B417" s="1" t="s">
         <v>1362</v>
       </c>
@@ -33345,7 +33347,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="418" ht="40" spans="1:5">
+    <row r="418" ht="37.5" hidden="1" spans="1:5">
       <c r="A418" s="1">
         <v>0</v>
       </c>
@@ -33362,7 +33364,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="419" ht="40" spans="1:5">
+    <row r="419" ht="37.5" hidden="1" spans="1:5">
       <c r="A419" s="1">
         <v>0</v>
       </c>
@@ -33379,7 +33381,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" hidden="1" spans="1:4">
       <c r="A420" s="1">
         <v>0</v>
       </c>
@@ -33393,7 +33395,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="421" ht="24" hidden="1" spans="2:4">
+    <row r="421" hidden="1" spans="2:4">
       <c r="B421" s="1" t="s">
         <v>1376</v>
       </c>
@@ -33404,7 +33406,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="422" ht="23" hidden="1" spans="2:4">
+    <row r="422" hidden="1" spans="2:4">
       <c r="B422" s="1" t="s">
         <v>1379</v>
       </c>
@@ -33415,7 +33417,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="423" ht="24" hidden="1" spans="2:4">
+    <row r="423" hidden="1" spans="2:4">
       <c r="B423" s="1" t="s">
         <v>1382</v>
       </c>
@@ -33426,7 +33428,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="424" ht="24" hidden="1" spans="2:4">
+    <row r="424" hidden="1" spans="2:4">
       <c r="B424" s="1" t="s">
         <v>1385</v>
       </c>
@@ -33437,7 +33439,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="425" ht="24" hidden="1" spans="2:4">
+    <row r="425" hidden="1" spans="2:4">
       <c r="B425" s="1" t="s">
         <v>1388</v>
       </c>
@@ -33448,7 +33450,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="426" ht="24" hidden="1" spans="2:4">
+    <row r="426" hidden="1" spans="2:4">
       <c r="B426" s="1" t="s">
         <v>1391</v>
       </c>
@@ -33459,9 +33461,9 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="427" ht="23" spans="1:5">
+    <row r="427" spans="1:5">
       <c r="A427" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>1394</v>
@@ -33476,7 +33478,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="428" ht="40" hidden="1" spans="2:4">
+    <row r="428" ht="37.5" hidden="1" spans="2:4">
       <c r="B428" s="1" t="s">
         <v>1398</v>
       </c>
@@ -33487,7 +33489,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" hidden="1" spans="1:4">
       <c r="A429" s="1">
         <v>0</v>
       </c>
@@ -33501,7 +33503,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="430" ht="23" spans="1:4">
+    <row r="430" hidden="1" spans="1:4">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -33515,7 +33517,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" hidden="1" spans="1:4">
       <c r="A431" s="1">
         <v>0</v>
       </c>
@@ -33529,7 +33531,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" hidden="1" spans="1:4">
       <c r="A432" s="1">
         <v>0</v>
       </c>
@@ -33543,7 +33545,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="433" ht="24" spans="1:4">
+    <row r="433" hidden="1" spans="1:4">
       <c r="A433" s="1">
         <v>0</v>
       </c>
@@ -33557,7 +33559,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="434" ht="40" hidden="1" spans="2:4">
+    <row r="434" ht="37.5" hidden="1" spans="2:4">
       <c r="B434" s="1" t="s">
         <v>1416</v>
       </c>
@@ -33568,7 +33570,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="435" ht="24" hidden="1" spans="2:4">
+    <row r="435" hidden="1" spans="2:4">
       <c r="B435" s="1" t="s">
         <v>1419</v>
       </c>
@@ -33612,7 +33614,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="439" ht="40" spans="1:4">
+    <row r="439" ht="37.5" hidden="1" spans="1:4">
       <c r="A439" s="1">
         <v>0</v>
       </c>
@@ -33626,7 +33628,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="440" ht="40" spans="1:4">
+    <row r="440" ht="37.5" hidden="1" spans="1:4">
       <c r="A440" s="1">
         <v>0</v>
       </c>
@@ -33640,7 +33642,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="441" ht="24" hidden="1" spans="2:4">
+    <row r="441" hidden="1" spans="2:4">
       <c r="B441" s="1" t="s">
         <v>1437</v>
       </c>
@@ -33665,7 +33667,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="443" ht="24" hidden="1" spans="2:4">
+    <row r="443" hidden="1" spans="2:4">
       <c r="B443" s="1" t="s">
         <v>1444</v>
       </c>
@@ -33676,7 +33678,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" hidden="1" spans="1:4">
       <c r="A444" s="1">
         <v>0</v>
       </c>
@@ -33690,7 +33692,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="445" ht="40" hidden="1" spans="2:4">
+    <row r="445" ht="37.5" hidden="1" spans="2:4">
       <c r="B445" s="1" t="s">
         <v>1450</v>
       </c>
@@ -33726,7 +33728,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="448" ht="40" spans="1:4">
+    <row r="448" ht="37.5" hidden="1" spans="1:4">
       <c r="A448" s="1">
         <v>0</v>
       </c>
@@ -33740,7 +33742,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="449" ht="23" hidden="1" spans="2:4">
+    <row r="449" hidden="1" spans="2:4">
       <c r="B449" s="1" t="s">
         <v>1463</v>
       </c>
@@ -33762,7 +33764,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="451" ht="24" spans="1:4">
+    <row r="451" hidden="1" spans="1:4">
       <c r="A451" s="1">
         <v>0</v>
       </c>
@@ -33776,7 +33778,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="452" ht="24" hidden="1" spans="2:4">
+    <row r="452" hidden="1" spans="2:4">
       <c r="B452" s="1" t="s">
         <v>1472</v>
       </c>
@@ -33787,7 +33789,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" hidden="1" spans="1:4">
       <c r="A453" s="1">
         <v>0</v>
       </c>
@@ -33801,7 +33803,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="454" ht="24" hidden="1" spans="2:4">
+    <row r="454" hidden="1" spans="2:4">
       <c r="B454" s="1" t="s">
         <v>1478</v>
       </c>
@@ -33814,7 +33816,7 @@
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>1481</v>
@@ -33826,7 +33828,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="456" ht="24" spans="1:4">
+    <row r="456" hidden="1" spans="1:4">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -33862,7 +33864,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="459" ht="40" spans="1:4">
+    <row r="459" ht="37.5" hidden="1" spans="1:4">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -33887,7 +33889,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="461" ht="24" hidden="1" spans="2:4">
+    <row r="461" hidden="1" spans="2:4">
       <c r="B461" s="1" t="s">
         <v>1499</v>
       </c>
@@ -33898,7 +33900,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" hidden="1" spans="1:4">
       <c r="A462" s="1">
         <v>0</v>
       </c>
@@ -33912,7 +33914,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="463" ht="23" hidden="1" spans="2:4">
+    <row r="463" hidden="1" spans="2:4">
       <c r="B463" s="1" t="s">
         <v>1505</v>
       </c>
@@ -33923,9 +33925,9 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="464" ht="40" spans="1:4">
+    <row r="464" ht="37.5" hidden="1" spans="1:4">
       <c r="A464" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>1508</v>
@@ -33937,7 +33939,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" hidden="1" spans="1:4">
       <c r="A465" s="1">
         <v>0</v>
       </c>
@@ -33973,7 +33975,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="468" ht="40" hidden="1" spans="2:4">
+    <row r="468" ht="37.5" hidden="1" spans="2:4">
       <c r="B468" s="1" t="s">
         <v>1520</v>
       </c>
@@ -33995,7 +33997,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" hidden="1" spans="1:4">
       <c r="A470" s="1">
         <v>0</v>
       </c>
@@ -34042,7 +34044,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" hidden="1" spans="1:4">
       <c r="A474" s="1">
         <v>0</v>
       </c>
@@ -34056,7 +34058,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="475" ht="24" hidden="1" spans="2:4">
+    <row r="475" hidden="1" spans="2:4">
       <c r="B475" s="1" t="s">
         <v>1541</v>
       </c>
@@ -34078,7 +34080,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="477" ht="24" hidden="1" spans="2:4">
+    <row r="477" hidden="1" spans="2:4">
       <c r="B477" s="1" t="s">
         <v>1546</v>
       </c>
@@ -34089,7 +34091,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="478" ht="24" hidden="1" spans="2:4">
+    <row r="478" hidden="1" spans="2:4">
       <c r="B478" s="1" t="s">
         <v>1549</v>
       </c>
@@ -34100,7 +34102,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="479" ht="24" hidden="1" spans="2:4">
+    <row r="479" hidden="1" spans="2:4">
       <c r="B479" s="1" t="s">
         <v>1552</v>
       </c>
@@ -34111,7 +34113,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="480" ht="24" hidden="1" spans="2:4">
+    <row r="480" hidden="1" spans="2:4">
       <c r="B480" s="1" t="s">
         <v>1555</v>
       </c>
@@ -34122,7 +34124,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="481" ht="24" hidden="1" spans="2:4">
+    <row r="481" hidden="1" spans="2:4">
       <c r="B481" s="1" t="s">
         <v>1558</v>
       </c>
@@ -34133,7 +34135,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="482" ht="23" hidden="1" spans="2:4">
+    <row r="482" hidden="1" spans="2:4">
       <c r="B482" s="1" t="s">
         <v>1561</v>
       </c>
@@ -34144,7 +34146,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" hidden="1" spans="1:4">
       <c r="A483" s="1">
         <v>0</v>
       </c>
@@ -34158,7 +34160,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="484" ht="24" hidden="1" spans="2:4">
+    <row r="484" hidden="1" spans="2:4">
       <c r="B484" s="1" t="s">
         <v>1567</v>
       </c>
@@ -34169,7 +34171,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="485" ht="24" hidden="1" spans="2:4">
+    <row r="485" hidden="1" spans="2:4">
       <c r="B485" s="1" t="s">
         <v>1570</v>
       </c>
@@ -34180,7 +34182,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="486" ht="23" hidden="1" spans="2:4">
+    <row r="486" hidden="1" spans="2:4">
       <c r="B486" s="1" t="s">
         <v>1573</v>
       </c>
@@ -34191,7 +34193,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="487" ht="58" hidden="1" spans="2:5">
+    <row r="487" ht="37.5" hidden="1" spans="2:5">
       <c r="B487" s="1" t="s">
         <v>1576</v>
       </c>
@@ -34219,7 +34221,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="489" ht="40" hidden="1" spans="2:4">
+    <row r="489" ht="37.5" hidden="1" spans="2:4">
       <c r="B489" s="1" t="s">
         <v>1584</v>
       </c>
@@ -34230,7 +34232,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="490" ht="60" spans="1:5">
+    <row r="490" ht="56.25" hidden="1" spans="1:5">
       <c r="A490" s="1">
         <v>0</v>
       </c>
@@ -34247,7 +34249,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" hidden="1" spans="1:4">
       <c r="A491" s="1">
         <v>0</v>
       </c>
@@ -34261,7 +34263,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="492" ht="40" hidden="1" spans="2:4">
+    <row r="492" ht="37.5" hidden="1" spans="2:4">
       <c r="B492" s="1" t="s">
         <v>1594</v>
       </c>
@@ -34272,7 +34274,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="493" ht="40" spans="1:4">
+    <row r="493" ht="37.5" hidden="1" spans="1:4">
       <c r="A493" s="1">
         <v>0</v>
       </c>
@@ -34286,7 +34288,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="494" ht="40" spans="1:4">
+    <row r="494" ht="37.5" hidden="1" spans="1:4">
       <c r="A494" s="1">
         <v>0</v>
       </c>
@@ -34300,7 +34302,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="495" ht="40" spans="1:4">
+    <row r="495" ht="37.5" hidden="1" spans="1:4">
       <c r="A495" s="1">
         <v>0</v>
       </c>
@@ -34314,7 +34316,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="496" ht="40" hidden="1" spans="2:4">
+    <row r="496" ht="37.5" hidden="1" spans="2:4">
       <c r="B496" s="1" t="s">
         <v>1606</v>
       </c>
@@ -34336,7 +34338,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="498" ht="40" spans="1:5">
+    <row r="498" ht="37.5" hidden="1" spans="1:5">
       <c r="A498" s="1">
         <v>0</v>
       </c>
@@ -34353,7 +34355,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="499" ht="24" hidden="1" spans="2:4">
+    <row r="499" hidden="1" spans="2:4">
       <c r="B499" s="1" t="s">
         <v>1616</v>
       </c>
@@ -34364,9 +34366,9 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="500" ht="40" spans="1:5">
+    <row r="500" ht="37.5" hidden="1" spans="1:5">
       <c r="A500" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>1619</v>
@@ -34381,7 +34383,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="501" ht="40" hidden="1" spans="2:4">
+    <row r="501" ht="37.5" hidden="1" spans="2:4">
       <c r="B501" s="1" t="s">
         <v>1623</v>
       </c>
@@ -34392,7 +34394,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="502" ht="40" hidden="1" spans="2:4">
+    <row r="502" ht="37.5" hidden="1" spans="2:4">
       <c r="B502" s="1" t="s">
         <v>1626</v>
       </c>
@@ -34403,9 +34405,9 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" hidden="1" spans="1:5">
       <c r="A503" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>1629</v>
@@ -34420,7 +34422,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="504" ht="23" hidden="1" spans="2:4">
+    <row r="504" hidden="1" spans="2:4">
       <c r="B504" s="1" t="s">
         <v>1633</v>
       </c>
@@ -34431,9 +34433,9 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="505" ht="40" spans="1:5">
+    <row r="505" ht="37.5" spans="1:5">
       <c r="A505" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>1636</v>
@@ -34448,9 +34450,9 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="506" ht="40" spans="1:4">
+    <row r="506" ht="37.5" hidden="1" spans="1:4">
       <c r="A506" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>1640</v>
@@ -34462,9 +34464,9 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" hidden="1" spans="1:5">
       <c r="A507" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>1643</v>
@@ -34479,9 +34481,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" ht="60" spans="1:5">
+    <row r="508" ht="37.5" spans="1:5">
       <c r="A508" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>1646</v>
@@ -34507,7 +34509,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="510" ht="23" hidden="1" spans="2:4">
+    <row r="510" hidden="1" spans="2:4">
       <c r="B510" s="1" t="s">
         <v>1653</v>
       </c>
@@ -34518,9 +34520,9 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="511" ht="40" spans="1:5">
+    <row r="511" ht="37.5" spans="1:5">
       <c r="A511" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>1656</v>
@@ -34535,9 +34537,9 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" hidden="1" spans="1:5">
       <c r="A512" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>1660</v>
@@ -34552,9 +34554,9 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="513" ht="40" spans="1:4">
+    <row r="513" ht="37.5" spans="1:4">
       <c r="A513" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>1664</v>
@@ -34566,7 +34568,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="514" ht="40" hidden="1" spans="2:4">
+    <row r="514" ht="37.5" hidden="1" spans="2:4">
       <c r="B514" s="1" t="s">
         <v>1667</v>
       </c>
@@ -34577,7 +34579,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="515" ht="40" hidden="1" spans="2:4">
+    <row r="515" ht="37.5" hidden="1" spans="2:4">
       <c r="B515" s="1" t="s">
         <v>1670</v>
       </c>
@@ -34588,7 +34590,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="516" ht="40" hidden="1" spans="2:4">
+    <row r="516" ht="37.5" hidden="1" spans="2:4">
       <c r="B516" s="1" t="s">
         <v>1673</v>
       </c>
@@ -34599,7 +34601,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="517" ht="40" hidden="1" spans="2:4">
+    <row r="517" ht="37.5" hidden="1" spans="2:4">
       <c r="B517" s="1" t="s">
         <v>1676</v>
       </c>
@@ -34610,9 +34612,9 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="518" ht="40" spans="1:4">
+    <row r="518" ht="37.5" spans="1:4">
       <c r="A518" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>1679</v>
@@ -34624,9 +34626,9 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="519" ht="40" spans="1:4">
+    <row r="519" ht="37.5" hidden="1" spans="1:4">
       <c r="A519" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>1682</v>
@@ -34638,9 +34640,9 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="520" ht="60" spans="1:5">
+    <row r="520" ht="56.25" hidden="1" spans="1:5">
       <c r="A520" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>1685</v>
@@ -34655,7 +34657,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="521" ht="44" hidden="1" spans="2:5">
+    <row r="521" ht="37.5" hidden="1" spans="2:5">
       <c r="B521" s="1" t="s">
         <v>1689</v>
       </c>
@@ -34669,7 +34671,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="522" ht="40" hidden="1" spans="2:4">
+    <row r="522" ht="37.5" hidden="1" spans="2:4">
       <c r="B522" s="1" t="s">
         <v>1693</v>
       </c>
@@ -34680,7 +34682,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="523" ht="24" hidden="1" spans="2:4">
+    <row r="523" hidden="1" spans="2:4">
       <c r="B523" s="1" t="s">
         <v>1696</v>
       </c>
@@ -34691,7 +34693,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="524" ht="40" hidden="1" spans="2:4">
+    <row r="524" ht="37.5" hidden="1" spans="2:4">
       <c r="B524" s="1" t="s">
         <v>1699</v>
       </c>
@@ -34713,9 +34715,9 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="526" ht="40" spans="1:4">
+    <row r="526" ht="37.5" hidden="1" spans="1:4">
       <c r="A526" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>1705</v>
@@ -34727,9 +34729,9 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="527" ht="24" spans="1:4">
+    <row r="527" hidden="1" spans="1:4">
       <c r="A527" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>1708</v>
@@ -34743,7 +34745,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>1711</v>
@@ -34757,7 +34759,7 @@
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>1714</v>
@@ -34769,7 +34771,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="530" ht="40" hidden="1" spans="2:4">
+    <row r="530" ht="37.5" hidden="1" spans="2:4">
       <c r="B530" s="1" t="s">
         <v>1717</v>
       </c>
@@ -34780,9 +34782,9 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="531" ht="40" spans="1:4">
+    <row r="531" ht="37.5" hidden="1" spans="1:4">
       <c r="A531" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>1720</v>
@@ -34794,9 +34796,9 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="532" ht="40" spans="1:4">
+    <row r="532" ht="37.5" spans="1:4">
       <c r="A532" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>1723</v>
@@ -34808,7 +34810,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="533" ht="40" hidden="1" spans="2:4">
+    <row r="533" ht="37.5" hidden="1" spans="2:4">
       <c r="B533" s="1" t="s">
         <v>1726</v>
       </c>
@@ -34819,9 +34821,9 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="534" ht="80" spans="1:5">
+    <row r="534" ht="75" spans="1:5">
       <c r="A534" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>1729</v>
@@ -34847,7 +34849,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="536" ht="40" hidden="1" spans="2:5">
+    <row r="536" ht="37.5" hidden="1" spans="2:5">
       <c r="B536" s="1" t="s">
         <v>1736</v>
       </c>
@@ -34861,9 +34863,9 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="537" ht="24" spans="1:4">
+    <row r="537" spans="1:4">
       <c r="A537" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>1740</v>
@@ -34886,9 +34888,9 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="539" ht="24" spans="1:4">
+    <row r="539" hidden="1" spans="1:4">
       <c r="A539" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>1746</v>
@@ -34900,9 +34902,9 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" hidden="1" spans="1:4">
       <c r="A540" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>1749</v>
@@ -34914,9 +34916,9 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" hidden="1" spans="1:5">
       <c r="A541" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>1752</v>
@@ -34956,9 +34958,9 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="544" ht="40" spans="1:4">
+    <row r="544" ht="37.5" hidden="1" spans="1:4">
       <c r="A544" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>1763</v>
@@ -34970,7 +34972,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="545" ht="23" hidden="1" spans="2:4">
+    <row r="545" hidden="1" spans="2:4">
       <c r="B545" s="1" t="s">
         <v>1766</v>
       </c>
@@ -34981,9 +34983,9 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="546" ht="40" spans="1:5">
+    <row r="546" hidden="1" spans="1:5">
       <c r="A546" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>1769</v>
@@ -35012,9 +35014,9 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="548" ht="40" spans="1:5">
+    <row r="548" ht="37.5" spans="1:5">
       <c r="A548" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>1777</v>
@@ -35029,7 +35031,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="549" ht="24" hidden="1" spans="2:4">
+    <row r="549" hidden="1" spans="2:4">
       <c r="B549" s="1" t="s">
         <v>1781</v>
       </c>
@@ -35040,9 +35042,9 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="550" ht="40" spans="1:4">
+    <row r="550" ht="37.5" spans="1:4">
       <c r="A550" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>1784</v>
@@ -35056,7 +35058,7 @@
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>1787</v>
@@ -35068,7 +35070,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="552" ht="40" hidden="1" spans="2:4">
+    <row r="552" ht="37.5" hidden="1" spans="2:4">
       <c r="B552" s="1" t="s">
         <v>1790</v>
       </c>
@@ -35079,9 +35081,9 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="553" ht="40" spans="1:4">
+    <row r="553" ht="37.5" hidden="1" spans="1:4">
       <c r="A553" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>1793</v>
@@ -35095,7 +35097,7 @@
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>1796</v>
@@ -35107,7 +35109,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="555" ht="24" hidden="1" spans="2:4">
+    <row r="555" hidden="1" spans="2:4">
       <c r="B555" s="1" t="s">
         <v>1799</v>
       </c>
@@ -35129,7 +35131,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="557" ht="24" hidden="1" spans="2:4">
+    <row r="557" hidden="1" spans="2:4">
       <c r="B557" s="1" t="s">
         <v>1805</v>
       </c>
@@ -35140,7 +35142,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="558" ht="40" hidden="1" spans="2:4">
+    <row r="558" ht="37.5" hidden="1" spans="2:4">
       <c r="B558" s="1" t="s">
         <v>1808</v>
       </c>
@@ -35151,7 +35153,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="559" ht="24" hidden="1" spans="2:5">
+    <row r="559" hidden="1" spans="2:5">
       <c r="B559" s="1" t="s">
         <v>1811</v>
       </c>
@@ -35165,7 +35167,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="560" ht="24" hidden="1" spans="2:4">
+    <row r="560" hidden="1" spans="2:4">
       <c r="B560" s="1" t="s">
         <v>1815</v>
       </c>
@@ -35201,9 +35203,9 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" hidden="1" spans="1:5">
       <c r="A563" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>1825</v>
@@ -35218,7 +35220,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="564" ht="40" hidden="1" spans="2:4">
+    <row r="564" ht="37.5" hidden="1" spans="2:4">
       <c r="B564" s="1" t="s">
         <v>1829</v>
       </c>
@@ -35229,9 +35231,9 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="565" ht="24" spans="1:4">
+    <row r="565" spans="1:4">
       <c r="A565" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>1832</v>
@@ -35243,7 +35245,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="566" ht="100" hidden="1" spans="2:5">
+    <row r="566" ht="75" hidden="1" spans="2:5">
       <c r="B566" s="1" t="s">
         <v>1835</v>
       </c>
@@ -35257,9 +35259,9 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" hidden="1" spans="1:5">
       <c r="A567" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>1839</v>
@@ -35274,9 +35276,9 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" hidden="1" spans="1:5">
       <c r="A568" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>1843</v>
@@ -35291,9 +35293,9 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" hidden="1" spans="1:4">
       <c r="A569" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>1847</v>
@@ -35305,9 +35307,9 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="570" ht="40" spans="1:4">
+    <row r="570" ht="37.5" hidden="1" spans="1:4">
       <c r="A570" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>1850</v>
@@ -35319,9 +35321,9 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="571" ht="24" spans="1:4">
+    <row r="571" spans="1:4">
       <c r="A571" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>1853</v>
@@ -35333,9 +35335,9 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="572" ht="23" spans="1:4">
+    <row r="572" hidden="1" spans="1:4">
       <c r="A572" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>1856</v>
@@ -35361,7 +35363,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="574" ht="23" hidden="1" spans="2:4">
+    <row r="574" hidden="1" spans="2:4">
       <c r="B574" s="1" t="s">
         <v>1863</v>
       </c>
@@ -35372,7 +35374,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="575" ht="44" hidden="1" spans="2:4">
+    <row r="575" ht="37.5" hidden="1" spans="2:4">
       <c r="B575" s="1" t="s">
         <v>1866</v>
       </c>
@@ -35383,7 +35385,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="576" ht="24" hidden="1" spans="2:4">
+    <row r="576" hidden="1" spans="2:4">
       <c r="B576" s="1" t="s">
         <v>1869</v>
       </c>
@@ -35394,7 +35396,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="577" ht="24" hidden="1" spans="2:4">
+    <row r="577" hidden="1" spans="2:4">
       <c r="B577" s="1" t="s">
         <v>1872</v>
       </c>
@@ -35416,9 +35418,9 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="579" ht="24" spans="1:4">
+    <row r="579" spans="1:4">
       <c r="A579" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>1878</v>
@@ -35430,7 +35432,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="580" ht="40" hidden="1" spans="2:4">
+    <row r="580" ht="37.5" hidden="1" spans="2:4">
       <c r="B580" s="1" t="s">
         <v>1881</v>
       </c>
@@ -35441,9 +35443,9 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" hidden="1" spans="1:4">
       <c r="A581" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>1884</v>
@@ -35455,9 +35457,9 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="582" ht="24" spans="1:4">
+    <row r="582" hidden="1" spans="1:4">
       <c r="A582" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>1887</v>
@@ -35482,7 +35484,7 @@
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>1893</v>
@@ -35510,7 +35512,7 @@
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>1900</v>
@@ -35522,9 +35524,9 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" hidden="1" spans="1:4">
       <c r="A587" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>1903</v>
@@ -35536,7 +35538,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="588" ht="24" hidden="1" spans="2:4">
+    <row r="588" hidden="1" spans="2:4">
       <c r="B588" s="1" t="s">
         <v>1906</v>
       </c>
@@ -35558,7 +35560,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="590" ht="40" hidden="1" spans="2:4">
+    <row r="590" ht="37.5" hidden="1" spans="2:4">
       <c r="B590" s="1" t="s">
         <v>1912</v>
       </c>
@@ -35580,9 +35582,9 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" hidden="1" spans="1:4">
       <c r="A592" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>1918</v>
@@ -35594,9 +35596,9 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="593" ht="40" spans="1:5">
+    <row r="593" ht="37.5" hidden="1" spans="1:5">
       <c r="A593" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>1921</v>
@@ -35624,7 +35626,7 @@
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>1928</v>
@@ -35647,9 +35649,9 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" hidden="1" spans="1:5">
       <c r="A597" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>1934</v>
@@ -35664,9 +35666,9 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="598" ht="40" spans="1:5">
+    <row r="598" ht="37.5" hidden="1" spans="1:5">
       <c r="A598" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>1938</v>
@@ -35681,9 +35683,9 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" hidden="1" spans="1:4">
       <c r="A599" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>1942</v>
@@ -35695,9 +35697,9 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="600" ht="24" spans="1:4">
+    <row r="600" hidden="1" spans="1:4">
       <c r="A600" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>1945</v>
@@ -35709,7 +35711,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="601" ht="24" hidden="1" spans="2:4">
+    <row r="601" hidden="1" spans="2:4">
       <c r="B601" s="1" t="s">
         <v>1948</v>
       </c>
@@ -35745,7 +35747,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="604" ht="24" hidden="1" spans="2:5">
+    <row r="604" hidden="1" spans="2:5">
       <c r="B604" s="1" t="s">
         <v>1958</v>
       </c>
@@ -35770,7 +35772,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="606" ht="24" hidden="1" spans="2:4">
+    <row r="606" hidden="1" spans="2:4">
       <c r="B606" s="1" t="s">
         <v>1965</v>
       </c>
@@ -35781,7 +35783,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="607" ht="24" hidden="1" spans="2:5">
+    <row r="607" hidden="1" spans="2:5">
       <c r="B607" s="1" t="s">
         <v>1968</v>
       </c>
@@ -35795,7 +35797,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="608" ht="24" hidden="1" spans="2:5">
+    <row r="608" hidden="1" spans="2:5">
       <c r="B608" s="1" t="s">
         <v>1972</v>
       </c>
@@ -35809,7 +35811,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="609" ht="40" hidden="1" spans="2:5">
+    <row r="609" ht="37.5" hidden="1" spans="2:5">
       <c r="B609" s="1" t="s">
         <v>1975</v>
       </c>
@@ -35834,7 +35836,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="611" ht="24" hidden="1" spans="2:5">
+    <row r="611" hidden="1" spans="2:5">
       <c r="B611" s="1" t="s">
         <v>1982</v>
       </c>
@@ -35884,7 +35886,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="615" ht="40" hidden="1" spans="2:4">
+    <row r="615" ht="37.5" hidden="1" spans="2:4">
       <c r="B615" s="1" t="s">
         <v>1996</v>
       </c>
@@ -35917,7 +35919,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="618" ht="24" hidden="1" spans="2:4">
+    <row r="618" hidden="1" spans="2:4">
       <c r="B618" s="1" t="s">
         <v>2005</v>
       </c>
@@ -35950,7 +35952,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="621" ht="24" hidden="1" spans="2:4">
+    <row r="621" hidden="1" spans="2:4">
       <c r="B621" s="1" t="s">
         <v>2014</v>
       </c>
@@ -35975,7 +35977,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="623" ht="24" hidden="1" spans="2:4">
+    <row r="623" hidden="1" spans="2:4">
       <c r="B623" s="1" t="s">
         <v>2021</v>
       </c>
@@ -36008,7 +36010,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="626" ht="40" hidden="1" spans="2:4">
+    <row r="626" ht="37.5" hidden="1" spans="2:4">
       <c r="B626" s="1" t="s">
         <v>2030</v>
       </c>
@@ -36041,7 +36043,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="629" ht="23" hidden="1" spans="2:4">
+    <row r="629" hidden="1" spans="2:4">
       <c r="B629" s="1" t="s">
         <v>2039</v>
       </c>
@@ -36052,7 +36054,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="630" ht="40" hidden="1" spans="2:4">
+    <row r="630" ht="37.5" hidden="1" spans="2:4">
       <c r="B630" s="1" t="s">
         <v>2042</v>
       </c>
@@ -36063,7 +36065,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="631" ht="24" hidden="1" spans="2:4">
+    <row r="631" hidden="1" spans="2:4">
       <c r="B631" s="1" t="s">
         <v>2045</v>
       </c>
@@ -36074,7 +36076,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="632" ht="24" hidden="1" spans="2:4">
+    <row r="632" hidden="1" spans="2:4">
       <c r="B632" s="1" t="s">
         <v>2048</v>
       </c>
@@ -36085,7 +36087,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="633" ht="40" hidden="1" spans="2:4">
+    <row r="633" ht="37.5" hidden="1" spans="2:4">
       <c r="B633" s="1" t="s">
         <v>2051</v>
       </c>
@@ -36187,7 +36189,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="642" ht="40" hidden="1" spans="2:4">
+    <row r="642" ht="37.5" hidden="1" spans="2:4">
       <c r="B642" s="1" t="s">
         <v>2079</v>
       </c>
@@ -36198,7 +36200,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="643" ht="40" hidden="1" spans="2:4">
+    <row r="643" ht="37.5" hidden="1" spans="2:4">
       <c r="B643" s="1" t="s">
         <v>2082</v>
       </c>
@@ -36259,7 +36261,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="648" ht="24" hidden="1" spans="2:4">
+    <row r="648" hidden="1" spans="2:4">
       <c r="B648" s="1" t="s">
         <v>2099</v>
       </c>
@@ -36270,7 +36272,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="649" ht="40" hidden="1" spans="2:5">
+    <row r="649" ht="37.5" hidden="1" spans="2:5">
       <c r="B649" s="1" t="s">
         <v>2102</v>
       </c>
@@ -36284,7 +36286,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="650" ht="40" hidden="1" spans="2:4">
+    <row r="650" ht="37.5" hidden="1" spans="2:4">
       <c r="B650" s="1" t="s">
         <v>2106</v>
       </c>
@@ -36306,7 +36308,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="652" ht="24" hidden="1" spans="2:4">
+    <row r="652" hidden="1" spans="2:4">
       <c r="B652" s="1" t="s">
         <v>2112</v>
       </c>
@@ -36317,7 +36319,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="653" ht="60" hidden="1" spans="2:5">
+    <row r="653" ht="37.5" hidden="1" spans="2:5">
       <c r="B653" s="1" t="s">
         <v>2115</v>
       </c>
@@ -36331,7 +36333,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="654" ht="23" hidden="1" spans="2:4">
+    <row r="654" hidden="1" spans="2:4">
       <c r="B654" s="1" t="s">
         <v>2119</v>
       </c>
@@ -36342,7 +36344,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="655" ht="40" hidden="1" spans="2:4">
+    <row r="655" ht="37.5" hidden="1" spans="2:4">
       <c r="B655" s="1" t="s">
         <v>2122</v>
       </c>
@@ -36367,7 +36369,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="657" ht="40" hidden="1" spans="2:5">
+    <row r="657" ht="37.5" hidden="1" spans="2:5">
       <c r="B657" s="1" t="s">
         <v>2128</v>
       </c>
@@ -36395,7 +36397,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="659" ht="24" hidden="1" spans="2:5">
+    <row r="659" hidden="1" spans="2:5">
       <c r="B659" s="1" t="s">
         <v>2134</v>
       </c>
@@ -36409,7 +36411,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="660" ht="24" hidden="1" spans="2:4">
+    <row r="660" hidden="1" spans="2:4">
       <c r="B660" s="1" t="s">
         <v>2138</v>
       </c>
@@ -36500,7 +36502,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="668" ht="24" hidden="1" spans="2:4">
+    <row r="668" hidden="1" spans="2:4">
       <c r="B668" s="1" t="s">
         <v>2163</v>
       </c>
@@ -36511,7 +36513,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="669" ht="40" hidden="1" spans="2:4">
+    <row r="669" ht="37.5" hidden="1" spans="2:4">
       <c r="B669" s="1" t="s">
         <v>2166</v>
       </c>
@@ -36610,7 +36612,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="678" ht="40" hidden="1" spans="2:5">
+    <row r="678" hidden="1" spans="2:5">
       <c r="B678" s="1" t="s">
         <v>2193</v>
       </c>
@@ -36646,7 +36648,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="681" ht="40" hidden="1" spans="2:4">
+    <row r="681" ht="37.5" hidden="1" spans="2:4">
       <c r="B681" s="1" t="s">
         <v>2202</v>
       </c>
@@ -36657,7 +36659,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="682" ht="23" hidden="1" spans="2:4">
+    <row r="682" hidden="1" spans="2:4">
       <c r="B682" s="1" t="s">
         <v>2205</v>
       </c>
@@ -36682,7 +36684,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="684" ht="40" hidden="1" spans="2:5">
+    <row r="684" ht="37.5" hidden="1" spans="2:5">
       <c r="B684" s="1" t="s">
         <v>2212</v>
       </c>
@@ -36710,7 +36712,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="686" ht="140" hidden="1" spans="2:5">
+    <row r="686" ht="112.5" hidden="1" spans="2:5">
       <c r="B686" s="1" t="s">
         <v>2220</v>
       </c>
@@ -36738,7 +36740,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="688" ht="24" hidden="1" spans="2:4">
+    <row r="688" hidden="1" spans="2:4">
       <c r="B688" s="1" t="s">
         <v>2228</v>
       </c>
@@ -36760,7 +36762,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="690" ht="40" hidden="1" spans="2:4">
+    <row r="690" ht="37.5" hidden="1" spans="2:4">
       <c r="B690" s="1" t="s">
         <v>2234</v>
       </c>
@@ -36793,7 +36795,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="693" ht="23" hidden="1" spans="2:4">
+    <row r="693" hidden="1" spans="2:4">
       <c r="B693" s="1" t="s">
         <v>2243</v>
       </c>
@@ -36826,7 +36828,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="696" ht="23" hidden="1" spans="2:4">
+    <row r="696" hidden="1" spans="2:4">
       <c r="B696" s="1" t="s">
         <v>2252</v>
       </c>
@@ -36837,7 +36839,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="697" ht="24" hidden="1" spans="2:4">
+    <row r="697" hidden="1" spans="2:4">
       <c r="B697" s="1" t="s">
         <v>2255</v>
       </c>
@@ -36870,7 +36872,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="700" ht="40" hidden="1" spans="2:4">
+    <row r="700" ht="37.5" hidden="1" spans="2:4">
       <c r="B700" s="1" t="s">
         <v>2264</v>
       </c>
@@ -36906,7 +36908,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="703" ht="80" hidden="1" spans="2:5">
+    <row r="703" ht="56.25" hidden="1" spans="2:5">
       <c r="B703" s="1" t="s">
         <v>2274</v>
       </c>
@@ -36920,7 +36922,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="704" ht="40" hidden="1" spans="2:4">
+    <row r="704" ht="37.5" hidden="1" spans="2:4">
       <c r="B704" s="1" t="s">
         <v>2278</v>
       </c>
@@ -36931,7 +36933,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="705" ht="24" hidden="1" spans="2:4">
+    <row r="705" hidden="1" spans="2:4">
       <c r="B705" s="1" t="s">
         <v>2281</v>
       </c>
@@ -36978,7 +36980,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="709" ht="24" hidden="1" spans="2:4">
+    <row r="709" hidden="1" spans="2:4">
       <c r="B709" s="1" t="s">
         <v>2294</v>
       </c>
@@ -37036,7 +37038,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="714" ht="24" hidden="1" spans="2:4">
+    <row r="714" hidden="1" spans="2:4">
       <c r="B714" s="1" t="s">
         <v>2310</v>
       </c>
@@ -37047,7 +37049,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="715" ht="40" hidden="1" spans="2:4">
+    <row r="715" ht="37.5" hidden="1" spans="2:4">
       <c r="B715" s="1" t="s">
         <v>2313</v>
       </c>
@@ -37058,7 +37060,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="716" ht="40" hidden="1" spans="2:4">
+    <row r="716" ht="37.5" hidden="1" spans="2:4">
       <c r="B716" s="1" t="s">
         <v>2316</v>
       </c>
@@ -37116,7 +37118,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="721" ht="40" hidden="1" spans="2:4">
+    <row r="721" ht="37.5" hidden="1" spans="2:4">
       <c r="B721" s="1" t="s">
         <v>2332</v>
       </c>
@@ -37127,7 +37129,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="722" ht="23" hidden="1" spans="2:4">
+    <row r="722" hidden="1" spans="2:4">
       <c r="B722" s="1" t="s">
         <v>2335</v>
       </c>
@@ -37218,7 +37220,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="730" ht="40" hidden="1" spans="2:4">
+    <row r="730" ht="37.5" hidden="1" spans="2:4">
       <c r="B730" s="1" t="s">
         <v>2359</v>
       </c>
@@ -37282,7 +37284,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="735" ht="24" hidden="1" spans="2:4">
+    <row r="735" hidden="1" spans="2:4">
       <c r="B735" s="1" t="s">
         <v>2377</v>
       </c>
@@ -37293,7 +37295,7 @@
         <v>2379</v>
       </c>
     </row>
-    <row r="736" ht="24" hidden="1" spans="2:4">
+    <row r="736" hidden="1" spans="2:4">
       <c r="B736" s="1" t="s">
         <v>2380</v>
       </c>
@@ -37315,7 +37317,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="738" ht="40" hidden="1" spans="2:4">
+    <row r="738" ht="37.5" hidden="1" spans="2:4">
       <c r="B738" s="1" t="s">
         <v>2386</v>
       </c>
@@ -37337,7 +37339,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="740" ht="40" hidden="1" spans="2:5">
+    <row r="740" ht="37.5" hidden="1" spans="2:5">
       <c r="B740" s="1" t="s">
         <v>2392</v>
       </c>
@@ -37351,7 +37353,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="741" ht="40" hidden="1" spans="2:4">
+    <row r="741" ht="37.5" hidden="1" spans="2:4">
       <c r="B741" s="1" t="s">
         <v>2396</v>
       </c>
@@ -37373,7 +37375,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="743" ht="23" hidden="1" spans="2:4">
+    <row r="743" hidden="1" spans="2:4">
       <c r="B743" s="1" t="s">
         <v>2402</v>
       </c>
@@ -37439,7 +37441,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="749" ht="24" hidden="1" spans="2:4">
+    <row r="749" hidden="1" spans="2:4">
       <c r="B749" s="1" t="s">
         <v>2420</v>
       </c>
@@ -37489,7 +37491,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="753" ht="24" hidden="1" spans="2:4">
+    <row r="753" hidden="1" spans="2:4">
       <c r="B753" s="1" t="s">
         <v>2433</v>
       </c>
@@ -37522,7 +37524,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="756" ht="24" hidden="1" spans="2:4">
+    <row r="756" hidden="1" spans="2:4">
       <c r="B756" s="1" t="s">
         <v>2442</v>
       </c>
@@ -37533,7 +37535,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="757" ht="40" hidden="1" spans="2:4">
+    <row r="757" ht="37.5" hidden="1" spans="2:4">
       <c r="B757" s="1" t="s">
         <v>2445</v>
       </c>
@@ -37580,7 +37582,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="761" ht="24" hidden="1" spans="2:4">
+    <row r="761" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2458</v>
       </c>
@@ -37591,7 +37593,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="762" ht="24" hidden="1" spans="2:4">
+    <row r="762" hidden="1" spans="2:4">
       <c r="B762" s="1" t="s">
         <v>2461</v>
       </c>
@@ -37613,7 +37615,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="764" ht="24" hidden="1" spans="2:4">
+    <row r="764" hidden="1" spans="2:4">
       <c r="B764" s="1" t="s">
         <v>2467</v>
       </c>
@@ -37635,7 +37637,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="766" ht="24" hidden="1" spans="2:4">
+    <row r="766" hidden="1" spans="2:4">
       <c r="B766" s="1" t="s">
         <v>2473</v>
       </c>
@@ -37646,7 +37648,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="767" ht="24" hidden="1" spans="2:4">
+    <row r="767" hidden="1" spans="2:4">
       <c r="B767" s="1" t="s">
         <v>2476</v>
       </c>
@@ -37668,7 +37670,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="769" ht="24" hidden="1" spans="2:5">
+    <row r="769" hidden="1" spans="2:5">
       <c r="B769" s="1" t="s">
         <v>2482</v>
       </c>
@@ -37693,7 +37695,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="771" ht="24" hidden="1" spans="2:4">
+    <row r="771" hidden="1" spans="2:4">
       <c r="B771" s="1" t="s">
         <v>2489</v>
       </c>
@@ -37704,7 +37706,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="772" ht="40" hidden="1" spans="2:4">
+    <row r="772" ht="37.5" hidden="1" spans="2:4">
       <c r="B772" s="1" t="s">
         <v>835</v>
       </c>
@@ -37715,7 +37717,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="773" ht="24" hidden="1" spans="2:4">
+    <row r="773" hidden="1" spans="2:4">
       <c r="B773" s="1" t="s">
         <v>2494</v>
       </c>
@@ -37726,7 +37728,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="774" ht="24" hidden="1" spans="2:4">
+    <row r="774" hidden="1" spans="2:4">
       <c r="B774" s="1" t="s">
         <v>2497</v>
       </c>
@@ -37737,7 +37739,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="775" ht="40" hidden="1" spans="2:4">
+    <row r="775" ht="37.5" hidden="1" spans="2:4">
       <c r="B775" s="1" t="s">
         <v>2500</v>
       </c>
@@ -37773,7 +37775,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="778" ht="40" hidden="1" spans="2:4">
+    <row r="778" ht="37.5" hidden="1" spans="2:4">
       <c r="B778" s="1" t="s">
         <v>2510</v>
       </c>
@@ -37872,7 +37874,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="787" ht="140" hidden="1" spans="2:5">
+    <row r="787" ht="131.25" hidden="1" spans="2:5">
       <c r="B787" s="1" t="s">
         <v>2537</v>
       </c>
@@ -37886,7 +37888,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="788" ht="24" hidden="1" spans="2:4">
+    <row r="788" hidden="1" spans="2:4">
       <c r="B788" s="1" t="s">
         <v>2541</v>
       </c>
@@ -37919,7 +37921,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="791" ht="40" hidden="1" spans="2:5">
+    <row r="791" ht="37.5" hidden="1" spans="2:5">
       <c r="B791" s="1" t="s">
         <v>2550</v>
       </c>
@@ -37947,7 +37949,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="793" ht="23" hidden="1" spans="2:4">
+    <row r="793" hidden="1" spans="2:4">
       <c r="B793" s="1" t="s">
         <v>2558</v>
       </c>
@@ -38002,7 +38004,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="798" ht="40" hidden="1" spans="2:4">
+    <row r="798" ht="37.5" hidden="1" spans="2:4">
       <c r="B798" s="1" t="s">
         <v>2573</v>
       </c>
@@ -38024,7 +38026,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="800" ht="140" hidden="1" spans="2:5">
+    <row r="800" ht="112.5" hidden="1" spans="2:5">
       <c r="B800" s="1" t="s">
         <v>2579</v>
       </c>
@@ -38049,7 +38051,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="802" ht="24" hidden="1" spans="2:4">
+    <row r="802" hidden="1" spans="2:4">
       <c r="B802" s="1" t="s">
         <v>2586</v>
       </c>
@@ -38060,7 +38062,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="803" ht="23" hidden="1" spans="2:4">
+    <row r="803" hidden="1" spans="2:4">
       <c r="B803" s="1" t="s">
         <v>2589</v>
       </c>
@@ -38093,7 +38095,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="806" ht="24" hidden="1" spans="2:4">
+    <row r="806" hidden="1" spans="2:4">
       <c r="B806" s="1" t="s">
         <v>2598</v>
       </c>
@@ -38129,7 +38131,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="809" ht="40" hidden="1" spans="2:4">
+    <row r="809" ht="37.5" hidden="1" spans="2:4">
       <c r="B809" s="1" t="s">
         <v>2608</v>
       </c>
@@ -38162,7 +38164,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="812" ht="24" hidden="1" spans="2:4">
+    <row r="812" hidden="1" spans="2:4">
       <c r="B812" s="1" t="s">
         <v>2617</v>
       </c>
@@ -38173,7 +38175,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="813" ht="24" hidden="1" spans="2:4">
+    <row r="813" hidden="1" spans="2:4">
       <c r="B813" s="1" t="s">
         <v>2620</v>
       </c>
@@ -38184,7 +38186,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="814" ht="40" hidden="1" spans="2:5">
+    <row r="814" ht="37.5" hidden="1" spans="2:5">
       <c r="B814" s="1" t="s">
         <v>2623</v>
       </c>
@@ -38245,7 +38247,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="819" ht="40" hidden="1" spans="2:4">
+    <row r="819" ht="37.5" hidden="1" spans="2:4">
       <c r="B819" s="1" t="s">
         <v>2639</v>
       </c>
@@ -38292,7 +38294,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="823" ht="40" hidden="1" spans="2:4">
+    <row r="823" ht="37.5" hidden="1" spans="2:4">
       <c r="B823" s="1" t="s">
         <v>2652</v>
       </c>
@@ -38314,7 +38316,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="825" ht="23" hidden="1" spans="2:4">
+    <row r="825" hidden="1" spans="2:4">
       <c r="B825" s="1" t="s">
         <v>2658</v>
       </c>
@@ -38325,7 +38327,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="826" ht="24" hidden="1" spans="2:4">
+    <row r="826" hidden="1" spans="2:4">
       <c r="B826" s="1" t="s">
         <v>2661</v>
       </c>
@@ -38347,7 +38349,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="828" ht="23" hidden="1" spans="2:4">
+    <row r="828" hidden="1" spans="2:4">
       <c r="B828" s="1" t="s">
         <v>2667</v>
       </c>
@@ -38358,7 +38360,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="829" ht="160" hidden="1" spans="2:5">
+    <row r="829" ht="150" hidden="1" spans="2:5">
       <c r="B829" s="1" t="s">
         <v>2670</v>
       </c>
@@ -38397,7 +38399,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="832" ht="24" hidden="1" spans="2:4">
+    <row r="832" hidden="1" spans="2:4">
       <c r="B832" s="1" t="s">
         <v>2681</v>
       </c>
@@ -38408,7 +38410,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="833" ht="120" hidden="1" spans="2:5">
+    <row r="833" ht="112.5" hidden="1" spans="2:5">
       <c r="B833" s="1" t="s">
         <v>2684</v>
       </c>
@@ -38444,7 +38446,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="836" ht="40" hidden="1" spans="2:5">
+    <row r="836" ht="37.5" hidden="1" spans="2:5">
       <c r="B836" s="1" t="s">
         <v>2694</v>
       </c>
@@ -38480,7 +38482,7 @@
         <v>2702</v>
       </c>
     </row>
-    <row r="839" ht="24" hidden="1" spans="2:4">
+    <row r="839" hidden="1" spans="2:4">
       <c r="B839" s="1" t="s">
         <v>2703</v>
       </c>
@@ -38546,7 +38548,7 @@
         <v>2720</v>
       </c>
     </row>
-    <row r="845" ht="24" hidden="1" spans="2:4">
+    <row r="845" hidden="1" spans="2:4">
       <c r="B845" s="1" t="s">
         <v>2721</v>
       </c>
@@ -38568,7 +38570,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="847" ht="40" hidden="1" spans="2:4">
+    <row r="847" ht="37.5" hidden="1" spans="2:4">
       <c r="B847" s="1" t="s">
         <v>2727</v>
       </c>
@@ -38648,7 +38650,7 @@
         <v>2748</v>
       </c>
     </row>
-    <row r="854" ht="24" hidden="1" spans="2:4">
+    <row r="854" ht="37.5" hidden="1" spans="2:4">
       <c r="B854" s="1" t="s">
         <v>2749</v>
       </c>
@@ -38692,7 +38694,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="858" ht="23" hidden="1" spans="2:4">
+    <row r="858" hidden="1" spans="2:4">
       <c r="B858" s="1" t="s">
         <v>2761</v>
       </c>
@@ -38736,7 +38738,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="862" ht="24" hidden="1" spans="2:5">
+    <row r="862" hidden="1" spans="2:5">
       <c r="B862" s="1" t="s">
         <v>2773</v>
       </c>
@@ -38750,7 +38752,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="863" ht="40" hidden="1" spans="2:4">
+    <row r="863" ht="37.5" hidden="1" spans="2:4">
       <c r="B863" s="1" t="s">
         <v>2777</v>
       </c>
@@ -38761,7 +38763,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="864" ht="40" hidden="1" spans="2:4">
+    <row r="864" ht="37.5" hidden="1" spans="2:4">
       <c r="B864" s="1" t="s">
         <v>2780</v>
       </c>
@@ -38772,7 +38774,7 @@
         <v>2782</v>
       </c>
     </row>
-    <row r="865" ht="24" hidden="1" spans="2:4">
+    <row r="865" hidden="1" spans="2:4">
       <c r="B865" s="1" t="s">
         <v>2783</v>
       </c>
@@ -38816,7 +38818,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="869" ht="24" hidden="1" spans="2:4">
+    <row r="869" hidden="1" spans="2:4">
       <c r="B869" s="1" t="s">
         <v>2795</v>
       </c>
@@ -38841,7 +38843,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="871" ht="24" hidden="1" spans="2:4">
+    <row r="871" hidden="1" spans="2:4">
       <c r="B871" s="1" t="s">
         <v>2802</v>
       </c>
@@ -38863,7 +38865,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="873" ht="24" hidden="1" spans="2:4">
+    <row r="873" hidden="1" spans="2:4">
       <c r="B873" s="1" t="s">
         <v>2808</v>
       </c>
@@ -38885,7 +38887,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="875" ht="24" hidden="1" spans="2:4">
+    <row r="875" hidden="1" spans="2:4">
       <c r="B875" s="1" t="s">
         <v>2814</v>
       </c>
@@ -38932,7 +38934,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="879" ht="40" hidden="1" spans="2:5">
+    <row r="879" ht="37.5" hidden="1" spans="2:5">
       <c r="B879" s="1" t="s">
         <v>2827</v>
       </c>
@@ -38946,7 +38948,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="880" ht="24" hidden="1" spans="2:4">
+    <row r="880" hidden="1" spans="2:4">
       <c r="B880" s="1" t="s">
         <v>2831</v>
       </c>
@@ -38968,7 +38970,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="882" ht="23" hidden="1" spans="2:4">
+    <row r="882" hidden="1" spans="2:4">
       <c r="B882" s="1" t="s">
         <v>2837</v>
       </c>
@@ -39026,7 +39028,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="887" ht="23" hidden="1" spans="2:4">
+    <row r="887" hidden="1" spans="2:4">
       <c r="B887" s="1" t="s">
         <v>2853</v>
       </c>
@@ -39070,7 +39072,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="891" ht="96" hidden="1" spans="2:5">
+    <row r="891" ht="75" hidden="1" spans="2:5">
       <c r="B891" s="1" t="s">
         <v>2865</v>
       </c>
@@ -39095,7 +39097,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="893" ht="24" hidden="1" spans="2:4">
+    <row r="893" hidden="1" spans="2:4">
       <c r="B893" s="1" t="s">
         <v>2872</v>
       </c>
@@ -39117,7 +39119,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="895" ht="40" hidden="1" spans="2:4">
+    <row r="895" ht="37.5" hidden="1" spans="2:4">
       <c r="B895" s="1" t="s">
         <v>2878</v>
       </c>
@@ -39194,7 +39196,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="902" ht="24" hidden="1" spans="2:4">
+    <row r="902" hidden="1" spans="2:4">
       <c r="B902" s="1" t="s">
         <v>2899</v>
       </c>
@@ -39205,7 +39207,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="903" ht="24" hidden="1" spans="2:4">
+    <row r="903" hidden="1" spans="2:4">
       <c r="B903" s="1" t="s">
         <v>2902</v>
       </c>
@@ -39227,7 +39229,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="905" ht="40" hidden="1" spans="2:4">
+    <row r="905" ht="37.5" hidden="1" spans="2:4">
       <c r="B905" s="1" t="s">
         <v>2908</v>
       </c>
@@ -39293,7 +39295,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="911" ht="24" hidden="1" spans="2:4">
+    <row r="911" hidden="1" spans="2:4">
       <c r="B911" s="1" t="s">
         <v>2926</v>
       </c>
@@ -39304,7 +39306,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="912" ht="100" hidden="1" spans="2:5">
+    <row r="912" ht="75" hidden="1" spans="2:5">
       <c r="B912" s="1" t="s">
         <v>2929</v>
       </c>
@@ -39318,7 +39320,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="913" ht="60" hidden="1" spans="2:5">
+    <row r="913" ht="56.25" hidden="1" spans="2:5">
       <c r="B913" s="1" t="s">
         <v>2933</v>
       </c>
@@ -39332,7 +39334,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="914" ht="60" hidden="1" spans="2:5">
+    <row r="914" ht="56.25" hidden="1" spans="2:5">
       <c r="B914" s="1" t="s">
         <v>2937</v>
       </c>
@@ -39371,7 +39373,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="917" ht="24" hidden="1" spans="2:4">
+    <row r="917" hidden="1" spans="2:4">
       <c r="B917" s="1" t="s">
         <v>2947</v>
       </c>
@@ -39415,7 +39417,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="921" ht="24" hidden="1" spans="2:4">
+    <row r="921" hidden="1" spans="2:4">
       <c r="B921" s="1" t="s">
         <v>2959</v>
       </c>
@@ -39426,7 +39428,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="922" ht="44" hidden="1" spans="2:4">
+    <row r="922" hidden="1" spans="2:4">
       <c r="B922" s="1" t="s">
         <v>2962</v>
       </c>
@@ -39448,7 +39450,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="924" ht="116" hidden="1" spans="2:5">
+    <row r="924" ht="93.75" hidden="1" spans="2:5">
       <c r="B924" s="1" t="s">
         <v>2968</v>
       </c>
@@ -39484,7 +39486,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="927" ht="24" hidden="1" spans="2:4">
+    <row r="927" hidden="1" spans="2:4">
       <c r="B927" s="1" t="s">
         <v>2978</v>
       </c>
@@ -39517,7 +39519,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="930" ht="24" hidden="1" spans="2:5">
+    <row r="930" hidden="1" spans="2:5">
       <c r="B930" s="1" t="s">
         <v>2987</v>
       </c>
@@ -39542,7 +39544,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="932" ht="24" hidden="1" spans="2:4">
+    <row r="932" hidden="1" spans="2:4">
       <c r="B932" s="1" t="s">
         <v>2994</v>
       </c>
@@ -39553,7 +39555,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="933" ht="40" hidden="1" spans="2:4">
+    <row r="933" ht="37.5" hidden="1" spans="2:4">
       <c r="B933" s="1" t="s">
         <v>2997</v>
       </c>
@@ -39622,7 +39624,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="939" ht="40" hidden="1" spans="2:4">
+    <row r="939" ht="37.5" hidden="1" spans="2:4">
       <c r="B939" s="1" t="s">
         <v>3016</v>
       </c>
@@ -39677,7 +39679,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="944" ht="24" hidden="1" spans="2:5">
+    <row r="944" hidden="1" spans="2:5">
       <c r="B944" s="1" t="s">
         <v>3031</v>
       </c>
@@ -39691,7 +39693,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="945" ht="40" hidden="1" spans="2:4">
+    <row r="945" ht="37.5" hidden="1" spans="2:4">
       <c r="B945" s="1" t="s">
         <v>3035</v>
       </c>
@@ -39702,7 +39704,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="946" ht="60" hidden="1" spans="2:5">
+    <row r="946" ht="56.25" hidden="1" spans="2:5">
       <c r="B946" s="1" t="s">
         <v>3038</v>
       </c>
@@ -39727,7 +39729,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="948" ht="24" hidden="1" spans="2:4">
+    <row r="948" hidden="1" spans="2:4">
       <c r="B948" s="1" t="s">
         <v>3045</v>
       </c>
@@ -39738,7 +39740,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="949" ht="23" hidden="1" spans="2:4">
+    <row r="949" hidden="1" spans="2:4">
       <c r="B949" s="1" t="s">
         <v>3048</v>
       </c>
@@ -39749,7 +39751,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="950" ht="23" hidden="1" spans="2:5">
+    <row r="950" hidden="1" spans="2:5">
       <c r="B950" s="1" t="s">
         <v>3051</v>
       </c>
@@ -39774,7 +39776,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="952" ht="24" hidden="1" spans="2:4">
+    <row r="952" hidden="1" spans="2:4">
       <c r="B952" s="1" t="s">
         <v>3057</v>
       </c>
@@ -39796,7 +39798,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="954" ht="120" hidden="1" spans="2:5">
+    <row r="954" ht="112.5" hidden="1" spans="2:5">
       <c r="B954" s="1" t="s">
         <v>3063</v>
       </c>
@@ -39810,7 +39812,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="955" ht="120" hidden="1" spans="2:5">
+    <row r="955" ht="93.75" hidden="1" spans="2:5">
       <c r="B955" s="1" t="s">
         <v>3067</v>
       </c>
@@ -39824,7 +39826,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="956" ht="24" hidden="1" spans="2:4">
+    <row r="956" hidden="1" spans="2:4">
       <c r="B956" s="1" t="s">
         <v>3071</v>
       </c>
@@ -39835,7 +39837,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="957" ht="40" hidden="1" spans="2:4">
+    <row r="957" ht="37.5" hidden="1" spans="2:4">
       <c r="B957" s="1" t="s">
         <v>3074</v>
       </c>
@@ -39868,7 +39870,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="960" ht="40" hidden="1" spans="2:4">
+    <row r="960" ht="37.5" hidden="1" spans="2:4">
       <c r="B960" s="1" t="s">
         <v>3083</v>
       </c>
@@ -39879,7 +39881,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="961" ht="24" hidden="1" spans="2:4">
+    <row r="961" hidden="1" spans="2:4">
       <c r="B961" s="1" t="s">
         <v>3086</v>
       </c>
@@ -39890,7 +39892,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="962" ht="24" hidden="1" spans="2:5">
+    <row r="962" hidden="1" spans="2:5">
       <c r="B962" s="1" t="s">
         <v>3089</v>
       </c>
@@ -39904,7 +39906,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="963" ht="40" hidden="1" spans="2:5">
+    <row r="963" ht="37.5" hidden="1" spans="2:5">
       <c r="B963" s="1" t="s">
         <v>3093</v>
       </c>
@@ -39918,7 +39920,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="964" ht="24" hidden="1" spans="2:5">
+    <row r="964" hidden="1" spans="2:5">
       <c r="B964" s="1" t="s">
         <v>3097</v>
       </c>
@@ -39932,7 +39934,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="965" ht="23" hidden="1" spans="2:4">
+    <row r="965" hidden="1" spans="2:4">
       <c r="B965" s="1" t="s">
         <v>3101</v>
       </c>
@@ -39976,7 +39978,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="969" ht="24" hidden="1" spans="2:4">
+    <row r="969" hidden="1" spans="2:4">
       <c r="B969" s="1" t="s">
         <v>3113</v>
       </c>
@@ -40045,7 +40047,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="975" ht="40" hidden="1" spans="2:4">
+    <row r="975" ht="37.5" hidden="1" spans="2:4">
       <c r="B975" s="1" t="s">
         <v>3131</v>
       </c>
@@ -40117,7 +40119,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="981" ht="24" hidden="1" spans="2:4">
+    <row r="981" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
         <v>3151</v>
       </c>
@@ -40128,7 +40130,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="982" ht="24" hidden="1" spans="2:4">
+    <row r="982" hidden="1" spans="2:4">
       <c r="B982" s="1" t="s">
         <v>3154</v>
       </c>
@@ -40183,7 +40185,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="987" ht="40" hidden="1" spans="2:4">
+    <row r="987" ht="37.5" hidden="1" spans="2:4">
       <c r="B987" s="1" t="s">
         <v>3169</v>
       </c>
@@ -40205,7 +40207,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="989" ht="43" hidden="1" spans="2:4">
+    <row r="989" hidden="1" spans="2:4">
       <c r="B989" s="1" t="s">
         <v>3175</v>
       </c>
@@ -40227,7 +40229,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="991" ht="40" hidden="1" spans="2:4">
+    <row r="991" ht="37.5" hidden="1" spans="2:4">
       <c r="B991" s="1" t="s">
         <v>3181</v>
       </c>
@@ -40249,7 +40251,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="993" ht="24" hidden="1" spans="2:4">
+    <row r="993" hidden="1" spans="2:4">
       <c r="B993" s="1" t="s">
         <v>3187</v>
       </c>
@@ -40260,7 +40262,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="994" ht="40" hidden="1" spans="2:5">
+    <row r="994" ht="37.5" hidden="1" spans="2:5">
       <c r="B994" s="1" t="s">
         <v>3189</v>
       </c>
@@ -40296,7 +40298,7 @@
         <v>3198</v>
       </c>
     </row>
-    <row r="997" ht="120" hidden="1" spans="2:5">
+    <row r="997" ht="93.75" hidden="1" spans="2:5">
       <c r="B997" s="1" t="s">
         <v>3199</v>
       </c>
@@ -40332,7 +40334,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="1000" ht="120" hidden="1" spans="2:5">
+    <row r="1000" ht="93.75" hidden="1" spans="2:5">
       <c r="B1000" s="1" t="s">
         <v>3209</v>
       </c>
@@ -40346,7 +40348,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="1001" ht="40" hidden="1" spans="2:4">
+    <row r="1001" ht="37.5" hidden="1" spans="2:4">
       <c r="B1001" s="1" t="s">
         <v>3213</v>
       </c>
@@ -40357,7 +40359,7 @@
         <v>3215</v>
       </c>
     </row>
-    <row r="1002" ht="40" hidden="1" spans="2:4">
+    <row r="1002" ht="37.5" hidden="1" spans="2:4">
       <c r="B1002" s="1" t="s">
         <v>3216</v>
       </c>
@@ -40368,7 +40370,7 @@
         <v>3218</v>
       </c>
     </row>
-    <row r="1003" ht="40" hidden="1" spans="2:4">
+    <row r="1003" ht="37.5" hidden="1" spans="2:4">
       <c r="B1003" s="1" t="s">
         <v>3219</v>
       </c>
@@ -40415,7 +40417,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="1007" ht="24" hidden="1" spans="2:4">
+    <row r="1007" hidden="1" spans="2:4">
       <c r="B1007" s="1" t="s">
         <v>3232</v>
       </c>
@@ -40437,7 +40439,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="1009" ht="24" hidden="1" spans="2:4">
+    <row r="1009" hidden="1" spans="2:4">
       <c r="B1009" s="1" t="s">
         <v>3238</v>
       </c>
@@ -40534,7 +40536,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="1017" ht="23" hidden="1" spans="2:4">
+    <row r="1017" hidden="1" spans="2:4">
       <c r="B1017" s="1" t="s">
         <v>3264</v>
       </c>
@@ -40578,7 +40580,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="1021" ht="24" hidden="1" spans="2:4">
+    <row r="1021" hidden="1" spans="2:4">
       <c r="B1021" s="1" t="s">
         <v>3276</v>
       </c>
@@ -40589,7 +40591,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="1022" ht="23" hidden="1" spans="2:4">
+    <row r="1022" hidden="1" spans="2:4">
       <c r="B1022" s="1" t="s">
         <v>3279</v>
       </c>
@@ -40614,7 +40616,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="1024" ht="24" hidden="1" spans="2:4">
+    <row r="1024" hidden="1" spans="2:4">
       <c r="B1024" s="1" t="s">
         <v>3285</v>
       </c>
@@ -40639,7 +40641,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="1026" ht="24" hidden="1" spans="2:4">
+    <row r="1026" hidden="1" spans="2:4">
       <c r="B1026" s="1" t="s">
         <v>3292</v>
       </c>
@@ -40694,7 +40696,7 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="1031" ht="24" hidden="1" spans="2:4">
+    <row r="1031" hidden="1" spans="2:4">
       <c r="B1031" s="1" t="s">
         <v>3307</v>
       </c>
@@ -40716,7 +40718,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="1033" ht="40" hidden="1" spans="2:5">
+    <row r="1033" ht="37.5" hidden="1" spans="2:5">
       <c r="B1033" s="1" t="s">
         <v>3313</v>
       </c>
@@ -40741,7 +40743,7 @@
         <v>3318</v>
       </c>
     </row>
-    <row r="1035" ht="40" hidden="1" spans="2:4">
+    <row r="1035" ht="37.5" hidden="1" spans="2:4">
       <c r="B1035" s="1" t="s">
         <v>3319</v>
       </c>
@@ -40752,7 +40754,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="1036" ht="80" hidden="1" spans="2:5">
+    <row r="1036" ht="56.25" hidden="1" spans="2:5">
       <c r="B1036" s="1" t="s">
         <v>3322</v>
       </c>
@@ -40766,7 +40768,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="1037" ht="40" hidden="1" spans="2:4">
+    <row r="1037" ht="37.5" hidden="1" spans="2:4">
       <c r="B1037" s="1" t="s">
         <v>3326</v>
       </c>
@@ -40832,7 +40834,7 @@
         <v>3342</v>
       </c>
     </row>
-    <row r="1043" ht="80" hidden="1" spans="2:5">
+    <row r="1043" ht="56.25" hidden="1" spans="2:5">
       <c r="B1043" s="1" t="s">
         <v>3343</v>
       </c>
@@ -40846,7 +40848,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="1044" ht="40" hidden="1" spans="2:4">
+    <row r="1044" ht="37.5" hidden="1" spans="2:4">
       <c r="B1044" s="1" t="s">
         <v>3347</v>
       </c>
@@ -40923,7 +40925,7 @@
         <v>3367</v>
       </c>
     </row>
-    <row r="1051" ht="24" hidden="1" spans="2:5">
+    <row r="1051" hidden="1" spans="2:5">
       <c r="B1051" s="1" t="s">
         <v>3368</v>
       </c>
@@ -40948,7 +40950,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="1053" ht="40" hidden="1" spans="2:4">
+    <row r="1053" ht="37.5" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
         <v>3375</v>
       </c>
@@ -40970,7 +40972,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="1055" ht="24" hidden="1" spans="2:4">
+    <row r="1055" hidden="1" spans="2:4">
       <c r="B1055" s="1" t="s">
         <v>3381</v>
       </c>
@@ -40992,7 +40994,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="1057" ht="80" hidden="1" spans="2:5">
+    <row r="1057" ht="75" hidden="1" spans="2:5">
       <c r="B1057" s="1" t="s">
         <v>3387</v>
       </c>
@@ -41017,7 +41019,7 @@
         <v>3393</v>
       </c>
     </row>
-    <row r="1059" ht="40" hidden="1" spans="2:4">
+    <row r="1059" ht="37.5" hidden="1" spans="2:4">
       <c r="B1059" s="1" t="s">
         <v>3394</v>
       </c>
@@ -41094,7 +41096,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="1066" ht="24" hidden="1" spans="2:4">
+    <row r="1066" hidden="1" spans="2:4">
       <c r="B1066" s="1" t="s">
         <v>3415</v>
       </c>
@@ -41105,7 +41107,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="1067" ht="23" hidden="1" spans="2:4">
+    <row r="1067" hidden="1" spans="2:4">
       <c r="B1067" s="1" t="s">
         <v>3418</v>
       </c>
@@ -41127,7 +41129,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="1069" ht="24" hidden="1" spans="2:4">
+    <row r="1069" hidden="1" spans="2:4">
       <c r="B1069" s="1" t="s">
         <v>3424</v>
       </c>
@@ -41174,7 +41176,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="1073" ht="24" hidden="1" spans="2:4">
+    <row r="1073" hidden="1" spans="2:4">
       <c r="B1073" s="1" t="s">
         <v>3437</v>
       </c>
@@ -41196,7 +41198,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="1075" ht="100" hidden="1" spans="2:5">
+    <row r="1075" ht="75" hidden="1" spans="2:5">
       <c r="B1075" s="1" t="s">
         <v>3443</v>
       </c>
@@ -41224,7 +41226,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="1077" ht="24" hidden="1" spans="2:4">
+    <row r="1077" hidden="1" spans="2:4">
       <c r="B1077" s="1" t="s">
         <v>3451</v>
       </c>
@@ -41235,7 +41237,7 @@
         <v>3453</v>
       </c>
     </row>
-    <row r="1078" ht="24" hidden="1" spans="2:4">
+    <row r="1078" hidden="1" spans="2:4">
       <c r="B1078" s="1" t="s">
         <v>3454</v>
       </c>
@@ -41268,7 +41270,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="1081" ht="140" hidden="1" spans="2:5">
+    <row r="1081" ht="112.5" hidden="1" spans="2:5">
       <c r="B1081" s="1" t="s">
         <v>3463</v>
       </c>
@@ -41293,7 +41295,7 @@
         <v>3469</v>
       </c>
     </row>
-    <row r="1083" ht="24" hidden="1" spans="2:4">
+    <row r="1083" hidden="1" spans="2:4">
       <c r="B1083" s="1" t="s">
         <v>3470</v>
       </c>
@@ -41318,7 +41320,7 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="1085" ht="40" hidden="1" spans="2:4">
+    <row r="1085" ht="37.5" hidden="1" spans="2:4">
       <c r="B1085" s="1" t="s">
         <v>3477</v>
       </c>
@@ -41329,7 +41331,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="1086" ht="24" hidden="1" spans="2:4">
+    <row r="1086" hidden="1" spans="2:4">
       <c r="B1086" s="1" t="s">
         <v>3480</v>
       </c>
@@ -41340,7 +41342,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="1087" ht="24" hidden="1" spans="2:4">
+    <row r="1087" hidden="1" spans="2:4">
       <c r="B1087" s="1" t="s">
         <v>3483</v>
       </c>
@@ -41351,7 +41353,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="1088" ht="40" hidden="1" spans="2:4">
+    <row r="1088" ht="37.5" hidden="1" spans="2:4">
       <c r="B1088" s="1" t="s">
         <v>3486</v>
       </c>
@@ -41395,7 +41397,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="1092" ht="40" hidden="1" spans="2:4">
+    <row r="1092" ht="37.5" hidden="1" spans="2:4">
       <c r="B1092" s="1" t="s">
         <v>3498</v>
       </c>
@@ -41417,7 +41419,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="1094" ht="24" hidden="1" spans="2:4">
+    <row r="1094" hidden="1" spans="2:4">
       <c r="B1094" s="1" t="s">
         <v>3504</v>
       </c>
@@ -41428,7 +41430,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="1095" ht="24" hidden="1" spans="2:4">
+    <row r="1095" hidden="1" spans="2:4">
       <c r="B1095" s="1" t="s">
         <v>3507</v>
       </c>
@@ -41439,7 +41441,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="1096" ht="24" hidden="1" spans="2:4">
+    <row r="1096" hidden="1" spans="2:4">
       <c r="B1096" s="1" t="s">
         <v>3510</v>
       </c>
@@ -41450,7 +41452,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="1097" ht="24" hidden="1" spans="2:5">
+    <row r="1097" hidden="1" spans="2:5">
       <c r="B1097" s="1" t="s">
         <v>3513</v>
       </c>
@@ -41464,7 +41466,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="1098" ht="23" hidden="1" spans="2:4">
+    <row r="1098" hidden="1" spans="2:4">
       <c r="B1098" s="1" t="s">
         <v>3516</v>
       </c>
@@ -41475,7 +41477,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="1099" ht="24" hidden="1" spans="2:4">
+    <row r="1099" hidden="1" spans="2:4">
       <c r="B1099" s="1" t="s">
         <v>3519</v>
       </c>
@@ -41497,7 +41499,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="1101" ht="40" hidden="1" spans="2:4">
+    <row r="1101" ht="37.5" hidden="1" spans="2:4">
       <c r="B1101" s="1" t="s">
         <v>3525</v>
       </c>
@@ -41547,7 +41549,7 @@
         <v>3538</v>
       </c>
     </row>
-    <row r="1105" ht="40" hidden="1" spans="2:4">
+    <row r="1105" ht="37.5" hidden="1" spans="2:4">
       <c r="B1105" s="1" t="s">
         <v>3539</v>
       </c>
@@ -41558,7 +41560,7 @@
         <v>3541</v>
       </c>
     </row>
-    <row r="1106" ht="23" hidden="1" spans="2:4">
+    <row r="1106" hidden="1" spans="2:4">
       <c r="B1106" s="1" t="s">
         <v>3542</v>
       </c>
@@ -41569,7 +41571,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="1107" ht="24" hidden="1" spans="2:4">
+    <row r="1107" hidden="1" spans="2:4">
       <c r="B1107" s="1" t="s">
         <v>3545</v>
       </c>
@@ -41591,7 +41593,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="1109" ht="60" hidden="1" spans="2:5">
+    <row r="1109" ht="37.5" hidden="1" spans="2:5">
       <c r="B1109" s="1" t="s">
         <v>3551</v>
       </c>
@@ -41605,7 +41607,7 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="1110" ht="40" hidden="1" spans="2:5">
+    <row r="1110" ht="37.5" hidden="1" spans="2:5">
       <c r="B1110" s="1" t="s">
         <v>3555</v>
       </c>
@@ -41619,7 +41621,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="1111" ht="24" hidden="1" spans="2:4">
+    <row r="1111" hidden="1" spans="2:4">
       <c r="B1111" s="1" t="s">
         <v>3559</v>
       </c>
@@ -41641,7 +41643,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="1113" ht="40" hidden="1" spans="2:4">
+    <row r="1113" hidden="1" spans="2:4">
       <c r="B1113" s="1" t="s">
         <v>3565</v>
       </c>
@@ -41652,7 +41654,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="1114" ht="80" hidden="1" spans="2:5">
+    <row r="1114" ht="56.25" hidden="1" spans="2:5">
       <c r="B1114" s="1" t="s">
         <v>3568</v>
       </c>
@@ -41702,7 +41704,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="1118" ht="40" hidden="1" spans="2:5">
+    <row r="1118" ht="37.5" hidden="1" spans="2:5">
       <c r="B1118" s="1" t="s">
         <v>3582</v>
       </c>
@@ -41730,7 +41732,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="1120" ht="40" hidden="1" spans="2:4">
+    <row r="1120" ht="37.5" hidden="1" spans="2:4">
       <c r="B1120" s="1" t="s">
         <v>3590</v>
       </c>
@@ -41741,7 +41743,7 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="1121" ht="40" hidden="1" spans="2:5">
+    <row r="1121" ht="37.5" hidden="1" spans="2:5">
       <c r="B1121" s="1" t="s">
         <v>3593</v>
       </c>
@@ -41755,7 +41757,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="1122" ht="160" hidden="1" spans="2:5">
+    <row r="1122" ht="131.25" hidden="1" spans="2:5">
       <c r="B1122" s="1" t="s">
         <v>3597</v>
       </c>
@@ -41769,7 +41771,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="1123" ht="40" hidden="1" spans="2:5">
+    <row r="1123" ht="37.5" hidden="1" spans="2:5">
       <c r="B1123" s="1" t="s">
         <v>3601</v>
       </c>
@@ -41783,7 +41785,7 @@
         <v>3604</v>
       </c>
     </row>
-    <row r="1124" ht="40" hidden="1" spans="2:4">
+    <row r="1124" ht="37.5" hidden="1" spans="2:4">
       <c r="B1124" s="1" t="s">
         <v>3605</v>
       </c>
@@ -41794,7 +41796,7 @@
         <v>3607</v>
       </c>
     </row>
-    <row r="1125" ht="24" hidden="1" spans="2:4">
+    <row r="1125" hidden="1" spans="2:4">
       <c r="B1125" s="1" t="s">
         <v>3608</v>
       </c>
@@ -41805,7 +41807,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="1126" ht="40" hidden="1" spans="2:5">
+    <row r="1126" ht="37.5" hidden="1" spans="2:5">
       <c r="B1126" s="1" t="s">
         <v>3611</v>
       </c>
@@ -41830,7 +41832,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="1128" ht="60" hidden="1" spans="2:5">
+    <row r="1128" ht="56.25" hidden="1" spans="2:5">
       <c r="B1128" s="1" t="s">
         <v>3618</v>
       </c>
@@ -41855,7 +41857,7 @@
         <v>3624</v>
       </c>
     </row>
-    <row r="1130" ht="40" hidden="1" spans="2:4">
+    <row r="1130" ht="37.5" hidden="1" spans="2:4">
       <c r="B1130" s="1" t="s">
         <v>3625</v>
       </c>
@@ -41866,7 +41868,7 @@
         <v>3627</v>
       </c>
     </row>
-    <row r="1131" ht="40" hidden="1" spans="2:4">
+    <row r="1131" ht="37.5" hidden="1" spans="2:4">
       <c r="B1131" s="1" t="s">
         <v>3628</v>
       </c>
@@ -41888,7 +41890,7 @@
         <v>3633</v>
       </c>
     </row>
-    <row r="1133" ht="23" hidden="1" spans="2:4">
+    <row r="1133" hidden="1" spans="2:4">
       <c r="B1133" s="1" t="s">
         <v>3634</v>
       </c>
@@ -41899,7 +41901,7 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="1134" ht="120" hidden="1" spans="2:5">
+    <row r="1134" ht="93.75" hidden="1" spans="2:5">
       <c r="B1134" s="1" t="s">
         <v>3637</v>
       </c>
@@ -41913,7 +41915,7 @@
         <v>3640</v>
       </c>
     </row>
-    <row r="1135" ht="40" hidden="1" spans="2:4">
+    <row r="1135" ht="37.5" hidden="1" spans="2:4">
       <c r="B1135" s="1" t="s">
         <v>3641</v>
       </c>
@@ -41924,7 +41926,7 @@
         <v>3643</v>
       </c>
     </row>
-    <row r="1136" ht="60" hidden="1" spans="2:5">
+    <row r="1136" ht="56.25" hidden="1" spans="2:5">
       <c r="B1136" s="1" t="s">
         <v>3644</v>
       </c>
@@ -41938,7 +41940,7 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="1137" ht="40" hidden="1" spans="2:4">
+    <row r="1137" ht="37.5" hidden="1" spans="2:4">
       <c r="B1137" s="1" t="s">
         <v>3648</v>
       </c>
@@ -41949,7 +41951,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="1138" ht="40" hidden="1" spans="2:4">
+    <row r="1138" ht="37.5" hidden="1" spans="2:4">
       <c r="B1138" s="1" t="s">
         <v>3651</v>
       </c>
@@ -41960,7 +41962,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="1139" ht="23" hidden="1" spans="2:4">
+    <row r="1139" hidden="1" spans="2:4">
       <c r="B1139" s="1" t="s">
         <v>3654</v>
       </c>
@@ -41971,7 +41973,7 @@
         <v>3656</v>
       </c>
     </row>
-    <row r="1140" ht="77" hidden="1" spans="2:5">
+    <row r="1140" ht="56.25" hidden="1" spans="2:5">
       <c r="B1140" s="1" t="s">
         <v>3657</v>
       </c>
@@ -41996,7 +41998,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="1142" ht="24" hidden="1" spans="2:4">
+    <row r="1142" hidden="1" spans="2:4">
       <c r="B1142" s="1" t="s">
         <v>3664</v>
       </c>
@@ -42007,7 +42009,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="1143" ht="40" hidden="1" spans="2:4">
+    <row r="1143" ht="37.5" hidden="1" spans="2:4">
       <c r="B1143" s="1" t="s">
         <v>3667</v>
       </c>
@@ -42018,7 +42020,7 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="1144" ht="120" hidden="1" spans="2:5">
+    <row r="1144" ht="112.5" hidden="1" spans="2:5">
       <c r="B1144" s="1" t="s">
         <v>3670</v>
       </c>
@@ -42032,7 +42034,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="1145" ht="77" hidden="1" spans="2:5">
+    <row r="1145" ht="56.25" hidden="1" spans="2:5">
       <c r="B1145" s="1" t="s">
         <v>3674</v>
       </c>
@@ -42046,7 +42048,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="1146" ht="160" hidden="1" spans="2:5">
+    <row r="1146" ht="131.25" hidden="1" spans="2:5">
       <c r="B1146" s="1" t="s">
         <v>3678</v>
       </c>
@@ -42071,7 +42073,7 @@
         <v>3684</v>
       </c>
     </row>
-    <row r="1148" ht="140" hidden="1" spans="2:5">
+    <row r="1148" ht="131.25" hidden="1" spans="2:5">
       <c r="B1148" s="1" t="s">
         <v>3685</v>
       </c>
@@ -42085,7 +42087,7 @@
         <v>3688</v>
       </c>
     </row>
-    <row r="1149" ht="160" hidden="1" spans="2:5">
+    <row r="1149" ht="131.25" hidden="1" spans="2:5">
       <c r="B1149" s="1" t="s">
         <v>3689</v>
       </c>
@@ -42099,7 +42101,7 @@
         <v>3692</v>
       </c>
     </row>
-    <row r="1150" ht="40" hidden="1" spans="2:4">
+    <row r="1150" ht="37.5" hidden="1" spans="2:4">
       <c r="B1150" s="1" t="s">
         <v>3693</v>
       </c>
@@ -42110,7 +42112,7 @@
         <v>3695</v>
       </c>
     </row>
-    <row r="1151" ht="40" hidden="1" spans="2:5">
+    <row r="1151" ht="37.5" hidden="1" spans="2:5">
       <c r="B1151" s="1" t="s">
         <v>3696</v>
       </c>
@@ -42124,7 +42126,7 @@
         <v>3699</v>
       </c>
     </row>
-    <row r="1152" ht="180" hidden="1" spans="2:5">
+    <row r="1152" ht="150" hidden="1" spans="2:5">
       <c r="B1152" s="1" t="s">
         <v>3700</v>
       </c>
@@ -42196,7 +42198,7 @@
         <v>3719</v>
       </c>
     </row>
-    <row r="1158" ht="40" hidden="1" spans="2:4">
+    <row r="1158" ht="37.5" hidden="1" spans="2:4">
       <c r="B1158" s="1" t="s">
         <v>3720</v>
       </c>
@@ -42218,7 +42220,7 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="1160" ht="40" hidden="1" spans="2:4">
+    <row r="1160" ht="37.5" hidden="1" spans="2:4">
       <c r="B1160" s="1" t="s">
         <v>3726</v>
       </c>
@@ -42268,7 +42270,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="1164" ht="40" hidden="1" spans="2:4">
+    <row r="1164" ht="37.5" hidden="1" spans="2:4">
       <c r="B1164" s="1" t="s">
         <v>3740</v>
       </c>
@@ -42315,7 +42317,7 @@
         <v>3752</v>
       </c>
     </row>
-    <row r="1168" ht="23" hidden="1" spans="2:4">
+    <row r="1168" hidden="1" spans="2:4">
       <c r="B1168" s="1" t="s">
         <v>3753</v>
       </c>
@@ -42417,7 +42419,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="1177" ht="23" hidden="1" spans="2:4">
+    <row r="1177" hidden="1" spans="2:4">
       <c r="B1177" s="1" t="s">
         <v>3781</v>
       </c>
@@ -42428,7 +42430,7 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="1178" ht="24" hidden="1" spans="2:5">
+    <row r="1178" hidden="1" spans="2:5">
       <c r="B1178" s="1" t="s">
         <v>3784</v>
       </c>
@@ -42442,7 +42444,7 @@
         <v>3787</v>
       </c>
     </row>
-    <row r="1179" ht="24" hidden="1" spans="2:4">
+    <row r="1179" hidden="1" spans="2:4">
       <c r="B1179" s="1" t="s">
         <v>3788</v>
       </c>
@@ -42453,7 +42455,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="1180" ht="24" hidden="1" spans="2:4">
+    <row r="1180" hidden="1" spans="2:4">
       <c r="B1180" s="1" t="s">
         <v>3791</v>
       </c>
@@ -42475,7 +42477,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="1182" ht="106" hidden="1" spans="2:5">
+    <row r="1182" ht="93.75" hidden="1" spans="2:5">
       <c r="B1182" s="1" t="s">
         <v>3797</v>
       </c>
@@ -42533,7 +42535,7 @@
         <v>3812</v>
       </c>
     </row>
-    <row r="1187" ht="40" hidden="1" spans="2:5">
+    <row r="1187" ht="37.5" hidden="1" spans="2:5">
       <c r="B1187" s="1" t="s">
         <v>3813</v>
       </c>
@@ -42572,7 +42574,7 @@
         <v>3823</v>
       </c>
     </row>
-    <row r="1190" ht="120" hidden="1" spans="2:5">
+    <row r="1190" ht="112.5" hidden="1" spans="2:5">
       <c r="B1190" s="1" t="s">
         <v>3824</v>
       </c>
@@ -42611,7 +42613,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="1193" ht="60" hidden="1" spans="2:5">
+    <row r="1193" ht="56.25" hidden="1" spans="2:5">
       <c r="B1193" s="1" t="s">
         <v>3835</v>
       </c>
@@ -42680,7 +42682,7 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="1199" ht="24" hidden="1" spans="2:4">
+    <row r="1199" hidden="1" spans="2:4">
       <c r="B1199" s="1" t="s">
         <v>3854</v>
       </c>
@@ -42691,7 +42693,7 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="1200" ht="24" hidden="1" spans="2:5">
+    <row r="1200" hidden="1" spans="2:5">
       <c r="B1200" s="1" t="s">
         <v>3857</v>
       </c>
@@ -42719,7 +42721,7 @@
         <v>3864</v>
       </c>
     </row>
-    <row r="1202" ht="24" hidden="1" spans="2:4">
+    <row r="1202" hidden="1" spans="2:4">
       <c r="B1202" s="1" t="s">
         <v>3865</v>
       </c>
@@ -42730,7 +42732,7 @@
         <v>3867</v>
       </c>
     </row>
-    <row r="1203" ht="23" hidden="1" spans="2:4">
+    <row r="1203" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
         <v>3868</v>
       </c>
@@ -42752,7 +42754,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="1205" ht="24" hidden="1" spans="2:4">
+    <row r="1205" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
         <v>3874</v>
       </c>
@@ -42821,7 +42823,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="1211" ht="100" hidden="1" spans="2:5">
+    <row r="1211" ht="75" hidden="1" spans="2:5">
       <c r="B1211" s="1" t="s">
         <v>3893</v>
       </c>
@@ -42871,7 +42873,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="1215" ht="23" hidden="1" spans="2:5">
+    <row r="1215" hidden="1" spans="2:5">
       <c r="B1215" s="1" t="s">
         <v>3906</v>
       </c>
@@ -42968,7 +42970,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="1223" ht="24" hidden="1" spans="2:4">
+    <row r="1223" hidden="1" spans="2:4">
       <c r="B1223" s="1" t="s">
         <v>3933</v>
       </c>
@@ -42979,7 +42981,7 @@
         <v>3935</v>
       </c>
     </row>
-    <row r="1224" ht="40" hidden="1" spans="2:4">
+    <row r="1224" ht="37.5" hidden="1" spans="2:4">
       <c r="B1224" s="1" t="s">
         <v>3936</v>
       </c>
@@ -43001,7 +43003,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="1226" ht="24" hidden="1" spans="2:4">
+    <row r="1226" hidden="1" spans="2:4">
       <c r="B1226" s="1" t="s">
         <v>3942</v>
       </c>
@@ -43012,7 +43014,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="1227" ht="120" hidden="1" spans="2:5">
+    <row r="1227" ht="112.5" hidden="1" spans="2:5">
       <c r="B1227" s="1" t="s">
         <v>3945</v>
       </c>
@@ -43073,7 +43075,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="1232" ht="40" hidden="1" spans="2:4">
+    <row r="1232" ht="37.5" hidden="1" spans="2:4">
       <c r="B1232" s="1" t="s">
         <v>3962</v>
       </c>
@@ -43150,7 +43152,7 @@
         <v>3982</v>
       </c>
     </row>
-    <row r="1239" ht="80" hidden="1" spans="2:5">
+    <row r="1239" ht="75" hidden="1" spans="2:5">
       <c r="B1239" s="1" t="s">
         <v>3983</v>
       </c>
@@ -43164,7 +43166,7 @@
         <v>3986</v>
       </c>
     </row>
-    <row r="1240" ht="24" hidden="1" spans="2:4">
+    <row r="1240" hidden="1" spans="2:4">
       <c r="B1240" s="1" t="s">
         <v>3987</v>
       </c>
@@ -43186,7 +43188,7 @@
         <v>3992</v>
       </c>
     </row>
-    <row r="1242" ht="40" hidden="1" spans="2:4">
+    <row r="1242" ht="37.5" hidden="1" spans="2:4">
       <c r="B1242" s="1" t="s">
         <v>3993</v>
       </c>
@@ -43219,7 +43221,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="1245" ht="40" hidden="1" spans="2:4">
+    <row r="1245" ht="37.5" hidden="1" spans="2:4">
       <c r="B1245" s="1" t="s">
         <v>4002</v>
       </c>
@@ -43255,7 +43257,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="1248" ht="40" hidden="1" spans="2:4">
+    <row r="1248" ht="37.5" hidden="1" spans="2:4">
       <c r="B1248" s="1" t="s">
         <v>4011</v>
       </c>
@@ -43266,7 +43268,7 @@
         <v>4013</v>
       </c>
     </row>
-    <row r="1249" ht="40" hidden="1" spans="2:4">
+    <row r="1249" ht="37.5" hidden="1" spans="2:4">
       <c r="B1249" s="1" t="s">
         <v>4014</v>
       </c>
@@ -43288,7 +43290,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="1251" ht="23" hidden="1" spans="2:4">
+    <row r="1251" hidden="1" spans="2:4">
       <c r="B1251" s="1" t="s">
         <v>4020</v>
       </c>
@@ -43299,7 +43301,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="1252" ht="40" hidden="1" spans="2:5">
+    <row r="1252" ht="37.5" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
         <v>4023</v>
       </c>
@@ -43327,7 +43329,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="1254" ht="40" hidden="1" spans="2:4">
+    <row r="1254" ht="37.5" hidden="1" spans="2:4">
       <c r="B1254" s="1" t="s">
         <v>4031</v>
       </c>
@@ -43360,7 +43362,7 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="1257" ht="40" hidden="1" spans="2:4">
+    <row r="1257" ht="37.5" hidden="1" spans="2:4">
       <c r="B1257" s="1" t="s">
         <v>4040</v>
       </c>
@@ -43382,7 +43384,7 @@
         <v>4045</v>
       </c>
     </row>
-    <row r="1259" ht="40" hidden="1" spans="2:5">
+    <row r="1259" ht="37.5" hidden="1" spans="2:5">
       <c r="B1259" s="1" t="s">
         <v>4046</v>
       </c>
@@ -43440,7 +43442,7 @@
         <v>4061</v>
       </c>
     </row>
-    <row r="1264" ht="24" hidden="1" spans="2:4">
+    <row r="1264" hidden="1" spans="2:4">
       <c r="B1264" s="1" t="s">
         <v>4062</v>
       </c>
@@ -43542,7 +43544,7 @@
         <v>4089</v>
       </c>
     </row>
-    <row r="1273" ht="40" hidden="1" spans="2:4">
+    <row r="1273" ht="37.5" hidden="1" spans="2:4">
       <c r="B1273" s="1" t="s">
         <v>4090</v>
       </c>
@@ -43553,7 +43555,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="1274" ht="40" hidden="1" spans="2:4">
+    <row r="1274" ht="37.5" hidden="1" spans="2:4">
       <c r="B1274" s="1" t="s">
         <v>4093</v>
       </c>
@@ -43575,7 +43577,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="1276" ht="24" hidden="1" spans="2:4">
+    <row r="1276" hidden="1" spans="2:4">
       <c r="B1276" s="1" t="s">
         <v>4099</v>
       </c>
@@ -43666,7 +43668,7 @@
         <v>4123</v>
       </c>
     </row>
-    <row r="1284" ht="40" hidden="1" spans="2:4">
+    <row r="1284" ht="37.5" hidden="1" spans="2:4">
       <c r="B1284" s="1" t="s">
         <v>4124</v>
       </c>
@@ -43760,7 +43762,7 @@
         <v>4149</v>
       </c>
     </row>
-    <row r="1292" ht="24" hidden="1" spans="2:4">
+    <row r="1292" hidden="1" spans="2:4">
       <c r="B1292" s="1" t="s">
         <v>4150</v>
       </c>
@@ -43782,7 +43784,7 @@
         <v>4155</v>
       </c>
     </row>
-    <row r="1294" ht="100" hidden="1" spans="2:5">
+    <row r="1294" ht="93.75" hidden="1" spans="2:5">
       <c r="B1294" s="1" t="s">
         <v>4156</v>
       </c>
@@ -43807,7 +43809,7 @@
         <v>4162</v>
       </c>
     </row>
-    <row r="1296" ht="24" hidden="1" spans="2:4">
+    <row r="1296" hidden="1" spans="2:4">
       <c r="B1296" s="1" t="s">
         <v>4163</v>
       </c>
@@ -43840,7 +43842,7 @@
         <v>4171</v>
       </c>
     </row>
-    <row r="1299" ht="40" hidden="1" spans="2:4">
+    <row r="1299" ht="37.5" hidden="1" spans="2:4">
       <c r="B1299" s="1" t="s">
         <v>4172</v>
       </c>
@@ -43873,7 +43875,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="1302" ht="40" hidden="1" spans="2:5">
+    <row r="1302" hidden="1" spans="2:5">
       <c r="B1302" s="1" t="s">
         <v>4181</v>
       </c>
@@ -43887,7 +43889,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="1303" ht="24" hidden="1" spans="2:4">
+    <row r="1303" hidden="1" spans="2:4">
       <c r="B1303" s="1" t="s">
         <v>4184</v>
       </c>
@@ -43898,7 +43900,7 @@
         <v>4186</v>
       </c>
     </row>
-    <row r="1304" ht="40" hidden="1" spans="2:4">
+    <row r="1304" ht="37.5" hidden="1" spans="2:4">
       <c r="B1304" s="1" t="s">
         <v>4187</v>
       </c>
@@ -43975,7 +43977,7 @@
         <v>4207</v>
       </c>
     </row>
-    <row r="1311" ht="40" hidden="1" spans="2:4">
+    <row r="1311" ht="37.5" hidden="1" spans="2:4">
       <c r="B1311" s="1" t="s">
         <v>4208</v>
       </c>
@@ -43997,7 +43999,7 @@
         <v>4213</v>
       </c>
     </row>
-    <row r="1313" ht="180" hidden="1" spans="2:5">
+    <row r="1313" ht="150" hidden="1" spans="2:5">
       <c r="B1313" s="1" t="s">
         <v>4214</v>
       </c>
@@ -44033,7 +44035,7 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="1316" ht="40" hidden="1" spans="2:5">
+    <row r="1316" ht="37.5" hidden="1" spans="2:5">
       <c r="B1316" s="1" t="s">
         <v>4224</v>
       </c>
@@ -44047,7 +44049,7 @@
         <v>4227</v>
       </c>
     </row>
-    <row r="1317" ht="24" hidden="1" spans="2:4">
+    <row r="1317" hidden="1" spans="2:4">
       <c r="B1317" s="1" t="s">
         <v>4228</v>
       </c>
@@ -44058,7 +44060,7 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="1318" ht="40" hidden="1" spans="2:4">
+    <row r="1318" ht="37.5" hidden="1" spans="2:4">
       <c r="B1318" s="1" t="s">
         <v>4231</v>
       </c>
@@ -44138,7 +44140,7 @@
         <v>4252</v>
       </c>
     </row>
-    <row r="1325" ht="24" hidden="1" spans="2:4">
+    <row r="1325" hidden="1" spans="2:4">
       <c r="B1325" s="1" t="s">
         <v>4253</v>
       </c>
@@ -44174,7 +44176,7 @@
         <v>4262</v>
       </c>
     </row>
-    <row r="1328" ht="40" hidden="1" spans="2:4">
+    <row r="1328" ht="37.5" hidden="1" spans="2:4">
       <c r="B1328" s="1" t="s">
         <v>4263</v>
       </c>
@@ -44218,7 +44220,7 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="1332" ht="23" hidden="1" spans="2:5">
+    <row r="1332" hidden="1" spans="2:5">
       <c r="B1332" s="1" t="s">
         <v>4275</v>
       </c>
@@ -44232,7 +44234,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="1333" ht="40" hidden="1" spans="2:4">
+    <row r="1333" ht="37.5" hidden="1" spans="2:4">
       <c r="B1333" s="1" t="s">
         <v>4279</v>
       </c>
@@ -44309,7 +44311,7 @@
         <v>4299</v>
       </c>
     </row>
-    <row r="1340" ht="24" hidden="1" spans="2:4">
+    <row r="1340" hidden="1" spans="2:4">
       <c r="B1340" s="1" t="s">
         <v>4300</v>
       </c>
@@ -44342,7 +44344,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="1343" ht="60" hidden="1" spans="2:5">
+    <row r="1343" ht="56.25" hidden="1" spans="2:5">
       <c r="B1343" s="1" t="s">
         <v>4309</v>
       </c>
@@ -44411,7 +44413,7 @@
         <v>4327</v>
       </c>
     </row>
-    <row r="1349" ht="60" hidden="1" spans="2:5">
+    <row r="1349" ht="56.25" hidden="1" spans="2:5">
       <c r="B1349" s="1" t="s">
         <v>4328</v>
       </c>
@@ -44447,7 +44449,7 @@
         <v>4337</v>
       </c>
     </row>
-    <row r="1352" ht="40" hidden="1" spans="2:4">
+    <row r="1352" ht="37.5" hidden="1" spans="2:4">
       <c r="B1352" s="1" t="s">
         <v>4338</v>
       </c>
@@ -44469,7 +44471,7 @@
         <v>4343</v>
       </c>
     </row>
-    <row r="1354" ht="24" hidden="1" spans="2:4">
+    <row r="1354" hidden="1" spans="2:4">
       <c r="B1354" s="1" t="s">
         <v>4344</v>
       </c>
@@ -44502,7 +44504,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="1357" ht="24" hidden="1" spans="2:4">
+    <row r="1357" hidden="1" spans="2:4">
       <c r="B1357" s="1" t="s">
         <v>4353</v>
       </c>
@@ -44513,7 +44515,7 @@
         <v>4355</v>
       </c>
     </row>
-    <row r="1358" ht="40" hidden="1" spans="2:5">
+    <row r="1358" ht="37.5" hidden="1" spans="2:5">
       <c r="B1358" s="1" t="s">
         <v>4356</v>
       </c>
@@ -44596,7 +44598,7 @@
         <v>4378</v>
       </c>
     </row>
-    <row r="1365" ht="40" hidden="1" spans="2:4">
+    <row r="1365" ht="37.5" hidden="1" spans="2:4">
       <c r="B1365" s="1" t="s">
         <v>4379</v>
       </c>
@@ -44607,7 +44609,7 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="1366" ht="40" hidden="1" spans="2:4">
+    <row r="1366" ht="37.5" hidden="1" spans="2:4">
       <c r="B1366" s="1" t="s">
         <v>4382</v>
       </c>
@@ -44618,7 +44620,7 @@
         <v>4384</v>
       </c>
     </row>
-    <row r="1367" ht="23" hidden="1" spans="2:4">
+    <row r="1367" hidden="1" spans="2:4">
       <c r="B1367" s="1" t="s">
         <v>4385</v>
       </c>
@@ -44684,7 +44686,7 @@
         <v>4401</v>
       </c>
     </row>
-    <row r="1373" ht="40" hidden="1" spans="2:4">
+    <row r="1373" ht="37.5" hidden="1" spans="2:4">
       <c r="B1373" s="1" t="s">
         <v>4402</v>
       </c>
@@ -44706,7 +44708,7 @@
         <v>4407</v>
       </c>
     </row>
-    <row r="1375" ht="40" hidden="1" spans="2:4">
+    <row r="1375" ht="37.5" hidden="1" spans="2:4">
       <c r="B1375" s="1" t="s">
         <v>4408</v>
       </c>
@@ -44750,7 +44752,7 @@
         <v>4419</v>
       </c>
     </row>
-    <row r="1379" ht="24" hidden="1" spans="2:4">
+    <row r="1379" hidden="1" spans="2:4">
       <c r="B1379" s="1" t="s">
         <v>4420</v>
       </c>
@@ -44772,7 +44774,7 @@
         <v>4425</v>
       </c>
     </row>
-    <row r="1381" ht="140" hidden="1" spans="2:5">
+    <row r="1381" ht="112.5" hidden="1" spans="2:5">
       <c r="B1381" s="1" t="s">
         <v>4426</v>
       </c>
@@ -44786,7 +44788,7 @@
         <v>4429</v>
       </c>
     </row>
-    <row r="1382" ht="40" hidden="1" spans="2:5">
+    <row r="1382" ht="37.5" hidden="1" spans="2:5">
       <c r="B1382" s="1" t="s">
         <v>4430</v>
       </c>
@@ -44800,7 +44802,7 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="1383" ht="40" hidden="1" spans="2:5">
+    <row r="1383" ht="37.5" hidden="1" spans="2:5">
       <c r="B1383" s="1" t="s">
         <v>4434</v>
       </c>
@@ -44858,7 +44860,7 @@
         <v>4449</v>
       </c>
     </row>
-    <row r="1388" ht="23" hidden="1" spans="2:4">
+    <row r="1388" hidden="1" spans="2:4">
       <c r="B1388" s="1" t="s">
         <v>4450</v>
       </c>
@@ -44891,7 +44893,7 @@
         <v>4458</v>
       </c>
     </row>
-    <row r="1391" ht="24" hidden="1" spans="2:4">
+    <row r="1391" hidden="1" spans="2:4">
       <c r="B1391" s="1" t="s">
         <v>4459</v>
       </c>
@@ -44902,7 +44904,7 @@
         <v>4461</v>
       </c>
     </row>
-    <row r="1392" ht="24" hidden="1" spans="2:4">
+    <row r="1392" hidden="1" spans="2:4">
       <c r="B1392" s="1" t="s">
         <v>4462</v>
       </c>
@@ -44979,7 +44981,7 @@
         <v>4482</v>
       </c>
     </row>
-    <row r="1399" ht="60" hidden="1" spans="2:5">
+    <row r="1399" ht="56.25" hidden="1" spans="2:5">
       <c r="B1399" s="1" t="s">
         <v>4483</v>
       </c>
@@ -45087,7 +45089,7 @@
         <v>4512</v>
       </c>
     </row>
-    <row r="1408" ht="40" hidden="1" spans="2:5">
+    <row r="1408" ht="37.5" hidden="1" spans="2:5">
       <c r="B1408" s="1" t="s">
         <v>4513</v>
       </c>
@@ -45145,7 +45147,7 @@
         <v>4528</v>
       </c>
     </row>
-    <row r="1413" ht="24" hidden="1" spans="2:4">
+    <row r="1413" hidden="1" spans="2:4">
       <c r="B1413" s="1" t="s">
         <v>4529</v>
       </c>
@@ -45178,7 +45180,7 @@
         <v>4537</v>
       </c>
     </row>
-    <row r="1416" ht="24" hidden="1" spans="2:4">
+    <row r="1416" hidden="1" spans="2:4">
       <c r="B1416" s="1" t="s">
         <v>4538</v>
       </c>
@@ -45200,7 +45202,7 @@
         <v>4543</v>
       </c>
     </row>
-    <row r="1418" ht="40" hidden="1" spans="2:4">
+    <row r="1418" ht="37.5" hidden="1" spans="2:4">
       <c r="B1418" s="1" t="s">
         <v>4544</v>
       </c>
@@ -45211,7 +45213,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="1419" ht="40" hidden="1" spans="2:4">
+    <row r="1419" ht="37.5" hidden="1" spans="2:4">
       <c r="B1419" s="1" t="s">
         <v>4547</v>
       </c>
@@ -45255,7 +45257,7 @@
         <v>4557</v>
       </c>
     </row>
-    <row r="1423" ht="40" hidden="1" spans="2:4">
+    <row r="1423" ht="37.5" hidden="1" spans="2:4">
       <c r="B1423" s="1" t="s">
         <v>4558</v>
       </c>
@@ -45277,7 +45279,7 @@
         <v>4563</v>
       </c>
     </row>
-    <row r="1425" ht="40" hidden="1" spans="2:4">
+    <row r="1425" ht="37.5" hidden="1" spans="2:4">
       <c r="B1425" s="1" t="s">
         <v>4564</v>
       </c>
@@ -45299,7 +45301,7 @@
         <v>4569</v>
       </c>
     </row>
-    <row r="1427" ht="40" hidden="1" spans="2:4">
+    <row r="1427" ht="37.5" hidden="1" spans="2:4">
       <c r="B1427" s="1" t="s">
         <v>4570</v>
       </c>
@@ -45321,7 +45323,7 @@
         <v>4575</v>
       </c>
     </row>
-    <row r="1429" ht="24" hidden="1" spans="2:4">
+    <row r="1429" hidden="1" spans="2:4">
       <c r="B1429" s="1" t="s">
         <v>4576</v>
       </c>
@@ -45332,7 +45334,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="1430" ht="24" hidden="1" spans="2:4">
+    <row r="1430" hidden="1" spans="2:4">
       <c r="B1430" s="1" t="s">
         <v>4579</v>
       </c>
@@ -45358,9 +45360,9 @@
   <autoFilter ref="A1:A1431">
     <filterColumn colId="0">
       <filters>
-        <filter val="0"/>
         <filter val="1"/>
         <filter val="2"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -10608,12 +10608,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
       <t>in</t>
     </r>
     <r>
@@ -26635,9 +26629,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -26661,6 +26655,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="手札体-简 常规体"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -26690,13 +26698,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -26705,19 +26706,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26730,14 +26723,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
@@ -26745,32 +26730,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26785,7 +26746,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26798,17 +26782,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="手札体-简 常规体"/>
-      <charset val="136"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
@@ -26908,7 +26902,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26920,31 +27070,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26956,139 +27082,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27111,11 +27105,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27140,6 +27155,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27169,127 +27193,97 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -27298,62 +27292,65 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -27740,8 +27737,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D404" sqref="D404"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="A701" sqref="A701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -35060,7 +35057,7 @@
       <c r="A551" s="1">
         <v>2</v>
       </c>
-      <c r="B551" s="1" t="s">
+      <c r="B551" s="3" t="s">
         <v>1787</v>
       </c>
       <c r="C551" s="1" t="s">
@@ -35722,7 +35719,10 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="602" hidden="1" spans="2:4">
+    <row r="602" spans="1:4">
+      <c r="A602" s="1">
+        <v>1</v>
+      </c>
       <c r="B602" s="1" t="s">
         <v>1951</v>
       </c>
@@ -35761,7 +35761,10 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="605" hidden="1" spans="2:4">
+    <row r="605" spans="1:4">
+      <c r="A605" s="1">
+        <v>1</v>
+      </c>
       <c r="B605" s="1" t="s">
         <v>1962</v>
       </c>
@@ -35783,7 +35786,10 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="607" hidden="1" spans="2:5">
+    <row r="607" spans="1:5">
+      <c r="A607" s="1">
+        <v>1</v>
+      </c>
       <c r="B607" s="1" t="s">
         <v>1968</v>
       </c>
@@ -35811,7 +35817,10 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="609" ht="37.5" hidden="1" spans="2:5">
+    <row r="609" ht="37.5" spans="1:5">
+      <c r="A609" s="1">
+        <v>1</v>
+      </c>
       <c r="B609" s="1" t="s">
         <v>1975</v>
       </c>
@@ -35825,7 +35834,10 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="610" hidden="1" spans="2:4">
+    <row r="610" spans="1:4">
+      <c r="A610" s="1">
+        <v>1</v>
+      </c>
       <c r="B610" s="1" t="s">
         <v>1979</v>
       </c>
@@ -35836,7 +35848,10 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="611" hidden="1" spans="2:5">
+    <row r="611" spans="1:5">
+      <c r="A611" s="1">
+        <v>1</v>
+      </c>
       <c r="B611" s="1" t="s">
         <v>1982</v>
       </c>
@@ -35850,7 +35865,10 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="612" hidden="1" spans="2:4">
+    <row r="612" spans="1:4">
+      <c r="A612" s="1">
+        <v>1</v>
+      </c>
       <c r="B612" s="1" t="s">
         <v>1986</v>
       </c>
@@ -35861,7 +35879,10 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="613" hidden="1" spans="2:4">
+    <row r="613" spans="1:4">
+      <c r="A613" s="1">
+        <v>1</v>
+      </c>
       <c r="B613" s="1" t="s">
         <v>1989</v>
       </c>
@@ -35897,7 +35918,10 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="616" hidden="1" spans="2:4">
+    <row r="616" spans="1:4">
+      <c r="A616" s="1">
+        <v>1</v>
+      </c>
       <c r="B616" s="1" t="s">
         <v>1999</v>
       </c>
@@ -35952,7 +35976,10 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="621" hidden="1" spans="2:4">
+    <row r="621" spans="1:4">
+      <c r="A621" s="1">
+        <v>1</v>
+      </c>
       <c r="B621" s="1" t="s">
         <v>2014</v>
       </c>
@@ -35963,7 +35990,10 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="622" hidden="1" spans="2:5">
+    <row r="622" spans="1:5">
+      <c r="A622" s="1">
+        <v>1</v>
+      </c>
       <c r="B622" s="1" t="s">
         <v>2017</v>
       </c>
@@ -35977,7 +36007,10 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="623" hidden="1" spans="2:4">
+    <row r="623" spans="1:4">
+      <c r="A623" s="1">
+        <v>1</v>
+      </c>
       <c r="B623" s="1" t="s">
         <v>2021</v>
       </c>
@@ -35988,7 +36021,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="624" hidden="1" spans="2:4">
+    <row r="624" spans="1:4">
+      <c r="A624" s="1">
+        <v>1</v>
+      </c>
       <c r="B624" s="1" t="s">
         <v>2024</v>
       </c>
@@ -36021,7 +36057,10 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="627" hidden="1" spans="2:4">
+    <row r="627" spans="1:4">
+      <c r="A627" s="1">
+        <v>1</v>
+      </c>
       <c r="B627" s="1" t="s">
         <v>2033</v>
       </c>
@@ -36054,7 +36093,10 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="630" ht="37.5" hidden="1" spans="2:4">
+    <row r="630" ht="37.5" spans="1:4">
+      <c r="A630" s="1">
+        <v>1</v>
+      </c>
       <c r="B630" s="1" t="s">
         <v>2042</v>
       </c>
@@ -36087,7 +36129,10 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="633" ht="37.5" hidden="1" spans="2:4">
+    <row r="633" ht="37.5" spans="1:4">
+      <c r="A633" s="1">
+        <v>1</v>
+      </c>
       <c r="B633" s="1" t="s">
         <v>2051</v>
       </c>
@@ -36098,7 +36143,10 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="634" hidden="1" spans="2:4">
+    <row r="634" spans="1:4">
+      <c r="A634" s="1">
+        <v>1</v>
+      </c>
       <c r="B634" s="1" t="s">
         <v>2054</v>
       </c>
@@ -36131,7 +36179,10 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="637" hidden="1" spans="2:5">
+    <row r="637" spans="1:5">
+      <c r="A637" s="1">
+        <v>1</v>
+      </c>
       <c r="B637" s="1" t="s">
         <v>2063</v>
       </c>
@@ -36145,7 +36196,10 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="638" hidden="1" spans="2:4">
+    <row r="638" spans="1:4">
+      <c r="A638" s="1">
+        <v>1</v>
+      </c>
       <c r="B638" s="1" t="s">
         <v>2067</v>
       </c>
@@ -36156,7 +36210,10 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="639" hidden="1" spans="2:4">
+    <row r="639" spans="1:4">
+      <c r="A639" s="1">
+        <v>1</v>
+      </c>
       <c r="B639" s="1" t="s">
         <v>2070</v>
       </c>
@@ -36178,7 +36235,10 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="641" hidden="1" spans="2:4">
+    <row r="641" spans="1:4">
+      <c r="A641" s="1">
+        <v>1</v>
+      </c>
       <c r="B641" s="1" t="s">
         <v>2076</v>
       </c>
@@ -36189,7 +36249,10 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="642" ht="37.5" hidden="1" spans="2:4">
+    <row r="642" ht="37.5" spans="1:4">
+      <c r="A642" s="1">
+        <v>1</v>
+      </c>
       <c r="B642" s="1" t="s">
         <v>2079</v>
       </c>
@@ -36200,7 +36263,10 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="643" ht="37.5" hidden="1" spans="2:4">
+    <row r="643" ht="37.5" spans="1:4">
+      <c r="A643" s="1">
+        <v>1</v>
+      </c>
       <c r="B643" s="1" t="s">
         <v>2082</v>
       </c>
@@ -36211,7 +36277,10 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="644" hidden="1" spans="2:5">
+    <row r="644" spans="1:5">
+      <c r="A644" s="1">
+        <v>1</v>
+      </c>
       <c r="B644" s="1" t="s">
         <v>2085</v>
       </c>
@@ -36225,7 +36294,10 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="645" hidden="1" spans="2:4">
+    <row r="645" spans="1:4">
+      <c r="A645" s="1">
+        <v>1</v>
+      </c>
       <c r="B645" s="1" t="s">
         <v>2089</v>
       </c>
@@ -36236,7 +36308,10 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="646" hidden="1" spans="2:4">
+    <row r="646" spans="1:4">
+      <c r="A646" s="1">
+        <v>1</v>
+      </c>
       <c r="B646" s="1" t="s">
         <v>2092</v>
       </c>
@@ -36247,7 +36322,10 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="647" hidden="1" spans="2:5">
+    <row r="647" spans="1:5">
+      <c r="A647" s="1">
+        <v>1</v>
+      </c>
       <c r="B647" s="1" t="s">
         <v>2095</v>
       </c>
@@ -36272,7 +36350,10 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="649" ht="37.5" hidden="1" spans="2:5">
+    <row r="649" ht="37.5" spans="1:5">
+      <c r="A649" s="1">
+        <v>1</v>
+      </c>
       <c r="B649" s="1" t="s">
         <v>2102</v>
       </c>
@@ -36297,7 +36378,10 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="651" hidden="1" spans="2:4">
+    <row r="651" spans="1:4">
+      <c r="A651" s="1">
+        <v>1</v>
+      </c>
       <c r="B651" s="1" t="s">
         <v>2109</v>
       </c>
@@ -36308,7 +36392,10 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="652" hidden="1" spans="2:4">
+    <row r="652" spans="1:4">
+      <c r="A652" s="1">
+        <v>1</v>
+      </c>
       <c r="B652" s="1" t="s">
         <v>2112</v>
       </c>
@@ -36319,7 +36406,10 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="653" ht="37.5" hidden="1" spans="2:5">
+    <row r="653" ht="37.5" spans="1:5">
+      <c r="A653" s="1">
+        <v>1</v>
+      </c>
       <c r="B653" s="1" t="s">
         <v>2115</v>
       </c>
@@ -36333,7 +36423,10 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="654" hidden="1" spans="2:4">
+    <row r="654" spans="1:4">
+      <c r="A654" s="1">
+        <v>1</v>
+      </c>
       <c r="B654" s="1" t="s">
         <v>2119</v>
       </c>
@@ -36355,7 +36448,10 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="656" hidden="1" spans="2:5">
+    <row r="656" spans="1:5">
+      <c r="A656" s="1">
+        <v>1</v>
+      </c>
       <c r="B656" s="1" t="s">
         <v>2125</v>
       </c>
@@ -36433,7 +36529,10 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="662" hidden="1" spans="2:4">
+    <row r="662" spans="1:4">
+      <c r="A662" s="1">
+        <v>1</v>
+      </c>
       <c r="B662" s="1" t="s">
         <v>2144</v>
       </c>
@@ -36444,7 +36543,10 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="663" hidden="1" spans="2:4">
+    <row r="663" spans="1:4">
+      <c r="A663" s="1">
+        <v>1</v>
+      </c>
       <c r="B663" s="1" t="s">
         <v>2147</v>
       </c>
@@ -36455,7 +36557,10 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="664" hidden="1" spans="2:4">
+    <row r="664" spans="1:4">
+      <c r="A664" s="1">
+        <v>1</v>
+      </c>
       <c r="B664" s="1" t="s">
         <v>2150</v>
       </c>
@@ -36466,7 +36571,10 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="665" hidden="1" spans="2:4">
+    <row r="665" spans="1:4">
+      <c r="A665" s="1">
+        <v>1</v>
+      </c>
       <c r="B665" s="1" t="s">
         <v>2153</v>
       </c>
@@ -36477,7 +36585,10 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="666" hidden="1" spans="2:4">
+    <row r="666" spans="1:4">
+      <c r="A666" s="1">
+        <v>1</v>
+      </c>
       <c r="B666" s="1" t="s">
         <v>2156</v>
       </c>
@@ -36488,7 +36599,10 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="667" hidden="1" spans="2:5">
+    <row r="667" spans="1:5">
+      <c r="A667" s="1">
+        <v>1</v>
+      </c>
       <c r="B667" s="1" t="s">
         <v>2159</v>
       </c>
@@ -36513,7 +36627,10 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="669" ht="37.5" hidden="1" spans="2:4">
+    <row r="669" ht="37.5" spans="1:4">
+      <c r="A669" s="1">
+        <v>1</v>
+      </c>
       <c r="B669" s="1" t="s">
         <v>2166</v>
       </c>
@@ -36601,7 +36718,10 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="677" hidden="1" spans="2:4">
+    <row r="677" spans="1:4">
+      <c r="A677" s="1">
+        <v>1</v>
+      </c>
       <c r="B677" s="1" t="s">
         <v>2190</v>
       </c>
@@ -36626,7 +36746,10 @@
         <v>397</v>
       </c>
     </row>
-    <row r="679" hidden="1" spans="2:4">
+    <row r="679" spans="1:4">
+      <c r="A679" s="1">
+        <v>1</v>
+      </c>
       <c r="B679" s="1" t="s">
         <v>2196</v>
       </c>
@@ -36637,7 +36760,10 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="680" hidden="1" spans="2:4">
+    <row r="680" spans="1:4">
+      <c r="A680" s="1">
+        <v>1</v>
+      </c>
       <c r="B680" s="1" t="s">
         <v>2199</v>
       </c>
@@ -36659,7 +36785,10 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="682" hidden="1" spans="2:4">
+    <row r="682" spans="1:4">
+      <c r="A682" s="1">
+        <v>1</v>
+      </c>
       <c r="B682" s="1" t="s">
         <v>2205</v>
       </c>
@@ -36670,7 +36799,10 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="683" hidden="1" spans="2:5">
+    <row r="683" spans="1:5">
+      <c r="A683" s="1">
+        <v>1</v>
+      </c>
       <c r="B683" s="1" t="s">
         <v>2208</v>
       </c>
@@ -36684,7 +36816,10 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="684" ht="37.5" hidden="1" spans="2:5">
+    <row r="684" ht="37.5" spans="1:5">
+      <c r="A684" s="1">
+        <v>1</v>
+      </c>
       <c r="B684" s="1" t="s">
         <v>2212</v>
       </c>
@@ -36712,7 +36847,10 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="686" ht="112.5" hidden="1" spans="2:5">
+    <row r="686" ht="112.5" spans="1:5">
+      <c r="A686" s="1">
+        <v>1</v>
+      </c>
       <c r="B686" s="1" t="s">
         <v>2220</v>
       </c>
@@ -36751,7 +36889,10 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="689" hidden="1" spans="2:4">
+    <row r="689" spans="1:4">
+      <c r="A689" s="1">
+        <v>1</v>
+      </c>
       <c r="B689" s="1" t="s">
         <v>2231</v>
       </c>
@@ -36806,7 +36947,10 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="694" hidden="1" spans="2:4">
+    <row r="694" spans="1:4">
+      <c r="A694" s="1">
+        <v>1</v>
+      </c>
       <c r="B694" s="1" t="s">
         <v>2246</v>
       </c>
@@ -36861,7 +37005,10 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="699" hidden="1" spans="2:4">
+    <row r="699" spans="1:4">
+      <c r="A699" s="1">
+        <v>1</v>
+      </c>
       <c r="B699" s="1" t="s">
         <v>2261</v>
       </c>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -11954,7 +11954,7 @@
     <t>kən'venʃən</t>
   </si>
   <si>
-    <t>n.大会;协定</t>
+    <t>n.大会;协定，习俗，传统</t>
   </si>
   <si>
     <t>bulk</t>
@@ -15705,12 +15705,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="手札体-简 常规体"/>
-        <charset val="136"/>
-      </rPr>
       <t>pre</t>
     </r>
     <r>
@@ -26646,10 +26640,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -26679,26 +26673,18 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26710,15 +26696,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26733,15 +26713,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26756,39 +26743,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26801,7 +26758,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26815,9 +26772,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26920,7 +26914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26932,7 +26932,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26944,49 +27022,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27004,61 +27040,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27076,7 +27070,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27088,19 +27082,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27111,26 +27105,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -27163,6 +27137,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27211,151 +27194,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -27755,8 +27749,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E621" sqref="E621"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A584" workbookViewId="0">
+      <selection activeCell="F642" sqref="F642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -32548,7 +32542,7 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1162</v>
@@ -32896,7 +32890,7 @@
     </row>
     <row r="382" ht="37.5" spans="1:4">
       <c r="A382" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>1251</v>
@@ -33189,7 +33183,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>1320</v>
@@ -34760,7 +34754,7 @@
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>1711</v>
@@ -34813,7 +34807,7 @@
     </row>
     <row r="532" ht="37.5" spans="1:4">
       <c r="A532" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>1723</v>
@@ -35031,7 +35025,7 @@
     </row>
     <row r="548" ht="37.5" spans="1:5">
       <c r="A548" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>1777</v>
@@ -35248,7 +35242,7 @@
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>1832</v>
@@ -35338,7 +35332,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>1853</v>
@@ -35499,7 +35493,7 @@
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>1893</v>
@@ -35737,9 +35731,9 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" hidden="1" spans="1:4">
       <c r="A602" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>1951</v>
@@ -35781,7 +35775,7 @@
     </row>
     <row r="605" spans="1:4">
       <c r="A605" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>1962</v>
@@ -35994,9 +35988,9 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" hidden="1" spans="1:4">
       <c r="A621" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B621" s="1" t="s">
         <v>2014</v>
@@ -36025,9 +36019,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" ht="37.5" spans="1:4">
       <c r="A623" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>2021</v>
@@ -36197,9 +36191,9 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" hidden="1" spans="1:5">
       <c r="A637" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>2063</v>
@@ -36269,7 +36263,7 @@
     </row>
     <row r="642" ht="37.5" spans="1:4">
       <c r="A642" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>2079</v>
@@ -36295,9 +36289,9 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" hidden="1" spans="1:5">
       <c r="A644" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B644" s="1" t="s">
         <v>2085</v>
@@ -36340,9 +36334,9 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" hidden="1" spans="1:5">
       <c r="A647" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B647" s="1" t="s">
         <v>2095</v>
@@ -36398,7 +36392,7 @@
     </row>
     <row r="651" spans="1:4">
       <c r="A651" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>2109</v>
@@ -36424,9 +36418,9 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="653" ht="37.5" spans="1:5">
+    <row r="653" ht="37.5" hidden="1" spans="1:5">
       <c r="A653" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B653" s="1" t="s">
         <v>2115</v>
@@ -36577,7 +36571,7 @@
     </row>
     <row r="664" spans="1:4">
       <c r="A664" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>2150</v>
@@ -36834,9 +36828,9 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="684" ht="37.5" spans="1:5">
+    <row r="684" ht="37.5" hidden="1" spans="1:5">
       <c r="A684" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B684" s="1" t="s">
         <v>2212</v>
@@ -37189,7 +37183,7 @@
     </row>
     <row r="712" spans="1:4">
       <c r="A712" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>2303</v>
@@ -37229,9 +37223,9 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="715" ht="37.5" spans="1:4">
+    <row r="715" ht="37.5" hidden="1" spans="1:4">
       <c r="A715" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B715" s="1" t="s">
         <v>2313</v>
@@ -37259,7 +37253,7 @@
     </row>
     <row r="717" spans="1:5">
       <c r="A717" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B717" s="1" t="s">
         <v>2319</v>
@@ -37276,7 +37270,7 @@
     </row>
     <row r="718" spans="1:4">
       <c r="A718" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>2323</v>
@@ -37332,7 +37326,7 @@
     </row>
     <row r="722" spans="1:4">
       <c r="A722" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>2336</v>
@@ -37346,7 +37340,7 @@
     </row>
     <row r="723" spans="1:4">
       <c r="A723" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>2339</v>
@@ -37443,7 +37437,7 @@
     </row>
     <row r="731" spans="1:5">
       <c r="A731" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>2363</v>
@@ -37533,9 +37527,9 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="738" ht="37.5" spans="1:4">
+    <row r="738" ht="37.5" hidden="1" spans="1:4">
       <c r="A738" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B738" s="1" t="s">
         <v>2387</v>
@@ -37549,7 +37543,7 @@
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>2390</v>
@@ -37589,9 +37583,9 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" hidden="1" spans="1:4">
       <c r="A742" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>2400</v>
@@ -37696,7 +37690,7 @@
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>2427</v>
@@ -37710,7 +37704,7 @@
     </row>
     <row r="752" spans="1:5">
       <c r="A752" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>2430</v>
@@ -37799,7 +37793,7 @@
     </row>
     <row r="759" spans="1:5">
       <c r="A759" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>2452</v>
@@ -37952,7 +37946,7 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2490</v>
@@ -38044,7 +38038,7 @@
     </row>
     <row r="778" ht="37.5" spans="1:5">
       <c r="A778" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>2511</v>
@@ -38130,7 +38124,7 @@
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B785" s="1" t="s">
         <v>2533</v>
@@ -38173,9 +38167,9 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" hidden="1" spans="1:4">
       <c r="A788" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B788" s="1" t="s">
         <v>2543</v>
@@ -38279,9 +38273,9 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" hidden="1" spans="1:4">
       <c r="A796" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>2569</v>
@@ -38362,9 +38356,9 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="803" spans="1:4">
+    <row r="803" hidden="1" spans="1:4">
       <c r="A803" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B803" s="1" t="s">
         <v>2591</v>
@@ -38411,7 +38405,7 @@
     </row>
     <row r="807" spans="1:5">
       <c r="A807" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>2603</v>
@@ -38437,9 +38431,9 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="809" ht="37.5" spans="1:4">
+    <row r="809" ht="37.5" hidden="1" spans="1:4">
       <c r="A809" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B809" s="1" t="s">
         <v>2610</v>
@@ -38462,9 +38456,9 @@
         <v>2615</v>
       </c>
     </row>
-    <row r="811" spans="1:4">
+    <row r="811" hidden="1" spans="1:4">
       <c r="A811" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B811" s="1" t="s">
         <v>2616</v>
@@ -38487,9 +38481,9 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="813" spans="1:4">
+    <row r="813" hidden="1" spans="1:4">
       <c r="A813" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B813" s="1" t="s">
         <v>2622</v>
@@ -38503,7 +38497,7 @@
     </row>
     <row r="814" ht="37.5" spans="1:5">
       <c r="A814" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B814" s="1" t="s">
         <v>2625</v>
@@ -38520,7 +38514,7 @@
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>2629</v>
@@ -38581,7 +38575,7 @@
     </row>
     <row r="820" spans="1:5">
       <c r="A820" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B820" s="1" t="s">
         <v>2644</v>
@@ -38598,9 +38592,9 @@
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="1">
-        <v>1</v>
-      </c>
-      <c r="B821" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B821" s="3" t="s">
         <v>2648</v>
       </c>
       <c r="C821" s="1" t="s">
@@ -38623,7 +38617,7 @@
     </row>
     <row r="823" ht="37.5" spans="1:5">
       <c r="A823" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B823" s="1" t="s">
         <v>2654</v>
@@ -38649,9 +38643,9 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="825" spans="1:4">
+    <row r="825" hidden="1" spans="1:4">
       <c r="A825" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B825" s="1" t="s">
         <v>2661</v>
@@ -38687,7 +38681,7 @@
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>2670</v>
@@ -38726,7 +38720,7 @@
     </row>
     <row r="831" spans="1:5">
       <c r="A831" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>2680</v>
@@ -38741,9 +38735,9 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="832" spans="1:4">
+    <row r="832" hidden="1" spans="1:4">
       <c r="A832" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>2684</v>
@@ -38757,7 +38751,7 @@
     </row>
     <row r="833" ht="112.5" spans="1:5">
       <c r="A833" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>2687</v>
@@ -38796,7 +38790,7 @@
     </row>
     <row r="836" ht="37.5" spans="1:5">
       <c r="A836" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B836" s="1" t="s">
         <v>2697</v>
@@ -38811,9 +38805,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="837" spans="1:4">
+    <row r="837" hidden="1" spans="1:4">
       <c r="A837" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B837" s="1" t="s">
         <v>2700</v>
@@ -38869,9 +38863,9 @@
         <v>2714</v>
       </c>
     </row>
-    <row r="842" spans="1:4">
+    <row r="842" hidden="1" spans="1:4">
       <c r="A842" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B842" s="1" t="s">
         <v>2715</v>
@@ -38883,9 +38877,9 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="843" spans="1:4">
+    <row r="843" hidden="1" spans="1:4">
       <c r="A843" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B843" s="1" t="s">
         <v>2718</v>
@@ -38919,9 +38913,9 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="846" spans="1:5">
+    <row r="846" hidden="1" spans="1:5">
       <c r="A846" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B846" s="1" t="s">
         <v>2727</v>
@@ -38938,7 +38932,7 @@
     </row>
     <row r="847" ht="37.5" spans="1:4">
       <c r="A847" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B847" s="1" t="s">
         <v>2731</v>
@@ -38950,9 +38944,9 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="848" spans="1:4">
+    <row r="848" hidden="1" spans="1:4">
       <c r="A848" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B848" s="1" t="s">
         <v>2734</v>
@@ -38989,9 +38983,9 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="851" spans="1:4">
+    <row r="851" hidden="1" spans="1:4">
       <c r="A851" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B851" s="1" t="s">
         <v>2744</v>
@@ -39014,9 +39008,9 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="853" spans="1:4">
+    <row r="853" hidden="1" spans="1:4">
       <c r="A853" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B853" s="1" t="s">
         <v>2750</v>
@@ -39074,7 +39068,7 @@
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B858" s="1" t="s">
         <v>2765</v>
@@ -39108,9 +39102,9 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="861" spans="1:4">
+    <row r="861" hidden="1" spans="1:4">
       <c r="A861" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B861" s="1" t="s">
         <v>2774</v>
@@ -39204,7 +39198,7 @@
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>2799</v>
@@ -39216,9 +39210,9 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="870" spans="1:5">
+    <row r="870" hidden="1" spans="1:5">
       <c r="A870" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B870" s="1" t="s">
         <v>2802</v>
@@ -39235,7 +39229,7 @@
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>2806</v>
@@ -39249,7 +39243,7 @@
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B872" s="1" t="s">
         <v>2809</v>
@@ -39296,7 +39290,7 @@
     </row>
     <row r="876" spans="1:5">
       <c r="A876" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B876" s="1" t="s">
         <v>2821</v>
@@ -39338,7 +39332,7 @@
     </row>
     <row r="879" ht="37.5" spans="1:5">
       <c r="A879" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B879" s="1" t="s">
         <v>2831</v>
@@ -39366,7 +39360,7 @@
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>2838</v>
@@ -39391,7 +39385,7 @@
     </row>
     <row r="883" spans="1:5">
       <c r="A883" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B883" s="1" t="s">
         <v>2844</v>
@@ -39417,9 +39411,9 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="885" spans="1:4">
+    <row r="885" hidden="1" spans="1:4">
       <c r="A885" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B885" s="1" t="s">
         <v>2851</v>
@@ -39433,7 +39427,7 @@
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B886" s="1" t="s">
         <v>2854</v>
@@ -39456,9 +39450,9 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="888" spans="1:4">
+    <row r="888" hidden="1" spans="1:4">
       <c r="A888" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B888" s="1" t="s">
         <v>2860</v>
@@ -39472,7 +39466,7 @@
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B889" s="1" t="s">
         <v>2863</v>
@@ -39531,9 +39525,9 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="894" spans="1:4">
+    <row r="894" hidden="1" spans="1:4">
       <c r="A894" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B894" s="1" t="s">
         <v>2879</v>
@@ -39558,7 +39552,7 @@
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B896" s="1" t="s">
         <v>2885</v>
@@ -45792,7 +45786,7 @@
         <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
-        <filter val="4"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4593">
   <si>
     <t>标记</t>
   </si>
@@ -17348,6 +17348,9 @@
     <t>n.湿气，潮湿</t>
   </si>
   <si>
+    <t>humid ，humor 幽默</t>
+  </si>
+  <si>
     <t>decade </t>
   </si>
   <si>
@@ -18643,6 +18646,9 @@
     <t>n.纬度</t>
   </si>
   <si>
+    <t>longitude 经度</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
@@ -18875,6 +18881,9 @@
     <t>n.显示，表现，显灵</t>
   </si>
   <si>
+    <t>manifest 显示 表明</t>
+  </si>
+  <si>
     <t>realism</t>
   </si>
   <si>
@@ -18944,6 +18953,9 @@
   </si>
   <si>
     <t>n.线索,提示</t>
+  </si>
+  <si>
+    <t>cue 线索 暗示 cure治愈</t>
   </si>
   <si>
     <t>relevance</t>
@@ -27452,7 +27464,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713990" y="1190625"/>
+          <a:off x="2713990" y="476250"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27749,8 +27761,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A584" workbookViewId="0">
-      <selection activeCell="F642" sqref="F642"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A959" workbookViewId="0">
+      <selection activeCell="E978" sqref="E978"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -32540,9 +32552,9 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" hidden="1" spans="1:5">
       <c r="A355" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>1162</v>
@@ -32888,9 +32900,9 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="382" ht="37.5" spans="1:4">
+    <row r="382" ht="37.5" hidden="1" spans="1:4">
       <c r="A382" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>1251</v>
@@ -33183,7 +33195,7 @@
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>1320</v>
@@ -34752,9 +34764,9 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" hidden="1" spans="1:4">
       <c r="A528" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>1711</v>
@@ -34805,9 +34817,9 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="532" ht="37.5" spans="1:4">
+    <row r="532" ht="37.5" hidden="1" spans="1:4">
       <c r="A532" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>1723</v>
@@ -35023,9 +35035,9 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="548" ht="37.5" spans="1:5">
+    <row r="548" ht="37.5" hidden="1" spans="1:5">
       <c r="A548" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>1777</v>
@@ -35240,9 +35252,9 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" hidden="1" spans="1:4">
       <c r="A565" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>1832</v>
@@ -35332,7 +35344,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>1853</v>
@@ -35493,7 +35505,7 @@
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>1893</v>
@@ -35773,9 +35785,9 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" hidden="1" spans="1:4">
       <c r="A605" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>1962</v>
@@ -36021,7 +36033,7 @@
     </row>
     <row r="623" ht="37.5" spans="1:4">
       <c r="A623" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>2021</v>
@@ -36261,9 +36273,9 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="642" ht="37.5" spans="1:4">
+    <row r="642" ht="37.5" hidden="1" spans="1:4">
       <c r="A642" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>2079</v>
@@ -36390,9 +36402,9 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" hidden="1" spans="1:4">
       <c r="A651" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>2109</v>
@@ -36569,9 +36581,9 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" hidden="1" spans="1:4">
       <c r="A664" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>2150</v>
@@ -37181,9 +37193,9 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" hidden="1" spans="1:4">
       <c r="A712" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B712" s="1" t="s">
         <v>2303</v>
@@ -37268,9 +37280,9 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" hidden="1" spans="1:4">
       <c r="A718" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B718" s="1" t="s">
         <v>2323</v>
@@ -37324,9 +37336,9 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" hidden="1" spans="1:4">
       <c r="A722" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B722" s="1" t="s">
         <v>2336</v>
@@ -37338,9 +37350,9 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" hidden="1" spans="1:4">
       <c r="A723" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B723" s="1" t="s">
         <v>2339</v>
@@ -37437,7 +37449,7 @@
     </row>
     <row r="731" spans="1:5">
       <c r="A731" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>2363</v>
@@ -37543,7 +37555,7 @@
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>2390</v>
@@ -37690,7 +37702,7 @@
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>2427</v>
@@ -37704,7 +37716,7 @@
     </row>
     <row r="752" spans="1:5">
       <c r="A752" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>2430</v>
@@ -37793,7 +37805,7 @@
     </row>
     <row r="759" spans="1:5">
       <c r="A759" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>2452</v>
@@ -37946,7 +37958,7 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2490</v>
@@ -38038,7 +38050,7 @@
     </row>
     <row r="778" ht="37.5" spans="1:5">
       <c r="A778" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>2511</v>
@@ -38124,7 +38136,7 @@
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B785" s="1" t="s">
         <v>2533</v>
@@ -38405,7 +38417,7 @@
     </row>
     <row r="807" spans="1:5">
       <c r="A807" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>2603</v>
@@ -38497,7 +38509,7 @@
     </row>
     <row r="814" ht="37.5" spans="1:5">
       <c r="A814" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B814" s="1" t="s">
         <v>2625</v>
@@ -38514,7 +38526,7 @@
     </row>
     <row r="815" spans="1:4">
       <c r="A815" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>2629</v>
@@ -38575,7 +38587,7 @@
     </row>
     <row r="820" spans="1:5">
       <c r="A820" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B820" s="1" t="s">
         <v>2644</v>
@@ -38592,7 +38604,7 @@
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B821" s="3" t="s">
         <v>2648</v>
@@ -38617,7 +38629,7 @@
     </row>
     <row r="823" ht="37.5" spans="1:5">
       <c r="A823" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B823" s="1" t="s">
         <v>2654</v>
@@ -38681,7 +38693,7 @@
     </row>
     <row r="828" spans="1:4">
       <c r="A828" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>2670</v>
@@ -38720,7 +38732,7 @@
     </row>
     <row r="831" spans="1:5">
       <c r="A831" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>2680</v>
@@ -38751,7 +38763,7 @@
     </row>
     <row r="833" ht="112.5" spans="1:5">
       <c r="A833" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>2687</v>
@@ -38790,7 +38802,7 @@
     </row>
     <row r="836" ht="37.5" spans="1:5">
       <c r="A836" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B836" s="1" t="s">
         <v>2697</v>
@@ -38932,7 +38944,7 @@
     </row>
     <row r="847" ht="37.5" spans="1:4">
       <c r="A847" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B847" s="1" t="s">
         <v>2731</v>
@@ -39198,7 +39210,7 @@
     </row>
     <row r="869" spans="1:4">
       <c r="A869" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>2799</v>
@@ -39229,7 +39241,7 @@
     </row>
     <row r="871" spans="1:4">
       <c r="A871" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>2806</v>
@@ -39243,7 +39255,7 @@
     </row>
     <row r="872" spans="1:4">
       <c r="A872" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B872" s="1" t="s">
         <v>2809</v>
@@ -39290,7 +39302,7 @@
     </row>
     <row r="876" spans="1:5">
       <c r="A876" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B876" s="1" t="s">
         <v>2821</v>
@@ -39305,9 +39317,9 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="877" spans="1:4">
+    <row r="877" hidden="1" spans="1:4">
       <c r="A877" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B877" s="1" t="s">
         <v>2825</v>
@@ -39332,7 +39344,7 @@
     </row>
     <row r="879" ht="37.5" spans="1:5">
       <c r="A879" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B879" s="1" t="s">
         <v>2831</v>
@@ -39360,7 +39372,7 @@
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>2838</v>
@@ -39385,7 +39397,7 @@
     </row>
     <row r="883" spans="1:5">
       <c r="A883" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B883" s="1" t="s">
         <v>2844</v>
@@ -39427,7 +39439,7 @@
     </row>
     <row r="886" spans="1:4">
       <c r="A886" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B886" s="1" t="s">
         <v>2854</v>
@@ -39466,7 +39478,7 @@
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B889" s="1" t="s">
         <v>2863</v>
@@ -39552,7 +39564,7 @@
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B896" s="1" t="s">
         <v>2885</v>
@@ -39652,7 +39664,10 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="905" ht="37.5" hidden="1" spans="2:4">
+    <row r="905" ht="37.5" spans="1:4">
+      <c r="A905" s="1">
+        <v>1</v>
+      </c>
       <c r="B905" s="1" t="s">
         <v>2912</v>
       </c>
@@ -39663,7 +39678,10 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="906" hidden="1" spans="2:4">
+    <row r="906" spans="1:4">
+      <c r="A906" s="1">
+        <v>1</v>
+      </c>
       <c r="B906" s="1" t="s">
         <v>2915</v>
       </c>
@@ -39685,7 +39703,10 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="908" hidden="1" spans="2:4">
+    <row r="908" spans="1:4">
+      <c r="A908" s="1">
+        <v>1</v>
+      </c>
       <c r="B908" s="1" t="s">
         <v>2921</v>
       </c>
@@ -39718,7 +39739,10 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="911" hidden="1" spans="2:4">
+    <row r="911" spans="1:4">
+      <c r="A911" s="1">
+        <v>1</v>
+      </c>
       <c r="B911" s="1" t="s">
         <v>2930</v>
       </c>
@@ -39729,7 +39753,10 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="912" ht="75" hidden="1" spans="2:5">
+    <row r="912" ht="75" spans="1:5">
+      <c r="A912" s="1">
+        <v>1</v>
+      </c>
       <c r="B912" s="1" t="s">
         <v>2933</v>
       </c>
@@ -39771,7 +39798,10 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="915" hidden="1" spans="2:4">
+    <row r="915" spans="1:4">
+      <c r="A915" s="1">
+        <v>1</v>
+      </c>
       <c r="B915" s="1" t="s">
         <v>2945</v>
       </c>
@@ -39782,7 +39812,10 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="916" hidden="1" spans="2:5">
+    <row r="916" spans="1:5">
+      <c r="A916" s="1">
+        <v>1</v>
+      </c>
       <c r="B916" s="1" t="s">
         <v>2948</v>
       </c>
@@ -39793,396 +39826,438 @@
         <v>2950</v>
       </c>
       <c r="E916" s="1" t="s">
-        <v>279</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="917" hidden="1" spans="2:4">
       <c r="B917" s="1" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="C917" s="1" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="D917" s="1" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="918" hidden="1" spans="2:4">
       <c r="B918" s="1" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="C918" s="1" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="D918" s="1" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="919" hidden="1" spans="2:4">
       <c r="B919" s="1" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="C919" s="1" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="D919" s="1" t="s">
-        <v>2959</v>
-      </c>
-    </row>
-    <row r="920" hidden="1" spans="2:4">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4">
+      <c r="A920" s="1">
+        <v>1</v>
+      </c>
       <c r="B920" s="1" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="C920" s="1" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="D920" s="1" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="921" hidden="1" spans="2:4">
       <c r="B921" s="1" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="C921" s="1" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="D921" s="1" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="922" hidden="1" spans="2:4">
       <c r="B922" s="1" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="C922" s="1" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="D922" s="1" t="s">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="923" hidden="1" spans="2:4">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4">
+      <c r="A923" s="1">
+        <v>1</v>
+      </c>
       <c r="B923" s="1" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="C923" s="1" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="D923" s="1" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="924" ht="93.75" hidden="1" spans="2:5">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="924" ht="93.75" spans="1:5">
+      <c r="A924" s="1">
+        <v>1</v>
+      </c>
       <c r="B924" s="1" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="C924" s="1" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="D924" s="1" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="E924" s="1" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="925" hidden="1" spans="2:4">
       <c r="B925" s="1" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="C925" s="1" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="D925" s="1" t="s">
-        <v>2978</v>
-      </c>
-    </row>
-    <row r="926" hidden="1" spans="2:4">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4">
+      <c r="A926" s="1">
+        <v>1</v>
+      </c>
       <c r="B926" s="1" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="C926" s="1" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="D926" s="1" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="927" hidden="1" spans="2:4">
       <c r="B927" s="1" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="C927" s="1" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="D927" s="1" t="s">
-        <v>2984</v>
-      </c>
-    </row>
-    <row r="928" hidden="1" spans="2:4">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4">
+      <c r="A928" s="1">
+        <v>1</v>
+      </c>
       <c r="B928" s="1" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="C928" s="1" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="D928" s="1" t="s">
-        <v>2987</v>
-      </c>
-    </row>
-    <row r="929" hidden="1" spans="2:4">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4">
+      <c r="A929" s="1">
+        <v>1</v>
+      </c>
       <c r="B929" s="1" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="C929" s="1" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="D929" s="1" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="930" hidden="1" spans="2:5">
       <c r="B930" s="1" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="C930" s="1" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="D930" s="1" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="E930" s="1" t="s">
-        <v>2994</v>
-      </c>
-    </row>
-    <row r="931" hidden="1" spans="2:4">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4">
+      <c r="A931" s="1">
+        <v>1</v>
+      </c>
       <c r="B931" s="1" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="C931" s="1" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="D931" s="1" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="932" hidden="1" spans="2:4">
       <c r="B932" s="1" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="C932" s="1" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="D932" s="1" t="s">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="933" ht="37.5" hidden="1" spans="2:4">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="933" ht="37.5" spans="1:4">
+      <c r="A933" s="1">
+        <v>1</v>
+      </c>
       <c r="B933" s="1" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="C933" s="1" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="D933" s="1" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="934" hidden="1" spans="2:4">
       <c r="B934" s="1" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="C934" s="1" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="D934" s="1" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="935" hidden="1" spans="2:5">
       <c r="B935" s="1" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="C935" s="1" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="D935" s="1" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="E935" s="1" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="936" hidden="1" spans="2:4">
       <c r="B936" s="1" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="C936" s="1" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="D936" s="1" t="s">
-        <v>3013</v>
-      </c>
-    </row>
-    <row r="937" hidden="1" spans="2:4">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="937" spans="1:4">
+      <c r="A937" s="1">
+        <v>1</v>
+      </c>
       <c r="B937" s="1" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="C937" s="1" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="D937" s="1" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="938" hidden="1" spans="2:4">
       <c r="B938" s="1" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="C938" s="1" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="D938" s="1" t="s">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="939" ht="37.5" hidden="1" spans="2:4">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="939" ht="37.5" spans="1:4">
+      <c r="A939" s="1">
+        <v>1</v>
+      </c>
       <c r="B939" s="1" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="C939" s="1" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="D939" s="1" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="940" hidden="1" spans="2:4">
       <c r="B940" s="1" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="C940" s="1" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="D940" s="1" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="941" hidden="1" spans="2:4">
       <c r="B941" s="1" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="C941" s="1" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="D941" s="1" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="942" hidden="1" spans="2:4">
       <c r="B942" s="1" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="C942" s="1" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="D942" s="1" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="943" hidden="1" spans="2:4">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="943" spans="1:4">
+      <c r="A943" s="1">
+        <v>1</v>
+      </c>
       <c r="B943" s="1" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="C943" s="1" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="D943" s="1" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="944" hidden="1" spans="2:5">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5">
+      <c r="A944" s="1">
+        <v>1</v>
+      </c>
       <c r="B944" s="1" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="C944" s="1" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="D944" s="1" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="E944" s="1" t="s">
-        <v>3038</v>
-      </c>
-    </row>
-    <row r="945" ht="37.5" hidden="1" spans="2:4">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="945" ht="37.5" spans="1:4">
+      <c r="A945" s="1">
+        <v>1</v>
+      </c>
       <c r="B945" s="1" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="C945" s="1" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="D945" s="1" t="s">
-        <v>3041</v>
-      </c>
-    </row>
-    <row r="946" ht="56.25" hidden="1" spans="2:5">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="946" ht="56.25" spans="1:5">
+      <c r="A946" s="1">
+        <v>1</v>
+      </c>
       <c r="B946" s="1" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="C946" s="1" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="D946" s="1" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="E946" s="1" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="947" hidden="1" spans="2:4">
       <c r="B947" s="1" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="C947" s="1" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="D947" s="1" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="948" hidden="1" spans="2:4">
       <c r="B948" s="1" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="C948" s="1" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="D948" s="1" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="949" hidden="1" spans="2:4">
       <c r="B949" s="1" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="C949" s="1" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="D949" s="1" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="950" hidden="1" spans="2:5">
       <c r="B950" s="1" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="C950" s="1" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="D950" s="1" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="E950" s="1" t="s">
         <v>12</v>
@@ -40190,850 +40265,925 @@
     </row>
     <row r="951" hidden="1" spans="2:4">
       <c r="B951" s="1" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="C951" s="1" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="D951" s="1" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="952" hidden="1" spans="2:4">
       <c r="B952" s="1" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="C952" s="1" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="D952" s="1" t="s">
-        <v>3063</v>
-      </c>
-    </row>
-    <row r="953" hidden="1" spans="2:4">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="953" spans="1:4">
+      <c r="A953" s="1">
+        <v>1</v>
+      </c>
       <c r="B953" s="1" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="C953" s="1" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="D953" s="1" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="954" ht="112.5" hidden="1" spans="2:5">
       <c r="B954" s="1" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="C954" s="1" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="D954" s="1" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="E954" s="1" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="955" ht="93.75" hidden="1" spans="2:5">
       <c r="B955" s="1" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="D955" s="1" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="E955" s="1" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="956" hidden="1" spans="2:4">
       <c r="B956" s="1" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="D956" s="1" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="957" ht="37.5" hidden="1" spans="2:4">
       <c r="B957" s="1" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="D957" s="1" t="s">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="958" hidden="1" spans="2:4">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="958" spans="1:4">
+      <c r="A958" s="1">
+        <v>1</v>
+      </c>
       <c r="B958" s="1" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="C958" s="1" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="D958" s="1" t="s">
-        <v>3083</v>
-      </c>
-    </row>
-    <row r="959" hidden="1" spans="2:4">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="959" spans="1:4">
+      <c r="A959" s="1">
+        <v>1</v>
+      </c>
       <c r="B959" s="1" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="D959" s="1" t="s">
-        <v>3086</v>
-      </c>
-    </row>
-    <row r="960" ht="37.5" hidden="1" spans="2:4">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="960" ht="37.5" spans="1:4">
+      <c r="A960" s="1">
+        <v>1</v>
+      </c>
       <c r="B960" s="1" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="D960" s="1" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="961" hidden="1" spans="2:4">
       <c r="B961" s="1" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="C961" s="1" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="D961" s="1" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="962" hidden="1" spans="2:5">
       <c r="B962" s="1" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="C962" s="1" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="D962" s="1" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="E962" s="1" t="s">
-        <v>3096</v>
-      </c>
-    </row>
-    <row r="963" ht="37.5" hidden="1" spans="2:5">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="963" ht="37.5" spans="1:5">
+      <c r="A963" s="1">
+        <v>1</v>
+      </c>
       <c r="B963" s="1" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="C963" s="1" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="D963" s="1" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="E963" s="1" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="964" hidden="1" spans="2:5">
       <c r="B964" s="1" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="E964" s="1" t="s">
-        <v>3104</v>
-      </c>
-    </row>
-    <row r="965" hidden="1" spans="2:4">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4">
+      <c r="A965" s="1">
+        <v>1</v>
+      </c>
       <c r="B965" s="1" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="D965" s="1" t="s">
-        <v>3107</v>
-      </c>
-    </row>
-    <row r="966" hidden="1" spans="2:4">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4">
+      <c r="A966" s="1">
+        <v>1</v>
+      </c>
       <c r="B966" s="1" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="D966" s="1" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="967" hidden="1" spans="2:4">
       <c r="B967" s="1" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="D967" s="1" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="968" hidden="1" spans="2:4">
       <c r="B968" s="1" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="C968" s="1" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="969" hidden="1" spans="2:4">
       <c r="B969" s="1" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="C969" s="1" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="D969" s="1" t="s">
-        <v>3119</v>
-      </c>
-    </row>
-    <row r="970" hidden="1" spans="2:5">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5">
+      <c r="A970" s="1">
+        <v>1</v>
+      </c>
       <c r="B970" s="1" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="C970" s="1" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="D970" s="1" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="E970" s="1" t="s">
         <v>2076</v>
       </c>
     </row>
-    <row r="971" hidden="1" spans="2:4">
+    <row r="971" spans="1:4">
+      <c r="A971" s="1">
+        <v>1</v>
+      </c>
       <c r="B971" s="1" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="D971" s="1" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="972" hidden="1" spans="2:4">
       <c r="B972" s="1" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="C972" s="1" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="D972" s="1" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="973" hidden="1" spans="2:4">
       <c r="B973" s="1" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="C973" s="1" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="D973" s="1" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="974" hidden="1" spans="2:4">
       <c r="B974" s="1" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="C974" s="1" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="D974" s="1" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="975" ht="37.5" hidden="1" spans="2:4">
       <c r="B975" s="1" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="C975" s="1" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="D975" s="1" t="s">
-        <v>3137</v>
-      </c>
-    </row>
-    <row r="976" hidden="1" spans="2:4">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4">
+      <c r="A976" s="1">
+        <v>1</v>
+      </c>
       <c r="B976" s="1" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="C976" s="1" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="D976" s="1" t="s">
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="977" hidden="1" spans="2:4">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4">
+      <c r="A977" s="1">
+        <v>1</v>
+      </c>
       <c r="B977" s="1" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="C977" s="1" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="D977" s="1" t="s">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="978" hidden="1" spans="2:5">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5">
+      <c r="A978" s="1">
+        <v>1</v>
+      </c>
       <c r="B978" s="1" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="C978" s="1" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="D978" s="1" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="E978" s="1" t="s">
-        <v>3147</v>
-      </c>
-    </row>
-    <row r="979" hidden="1" spans="2:5">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5">
+      <c r="A979" s="1">
+        <v>1</v>
+      </c>
       <c r="B979" s="1" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="D979" s="1" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="E979" s="1" t="s">
-        <v>3151</v>
-      </c>
-    </row>
-    <row r="980" hidden="1" spans="2:4">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5">
+      <c r="A980" s="1">
+        <v>1</v>
+      </c>
       <c r="B980" s="1" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="D980" s="1" t="s">
-        <v>3154</v>
+        <v>3155</v>
+      </c>
+      <c r="E980" s="1" t="s">
+        <v>3156</v>
       </c>
     </row>
     <row r="981" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
-        <v>3155</v>
+        <v>3157</v>
       </c>
       <c r="C981" s="1" t="s">
-        <v>3156</v>
+        <v>3158</v>
       </c>
       <c r="D981" s="1" t="s">
-        <v>3157</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="982" hidden="1" spans="2:4">
       <c r="B982" s="1" t="s">
-        <v>3158</v>
+        <v>3160</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>3159</v>
+        <v>3161</v>
       </c>
       <c r="D982" s="1" t="s">
-        <v>3160</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="983" hidden="1" spans="2:4">
       <c r="B983" s="1" t="s">
-        <v>3161</v>
+        <v>3163</v>
       </c>
       <c r="C983" s="1" t="s">
-        <v>3162</v>
+        <v>3164</v>
       </c>
       <c r="D983" s="1" t="s">
-        <v>3163</v>
-      </c>
-    </row>
-    <row r="984" hidden="1" spans="2:4">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4">
+      <c r="A984" s="1">
+        <v>1</v>
+      </c>
       <c r="B984" s="1" t="s">
-        <v>3164</v>
+        <v>3166</v>
       </c>
       <c r="C984" s="1" t="s">
-        <v>3165</v>
+        <v>3167</v>
       </c>
       <c r="D984" s="1" t="s">
-        <v>3166</v>
-      </c>
-    </row>
-    <row r="985" hidden="1" spans="2:4">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4">
+      <c r="A985" s="1">
+        <v>1</v>
+      </c>
       <c r="B985" s="1" t="s">
-        <v>3167</v>
+        <v>3169</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>3168</v>
+        <v>3170</v>
       </c>
       <c r="D985" s="1" t="s">
-        <v>3169</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="986" hidden="1" spans="2:4">
       <c r="B986" s="1" t="s">
-        <v>3170</v>
+        <v>3172</v>
       </c>
       <c r="C986" s="1" t="s">
-        <v>3171</v>
+        <v>3173</v>
       </c>
       <c r="D986" s="1" t="s">
-        <v>3172</v>
-      </c>
-    </row>
-    <row r="987" ht="37.5" hidden="1" spans="2:4">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="987" ht="37.5" spans="1:4">
+      <c r="A987" s="1">
+        <v>1</v>
+      </c>
       <c r="B987" s="1" t="s">
-        <v>3173</v>
+        <v>3175</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>3174</v>
+        <v>3176</v>
       </c>
       <c r="D987" s="1" t="s">
-        <v>3175</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="988" hidden="1" spans="2:4">
       <c r="B988" s="1" t="s">
-        <v>3176</v>
+        <v>3178</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>3177</v>
+        <v>3179</v>
       </c>
       <c r="D988" s="1" t="s">
-        <v>3178</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="989" hidden="1" spans="2:4">
       <c r="B989" s="1" t="s">
-        <v>3179</v>
+        <v>3181</v>
       </c>
       <c r="C989" s="1" t="s">
-        <v>3180</v>
+        <v>3182</v>
       </c>
       <c r="D989" s="1" t="s">
-        <v>3181</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="990" hidden="1" spans="2:4">
       <c r="B990" s="1" t="s">
-        <v>3182</v>
+        <v>3184</v>
       </c>
       <c r="C990" s="1" t="s">
-        <v>3183</v>
+        <v>3185</v>
       </c>
       <c r="D990" s="1" t="s">
-        <v>3184</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="991" ht="37.5" hidden="1" spans="2:4">
       <c r="B991" s="1" t="s">
-        <v>3185</v>
+        <v>3187</v>
       </c>
       <c r="C991" s="1" t="s">
-        <v>3186</v>
+        <v>3188</v>
       </c>
       <c r="D991" s="1" t="s">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="992" hidden="1" spans="2:4">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4">
+      <c r="A992" s="1">
+        <v>1</v>
+      </c>
       <c r="B992" s="1" t="s">
-        <v>3188</v>
+        <v>3190</v>
       </c>
       <c r="C992" s="1" t="s">
-        <v>3189</v>
+        <v>3191</v>
       </c>
       <c r="D992" s="1" t="s">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="993" hidden="1" spans="2:4">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4">
+      <c r="A993" s="1">
+        <v>1</v>
+      </c>
       <c r="B993" s="1" t="s">
-        <v>3191</v>
+        <v>3193</v>
       </c>
       <c r="C993" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="D993" s="1" t="s">
         <v>3192</v>
       </c>
-      <c r="D993" s="1" t="s">
-        <v>3190</v>
-      </c>
-    </row>
-    <row r="994" ht="37.5" hidden="1" spans="2:5">
+    </row>
+    <row r="994" ht="37.5" spans="1:5">
+      <c r="A994" s="1">
+        <v>1</v>
+      </c>
       <c r="B994" s="1" t="s">
-        <v>3193</v>
+        <v>3195</v>
       </c>
       <c r="C994" s="1" t="s">
-        <v>3194</v>
+        <v>3196</v>
       </c>
       <c r="D994" s="1" t="s">
-        <v>3195</v>
+        <v>3197</v>
       </c>
       <c r="E994" s="1" t="s">
-        <v>3196</v>
-      </c>
-    </row>
-    <row r="995" hidden="1" spans="2:4">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5">
+      <c r="A995" s="1">
+        <v>1</v>
+      </c>
       <c r="B995" s="1" t="s">
-        <v>3197</v>
+        <v>3199</v>
       </c>
       <c r="C995" s="1" t="s">
-        <v>3198</v>
+        <v>3200</v>
       </c>
       <c r="D995" s="1" t="s">
-        <v>3199</v>
+        <v>3201</v>
+      </c>
+      <c r="E995" s="1" t="s">
+        <v>3202</v>
       </c>
     </row>
     <row r="996" hidden="1" spans="2:4">
       <c r="B996" s="1" t="s">
-        <v>3200</v>
+        <v>3203</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>3201</v>
+        <v>3204</v>
       </c>
       <c r="D996" s="1" t="s">
-        <v>3202</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="997" ht="93.75" hidden="1" spans="2:5">
       <c r="B997" s="1" t="s">
-        <v>3203</v>
+        <v>3206</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>3204</v>
+        <v>3207</v>
       </c>
       <c r="D997" s="1" t="s">
-        <v>3205</v>
+        <v>3208</v>
       </c>
       <c r="E997" s="1" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="998" hidden="1" spans="2:4">
       <c r="B998" s="1" t="s">
-        <v>3207</v>
+        <v>3210</v>
       </c>
       <c r="C998" s="1" t="s">
-        <v>3208</v>
+        <v>3211</v>
       </c>
       <c r="D998" s="1" t="s">
-        <v>3209</v>
-      </c>
-    </row>
-    <row r="999" hidden="1" spans="2:4">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5">
+      <c r="A999" s="1">
+        <v>1</v>
+      </c>
       <c r="B999" s="1" t="s">
-        <v>3210</v>
+        <v>3213</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>3211</v>
+        <v>3214</v>
       </c>
       <c r="D999" s="1" t="s">
-        <v>3212</v>
+        <v>3215</v>
+      </c>
+      <c r="E999" s="1" t="s">
+        <v>3216</v>
       </c>
     </row>
     <row r="1000" ht="93.75" hidden="1" spans="2:5">
       <c r="B1000" s="1" t="s">
-        <v>3213</v>
+        <v>3217</v>
       </c>
       <c r="C1000" s="1" t="s">
-        <v>3214</v>
+        <v>3218</v>
       </c>
       <c r="D1000" s="1" t="s">
-        <v>3215</v>
+        <v>3219</v>
       </c>
       <c r="E1000" s="1" t="s">
-        <v>3216</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="1001" ht="37.5" hidden="1" spans="2:4">
       <c r="B1001" s="1" t="s">
-        <v>3217</v>
+        <v>3221</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>3218</v>
+        <v>3222</v>
       </c>
       <c r="D1001" s="1" t="s">
-        <v>3219</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="1002" ht="37.5" hidden="1" spans="2:4">
       <c r="B1002" s="1" t="s">
-        <v>3220</v>
+        <v>3224</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>3221</v>
+        <v>3225</v>
       </c>
       <c r="D1002" s="1" t="s">
-        <v>3222</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="1003" ht="37.5" hidden="1" spans="2:4">
       <c r="B1003" s="1" t="s">
-        <v>3223</v>
+        <v>3227</v>
       </c>
       <c r="C1003" s="1" t="s">
-        <v>3224</v>
+        <v>3228</v>
       </c>
       <c r="D1003" s="1" t="s">
-        <v>3225</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="1004" hidden="1" spans="2:4">
       <c r="B1004" s="1" t="s">
-        <v>3226</v>
+        <v>3230</v>
       </c>
       <c r="C1004" s="1" t="s">
-        <v>3227</v>
+        <v>3231</v>
       </c>
       <c r="D1004" s="1" t="s">
-        <v>3228</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="1005" hidden="1" spans="2:4">
       <c r="B1005" s="1" t="s">
-        <v>3229</v>
+        <v>3233</v>
       </c>
       <c r="C1005" s="1" t="s">
-        <v>3230</v>
+        <v>3234</v>
       </c>
       <c r="D1005" s="1" t="s">
-        <v>3231</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="1006" hidden="1" spans="2:5">
       <c r="B1006" s="1" t="s">
-        <v>3232</v>
+        <v>3236</v>
       </c>
       <c r="C1006" s="1" t="s">
-        <v>3233</v>
+        <v>3237</v>
       </c>
       <c r="D1006" s="1" t="s">
-        <v>3234</v>
+        <v>3238</v>
       </c>
       <c r="E1006" s="1" t="s">
-        <v>3235</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="1007" hidden="1" spans="2:4">
       <c r="B1007" s="1" t="s">
-        <v>3236</v>
+        <v>3240</v>
       </c>
       <c r="C1007" s="1" t="s">
-        <v>3237</v>
+        <v>3241</v>
       </c>
       <c r="D1007" s="1" t="s">
-        <v>3238</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="1008" hidden="1" spans="2:4">
       <c r="B1008" s="1" t="s">
-        <v>3239</v>
+        <v>3243</v>
       </c>
       <c r="C1008" s="1" t="s">
-        <v>3240</v>
+        <v>3244</v>
       </c>
       <c r="D1008" s="1" t="s">
-        <v>3241</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="1009" hidden="1" spans="2:4">
       <c r="B1009" s="1" t="s">
-        <v>3242</v>
+        <v>3246</v>
       </c>
       <c r="C1009" s="1" t="s">
-        <v>3243</v>
+        <v>3247</v>
       </c>
       <c r="D1009" s="1" t="s">
-        <v>3244</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="1010" hidden="1" spans="2:5">
       <c r="B1010" s="1" t="s">
-        <v>3245</v>
+        <v>3249</v>
       </c>
       <c r="C1010" s="1" t="s">
-        <v>3246</v>
+        <v>3250</v>
       </c>
       <c r="D1010" s="1" t="s">
-        <v>3247</v>
+        <v>3251</v>
       </c>
       <c r="E1010" s="1" t="s">
-        <v>3248</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="1011" hidden="1" spans="2:5">
       <c r="B1011" s="1" t="s">
-        <v>3249</v>
+        <v>3253</v>
       </c>
       <c r="C1011" s="1" t="s">
-        <v>3250</v>
+        <v>3254</v>
       </c>
       <c r="D1011" s="1" t="s">
-        <v>3251</v>
+        <v>3255</v>
       </c>
       <c r="E1011" s="1" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="1012" hidden="1" spans="2:5">
       <c r="B1012" s="1" t="s">
-        <v>3252</v>
+        <v>3256</v>
       </c>
       <c r="C1012" s="1" t="s">
-        <v>3253</v>
+        <v>3257</v>
       </c>
       <c r="D1012" s="1" t="s">
-        <v>3254</v>
+        <v>3258</v>
       </c>
       <c r="E1012" s="1" t="s">
-        <v>3255</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="1013" hidden="1" spans="2:4">
       <c r="B1013" s="1" t="s">
-        <v>3256</v>
+        <v>3260</v>
       </c>
       <c r="C1013" s="1" t="s">
-        <v>3257</v>
+        <v>3261</v>
       </c>
       <c r="D1013" s="1" t="s">
-        <v>3258</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="1014" hidden="1" spans="2:4">
       <c r="B1014" s="1" t="s">
-        <v>3259</v>
+        <v>3263</v>
       </c>
       <c r="C1014" s="1" t="s">
-        <v>3260</v>
+        <v>3264</v>
       </c>
       <c r="D1014" s="1" t="s">
-        <v>3261</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="1015" hidden="1" spans="2:4">
       <c r="B1015" s="1" t="s">
-        <v>3262</v>
+        <v>3266</v>
       </c>
       <c r="C1015" s="1" t="s">
-        <v>3263</v>
+        <v>3267</v>
       </c>
       <c r="D1015" s="1" t="s">
-        <v>3264</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="1016" hidden="1" spans="2:4">
       <c r="B1016" s="1" t="s">
-        <v>3265</v>
+        <v>3269</v>
       </c>
       <c r="C1016" s="1" t="s">
-        <v>3266</v>
+        <v>3270</v>
       </c>
       <c r="D1016" s="1" t="s">
-        <v>3267</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="1017" hidden="1" spans="2:4">
       <c r="B1017" s="1" t="s">
-        <v>3268</v>
+        <v>3272</v>
       </c>
       <c r="C1017" s="1" t="s">
-        <v>3269</v>
+        <v>3273</v>
       </c>
       <c r="D1017" s="1" t="s">
-        <v>3270</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="1018" hidden="1" spans="2:4">
       <c r="B1018" s="1" t="s">
-        <v>3271</v>
+        <v>3275</v>
       </c>
       <c r="C1018" s="1" t="s">
-        <v>3272</v>
+        <v>3276</v>
       </c>
       <c r="D1018" s="1" t="s">
-        <v>3273</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="1019" hidden="1" spans="2:4">
       <c r="B1019" s="1" t="s">
-        <v>3274</v>
+        <v>3278</v>
       </c>
       <c r="C1019" s="1" t="s">
-        <v>3275</v>
+        <v>3279</v>
       </c>
       <c r="D1019" s="1" t="s">
-        <v>3276</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="1020" hidden="1" spans="2:4">
       <c r="B1020" s="1" t="s">
-        <v>3277</v>
+        <v>3281</v>
       </c>
       <c r="C1020" s="1" t="s">
-        <v>3278</v>
+        <v>3282</v>
       </c>
       <c r="D1020" s="1" t="s">
-        <v>3279</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="1021" hidden="1" spans="2:4">
       <c r="B1021" s="1" t="s">
-        <v>3280</v>
+        <v>3284</v>
       </c>
       <c r="C1021" s="1" t="s">
-        <v>3281</v>
+        <v>3285</v>
       </c>
       <c r="D1021" s="1" t="s">
-        <v>3282</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="1022" hidden="1" spans="2:4">
       <c r="B1022" s="1" t="s">
-        <v>3283</v>
+        <v>3287</v>
       </c>
       <c r="C1022" s="1" t="s">
-        <v>3284</v>
+        <v>3288</v>
       </c>
       <c r="D1022" s="1" t="s">
-        <v>3285</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="1023" hidden="1" spans="2:5">
       <c r="B1023" s="1" t="s">
-        <v>3286</v>
+        <v>3290</v>
       </c>
       <c r="C1023" s="1" t="s">
-        <v>3287</v>
+        <v>3291</v>
       </c>
       <c r="D1023" s="1" t="s">
-        <v>3288</v>
+        <v>3292</v>
       </c>
       <c r="E1023" s="1" t="s">
         <v>1075</v>
@@ -41041,115 +41191,115 @@
     </row>
     <row r="1024" hidden="1" spans="2:4">
       <c r="B1024" s="1" t="s">
-        <v>3289</v>
+        <v>3293</v>
       </c>
       <c r="C1024" s="1" t="s">
-        <v>3290</v>
+        <v>3294</v>
       </c>
       <c r="D1024" s="1" t="s">
-        <v>3291</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="1025" hidden="1" spans="2:5">
       <c r="B1025" s="1" t="s">
-        <v>3292</v>
+        <v>3296</v>
       </c>
       <c r="C1025" s="1" t="s">
-        <v>3293</v>
+        <v>3297</v>
       </c>
       <c r="D1025" s="1" t="s">
-        <v>3294</v>
+        <v>3298</v>
       </c>
       <c r="E1025" s="1" t="s">
-        <v>3295</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="1026" hidden="1" spans="2:4">
       <c r="B1026" s="1" t="s">
-        <v>3296</v>
+        <v>3300</v>
       </c>
       <c r="C1026" s="1" t="s">
-        <v>3297</v>
+        <v>3301</v>
       </c>
       <c r="D1026" s="1" t="s">
-        <v>3298</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="1027" hidden="1" spans="2:4">
       <c r="B1027" s="1" t="s">
-        <v>3299</v>
+        <v>3303</v>
       </c>
       <c r="C1027" s="1" t="s">
-        <v>3300</v>
+        <v>3304</v>
       </c>
       <c r="D1027" s="1" t="s">
-        <v>3301</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="1028" hidden="1" spans="2:4">
       <c r="B1028" s="1" t="s">
-        <v>3302</v>
+        <v>3306</v>
       </c>
       <c r="C1028" s="1" t="s">
-        <v>3303</v>
+        <v>3307</v>
       </c>
       <c r="D1028" s="1" t="s">
-        <v>3304</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="1029" hidden="1" spans="2:4">
       <c r="B1029" s="1" t="s">
-        <v>3305</v>
+        <v>3309</v>
       </c>
       <c r="C1029" s="1" t="s">
-        <v>3306</v>
+        <v>3310</v>
       </c>
       <c r="D1029" s="1" t="s">
-        <v>3307</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="1030" hidden="1" spans="2:4">
       <c r="B1030" s="1" t="s">
-        <v>3308</v>
+        <v>3312</v>
       </c>
       <c r="C1030" s="1" t="s">
-        <v>3309</v>
+        <v>3313</v>
       </c>
       <c r="D1030" s="1" t="s">
-        <v>3310</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="1031" hidden="1" spans="2:4">
       <c r="B1031" s="1" t="s">
-        <v>3311</v>
+        <v>3315</v>
       </c>
       <c r="C1031" s="1" t="s">
-        <v>3312</v>
+        <v>3316</v>
       </c>
       <c r="D1031" s="1" t="s">
-        <v>3313</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="1032" hidden="1" spans="2:4">
       <c r="B1032" s="1" t="s">
-        <v>3314</v>
+        <v>3318</v>
       </c>
       <c r="C1032" s="1" t="s">
-        <v>3315</v>
+        <v>3319</v>
       </c>
       <c r="D1032" s="1" t="s">
-        <v>3316</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1033" ht="37.5" hidden="1" spans="2:5">
       <c r="B1033" s="1" t="s">
-        <v>3317</v>
+        <v>3321</v>
       </c>
       <c r="C1033" s="1" t="s">
-        <v>3318</v>
+        <v>3322</v>
       </c>
       <c r="D1033" s="1" t="s">
-        <v>3319</v>
+        <v>3323</v>
       </c>
       <c r="E1033" s="1" t="s">
         <v>2647</v>
@@ -41157,733 +41307,733 @@
     </row>
     <row r="1034" hidden="1" spans="2:4">
       <c r="B1034" s="1" t="s">
-        <v>3320</v>
+        <v>3324</v>
       </c>
       <c r="C1034" s="1" t="s">
-        <v>3321</v>
+        <v>3325</v>
       </c>
       <c r="D1034" s="1" t="s">
-        <v>3322</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1035" ht="37.5" hidden="1" spans="2:4">
       <c r="B1035" s="1" t="s">
-        <v>3323</v>
+        <v>3327</v>
       </c>
       <c r="C1035" s="1" t="s">
-        <v>3324</v>
+        <v>3328</v>
       </c>
       <c r="D1035" s="1" t="s">
-        <v>3325</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="1036" ht="56.25" hidden="1" spans="2:5">
       <c r="B1036" s="1" t="s">
-        <v>3326</v>
+        <v>3330</v>
       </c>
       <c r="C1036" s="1" t="s">
-        <v>3327</v>
+        <v>3331</v>
       </c>
       <c r="D1036" s="1" t="s">
-        <v>3328</v>
+        <v>3332</v>
       </c>
       <c r="E1036" s="1" t="s">
-        <v>3329</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="1037" ht="37.5" hidden="1" spans="2:4">
       <c r="B1037" s="1" t="s">
-        <v>3330</v>
+        <v>3334</v>
       </c>
       <c r="C1037" s="1" t="s">
-        <v>3331</v>
+        <v>3335</v>
       </c>
       <c r="D1037" s="1" t="s">
-        <v>3332</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1038" hidden="1" spans="2:4">
       <c r="B1038" s="1" t="s">
-        <v>3333</v>
+        <v>3337</v>
       </c>
       <c r="C1038" s="1" t="s">
-        <v>3334</v>
+        <v>3338</v>
       </c>
       <c r="D1038" s="1" t="s">
-        <v>3335</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="1039" hidden="1" spans="2:4">
       <c r="B1039" s="1" t="s">
-        <v>3336</v>
+        <v>3340</v>
       </c>
       <c r="C1039" s="1" t="s">
-        <v>3337</v>
+        <v>3341</v>
       </c>
       <c r="D1039" s="1" t="s">
-        <v>3335</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="1040" hidden="1" spans="2:4">
       <c r="B1040" s="1" t="s">
-        <v>3338</v>
+        <v>3342</v>
       </c>
       <c r="C1040" s="1" t="s">
-        <v>3339</v>
+        <v>3343</v>
       </c>
       <c r="D1040" s="1" t="s">
-        <v>3340</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1041" hidden="1" spans="2:4">
       <c r="B1041" s="1" t="s">
-        <v>3341</v>
+        <v>3345</v>
       </c>
       <c r="C1041" s="1" t="s">
-        <v>3342</v>
+        <v>3346</v>
       </c>
       <c r="D1041" s="1" t="s">
-        <v>3343</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="1042" hidden="1" spans="2:4">
       <c r="B1042" s="1" t="s">
-        <v>3344</v>
+        <v>3348</v>
       </c>
       <c r="C1042" s="1" t="s">
-        <v>3345</v>
+        <v>3349</v>
       </c>
       <c r="D1042" s="1" t="s">
-        <v>3346</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="1043" ht="56.25" hidden="1" spans="2:5">
       <c r="B1043" s="1" t="s">
-        <v>3347</v>
+        <v>3351</v>
       </c>
       <c r="C1043" s="1" t="s">
-        <v>3348</v>
+        <v>3352</v>
       </c>
       <c r="D1043" s="1" t="s">
-        <v>3349</v>
+        <v>3353</v>
       </c>
       <c r="E1043" s="1" t="s">
-        <v>3350</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="1044" ht="37.5" hidden="1" spans="2:4">
       <c r="B1044" s="1" t="s">
-        <v>3351</v>
+        <v>3355</v>
       </c>
       <c r="C1044" s="1" t="s">
-        <v>3352</v>
+        <v>3356</v>
       </c>
       <c r="D1044" s="1" t="s">
-        <v>3353</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="1045" hidden="1" spans="2:4">
       <c r="B1045" s="1" t="s">
-        <v>3354</v>
+        <v>3358</v>
       </c>
       <c r="C1045" s="1" t="s">
-        <v>3355</v>
+        <v>3359</v>
       </c>
       <c r="D1045" s="1" t="s">
-        <v>3356</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="1046" hidden="1" spans="2:4">
       <c r="B1046" s="1" t="s">
-        <v>3357</v>
+        <v>3361</v>
       </c>
       <c r="C1046" s="1" t="s">
-        <v>3358</v>
+        <v>3362</v>
       </c>
       <c r="D1046" s="1" t="s">
-        <v>3359</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="1047" hidden="1" spans="2:4">
       <c r="B1047" s="1" t="s">
-        <v>3360</v>
+        <v>3364</v>
       </c>
       <c r="C1047" s="1" t="s">
-        <v>3361</v>
+        <v>3365</v>
       </c>
       <c r="D1047" s="1" t="s">
-        <v>3362</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="1048" hidden="1" spans="2:4">
       <c r="B1048" s="1" t="s">
-        <v>3363</v>
+        <v>3367</v>
       </c>
       <c r="C1048" s="1" t="s">
-        <v>3364</v>
+        <v>3368</v>
       </c>
       <c r="D1048" s="1" t="s">
-        <v>3365</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="1049" hidden="1" spans="2:4">
       <c r="B1049" s="1" t="s">
-        <v>3366</v>
+        <v>3370</v>
       </c>
       <c r="C1049" s="1" t="s">
-        <v>3367</v>
+        <v>3371</v>
       </c>
       <c r="D1049" s="1" t="s">
-        <v>3368</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="1050" hidden="1" spans="2:4">
       <c r="B1050" s="1" t="s">
-        <v>3369</v>
+        <v>3373</v>
       </c>
       <c r="C1050" s="1" t="s">
-        <v>3370</v>
+        <v>3374</v>
       </c>
       <c r="D1050" s="1" t="s">
-        <v>3371</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="1051" hidden="1" spans="2:5">
       <c r="B1051" s="1" t="s">
-        <v>3372</v>
+        <v>3376</v>
       </c>
       <c r="C1051" s="1" t="s">
-        <v>3373</v>
+        <v>3377</v>
       </c>
       <c r="D1051" s="1" t="s">
-        <v>3374</v>
+        <v>3378</v>
       </c>
       <c r="E1051" s="1" t="s">
-        <v>3375</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="1052" hidden="1" spans="2:4">
       <c r="B1052" s="1" t="s">
-        <v>3376</v>
+        <v>3380</v>
       </c>
       <c r="C1052" s="1" t="s">
-        <v>3377</v>
+        <v>3381</v>
       </c>
       <c r="D1052" s="1" t="s">
-        <v>3378</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="1053" ht="37.5" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
-        <v>3379</v>
+        <v>3383</v>
       </c>
       <c r="C1053" s="1" t="s">
-        <v>3380</v>
+        <v>3384</v>
       </c>
       <c r="D1053" s="1" t="s">
-        <v>3381</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="1054" hidden="1" spans="2:4">
       <c r="B1054" s="1" t="s">
-        <v>3382</v>
+        <v>3386</v>
       </c>
       <c r="C1054" s="1" t="s">
-        <v>3383</v>
+        <v>3387</v>
       </c>
       <c r="D1054" s="1" t="s">
-        <v>3384</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="1055" hidden="1" spans="2:4">
       <c r="B1055" s="1" t="s">
-        <v>3385</v>
+        <v>3389</v>
       </c>
       <c r="C1055" s="1" t="s">
-        <v>3386</v>
+        <v>3390</v>
       </c>
       <c r="D1055" s="1" t="s">
-        <v>3387</v>
+        <v>3391</v>
       </c>
     </row>
     <row r="1056" hidden="1" spans="2:4">
       <c r="B1056" s="1" t="s">
-        <v>3388</v>
+        <v>3392</v>
       </c>
       <c r="C1056" s="1" t="s">
-        <v>3389</v>
+        <v>3393</v>
       </c>
       <c r="D1056" s="1" t="s">
-        <v>3390</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="1057" ht="75" hidden="1" spans="2:5">
       <c r="B1057" s="1" t="s">
-        <v>3391</v>
+        <v>3395</v>
       </c>
       <c r="C1057" s="1" t="s">
-        <v>3392</v>
+        <v>3396</v>
       </c>
       <c r="D1057" s="1" t="s">
-        <v>3393</v>
+        <v>3397</v>
       </c>
       <c r="E1057" s="1" t="s">
-        <v>3394</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="1058" hidden="1" spans="2:4">
       <c r="B1058" s="1" t="s">
-        <v>3395</v>
+        <v>3399</v>
       </c>
       <c r="C1058" s="1" t="s">
-        <v>3396</v>
+        <v>3400</v>
       </c>
       <c r="D1058" s="1" t="s">
-        <v>3397</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="1059" ht="37.5" hidden="1" spans="2:4">
       <c r="B1059" s="1" t="s">
-        <v>3398</v>
+        <v>3402</v>
       </c>
       <c r="C1059" s="1" t="s">
-        <v>3399</v>
+        <v>3403</v>
       </c>
       <c r="D1059" s="1" t="s">
-        <v>3400</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="1060" hidden="1" spans="2:4">
       <c r="B1060" s="1" t="s">
-        <v>3401</v>
+        <v>3405</v>
       </c>
       <c r="C1060" s="1" t="s">
-        <v>3402</v>
+        <v>3406</v>
       </c>
       <c r="D1060" s="1" t="s">
-        <v>3403</v>
+        <v>3407</v>
       </c>
     </row>
     <row r="1061" hidden="1" spans="2:4">
       <c r="B1061" s="1" t="s">
-        <v>3404</v>
+        <v>3408</v>
       </c>
       <c r="C1061" s="1" t="s">
-        <v>3405</v>
+        <v>3409</v>
       </c>
       <c r="D1061" s="1" t="s">
-        <v>3406</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="1062" hidden="1" spans="2:4">
       <c r="B1062" s="1" t="s">
-        <v>3407</v>
+        <v>3411</v>
       </c>
       <c r="C1062" s="1" t="s">
-        <v>3408</v>
+        <v>3412</v>
       </c>
       <c r="D1062" s="1" t="s">
-        <v>3409</v>
+        <v>3413</v>
       </c>
     </row>
     <row r="1063" hidden="1" spans="2:4">
       <c r="B1063" s="1" t="s">
-        <v>3410</v>
+        <v>3414</v>
       </c>
       <c r="C1063" s="1" t="s">
-        <v>3411</v>
+        <v>3415</v>
       </c>
       <c r="D1063" s="1" t="s">
-        <v>3412</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="1064" hidden="1" spans="2:4">
       <c r="B1064" s="1" t="s">
-        <v>3413</v>
+        <v>3417</v>
       </c>
       <c r="C1064" s="1" t="s">
-        <v>3414</v>
+        <v>3418</v>
       </c>
       <c r="D1064" s="1" t="s">
-        <v>3415</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="1065" hidden="1" spans="2:4">
       <c r="B1065" s="1" t="s">
-        <v>3416</v>
+        <v>3420</v>
       </c>
       <c r="C1065" s="1" t="s">
-        <v>3417</v>
+        <v>3421</v>
       </c>
       <c r="D1065" s="1" t="s">
-        <v>3418</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="1066" hidden="1" spans="2:4">
       <c r="B1066" s="1" t="s">
-        <v>3419</v>
+        <v>3423</v>
       </c>
       <c r="C1066" s="1" t="s">
-        <v>3420</v>
+        <v>3424</v>
       </c>
       <c r="D1066" s="1" t="s">
-        <v>3421</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="1067" hidden="1" spans="2:4">
       <c r="B1067" s="1" t="s">
-        <v>3422</v>
+        <v>3426</v>
       </c>
       <c r="C1067" s="1" t="s">
-        <v>3423</v>
+        <v>3427</v>
       </c>
       <c r="D1067" s="1" t="s">
-        <v>3424</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="1068" hidden="1" spans="2:4">
       <c r="B1068" s="1" t="s">
-        <v>3425</v>
+        <v>3429</v>
       </c>
       <c r="C1068" s="1" t="s">
-        <v>3426</v>
+        <v>3430</v>
       </c>
       <c r="D1068" s="1" t="s">
-        <v>3427</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="1069" hidden="1" spans="2:4">
       <c r="B1069" s="1" t="s">
-        <v>3428</v>
+        <v>3432</v>
       </c>
       <c r="C1069" s="1" t="s">
-        <v>3429</v>
+        <v>3433</v>
       </c>
       <c r="D1069" s="1" t="s">
-        <v>3430</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="1070" hidden="1" spans="2:5">
       <c r="B1070" s="1" t="s">
-        <v>3431</v>
+        <v>3435</v>
       </c>
       <c r="C1070" s="1" t="s">
-        <v>3432</v>
+        <v>3436</v>
       </c>
       <c r="D1070" s="1" t="s">
-        <v>3433</v>
+        <v>3437</v>
       </c>
       <c r="E1070" s="1" t="s">
-        <v>3434</v>
+        <v>3438</v>
       </c>
     </row>
     <row r="1071" hidden="1" spans="2:4">
       <c r="B1071" s="1" t="s">
-        <v>3435</v>
+        <v>3439</v>
       </c>
       <c r="C1071" s="1" t="s">
-        <v>3436</v>
+        <v>3440</v>
       </c>
       <c r="D1071" s="1" t="s">
-        <v>3437</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="1072" hidden="1" spans="2:4">
       <c r="B1072" s="1" t="s">
-        <v>3438</v>
+        <v>3442</v>
       </c>
       <c r="C1072" s="1" t="s">
-        <v>3439</v>
+        <v>3443</v>
       </c>
       <c r="D1072" s="1" t="s">
-        <v>3440</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="1073" hidden="1" spans="2:4">
       <c r="B1073" s="1" t="s">
-        <v>3441</v>
+        <v>3445</v>
       </c>
       <c r="C1073" s="1" t="s">
-        <v>3442</v>
+        <v>3446</v>
       </c>
       <c r="D1073" s="1" t="s">
-        <v>3443</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="1074" hidden="1" spans="2:4">
       <c r="B1074" s="1" t="s">
-        <v>3444</v>
+        <v>3448</v>
       </c>
       <c r="C1074" s="1" t="s">
-        <v>3445</v>
+        <v>3449</v>
       </c>
       <c r="D1074" s="1" t="s">
-        <v>3446</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="1075" ht="75" hidden="1" spans="2:5">
       <c r="B1075" s="1" t="s">
-        <v>3447</v>
+        <v>3451</v>
       </c>
       <c r="C1075" s="1" t="s">
-        <v>3448</v>
+        <v>3452</v>
       </c>
       <c r="D1075" s="1" t="s">
-        <v>3449</v>
+        <v>3453</v>
       </c>
       <c r="E1075" s="1" t="s">
-        <v>3450</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="1076" hidden="1" spans="2:5">
       <c r="B1076" s="1" t="s">
-        <v>3451</v>
+        <v>3455</v>
       </c>
       <c r="C1076" s="1" t="s">
-        <v>3452</v>
+        <v>3456</v>
       </c>
       <c r="D1076" s="1" t="s">
-        <v>3453</v>
+        <v>3457</v>
       </c>
       <c r="E1076" s="1" t="s">
-        <v>3454</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="1077" hidden="1" spans="2:4">
       <c r="B1077" s="1" t="s">
-        <v>3455</v>
+        <v>3459</v>
       </c>
       <c r="C1077" s="1" t="s">
-        <v>3456</v>
+        <v>3460</v>
       </c>
       <c r="D1077" s="1" t="s">
-        <v>3457</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1078" hidden="1" spans="2:4">
       <c r="B1078" s="1" t="s">
-        <v>3458</v>
+        <v>3462</v>
       </c>
       <c r="C1078" s="1" t="s">
-        <v>3459</v>
+        <v>3463</v>
       </c>
       <c r="D1078" s="1" t="s">
-        <v>3460</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="1079" hidden="1" spans="2:4">
       <c r="B1079" s="1" t="s">
-        <v>3461</v>
+        <v>3465</v>
       </c>
       <c r="C1079" s="1" t="s">
-        <v>3462</v>
+        <v>3466</v>
       </c>
       <c r="D1079" s="1" t="s">
-        <v>3463</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1080" hidden="1" spans="2:4">
       <c r="B1080" s="1" t="s">
-        <v>3464</v>
+        <v>3468</v>
       </c>
       <c r="C1080" s="1" t="s">
-        <v>3465</v>
+        <v>3469</v>
       </c>
       <c r="D1080" s="1" t="s">
-        <v>3466</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="1081" ht="112.5" hidden="1" spans="2:5">
       <c r="B1081" s="1" t="s">
-        <v>3467</v>
+        <v>3471</v>
       </c>
       <c r="C1081" s="1" t="s">
-        <v>3468</v>
+        <v>3472</v>
       </c>
       <c r="D1081" s="1" t="s">
-        <v>3469</v>
+        <v>3473</v>
       </c>
       <c r="E1081" s="1" t="s">
-        <v>3470</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="1082" hidden="1" spans="2:4">
       <c r="B1082" s="1" t="s">
-        <v>3471</v>
+        <v>3475</v>
       </c>
       <c r="C1082" s="1" t="s">
-        <v>3472</v>
+        <v>3476</v>
       </c>
       <c r="D1082" s="1" t="s">
-        <v>3473</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="1083" hidden="1" spans="2:4">
       <c r="B1083" s="1" t="s">
-        <v>3474</v>
+        <v>3478</v>
       </c>
       <c r="C1083" s="1" t="s">
-        <v>3475</v>
+        <v>3479</v>
       </c>
       <c r="D1083" s="1" t="s">
-        <v>3476</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="1084" hidden="1" spans="2:5">
       <c r="B1084" s="1" t="s">
-        <v>3477</v>
+        <v>3481</v>
       </c>
       <c r="C1084" s="1" t="s">
-        <v>3478</v>
+        <v>3482</v>
       </c>
       <c r="D1084" s="1" t="s">
-        <v>3479</v>
+        <v>3483</v>
       </c>
       <c r="E1084" s="1" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="1085" ht="37.5" hidden="1" spans="2:4">
       <c r="B1085" s="1" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C1085" s="1" t="s">
-        <v>3482</v>
+        <v>3486</v>
       </c>
       <c r="D1085" s="1" t="s">
-        <v>3483</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="1086" hidden="1" spans="2:4">
       <c r="B1086" s="1" t="s">
-        <v>3484</v>
+        <v>3488</v>
       </c>
       <c r="C1086" s="1" t="s">
-        <v>3485</v>
+        <v>3489</v>
       </c>
       <c r="D1086" s="1" t="s">
-        <v>3486</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="1087" hidden="1" spans="2:4">
       <c r="B1087" s="1" t="s">
-        <v>3487</v>
+        <v>3491</v>
       </c>
       <c r="C1087" s="1" t="s">
-        <v>3488</v>
+        <v>3492</v>
       </c>
       <c r="D1087" s="1" t="s">
-        <v>3489</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="1088" ht="37.5" hidden="1" spans="2:4">
       <c r="B1088" s="1" t="s">
-        <v>3490</v>
+        <v>3494</v>
       </c>
       <c r="C1088" s="1" t="s">
-        <v>3491</v>
+        <v>3495</v>
       </c>
       <c r="D1088" s="1" t="s">
-        <v>3492</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="1089" hidden="1" spans="2:4">
       <c r="B1089" s="1" t="s">
-        <v>3493</v>
+        <v>3497</v>
       </c>
       <c r="C1089" s="1" t="s">
-        <v>3494</v>
+        <v>3498</v>
       </c>
       <c r="D1089" s="1" t="s">
-        <v>3495</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1090" hidden="1" spans="2:4">
       <c r="B1090" s="1" t="s">
-        <v>3496</v>
+        <v>3500</v>
       </c>
       <c r="C1090" s="1" t="s">
-        <v>3497</v>
+        <v>3501</v>
       </c>
       <c r="D1090" s="1" t="s">
-        <v>3498</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="1091" hidden="1" spans="2:4">
       <c r="B1091" s="1" t="s">
-        <v>3499</v>
+        <v>3503</v>
       </c>
       <c r="C1091" s="1" t="s">
-        <v>3500</v>
+        <v>3504</v>
       </c>
       <c r="D1091" s="1" t="s">
-        <v>3501</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1092" ht="37.5" hidden="1" spans="2:4">
       <c r="B1092" s="1" t="s">
-        <v>3502</v>
+        <v>3506</v>
       </c>
       <c r="C1092" s="1" t="s">
-        <v>3503</v>
+        <v>3507</v>
       </c>
       <c r="D1092" s="1" t="s">
-        <v>3504</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="1093" hidden="1" spans="2:4">
       <c r="B1093" s="1" t="s">
-        <v>3505</v>
+        <v>3509</v>
       </c>
       <c r="C1093" s="1" t="s">
-        <v>3506</v>
+        <v>3510</v>
       </c>
       <c r="D1093" s="1" t="s">
-        <v>3507</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="1094" hidden="1" spans="2:4">
       <c r="B1094" s="1" t="s">
-        <v>3508</v>
+        <v>3512</v>
       </c>
       <c r="C1094" s="1" t="s">
-        <v>3509</v>
+        <v>3513</v>
       </c>
       <c r="D1094" s="1" t="s">
-        <v>3510</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="1095" hidden="1" spans="2:4">
       <c r="B1095" s="1" t="s">
-        <v>3511</v>
+        <v>3515</v>
       </c>
       <c r="C1095" s="1" t="s">
-        <v>3512</v>
+        <v>3516</v>
       </c>
       <c r="D1095" s="1" t="s">
-        <v>3513</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1096" hidden="1" spans="2:4">
       <c r="B1096" s="1" t="s">
-        <v>3514</v>
+        <v>3518</v>
       </c>
       <c r="C1096" s="1" t="s">
-        <v>3515</v>
+        <v>3519</v>
       </c>
       <c r="D1096" s="1" t="s">
-        <v>3516</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1097" hidden="1" spans="2:5">
       <c r="B1097" s="1" t="s">
-        <v>3517</v>
+        <v>3521</v>
       </c>
       <c r="C1097" s="1" t="s">
-        <v>3518</v>
+        <v>3522</v>
       </c>
       <c r="D1097" s="1" t="s">
-        <v>3519</v>
+        <v>3523</v>
       </c>
       <c r="E1097" s="1" t="s">
         <v>1459</v>
@@ -41891,1395 +42041,1395 @@
     </row>
     <row r="1098" hidden="1" spans="2:4">
       <c r="B1098" s="1" t="s">
-        <v>3520</v>
+        <v>3524</v>
       </c>
       <c r="C1098" s="1" t="s">
-        <v>3521</v>
+        <v>3525</v>
       </c>
       <c r="D1098" s="1" t="s">
-        <v>3522</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="1099" hidden="1" spans="2:4">
       <c r="B1099" s="1" t="s">
-        <v>3523</v>
+        <v>3527</v>
       </c>
       <c r="C1099" s="1" t="s">
-        <v>3524</v>
+        <v>3528</v>
       </c>
       <c r="D1099" s="1" t="s">
-        <v>3525</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1100" hidden="1" spans="2:4">
       <c r="B1100" s="1" t="s">
-        <v>3526</v>
+        <v>3530</v>
       </c>
       <c r="C1100" s="1" t="s">
-        <v>3527</v>
+        <v>3531</v>
       </c>
       <c r="D1100" s="1" t="s">
-        <v>3528</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="1101" ht="37.5" hidden="1" spans="2:4">
       <c r="B1101" s="1" t="s">
-        <v>3529</v>
+        <v>3533</v>
       </c>
       <c r="C1101" s="1" t="s">
-        <v>3530</v>
+        <v>3534</v>
       </c>
       <c r="D1101" s="1" t="s">
-        <v>3531</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1102" hidden="1" spans="2:4">
       <c r="B1102" s="1" t="s">
-        <v>3532</v>
+        <v>3536</v>
       </c>
       <c r="C1102" s="1" t="s">
-        <v>3533</v>
+        <v>3537</v>
       </c>
       <c r="D1102" s="1" t="s">
-        <v>3534</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1103" hidden="1" spans="2:5">
       <c r="B1103" s="1" t="s">
-        <v>3535</v>
+        <v>3539</v>
       </c>
       <c r="C1103" s="1" t="s">
-        <v>3536</v>
+        <v>3540</v>
       </c>
       <c r="D1103" s="1" t="s">
-        <v>3537</v>
+        <v>3541</v>
       </c>
       <c r="E1103" s="1" t="s">
-        <v>3538</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="1104" hidden="1" spans="2:5">
       <c r="B1104" s="1" t="s">
-        <v>3539</v>
+        <v>3543</v>
       </c>
       <c r="C1104" s="1" t="s">
-        <v>3540</v>
+        <v>3544</v>
       </c>
       <c r="D1104" s="1" t="s">
-        <v>3541</v>
+        <v>3545</v>
       </c>
       <c r="E1104" s="1" t="s">
-        <v>3542</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="1105" ht="37.5" hidden="1" spans="2:4">
       <c r="B1105" s="1" t="s">
-        <v>3543</v>
+        <v>3547</v>
       </c>
       <c r="C1105" s="1" t="s">
-        <v>3544</v>
+        <v>3548</v>
       </c>
       <c r="D1105" s="1" t="s">
-        <v>3545</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="1106" hidden="1" spans="2:4">
       <c r="B1106" s="1" t="s">
-        <v>3546</v>
+        <v>3550</v>
       </c>
       <c r="C1106" s="1" t="s">
-        <v>3547</v>
+        <v>3551</v>
       </c>
       <c r="D1106" s="1" t="s">
-        <v>3548</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="1107" hidden="1" spans="2:4">
       <c r="B1107" s="1" t="s">
-        <v>3549</v>
+        <v>3553</v>
       </c>
       <c r="C1107" s="1" t="s">
-        <v>3550</v>
+        <v>3554</v>
       </c>
       <c r="D1107" s="1" t="s">
-        <v>3551</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="1108" hidden="1" spans="2:4">
       <c r="B1108" s="1" t="s">
-        <v>3552</v>
+        <v>3556</v>
       </c>
       <c r="C1108" s="1" t="s">
-        <v>3553</v>
+        <v>3557</v>
       </c>
       <c r="D1108" s="1" t="s">
-        <v>3554</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="1109" ht="37.5" hidden="1" spans="2:5">
       <c r="B1109" s="1" t="s">
-        <v>3555</v>
+        <v>3559</v>
       </c>
       <c r="C1109" s="1" t="s">
-        <v>3556</v>
+        <v>3560</v>
       </c>
       <c r="D1109" s="1" t="s">
-        <v>3557</v>
+        <v>3561</v>
       </c>
       <c r="E1109" s="1" t="s">
-        <v>3558</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="1110" ht="37.5" hidden="1" spans="2:5">
       <c r="B1110" s="1" t="s">
-        <v>3559</v>
+        <v>3563</v>
       </c>
       <c r="C1110" s="1" t="s">
-        <v>3560</v>
+        <v>3564</v>
       </c>
       <c r="D1110" s="1" t="s">
-        <v>3561</v>
+        <v>3565</v>
       </c>
       <c r="E1110" s="1" t="s">
-        <v>3562</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="1111" hidden="1" spans="2:4">
       <c r="B1111" s="1" t="s">
-        <v>3563</v>
+        <v>3567</v>
       </c>
       <c r="C1111" s="1" t="s">
-        <v>3564</v>
+        <v>3568</v>
       </c>
       <c r="D1111" s="1" t="s">
-        <v>3565</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="1112" hidden="1" spans="2:4">
       <c r="B1112" s="1" t="s">
-        <v>3566</v>
+        <v>3570</v>
       </c>
       <c r="C1112" s="1" t="s">
-        <v>3567</v>
+        <v>3571</v>
       </c>
       <c r="D1112" s="1" t="s">
-        <v>3568</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="1113" hidden="1" spans="2:4">
       <c r="B1113" s="1" t="s">
-        <v>3569</v>
+        <v>3573</v>
       </c>
       <c r="C1113" s="1" t="s">
-        <v>3570</v>
+        <v>3574</v>
       </c>
       <c r="D1113" s="1" t="s">
-        <v>3571</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1114" ht="56.25" hidden="1" spans="2:5">
       <c r="B1114" s="1" t="s">
-        <v>3572</v>
+        <v>3576</v>
       </c>
       <c r="C1114" s="1" t="s">
-        <v>3573</v>
+        <v>3577</v>
       </c>
       <c r="D1114" s="1" t="s">
-        <v>3574</v>
+        <v>3578</v>
       </c>
       <c r="E1114" s="1" t="s">
-        <v>3575</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="1115" hidden="1" spans="2:4">
       <c r="B1115" s="1" t="s">
-        <v>3576</v>
+        <v>3580</v>
       </c>
       <c r="C1115" s="1" t="s">
-        <v>3577</v>
+        <v>3581</v>
       </c>
       <c r="D1115" s="1" t="s">
-        <v>3578</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="1116" hidden="1" spans="2:4">
       <c r="B1116" s="1" t="s">
-        <v>3579</v>
+        <v>3583</v>
       </c>
       <c r="C1116" s="1" t="s">
-        <v>3580</v>
+        <v>3584</v>
       </c>
       <c r="D1116" s="1" t="s">
-        <v>3581</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="1117" hidden="1" spans="2:5">
       <c r="B1117" s="1" t="s">
-        <v>3582</v>
+        <v>3586</v>
       </c>
       <c r="C1117" s="1" t="s">
-        <v>3583</v>
+        <v>3587</v>
       </c>
       <c r="D1117" s="1" t="s">
-        <v>3584</v>
+        <v>3588</v>
       </c>
       <c r="E1117" s="1" t="s">
-        <v>3585</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="1118" ht="37.5" hidden="1" spans="2:5">
       <c r="B1118" s="1" t="s">
-        <v>3586</v>
+        <v>3590</v>
       </c>
       <c r="C1118" s="1" t="s">
-        <v>3587</v>
+        <v>3591</v>
       </c>
       <c r="D1118" s="1" t="s">
-        <v>3588</v>
+        <v>3592</v>
       </c>
       <c r="E1118" s="1" t="s">
-        <v>3589</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1119" hidden="1" spans="2:5">
       <c r="B1119" s="1" t="s">
-        <v>3590</v>
+        <v>3594</v>
       </c>
       <c r="C1119" s="1" t="s">
-        <v>3591</v>
+        <v>3595</v>
       </c>
       <c r="D1119" s="1" t="s">
-        <v>3592</v>
+        <v>3596</v>
       </c>
       <c r="E1119" s="1" t="s">
-        <v>3593</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="1120" ht="37.5" hidden="1" spans="2:4">
       <c r="B1120" s="1" t="s">
-        <v>3594</v>
+        <v>3598</v>
       </c>
       <c r="C1120" s="1" t="s">
-        <v>3595</v>
+        <v>3599</v>
       </c>
       <c r="D1120" s="1" t="s">
-        <v>3596</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1121" ht="37.5" hidden="1" spans="2:5">
       <c r="B1121" s="1" t="s">
-        <v>3597</v>
+        <v>3601</v>
       </c>
       <c r="C1121" s="1" t="s">
-        <v>3598</v>
+        <v>3602</v>
       </c>
       <c r="D1121" s="1" t="s">
-        <v>3599</v>
+        <v>3603</v>
       </c>
       <c r="E1121" s="1" t="s">
-        <v>3600</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="1122" ht="131.25" hidden="1" spans="2:5">
       <c r="B1122" s="1" t="s">
-        <v>3601</v>
+        <v>3605</v>
       </c>
       <c r="C1122" s="1" t="s">
-        <v>3602</v>
+        <v>3606</v>
       </c>
       <c r="D1122" s="1" t="s">
-        <v>3603</v>
+        <v>3607</v>
       </c>
       <c r="E1122" s="1" t="s">
-        <v>3604</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="1123" ht="37.5" hidden="1" spans="2:5">
       <c r="B1123" s="1" t="s">
-        <v>3605</v>
+        <v>3609</v>
       </c>
       <c r="C1123" s="1" t="s">
-        <v>3606</v>
+        <v>3610</v>
       </c>
       <c r="D1123" s="1" t="s">
-        <v>3607</v>
+        <v>3611</v>
       </c>
       <c r="E1123" s="1" t="s">
-        <v>3608</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="1124" ht="37.5" hidden="1" spans="2:4">
       <c r="B1124" s="1" t="s">
-        <v>3609</v>
+        <v>3613</v>
       </c>
       <c r="C1124" s="1" t="s">
-        <v>3610</v>
+        <v>3614</v>
       </c>
       <c r="D1124" s="1" t="s">
-        <v>3611</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="1125" hidden="1" spans="2:4">
       <c r="B1125" s="1" t="s">
-        <v>3612</v>
+        <v>3616</v>
       </c>
       <c r="C1125" s="1" t="s">
-        <v>3613</v>
+        <v>3617</v>
       </c>
       <c r="D1125" s="1" t="s">
-        <v>3614</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="1126" ht="37.5" hidden="1" spans="2:5">
       <c r="B1126" s="1" t="s">
-        <v>3615</v>
+        <v>3619</v>
       </c>
       <c r="C1126" s="1" t="s">
-        <v>3616</v>
+        <v>3620</v>
       </c>
       <c r="D1126" s="1" t="s">
-        <v>3617</v>
+        <v>3621</v>
       </c>
       <c r="E1126" s="1" t="s">
-        <v>3618</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="1127" hidden="1" spans="2:4">
       <c r="B1127" s="1" t="s">
-        <v>3619</v>
+        <v>3623</v>
       </c>
       <c r="C1127" s="1" t="s">
-        <v>3620</v>
+        <v>3624</v>
       </c>
       <c r="D1127" s="1" t="s">
-        <v>3621</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="1128" ht="56.25" hidden="1" spans="2:5">
       <c r="B1128" s="1" t="s">
-        <v>3622</v>
+        <v>3626</v>
       </c>
       <c r="C1128" s="1" t="s">
-        <v>3623</v>
+        <v>3627</v>
       </c>
       <c r="D1128" s="1" t="s">
-        <v>3624</v>
+        <v>3628</v>
       </c>
       <c r="E1128" s="1" t="s">
-        <v>3625</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="1129" hidden="1" spans="2:4">
       <c r="B1129" s="1" t="s">
-        <v>3626</v>
+        <v>3630</v>
       </c>
       <c r="C1129" s="1" t="s">
-        <v>3627</v>
+        <v>3631</v>
       </c>
       <c r="D1129" s="1" t="s">
-        <v>3628</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="1130" ht="37.5" hidden="1" spans="2:4">
       <c r="B1130" s="1" t="s">
-        <v>3629</v>
+        <v>3633</v>
       </c>
       <c r="C1130" s="1" t="s">
-        <v>3630</v>
+        <v>3634</v>
       </c>
       <c r="D1130" s="1" t="s">
-        <v>3631</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="1131" ht="37.5" hidden="1" spans="2:4">
       <c r="B1131" s="1" t="s">
-        <v>3632</v>
+        <v>3636</v>
       </c>
       <c r="C1131" s="1" t="s">
-        <v>3633</v>
+        <v>3637</v>
       </c>
       <c r="D1131" s="1" t="s">
-        <v>3634</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="1132" hidden="1" spans="2:4">
       <c r="B1132" s="1" t="s">
-        <v>3635</v>
+        <v>3639</v>
       </c>
       <c r="C1132" s="1" t="s">
-        <v>3636</v>
+        <v>3640</v>
       </c>
       <c r="D1132" s="1" t="s">
-        <v>3637</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="1133" hidden="1" spans="2:4">
       <c r="B1133" s="1" t="s">
-        <v>3638</v>
+        <v>3642</v>
       </c>
       <c r="C1133" s="1" t="s">
-        <v>3639</v>
+        <v>3643</v>
       </c>
       <c r="D1133" s="1" t="s">
-        <v>3640</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="1134" ht="93.75" hidden="1" spans="2:5">
       <c r="B1134" s="1" t="s">
-        <v>3641</v>
+        <v>3645</v>
       </c>
       <c r="C1134" s="1" t="s">
-        <v>3642</v>
+        <v>3646</v>
       </c>
       <c r="D1134" s="1" t="s">
-        <v>3643</v>
+        <v>3647</v>
       </c>
       <c r="E1134" s="1" t="s">
-        <v>3644</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="1135" ht="37.5" hidden="1" spans="2:4">
       <c r="B1135" s="1" t="s">
-        <v>3645</v>
+        <v>3649</v>
       </c>
       <c r="C1135" s="1" t="s">
-        <v>3646</v>
+        <v>3650</v>
       </c>
       <c r="D1135" s="1" t="s">
-        <v>3647</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1136" ht="56.25" hidden="1" spans="2:5">
       <c r="B1136" s="1" t="s">
-        <v>3648</v>
+        <v>3652</v>
       </c>
       <c r="C1136" s="1" t="s">
-        <v>3649</v>
+        <v>3653</v>
       </c>
       <c r="D1136" s="1" t="s">
-        <v>3650</v>
+        <v>3654</v>
       </c>
       <c r="E1136" s="1" t="s">
-        <v>3651</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="1137" ht="37.5" hidden="1" spans="2:4">
       <c r="B1137" s="1" t="s">
-        <v>3652</v>
+        <v>3656</v>
       </c>
       <c r="C1137" s="1" t="s">
-        <v>3653</v>
+        <v>3657</v>
       </c>
       <c r="D1137" s="1" t="s">
-        <v>3654</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="1138" ht="37.5" hidden="1" spans="2:4">
       <c r="B1138" s="1" t="s">
-        <v>3655</v>
+        <v>3659</v>
       </c>
       <c r="C1138" s="1" t="s">
-        <v>3656</v>
+        <v>3660</v>
       </c>
       <c r="D1138" s="1" t="s">
-        <v>3657</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="1139" hidden="1" spans="2:4">
       <c r="B1139" s="1" t="s">
-        <v>3658</v>
+        <v>3662</v>
       </c>
       <c r="C1139" s="1" t="s">
-        <v>3659</v>
+        <v>3663</v>
       </c>
       <c r="D1139" s="1" t="s">
-        <v>3660</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1140" ht="56.25" hidden="1" spans="2:5">
       <c r="B1140" s="1" t="s">
-        <v>3661</v>
+        <v>3665</v>
       </c>
       <c r="C1140" s="1" t="s">
-        <v>3662</v>
+        <v>3666</v>
       </c>
       <c r="D1140" s="1" t="s">
-        <v>3663</v>
+        <v>3667</v>
       </c>
       <c r="E1140" s="1" t="s">
-        <v>3664</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="1141" hidden="1" spans="2:4">
       <c r="B1141" s="1" t="s">
-        <v>3665</v>
+        <v>3669</v>
       </c>
       <c r="C1141" s="1" t="s">
-        <v>3666</v>
+        <v>3670</v>
       </c>
       <c r="D1141" s="1" t="s">
-        <v>3667</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="1142" hidden="1" spans="2:4">
       <c r="B1142" s="1" t="s">
-        <v>3668</v>
+        <v>3672</v>
       </c>
       <c r="C1142" s="1" t="s">
-        <v>3669</v>
+        <v>3673</v>
       </c>
       <c r="D1142" s="1" t="s">
-        <v>3670</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="1143" ht="37.5" hidden="1" spans="2:4">
       <c r="B1143" s="1" t="s">
-        <v>3671</v>
+        <v>3675</v>
       </c>
       <c r="C1143" s="1" t="s">
-        <v>3672</v>
+        <v>3676</v>
       </c>
       <c r="D1143" s="1" t="s">
-        <v>3673</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="1144" ht="112.5" hidden="1" spans="2:5">
       <c r="B1144" s="1" t="s">
-        <v>3674</v>
+        <v>3678</v>
       </c>
       <c r="C1144" s="1" t="s">
-        <v>3675</v>
+        <v>3679</v>
       </c>
       <c r="D1144" s="1" t="s">
-        <v>3676</v>
+        <v>3680</v>
       </c>
       <c r="E1144" s="1" t="s">
-        <v>3677</v>
+        <v>3681</v>
       </c>
     </row>
     <row r="1145" ht="56.25" hidden="1" spans="2:5">
       <c r="B1145" s="1" t="s">
-        <v>3678</v>
+        <v>3682</v>
       </c>
       <c r="C1145" s="1" t="s">
-        <v>3679</v>
+        <v>3683</v>
       </c>
       <c r="D1145" s="1" t="s">
-        <v>3680</v>
+        <v>3684</v>
       </c>
       <c r="E1145" s="1" t="s">
-        <v>3681</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="1146" ht="131.25" hidden="1" spans="2:5">
       <c r="B1146" s="1" t="s">
-        <v>3682</v>
+        <v>3686</v>
       </c>
       <c r="C1146" s="1" t="s">
-        <v>3683</v>
+        <v>3687</v>
       </c>
       <c r="D1146" s="1" t="s">
-        <v>3684</v>
+        <v>3688</v>
       </c>
       <c r="E1146" s="1" t="s">
-        <v>3685</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="1147" hidden="1" spans="2:4">
       <c r="B1147" s="1" t="s">
-        <v>3686</v>
+        <v>3690</v>
       </c>
       <c r="C1147" s="1" t="s">
-        <v>3687</v>
+        <v>3691</v>
       </c>
       <c r="D1147" s="1" t="s">
-        <v>3688</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="1148" ht="131.25" hidden="1" spans="2:5">
       <c r="B1148" s="1" t="s">
-        <v>3689</v>
+        <v>3693</v>
       </c>
       <c r="C1148" s="1" t="s">
-        <v>3690</v>
+        <v>3694</v>
       </c>
       <c r="D1148" s="1" t="s">
-        <v>3691</v>
+        <v>3695</v>
       </c>
       <c r="E1148" s="1" t="s">
-        <v>3692</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="1149" ht="131.25" hidden="1" spans="2:5">
       <c r="B1149" s="1" t="s">
-        <v>3693</v>
+        <v>3697</v>
       </c>
       <c r="C1149" s="1" t="s">
-        <v>3694</v>
+        <v>3698</v>
       </c>
       <c r="D1149" s="1" t="s">
-        <v>3695</v>
+        <v>3699</v>
       </c>
       <c r="E1149" s="1" t="s">
-        <v>3696</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="1150" ht="37.5" hidden="1" spans="2:4">
       <c r="B1150" s="1" t="s">
-        <v>3697</v>
+        <v>3701</v>
       </c>
       <c r="C1150" s="1" t="s">
-        <v>3698</v>
+        <v>3702</v>
       </c>
       <c r="D1150" s="1" t="s">
-        <v>3699</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="1151" ht="37.5" hidden="1" spans="2:5">
       <c r="B1151" s="1" t="s">
-        <v>3700</v>
+        <v>3704</v>
       </c>
       <c r="C1151" s="1" t="s">
-        <v>3701</v>
+        <v>3705</v>
       </c>
       <c r="D1151" s="1" t="s">
-        <v>3702</v>
+        <v>3706</v>
       </c>
       <c r="E1151" s="1" t="s">
-        <v>3703</v>
+        <v>3707</v>
       </c>
     </row>
     <row r="1152" ht="150" hidden="1" spans="2:5">
       <c r="B1152" s="1" t="s">
-        <v>3704</v>
+        <v>3708</v>
       </c>
       <c r="C1152" s="1" t="s">
-        <v>3705</v>
+        <v>3709</v>
       </c>
       <c r="D1152" s="1" t="s">
-        <v>3706</v>
+        <v>3710</v>
       </c>
       <c r="E1152" s="1" t="s">
-        <v>3707</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="1153" hidden="1" spans="2:4">
       <c r="B1153" s="1" t="s">
-        <v>3708</v>
+        <v>3712</v>
       </c>
       <c r="C1153" s="1" t="s">
-        <v>3709</v>
+        <v>3713</v>
       </c>
       <c r="D1153" s="1" t="s">
-        <v>3710</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="1154" hidden="1" spans="2:5">
       <c r="B1154" s="1" t="s">
-        <v>3711</v>
+        <v>3715</v>
       </c>
       <c r="C1154" s="1" t="s">
-        <v>3712</v>
+        <v>3716</v>
       </c>
       <c r="D1154" s="1" t="s">
-        <v>3713</v>
+        <v>3717</v>
       </c>
       <c r="E1154" s="1" t="s">
-        <v>3714</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="1155" hidden="1" spans="2:4">
       <c r="B1155" s="1" t="s">
-        <v>3715</v>
+        <v>3719</v>
       </c>
       <c r="C1155" s="1" t="s">
-        <v>3716</v>
+        <v>3720</v>
       </c>
       <c r="D1155" s="1" t="s">
-        <v>3717</v>
+        <v>3721</v>
       </c>
     </row>
     <row r="1156" hidden="1" spans="2:4">
       <c r="B1156" s="1" t="s">
-        <v>3718</v>
+        <v>3722</v>
       </c>
       <c r="C1156" s="1" t="s">
-        <v>3719</v>
+        <v>3723</v>
       </c>
       <c r="D1156" s="1" t="s">
-        <v>3720</v>
+        <v>3724</v>
       </c>
     </row>
     <row r="1157" hidden="1" spans="2:4">
       <c r="B1157" s="1" t="s">
-        <v>3721</v>
+        <v>3725</v>
       </c>
       <c r="C1157" s="1" t="s">
-        <v>3722</v>
+        <v>3726</v>
       </c>
       <c r="D1157" s="1" t="s">
-        <v>3723</v>
+        <v>3727</v>
       </c>
     </row>
     <row r="1158" ht="37.5" hidden="1" spans="2:4">
       <c r="B1158" s="1" t="s">
-        <v>3724</v>
+        <v>3728</v>
       </c>
       <c r="C1158" s="1" t="s">
-        <v>3725</v>
+        <v>3729</v>
       </c>
       <c r="D1158" s="1" t="s">
-        <v>3726</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="1159" hidden="1" spans="2:4">
       <c r="B1159" s="1" t="s">
-        <v>3727</v>
+        <v>3731</v>
       </c>
       <c r="C1159" s="1" t="s">
-        <v>3728</v>
+        <v>3732</v>
       </c>
       <c r="D1159" s="1" t="s">
-        <v>3729</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="1160" ht="37.5" hidden="1" spans="2:4">
       <c r="B1160" s="1" t="s">
-        <v>3730</v>
+        <v>3734</v>
       </c>
       <c r="C1160" s="1" t="s">
-        <v>3731</v>
+        <v>3735</v>
       </c>
       <c r="D1160" s="1" t="s">
-        <v>3732</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="1161" hidden="1" spans="2:5">
       <c r="B1161" s="1" t="s">
-        <v>3733</v>
+        <v>3737</v>
       </c>
       <c r="C1161" s="1" t="s">
-        <v>3734</v>
+        <v>3738</v>
       </c>
       <c r="D1161" s="1" t="s">
-        <v>3735</v>
+        <v>3739</v>
       </c>
       <c r="E1161" s="1" t="s">
-        <v>3736</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="1162" hidden="1" spans="2:5">
       <c r="B1162" s="1" t="s">
-        <v>3737</v>
+        <v>3741</v>
       </c>
       <c r="C1162" s="1" t="s">
-        <v>3738</v>
+        <v>3742</v>
       </c>
       <c r="D1162" s="1" t="s">
-        <v>3739</v>
+        <v>3743</v>
       </c>
       <c r="E1162" s="1" t="s">
-        <v>3740</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="1163" hidden="1" spans="2:4">
       <c r="B1163" s="1" t="s">
-        <v>3741</v>
+        <v>3745</v>
       </c>
       <c r="C1163" s="1" t="s">
-        <v>3742</v>
+        <v>3746</v>
       </c>
       <c r="D1163" s="1" t="s">
-        <v>3743</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="1164" ht="37.5" hidden="1" spans="2:4">
       <c r="B1164" s="1" t="s">
-        <v>3744</v>
+        <v>3748</v>
       </c>
       <c r="C1164" s="1" t="s">
-        <v>3745</v>
+        <v>3749</v>
       </c>
       <c r="D1164" s="1" t="s">
-        <v>3746</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="1165" hidden="1" spans="2:4">
       <c r="B1165" s="1" t="s">
-        <v>3747</v>
+        <v>3751</v>
       </c>
       <c r="C1165" s="1" t="s">
-        <v>3748</v>
+        <v>3752</v>
       </c>
       <c r="D1165" s="1" t="s">
-        <v>3749</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="1166" hidden="1" spans="2:4">
       <c r="B1166" s="1" t="s">
-        <v>3750</v>
+        <v>3754</v>
       </c>
       <c r="C1166" s="1" t="s">
-        <v>3751</v>
+        <v>3755</v>
       </c>
       <c r="D1166" s="1" t="s">
-        <v>3752</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="1167" hidden="1" spans="2:5">
       <c r="B1167" s="1" t="s">
-        <v>3753</v>
+        <v>3757</v>
       </c>
       <c r="C1167" s="1" t="s">
-        <v>3754</v>
+        <v>3758</v>
       </c>
       <c r="D1167" s="1" t="s">
-        <v>3755</v>
+        <v>3759</v>
       </c>
       <c r="E1167" s="1" t="s">
-        <v>3756</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="1168" hidden="1" spans="2:4">
       <c r="B1168" s="1" t="s">
-        <v>3757</v>
+        <v>3761</v>
       </c>
       <c r="C1168" s="1" t="s">
-        <v>3758</v>
+        <v>3762</v>
       </c>
       <c r="D1168" s="1" t="s">
-        <v>3759</v>
+        <v>3763</v>
       </c>
     </row>
     <row r="1169" hidden="1" spans="2:4">
       <c r="B1169" s="1" t="s">
-        <v>3760</v>
+        <v>3764</v>
       </c>
       <c r="C1169" s="1" t="s">
-        <v>3761</v>
+        <v>3765</v>
       </c>
       <c r="D1169" s="1" t="s">
-        <v>3762</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="1170" hidden="1" spans="2:4">
       <c r="B1170" s="1" t="s">
-        <v>3763</v>
+        <v>3767</v>
       </c>
       <c r="C1170" s="1" t="s">
-        <v>3764</v>
+        <v>3768</v>
       </c>
       <c r="D1170" s="1" t="s">
-        <v>3765</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="1171" hidden="1" spans="2:4">
       <c r="B1171" s="1" t="s">
-        <v>3766</v>
+        <v>3770</v>
       </c>
       <c r="C1171" s="1" t="s">
-        <v>3767</v>
+        <v>3771</v>
       </c>
       <c r="D1171" s="1" t="s">
-        <v>3768</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="1172" hidden="1" spans="2:4">
       <c r="B1172" s="1" t="s">
-        <v>3769</v>
+        <v>3773</v>
       </c>
       <c r="C1172" s="1" t="s">
-        <v>3770</v>
+        <v>3774</v>
       </c>
       <c r="D1172" s="1" t="s">
-        <v>3771</v>
+        <v>3775</v>
       </c>
     </row>
     <row r="1173" hidden="1" spans="2:5">
       <c r="B1173" s="1" t="s">
-        <v>3772</v>
+        <v>3776</v>
       </c>
       <c r="C1173" s="1" t="s">
-        <v>3773</v>
+        <v>3777</v>
       </c>
       <c r="D1173" s="1" t="s">
-        <v>3774</v>
+        <v>3778</v>
       </c>
       <c r="E1173" s="1" t="s">
-        <v>3775</v>
+        <v>3779</v>
       </c>
     </row>
     <row r="1174" hidden="1" spans="2:4">
       <c r="B1174" s="1" t="s">
-        <v>3776</v>
+        <v>3780</v>
       </c>
       <c r="C1174" s="1" t="s">
-        <v>3777</v>
+        <v>3781</v>
       </c>
       <c r="D1174" s="1" t="s">
-        <v>3778</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="1175" hidden="1" spans="2:4">
       <c r="B1175" s="1" t="s">
-        <v>3779</v>
+        <v>3783</v>
       </c>
       <c r="C1175" s="1" t="s">
-        <v>3780</v>
+        <v>3784</v>
       </c>
       <c r="D1175" s="1" t="s">
-        <v>3781</v>
+        <v>3785</v>
       </c>
     </row>
     <row r="1176" hidden="1" spans="2:4">
       <c r="B1176" s="1" t="s">
-        <v>3782</v>
+        <v>3786</v>
       </c>
       <c r="C1176" s="1" t="s">
-        <v>3783</v>
+        <v>3787</v>
       </c>
       <c r="D1176" s="1" t="s">
-        <v>3784</v>
+        <v>3788</v>
       </c>
     </row>
     <row r="1177" hidden="1" spans="2:4">
       <c r="B1177" s="1" t="s">
-        <v>3785</v>
+        <v>3789</v>
       </c>
       <c r="C1177" s="1" t="s">
-        <v>3786</v>
+        <v>3790</v>
       </c>
       <c r="D1177" s="1" t="s">
-        <v>3787</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="1178" hidden="1" spans="2:5">
       <c r="B1178" s="1" t="s">
-        <v>3788</v>
+        <v>3792</v>
       </c>
       <c r="C1178" s="1" t="s">
-        <v>3789</v>
+        <v>3793</v>
       </c>
       <c r="D1178" s="1" t="s">
-        <v>3790</v>
+        <v>3794</v>
       </c>
       <c r="E1178" s="1" t="s">
-        <v>3791</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="1179" hidden="1" spans="2:4">
       <c r="B1179" s="1" t="s">
-        <v>3792</v>
+        <v>3796</v>
       </c>
       <c r="C1179" s="1" t="s">
-        <v>3793</v>
+        <v>3797</v>
       </c>
       <c r="D1179" s="1" t="s">
-        <v>3794</v>
+        <v>3798</v>
       </c>
     </row>
     <row r="1180" hidden="1" spans="2:4">
       <c r="B1180" s="1" t="s">
-        <v>3795</v>
+        <v>3799</v>
       </c>
       <c r="C1180" s="1" t="s">
-        <v>3796</v>
+        <v>3800</v>
       </c>
       <c r="D1180" s="1" t="s">
-        <v>3797</v>
+        <v>3801</v>
       </c>
     </row>
     <row r="1181" hidden="1" spans="2:4">
       <c r="B1181" s="1" t="s">
-        <v>3798</v>
+        <v>3802</v>
       </c>
       <c r="C1181" s="1" t="s">
-        <v>3799</v>
+        <v>3803</v>
       </c>
       <c r="D1181" s="1" t="s">
-        <v>3800</v>
+        <v>3804</v>
       </c>
     </row>
     <row r="1182" ht="93.75" hidden="1" spans="2:5">
       <c r="B1182" s="1" t="s">
-        <v>3801</v>
+        <v>3805</v>
       </c>
       <c r="C1182" s="1" t="s">
-        <v>3802</v>
+        <v>3806</v>
       </c>
       <c r="D1182" s="1" t="s">
-        <v>3803</v>
+        <v>3807</v>
       </c>
       <c r="E1182" s="1" t="s">
-        <v>3804</v>
+        <v>3808</v>
       </c>
     </row>
     <row r="1183" hidden="1" spans="2:4">
       <c r="B1183" s="1" t="s">
-        <v>3805</v>
+        <v>3809</v>
       </c>
       <c r="C1183" s="1" t="s">
-        <v>3806</v>
+        <v>3810</v>
       </c>
       <c r="D1183" s="1" t="s">
-        <v>3807</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="1184" hidden="1" spans="2:4">
       <c r="B1184" s="1" t="s">
-        <v>3808</v>
+        <v>3812</v>
       </c>
       <c r="C1184" s="1" t="s">
-        <v>3809</v>
+        <v>3813</v>
       </c>
       <c r="D1184" s="1" t="s">
-        <v>3810</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="1185" hidden="1" spans="2:4">
       <c r="B1185" s="1" t="s">
-        <v>3811</v>
+        <v>3815</v>
       </c>
       <c r="C1185" s="1" t="s">
-        <v>3812</v>
+        <v>3816</v>
       </c>
       <c r="D1185" s="1" t="s">
-        <v>3813</v>
+        <v>3817</v>
       </c>
     </row>
     <row r="1186" hidden="1" spans="2:4">
       <c r="B1186" s="1" t="s">
-        <v>3814</v>
+        <v>3818</v>
       </c>
       <c r="C1186" s="1" t="s">
-        <v>3815</v>
+        <v>3819</v>
       </c>
       <c r="D1186" s="1" t="s">
-        <v>3816</v>
+        <v>3820</v>
       </c>
     </row>
     <row r="1187" ht="37.5" hidden="1" spans="2:5">
       <c r="B1187" s="1" t="s">
-        <v>3817</v>
+        <v>3821</v>
       </c>
       <c r="C1187" s="1" t="s">
-        <v>3818</v>
+        <v>3822</v>
       </c>
       <c r="D1187" s="1" t="s">
-        <v>3819</v>
+        <v>3823</v>
       </c>
       <c r="E1187" s="1" t="s">
-        <v>3820</v>
+        <v>3824</v>
       </c>
     </row>
     <row r="1188" hidden="1" spans="2:4">
       <c r="B1188" s="1" t="s">
-        <v>3821</v>
+        <v>3825</v>
       </c>
       <c r="C1188" s="1" t="s">
-        <v>3822</v>
+        <v>3826</v>
       </c>
       <c r="D1188" s="1" t="s">
-        <v>3823</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="1189" hidden="1" spans="2:5">
       <c r="B1189" s="1" t="s">
-        <v>3824</v>
+        <v>3828</v>
       </c>
       <c r="C1189" s="1" t="s">
-        <v>3825</v>
+        <v>3829</v>
       </c>
       <c r="D1189" s="1" t="s">
-        <v>3826</v>
+        <v>3830</v>
       </c>
       <c r="E1189" s="1" t="s">
-        <v>3827</v>
+        <v>3831</v>
       </c>
     </row>
     <row r="1190" ht="112.5" hidden="1" spans="2:5">
       <c r="B1190" s="1" t="s">
-        <v>3828</v>
+        <v>3832</v>
       </c>
       <c r="C1190" s="1" t="s">
-        <v>3829</v>
+        <v>3833</v>
       </c>
       <c r="D1190" s="1" t="s">
-        <v>3830</v>
+        <v>3834</v>
       </c>
       <c r="E1190" s="1" t="s">
-        <v>3831</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="1191" hidden="1" spans="2:4">
       <c r="B1191" s="1" t="s">
-        <v>3832</v>
+        <v>3836</v>
       </c>
       <c r="C1191" s="1" t="s">
-        <v>3833</v>
+        <v>3837</v>
       </c>
       <c r="D1191" s="1" t="s">
-        <v>3834</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="1192" hidden="1" spans="2:5">
       <c r="B1192" s="1" t="s">
-        <v>3835</v>
+        <v>3839</v>
       </c>
       <c r="C1192" s="1" t="s">
-        <v>3836</v>
+        <v>3840</v>
       </c>
       <c r="D1192" s="1" t="s">
-        <v>3837</v>
+        <v>3841</v>
       </c>
       <c r="E1192" s="1" t="s">
-        <v>3838</v>
+        <v>3842</v>
       </c>
     </row>
     <row r="1193" ht="56.25" hidden="1" spans="2:5">
       <c r="B1193" s="1" t="s">
-        <v>3839</v>
+        <v>3843</v>
       </c>
       <c r="C1193" s="1" t="s">
-        <v>3840</v>
+        <v>3844</v>
       </c>
       <c r="D1193" s="1" t="s">
-        <v>3841</v>
+        <v>3845</v>
       </c>
       <c r="E1193" s="1" t="s">
-        <v>3842</v>
+        <v>3846</v>
       </c>
     </row>
     <row r="1194" hidden="1" spans="2:4">
       <c r="B1194" s="1" t="s">
-        <v>3843</v>
+        <v>3847</v>
       </c>
       <c r="C1194" s="1" t="s">
-        <v>3844</v>
+        <v>3848</v>
       </c>
       <c r="D1194" s="1" t="s">
-        <v>3845</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="1195" hidden="1" spans="2:4">
       <c r="B1195" s="1" t="s">
-        <v>3846</v>
+        <v>3850</v>
       </c>
       <c r="C1195" s="1" t="s">
-        <v>3847</v>
+        <v>3851</v>
       </c>
       <c r="D1195" s="1" t="s">
-        <v>3848</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="1196" hidden="1" spans="2:4">
       <c r="B1196" s="1" t="s">
-        <v>3849</v>
+        <v>3853</v>
       </c>
       <c r="C1196" s="1" t="s">
-        <v>3850</v>
+        <v>3854</v>
       </c>
       <c r="D1196" s="1" t="s">
-        <v>3851</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="1197" hidden="1" spans="2:4">
       <c r="B1197" s="1" t="s">
-        <v>3852</v>
+        <v>3856</v>
       </c>
       <c r="C1197" s="1" t="s">
-        <v>3853</v>
+        <v>3857</v>
       </c>
       <c r="D1197" s="1" t="s">
-        <v>3854</v>
+        <v>3858</v>
       </c>
     </row>
     <row r="1198" hidden="1" spans="2:4">
       <c r="B1198" s="1" t="s">
-        <v>3855</v>
+        <v>3859</v>
       </c>
       <c r="C1198" s="1" t="s">
-        <v>3856</v>
+        <v>3860</v>
       </c>
       <c r="D1198" s="1" t="s">
-        <v>3857</v>
+        <v>3861</v>
       </c>
     </row>
     <row r="1199" hidden="1" spans="2:4">
       <c r="B1199" s="1" t="s">
-        <v>3858</v>
+        <v>3862</v>
       </c>
       <c r="C1199" s="1" t="s">
-        <v>3859</v>
+        <v>3863</v>
       </c>
       <c r="D1199" s="1" t="s">
-        <v>3860</v>
+        <v>3864</v>
       </c>
     </row>
     <row r="1200" hidden="1" spans="2:5">
       <c r="B1200" s="1" t="s">
-        <v>3861</v>
+        <v>3865</v>
       </c>
       <c r="C1200" s="1" t="s">
-        <v>3862</v>
+        <v>3866</v>
       </c>
       <c r="D1200" s="1" t="s">
-        <v>3863</v>
+        <v>3867</v>
       </c>
       <c r="E1200" s="1" t="s">
-        <v>3864</v>
+        <v>3868</v>
       </c>
     </row>
     <row r="1201" hidden="1" spans="2:5">
       <c r="B1201" s="1" t="s">
-        <v>3865</v>
+        <v>3869</v>
       </c>
       <c r="C1201" s="1" t="s">
-        <v>3866</v>
+        <v>3870</v>
       </c>
       <c r="D1201" s="1" t="s">
-        <v>3867</v>
+        <v>3871</v>
       </c>
       <c r="E1201" s="1" t="s">
-        <v>3868</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="1202" hidden="1" spans="2:4">
       <c r="B1202" s="1" t="s">
-        <v>3869</v>
+        <v>3873</v>
       </c>
       <c r="C1202" s="1" t="s">
-        <v>3870</v>
+        <v>3874</v>
       </c>
       <c r="D1202" s="1" t="s">
-        <v>3871</v>
+        <v>3875</v>
       </c>
     </row>
     <row r="1203" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
-        <v>3872</v>
+        <v>3876</v>
       </c>
       <c r="C1203" s="1" t="s">
-        <v>3873</v>
+        <v>3877</v>
       </c>
       <c r="D1203" s="1" t="s">
-        <v>3874</v>
+        <v>3878</v>
       </c>
     </row>
     <row r="1204" hidden="1" spans="2:4">
       <c r="B1204" s="1" t="s">
-        <v>3875</v>
+        <v>3879</v>
       </c>
       <c r="C1204" s="1" t="s">
-        <v>3876</v>
+        <v>3880</v>
       </c>
       <c r="D1204" s="1" t="s">
-        <v>3877</v>
+        <v>3881</v>
       </c>
     </row>
     <row r="1205" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
-        <v>3878</v>
+        <v>3882</v>
       </c>
       <c r="C1205" s="1" t="s">
-        <v>3879</v>
+        <v>3883</v>
       </c>
       <c r="D1205" s="1" t="s">
-        <v>3880</v>
+        <v>3884</v>
       </c>
     </row>
     <row r="1206" hidden="1" spans="2:4">
       <c r="B1206" s="1" t="s">
-        <v>3881</v>
+        <v>3885</v>
       </c>
       <c r="C1206" s="1" t="s">
-        <v>3882</v>
+        <v>3886</v>
       </c>
       <c r="D1206" s="1" t="s">
-        <v>3883</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="1207" hidden="1" spans="2:5">
       <c r="B1207" s="1" t="s">
-        <v>3884</v>
+        <v>3888</v>
       </c>
       <c r="C1207" s="1" t="s">
-        <v>3885</v>
+        <v>3889</v>
       </c>
       <c r="D1207" s="1" t="s">
-        <v>3886</v>
+        <v>3890</v>
       </c>
       <c r="E1207" s="1" t="s">
-        <v>3887</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="1208" hidden="1" spans="2:4">
       <c r="B1208" s="1" t="s">
-        <v>3888</v>
+        <v>3892</v>
       </c>
       <c r="C1208" s="1" t="s">
-        <v>3889</v>
+        <v>3893</v>
       </c>
       <c r="D1208" s="1" t="s">
-        <v>3890</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="1209" hidden="1" spans="2:4">
       <c r="B1209" s="1" t="s">
-        <v>3891</v>
+        <v>3895</v>
       </c>
       <c r="C1209" s="1" t="s">
-        <v>3892</v>
+        <v>3896</v>
       </c>
       <c r="D1209" s="1" t="s">
-        <v>3893</v>
+        <v>3897</v>
       </c>
     </row>
     <row r="1210" hidden="1" spans="2:4">
       <c r="B1210" s="1" t="s">
-        <v>3894</v>
+        <v>3898</v>
       </c>
       <c r="C1210" s="1" t="s">
-        <v>3895</v>
+        <v>3899</v>
       </c>
       <c r="D1210" s="1" t="s">
-        <v>3896</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="1211" ht="75" hidden="1" spans="2:5">
       <c r="B1211" s="1" t="s">
-        <v>3897</v>
+        <v>3901</v>
       </c>
       <c r="C1211" s="1" t="s">
-        <v>3898</v>
+        <v>3902</v>
       </c>
       <c r="D1211" s="1" t="s">
-        <v>3899</v>
+        <v>3903</v>
       </c>
       <c r="E1211" s="1" t="s">
-        <v>3900</v>
+        <v>3904</v>
       </c>
     </row>
     <row r="1212" hidden="1" spans="2:4">
       <c r="B1212" s="1" t="s">
-        <v>3901</v>
+        <v>3905</v>
       </c>
       <c r="C1212" s="1" t="s">
-        <v>3902</v>
+        <v>3906</v>
       </c>
       <c r="D1212" s="1" t="s">
-        <v>3903</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1213" hidden="1" spans="2:5">
       <c r="B1213" s="1" t="s">
-        <v>3904</v>
+        <v>3908</v>
       </c>
       <c r="C1213" s="1" t="s">
-        <v>3905</v>
+        <v>3909</v>
       </c>
       <c r="D1213" s="1" t="s">
-        <v>3906</v>
+        <v>3910</v>
       </c>
       <c r="E1213" s="1" t="s">
         <v>1639</v>
@@ -43287,1026 +43437,1026 @@
     </row>
     <row r="1214" hidden="1" spans="2:4">
       <c r="B1214" s="1" t="s">
-        <v>3907</v>
+        <v>3911</v>
       </c>
       <c r="C1214" s="1" t="s">
-        <v>3908</v>
+        <v>3912</v>
       </c>
       <c r="D1214" s="1" t="s">
-        <v>3909</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="1215" hidden="1" spans="2:5">
       <c r="B1215" s="1" t="s">
-        <v>3910</v>
+        <v>3914</v>
       </c>
       <c r="C1215" s="1" t="s">
-        <v>3911</v>
+        <v>3915</v>
       </c>
       <c r="D1215" s="1" t="s">
-        <v>3912</v>
+        <v>3916</v>
       </c>
       <c r="E1215" s="1" t="s">
-        <v>3913</v>
+        <v>3917</v>
       </c>
     </row>
     <row r="1216" hidden="1" spans="2:4">
       <c r="B1216" s="1" t="s">
-        <v>3914</v>
+        <v>3918</v>
       </c>
       <c r="C1216" s="1" t="s">
-        <v>3915</v>
+        <v>3919</v>
       </c>
       <c r="D1216" s="1" t="s">
-        <v>3916</v>
+        <v>3920</v>
       </c>
     </row>
     <row r="1217" hidden="1" spans="2:4">
       <c r="B1217" s="1" t="s">
-        <v>3917</v>
+        <v>3921</v>
       </c>
       <c r="C1217" s="1" t="s">
-        <v>3918</v>
+        <v>3922</v>
       </c>
       <c r="D1217" s="1" t="s">
-        <v>3919</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="1218" hidden="1" spans="2:4">
       <c r="B1218" s="1" t="s">
-        <v>3920</v>
+        <v>3924</v>
       </c>
       <c r="C1218" s="1" t="s">
-        <v>3921</v>
+        <v>3925</v>
       </c>
       <c r="D1218" s="1" t="s">
-        <v>3922</v>
+        <v>3926</v>
       </c>
     </row>
     <row r="1219" hidden="1" spans="2:4">
       <c r="B1219" s="1" t="s">
-        <v>3923</v>
+        <v>3927</v>
       </c>
       <c r="C1219" s="1" t="s">
-        <v>3924</v>
+        <v>3928</v>
       </c>
       <c r="D1219" s="1" t="s">
-        <v>3925</v>
+        <v>3929</v>
       </c>
     </row>
     <row r="1220" hidden="1" spans="2:4">
       <c r="B1220" s="1" t="s">
-        <v>3926</v>
+        <v>3930</v>
       </c>
       <c r="C1220" s="1" t="s">
-        <v>3927</v>
+        <v>3931</v>
       </c>
       <c r="D1220" s="1" t="s">
-        <v>3928</v>
+        <v>3932</v>
       </c>
     </row>
     <row r="1221" hidden="1" spans="2:5">
       <c r="B1221" s="1" t="s">
-        <v>3929</v>
+        <v>3933</v>
       </c>
       <c r="C1221" s="1" t="s">
-        <v>3930</v>
+        <v>3934</v>
       </c>
       <c r="D1221" s="1" t="s">
-        <v>3931</v>
+        <v>3935</v>
       </c>
       <c r="E1221" s="1" t="s">
-        <v>3932</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="1222" hidden="1" spans="2:5">
       <c r="B1222" s="1" t="s">
-        <v>3933</v>
+        <v>3937</v>
       </c>
       <c r="C1222" s="1" t="s">
-        <v>3934</v>
+        <v>3938</v>
       </c>
       <c r="D1222" s="1" t="s">
-        <v>3935</v>
+        <v>3939</v>
       </c>
       <c r="E1222" s="1" t="s">
-        <v>3936</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="1223" hidden="1" spans="2:4">
       <c r="B1223" s="1" t="s">
-        <v>3937</v>
+        <v>3941</v>
       </c>
       <c r="C1223" s="1" t="s">
-        <v>3938</v>
+        <v>3942</v>
       </c>
       <c r="D1223" s="1" t="s">
-        <v>3939</v>
+        <v>3943</v>
       </c>
     </row>
     <row r="1224" ht="37.5" hidden="1" spans="2:4">
       <c r="B1224" s="1" t="s">
-        <v>3940</v>
+        <v>3944</v>
       </c>
       <c r="C1224" s="1" t="s">
-        <v>3941</v>
+        <v>3945</v>
       </c>
       <c r="D1224" s="1" t="s">
-        <v>3942</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="1225" hidden="1" spans="2:4">
       <c r="B1225" s="1" t="s">
-        <v>3943</v>
+        <v>3947</v>
       </c>
       <c r="C1225" s="1" t="s">
-        <v>3944</v>
+        <v>3948</v>
       </c>
       <c r="D1225" s="1" t="s">
-        <v>3945</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="1226" hidden="1" spans="2:4">
       <c r="B1226" s="1" t="s">
-        <v>3946</v>
+        <v>3950</v>
       </c>
       <c r="C1226" s="1" t="s">
-        <v>3947</v>
+        <v>3951</v>
       </c>
       <c r="D1226" s="1" t="s">
-        <v>3948</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="1227" ht="112.5" hidden="1" spans="2:5">
       <c r="B1227" s="1" t="s">
-        <v>3949</v>
+        <v>3953</v>
       </c>
       <c r="C1227" s="1" t="s">
-        <v>3950</v>
+        <v>3954</v>
       </c>
       <c r="D1227" s="1" t="s">
-        <v>3951</v>
+        <v>3955</v>
       </c>
       <c r="E1227" s="1" t="s">
-        <v>3952</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1228" hidden="1" spans="2:4">
       <c r="B1228" s="1" t="s">
-        <v>3953</v>
+        <v>3957</v>
       </c>
       <c r="C1228" s="1" t="s">
-        <v>3954</v>
+        <v>3958</v>
       </c>
       <c r="D1228" s="1" t="s">
-        <v>3955</v>
+        <v>3959</v>
       </c>
     </row>
     <row r="1229" hidden="1" spans="2:4">
       <c r="B1229" s="1" t="s">
-        <v>3956</v>
+        <v>3960</v>
       </c>
       <c r="C1229" s="1" t="s">
-        <v>3957</v>
+        <v>3961</v>
       </c>
       <c r="D1229" s="1" t="s">
-        <v>3958</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="1230" hidden="1" spans="2:4">
       <c r="B1230" s="1" t="s">
-        <v>3959</v>
+        <v>3963</v>
       </c>
       <c r="C1230" s="1" t="s">
-        <v>3960</v>
+        <v>3964</v>
       </c>
       <c r="D1230" s="1" t="s">
-        <v>3961</v>
+        <v>3965</v>
       </c>
     </row>
     <row r="1231" hidden="1" spans="2:5">
       <c r="B1231" s="1" t="s">
-        <v>3962</v>
+        <v>3966</v>
       </c>
       <c r="C1231" s="1" t="s">
-        <v>3963</v>
+        <v>3967</v>
       </c>
       <c r="D1231" s="1" t="s">
-        <v>3964</v>
+        <v>3968</v>
       </c>
       <c r="E1231" s="1" t="s">
-        <v>3965</v>
+        <v>3969</v>
       </c>
     </row>
     <row r="1232" ht="37.5" hidden="1" spans="2:4">
       <c r="B1232" s="1" t="s">
-        <v>3966</v>
+        <v>3970</v>
       </c>
       <c r="C1232" s="1" t="s">
-        <v>3967</v>
+        <v>3971</v>
       </c>
       <c r="D1232" s="1" t="s">
-        <v>3968</v>
+        <v>3972</v>
       </c>
     </row>
     <row r="1233" hidden="1" spans="2:4">
       <c r="B1233" s="1" t="s">
-        <v>3969</v>
+        <v>3973</v>
       </c>
       <c r="C1233" s="1" t="s">
-        <v>3970</v>
+        <v>3974</v>
       </c>
       <c r="D1233" s="1" t="s">
-        <v>3971</v>
+        <v>3975</v>
       </c>
     </row>
     <row r="1234" hidden="1" spans="2:4">
       <c r="B1234" s="1" t="s">
-        <v>3972</v>
+        <v>3976</v>
       </c>
       <c r="C1234" s="1" t="s">
-        <v>3973</v>
+        <v>3977</v>
       </c>
       <c r="D1234" s="1" t="s">
-        <v>3974</v>
+        <v>3978</v>
       </c>
     </row>
     <row r="1235" hidden="1" spans="2:4">
       <c r="B1235" s="1" t="s">
-        <v>3975</v>
+        <v>3979</v>
       </c>
       <c r="C1235" s="1" t="s">
-        <v>3976</v>
+        <v>3980</v>
       </c>
       <c r="D1235" s="1" t="s">
-        <v>3977</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="1236" hidden="1" spans="2:4">
       <c r="B1236" s="1" t="s">
-        <v>3978</v>
+        <v>3982</v>
       </c>
       <c r="C1236" s="1" t="s">
-        <v>3979</v>
+        <v>3983</v>
       </c>
       <c r="D1236" s="1" t="s">
-        <v>3980</v>
+        <v>3984</v>
       </c>
     </row>
     <row r="1237" hidden="1" spans="2:4">
       <c r="B1237" s="1" t="s">
-        <v>3981</v>
+        <v>3985</v>
       </c>
       <c r="C1237" s="1" t="s">
-        <v>3982</v>
+        <v>3986</v>
       </c>
       <c r="D1237" s="1" t="s">
-        <v>3983</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="1238" hidden="1" spans="2:4">
       <c r="B1238" s="1" t="s">
-        <v>3984</v>
+        <v>3988</v>
       </c>
       <c r="C1238" s="1" t="s">
-        <v>3985</v>
+        <v>3989</v>
       </c>
       <c r="D1238" s="1" t="s">
-        <v>3986</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="1239" ht="75" hidden="1" spans="2:5">
       <c r="B1239" s="1" t="s">
-        <v>3987</v>
+        <v>3991</v>
       </c>
       <c r="C1239" s="1" t="s">
-        <v>3988</v>
+        <v>3992</v>
       </c>
       <c r="D1239" s="1" t="s">
-        <v>3989</v>
+        <v>3993</v>
       </c>
       <c r="E1239" s="1" t="s">
-        <v>3990</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="1240" hidden="1" spans="2:4">
       <c r="B1240" s="1" t="s">
-        <v>3991</v>
+        <v>3995</v>
       </c>
       <c r="C1240" s="1" t="s">
-        <v>3992</v>
+        <v>3996</v>
       </c>
       <c r="D1240" s="1" t="s">
-        <v>3993</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="1241" hidden="1" spans="2:4">
       <c r="B1241" s="1" t="s">
-        <v>3994</v>
+        <v>3998</v>
       </c>
       <c r="C1241" s="1" t="s">
-        <v>3995</v>
+        <v>3999</v>
       </c>
       <c r="D1241" s="1" t="s">
-        <v>3996</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="1242" ht="37.5" hidden="1" spans="2:4">
       <c r="B1242" s="1" t="s">
-        <v>3997</v>
+        <v>4001</v>
       </c>
       <c r="C1242" s="1" t="s">
-        <v>3998</v>
+        <v>4002</v>
       </c>
       <c r="D1242" s="1" t="s">
-        <v>3999</v>
+        <v>4003</v>
       </c>
     </row>
     <row r="1243" hidden="1" spans="2:4">
       <c r="B1243" s="1" t="s">
-        <v>4000</v>
+        <v>4004</v>
       </c>
       <c r="C1243" s="1" t="s">
-        <v>4001</v>
+        <v>4005</v>
       </c>
       <c r="D1243" s="1" t="s">
-        <v>4002</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="1244" hidden="1" spans="2:4">
       <c r="B1244" s="1" t="s">
-        <v>4003</v>
+        <v>4007</v>
       </c>
       <c r="C1244" s="1" t="s">
-        <v>4004</v>
+        <v>4008</v>
       </c>
       <c r="D1244" s="1" t="s">
-        <v>4005</v>
+        <v>4009</v>
       </c>
     </row>
     <row r="1245" ht="37.5" hidden="1" spans="2:4">
       <c r="B1245" s="1" t="s">
-        <v>4006</v>
+        <v>4010</v>
       </c>
       <c r="C1245" s="1" t="s">
-        <v>4007</v>
+        <v>4011</v>
       </c>
       <c r="D1245" s="1" t="s">
-        <v>4008</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="1246" hidden="1" spans="2:5">
       <c r="B1246" s="1" t="s">
-        <v>3703</v>
+        <v>3707</v>
       </c>
       <c r="C1246" s="1" t="s">
-        <v>4009</v>
+        <v>4013</v>
       </c>
       <c r="D1246" s="1" t="s">
-        <v>4010</v>
+        <v>4014</v>
       </c>
       <c r="E1246" s="1" t="s">
-        <v>4011</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1247" hidden="1" spans="2:4">
       <c r="B1247" s="1" t="s">
-        <v>4012</v>
+        <v>4016</v>
       </c>
       <c r="C1247" s="1" t="s">
-        <v>4013</v>
+        <v>4017</v>
       </c>
       <c r="D1247" s="1" t="s">
-        <v>4014</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1248" ht="37.5" hidden="1" spans="2:4">
       <c r="B1248" s="1" t="s">
-        <v>4015</v>
+        <v>4019</v>
       </c>
       <c r="C1248" s="1" t="s">
-        <v>4016</v>
+        <v>4020</v>
       </c>
       <c r="D1248" s="1" t="s">
-        <v>4017</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="1249" ht="37.5" hidden="1" spans="2:4">
       <c r="B1249" s="1" t="s">
-        <v>4018</v>
+        <v>4022</v>
       </c>
       <c r="C1249" s="1" t="s">
-        <v>4019</v>
+        <v>4023</v>
       </c>
       <c r="D1249" s="1" t="s">
-        <v>4020</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1250" hidden="1" spans="2:4">
       <c r="B1250" s="1" t="s">
-        <v>4021</v>
+        <v>4025</v>
       </c>
       <c r="C1250" s="1" t="s">
-        <v>4022</v>
+        <v>4026</v>
       </c>
       <c r="D1250" s="1" t="s">
-        <v>4023</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1251" hidden="1" spans="2:4">
       <c r="B1251" s="1" t="s">
-        <v>4024</v>
+        <v>4028</v>
       </c>
       <c r="C1251" s="1" t="s">
-        <v>4025</v>
+        <v>4029</v>
       </c>
       <c r="D1251" s="1" t="s">
-        <v>4026</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1252" ht="37.5" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
-        <v>4027</v>
+        <v>4031</v>
       </c>
       <c r="C1252" s="1" t="s">
-        <v>4028</v>
+        <v>4032</v>
       </c>
       <c r="D1252" s="1" t="s">
-        <v>4029</v>
+        <v>4033</v>
       </c>
       <c r="E1252" s="1" t="s">
-        <v>4030</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1253" hidden="1" spans="2:5">
       <c r="B1253" s="1" t="s">
-        <v>4031</v>
+        <v>4035</v>
       </c>
       <c r="C1253" s="1" t="s">
-        <v>4032</v>
+        <v>4036</v>
       </c>
       <c r="D1253" s="1" t="s">
-        <v>4033</v>
+        <v>4037</v>
       </c>
       <c r="E1253" s="1" t="s">
-        <v>4034</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1254" ht="37.5" hidden="1" spans="2:4">
       <c r="B1254" s="1" t="s">
-        <v>4035</v>
+        <v>4039</v>
       </c>
       <c r="C1254" s="1" t="s">
-        <v>4036</v>
+        <v>4040</v>
       </c>
       <c r="D1254" s="1" t="s">
-        <v>4037</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="1255" hidden="1" spans="2:4">
       <c r="B1255" s="1" t="s">
-        <v>4038</v>
+        <v>4042</v>
       </c>
       <c r="C1255" s="1" t="s">
-        <v>4039</v>
+        <v>4043</v>
       </c>
       <c r="D1255" s="1" t="s">
-        <v>4040</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="1256" hidden="1" spans="2:4">
       <c r="B1256" s="1" t="s">
-        <v>4041</v>
+        <v>4045</v>
       </c>
       <c r="C1256" s="1" t="s">
-        <v>4042</v>
+        <v>4046</v>
       </c>
       <c r="D1256" s="1" t="s">
-        <v>4043</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="1257" ht="37.5" hidden="1" spans="2:4">
       <c r="B1257" s="1" t="s">
-        <v>4044</v>
+        <v>4048</v>
       </c>
       <c r="C1257" s="1" t="s">
-        <v>4045</v>
+        <v>4049</v>
       </c>
       <c r="D1257" s="1" t="s">
-        <v>4046</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1258" hidden="1" spans="2:4">
       <c r="B1258" s="1" t="s">
-        <v>4047</v>
+        <v>4051</v>
       </c>
       <c r="C1258" s="1" t="s">
-        <v>4048</v>
+        <v>4052</v>
       </c>
       <c r="D1258" s="1" t="s">
-        <v>4049</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="1259" ht="37.5" hidden="1" spans="2:5">
       <c r="B1259" s="1" t="s">
-        <v>4050</v>
+        <v>4054</v>
       </c>
       <c r="C1259" s="1" t="s">
-        <v>4051</v>
+        <v>4055</v>
       </c>
       <c r="D1259" s="1" t="s">
-        <v>4052</v>
+        <v>4056</v>
       </c>
       <c r="E1259" s="1" t="s">
-        <v>4053</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="1260" hidden="1" spans="2:4">
       <c r="B1260" s="1" t="s">
-        <v>4054</v>
+        <v>4058</v>
       </c>
       <c r="C1260" s="1" t="s">
-        <v>4055</v>
+        <v>4059</v>
       </c>
       <c r="D1260" s="1" t="s">
-        <v>4056</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="1261" hidden="1" spans="2:4">
       <c r="B1261" s="1" t="s">
-        <v>4057</v>
+        <v>4061</v>
       </c>
       <c r="C1261" s="1" t="s">
-        <v>4058</v>
+        <v>4062</v>
       </c>
       <c r="D1261" s="1" t="s">
-        <v>4059</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="1262" hidden="1" spans="2:4">
       <c r="B1262" s="1" t="s">
-        <v>4060</v>
+        <v>4064</v>
       </c>
       <c r="C1262" s="1" t="s">
-        <v>4061</v>
+        <v>4065</v>
       </c>
       <c r="D1262" s="1" t="s">
-        <v>4062</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="1263" hidden="1" spans="2:4">
       <c r="B1263" s="1" t="s">
-        <v>4063</v>
+        <v>4067</v>
       </c>
       <c r="C1263" s="1" t="s">
-        <v>4064</v>
+        <v>4068</v>
       </c>
       <c r="D1263" s="1" t="s">
-        <v>4065</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="1264" hidden="1" spans="2:4">
       <c r="B1264" s="1" t="s">
-        <v>4066</v>
+        <v>4070</v>
       </c>
       <c r="C1264" s="1" t="s">
-        <v>4067</v>
+        <v>4071</v>
       </c>
       <c r="D1264" s="1" t="s">
-        <v>4068</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="1265" hidden="1" spans="2:4">
       <c r="B1265" s="1" t="s">
-        <v>4069</v>
+        <v>4073</v>
       </c>
       <c r="C1265" s="1" t="s">
-        <v>4070</v>
+        <v>4074</v>
       </c>
       <c r="D1265" s="1" t="s">
-        <v>4071</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="1266" hidden="1" spans="2:4">
       <c r="B1266" s="1" t="s">
-        <v>4072</v>
+        <v>4076</v>
       </c>
       <c r="C1266" s="1" t="s">
-        <v>4073</v>
+        <v>4077</v>
       </c>
       <c r="D1266" s="1" t="s">
-        <v>4074</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="1267" hidden="1" spans="2:4">
       <c r="B1267" s="1" t="s">
-        <v>4075</v>
+        <v>4079</v>
       </c>
       <c r="C1267" s="1" t="s">
-        <v>4076</v>
+        <v>4080</v>
       </c>
       <c r="D1267" s="1" t="s">
-        <v>4077</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="1268" hidden="1" spans="2:4">
       <c r="B1268" s="1" t="s">
-        <v>4078</v>
+        <v>4082</v>
       </c>
       <c r="C1268" s="1" t="s">
-        <v>4079</v>
+        <v>4083</v>
       </c>
       <c r="D1268" s="1" t="s">
-        <v>4080</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="1269" hidden="1" spans="2:4">
       <c r="B1269" s="1" t="s">
-        <v>4081</v>
+        <v>4085</v>
       </c>
       <c r="C1269" s="1" t="s">
-        <v>4082</v>
+        <v>4086</v>
       </c>
       <c r="D1269" s="1" t="s">
-        <v>4083</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="1270" hidden="1" spans="2:5">
       <c r="B1270" s="1" t="s">
-        <v>4084</v>
+        <v>4088</v>
       </c>
       <c r="C1270" s="1" t="s">
-        <v>4085</v>
+        <v>4089</v>
       </c>
       <c r="D1270" s="1" t="s">
-        <v>4086</v>
+        <v>4090</v>
       </c>
       <c r="E1270" s="1" t="s">
-        <v>4087</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="1271" hidden="1" spans="2:4">
       <c r="B1271" s="1" t="s">
-        <v>4088</v>
+        <v>4092</v>
       </c>
       <c r="C1271" s="1" t="s">
-        <v>4089</v>
+        <v>4093</v>
       </c>
       <c r="D1271" s="1" t="s">
-        <v>4090</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="1272" hidden="1" spans="2:4">
       <c r="B1272" s="1" t="s">
-        <v>4091</v>
+        <v>4095</v>
       </c>
       <c r="C1272" s="1" t="s">
-        <v>4092</v>
+        <v>4096</v>
       </c>
       <c r="D1272" s="1" t="s">
-        <v>4093</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="1273" ht="37.5" hidden="1" spans="2:4">
       <c r="B1273" s="1" t="s">
-        <v>4094</v>
+        <v>4098</v>
       </c>
       <c r="C1273" s="1" t="s">
-        <v>4095</v>
+        <v>4099</v>
       </c>
       <c r="D1273" s="1" t="s">
-        <v>4096</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1274" ht="37.5" hidden="1" spans="2:4">
       <c r="B1274" s="1" t="s">
-        <v>4097</v>
+        <v>4101</v>
       </c>
       <c r="C1274" s="1" t="s">
-        <v>4098</v>
+        <v>4102</v>
       </c>
       <c r="D1274" s="1" t="s">
-        <v>4099</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="1275" hidden="1" spans="2:4">
       <c r="B1275" s="1" t="s">
-        <v>4100</v>
+        <v>4104</v>
       </c>
       <c r="C1275" s="1" t="s">
-        <v>4101</v>
+        <v>4105</v>
       </c>
       <c r="D1275" s="1" t="s">
-        <v>4102</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="1276" hidden="1" spans="2:4">
       <c r="B1276" s="1" t="s">
-        <v>4103</v>
+        <v>4107</v>
       </c>
       <c r="C1276" s="1" t="s">
-        <v>4104</v>
+        <v>4108</v>
       </c>
       <c r="D1276" s="1" t="s">
-        <v>4105</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="1277" hidden="1" spans="2:4">
       <c r="B1277" s="1" t="s">
-        <v>4106</v>
+        <v>4110</v>
       </c>
       <c r="C1277" s="1" t="s">
-        <v>4107</v>
+        <v>4111</v>
       </c>
       <c r="D1277" s="1" t="s">
-        <v>4108</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="1278" hidden="1" spans="2:4">
       <c r="B1278" s="1" t="s">
-        <v>4109</v>
+        <v>4113</v>
       </c>
       <c r="C1278" s="1" t="s">
-        <v>4110</v>
+        <v>4114</v>
       </c>
       <c r="D1278" s="1" t="s">
-        <v>4111</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="1279" hidden="1" spans="2:4">
       <c r="B1279" s="1" t="s">
-        <v>4112</v>
+        <v>4116</v>
       </c>
       <c r="C1279" s="1" t="s">
-        <v>4113</v>
+        <v>4117</v>
       </c>
       <c r="D1279" s="1" t="s">
-        <v>4114</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1280" hidden="1" spans="2:4">
       <c r="B1280" s="1" t="s">
-        <v>4115</v>
+        <v>4119</v>
       </c>
       <c r="C1280" s="1" t="s">
-        <v>4116</v>
+        <v>4120</v>
       </c>
       <c r="D1280" s="1" t="s">
-        <v>4117</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="1281" hidden="1" spans="2:4">
       <c r="B1281" s="1" t="s">
-        <v>4118</v>
+        <v>4122</v>
       </c>
       <c r="C1281" s="1" t="s">
-        <v>4119</v>
+        <v>4123</v>
       </c>
       <c r="D1281" s="1" t="s">
-        <v>4120</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="1282" hidden="1" spans="2:5">
       <c r="B1282" s="1" t="s">
-        <v>4121</v>
+        <v>4125</v>
       </c>
       <c r="C1282" s="1" t="s">
-        <v>4122</v>
+        <v>4126</v>
       </c>
       <c r="D1282" s="1" t="s">
-        <v>4123</v>
+        <v>4127</v>
       </c>
       <c r="E1282" s="1" t="s">
-        <v>4124</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="1283" hidden="1" spans="2:4">
       <c r="B1283" s="1" t="s">
-        <v>4125</v>
+        <v>4129</v>
       </c>
       <c r="C1283" s="1" t="s">
-        <v>4126</v>
+        <v>4130</v>
       </c>
       <c r="D1283" s="1" t="s">
-        <v>4127</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="1284" ht="37.5" hidden="1" spans="2:4">
       <c r="B1284" s="1" t="s">
-        <v>4128</v>
+        <v>4132</v>
       </c>
       <c r="C1284" s="1" t="s">
-        <v>4129</v>
+        <v>4133</v>
       </c>
       <c r="D1284" s="1" t="s">
-        <v>4130</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="1285" hidden="1" spans="2:4">
       <c r="B1285" s="1" t="s">
-        <v>4131</v>
+        <v>4135</v>
       </c>
       <c r="C1285" s="1" t="s">
-        <v>4132</v>
+        <v>4136</v>
       </c>
       <c r="D1285" s="1" t="s">
-        <v>4133</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="1286" hidden="1" spans="2:4">
       <c r="B1286" s="1" t="s">
-        <v>4134</v>
+        <v>4138</v>
       </c>
       <c r="C1286" s="1" t="s">
-        <v>4135</v>
+        <v>4139</v>
       </c>
       <c r="D1286" s="1" t="s">
-        <v>4136</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1287" hidden="1" spans="2:5">
       <c r="B1287" s="1" t="s">
-        <v>4137</v>
+        <v>4141</v>
       </c>
       <c r="C1287" s="1" t="s">
-        <v>4138</v>
+        <v>4142</v>
       </c>
       <c r="D1287" s="1" t="s">
-        <v>4139</v>
+        <v>4143</v>
       </c>
       <c r="E1287" s="1" t="s">
-        <v>4140</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="1288" hidden="1" spans="2:4">
       <c r="B1288" s="1" t="s">
-        <v>4141</v>
+        <v>4145</v>
       </c>
       <c r="C1288" s="1" t="s">
-        <v>4142</v>
+        <v>4146</v>
       </c>
       <c r="D1288" s="1" t="s">
-        <v>4143</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="1289" hidden="1" spans="2:4">
       <c r="B1289" s="1" t="s">
-        <v>4144</v>
+        <v>4148</v>
       </c>
       <c r="C1289" s="1" t="s">
-        <v>4145</v>
+        <v>4149</v>
       </c>
       <c r="D1289" s="1" t="s">
-        <v>4146</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1290" hidden="1" spans="2:5">
       <c r="B1290" s="1" t="s">
-        <v>4147</v>
+        <v>4151</v>
       </c>
       <c r="C1290" s="1" t="s">
-        <v>4148</v>
+        <v>4152</v>
       </c>
       <c r="D1290" s="1" t="s">
-        <v>4149</v>
+        <v>4153</v>
       </c>
       <c r="E1290" s="1" t="s">
-        <v>4150</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="1291" hidden="1" spans="2:4">
       <c r="B1291" s="1" t="s">
-        <v>4151</v>
+        <v>4155</v>
       </c>
       <c r="C1291" s="1" t="s">
-        <v>4152</v>
+        <v>4156</v>
       </c>
       <c r="D1291" s="1" t="s">
-        <v>4153</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="1292" hidden="1" spans="2:4">
       <c r="B1292" s="1" t="s">
-        <v>4154</v>
+        <v>4158</v>
       </c>
       <c r="C1292" s="1" t="s">
-        <v>4155</v>
+        <v>4159</v>
       </c>
       <c r="D1292" s="1" t="s">
-        <v>4156</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1293" hidden="1" spans="2:4">
       <c r="B1293" s="1" t="s">
-        <v>4157</v>
+        <v>4161</v>
       </c>
       <c r="C1293" s="1" t="s">
-        <v>4158</v>
+        <v>4162</v>
       </c>
       <c r="D1293" s="1" t="s">
-        <v>4159</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="1294" ht="93.75" hidden="1" spans="2:5">
       <c r="B1294" s="1" t="s">
-        <v>4160</v>
+        <v>4164</v>
       </c>
       <c r="C1294" s="1" t="s">
-        <v>4161</v>
+        <v>4165</v>
       </c>
       <c r="D1294" s="1" t="s">
-        <v>4162</v>
+        <v>4166</v>
       </c>
       <c r="E1294" s="1" t="s">
-        <v>4163</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="1295" hidden="1" spans="2:4">
       <c r="B1295" s="1" t="s">
-        <v>4164</v>
+        <v>4168</v>
       </c>
       <c r="C1295" s="1" t="s">
-        <v>4165</v>
+        <v>4169</v>
       </c>
       <c r="D1295" s="1" t="s">
-        <v>4166</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="1296" hidden="1" spans="2:4">
       <c r="B1296" s="1" t="s">
-        <v>4167</v>
+        <v>4171</v>
       </c>
       <c r="C1296" s="1" t="s">
-        <v>4168</v>
+        <v>4172</v>
       </c>
       <c r="D1296" s="1" t="s">
-        <v>4169</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="1297" hidden="1" spans="2:4">
       <c r="B1297" s="1" t="s">
-        <v>4170</v>
+        <v>4174</v>
       </c>
       <c r="C1297" s="1" t="s">
-        <v>4171</v>
+        <v>4175</v>
       </c>
       <c r="D1297" s="1" t="s">
-        <v>4172</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="1298" hidden="1" spans="2:4">
       <c r="B1298" s="1" t="s">
-        <v>4173</v>
+        <v>4177</v>
       </c>
       <c r="C1298" s="1" t="s">
-        <v>4174</v>
+        <v>4178</v>
       </c>
       <c r="D1298" s="1" t="s">
-        <v>4175</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="1299" ht="37.5" hidden="1" spans="2:4">
       <c r="B1299" s="1" t="s">
-        <v>4176</v>
+        <v>4180</v>
       </c>
       <c r="C1299" s="1" t="s">
-        <v>4177</v>
+        <v>4181</v>
       </c>
       <c r="D1299" s="1" t="s">
-        <v>4178</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="1300" hidden="1" spans="2:4">
       <c r="B1300" s="1" t="s">
-        <v>4179</v>
+        <v>4183</v>
       </c>
       <c r="C1300" s="1" t="s">
-        <v>4180</v>
+        <v>4184</v>
       </c>
       <c r="D1300" s="1" t="s">
-        <v>4181</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="1301" hidden="1" spans="2:4">
       <c r="B1301" s="1" t="s">
-        <v>4182</v>
+        <v>4186</v>
       </c>
       <c r="C1301" s="1" t="s">
-        <v>4183</v>
+        <v>4187</v>
       </c>
       <c r="D1301" s="1" t="s">
-        <v>4184</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1302" hidden="1" spans="2:5">
       <c r="B1302" s="1" t="s">
-        <v>4185</v>
+        <v>4189</v>
       </c>
       <c r="C1302" s="1" t="s">
-        <v>4186</v>
+        <v>4190</v>
       </c>
       <c r="D1302" s="1" t="s">
-        <v>4187</v>
+        <v>4191</v>
       </c>
       <c r="E1302" s="1" t="s">
         <v>397</v>
@@ -44314,1469 +44464,1469 @@
     </row>
     <row r="1303" hidden="1" spans="2:4">
       <c r="B1303" s="1" t="s">
-        <v>4188</v>
+        <v>4192</v>
       </c>
       <c r="C1303" s="1" t="s">
-        <v>4189</v>
+        <v>4193</v>
       </c>
       <c r="D1303" s="1" t="s">
-        <v>4190</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="1304" ht="37.5" hidden="1" spans="2:4">
       <c r="B1304" s="1" t="s">
-        <v>4191</v>
+        <v>4195</v>
       </c>
       <c r="C1304" s="1" t="s">
-        <v>4192</v>
+        <v>4196</v>
       </c>
       <c r="D1304" s="1" t="s">
-        <v>4193</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="1305" hidden="1" spans="2:4">
       <c r="B1305" s="1" t="s">
-        <v>4194</v>
+        <v>4198</v>
       </c>
       <c r="C1305" s="1" t="s">
-        <v>4195</v>
+        <v>4199</v>
       </c>
       <c r="D1305" s="1" t="s">
-        <v>4196</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1306" hidden="1" spans="2:4">
       <c r="B1306" s="1" t="s">
-        <v>4197</v>
+        <v>4201</v>
       </c>
       <c r="C1306" s="1" t="s">
-        <v>4198</v>
+        <v>4202</v>
       </c>
       <c r="D1306" s="1" t="s">
-        <v>4199</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="1307" hidden="1" spans="2:4">
       <c r="B1307" s="1" t="s">
-        <v>4200</v>
+        <v>4204</v>
       </c>
       <c r="C1307" s="1" t="s">
-        <v>4201</v>
+        <v>4205</v>
       </c>
       <c r="D1307" s="1" t="s">
-        <v>4202</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="1308" hidden="1" spans="2:4">
       <c r="B1308" s="1" t="s">
-        <v>4203</v>
+        <v>4207</v>
       </c>
       <c r="C1308" s="1" t="s">
-        <v>4204</v>
+        <v>4208</v>
       </c>
       <c r="D1308" s="1" t="s">
-        <v>4205</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="1309" hidden="1" spans="2:4">
       <c r="B1309" s="1" t="s">
-        <v>4206</v>
+        <v>4210</v>
       </c>
       <c r="C1309" s="1" t="s">
-        <v>4207</v>
+        <v>4211</v>
       </c>
       <c r="D1309" s="1" t="s">
-        <v>4208</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1310" hidden="1" spans="2:4">
       <c r="B1310" s="1" t="s">
-        <v>4209</v>
+        <v>4213</v>
       </c>
       <c r="C1310" s="1" t="s">
-        <v>4210</v>
+        <v>4214</v>
       </c>
       <c r="D1310" s="1" t="s">
-        <v>4211</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="1311" ht="37.5" hidden="1" spans="2:4">
       <c r="B1311" s="1" t="s">
-        <v>4212</v>
+        <v>4216</v>
       </c>
       <c r="C1311" s="1" t="s">
-        <v>4213</v>
+        <v>4217</v>
       </c>
       <c r="D1311" s="1" t="s">
-        <v>4214</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1312" hidden="1" spans="2:4">
       <c r="B1312" s="1" t="s">
-        <v>4215</v>
+        <v>4219</v>
       </c>
       <c r="C1312" s="1" t="s">
-        <v>4216</v>
+        <v>4220</v>
       </c>
       <c r="D1312" s="1" t="s">
-        <v>4217</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="1313" ht="150" hidden="1" spans="2:5">
       <c r="B1313" s="1" t="s">
-        <v>4218</v>
+        <v>4222</v>
       </c>
       <c r="C1313" s="1" t="s">
-        <v>4219</v>
+        <v>4223</v>
       </c>
       <c r="D1313" s="1" t="s">
-        <v>4220</v>
+        <v>4224</v>
       </c>
       <c r="E1313" s="1" t="s">
-        <v>4221</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="1314" hidden="1" spans="2:4">
       <c r="B1314" s="1" t="s">
-        <v>4222</v>
+        <v>4226</v>
       </c>
       <c r="C1314" s="1" t="s">
-        <v>4223</v>
+        <v>4227</v>
       </c>
       <c r="D1314" s="1" t="s">
-        <v>4224</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1315" hidden="1" spans="2:4">
       <c r="B1315" s="1" t="s">
-        <v>4225</v>
+        <v>4229</v>
       </c>
       <c r="C1315" s="1" t="s">
-        <v>4226</v>
+        <v>4230</v>
       </c>
       <c r="D1315" s="1" t="s">
-        <v>4227</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1316" ht="37.5" hidden="1" spans="2:5">
       <c r="B1316" s="1" t="s">
-        <v>4228</v>
+        <v>4232</v>
       </c>
       <c r="C1316" s="1" t="s">
-        <v>4229</v>
+        <v>4233</v>
       </c>
       <c r="D1316" s="1" t="s">
-        <v>4230</v>
+        <v>4234</v>
       </c>
       <c r="E1316" s="1" t="s">
-        <v>4231</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="1317" hidden="1" spans="2:4">
       <c r="B1317" s="1" t="s">
-        <v>4232</v>
+        <v>4236</v>
       </c>
       <c r="C1317" s="1" t="s">
-        <v>4233</v>
+        <v>4237</v>
       </c>
       <c r="D1317" s="1" t="s">
-        <v>4234</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1318" ht="37.5" hidden="1" spans="2:4">
       <c r="B1318" s="1" t="s">
-        <v>4235</v>
+        <v>4239</v>
       </c>
       <c r="C1318" s="1" t="s">
-        <v>4236</v>
+        <v>4240</v>
       </c>
       <c r="D1318" s="1" t="s">
-        <v>4237</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="1319" hidden="1" spans="2:4">
       <c r="B1319" s="1" t="s">
-        <v>4238</v>
+        <v>4242</v>
       </c>
       <c r="C1319" s="1" t="s">
-        <v>4239</v>
+        <v>4243</v>
       </c>
       <c r="D1319" s="1" t="s">
-        <v>4240</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1320" hidden="1" spans="2:5">
       <c r="B1320" s="1" t="s">
-        <v>4241</v>
+        <v>4245</v>
       </c>
       <c r="C1320" s="1" t="s">
-        <v>4242</v>
+        <v>4246</v>
       </c>
       <c r="D1320" s="1" t="s">
-        <v>4243</v>
+        <v>4247</v>
       </c>
       <c r="E1320" s="1" t="s">
-        <v>4244</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1321" hidden="1" spans="2:4">
       <c r="B1321" s="1" t="s">
-        <v>4245</v>
+        <v>4249</v>
       </c>
       <c r="C1321" s="1" t="s">
-        <v>4246</v>
+        <v>4250</v>
       </c>
       <c r="D1321" s="1" t="s">
-        <v>4247</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="1322" hidden="1" spans="2:4">
       <c r="B1322" s="1" t="s">
-        <v>4248</v>
+        <v>4252</v>
       </c>
       <c r="C1322" s="1" t="s">
-        <v>4249</v>
+        <v>4253</v>
       </c>
       <c r="D1322" s="1" t="s">
-        <v>4250</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1323" hidden="1" spans="2:4">
       <c r="B1323" s="1" t="s">
-        <v>4251</v>
+        <v>4255</v>
       </c>
       <c r="C1323" s="1" t="s">
-        <v>4252</v>
+        <v>4256</v>
       </c>
       <c r="D1323" s="1" t="s">
-        <v>4253</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="1324" hidden="1" spans="2:4">
       <c r="B1324" s="1" t="s">
-        <v>4254</v>
+        <v>4258</v>
       </c>
       <c r="C1324" s="1" t="s">
-        <v>4255</v>
+        <v>4259</v>
       </c>
       <c r="D1324" s="1" t="s">
-        <v>4256</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1325" hidden="1" spans="2:4">
       <c r="B1325" s="1" t="s">
-        <v>4257</v>
+        <v>4261</v>
       </c>
       <c r="C1325" s="1" t="s">
-        <v>4258</v>
+        <v>4262</v>
       </c>
       <c r="D1325" s="1" t="s">
-        <v>4259</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="1326" hidden="1" spans="2:4">
       <c r="B1326" s="1" t="s">
-        <v>4260</v>
+        <v>4264</v>
       </c>
       <c r="C1326" s="1" t="s">
-        <v>4261</v>
+        <v>4265</v>
       </c>
       <c r="D1326" s="1" t="s">
-        <v>4262</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1327" hidden="1" spans="2:5">
       <c r="B1327" s="1" t="s">
-        <v>4263</v>
+        <v>4267</v>
       </c>
       <c r="C1327" s="1" t="s">
-        <v>4264</v>
+        <v>4268</v>
       </c>
       <c r="D1327" s="1" t="s">
-        <v>4265</v>
+        <v>4269</v>
       </c>
       <c r="E1327" s="1" t="s">
-        <v>4266</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1328" ht="37.5" hidden="1" spans="2:4">
       <c r="B1328" s="1" t="s">
-        <v>4267</v>
+        <v>4271</v>
       </c>
       <c r="C1328" s="1" t="s">
-        <v>4268</v>
+        <v>4272</v>
       </c>
       <c r="D1328" s="1" t="s">
-        <v>4269</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="1329" hidden="1" spans="2:4">
       <c r="B1329" s="1" t="s">
-        <v>4270</v>
+        <v>4274</v>
       </c>
       <c r="C1329" s="1" t="s">
-        <v>4271</v>
+        <v>4275</v>
       </c>
       <c r="D1329" s="1" t="s">
-        <v>4272</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1330" hidden="1" spans="2:4">
       <c r="B1330" s="1" t="s">
-        <v>4273</v>
+        <v>4277</v>
       </c>
       <c r="C1330" s="1" t="s">
-        <v>4274</v>
+        <v>4278</v>
       </c>
       <c r="D1330" s="1" t="s">
-        <v>4275</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1331" hidden="1" spans="2:4">
       <c r="B1331" s="1" t="s">
-        <v>4276</v>
+        <v>4280</v>
       </c>
       <c r="C1331" s="1" t="s">
-        <v>4277</v>
+        <v>4281</v>
       </c>
       <c r="D1331" s="1" t="s">
-        <v>4278</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1332" hidden="1" spans="2:5">
       <c r="B1332" s="1" t="s">
-        <v>4279</v>
+        <v>4283</v>
       </c>
       <c r="C1332" s="1" t="s">
-        <v>4280</v>
+        <v>4284</v>
       </c>
       <c r="D1332" s="1" t="s">
-        <v>4281</v>
+        <v>4285</v>
       </c>
       <c r="E1332" s="1" t="s">
-        <v>4282</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1333" ht="37.5" hidden="1" spans="2:4">
       <c r="B1333" s="1" t="s">
-        <v>4283</v>
+        <v>4287</v>
       </c>
       <c r="C1333" s="1" t="s">
-        <v>4284</v>
+        <v>4288</v>
       </c>
       <c r="D1333" s="1" t="s">
-        <v>4285</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1334" hidden="1" spans="2:4">
       <c r="B1334" s="1" t="s">
-        <v>4286</v>
+        <v>4290</v>
       </c>
       <c r="C1334" s="1" t="s">
-        <v>4287</v>
+        <v>4291</v>
       </c>
       <c r="D1334" s="1" t="s">
-        <v>4288</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1335" hidden="1" spans="2:4">
       <c r="B1335" s="1" t="s">
-        <v>4289</v>
+        <v>4293</v>
       </c>
       <c r="C1335" s="1" t="s">
-        <v>4290</v>
+        <v>4294</v>
       </c>
       <c r="D1335" s="1" t="s">
-        <v>4291</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1336" hidden="1" spans="2:4">
       <c r="B1336" s="1" t="s">
-        <v>4292</v>
+        <v>4296</v>
       </c>
       <c r="C1336" s="1" t="s">
-        <v>4293</v>
+        <v>4297</v>
       </c>
       <c r="D1336" s="1" t="s">
-        <v>4294</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1337" hidden="1" spans="2:4">
       <c r="B1337" s="1" t="s">
-        <v>4295</v>
+        <v>4299</v>
       </c>
       <c r="C1337" s="1" t="s">
-        <v>4296</v>
+        <v>4300</v>
       </c>
       <c r="D1337" s="1" t="s">
-        <v>4297</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1338" hidden="1" spans="2:4">
       <c r="B1338" s="1" t="s">
-        <v>4298</v>
+        <v>4302</v>
       </c>
       <c r="C1338" s="1" t="s">
-        <v>4299</v>
+        <v>4303</v>
       </c>
       <c r="D1338" s="1" t="s">
-        <v>4300</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1339" hidden="1" spans="2:4">
       <c r="B1339" s="1" t="s">
-        <v>4301</v>
+        <v>4305</v>
       </c>
       <c r="C1339" s="1" t="s">
-        <v>4302</v>
+        <v>4306</v>
       </c>
       <c r="D1339" s="1" t="s">
-        <v>4303</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1340" hidden="1" spans="2:4">
       <c r="B1340" s="1" t="s">
-        <v>4304</v>
+        <v>4308</v>
       </c>
       <c r="C1340" s="1" t="s">
-        <v>4305</v>
+        <v>4309</v>
       </c>
       <c r="D1340" s="1" t="s">
-        <v>4306</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="1341" hidden="1" spans="2:4">
       <c r="B1341" s="1" t="s">
-        <v>4307</v>
+        <v>4311</v>
       </c>
       <c r="C1341" s="1" t="s">
-        <v>4308</v>
+        <v>4312</v>
       </c>
       <c r="D1341" s="1" t="s">
-        <v>4309</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="1342" hidden="1" spans="2:4">
       <c r="B1342" s="1" t="s">
-        <v>4310</v>
+        <v>4314</v>
       </c>
       <c r="C1342" s="1" t="s">
-        <v>4311</v>
+        <v>4315</v>
       </c>
       <c r="D1342" s="1" t="s">
-        <v>4312</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="1343" ht="56.25" hidden="1" spans="2:5">
       <c r="B1343" s="1" t="s">
-        <v>4313</v>
+        <v>4317</v>
       </c>
       <c r="C1343" s="1" t="s">
-        <v>4314</v>
+        <v>4318</v>
       </c>
       <c r="D1343" s="1" t="s">
-        <v>4315</v>
+        <v>4319</v>
       </c>
       <c r="E1343" s="1" t="s">
-        <v>4316</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="1344" hidden="1" spans="2:4">
       <c r="B1344" s="1" t="s">
-        <v>4317</v>
+        <v>4321</v>
       </c>
       <c r="C1344" s="1" t="s">
-        <v>4318</v>
+        <v>4322</v>
       </c>
       <c r="D1344" s="1" t="s">
-        <v>4319</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="1345" hidden="1" spans="2:4">
       <c r="B1345" s="1" t="s">
-        <v>4320</v>
+        <v>4324</v>
       </c>
       <c r="C1345" s="1" t="s">
-        <v>4321</v>
+        <v>4325</v>
       </c>
       <c r="D1345" s="1" t="s">
-        <v>4322</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="1346" hidden="1" spans="2:4">
       <c r="B1346" s="1" t="s">
-        <v>4323</v>
+        <v>4327</v>
       </c>
       <c r="C1346" s="1" t="s">
-        <v>4324</v>
+        <v>4328</v>
       </c>
       <c r="D1346" s="1" t="s">
-        <v>4325</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="1347" hidden="1" spans="2:4">
       <c r="B1347" s="1" t="s">
-        <v>4326</v>
+        <v>4330</v>
       </c>
       <c r="C1347" s="1" t="s">
-        <v>4327</v>
+        <v>4331</v>
       </c>
       <c r="D1347" s="1" t="s">
-        <v>4328</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="1348" hidden="1" spans="2:4">
       <c r="B1348" s="1" t="s">
-        <v>4329</v>
+        <v>4333</v>
       </c>
       <c r="C1348" s="1" t="s">
-        <v>4330</v>
+        <v>4334</v>
       </c>
       <c r="D1348" s="1" t="s">
-        <v>4331</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="1349" ht="56.25" hidden="1" spans="2:5">
       <c r="B1349" s="1" t="s">
-        <v>4332</v>
+        <v>4336</v>
       </c>
       <c r="C1349" s="1" t="s">
-        <v>4333</v>
+        <v>4337</v>
       </c>
       <c r="D1349" s="1" t="s">
-        <v>4334</v>
+        <v>4338</v>
       </c>
       <c r="E1349" s="1" t="s">
-        <v>4335</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="1350" hidden="1" spans="2:4">
       <c r="B1350" s="1" t="s">
-        <v>4336</v>
+        <v>4340</v>
       </c>
       <c r="C1350" s="1" t="s">
-        <v>4337</v>
+        <v>4341</v>
       </c>
       <c r="D1350" s="1" t="s">
-        <v>4338</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="1351" hidden="1" spans="2:4">
       <c r="B1351" s="1" t="s">
-        <v>4339</v>
+        <v>4343</v>
       </c>
       <c r="C1351" s="1" t="s">
-        <v>4340</v>
+        <v>4344</v>
       </c>
       <c r="D1351" s="1" t="s">
-        <v>4341</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="1352" ht="37.5" hidden="1" spans="2:4">
       <c r="B1352" s="1" t="s">
-        <v>4342</v>
+        <v>4346</v>
       </c>
       <c r="C1352" s="1" t="s">
-        <v>4343</v>
+        <v>4347</v>
       </c>
       <c r="D1352" s="1" t="s">
-        <v>4344</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="1353" hidden="1" spans="2:4">
       <c r="B1353" s="1" t="s">
-        <v>4345</v>
+        <v>4349</v>
       </c>
       <c r="C1353" s="1" t="s">
-        <v>4346</v>
+        <v>4350</v>
       </c>
       <c r="D1353" s="1" t="s">
-        <v>4347</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="1354" hidden="1" spans="2:4">
       <c r="B1354" s="1" t="s">
-        <v>4348</v>
+        <v>4352</v>
       </c>
       <c r="C1354" s="1" t="s">
-        <v>4349</v>
+        <v>4353</v>
       </c>
       <c r="D1354" s="1" t="s">
-        <v>4350</v>
+        <v>4354</v>
       </c>
     </row>
     <row r="1355" hidden="1" spans="2:4">
       <c r="B1355" s="1" t="s">
-        <v>4351</v>
+        <v>4355</v>
       </c>
       <c r="C1355" s="1" t="s">
-        <v>4352</v>
+        <v>4356</v>
       </c>
       <c r="D1355" s="1" t="s">
-        <v>4353</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="1356" hidden="1" spans="2:4">
       <c r="B1356" s="1" t="s">
-        <v>4354</v>
+        <v>4358</v>
       </c>
       <c r="C1356" s="1" t="s">
-        <v>4355</v>
+        <v>4359</v>
       </c>
       <c r="D1356" s="1" t="s">
-        <v>4356</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="1357" hidden="1" spans="2:4">
       <c r="B1357" s="1" t="s">
-        <v>4357</v>
+        <v>4361</v>
       </c>
       <c r="C1357" s="1" t="s">
-        <v>4358</v>
+        <v>4362</v>
       </c>
       <c r="D1357" s="1" t="s">
-        <v>4359</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="1358" ht="37.5" hidden="1" spans="2:5">
       <c r="B1358" s="1" t="s">
-        <v>4360</v>
+        <v>4364</v>
       </c>
       <c r="C1358" s="1" t="s">
-        <v>4361</v>
+        <v>4365</v>
       </c>
       <c r="D1358" s="1" t="s">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="E1358" s="1" t="s">
-        <v>4363</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="1359" hidden="1" spans="2:4">
       <c r="B1359" s="1" t="s">
-        <v>4364</v>
+        <v>4368</v>
       </c>
       <c r="C1359" s="1" t="s">
-        <v>4365</v>
+        <v>4369</v>
       </c>
       <c r="D1359" s="1" t="s">
-        <v>4366</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="1360" hidden="1" spans="2:4">
       <c r="B1360" s="1" t="s">
-        <v>4367</v>
+        <v>4371</v>
       </c>
       <c r="C1360" s="1" t="s">
-        <v>4368</v>
+        <v>4372</v>
       </c>
       <c r="D1360" s="1" t="s">
-        <v>4369</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="1361" hidden="1" spans="2:5">
       <c r="B1361" s="1" t="s">
-        <v>4370</v>
+        <v>4374</v>
       </c>
       <c r="C1361" s="1" t="s">
-        <v>4371</v>
+        <v>4375</v>
       </c>
       <c r="D1361" s="1" t="s">
-        <v>4372</v>
+        <v>4376</v>
       </c>
       <c r="E1361" s="1" t="s">
-        <v>4373</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="1362" hidden="1" spans="2:4">
       <c r="B1362" s="1" t="s">
-        <v>4374</v>
+        <v>4378</v>
       </c>
       <c r="C1362" s="1" t="s">
-        <v>4375</v>
+        <v>4379</v>
       </c>
       <c r="D1362" s="1" t="s">
-        <v>4376</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="1363" hidden="1" spans="2:4">
       <c r="B1363" s="1" t="s">
-        <v>4377</v>
+        <v>4381</v>
       </c>
       <c r="C1363" s="1" t="s">
-        <v>4378</v>
+        <v>4382</v>
       </c>
       <c r="D1363" s="1" t="s">
-        <v>4379</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="1364" hidden="1" spans="2:4">
       <c r="B1364" s="1" t="s">
-        <v>4380</v>
+        <v>4384</v>
       </c>
       <c r="C1364" s="1" t="s">
-        <v>4381</v>
+        <v>4385</v>
       </c>
       <c r="D1364" s="1" t="s">
-        <v>4382</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="1365" ht="37.5" hidden="1" spans="2:4">
       <c r="B1365" s="1" t="s">
-        <v>4383</v>
+        <v>4387</v>
       </c>
       <c r="C1365" s="1" t="s">
-        <v>4384</v>
+        <v>4388</v>
       </c>
       <c r="D1365" s="1" t="s">
-        <v>4385</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="1366" ht="37.5" hidden="1" spans="2:4">
       <c r="B1366" s="1" t="s">
-        <v>4386</v>
+        <v>4390</v>
       </c>
       <c r="C1366" s="1" t="s">
-        <v>4387</v>
+        <v>4391</v>
       </c>
       <c r="D1366" s="1" t="s">
-        <v>4388</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="1367" hidden="1" spans="2:4">
       <c r="B1367" s="1" t="s">
-        <v>4389</v>
+        <v>4393</v>
       </c>
       <c r="C1367" s="1" t="s">
-        <v>4390</v>
+        <v>4394</v>
       </c>
       <c r="D1367" s="1" t="s">
-        <v>4391</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="1368" hidden="1" spans="2:4">
       <c r="B1368" s="1" t="s">
-        <v>4392</v>
+        <v>4396</v>
       </c>
       <c r="C1368" s="1" t="s">
-        <v>4393</v>
+        <v>4397</v>
       </c>
       <c r="D1368" s="1" t="s">
-        <v>4394</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="1369" hidden="1" spans="2:4">
       <c r="B1369" s="1" t="s">
-        <v>4395</v>
+        <v>4399</v>
       </c>
       <c r="C1369" s="1" t="s">
-        <v>4396</v>
+        <v>4400</v>
       </c>
       <c r="D1369" s="1" t="s">
-        <v>4397</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="1370" hidden="1" spans="2:4">
       <c r="B1370" s="1" t="s">
-        <v>4398</v>
+        <v>4402</v>
       </c>
       <c r="C1370" s="1" t="s">
-        <v>4399</v>
+        <v>4403</v>
       </c>
       <c r="D1370" s="1" t="s">
-        <v>4400</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1371" hidden="1" spans="2:4">
       <c r="B1371" s="1" t="s">
-        <v>4401</v>
+        <v>4405</v>
       </c>
       <c r="C1371" s="1" t="s">
-        <v>4402</v>
+        <v>4406</v>
       </c>
       <c r="D1371" s="1" t="s">
-        <v>4400</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1372" hidden="1" spans="2:4">
       <c r="B1372" s="1" t="s">
-        <v>4403</v>
+        <v>4407</v>
       </c>
       <c r="C1372" s="1" t="s">
-        <v>4404</v>
+        <v>4408</v>
       </c>
       <c r="D1372" s="1" t="s">
-        <v>4405</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1373" ht="37.5" hidden="1" spans="2:4">
       <c r="B1373" s="1" t="s">
-        <v>4406</v>
+        <v>4410</v>
       </c>
       <c r="C1373" s="1" t="s">
-        <v>4407</v>
+        <v>4411</v>
       </c>
       <c r="D1373" s="1" t="s">
-        <v>4408</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1374" hidden="1" spans="2:4">
       <c r="B1374" s="1" t="s">
-        <v>4409</v>
+        <v>4413</v>
       </c>
       <c r="C1374" s="1" t="s">
-        <v>4410</v>
+        <v>4414</v>
       </c>
       <c r="D1374" s="1" t="s">
-        <v>4411</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="1375" ht="37.5" hidden="1" spans="2:4">
       <c r="B1375" s="1" t="s">
-        <v>4412</v>
+        <v>4416</v>
       </c>
       <c r="C1375" s="1" t="s">
-        <v>4413</v>
+        <v>4417</v>
       </c>
       <c r="D1375" s="1" t="s">
-        <v>4414</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="1376" hidden="1" spans="2:4">
       <c r="B1376" s="1" t="s">
-        <v>4415</v>
+        <v>4419</v>
       </c>
       <c r="C1376" s="1" t="s">
-        <v>4416</v>
+        <v>4420</v>
       </c>
       <c r="D1376" s="1" t="s">
-        <v>4417</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="1377" hidden="1" spans="2:4">
       <c r="B1377" s="1" t="s">
-        <v>4418</v>
+        <v>4422</v>
       </c>
       <c r="C1377" s="1" t="s">
-        <v>4419</v>
+        <v>4423</v>
       </c>
       <c r="D1377" s="1" t="s">
-        <v>4420</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="1378" hidden="1" spans="2:4">
       <c r="B1378" s="1" t="s">
-        <v>4421</v>
+        <v>4425</v>
       </c>
       <c r="C1378" s="1" t="s">
-        <v>4422</v>
+        <v>4426</v>
       </c>
       <c r="D1378" s="1" t="s">
-        <v>4423</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="1379" hidden="1" spans="2:4">
       <c r="B1379" s="1" t="s">
-        <v>4424</v>
+        <v>4428</v>
       </c>
       <c r="C1379" s="1" t="s">
-        <v>4425</v>
+        <v>4429</v>
       </c>
       <c r="D1379" s="1" t="s">
-        <v>4426</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="1380" hidden="1" spans="2:4">
       <c r="B1380" s="1" t="s">
-        <v>4427</v>
+        <v>4431</v>
       </c>
       <c r="C1380" s="1" t="s">
-        <v>4428</v>
+        <v>4432</v>
       </c>
       <c r="D1380" s="1" t="s">
-        <v>4429</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="1381" ht="112.5" hidden="1" spans="2:5">
       <c r="B1381" s="1" t="s">
-        <v>4430</v>
+        <v>4434</v>
       </c>
       <c r="C1381" s="1" t="s">
-        <v>4431</v>
+        <v>4435</v>
       </c>
       <c r="D1381" s="1" t="s">
-        <v>4432</v>
+        <v>4436</v>
       </c>
       <c r="E1381" s="1" t="s">
-        <v>4433</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1382" ht="37.5" hidden="1" spans="2:5">
       <c r="B1382" s="1" t="s">
-        <v>4434</v>
+        <v>4438</v>
       </c>
       <c r="C1382" s="1" t="s">
-        <v>4435</v>
+        <v>4439</v>
       </c>
       <c r="D1382" s="1" t="s">
-        <v>4436</v>
+        <v>4440</v>
       </c>
       <c r="E1382" s="1" t="s">
-        <v>4437</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1383" ht="37.5" hidden="1" spans="2:5">
       <c r="B1383" s="1" t="s">
-        <v>4438</v>
+        <v>4442</v>
       </c>
       <c r="C1383" s="1" t="s">
-        <v>4439</v>
+        <v>4443</v>
       </c>
       <c r="D1383" s="1" t="s">
-        <v>4440</v>
+        <v>4444</v>
       </c>
       <c r="E1383" s="1" t="s">
-        <v>4441</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1384" hidden="1" spans="2:4">
       <c r="B1384" s="1" t="s">
-        <v>4442</v>
+        <v>4446</v>
       </c>
       <c r="C1384" s="1" t="s">
-        <v>4443</v>
+        <v>4447</v>
       </c>
       <c r="D1384" s="1" t="s">
-        <v>4444</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="1385" hidden="1" spans="2:4">
       <c r="B1385" s="1" t="s">
-        <v>4445</v>
+        <v>4449</v>
       </c>
       <c r="C1385" s="1" t="s">
-        <v>4446</v>
+        <v>4450</v>
       </c>
       <c r="D1385" s="1" t="s">
-        <v>4447</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="1386" hidden="1" spans="2:4">
       <c r="B1386" s="1" t="s">
-        <v>4448</v>
+        <v>4452</v>
       </c>
       <c r="C1386" s="1" t="s">
-        <v>4449</v>
+        <v>4453</v>
       </c>
       <c r="D1386" s="1" t="s">
-        <v>4450</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="1387" hidden="1" spans="2:4">
       <c r="B1387" s="1" t="s">
-        <v>4451</v>
+        <v>4455</v>
       </c>
       <c r="C1387" s="1" t="s">
-        <v>4452</v>
+        <v>4456</v>
       </c>
       <c r="D1387" s="1" t="s">
-        <v>4453</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="1388" hidden="1" spans="2:4">
       <c r="B1388" s="1" t="s">
-        <v>4454</v>
+        <v>4458</v>
       </c>
       <c r="C1388" s="1" t="s">
-        <v>4455</v>
+        <v>4459</v>
       </c>
       <c r="D1388" s="1" t="s">
-        <v>4456</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="1389" hidden="1" spans="2:4">
       <c r="B1389" s="1" t="s">
-        <v>4457</v>
+        <v>4461</v>
       </c>
       <c r="C1389" s="1" t="s">
-        <v>4458</v>
+        <v>4462</v>
       </c>
       <c r="D1389" s="1" t="s">
-        <v>4459</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="1390" hidden="1" spans="2:4">
       <c r="B1390" s="1" t="s">
-        <v>4460</v>
+        <v>4464</v>
       </c>
       <c r="C1390" s="1" t="s">
-        <v>4461</v>
+        <v>4465</v>
       </c>
       <c r="D1390" s="1" t="s">
-        <v>4462</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="1391" hidden="1" spans="2:4">
       <c r="B1391" s="1" t="s">
-        <v>4463</v>
+        <v>4467</v>
       </c>
       <c r="C1391" s="1" t="s">
-        <v>4464</v>
+        <v>4468</v>
       </c>
       <c r="D1391" s="1" t="s">
-        <v>4465</v>
+        <v>4469</v>
       </c>
     </row>
     <row r="1392" hidden="1" spans="2:4">
       <c r="B1392" s="1" t="s">
-        <v>4466</v>
+        <v>4470</v>
       </c>
       <c r="C1392" s="1" t="s">
-        <v>4467</v>
+        <v>4471</v>
       </c>
       <c r="D1392" s="1" t="s">
-        <v>4468</v>
+        <v>4472</v>
       </c>
     </row>
     <row r="1393" hidden="1" spans="2:4">
       <c r="B1393" s="1" t="s">
-        <v>4469</v>
+        <v>4473</v>
       </c>
       <c r="C1393" s="1" t="s">
-        <v>4470</v>
+        <v>4474</v>
       </c>
       <c r="D1393" s="1" t="s">
-        <v>4471</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="1394" hidden="1" spans="2:4">
       <c r="B1394" s="1" t="s">
-        <v>4472</v>
+        <v>4476</v>
       </c>
       <c r="C1394" s="1" t="s">
-        <v>4473</v>
+        <v>4477</v>
       </c>
       <c r="D1394" s="1" t="s">
-        <v>4474</v>
+        <v>4478</v>
       </c>
     </row>
     <row r="1395" hidden="1" spans="2:4">
       <c r="B1395" s="1" t="s">
-        <v>4475</v>
+        <v>4479</v>
       </c>
       <c r="C1395" s="1" t="s">
-        <v>4476</v>
+        <v>4480</v>
       </c>
       <c r="D1395" s="1" t="s">
-        <v>4477</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="1396" hidden="1" spans="2:4">
       <c r="B1396" s="1" t="s">
-        <v>4478</v>
+        <v>4482</v>
       </c>
       <c r="C1396" s="1" t="s">
-        <v>4479</v>
+        <v>4483</v>
       </c>
       <c r="D1396" s="1" t="s">
-        <v>4480</v>
+        <v>4484</v>
       </c>
     </row>
     <row r="1397" hidden="1" spans="2:4">
       <c r="B1397" s="1" t="s">
-        <v>4481</v>
+        <v>4485</v>
       </c>
       <c r="C1397" s="1" t="s">
-        <v>4482</v>
+        <v>4486</v>
       </c>
       <c r="D1397" s="1" t="s">
-        <v>4483</v>
+        <v>4487</v>
       </c>
     </row>
     <row r="1398" hidden="1" spans="2:4">
       <c r="B1398" s="1" t="s">
-        <v>4484</v>
+        <v>4488</v>
       </c>
       <c r="C1398" s="1" t="s">
-        <v>4485</v>
+        <v>4489</v>
       </c>
       <c r="D1398" s="1" t="s">
-        <v>4486</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="1399" ht="56.25" hidden="1" spans="2:5">
       <c r="B1399" s="1" t="s">
-        <v>4487</v>
+        <v>4491</v>
       </c>
       <c r="C1399" s="1" t="s">
-        <v>4488</v>
+        <v>4492</v>
       </c>
       <c r="D1399" s="1" t="s">
-        <v>4489</v>
+        <v>4493</v>
       </c>
       <c r="E1399" s="1" t="s">
-        <v>4490</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="1400" hidden="1" spans="2:5">
       <c r="B1400" s="1" t="s">
-        <v>4491</v>
+        <v>4495</v>
       </c>
       <c r="C1400" s="1" t="s">
-        <v>4492</v>
+        <v>4496</v>
       </c>
       <c r="D1400" s="1" t="s">
-        <v>4493</v>
+        <v>4497</v>
       </c>
       <c r="E1400" s="1" t="s">
-        <v>4494</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1401" hidden="1" spans="2:4">
       <c r="B1401" s="1" t="s">
-        <v>4495</v>
+        <v>4499</v>
       </c>
       <c r="C1401" s="1" t="s">
-        <v>4496</v>
+        <v>4500</v>
       </c>
       <c r="D1401" s="1" t="s">
-        <v>4497</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="1402" hidden="1" spans="2:4">
       <c r="B1402" s="1" t="s">
-        <v>4498</v>
+        <v>4502</v>
       </c>
       <c r="C1402" s="1" t="s">
-        <v>4499</v>
+        <v>4503</v>
       </c>
       <c r="D1402" s="1" t="s">
-        <v>4500</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="1403" hidden="1" spans="2:4">
       <c r="B1403" s="1" t="s">
-        <v>4501</v>
+        <v>4505</v>
       </c>
       <c r="C1403" s="1" t="s">
-        <v>4502</v>
+        <v>4506</v>
       </c>
       <c r="D1403" s="1" t="s">
-        <v>4503</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="1404" hidden="1" spans="2:5">
       <c r="B1404" s="1" t="s">
-        <v>4504</v>
+        <v>4508</v>
       </c>
       <c r="C1404" s="1" t="s">
-        <v>4505</v>
+        <v>4509</v>
       </c>
       <c r="D1404" s="1" t="s">
-        <v>4506</v>
+        <v>4510</v>
       </c>
       <c r="E1404" s="1" t="s">
-        <v>4507</v>
+        <v>4511</v>
       </c>
     </row>
     <row r="1405" hidden="1" spans="2:4">
       <c r="B1405" s="1" t="s">
-        <v>4508</v>
+        <v>4512</v>
       </c>
       <c r="C1405" s="1" t="s">
-        <v>4509</v>
+        <v>4513</v>
       </c>
       <c r="D1405" s="1" t="s">
-        <v>4510</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="1406" hidden="1" spans="2:4">
       <c r="B1406" s="1" t="s">
-        <v>4511</v>
+        <v>4515</v>
       </c>
       <c r="C1406" s="1" t="s">
-        <v>4512</v>
+        <v>4516</v>
       </c>
       <c r="D1406" s="1" t="s">
-        <v>4513</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="1407" hidden="1" spans="2:4">
       <c r="B1407" s="1" t="s">
-        <v>4514</v>
+        <v>4518</v>
       </c>
       <c r="C1407" s="1" t="s">
-        <v>4515</v>
+        <v>4519</v>
       </c>
       <c r="D1407" s="1" t="s">
-        <v>4516</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="1408" ht="37.5" hidden="1" spans="2:5">
       <c r="B1408" s="1" t="s">
-        <v>4517</v>
+        <v>4521</v>
       </c>
       <c r="C1408" s="1" t="s">
-        <v>4518</v>
+        <v>4522</v>
       </c>
       <c r="D1408" s="1" t="s">
-        <v>4519</v>
+        <v>4523</v>
       </c>
       <c r="E1408" s="1" t="s">
-        <v>4520</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="1409" hidden="1" spans="2:4">
       <c r="B1409" s="1" t="s">
-        <v>4521</v>
+        <v>4525</v>
       </c>
       <c r="C1409" s="1" t="s">
-        <v>4522</v>
+        <v>4526</v>
       </c>
       <c r="D1409" s="1" t="s">
-        <v>4523</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="1410" hidden="1" spans="2:4">
       <c r="B1410" s="1" t="s">
-        <v>4524</v>
+        <v>4528</v>
       </c>
       <c r="C1410" s="1" t="s">
-        <v>4525</v>
+        <v>4529</v>
       </c>
       <c r="D1410" s="1" t="s">
-        <v>4526</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="1411" hidden="1" spans="2:4">
       <c r="B1411" s="1" t="s">
-        <v>4527</v>
+        <v>4531</v>
       </c>
       <c r="C1411" s="1" t="s">
-        <v>4528</v>
+        <v>4532</v>
       </c>
       <c r="D1411" s="1" t="s">
-        <v>4529</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="1412" hidden="1" spans="2:4">
       <c r="B1412" s="1" t="s">
-        <v>4530</v>
+        <v>4534</v>
       </c>
       <c r="C1412" s="1" t="s">
-        <v>4531</v>
+        <v>4535</v>
       </c>
       <c r="D1412" s="1" t="s">
-        <v>4532</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="1413" hidden="1" spans="2:4">
       <c r="B1413" s="1" t="s">
-        <v>4533</v>
+        <v>4537</v>
       </c>
       <c r="C1413" s="1" t="s">
-        <v>4534</v>
+        <v>4538</v>
       </c>
       <c r="D1413" s="1" t="s">
-        <v>4535</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="1414" hidden="1" spans="2:4">
       <c r="B1414" s="1" t="s">
-        <v>4536</v>
+        <v>4540</v>
       </c>
       <c r="C1414" s="1" t="s">
-        <v>4537</v>
+        <v>4541</v>
       </c>
       <c r="D1414" s="1" t="s">
-        <v>4538</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="1415" hidden="1" spans="2:4">
       <c r="B1415" s="1" t="s">
-        <v>4539</v>
+        <v>4543</v>
       </c>
       <c r="C1415" s="1" t="s">
-        <v>4540</v>
+        <v>4544</v>
       </c>
       <c r="D1415" s="1" t="s">
-        <v>4541</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="1416" hidden="1" spans="2:4">
       <c r="B1416" s="1" t="s">
-        <v>4542</v>
+        <v>4546</v>
       </c>
       <c r="C1416" s="1" t="s">
-        <v>4543</v>
+        <v>4547</v>
       </c>
       <c r="D1416" s="1" t="s">
-        <v>4544</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="1417" hidden="1" spans="2:4">
       <c r="B1417" s="1" t="s">
-        <v>4545</v>
+        <v>4549</v>
       </c>
       <c r="C1417" s="1" t="s">
-        <v>4546</v>
+        <v>4550</v>
       </c>
       <c r="D1417" s="1" t="s">
-        <v>4547</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="1418" ht="37.5" hidden="1" spans="2:4">
       <c r="B1418" s="1" t="s">
-        <v>4548</v>
+        <v>4552</v>
       </c>
       <c r="C1418" s="1" t="s">
-        <v>4549</v>
+        <v>4553</v>
       </c>
       <c r="D1418" s="1" t="s">
-        <v>4550</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="1419" ht="37.5" hidden="1" spans="2:4">
       <c r="B1419" s="1" t="s">
-        <v>4551</v>
+        <v>4555</v>
       </c>
       <c r="C1419" s="1" t="s">
-        <v>4552</v>
+        <v>4556</v>
       </c>
       <c r="D1419" s="1" t="s">
-        <v>4553</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="1420" hidden="1" spans="2:4">
       <c r="B1420" s="1" t="s">
-        <v>4554</v>
+        <v>4558</v>
       </c>
       <c r="C1420" s="1" t="s">
-        <v>4555</v>
+        <v>4559</v>
       </c>
       <c r="D1420" s="1" t="s">
-        <v>4556</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="1421" hidden="1" spans="2:4">
       <c r="B1421" s="1" t="s">
-        <v>3542</v>
+        <v>3546</v>
       </c>
       <c r="C1421" s="1" t="s">
-        <v>4557</v>
+        <v>4561</v>
       </c>
       <c r="D1421" s="1" t="s">
-        <v>4558</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="1422" hidden="1" spans="2:4">
       <c r="B1422" s="1" t="s">
-        <v>4559</v>
+        <v>4563</v>
       </c>
       <c r="C1422" s="1" t="s">
-        <v>4560</v>
+        <v>4564</v>
       </c>
       <c r="D1422" s="1" t="s">
-        <v>4561</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="1423" ht="37.5" hidden="1" spans="2:4">
       <c r="B1423" s="1" t="s">
-        <v>4562</v>
+        <v>4566</v>
       </c>
       <c r="C1423" s="1" t="s">
-        <v>4563</v>
+        <v>4567</v>
       </c>
       <c r="D1423" s="1" t="s">
-        <v>4564</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1424" hidden="1" spans="2:4">
       <c r="B1424" s="1" t="s">
-        <v>4565</v>
+        <v>4569</v>
       </c>
       <c r="C1424" s="1" t="s">
-        <v>4566</v>
+        <v>4570</v>
       </c>
       <c r="D1424" s="1" t="s">
-        <v>4567</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="1425" ht="37.5" hidden="1" spans="2:4">
       <c r="B1425" s="1" t="s">
-        <v>4568</v>
+        <v>4572</v>
       </c>
       <c r="C1425" s="1" t="s">
-        <v>4569</v>
+        <v>4573</v>
       </c>
       <c r="D1425" s="1" t="s">
-        <v>4570</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="1426" hidden="1" spans="2:4">
       <c r="B1426" s="1" t="s">
-        <v>4571</v>
+        <v>4575</v>
       </c>
       <c r="C1426" s="1" t="s">
-        <v>4572</v>
+        <v>4576</v>
       </c>
       <c r="D1426" s="1" t="s">
-        <v>4573</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="1427" ht="37.5" hidden="1" spans="2:4">
       <c r="B1427" s="1" t="s">
-        <v>4574</v>
+        <v>4578</v>
       </c>
       <c r="C1427" s="1" t="s">
-        <v>4575</v>
+        <v>4579</v>
       </c>
       <c r="D1427" s="1" t="s">
-        <v>4576</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="1428" hidden="1" spans="2:4">
       <c r="B1428" s="1" t="s">
-        <v>4577</v>
+        <v>4581</v>
       </c>
       <c r="C1428" s="1" t="s">
-        <v>4578</v>
+        <v>4582</v>
       </c>
       <c r="D1428" s="1" t="s">
-        <v>4579</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="1429" hidden="1" spans="2:4">
       <c r="B1429" s="1" t="s">
-        <v>4580</v>
+        <v>4584</v>
       </c>
       <c r="C1429" s="1" t="s">
-        <v>4581</v>
+        <v>4585</v>
       </c>
       <c r="D1429" s="1" t="s">
-        <v>4582</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="1430" hidden="1" spans="2:4">
       <c r="B1430" s="1" t="s">
-        <v>4583</v>
+        <v>4587</v>
       </c>
       <c r="C1430" s="1" t="s">
-        <v>4584</v>
+        <v>4588</v>
       </c>
       <c r="D1430" s="1" t="s">
-        <v>4585</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="1431" hidden="1" spans="2:4">
       <c r="B1431" s="1" t="s">
-        <v>4586</v>
+        <v>4590</v>
       </c>
       <c r="C1431" s="1" t="s">
-        <v>4587</v>
+        <v>4591</v>
       </c>
       <c r="D1431" s="1" t="s">
-        <v>4588</v>
+        <v>4592</v>
       </c>
     </row>
   </sheetData>
@@ -45786,7 +45936,8 @@
         <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>
-        <filter val="5"/>
+        <filter val="4"/>
+        <filter val="6"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13335" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -15705,6 +15705,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="手札体-简 常规体"/>
+        <charset val="136"/>
+      </rPr>
       <t>pre</t>
     </r>
     <r>
@@ -26653,9 +26659,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -26685,11 +26691,10 @@
       <charset val="136"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26700,8 +26705,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -26724,6 +26736,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -26731,11 +26805,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26754,78 +26827,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26926,19 +26932,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26950,19 +26968,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26980,31 +27004,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27016,25 +27028,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27052,49 +27052,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27106,7 +27106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27123,8 +27129,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27133,7 +27139,48 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27153,15 +27200,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -27177,42 +27215,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -27220,148 +27226,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -27464,7 +27470,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713990" y="476250"/>
+          <a:off x="2713990" y="238125"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27761,8 +27767,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A959" workbookViewId="0">
-      <selection activeCell="E978" sqref="E978"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D833" sqref="D833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -33193,9 +33199,9 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" hidden="1" spans="1:4">
       <c r="A404" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>1320</v>
@@ -35344,7 +35350,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>1853</v>
@@ -35505,7 +35511,7 @@
     </row>
     <row r="584" spans="1:5">
       <c r="A584" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>1893</v>
@@ -36031,9 +36037,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="623" ht="37.5" spans="1:4">
+    <row r="623" ht="37.5" hidden="1" spans="1:4">
       <c r="A623" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B623" s="1" t="s">
         <v>2021</v>
@@ -37449,7 +37455,7 @@
     </row>
     <row r="731" spans="1:5">
       <c r="A731" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B731" s="1" t="s">
         <v>2363</v>
@@ -37553,9 +37559,9 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" hidden="1" spans="1:4">
       <c r="A739" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B739" s="1" t="s">
         <v>2390</v>
@@ -37702,7 +37708,7 @@
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>2427</v>
@@ -37716,7 +37722,7 @@
     </row>
     <row r="752" spans="1:5">
       <c r="A752" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B752" s="1" t="s">
         <v>2430</v>
@@ -37805,7 +37811,7 @@
     </row>
     <row r="759" spans="1:5">
       <c r="A759" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B759" s="1" t="s">
         <v>2452</v>
@@ -37822,7 +37828,7 @@
     </row>
     <row r="760" spans="1:4">
       <c r="A760" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B760" s="1" t="s">
         <v>2456</v>
@@ -37958,7 +37964,7 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2490</v>
@@ -38050,7 +38056,7 @@
     </row>
     <row r="778" ht="37.5" spans="1:5">
       <c r="A778" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>2511</v>
@@ -38136,7 +38142,7 @@
     </row>
     <row r="785" spans="1:4">
       <c r="A785" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B785" s="1" t="s">
         <v>2533</v>
@@ -38415,9 +38421,9 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" hidden="1" spans="1:5">
       <c r="A807" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>2603</v>
@@ -38587,7 +38593,7 @@
     </row>
     <row r="820" spans="1:5">
       <c r="A820" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B820" s="1" t="s">
         <v>2644</v>
@@ -38604,7 +38610,7 @@
     </row>
     <row r="821" spans="1:4">
       <c r="A821" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B821" s="3" t="s">
         <v>2648</v>
@@ -38629,7 +38635,7 @@
     </row>
     <row r="823" ht="37.5" spans="1:5">
       <c r="A823" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B823" s="1" t="s">
         <v>2654</v>
@@ -38691,9 +38697,9 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="828" spans="1:4">
+    <row r="828" hidden="1" spans="1:4">
       <c r="A828" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>2670</v>
@@ -38730,9 +38736,9 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="831" spans="1:5">
+    <row r="831" hidden="1" spans="1:5">
       <c r="A831" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>2680</v>
@@ -38763,7 +38769,7 @@
     </row>
     <row r="833" ht="112.5" spans="1:5">
       <c r="A833" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>2687</v>
@@ -38800,9 +38806,9 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="836" ht="37.5" spans="1:5">
+    <row r="836" ht="37.5" hidden="1" spans="1:5">
       <c r="A836" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B836" s="1" t="s">
         <v>2697</v>
@@ -38944,7 +38950,7 @@
     </row>
     <row r="847" ht="37.5" spans="1:4">
       <c r="A847" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B847" s="1" t="s">
         <v>2731</v>
@@ -39080,7 +39086,7 @@
     </row>
     <row r="858" spans="1:4">
       <c r="A858" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B858" s="1" t="s">
         <v>2765</v>
@@ -39208,9 +39214,9 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="869" spans="1:4">
+    <row r="869" hidden="1" spans="1:4">
       <c r="A869" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B869" s="1" t="s">
         <v>2799</v>
@@ -39239,9 +39245,9 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="871" spans="1:4">
+    <row r="871" hidden="1" spans="1:4">
       <c r="A871" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B871" s="1" t="s">
         <v>2806</v>
@@ -39253,9 +39259,9 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="872" spans="1:4">
+    <row r="872" hidden="1" spans="1:4">
       <c r="A872" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B872" s="1" t="s">
         <v>2809</v>
@@ -39300,9 +39306,9 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="876" spans="1:5">
+    <row r="876" hidden="1" spans="1:5">
       <c r="A876" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B876" s="1" t="s">
         <v>2821</v>
@@ -39342,9 +39348,9 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="879" ht="37.5" spans="1:5">
+    <row r="879" ht="37.5" hidden="1" spans="1:5">
       <c r="A879" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B879" s="1" t="s">
         <v>2831</v>
@@ -39372,7 +39378,7 @@
     </row>
     <row r="881" spans="1:4">
       <c r="A881" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>2838</v>
@@ -39395,9 +39401,9 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="883" spans="1:5">
+    <row r="883" hidden="1" spans="1:5">
       <c r="A883" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B883" s="1" t="s">
         <v>2844</v>
@@ -39437,9 +39443,9 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="886" spans="1:4">
+    <row r="886" hidden="1" spans="1:4">
       <c r="A886" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B886" s="1" t="s">
         <v>2854</v>
@@ -39478,7 +39484,7 @@
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B889" s="1" t="s">
         <v>2863</v>
@@ -39564,7 +39570,7 @@
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B896" s="1" t="s">
         <v>2885</v>
@@ -39664,9 +39670,9 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="905" ht="37.5" spans="1:4">
+    <row r="905" ht="37.5" hidden="1" spans="1:4">
       <c r="A905" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B905" s="1" t="s">
         <v>2912</v>
@@ -39680,7 +39686,7 @@
     </row>
     <row r="906" spans="1:4">
       <c r="A906" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B906" s="1" t="s">
         <v>2915</v>
@@ -39703,9 +39709,9 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="908" spans="1:4">
+    <row r="908" hidden="1" spans="1:4">
       <c r="A908" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B908" s="1" t="s">
         <v>2921</v>
@@ -39739,9 +39745,9 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="911" spans="1:4">
+    <row r="911" hidden="1" spans="1:4">
       <c r="A911" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B911" s="1" t="s">
         <v>2930</v>
@@ -39753,9 +39759,9 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="912" ht="75" spans="1:5">
+    <row r="912" ht="75" hidden="1" spans="1:5">
       <c r="A912" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B912" s="1" t="s">
         <v>2933</v>
@@ -39798,9 +39804,9 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="915" spans="1:4">
+    <row r="915" hidden="1" spans="1:4">
       <c r="A915" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B915" s="1" t="s">
         <v>2945</v>
@@ -39862,9 +39868,9 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="920" spans="1:4">
+    <row r="920" hidden="1" spans="1:4">
       <c r="A920" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B920" s="1" t="s">
         <v>2961</v>
@@ -39898,9 +39904,9 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="923" spans="1:4">
+    <row r="923" hidden="1" spans="1:4">
       <c r="A923" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B923" s="1" t="s">
         <v>2970</v>
@@ -39914,7 +39920,7 @@
     </row>
     <row r="924" ht="93.75" spans="1:5">
       <c r="A924" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>2973</v>
@@ -39965,9 +39971,9 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="928" spans="1:4">
+    <row r="928" hidden="1" spans="1:4">
       <c r="A928" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B928" s="1" t="s">
         <v>2986</v>
@@ -39979,9 +39985,9 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="929" spans="1:4">
+    <row r="929" hidden="1" spans="1:4">
       <c r="A929" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B929" s="1" t="s">
         <v>2989</v>
@@ -40007,9 +40013,9 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="931" spans="1:4">
+    <row r="931" hidden="1" spans="1:4">
       <c r="A931" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B931" s="1" t="s">
         <v>2996</v>
@@ -40034,7 +40040,7 @@
     </row>
     <row r="933" ht="37.5" spans="1:4">
       <c r="A933" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B933" s="1" t="s">
         <v>3002</v>
@@ -40082,9 +40088,9 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="937" spans="1:4">
+    <row r="937" hidden="1" spans="1:4">
       <c r="A937" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B937" s="1" t="s">
         <v>3015</v>
@@ -40107,9 +40113,9 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="939" ht="37.5" spans="1:4">
+    <row r="939" ht="37.5" hidden="1" spans="1:4">
       <c r="A939" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B939" s="1" t="s">
         <v>3021</v>
@@ -40154,9 +40160,9 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="943" spans="1:4">
+    <row r="943" hidden="1" spans="1:4">
       <c r="A943" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B943" s="1" t="s">
         <v>3033</v>
@@ -40168,9 +40174,9 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="944" spans="1:5">
+    <row r="944" hidden="1" spans="1:5">
       <c r="A944" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B944" s="1" t="s">
         <v>3036</v>
@@ -40185,9 +40191,9 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="945" ht="37.5" spans="1:4">
+    <row r="945" ht="37.5" hidden="1" spans="1:4">
       <c r="A945" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B945" s="1" t="s">
         <v>3040</v>
@@ -40199,9 +40205,9 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="946" ht="56.25" spans="1:5">
+    <row r="946" ht="56.25" hidden="1" spans="1:5">
       <c r="A946" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B946" s="1" t="s">
         <v>3043</v>
@@ -40287,7 +40293,7 @@
     </row>
     <row r="953" spans="1:4">
       <c r="A953" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B953" s="1" t="s">
         <v>3065</v>
@@ -40349,9 +40355,9 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="958" spans="1:4">
+    <row r="958" hidden="1" spans="1:4">
       <c r="A958" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B958" s="1" t="s">
         <v>3082</v>
@@ -40363,9 +40369,9 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="959" spans="1:4">
+    <row r="959" hidden="1" spans="1:4">
       <c r="A959" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B959" s="1" t="s">
         <v>3085</v>
@@ -40377,9 +40383,9 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="960" ht="37.5" spans="1:4">
+    <row r="960" ht="37.5" hidden="1" spans="1:4">
       <c r="A960" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B960" s="1" t="s">
         <v>3088</v>
@@ -40416,9 +40422,9 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="963" ht="37.5" spans="1:5">
+    <row r="963" ht="37.5" hidden="1" spans="1:5">
       <c r="A963" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B963" s="1" t="s">
         <v>3098</v>
@@ -40449,7 +40455,7 @@
     </row>
     <row r="965" spans="1:4">
       <c r="A965" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B965" s="1" t="s">
         <v>3106</v>
@@ -40461,9 +40467,9 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="966" spans="1:4">
+    <row r="966" hidden="1" spans="1:4">
       <c r="A966" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B966" s="1" t="s">
         <v>3109</v>
@@ -40508,9 +40514,9 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="970" spans="1:5">
+    <row r="970" hidden="1" spans="1:5">
       <c r="A970" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B970" s="1" t="s">
         <v>3121</v>
@@ -40527,7 +40533,7 @@
     </row>
     <row r="971" spans="1:4">
       <c r="A971" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B971" s="1" t="s">
         <v>3124</v>
@@ -40583,9 +40589,9 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="976" spans="1:4">
+    <row r="976" hidden="1" spans="1:4">
       <c r="A976" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B976" s="1" t="s">
         <v>3139</v>
@@ -40597,9 +40603,9 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="977" spans="1:4">
+    <row r="977" hidden="1" spans="1:4">
       <c r="A977" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B977" s="1" t="s">
         <v>3142</v>
@@ -40611,9 +40617,9 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="978" spans="1:5">
+    <row r="978" hidden="1" spans="1:5">
       <c r="A978" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B978" s="1" t="s">
         <v>3145</v>
@@ -40630,7 +40636,7 @@
     </row>
     <row r="979" spans="1:5">
       <c r="A979" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B979" s="1" t="s">
         <v>3149</v>
@@ -40645,9 +40651,9 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="980" spans="1:5">
+    <row r="980" hidden="1" spans="1:5">
       <c r="A980" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B980" s="1" t="s">
         <v>3153</v>
@@ -40695,9 +40701,9 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="984" spans="1:4">
+    <row r="984" hidden="1" spans="1:4">
       <c r="A984" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B984" s="1" t="s">
         <v>3166</v>
@@ -40709,9 +40715,9 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="985" spans="1:4">
+    <row r="985" hidden="1" spans="1:4">
       <c r="A985" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B985" s="1" t="s">
         <v>3169</v>
@@ -40734,9 +40740,9 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="987" ht="37.5" spans="1:4">
+    <row r="987" ht="37.5" hidden="1" spans="1:4">
       <c r="A987" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B987" s="1" t="s">
         <v>3175</v>
@@ -40792,9 +40798,9 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="992" spans="1:4">
+    <row r="992" hidden="1" spans="1:4">
       <c r="A992" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B992" s="1" t="s">
         <v>3190</v>
@@ -40806,9 +40812,9 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="993" spans="1:4">
+    <row r="993" hidden="1" spans="1:4">
       <c r="A993" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B993" s="1" t="s">
         <v>3193</v>
@@ -40822,7 +40828,7 @@
     </row>
     <row r="994" ht="37.5" spans="1:5">
       <c r="A994" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B994" s="1" t="s">
         <v>3195</v>
@@ -40890,9 +40896,9 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="999" spans="1:5">
+    <row r="999" hidden="1" spans="1:5">
       <c r="A999" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B999" s="1" t="s">
         <v>3213</v>
@@ -40932,7 +40938,10 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="1002" ht="37.5" hidden="1" spans="2:4">
+    <row r="1002" ht="37.5" spans="1:4">
+      <c r="A1002" s="1">
+        <v>1</v>
+      </c>
       <c r="B1002" s="1" t="s">
         <v>3224</v>
       </c>
@@ -40943,7 +40952,10 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="1003" ht="37.5" hidden="1" spans="2:4">
+    <row r="1003" ht="37.5" spans="1:4">
+      <c r="A1003" s="1">
+        <v>1</v>
+      </c>
       <c r="B1003" s="1" t="s">
         <v>3227</v>
       </c>
@@ -40954,7 +40966,10 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="1004" hidden="1" spans="2:4">
+    <row r="1004" spans="1:4">
+      <c r="A1004" s="1">
+        <v>1</v>
+      </c>
       <c r="B1004" s="1" t="s">
         <v>3230</v>
       </c>
@@ -40965,7 +40980,10 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="1005" hidden="1" spans="2:4">
+    <row r="1005" spans="1:4">
+      <c r="A1005" s="1">
+        <v>1</v>
+      </c>
       <c r="B1005" s="1" t="s">
         <v>3233</v>
       </c>
@@ -40976,7 +40994,10 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="1006" hidden="1" spans="2:5">
+    <row r="1006" spans="1:5">
+      <c r="A1006" s="1">
+        <v>1</v>
+      </c>
       <c r="B1006" s="1" t="s">
         <v>3236</v>
       </c>
@@ -41023,7 +41044,10 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="1010" hidden="1" spans="2:5">
+    <row r="1010" spans="1:5">
+      <c r="A1010" s="1">
+        <v>1</v>
+      </c>
       <c r="B1010" s="1" t="s">
         <v>3249</v>
       </c>
@@ -41037,7 +41061,10 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="1011" hidden="1" spans="2:5">
+    <row r="1011" spans="1:5">
+      <c r="A1011" s="1">
+        <v>1</v>
+      </c>
       <c r="B1011" s="1" t="s">
         <v>3253</v>
       </c>
@@ -41142,7 +41169,10 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="1020" hidden="1" spans="2:4">
+    <row r="1020" spans="1:4">
+      <c r="A1020" s="1">
+        <v>1</v>
+      </c>
       <c r="B1020" s="1" t="s">
         <v>3281</v>
       </c>
@@ -41175,7 +41205,10 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="1023" hidden="1" spans="2:5">
+    <row r="1023" spans="1:5">
+      <c r="A1023" s="1">
+        <v>1</v>
+      </c>
       <c r="B1023" s="1" t="s">
         <v>3290</v>
       </c>
@@ -41200,7 +41233,10 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="1025" hidden="1" spans="2:5">
+    <row r="1025" spans="1:5">
+      <c r="A1025" s="1">
+        <v>1</v>
+      </c>
       <c r="B1025" s="1" t="s">
         <v>3296</v>
       </c>
@@ -41258,7 +41294,10 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="1030" hidden="1" spans="2:4">
+    <row r="1030" spans="1:4">
+      <c r="A1030" s="1">
+        <v>1</v>
+      </c>
       <c r="B1030" s="1" t="s">
         <v>3312</v>
       </c>
@@ -41269,7 +41308,10 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="1031" hidden="1" spans="2:4">
+    <row r="1031" spans="1:4">
+      <c r="A1031" s="1">
+        <v>1</v>
+      </c>
       <c r="B1031" s="1" t="s">
         <v>3315</v>
       </c>
@@ -41280,7 +41322,10 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="1032" hidden="1" spans="2:4">
+    <row r="1032" spans="1:4">
+      <c r="A1032" s="1">
+        <v>1</v>
+      </c>
       <c r="B1032" s="1" t="s">
         <v>3318</v>
       </c>
@@ -41291,7 +41336,10 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="1033" ht="37.5" hidden="1" spans="2:5">
+    <row r="1033" ht="37.5" spans="1:5">
+      <c r="A1033" s="1">
+        <v>1</v>
+      </c>
       <c r="B1033" s="1" t="s">
         <v>3321</v>
       </c>
@@ -41316,7 +41364,10 @@
         <v>3326</v>
       </c>
     </row>
-    <row r="1035" ht="37.5" hidden="1" spans="2:4">
+    <row r="1035" ht="37.5" spans="1:4">
+      <c r="A1035" s="1">
+        <v>1</v>
+      </c>
       <c r="B1035" s="1" t="s">
         <v>3327</v>
       </c>
@@ -41327,7 +41378,10 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="1036" ht="56.25" hidden="1" spans="2:5">
+    <row r="1036" ht="56.25" spans="1:5">
+      <c r="A1036" s="1">
+        <v>1</v>
+      </c>
       <c r="B1036" s="1" t="s">
         <v>3330</v>
       </c>
@@ -41341,7 +41395,10 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="1037" ht="37.5" hidden="1" spans="2:4">
+    <row r="1037" ht="37.5" spans="1:4">
+      <c r="A1037" s="1">
+        <v>1</v>
+      </c>
       <c r="B1037" s="1" t="s">
         <v>3334</v>
       </c>
@@ -41352,7 +41409,10 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="1038" hidden="1" spans="2:4">
+    <row r="1038" spans="1:4">
+      <c r="A1038" s="1">
+        <v>1</v>
+      </c>
       <c r="B1038" s="1" t="s">
         <v>3337</v>
       </c>
@@ -41385,7 +41445,10 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="1041" hidden="1" spans="2:4">
+    <row r="1041" spans="1:4">
+      <c r="A1041" s="1">
+        <v>1</v>
+      </c>
       <c r="B1041" s="1" t="s">
         <v>3345</v>
       </c>
@@ -41407,7 +41470,10 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="1043" ht="56.25" hidden="1" spans="2:5">
+    <row r="1043" ht="56.25" spans="1:5">
+      <c r="A1043" s="1">
+        <v>1</v>
+      </c>
       <c r="B1043" s="1" t="s">
         <v>3351</v>
       </c>
@@ -41454,7 +41520,10 @@
         <v>3363</v>
       </c>
     </row>
-    <row r="1047" hidden="1" spans="2:4">
+    <row r="1047" spans="1:4">
+      <c r="A1047" s="1">
+        <v>1</v>
+      </c>
       <c r="B1047" s="1" t="s">
         <v>3364</v>
       </c>
@@ -41465,7 +41534,10 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="1048" hidden="1" spans="2:4">
+    <row r="1048" spans="1:4">
+      <c r="A1048" s="1">
+        <v>1</v>
+      </c>
       <c r="B1048" s="1" t="s">
         <v>3367</v>
       </c>
@@ -41498,7 +41570,10 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="1051" hidden="1" spans="2:5">
+    <row r="1051" spans="1:5">
+      <c r="A1051" s="1">
+        <v>1</v>
+      </c>
       <c r="B1051" s="1" t="s">
         <v>3376</v>
       </c>
@@ -41592,7 +41667,10 @@
         <v>3401</v>
       </c>
     </row>
-    <row r="1059" ht="37.5" hidden="1" spans="2:4">
+    <row r="1059" ht="37.5" spans="1:4">
+      <c r="A1059" s="1">
+        <v>1</v>
+      </c>
       <c r="B1059" s="1" t="s">
         <v>3402</v>
       </c>
@@ -41625,7 +41703,10 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="1062" hidden="1" spans="2:4">
+    <row r="1062" spans="1:4">
+      <c r="A1062" s="1">
+        <v>1</v>
+      </c>
       <c r="B1062" s="1" t="s">
         <v>3411</v>
       </c>
@@ -41658,7 +41739,10 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="1065" hidden="1" spans="2:4">
+    <row r="1065" spans="1:4">
+      <c r="A1065" s="1">
+        <v>1</v>
+      </c>
       <c r="B1065" s="1" t="s">
         <v>3420</v>
       </c>
@@ -41691,7 +41775,10 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="1068" hidden="1" spans="2:4">
+    <row r="1068" spans="1:4">
+      <c r="A1068" s="1">
+        <v>1</v>
+      </c>
       <c r="B1068" s="1" t="s">
         <v>3429</v>
       </c>
@@ -41702,7 +41789,10 @@
         <v>3431</v>
       </c>
     </row>
-    <row r="1069" hidden="1" spans="2:4">
+    <row r="1069" spans="1:4">
+      <c r="A1069" s="1">
+        <v>1</v>
+      </c>
       <c r="B1069" s="1" t="s">
         <v>3432</v>
       </c>
@@ -41713,7 +41803,10 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="1070" hidden="1" spans="2:5">
+    <row r="1070" spans="1:5">
+      <c r="A1070" s="1">
+        <v>1</v>
+      </c>
       <c r="B1070" s="1" t="s">
         <v>3435</v>
       </c>
@@ -41760,7 +41853,10 @@
         <v>3447</v>
       </c>
     </row>
-    <row r="1074" hidden="1" spans="2:4">
+    <row r="1074" spans="1:4">
+      <c r="A1074" s="1">
+        <v>1</v>
+      </c>
       <c r="B1074" s="1" t="s">
         <v>3448</v>
       </c>
@@ -41799,7 +41895,10 @@
         <v>3458</v>
       </c>
     </row>
-    <row r="1077" hidden="1" spans="2:4">
+    <row r="1077" spans="1:4">
+      <c r="A1077" s="1">
+        <v>1</v>
+      </c>
       <c r="B1077" s="1" t="s">
         <v>3459</v>
       </c>
@@ -41821,7 +41920,10 @@
         <v>3464</v>
       </c>
     </row>
-    <row r="1079" hidden="1" spans="2:4">
+    <row r="1079" spans="1:4">
+      <c r="A1079" s="1">
+        <v>1</v>
+      </c>
       <c r="B1079" s="1" t="s">
         <v>3465</v>
       </c>
@@ -41843,7 +41945,10 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="1081" ht="112.5" hidden="1" spans="2:5">
+    <row r="1081" ht="112.5" spans="1:5">
+      <c r="A1081" s="1">
+        <v>1</v>
+      </c>
       <c r="B1081" s="1" t="s">
         <v>3471</v>
       </c>
@@ -41857,7 +41962,10 @@
         <v>3474</v>
       </c>
     </row>
-    <row r="1082" hidden="1" spans="2:4">
+    <row r="1082" spans="1:4">
+      <c r="A1082" s="1">
+        <v>1</v>
+      </c>
       <c r="B1082" s="1" t="s">
         <v>3475</v>
       </c>
@@ -41868,7 +41976,10 @@
         <v>3477</v>
       </c>
     </row>
-    <row r="1083" hidden="1" spans="2:4">
+    <row r="1083" spans="1:4">
+      <c r="A1083" s="1">
+        <v>1</v>
+      </c>
       <c r="B1083" s="1" t="s">
         <v>3478</v>
       </c>
@@ -41879,7 +41990,10 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="1084" hidden="1" spans="2:5">
+    <row r="1084" spans="1:5">
+      <c r="A1084" s="1">
+        <v>1</v>
+      </c>
       <c r="B1084" s="1" t="s">
         <v>3481</v>
       </c>
@@ -41893,7 +42007,10 @@
         <v>3484</v>
       </c>
     </row>
-    <row r="1085" ht="37.5" hidden="1" spans="2:4">
+    <row r="1085" ht="37.5" spans="1:4">
+      <c r="A1085" s="1">
+        <v>1</v>
+      </c>
       <c r="B1085" s="1" t="s">
         <v>3485</v>
       </c>
@@ -41981,7 +42098,10 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="1093" hidden="1" spans="2:4">
+    <row r="1093" spans="1:4">
+      <c r="A1093" s="1">
+        <v>1</v>
+      </c>
       <c r="B1093" s="1" t="s">
         <v>3509</v>
       </c>
@@ -42014,7 +42134,10 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="1096" hidden="1" spans="2:4">
+    <row r="1096" spans="1:4">
+      <c r="A1096" s="1">
+        <v>1</v>
+      </c>
       <c r="B1096" s="1" t="s">
         <v>3518</v>
       </c>
@@ -42039,7 +42162,10 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="1098" hidden="1" spans="2:4">
+    <row r="1098" spans="1:4">
+      <c r="A1098" s="1">
+        <v>1</v>
+      </c>
       <c r="B1098" s="1" t="s">
         <v>3524</v>
       </c>
@@ -45937,7 +46063,7 @@
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
-        <filter val="6"/>
+        <filter val="7"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -22735,7 +22735,7 @@
     <t>v.废止，废除</t>
   </si>
   <si>
-    <t>Should the death penalty be abolished? 应该废除死刑吗?</t>
+    <t>Should the death penalty be abolished? 应该废除死刑吗? polish 抛光</t>
   </si>
   <si>
     <t>distribute</t>
@@ -26661,9 +26661,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -26723,33 +26723,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26761,17 +26739,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26785,23 +26755,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26816,10 +26772,25 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26832,7 +26803,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26941,7 +26941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26953,7 +26953,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26965,43 +27067,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27013,79 +27097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27097,25 +27109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27143,21 +27143,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27197,6 +27182,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -27229,85 +27229,85 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -27322,40 +27322,40 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -27364,7 +27364,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -27438,11 +27438,6 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -27478,7 +27473,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2814320" y="254000"/>
+          <a:off x="2713990" y="238125"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27519,7 +27514,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -27766,6 +27761,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -27775,16 +27771,16 @@
   <dimension ref="A1:F1431"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1098" sqref="A1098"/>
+      <selection activeCell="F847" sqref="F847"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.8285714285714" style="1"/>
-    <col min="2" max="2" width="20.8285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.8285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5071428571429" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8296296296296" style="1"/>
+    <col min="2" max="2" width="20.8296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3259259259259" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5037037037037" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27805,7 +27801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="40" hidden="1" spans="1:5">
+    <row r="2" ht="37.5" hidden="1" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -27822,7 +27818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="24" hidden="1" spans="1:5">
+    <row r="3" hidden="1" spans="1:5">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -27864,7 +27860,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="40" hidden="1" spans="2:4">
+    <row r="6" ht="37.5" hidden="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -27875,7 +27871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="80" hidden="1" spans="2:4">
+    <row r="7" ht="75" hidden="1" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -27886,7 +27882,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="40" hidden="1" spans="2:4">
+    <row r="8" ht="37.5" hidden="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -27897,7 +27893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="40" hidden="1" spans="2:4">
+    <row r="9" ht="37.5" hidden="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -27908,7 +27904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="60" hidden="1" spans="2:5">
+    <row r="10" ht="56.25" hidden="1" spans="2:5">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -27922,7 +27918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="40" hidden="1" spans="2:4">
+    <row r="11" ht="37.5" hidden="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
@@ -27933,7 +27929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" ht="40" hidden="1" spans="2:4">
+    <row r="12" ht="37.5" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -27944,7 +27940,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="40" hidden="1" spans="2:4">
+    <row r="13" ht="37.5" hidden="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -27955,7 +27951,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="40" hidden="1" spans="2:4">
+    <row r="14" ht="37.5" hidden="1" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
@@ -27966,7 +27962,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" ht="40" hidden="1" spans="1:4">
+    <row r="15" ht="37.5" hidden="1" spans="1:4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -27980,7 +27976,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="40" hidden="1" spans="1:5">
+    <row r="16" ht="37.5" hidden="1" spans="1:5">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -27997,7 +27993,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" ht="40" hidden="1" spans="2:4">
+    <row r="17" ht="37.5" hidden="1" spans="2:4">
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
@@ -28008,7 +28004,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" ht="24" hidden="1" spans="2:4">
+    <row r="18" hidden="1" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -28019,7 +28015,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" ht="40" hidden="1" spans="2:5">
+    <row r="19" ht="37.5" hidden="1" spans="2:5">
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
@@ -28033,7 +28029,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" ht="100" hidden="1" spans="1:5">
+    <row r="20" ht="75" hidden="1" spans="1:5">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -28064,7 +28060,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" ht="40" hidden="1" spans="1:4">
+    <row r="22" ht="37.5" hidden="1" spans="1:4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -28078,7 +28074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" ht="120" hidden="1" spans="1:5">
+    <row r="23" ht="93.75" hidden="1" spans="1:5">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -28095,7 +28091,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" ht="24" hidden="1" spans="2:4">
+    <row r="24" hidden="1" spans="2:4">
       <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
@@ -28106,7 +28102,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" ht="40" hidden="1" spans="2:5">
+    <row r="25" ht="37.5" hidden="1" spans="2:5">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
@@ -28156,7 +28152,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" ht="40" hidden="1" spans="2:4">
+    <row r="29" ht="37.5" hidden="1" spans="2:4">
       <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
@@ -28167,7 +28163,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" ht="40" hidden="1" spans="1:4">
+    <row r="30" ht="37.5" hidden="1" spans="1:4">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -28181,7 +28177,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" ht="40" hidden="1" spans="2:5">
+    <row r="31" ht="37.5" hidden="1" spans="2:5">
       <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
@@ -28195,7 +28191,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" ht="60" hidden="1" spans="1:5">
+    <row r="32" ht="37.5" hidden="1" spans="1:5">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -28212,7 +28208,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" ht="40" hidden="1" spans="1:5">
+    <row r="33" ht="37.5" hidden="1" spans="1:5">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -28229,7 +28225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="180" hidden="1" spans="2:5">
+    <row r="34" ht="150" hidden="1" spans="2:5">
       <c r="B34" s="1" t="s">
         <v>113</v>
       </c>
@@ -28243,7 +28239,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" ht="40" hidden="1" spans="1:4">
+    <row r="35" ht="37.5" hidden="1" spans="1:4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -28257,7 +28253,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" ht="120" hidden="1" spans="1:5">
+    <row r="36" ht="93.75" hidden="1" spans="1:5">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -28274,7 +28270,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" ht="60" hidden="1" spans="1:4">
+    <row r="37" ht="56.25" hidden="1" spans="1:4">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -28288,7 +28284,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" ht="40" hidden="1" spans="2:5">
+    <row r="38" ht="37.5" hidden="1" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>127</v>
       </c>
@@ -28316,7 +28312,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" ht="40" hidden="1" spans="1:5">
+    <row r="40" ht="37.5" hidden="1" spans="1:5">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -28333,7 +28329,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" ht="24" hidden="1" spans="1:4">
+    <row r="41" hidden="1" spans="1:4">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -28347,7 +28343,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" ht="40" hidden="1" spans="1:5">
+    <row r="42" ht="37.5" hidden="1" spans="1:5">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -28406,7 +28402,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" ht="24" hidden="1" spans="1:4">
+    <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -28431,7 +28427,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" ht="40" hidden="1" spans="1:4">
+    <row r="48" ht="37.5" hidden="1" spans="1:4">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -28456,7 +28452,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" ht="40" hidden="1" spans="1:5">
+    <row r="50" ht="37.5" hidden="1" spans="1:5">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -28473,7 +28469,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" ht="40" hidden="1" spans="2:4">
+    <row r="51" ht="37.5" hidden="1" spans="2:4">
       <c r="B51" s="1" t="s">
         <v>171</v>
       </c>
@@ -28484,7 +28480,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" ht="23" hidden="1" spans="2:4">
+    <row r="52" hidden="1" spans="2:4">
       <c r="B52" s="1" t="s">
         <v>174</v>
       </c>
@@ -28520,7 +28516,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" ht="40" hidden="1" spans="2:5">
+    <row r="55" ht="37.5" hidden="1" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>183</v>
       </c>
@@ -28534,7 +28530,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" ht="40" hidden="1" spans="2:5">
+    <row r="56" ht="37.5" hidden="1" spans="2:5">
       <c r="B56" s="1" t="s">
         <v>187</v>
       </c>
@@ -28565,7 +28561,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" ht="40" hidden="1" spans="2:4">
+    <row r="58" ht="37.5" hidden="1" spans="2:4">
       <c r="B58" s="1" t="s">
         <v>195</v>
       </c>
@@ -28576,7 +28572,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" ht="40" hidden="1" spans="1:5">
+    <row r="59" ht="37.5" hidden="1" spans="1:5">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -28593,7 +28589,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" ht="40" hidden="1" spans="2:5">
+    <row r="60" ht="37.5" hidden="1" spans="2:5">
       <c r="B60" s="1" t="s">
         <v>202</v>
       </c>
@@ -28618,7 +28614,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" ht="40" hidden="1" spans="2:5">
+    <row r="62" ht="37.5" hidden="1" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>209</v>
       </c>
@@ -28632,7 +28628,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" ht="24" hidden="1" spans="2:4">
+    <row r="63" hidden="1" spans="2:4">
       <c r="B63" s="1" t="s">
         <v>213</v>
       </c>
@@ -28643,7 +28639,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" ht="40" hidden="1" spans="1:5">
+    <row r="64" ht="37.5" hidden="1" spans="1:5">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -28660,7 +28656,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" ht="40" hidden="1" spans="2:4">
+    <row r="65" ht="37.5" hidden="1" spans="2:4">
       <c r="B65" s="1" t="s">
         <v>220</v>
       </c>
@@ -28688,7 +28684,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" ht="40" hidden="1" spans="2:5">
+    <row r="67" ht="37.5" hidden="1" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>227</v>
       </c>
@@ -28764,7 +28760,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" ht="40" hidden="1" spans="2:5">
+    <row r="72" ht="37.5" hidden="1" spans="2:5">
       <c r="B72" s="1" t="s">
         <v>246</v>
       </c>
@@ -28789,7 +28785,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" ht="40" hidden="1" spans="2:5">
+    <row r="74" ht="37.5" hidden="1" spans="2:5">
       <c r="B74" s="1" t="s">
         <v>253</v>
       </c>
@@ -28828,7 +28824,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="77" ht="40" hidden="1" spans="2:5">
+    <row r="77" ht="37.5" hidden="1" spans="2:5">
       <c r="B77" s="1" t="s">
         <v>263</v>
       </c>
@@ -28859,7 +28855,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" ht="24" hidden="1" spans="2:5">
+    <row r="79" hidden="1" spans="2:5">
       <c r="B79" s="1" t="s">
         <v>271</v>
       </c>
@@ -28873,7 +28869,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="80" ht="24" hidden="1" spans="2:5">
+    <row r="80" hidden="1" spans="2:5">
       <c r="B80" s="1" t="s">
         <v>275</v>
       </c>
@@ -28915,7 +28911,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" ht="40" hidden="1" spans="2:4">
+    <row r="83" ht="37.5" hidden="1" spans="2:4">
       <c r="B83" s="1" t="s">
         <v>284</v>
       </c>
@@ -28940,7 +28936,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" ht="40" hidden="1" spans="1:5">
+    <row r="85" ht="37.5" hidden="1" spans="1:5">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -28985,7 +28981,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" ht="60" hidden="1" spans="1:5">
+    <row r="88" ht="56.25" hidden="1" spans="1:5">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -29044,7 +29040,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" ht="24" hidden="1" spans="2:4">
+    <row r="92" hidden="1" spans="2:4">
       <c r="B92" s="1" t="s">
         <v>313</v>
       </c>
@@ -29080,7 +29076,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" ht="24" hidden="1" spans="2:4">
+    <row r="95" hidden="1" spans="2:4">
       <c r="B95" s="1" t="s">
         <v>322</v>
       </c>
@@ -29091,7 +29087,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="96" ht="24" hidden="1" spans="1:4">
+    <row r="96" hidden="1" spans="1:4">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -29105,7 +29101,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="97" ht="23" hidden="1" spans="1:4">
+    <row r="97" hidden="1" spans="1:4">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -29119,7 +29115,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" ht="40" hidden="1" spans="1:5">
+    <row r="98" ht="37.5" hidden="1" spans="1:5">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -29150,7 +29146,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" ht="24" hidden="1" spans="1:4">
+    <row r="100" hidden="1" spans="1:4">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -29225,7 +29221,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="106" ht="24" hidden="1" spans="2:4">
+    <row r="106" hidden="1" spans="2:4">
       <c r="B106" s="1" t="s">
         <v>357</v>
       </c>
@@ -29236,7 +29232,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" ht="40" hidden="1" spans="2:4">
+    <row r="107" ht="37.5" hidden="1" spans="2:4">
       <c r="B107" s="1" t="s">
         <v>360</v>
       </c>
@@ -29247,7 +29243,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="108" ht="24" hidden="1" spans="1:4">
+    <row r="108" hidden="1" spans="1:4">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -29261,7 +29257,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" ht="40" hidden="1" spans="1:5">
+    <row r="109" ht="37.5" hidden="1" spans="1:5">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -29292,7 +29288,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="111" ht="40" hidden="1" spans="1:5">
+    <row r="111" ht="37.5" hidden="1" spans="1:5">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -29320,7 +29316,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="113" ht="40" hidden="1" spans="2:4">
+    <row r="113" ht="37.5" hidden="1" spans="2:4">
       <c r="B113" s="1" t="s">
         <v>380</v>
       </c>
@@ -29331,7 +29327,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="114" ht="40" hidden="1" spans="1:5">
+    <row r="114" ht="37.5" hidden="1" spans="1:5">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -29359,7 +29355,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" ht="40" hidden="1" spans="1:5">
+    <row r="116" ht="37.5" hidden="1" spans="1:5">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -29376,7 +29372,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="117" ht="40" hidden="1" spans="2:5">
+    <row r="117" hidden="1" spans="2:5">
       <c r="B117" s="1" t="s">
         <v>394</v>
       </c>
@@ -29390,7 +29386,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="118" ht="24" hidden="1" spans="2:4">
+    <row r="118" hidden="1" spans="2:4">
       <c r="B118" s="1" t="s">
         <v>398</v>
       </c>
@@ -29401,7 +29397,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" ht="40" hidden="1" spans="2:4">
+    <row r="119" ht="37.5" hidden="1" spans="2:4">
       <c r="B119" s="1" t="s">
         <v>401</v>
       </c>
@@ -29429,7 +29425,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="121" ht="40" hidden="1" spans="1:4">
+    <row r="121" ht="37.5" hidden="1" spans="1:4">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -29443,7 +29439,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="122" ht="24" hidden="1" spans="2:4">
+    <row r="122" hidden="1" spans="2:4">
       <c r="B122" s="1" t="s">
         <v>411</v>
       </c>
@@ -29454,7 +29450,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="123" ht="24" hidden="1" spans="1:4">
+    <row r="123" hidden="1" spans="1:4">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -29468,7 +29464,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" ht="40" hidden="1" spans="1:4">
+    <row r="124" ht="37.5" hidden="1" spans="1:4">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -29507,7 +29503,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="127" ht="23" hidden="1" spans="2:4">
+    <row r="127" hidden="1" spans="2:4">
       <c r="B127" s="1" t="s">
         <v>426</v>
       </c>
@@ -29577,7 +29573,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="132" ht="40" hidden="1" spans="1:4">
+    <row r="132" ht="37.5" hidden="1" spans="1:4">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -29591,7 +29587,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="133" ht="40" hidden="1" spans="2:4">
+    <row r="133" ht="37.5" hidden="1" spans="2:4">
       <c r="B133" s="1" t="s">
         <v>445</v>
       </c>
@@ -29616,7 +29612,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="135" ht="100" hidden="1" spans="1:5">
+    <row r="135" ht="75" hidden="1" spans="1:5">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -29633,7 +29629,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="136" ht="24" hidden="1" spans="2:4">
+    <row r="136" hidden="1" spans="2:4">
       <c r="B136" s="1" t="s">
         <v>455</v>
       </c>
@@ -29644,7 +29640,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="137" ht="24" hidden="1" spans="2:4">
+    <row r="137" hidden="1" spans="2:4">
       <c r="B137" s="1" t="s">
         <v>458</v>
       </c>
@@ -29655,7 +29651,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" ht="23" hidden="1" spans="1:4">
+    <row r="138" hidden="1" spans="1:4">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -29669,7 +29665,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="139" ht="24" hidden="1" spans="1:4">
+    <row r="139" hidden="1" spans="1:4">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -29683,7 +29679,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="140" ht="24" hidden="1" spans="1:4">
+    <row r="140" hidden="1" spans="1:4">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -29711,7 +29707,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="142" ht="40" hidden="1" spans="1:4">
+    <row r="142" ht="37.5" hidden="1" spans="1:4">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -29770,7 +29766,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="146" ht="40" hidden="1" spans="2:4">
+    <row r="146" ht="37.5" hidden="1" spans="2:4">
       <c r="B146" s="1" t="s">
         <v>487</v>
       </c>
@@ -29809,7 +29805,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="149" ht="40" hidden="1" spans="2:4">
+    <row r="149" ht="37.5" hidden="1" spans="2:4">
       <c r="B149" s="1" t="s">
         <v>497</v>
       </c>
@@ -29831,7 +29827,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="151" ht="24" hidden="1" spans="1:4">
+    <row r="151" hidden="1" spans="1:4">
       <c r="A151" s="1">
         <v>0</v>
       </c>
@@ -29845,7 +29841,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="152" ht="40" hidden="1" spans="1:5">
+    <row r="152" ht="37.5" hidden="1" spans="1:5">
       <c r="A152" s="1">
         <v>0</v>
       </c>
@@ -29876,7 +29872,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="154" ht="24" hidden="1" spans="2:4">
+    <row r="154" hidden="1" spans="2:4">
       <c r="B154" s="1" t="s">
         <v>514</v>
       </c>
@@ -29887,7 +29883,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="155" ht="23" hidden="1" spans="1:4">
+    <row r="155" hidden="1" spans="1:4">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -29966,7 +29962,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" ht="24" hidden="1" spans="2:4">
+    <row r="160" hidden="1" spans="2:4">
       <c r="B160" s="1" t="s">
         <v>535</v>
       </c>
@@ -29977,7 +29973,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="161" ht="40" hidden="1" spans="2:4">
+    <row r="161" ht="37.5" hidden="1" spans="2:4">
       <c r="B161" s="1" t="s">
         <v>538</v>
       </c>
@@ -30002,7 +29998,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="163" ht="23" hidden="1" spans="2:4">
+    <row r="163" hidden="1" spans="2:4">
       <c r="B163" s="1" t="s">
         <v>544</v>
       </c>
@@ -30013,7 +30009,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="164" ht="24" hidden="1" spans="2:4">
+    <row r="164" hidden="1" spans="2:4">
       <c r="B164" s="1" t="s">
         <v>547</v>
       </c>
@@ -30038,7 +30034,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="166" ht="24" hidden="1" spans="2:4">
+    <row r="166" hidden="1" spans="2:4">
       <c r="B166" s="1" t="s">
         <v>553</v>
       </c>
@@ -30049,7 +30045,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="167" ht="40" hidden="1" spans="1:4">
+    <row r="167" ht="37.5" hidden="1" spans="1:4">
       <c r="A167" s="1">
         <v>0</v>
       </c>
@@ -30077,7 +30073,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="169" ht="100" hidden="1" spans="2:5">
+    <row r="169" ht="75" hidden="1" spans="2:5">
       <c r="B169" s="1" t="s">
         <v>562</v>
       </c>
@@ -30091,7 +30087,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="170" ht="40" hidden="1" spans="1:4">
+    <row r="170" ht="37.5" hidden="1" spans="1:4">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -30105,7 +30101,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="171" ht="40" hidden="1" spans="1:4">
+    <row r="171" ht="37.5" hidden="1" spans="1:4">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -30133,7 +30129,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="173" ht="100" hidden="1" spans="1:5">
+    <row r="173" ht="75" hidden="1" spans="1:5">
       <c r="A173" s="1">
         <v>0</v>
       </c>
@@ -30150,7 +30146,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="174" ht="24" hidden="1" spans="2:4">
+    <row r="174" hidden="1" spans="2:4">
       <c r="B174" s="1" t="s">
         <v>579</v>
       </c>
@@ -30172,7 +30168,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="176" ht="23" hidden="1" spans="1:5">
+    <row r="176" hidden="1" spans="1:5">
       <c r="A176" s="1">
         <v>0</v>
       </c>
@@ -30189,7 +30185,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="177" ht="24" hidden="1" spans="2:4">
+    <row r="177" hidden="1" spans="2:4">
       <c r="B177" s="1" t="s">
         <v>589</v>
       </c>
@@ -30200,7 +30196,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="178" ht="23" hidden="1" spans="2:4">
+    <row r="178" hidden="1" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>592</v>
       </c>
@@ -30236,7 +30232,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="181" ht="40" hidden="1" spans="2:4">
+    <row r="181" ht="37.5" hidden="1" spans="2:4">
       <c r="B181" s="1" t="s">
         <v>601</v>
       </c>
@@ -30247,7 +30243,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="182" ht="24" hidden="1" spans="2:4">
+    <row r="182" hidden="1" spans="2:4">
       <c r="B182" s="1" t="s">
         <v>604</v>
       </c>
@@ -30258,7 +30254,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="183" ht="40" hidden="1" spans="2:4">
+    <row r="183" ht="37.5" hidden="1" spans="2:4">
       <c r="B183" s="1" t="s">
         <v>607</v>
       </c>
@@ -30269,7 +30265,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="184" ht="24" hidden="1" spans="2:4">
+    <row r="184" hidden="1" spans="2:4">
       <c r="B184" s="1" t="s">
         <v>610</v>
       </c>
@@ -30280,7 +30276,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="185" ht="40" hidden="1" spans="2:4">
+    <row r="185" ht="37.5" hidden="1" spans="2:4">
       <c r="B185" s="1" t="s">
         <v>613</v>
       </c>
@@ -30358,7 +30354,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="191" ht="24" hidden="1" spans="2:5">
+    <row r="191" hidden="1" spans="2:5">
       <c r="B191" s="1" t="s">
         <v>632</v>
       </c>
@@ -30372,7 +30368,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="192" ht="40" hidden="1" spans="2:4">
+    <row r="192" ht="37.5" hidden="1" spans="2:4">
       <c r="B192" s="1" t="s">
         <v>636</v>
       </c>
@@ -30383,7 +30379,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="193" ht="40" hidden="1" spans="2:4">
+    <row r="193" ht="37.5" hidden="1" spans="2:4">
       <c r="B193" s="1" t="s">
         <v>639</v>
       </c>
@@ -30419,7 +30415,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="196" ht="40" hidden="1" spans="2:4">
+    <row r="196" ht="37.5" hidden="1" spans="2:4">
       <c r="B196" s="1" t="s">
         <v>648</v>
       </c>
@@ -30430,7 +30426,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="197" ht="24" hidden="1" spans="2:4">
+    <row r="197" hidden="1" spans="2:4">
       <c r="B197" s="1" t="s">
         <v>651</v>
       </c>
@@ -30441,7 +30437,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="198" ht="40" hidden="1" spans="2:4">
+    <row r="198" ht="37.5" hidden="1" spans="2:4">
       <c r="B198" s="1" t="s">
         <v>654</v>
       </c>
@@ -30452,7 +30448,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="199" ht="40" hidden="1" spans="2:4">
+    <row r="199" ht="37.5" hidden="1" spans="2:4">
       <c r="B199" s="1" t="s">
         <v>657</v>
       </c>
@@ -30477,7 +30473,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="201" ht="40" hidden="1" spans="1:4">
+    <row r="201" ht="37.5" hidden="1" spans="1:4">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -30491,7 +30487,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="202" ht="24" hidden="1" spans="2:4">
+    <row r="202" hidden="1" spans="2:4">
       <c r="B202" s="1" t="s">
         <v>666</v>
       </c>
@@ -30502,7 +30498,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="203" ht="24" hidden="1" spans="2:4">
+    <row r="203" hidden="1" spans="2:4">
       <c r="B203" s="1" t="s">
         <v>669</v>
       </c>
@@ -30549,7 +30545,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="207" ht="40" hidden="1" spans="1:4">
+    <row r="207" ht="37.5" hidden="1" spans="1:4">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -30591,7 +30587,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="210" ht="40" hidden="1" spans="2:4">
+    <row r="210" ht="37.5" hidden="1" spans="2:4">
       <c r="B210" s="1" t="s">
         <v>691</v>
       </c>
@@ -30602,7 +30598,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="211" ht="40" hidden="1" spans="1:4">
+    <row r="211" ht="37.5" hidden="1" spans="1:4">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -30627,7 +30623,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="213" ht="40" hidden="1" spans="1:4">
+    <row r="213" ht="37.5" hidden="1" spans="1:4">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -30641,7 +30637,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="214" ht="80" hidden="1" spans="2:5">
+    <row r="214" ht="75" hidden="1" spans="2:5">
       <c r="B214" s="1" t="s">
         <v>703</v>
       </c>
@@ -30655,7 +30651,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="215" ht="40" hidden="1" spans="2:5">
+    <row r="215" ht="37.5" hidden="1" spans="2:5">
       <c r="B215" s="1" t="s">
         <v>707</v>
       </c>
@@ -30686,7 +30682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" ht="24" hidden="1" spans="1:4">
+    <row r="217" hidden="1" spans="1:4">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -30728,7 +30724,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="220" ht="40" hidden="1" spans="2:4">
+    <row r="220" ht="37.5" hidden="1" spans="2:4">
       <c r="B220" s="1" t="s">
         <v>724</v>
       </c>
@@ -30784,7 +30780,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="224" ht="40" hidden="1" spans="1:4">
+    <row r="224" ht="37.5" hidden="1" spans="1:4">
       <c r="A224" s="1">
         <v>0</v>
       </c>
@@ -30820,7 +30816,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="227" ht="40" hidden="1" spans="2:4">
+    <row r="227" ht="37.5" hidden="1" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>746</v>
       </c>
@@ -30845,7 +30841,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="229" ht="40" hidden="1" spans="1:4">
+    <row r="229" ht="37.5" hidden="1" spans="1:4">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -30980,7 +30976,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="238" ht="24" hidden="1" spans="1:5">
+    <row r="238" hidden="1" spans="1:5">
       <c r="A238" s="1">
         <v>0</v>
       </c>
@@ -30997,7 +30993,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="239" ht="40" hidden="1" spans="1:5">
+    <row r="239" ht="37.5" hidden="1" spans="1:5">
       <c r="A239" s="1">
         <v>0</v>
       </c>
@@ -31062,7 +31058,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="243" ht="40" hidden="1" spans="1:5">
+    <row r="243" ht="37.5" hidden="1" spans="1:5">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -31090,7 +31086,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="245" ht="40" hidden="1" spans="1:4">
+    <row r="245" ht="37.5" hidden="1" spans="1:4">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -31104,7 +31100,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="246" ht="40" hidden="1" spans="1:5">
+    <row r="246" ht="37.5" hidden="1" spans="1:5">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -31135,7 +31131,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="248" ht="40" hidden="1" spans="2:4">
+    <row r="248" ht="37.5" hidden="1" spans="2:4">
       <c r="B248" s="1" t="s">
         <v>820</v>
       </c>
@@ -31146,7 +31142,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="249" ht="40" hidden="1" spans="1:4">
+    <row r="249" ht="37.5" hidden="1" spans="1:4">
       <c r="A249" s="1">
         <v>0</v>
       </c>
@@ -31160,7 +31156,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="250" ht="40" hidden="1" spans="2:4">
+    <row r="250" ht="37.5" hidden="1" spans="2:4">
       <c r="B250" s="1" t="s">
         <v>826</v>
       </c>
@@ -31185,7 +31181,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="252" ht="40" hidden="1" spans="2:5">
+    <row r="252" ht="37.5" hidden="1" spans="2:5">
       <c r="B252" s="1" t="s">
         <v>832</v>
       </c>
@@ -31213,7 +31209,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="254" ht="24" hidden="1" spans="1:4">
+    <row r="254" hidden="1" spans="1:4">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -31227,7 +31223,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="255" ht="24" hidden="1" spans="1:4">
+    <row r="255" hidden="1" spans="1:4">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -31263,7 +31259,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="258" ht="40" hidden="1" spans="1:4">
+    <row r="258" ht="37.5" hidden="1" spans="1:4">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -31277,7 +31273,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="259" ht="40" hidden="1" spans="1:4">
+    <row r="259" ht="37.5" hidden="1" spans="1:4">
       <c r="A259" s="1">
         <v>0</v>
       </c>
@@ -31291,7 +31287,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="260" ht="24" hidden="1" spans="2:4">
+    <row r="260" hidden="1" spans="2:4">
       <c r="B260" s="1" t="s">
         <v>857</v>
       </c>
@@ -31302,7 +31298,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="261" ht="40" hidden="1" spans="2:4">
+    <row r="261" ht="37.5" hidden="1" spans="2:4">
       <c r="B261" s="1" t="s">
         <v>860</v>
       </c>
@@ -31313,7 +31309,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="262" ht="24" hidden="1" spans="1:4">
+    <row r="262" hidden="1" spans="1:4">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -31341,7 +31337,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="264" ht="40" hidden="1" spans="1:4">
+    <row r="264" ht="37.5" hidden="1" spans="1:4">
       <c r="A264" s="1">
         <v>0</v>
       </c>
@@ -31355,7 +31351,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="265" ht="24" hidden="1" spans="2:4">
+    <row r="265" hidden="1" spans="2:4">
       <c r="B265" s="1" t="s">
         <v>872</v>
       </c>
@@ -31383,7 +31379,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="267" ht="40" hidden="1" spans="1:5">
+    <row r="267" ht="37.5" hidden="1" spans="1:5">
       <c r="A267" s="1">
         <v>0</v>
       </c>
@@ -31400,7 +31396,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="268" ht="80" hidden="1" spans="1:5">
+    <row r="268" ht="75" hidden="1" spans="1:5">
       <c r="A268" s="1">
         <v>0</v>
       </c>
@@ -31417,7 +31413,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="269" ht="60" hidden="1" spans="1:5">
+    <row r="269" ht="56.25" hidden="1" spans="1:5">
       <c r="A269" s="1">
         <v>0</v>
       </c>
@@ -31445,7 +31441,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="271" ht="24" hidden="1" spans="1:4">
+    <row r="271" hidden="1" spans="1:4">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -31459,7 +31455,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="272" ht="40" hidden="1" spans="2:4">
+    <row r="272" ht="37.5" hidden="1" spans="2:4">
       <c r="B272" s="1" t="s">
         <v>897</v>
       </c>
@@ -31470,7 +31466,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="273" ht="24" hidden="1" spans="2:4">
+    <row r="273" hidden="1" spans="2:4">
       <c r="B273" s="1" t="s">
         <v>900</v>
       </c>
@@ -31481,7 +31477,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="274" ht="40" hidden="1" spans="2:4">
+    <row r="274" ht="37.5" hidden="1" spans="2:4">
       <c r="B274" s="1" t="s">
         <v>903</v>
       </c>
@@ -31492,7 +31488,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="275" ht="40" hidden="1" spans="1:4">
+    <row r="275" ht="37.5" hidden="1" spans="1:4">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -31528,7 +31524,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="278" ht="40" hidden="1" spans="2:4">
+    <row r="278" ht="37.5" hidden="1" spans="2:4">
       <c r="B278" s="1" t="s">
         <v>915</v>
       </c>
@@ -31539,7 +31535,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="279" ht="24" hidden="1" spans="1:4">
+    <row r="279" hidden="1" spans="1:4">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -31553,7 +31549,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="280" ht="24" hidden="1" spans="1:4">
+    <row r="280" hidden="1" spans="1:4">
       <c r="A280" s="1">
         <v>0</v>
       </c>
@@ -31578,7 +31574,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="282" ht="40" hidden="1" spans="2:4">
+    <row r="282" ht="37.5" hidden="1" spans="2:4">
       <c r="B282" s="1" t="s">
         <v>927</v>
       </c>
@@ -31589,7 +31585,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="283" ht="40" hidden="1" spans="1:5">
+    <row r="283" ht="37.5" hidden="1" spans="1:5">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -31606,7 +31602,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="284" ht="24" hidden="1" spans="1:4">
+    <row r="284" hidden="1" spans="1:4">
       <c r="A284" s="1">
         <v>0</v>
       </c>
@@ -31637,7 +31633,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="286" ht="80" hidden="1" spans="1:6">
+    <row r="286" ht="75" hidden="1" spans="1:6">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -31683,7 +31679,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="289" ht="100" hidden="1" spans="1:5">
+    <row r="289" ht="75" hidden="1" spans="1:5">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -31700,7 +31696,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="290" ht="40" hidden="1" spans="2:4">
+    <row r="290" ht="37.5" hidden="1" spans="2:4">
       <c r="B290" s="1" t="s">
         <v>955</v>
       </c>
@@ -31711,7 +31707,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="291" ht="40" hidden="1" spans="2:5">
+    <row r="291" ht="37.5" hidden="1" spans="2:5">
       <c r="B291" s="1" t="s">
         <v>958</v>
       </c>
@@ -31761,7 +31757,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="295" ht="24" hidden="1" spans="1:4">
+    <row r="295" hidden="1" spans="1:4">
       <c r="A295" s="1">
         <v>0</v>
       </c>
@@ -31775,7 +31771,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="296" ht="40" hidden="1" spans="1:4">
+    <row r="296" ht="37.5" hidden="1" spans="1:4">
       <c r="A296" s="1">
         <v>0</v>
       </c>
@@ -31828,7 +31824,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="300" ht="24" hidden="1" spans="1:4">
+    <row r="300" hidden="1" spans="1:4">
       <c r="A300" s="1">
         <v>0</v>
       </c>
@@ -31842,7 +31838,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="301" ht="40" hidden="1" spans="1:5">
+    <row r="301" ht="37.5" hidden="1" spans="1:5">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -31876,7 +31872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="40" hidden="1" spans="1:4">
+    <row r="303" ht="37.5" hidden="1" spans="1:4">
       <c r="A303" s="1">
         <v>0</v>
       </c>
@@ -31890,7 +31886,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="304" ht="23" hidden="1" spans="1:4">
+    <row r="304" hidden="1" spans="1:4">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -31904,7 +31900,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="305" ht="40" hidden="1" spans="1:4">
+    <row r="305" ht="37.5" hidden="1" spans="1:4">
       <c r="A305" s="1">
         <v>0</v>
       </c>
@@ -31929,7 +31925,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="307" ht="40" hidden="1" spans="2:4">
+    <row r="307" ht="37.5" hidden="1" spans="2:4">
       <c r="B307" s="1" t="s">
         <v>1008</v>
       </c>
@@ -31940,7 +31936,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="308" ht="24" hidden="1" spans="1:4">
+    <row r="308" hidden="1" spans="1:4">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -31965,7 +31961,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="310" ht="40" hidden="1" spans="2:4">
+    <row r="310" ht="37.5" hidden="1" spans="2:4">
       <c r="B310" s="1" t="s">
         <v>1017</v>
       </c>
@@ -32001,7 +31997,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="313" ht="40" hidden="1" spans="1:4">
+    <row r="313" ht="37.5" hidden="1" spans="1:4">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -32015,7 +32011,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="314" ht="100" hidden="1" spans="1:5">
+    <row r="314" ht="75" hidden="1" spans="1:5">
       <c r="A314" s="1">
         <v>0</v>
       </c>
@@ -32043,7 +32039,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="316" ht="40" hidden="1" spans="1:4">
+    <row r="316" ht="37.5" hidden="1" spans="1:4">
       <c r="A316" s="1">
         <v>0</v>
       </c>
@@ -32068,7 +32064,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="318" ht="40" hidden="1" spans="1:5">
+    <row r="318" ht="37.5" hidden="1" spans="1:5">
       <c r="A318" s="1">
         <v>0</v>
       </c>
@@ -32102,7 +32098,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="320" ht="23" hidden="1" spans="2:4">
+    <row r="320" hidden="1" spans="2:4">
       <c r="B320" s="1" t="s">
         <v>1049</v>
       </c>
@@ -32113,7 +32109,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="321" ht="135" hidden="1" spans="2:5">
+    <row r="321" ht="112.5" hidden="1" spans="2:5">
       <c r="B321" s="1" t="s">
         <v>1052</v>
       </c>
@@ -32152,7 +32148,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="324" ht="24" hidden="1" spans="2:4">
+    <row r="324" hidden="1" spans="2:4">
       <c r="B324" s="1" t="s">
         <v>1063</v>
       </c>
@@ -32236,7 +32232,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="330" ht="40" hidden="1" spans="1:4">
+    <row r="330" ht="37.5" hidden="1" spans="1:4">
       <c r="A330" s="1">
         <v>0</v>
       </c>
@@ -32264,7 +32260,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="332" ht="40" hidden="1" spans="2:4">
+    <row r="332" ht="37.5" hidden="1" spans="2:4">
       <c r="B332" s="1" t="s">
         <v>1089</v>
       </c>
@@ -32297,7 +32293,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="335" ht="40" hidden="1" spans="1:5">
+    <row r="335" ht="37.5" hidden="1" spans="1:5">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -32378,7 +32374,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="341" ht="140" hidden="1" spans="1:5">
+    <row r="341" ht="93.75" hidden="1" spans="1:5">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -32395,7 +32391,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="342" ht="40" hidden="1" spans="2:4">
+    <row r="342" ht="37.5" hidden="1" spans="2:4">
       <c r="B342" s="1" t="s">
         <v>1122</v>
       </c>
@@ -32406,7 +32402,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="343" ht="40" hidden="1" spans="2:4">
+    <row r="343" ht="37.5" hidden="1" spans="2:4">
       <c r="B343" s="1" t="s">
         <v>1125</v>
       </c>
@@ -32428,7 +32424,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="345" ht="40" hidden="1" spans="1:4">
+    <row r="345" ht="37.5" hidden="1" spans="1:4">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -32456,7 +32452,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="347" ht="24" hidden="1" spans="2:4">
+    <row r="347" hidden="1" spans="2:4">
       <c r="B347" s="1" t="s">
         <v>1137</v>
       </c>
@@ -32501,7 +32497,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="350" ht="24" hidden="1" spans="1:4">
+    <row r="350" hidden="1" spans="1:4">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -32526,7 +32522,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="352" ht="24" hidden="1" spans="2:4">
+    <row r="352" hidden="1" spans="2:4">
       <c r="B352" s="1" t="s">
         <v>1153</v>
       </c>
@@ -32618,7 +32614,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="359" ht="40" hidden="1" spans="1:4">
+    <row r="359" ht="37.5" hidden="1" spans="1:4">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -32632,7 +32628,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="360" ht="23" hidden="1" spans="2:4">
+    <row r="360" ht="37.5" hidden="1" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>1178</v>
       </c>
@@ -32643,7 +32639,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="361" ht="24" hidden="1" spans="1:4">
+    <row r="361" hidden="1" spans="1:4">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -32657,7 +32653,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="362" ht="40" hidden="1" spans="2:5">
+    <row r="362" ht="37.5" hidden="1" spans="2:5">
       <c r="B362" s="1" t="s">
         <v>1184</v>
       </c>
@@ -32699,7 +32695,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="365" ht="40" hidden="1" spans="2:5">
+    <row r="365" ht="37.5" hidden="1" spans="2:5">
       <c r="B365" s="1" t="s">
         <v>1195</v>
       </c>
@@ -32724,7 +32720,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="367" ht="40" hidden="1" spans="1:5">
+    <row r="367" ht="37.5" hidden="1" spans="1:5">
       <c r="A367" s="1">
         <v>0</v>
       </c>
@@ -32752,7 +32748,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="369" ht="40" hidden="1" spans="1:4">
+    <row r="369" ht="37.5" hidden="1" spans="1:4">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -32794,7 +32790,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="372" ht="24" hidden="1" spans="2:5">
+    <row r="372" hidden="1" spans="2:5">
       <c r="B372" s="1" t="s">
         <v>1220</v>
       </c>
@@ -32808,7 +32804,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="373" ht="40" hidden="1" spans="2:4">
+    <row r="373" ht="37.5" hidden="1" spans="2:4">
       <c r="B373" s="1" t="s">
         <v>1224</v>
       </c>
@@ -32819,7 +32815,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="374" ht="40" hidden="1" spans="2:4">
+    <row r="374" ht="37.5" hidden="1" spans="2:4">
       <c r="B374" s="1" t="s">
         <v>1227</v>
       </c>
@@ -32830,7 +32826,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="375" ht="60" hidden="1" spans="2:4">
+    <row r="375" ht="56.25" hidden="1" spans="2:4">
       <c r="B375" s="1" t="s">
         <v>1230</v>
       </c>
@@ -32841,7 +32837,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="376" ht="24" hidden="1" spans="2:4">
+    <row r="376" hidden="1" spans="2:4">
       <c r="B376" s="1" t="s">
         <v>1233</v>
       </c>
@@ -32899,7 +32895,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="381" ht="40" hidden="1" spans="1:4">
+    <row r="381" ht="37.5" hidden="1" spans="1:4">
       <c r="A381" s="1">
         <v>0</v>
       </c>
@@ -32913,7 +32909,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="382" ht="40" hidden="1" spans="1:4">
+    <row r="382" ht="37.5" hidden="1" spans="1:4">
       <c r="A382" s="1">
         <v>0</v>
       </c>
@@ -32927,7 +32923,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="383" ht="40" hidden="1" spans="2:4">
+    <row r="383" ht="37.5" hidden="1" spans="2:4">
       <c r="B383" s="1" t="s">
         <v>1254</v>
       </c>
@@ -32963,7 +32959,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="386" ht="40" hidden="1" spans="2:4">
+    <row r="386" ht="37.5" hidden="1" spans="2:4">
       <c r="B386" s="1" t="s">
         <v>1263</v>
       </c>
@@ -32974,7 +32970,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="387" ht="40" hidden="1" spans="2:4">
+    <row r="387" ht="37.5" hidden="1" spans="2:4">
       <c r="B387" s="1" t="s">
         <v>1266</v>
       </c>
@@ -32985,7 +32981,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="388" ht="23" hidden="1" spans="2:4">
+    <row r="388" hidden="1" spans="2:4">
       <c r="B388" s="1" t="s">
         <v>1269</v>
       </c>
@@ -33066,7 +33062,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="394" ht="24" hidden="1" spans="1:4">
+    <row r="394" hidden="1" spans="1:4">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -33130,7 +33126,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="399" ht="40" hidden="1" spans="1:5">
+    <row r="399" ht="37.5" hidden="1" spans="1:5">
       <c r="A399" s="1">
         <v>0</v>
       </c>
@@ -33161,7 +33157,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="401" ht="200" hidden="1" spans="1:5">
+    <row r="401" ht="168.75" hidden="1" spans="1:5">
       <c r="A401" s="1">
         <v>0</v>
       </c>
@@ -33189,7 +33185,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="403" ht="23" hidden="1" spans="1:5">
+    <row r="403" hidden="1" spans="1:5">
       <c r="A403" s="1">
         <v>0</v>
       </c>
@@ -33206,7 +33202,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="404" ht="24" hidden="1" spans="1:4">
+    <row r="404" hidden="1" spans="1:4">
       <c r="A404" s="1">
         <v>0</v>
       </c>
@@ -33220,7 +33216,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="405" ht="134" hidden="1" spans="2:5">
+    <row r="405" ht="112.5" hidden="1" spans="2:5">
       <c r="B405" s="1" t="s">
         <v>1323</v>
       </c>
@@ -33234,7 +33230,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="406" ht="40" hidden="1" spans="2:4">
+    <row r="406" ht="37.5" hidden="1" spans="2:4">
       <c r="B406" s="1" t="s">
         <v>1327</v>
       </c>
@@ -33245,7 +33241,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="407" ht="24" hidden="1" spans="1:5">
+    <row r="407" hidden="1" spans="1:5">
       <c r="A407" s="1">
         <v>0</v>
       </c>
@@ -33284,7 +33280,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="410" ht="23" hidden="1" spans="2:4">
+    <row r="410" hidden="1" spans="2:4">
       <c r="B410" s="1" t="s">
         <v>1340</v>
       </c>
@@ -33295,7 +33291,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="411" ht="40" hidden="1" spans="2:4">
+    <row r="411" ht="37.5" hidden="1" spans="2:4">
       <c r="B411" s="1" t="s">
         <v>1343</v>
       </c>
@@ -33306,7 +33302,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="412" ht="40" hidden="1" spans="2:4">
+    <row r="412" ht="37.5" hidden="1" spans="2:4">
       <c r="B412" s="1" t="s">
         <v>1346</v>
       </c>
@@ -33317,7 +33313,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="413" ht="40" hidden="1" spans="2:4">
+    <row r="413" ht="37.5" hidden="1" spans="2:4">
       <c r="B413" s="1" t="s">
         <v>1349</v>
       </c>
@@ -33339,7 +33335,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="415" ht="24" hidden="1" spans="1:5">
+    <row r="415" hidden="1" spans="1:5">
       <c r="A415" s="1">
         <v>0</v>
       </c>
@@ -33370,7 +33366,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="417" ht="24" hidden="1" spans="2:4">
+    <row r="417" hidden="1" spans="2:4">
       <c r="B417" s="1" t="s">
         <v>1362</v>
       </c>
@@ -33381,7 +33377,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="418" ht="40" hidden="1" spans="1:5">
+    <row r="418" ht="37.5" hidden="1" spans="1:5">
       <c r="A418" s="1">
         <v>0</v>
       </c>
@@ -33398,7 +33394,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="419" ht="40" hidden="1" spans="1:5">
+    <row r="419" ht="37.5" hidden="1" spans="1:5">
       <c r="A419" s="1">
         <v>0</v>
       </c>
@@ -33429,7 +33425,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="421" ht="24" hidden="1" spans="2:4">
+    <row r="421" hidden="1" spans="2:4">
       <c r="B421" s="1" t="s">
         <v>1376</v>
       </c>
@@ -33440,7 +33436,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="422" ht="23" hidden="1" spans="2:4">
+    <row r="422" hidden="1" spans="2:4">
       <c r="B422" s="1" t="s">
         <v>1379</v>
       </c>
@@ -33451,7 +33447,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="423" ht="24" hidden="1" spans="2:4">
+    <row r="423" hidden="1" spans="2:4">
       <c r="B423" s="1" t="s">
         <v>1382</v>
       </c>
@@ -33462,7 +33458,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="424" ht="24" hidden="1" spans="2:4">
+    <row r="424" hidden="1" spans="2:4">
       <c r="B424" s="1" t="s">
         <v>1385</v>
       </c>
@@ -33473,7 +33469,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="425" ht="24" hidden="1" spans="2:4">
+    <row r="425" hidden="1" spans="2:4">
       <c r="B425" s="1" t="s">
         <v>1388</v>
       </c>
@@ -33484,7 +33480,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="426" ht="24" hidden="1" spans="2:4">
+    <row r="426" hidden="1" spans="2:4">
       <c r="B426" s="1" t="s">
         <v>1391</v>
       </c>
@@ -33495,7 +33491,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="427" ht="23" hidden="1" spans="1:5">
+    <row r="427" hidden="1" spans="1:5">
       <c r="A427" s="1">
         <v>0</v>
       </c>
@@ -33512,7 +33508,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="428" ht="40" hidden="1" spans="2:4">
+    <row r="428" ht="37.5" hidden="1" spans="2:4">
       <c r="B428" s="1" t="s">
         <v>1398</v>
       </c>
@@ -33537,7 +33533,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="430" ht="23" hidden="1" spans="1:4">
+    <row r="430" hidden="1" spans="1:4">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -33579,7 +33575,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="433" ht="24" hidden="1" spans="1:4">
+    <row r="433" hidden="1" spans="1:4">
       <c r="A433" s="1">
         <v>0</v>
       </c>
@@ -33593,7 +33589,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="434" ht="40" hidden="1" spans="2:4">
+    <row r="434" ht="37.5" hidden="1" spans="2:4">
       <c r="B434" s="1" t="s">
         <v>1416</v>
       </c>
@@ -33604,7 +33600,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="435" ht="24" hidden="1" spans="2:4">
+    <row r="435" hidden="1" spans="2:4">
       <c r="B435" s="1" t="s">
         <v>1419</v>
       </c>
@@ -33648,7 +33644,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="439" ht="40" hidden="1" spans="1:4">
+    <row r="439" ht="37.5" hidden="1" spans="1:4">
       <c r="A439" s="1">
         <v>0</v>
       </c>
@@ -33662,7 +33658,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="440" ht="40" hidden="1" spans="1:4">
+    <row r="440" ht="37.5" hidden="1" spans="1:4">
       <c r="A440" s="1">
         <v>0</v>
       </c>
@@ -33676,7 +33672,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="441" ht="24" hidden="1" spans="2:4">
+    <row r="441" hidden="1" spans="2:4">
       <c r="B441" s="1" t="s">
         <v>1437</v>
       </c>
@@ -33701,7 +33697,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="443" ht="24" hidden="1" spans="2:4">
+    <row r="443" hidden="1" spans="2:4">
       <c r="B443" s="1" t="s">
         <v>1444</v>
       </c>
@@ -33726,7 +33722,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="445" ht="40" hidden="1" spans="2:4">
+    <row r="445" ht="37.5" hidden="1" spans="2:4">
       <c r="B445" s="1" t="s">
         <v>1450</v>
       </c>
@@ -33762,7 +33758,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="448" ht="40" hidden="1" spans="1:4">
+    <row r="448" ht="37.5" hidden="1" spans="1:4">
       <c r="A448" s="1">
         <v>0</v>
       </c>
@@ -33776,7 +33772,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="449" ht="23" hidden="1" spans="2:4">
+    <row r="449" hidden="1" spans="2:4">
       <c r="B449" s="1" t="s">
         <v>1463</v>
       </c>
@@ -33798,7 +33794,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="451" ht="24" hidden="1" spans="1:4">
+    <row r="451" hidden="1" spans="1:4">
       <c r="A451" s="1">
         <v>0</v>
       </c>
@@ -33812,7 +33808,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="452" ht="24" hidden="1" spans="2:4">
+    <row r="452" hidden="1" spans="2:4">
       <c r="B452" s="1" t="s">
         <v>1472</v>
       </c>
@@ -33837,7 +33833,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="454" ht="24" hidden="1" spans="2:4">
+    <row r="454" hidden="1" spans="2:4">
       <c r="B454" s="1" t="s">
         <v>1478</v>
       </c>
@@ -33862,7 +33858,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="456" ht="24" hidden="1" spans="1:4">
+    <row r="456" hidden="1" spans="1:4">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -33898,7 +33894,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="459" ht="40" hidden="1" spans="1:4">
+    <row r="459" ht="37.5" hidden="1" spans="1:4">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -33923,7 +33919,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="461" ht="24" hidden="1" spans="2:4">
+    <row r="461" hidden="1" spans="2:4">
       <c r="B461" s="1" t="s">
         <v>1499</v>
       </c>
@@ -33948,7 +33944,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="463" ht="23" hidden="1" spans="2:4">
+    <row r="463" hidden="1" spans="2:4">
       <c r="B463" s="1" t="s">
         <v>1505</v>
       </c>
@@ -33959,7 +33955,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="464" ht="40" hidden="1" spans="1:4">
+    <row r="464" ht="37.5" hidden="1" spans="1:4">
       <c r="A464" s="1">
         <v>0</v>
       </c>
@@ -34009,7 +34005,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="468" ht="40" hidden="1" spans="2:4">
+    <row r="468" ht="37.5" hidden="1" spans="2:4">
       <c r="B468" s="1" t="s">
         <v>1520</v>
       </c>
@@ -34092,7 +34088,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="475" ht="24" hidden="1" spans="2:4">
+    <row r="475" hidden="1" spans="2:4">
       <c r="B475" s="1" t="s">
         <v>1541</v>
       </c>
@@ -34114,7 +34110,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="477" ht="24" hidden="1" spans="2:4">
+    <row r="477" hidden="1" spans="2:4">
       <c r="B477" s="1" t="s">
         <v>1546</v>
       </c>
@@ -34125,7 +34121,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="478" ht="24" hidden="1" spans="2:4">
+    <row r="478" hidden="1" spans="2:4">
       <c r="B478" s="1" t="s">
         <v>1549</v>
       </c>
@@ -34136,7 +34132,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="479" ht="24" hidden="1" spans="2:4">
+    <row r="479" hidden="1" spans="2:4">
       <c r="B479" s="1" t="s">
         <v>1552</v>
       </c>
@@ -34147,7 +34143,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="480" ht="24" hidden="1" spans="2:4">
+    <row r="480" hidden="1" spans="2:4">
       <c r="B480" s="1" t="s">
         <v>1555</v>
       </c>
@@ -34158,7 +34154,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="481" ht="24" hidden="1" spans="2:4">
+    <row r="481" hidden="1" spans="2:4">
       <c r="B481" s="1" t="s">
         <v>1558</v>
       </c>
@@ -34169,7 +34165,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="482" ht="23" hidden="1" spans="2:4">
+    <row r="482" hidden="1" spans="2:4">
       <c r="B482" s="1" t="s">
         <v>1561</v>
       </c>
@@ -34194,7 +34190,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="484" ht="24" hidden="1" spans="2:4">
+    <row r="484" hidden="1" spans="2:4">
       <c r="B484" s="1" t="s">
         <v>1567</v>
       </c>
@@ -34205,7 +34201,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="485" ht="24" hidden="1" spans="2:4">
+    <row r="485" hidden="1" spans="2:4">
       <c r="B485" s="1" t="s">
         <v>1570</v>
       </c>
@@ -34216,7 +34212,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="486" ht="23" hidden="1" spans="2:4">
+    <row r="486" hidden="1" spans="2:4">
       <c r="B486" s="1" t="s">
         <v>1573</v>
       </c>
@@ -34227,7 +34223,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="487" ht="58" hidden="1" spans="2:5">
+    <row r="487" ht="37.5" hidden="1" spans="2:5">
       <c r="B487" s="1" t="s">
         <v>1576</v>
       </c>
@@ -34255,7 +34251,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="489" ht="40" hidden="1" spans="2:4">
+    <row r="489" ht="37.5" hidden="1" spans="2:4">
       <c r="B489" s="1" t="s">
         <v>1584</v>
       </c>
@@ -34266,7 +34262,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="490" ht="60" hidden="1" spans="1:5">
+    <row r="490" ht="56.25" hidden="1" spans="1:5">
       <c r="A490" s="1">
         <v>0</v>
       </c>
@@ -34297,7 +34293,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="492" ht="40" hidden="1" spans="2:4">
+    <row r="492" ht="37.5" hidden="1" spans="2:4">
       <c r="B492" s="1" t="s">
         <v>1594</v>
       </c>
@@ -34308,7 +34304,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="493" ht="40" hidden="1" spans="1:4">
+    <row r="493" ht="37.5" hidden="1" spans="1:4">
       <c r="A493" s="1">
         <v>0</v>
       </c>
@@ -34322,7 +34318,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="494" ht="40" hidden="1" spans="1:4">
+    <row r="494" ht="37.5" hidden="1" spans="1:4">
       <c r="A494" s="1">
         <v>0</v>
       </c>
@@ -34336,7 +34332,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="495" ht="40" hidden="1" spans="1:4">
+    <row r="495" ht="37.5" hidden="1" spans="1:4">
       <c r="A495" s="1">
         <v>0</v>
       </c>
@@ -34350,7 +34346,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="496" ht="40" hidden="1" spans="2:4">
+    <row r="496" ht="37.5" hidden="1" spans="2:4">
       <c r="B496" s="1" t="s">
         <v>1606</v>
       </c>
@@ -34372,7 +34368,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="498" ht="40" hidden="1" spans="1:5">
+    <row r="498" ht="37.5" hidden="1" spans="1:5">
       <c r="A498" s="1">
         <v>0</v>
       </c>
@@ -34389,7 +34385,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="499" ht="24" hidden="1" spans="2:4">
+    <row r="499" hidden="1" spans="2:4">
       <c r="B499" s="1" t="s">
         <v>1616</v>
       </c>
@@ -34400,7 +34396,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="500" ht="40" hidden="1" spans="1:5">
+    <row r="500" ht="37.5" hidden="1" spans="1:5">
       <c r="A500" s="1">
         <v>0</v>
       </c>
@@ -34417,7 +34413,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="501" ht="40" hidden="1" spans="2:4">
+    <row r="501" ht="37.5" hidden="1" spans="2:4">
       <c r="B501" s="1" t="s">
         <v>1623</v>
       </c>
@@ -34428,7 +34424,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="502" ht="40" hidden="1" spans="2:4">
+    <row r="502" ht="37.5" hidden="1" spans="2:4">
       <c r="B502" s="1" t="s">
         <v>1626</v>
       </c>
@@ -34456,7 +34452,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="504" ht="23" hidden="1" spans="2:4">
+    <row r="504" hidden="1" spans="2:4">
       <c r="B504" s="1" t="s">
         <v>1633</v>
       </c>
@@ -34467,7 +34463,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="505" ht="40" hidden="1" spans="1:5">
+    <row r="505" ht="37.5" hidden="1" spans="1:5">
       <c r="A505" s="1">
         <v>0</v>
       </c>
@@ -34484,7 +34480,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="506" ht="40" hidden="1" spans="1:4">
+    <row r="506" ht="37.5" hidden="1" spans="1:4">
       <c r="A506" s="1">
         <v>0</v>
       </c>
@@ -34515,7 +34511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" ht="60" hidden="1" spans="1:5">
+    <row r="508" ht="37.5" hidden="1" spans="1:5">
       <c r="A508" s="1">
         <v>0</v>
       </c>
@@ -34543,7 +34539,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="510" ht="23" hidden="1" spans="2:4">
+    <row r="510" hidden="1" spans="2:4">
       <c r="B510" s="1" t="s">
         <v>1653</v>
       </c>
@@ -34554,7 +34550,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="511" ht="40" hidden="1" spans="1:5">
+    <row r="511" ht="37.5" hidden="1" spans="1:5">
       <c r="A511" s="1">
         <v>0</v>
       </c>
@@ -34588,7 +34584,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="513" ht="40" hidden="1" spans="1:4">
+    <row r="513" ht="37.5" hidden="1" spans="1:4">
       <c r="A513" s="1">
         <v>0</v>
       </c>
@@ -34602,7 +34598,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="514" ht="40" hidden="1" spans="2:4">
+    <row r="514" ht="37.5" hidden="1" spans="2:4">
       <c r="B514" s="1" t="s">
         <v>1667</v>
       </c>
@@ -34613,7 +34609,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="515" ht="40" hidden="1" spans="2:4">
+    <row r="515" ht="37.5" hidden="1" spans="2:4">
       <c r="B515" s="1" t="s">
         <v>1670</v>
       </c>
@@ -34624,7 +34620,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="516" ht="40" hidden="1" spans="2:4">
+    <row r="516" ht="37.5" hidden="1" spans="2:4">
       <c r="B516" s="1" t="s">
         <v>1673</v>
       </c>
@@ -34635,7 +34631,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="517" ht="40" hidden="1" spans="2:4">
+    <row r="517" ht="37.5" hidden="1" spans="2:4">
       <c r="B517" s="1" t="s">
         <v>1676</v>
       </c>
@@ -34646,7 +34642,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="518" ht="40" hidden="1" spans="1:4">
+    <row r="518" ht="37.5" hidden="1" spans="1:4">
       <c r="A518" s="1">
         <v>0</v>
       </c>
@@ -34660,7 +34656,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="519" ht="40" hidden="1" spans="1:4">
+    <row r="519" ht="37.5" hidden="1" spans="1:4">
       <c r="A519" s="1">
         <v>0</v>
       </c>
@@ -34674,7 +34670,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="520" ht="60" hidden="1" spans="1:5">
+    <row r="520" ht="56.25" hidden="1" spans="1:5">
       <c r="A520" s="1">
         <v>0</v>
       </c>
@@ -34691,7 +34687,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="521" ht="44" hidden="1" spans="2:5">
+    <row r="521" ht="37.5" hidden="1" spans="2:5">
       <c r="B521" s="1" t="s">
         <v>1689</v>
       </c>
@@ -34705,7 +34701,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="522" ht="40" hidden="1" spans="2:4">
+    <row r="522" ht="37.5" hidden="1" spans="2:4">
       <c r="B522" s="1" t="s">
         <v>1693</v>
       </c>
@@ -34716,7 +34712,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="523" ht="24" hidden="1" spans="2:4">
+    <row r="523" hidden="1" spans="2:4">
       <c r="B523" s="1" t="s">
         <v>1696</v>
       </c>
@@ -34727,7 +34723,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="524" ht="40" hidden="1" spans="2:4">
+    <row r="524" ht="37.5" hidden="1" spans="2:4">
       <c r="B524" s="1" t="s">
         <v>1699</v>
       </c>
@@ -34749,7 +34745,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="526" ht="40" hidden="1" spans="1:4">
+    <row r="526" ht="37.5" hidden="1" spans="1:4">
       <c r="A526" s="1">
         <v>0</v>
       </c>
@@ -34763,7 +34759,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="527" ht="24" hidden="1" spans="1:4">
+    <row r="527" hidden="1" spans="1:4">
       <c r="A527" s="1">
         <v>0</v>
       </c>
@@ -34805,7 +34801,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="530" ht="40" hidden="1" spans="2:4">
+    <row r="530" ht="37.5" hidden="1" spans="2:4">
       <c r="B530" s="1" t="s">
         <v>1717</v>
       </c>
@@ -34816,7 +34812,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="531" ht="40" hidden="1" spans="1:4">
+    <row r="531" ht="37.5" hidden="1" spans="1:4">
       <c r="A531" s="1">
         <v>0</v>
       </c>
@@ -34830,7 +34826,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="532" ht="40" hidden="1" spans="1:4">
+    <row r="532" ht="37.5" hidden="1" spans="1:4">
       <c r="A532" s="1">
         <v>0</v>
       </c>
@@ -34844,7 +34840,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="533" ht="40" hidden="1" spans="2:4">
+    <row r="533" ht="37.5" hidden="1" spans="2:4">
       <c r="B533" s="1" t="s">
         <v>1726</v>
       </c>
@@ -34855,7 +34851,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="534" ht="80" hidden="1" spans="1:5">
+    <row r="534" ht="75" hidden="1" spans="1:5">
       <c r="A534" s="1">
         <v>0</v>
       </c>
@@ -34883,7 +34879,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="536" ht="40" hidden="1" spans="2:5">
+    <row r="536" ht="37.5" hidden="1" spans="2:5">
       <c r="B536" s="1" t="s">
         <v>1736</v>
       </c>
@@ -34897,7 +34893,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="537" ht="24" hidden="1" spans="1:4">
+    <row r="537" hidden="1" spans="1:4">
       <c r="A537" s="1">
         <v>0</v>
       </c>
@@ -34922,7 +34918,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="539" ht="24" hidden="1" spans="1:4">
+    <row r="539" hidden="1" spans="1:4">
       <c r="A539" s="1">
         <v>0</v>
       </c>
@@ -34992,7 +34988,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="544" ht="40" hidden="1" spans="1:4">
+    <row r="544" ht="37.5" hidden="1" spans="1:4">
       <c r="A544" s="1">
         <v>0</v>
       </c>
@@ -35006,7 +35002,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="545" ht="23" hidden="1" spans="2:4">
+    <row r="545" hidden="1" spans="2:4">
       <c r="B545" s="1" t="s">
         <v>1766</v>
       </c>
@@ -35017,7 +35013,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="546" ht="40" hidden="1" spans="1:5">
+    <row r="546" hidden="1" spans="1:5">
       <c r="A546" s="1">
         <v>0</v>
       </c>
@@ -35048,7 +35044,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="548" ht="40" hidden="1" spans="1:5">
+    <row r="548" ht="37.5" hidden="1" spans="1:5">
       <c r="A548" s="1">
         <v>0</v>
       </c>
@@ -35065,7 +35061,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="549" ht="24" hidden="1" spans="2:4">
+    <row r="549" hidden="1" spans="2:4">
       <c r="B549" s="1" t="s">
         <v>1781</v>
       </c>
@@ -35076,7 +35072,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="550" ht="40" hidden="1" spans="1:4">
+    <row r="550" ht="37.5" hidden="1" spans="1:4">
       <c r="A550" s="1">
         <v>0</v>
       </c>
@@ -35104,7 +35100,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="552" ht="40" hidden="1" spans="2:4">
+    <row r="552" ht="37.5" hidden="1" spans="2:4">
       <c r="B552" s="1" t="s">
         <v>1790</v>
       </c>
@@ -35115,7 +35111,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="553" ht="40" hidden="1" spans="1:4">
+    <row r="553" ht="37.5" hidden="1" spans="1:4">
       <c r="A553" s="1">
         <v>0</v>
       </c>
@@ -35143,7 +35139,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="555" ht="24" hidden="1" spans="2:4">
+    <row r="555" hidden="1" spans="2:4">
       <c r="B555" s="1" t="s">
         <v>1799</v>
       </c>
@@ -35165,7 +35161,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="557" ht="24" hidden="1" spans="2:4">
+    <row r="557" hidden="1" spans="2:4">
       <c r="B557" s="1" t="s">
         <v>1805</v>
       </c>
@@ -35176,7 +35172,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="558" ht="40" hidden="1" spans="2:4">
+    <row r="558" ht="37.5" hidden="1" spans="2:4">
       <c r="B558" s="1" t="s">
         <v>1808</v>
       </c>
@@ -35187,7 +35183,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="559" ht="24" hidden="1" spans="2:5">
+    <row r="559" hidden="1" spans="2:5">
       <c r="B559" s="1" t="s">
         <v>1811</v>
       </c>
@@ -35201,7 +35197,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="560" ht="24" hidden="1" spans="2:4">
+    <row r="560" hidden="1" spans="2:4">
       <c r="B560" s="1" t="s">
         <v>1815</v>
       </c>
@@ -35254,7 +35250,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="564" ht="40" hidden="1" spans="2:4">
+    <row r="564" ht="37.5" hidden="1" spans="2:4">
       <c r="B564" s="1" t="s">
         <v>1829</v>
       </c>
@@ -35265,7 +35261,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="565" ht="24" hidden="1" spans="1:4">
+    <row r="565" hidden="1" spans="1:4">
       <c r="A565" s="1">
         <v>0</v>
       </c>
@@ -35279,7 +35275,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="566" ht="100" hidden="1" spans="2:5">
+    <row r="566" ht="75" hidden="1" spans="2:5">
       <c r="B566" s="1" t="s">
         <v>1835</v>
       </c>
@@ -35341,7 +35337,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="570" ht="40" hidden="1" spans="1:4">
+    <row r="570" ht="37.5" hidden="1" spans="1:4">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -35355,7 +35351,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="571" ht="24" spans="1:4">
+    <row r="571" spans="1:4">
       <c r="A571" s="1">
         <v>6</v>
       </c>
@@ -35369,7 +35365,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="572" ht="23" hidden="1" spans="1:4">
+    <row r="572" hidden="1" spans="1:4">
       <c r="A572" s="1">
         <v>0</v>
       </c>
@@ -35397,7 +35393,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="574" ht="23" hidden="1" spans="2:4">
+    <row r="574" hidden="1" spans="2:4">
       <c r="B574" s="1" t="s">
         <v>1863</v>
       </c>
@@ -35408,7 +35404,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="575" ht="44" hidden="1" spans="2:4">
+    <row r="575" ht="37.5" hidden="1" spans="2:4">
       <c r="B575" s="1" t="s">
         <v>1866</v>
       </c>
@@ -35419,7 +35415,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="576" ht="24" hidden="1" spans="2:4">
+    <row r="576" hidden="1" spans="2:4">
       <c r="B576" s="1" t="s">
         <v>1869</v>
       </c>
@@ -35430,7 +35426,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="577" ht="24" hidden="1" spans="2:4">
+    <row r="577" hidden="1" spans="2:4">
       <c r="B577" s="1" t="s">
         <v>1872</v>
       </c>
@@ -35452,7 +35448,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="579" ht="24" hidden="1" spans="1:4">
+    <row r="579" hidden="1" spans="1:4">
       <c r="A579" s="1">
         <v>0</v>
       </c>
@@ -35466,7 +35462,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="580" ht="40" hidden="1" spans="2:4">
+    <row r="580" ht="37.5" hidden="1" spans="2:4">
       <c r="B580" s="1" t="s">
         <v>1881</v>
       </c>
@@ -35491,7 +35487,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="582" ht="24" hidden="1" spans="1:4">
+    <row r="582" hidden="1" spans="1:4">
       <c r="A582" s="1">
         <v>0</v>
       </c>
@@ -35572,7 +35568,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="588" ht="24" hidden="1" spans="2:4">
+    <row r="588" hidden="1" spans="2:4">
       <c r="B588" s="1" t="s">
         <v>1906</v>
       </c>
@@ -35594,7 +35590,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="590" ht="40" hidden="1" spans="2:4">
+    <row r="590" ht="37.5" hidden="1" spans="2:4">
       <c r="B590" s="1" t="s">
         <v>1912</v>
       </c>
@@ -35630,7 +35626,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="593" ht="40" hidden="1" spans="1:5">
+    <row r="593" ht="37.5" hidden="1" spans="1:5">
       <c r="A593" s="1">
         <v>0</v>
       </c>
@@ -35700,7 +35696,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="598" ht="40" hidden="1" spans="1:5">
+    <row r="598" ht="37.5" hidden="1" spans="1:5">
       <c r="A598" s="1">
         <v>0</v>
       </c>
@@ -35731,7 +35727,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="600" ht="24" hidden="1" spans="1:4">
+    <row r="600" hidden="1" spans="1:4">
       <c r="A600" s="1">
         <v>0</v>
       </c>
@@ -35745,7 +35741,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="601" ht="24" hidden="1" spans="2:4">
+    <row r="601" hidden="1" spans="2:4">
       <c r="B601" s="1" t="s">
         <v>1948</v>
       </c>
@@ -35784,7 +35780,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="604" ht="24" hidden="1" spans="2:5">
+    <row r="604" hidden="1" spans="2:5">
       <c r="B604" s="1" t="s">
         <v>1958</v>
       </c>
@@ -35812,7 +35808,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="606" ht="24" hidden="1" spans="2:4">
+    <row r="606" hidden="1" spans="2:4">
       <c r="B606" s="1" t="s">
         <v>1965</v>
       </c>
@@ -35823,7 +35819,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="607" ht="24" hidden="1" spans="1:5">
+    <row r="607" hidden="1" spans="1:5">
       <c r="A607" s="1">
         <v>0</v>
       </c>
@@ -35840,7 +35836,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="608" ht="24" hidden="1" spans="2:5">
+    <row r="608" hidden="1" spans="2:5">
       <c r="B608" s="1" t="s">
         <v>1972</v>
       </c>
@@ -35854,7 +35850,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="609" ht="40" hidden="1" spans="1:5">
+    <row r="609" ht="37.5" hidden="1" spans="1:5">
       <c r="A609" s="1">
         <v>0</v>
       </c>
@@ -35885,7 +35881,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="611" ht="24" hidden="1" spans="1:5">
+    <row r="611" hidden="1" spans="1:5">
       <c r="A611" s="1">
         <v>0</v>
       </c>
@@ -35944,7 +35940,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="615" ht="40" hidden="1" spans="2:4">
+    <row r="615" ht="37.5" hidden="1" spans="2:4">
       <c r="B615" s="1" t="s">
         <v>1996</v>
       </c>
@@ -35980,7 +35976,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="618" ht="24" hidden="1" spans="2:4">
+    <row r="618" hidden="1" spans="2:4">
       <c r="B618" s="1" t="s">
         <v>2005</v>
       </c>
@@ -36013,7 +36009,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="621" ht="24" hidden="1" spans="1:4">
+    <row r="621" hidden="1" spans="1:4">
       <c r="A621" s="1">
         <v>0</v>
       </c>
@@ -36044,7 +36040,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="623" ht="40" hidden="1" spans="1:4">
+    <row r="623" ht="37.5" hidden="1" spans="1:4">
       <c r="A623" s="1">
         <v>0</v>
       </c>
@@ -36083,7 +36079,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="626" ht="40" hidden="1" spans="2:4">
+    <row r="626" ht="37.5" hidden="1" spans="2:4">
       <c r="B626" s="1" t="s">
         <v>2030</v>
       </c>
@@ -36119,7 +36115,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="629" ht="23" hidden="1" spans="2:4">
+    <row r="629" hidden="1" spans="2:4">
       <c r="B629" s="1" t="s">
         <v>2039</v>
       </c>
@@ -36130,7 +36126,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="630" ht="40" hidden="1" spans="1:4">
+    <row r="630" ht="37.5" hidden="1" spans="1:4">
       <c r="A630" s="1">
         <v>0</v>
       </c>
@@ -36144,7 +36140,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="631" ht="24" hidden="1" spans="2:4">
+    <row r="631" hidden="1" spans="2:4">
       <c r="B631" s="1" t="s">
         <v>2045</v>
       </c>
@@ -36155,7 +36151,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="632" ht="24" hidden="1" spans="2:4">
+    <row r="632" hidden="1" spans="2:4">
       <c r="B632" s="1" t="s">
         <v>2048</v>
       </c>
@@ -36166,7 +36162,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="633" ht="40" hidden="1" spans="1:4">
+    <row r="633" ht="37.5" hidden="1" spans="1:4">
       <c r="A633" s="1">
         <v>0</v>
       </c>
@@ -36286,7 +36282,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="642" ht="40" hidden="1" spans="1:4">
+    <row r="642" ht="37.5" hidden="1" spans="1:4">
       <c r="A642" s="1">
         <v>0</v>
       </c>
@@ -36300,7 +36296,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="643" ht="40" hidden="1" spans="1:4">
+    <row r="643" ht="37.5" hidden="1" spans="1:4">
       <c r="A643" s="1">
         <v>0</v>
       </c>
@@ -36376,7 +36372,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="648" ht="24" hidden="1" spans="2:4">
+    <row r="648" hidden="1" spans="2:4">
       <c r="B648" s="1" t="s">
         <v>2099</v>
       </c>
@@ -36387,7 +36383,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="649" ht="40" hidden="1" spans="1:5">
+    <row r="649" ht="37.5" hidden="1" spans="1:5">
       <c r="A649" s="1">
         <v>0</v>
       </c>
@@ -36404,7 +36400,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="650" ht="40" hidden="1" spans="2:4">
+    <row r="650" ht="37.5" hidden="1" spans="2:4">
       <c r="B650" s="1" t="s">
         <v>2106</v>
       </c>
@@ -36429,7 +36425,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="652" ht="24" hidden="1" spans="1:4">
+    <row r="652" hidden="1" spans="1:4">
       <c r="A652" s="1">
         <v>0</v>
       </c>
@@ -36443,7 +36439,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="653" ht="60" hidden="1" spans="1:5">
+    <row r="653" ht="37.5" hidden="1" spans="1:5">
       <c r="A653" s="1">
         <v>0</v>
       </c>
@@ -36460,7 +36456,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="654" ht="23" hidden="1" spans="1:4">
+    <row r="654" hidden="1" spans="1:4">
       <c r="A654" s="1">
         <v>0</v>
       </c>
@@ -36474,7 +36470,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="655" ht="40" hidden="1" spans="2:4">
+    <row r="655" ht="37.5" hidden="1" spans="2:4">
       <c r="B655" s="1" t="s">
         <v>2122</v>
       </c>
@@ -36502,7 +36498,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="657" ht="40" hidden="1" spans="2:5">
+    <row r="657" ht="37.5" hidden="1" spans="2:5">
       <c r="B657" s="1" t="s">
         <v>2128</v>
       </c>
@@ -36530,7 +36526,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="659" ht="24" hidden="1" spans="2:5">
+    <row r="659" hidden="1" spans="2:5">
       <c r="B659" s="1" t="s">
         <v>2134</v>
       </c>
@@ -36544,7 +36540,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="660" ht="24" hidden="1" spans="2:4">
+    <row r="660" hidden="1" spans="2:4">
       <c r="B660" s="1" t="s">
         <v>2138</v>
       </c>
@@ -36653,7 +36649,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="668" ht="24" hidden="1" spans="2:4">
+    <row r="668" hidden="1" spans="2:4">
       <c r="B668" s="1" t="s">
         <v>2163</v>
       </c>
@@ -36664,7 +36660,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="669" ht="40" hidden="1" spans="1:4">
+    <row r="669" ht="37.5" hidden="1" spans="1:4">
       <c r="A669" s="1">
         <v>0</v>
       </c>
@@ -36769,7 +36765,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="678" ht="40" hidden="1" spans="2:5">
+    <row r="678" hidden="1" spans="2:5">
       <c r="B678" s="1" t="s">
         <v>2193</v>
       </c>
@@ -36811,7 +36807,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="681" ht="40" hidden="1" spans="2:4">
+    <row r="681" ht="37.5" hidden="1" spans="2:4">
       <c r="B681" s="1" t="s">
         <v>2202</v>
       </c>
@@ -36822,7 +36818,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="682" ht="23" hidden="1" spans="1:4">
+    <row r="682" hidden="1" spans="1:4">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -36853,7 +36849,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="684" ht="40" hidden="1" spans="1:5">
+    <row r="684" ht="37.5" hidden="1" spans="1:5">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -36884,7 +36880,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="686" ht="140" hidden="1" spans="1:5">
+    <row r="686" ht="112.5" hidden="1" spans="1:5">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -36915,7 +36911,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="688" ht="24" hidden="1" spans="2:4">
+    <row r="688" hidden="1" spans="2:4">
       <c r="B688" s="1" t="s">
         <v>2228</v>
       </c>
@@ -36940,7 +36936,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="690" ht="40" hidden="1" spans="2:4">
+    <row r="690" ht="37.5" hidden="1" spans="2:4">
       <c r="B690" s="1" t="s">
         <v>2234</v>
       </c>
@@ -36973,7 +36969,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="693" ht="23" hidden="1" spans="2:4">
+    <row r="693" hidden="1" spans="2:4">
       <c r="B693" s="1" t="s">
         <v>2243</v>
       </c>
@@ -37009,7 +37005,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="696" ht="23" hidden="1" spans="2:4">
+    <row r="696" hidden="1" spans="2:4">
       <c r="B696" s="1" t="s">
         <v>2252</v>
       </c>
@@ -37020,7 +37016,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="697" ht="24" hidden="1" spans="2:4">
+    <row r="697" hidden="1" spans="2:4">
       <c r="B697" s="1" t="s">
         <v>2255</v>
       </c>
@@ -37056,7 +37052,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="700" ht="40" hidden="1" spans="2:4">
+    <row r="700" ht="37.5" hidden="1" spans="2:4">
       <c r="B700" s="1" t="s">
         <v>2264</v>
       </c>
@@ -37098,7 +37094,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="703" ht="80" hidden="1" spans="2:5">
+    <row r="703" ht="56.25" hidden="1" spans="2:5">
       <c r="B703" s="1" t="s">
         <v>2274</v>
       </c>
@@ -37112,7 +37108,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="704" ht="40" hidden="1" spans="1:4">
+    <row r="704" ht="37.5" hidden="1" spans="1:4">
       <c r="A704" s="1">
         <v>0</v>
       </c>
@@ -37126,7 +37122,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="705" ht="24" hidden="1" spans="2:4">
+    <row r="705" hidden="1" spans="2:4">
       <c r="B705" s="1" t="s">
         <v>2281</v>
       </c>
@@ -37173,7 +37169,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="709" ht="24" hidden="1" spans="2:4">
+    <row r="709" hidden="1" spans="2:4">
       <c r="B709" s="1" t="s">
         <v>2294</v>
       </c>
@@ -37237,7 +37233,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="714" ht="24" hidden="1" spans="2:4">
+    <row r="714" hidden="1" spans="2:4">
       <c r="B714" s="1" t="s">
         <v>2310</v>
       </c>
@@ -37248,7 +37244,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="715" ht="40" hidden="1" spans="1:4">
+    <row r="715" ht="37.5" hidden="1" spans="1:4">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -37262,7 +37258,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="716" ht="40" hidden="1" spans="1:4">
+    <row r="716" ht="37.5" hidden="1" spans="1:4">
       <c r="A716" s="1">
         <v>0</v>
       </c>
@@ -37332,7 +37328,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="721" ht="40" hidden="1" spans="1:5">
+    <row r="721" ht="37.5" hidden="1" spans="1:5">
       <c r="A721" s="1">
         <v>0</v>
       </c>
@@ -37349,7 +37345,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="722" ht="23" hidden="1" spans="1:4">
+    <row r="722" hidden="1" spans="1:4">
       <c r="A722" s="1">
         <v>0</v>
       </c>
@@ -37449,7 +37445,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="730" ht="40" hidden="1" spans="2:4">
+    <row r="730" ht="37.5" hidden="1" spans="2:4">
       <c r="B730" s="1" t="s">
         <v>2360</v>
       </c>
@@ -37519,7 +37515,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="735" ht="24" hidden="1" spans="2:4">
+    <row r="735" hidden="1" spans="2:4">
       <c r="B735" s="1" t="s">
         <v>2378</v>
       </c>
@@ -37530,7 +37526,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="736" ht="24" hidden="1" spans="2:4">
+    <row r="736" hidden="1" spans="2:4">
       <c r="B736" s="1" t="s">
         <v>2381</v>
       </c>
@@ -37552,7 +37548,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="738" ht="40" hidden="1" spans="1:4">
+    <row r="738" ht="37.5" hidden="1" spans="1:4">
       <c r="A738" s="1">
         <v>0</v>
       </c>
@@ -37580,7 +37576,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="740" ht="40" hidden="1" spans="2:5">
+    <row r="740" ht="37.5" hidden="1" spans="2:5">
       <c r="B740" s="1" t="s">
         <v>2393</v>
       </c>
@@ -37594,7 +37590,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="741" ht="40" hidden="1" spans="1:4">
+    <row r="741" ht="37.5" hidden="1" spans="1:4">
       <c r="A741" s="1">
         <v>0</v>
       </c>
@@ -37622,7 +37618,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="743" ht="23" hidden="1" spans="2:4">
+    <row r="743" hidden="1" spans="2:4">
       <c r="B743" s="1" t="s">
         <v>2403</v>
       </c>
@@ -37688,7 +37684,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="749" ht="24" hidden="1" spans="2:4">
+    <row r="749" hidden="1" spans="2:4">
       <c r="B749" s="1" t="s">
         <v>2421</v>
       </c>
@@ -37744,7 +37740,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="753" ht="24" hidden="1" spans="2:4">
+    <row r="753" hidden="1" spans="2:4">
       <c r="B753" s="1" t="s">
         <v>2434</v>
       </c>
@@ -37780,7 +37776,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="756" ht="24" hidden="1" spans="2:4">
+    <row r="756" hidden="1" spans="2:4">
       <c r="B756" s="1" t="s">
         <v>2443</v>
       </c>
@@ -37791,7 +37787,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="757" ht="40" hidden="1" spans="1:4">
+    <row r="757" ht="37.5" hidden="1" spans="1:4">
       <c r="A757" s="1">
         <v>0</v>
       </c>
@@ -37847,7 +37843,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="761" ht="24" hidden="1" spans="2:4">
+    <row r="761" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2459</v>
       </c>
@@ -37858,7 +37854,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="762" ht="24" hidden="1" spans="2:4">
+    <row r="762" hidden="1" spans="2:4">
       <c r="B762" s="1" t="s">
         <v>2462</v>
       </c>
@@ -37880,7 +37876,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="764" ht="24" hidden="1" spans="2:4">
+    <row r="764" hidden="1" spans="2:4">
       <c r="B764" s="1" t="s">
         <v>2468</v>
       </c>
@@ -37905,7 +37901,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="766" ht="24" hidden="1" spans="2:4">
+    <row r="766" hidden="1" spans="2:4">
       <c r="B766" s="1" t="s">
         <v>2474</v>
       </c>
@@ -37916,7 +37912,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="767" ht="24" hidden="1" spans="1:4">
+    <row r="767" hidden="1" spans="1:4">
       <c r="A767" s="1">
         <v>0</v>
       </c>
@@ -37941,7 +37937,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="769" ht="24" hidden="1" spans="2:5">
+    <row r="769" hidden="1" spans="2:5">
       <c r="B769" s="1" t="s">
         <v>2483</v>
       </c>
@@ -37969,7 +37965,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="771" ht="24" spans="1:4">
+    <row r="771" spans="1:4">
       <c r="A771" s="1">
         <v>2</v>
       </c>
@@ -37983,7 +37979,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="772" ht="40" hidden="1" spans="1:4">
+    <row r="772" ht="37.5" hidden="1" spans="1:4">
       <c r="A772" s="1">
         <v>0</v>
       </c>
@@ -37997,7 +37993,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="773" ht="24" hidden="1" spans="2:4">
+    <row r="773" hidden="1" spans="2:4">
       <c r="B773" s="1" t="s">
         <v>2495</v>
       </c>
@@ -38008,7 +38004,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="774" ht="24" hidden="1" spans="2:4">
+    <row r="774" hidden="1" spans="2:4">
       <c r="B774" s="1" t="s">
         <v>2498</v>
       </c>
@@ -38019,7 +38015,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="775" ht="40" hidden="1" spans="1:4">
+    <row r="775" ht="37.5" hidden="1" spans="1:4">
       <c r="A775" s="1">
         <v>0</v>
       </c>
@@ -38061,7 +38057,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="778" ht="40" spans="1:5">
+    <row r="778" ht="37.5" spans="1:5">
       <c r="A778" s="1">
         <v>2</v>
       </c>
@@ -38175,7 +38171,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="787" ht="140" hidden="1" spans="1:5">
+    <row r="787" ht="131.25" hidden="1" spans="1:5">
       <c r="A787" s="1">
         <v>0</v>
       </c>
@@ -38192,7 +38188,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="788" ht="24" hidden="1" spans="1:4">
+    <row r="788" hidden="1" spans="1:4">
       <c r="A788" s="1">
         <v>0</v>
       </c>
@@ -38228,7 +38224,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="791" ht="40" hidden="1" spans="2:5">
+    <row r="791" ht="37.5" hidden="1" spans="2:5">
       <c r="B791" s="1" t="s">
         <v>2552</v>
       </c>
@@ -38259,7 +38255,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="793" ht="23" hidden="1" spans="1:4">
+    <row r="793" hidden="1" spans="1:4">
       <c r="A793" s="1">
         <v>0</v>
       </c>
@@ -38323,7 +38319,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="798" ht="40" hidden="1" spans="2:4">
+    <row r="798" ht="37.5" hidden="1" spans="2:4">
       <c r="B798" s="1" t="s">
         <v>2575</v>
       </c>
@@ -38345,7 +38341,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="800" ht="140" hidden="1" spans="2:5">
+    <row r="800" ht="112.5" hidden="1" spans="2:5">
       <c r="B800" s="1" t="s">
         <v>2581</v>
       </c>
@@ -38370,7 +38366,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="802" ht="24" hidden="1" spans="2:4">
+    <row r="802" hidden="1" spans="2:4">
       <c r="B802" s="1" t="s">
         <v>2588</v>
       </c>
@@ -38381,7 +38377,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="803" ht="23" hidden="1" spans="1:4">
+    <row r="803" hidden="1" spans="1:4">
       <c r="A803" s="1">
         <v>0</v>
       </c>
@@ -38417,7 +38413,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="806" ht="24" hidden="1" spans="2:4">
+    <row r="806" hidden="1" spans="2:4">
       <c r="B806" s="1" t="s">
         <v>2600</v>
       </c>
@@ -38456,7 +38452,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="809" ht="40" hidden="1" spans="1:4">
+    <row r="809" ht="37.5" hidden="1" spans="1:4">
       <c r="A809" s="1">
         <v>0</v>
       </c>
@@ -38495,7 +38491,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="812" ht="24" hidden="1" spans="2:4">
+    <row r="812" hidden="1" spans="2:4">
       <c r="B812" s="1" t="s">
         <v>2619</v>
       </c>
@@ -38506,7 +38502,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="813" ht="24" hidden="1" spans="1:4">
+    <row r="813" hidden="1" spans="1:4">
       <c r="A813" s="1">
         <v>0</v>
       </c>
@@ -38520,7 +38516,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="814" ht="40" hidden="1" spans="1:5">
+    <row r="814" ht="37.5" hidden="1" spans="1:5">
       <c r="A814" s="1">
         <v>0</v>
       </c>
@@ -38587,7 +38583,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="819" ht="40" hidden="1" spans="2:4">
+    <row r="819" ht="37.5" hidden="1" spans="2:4">
       <c r="B819" s="1" t="s">
         <v>2641</v>
       </c>
@@ -38640,7 +38636,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="823" ht="40" spans="1:5">
+    <row r="823" ht="37.5" spans="1:5">
       <c r="A823" s="1">
         <v>1</v>
       </c>
@@ -38668,7 +38664,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="825" ht="23" hidden="1" spans="1:4">
+    <row r="825" hidden="1" spans="1:4">
       <c r="A825" s="1">
         <v>0</v>
       </c>
@@ -38682,7 +38678,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="826" ht="24" hidden="1" spans="2:4">
+    <row r="826" hidden="1" spans="2:4">
       <c r="B826" s="1" t="s">
         <v>2664</v>
       </c>
@@ -38704,7 +38700,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="828" ht="23" hidden="1" spans="1:4">
+    <row r="828" hidden="1" spans="1:4">
       <c r="A828" s="1">
         <v>0</v>
       </c>
@@ -38718,7 +38714,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="829" ht="160" hidden="1" spans="2:5">
+    <row r="829" ht="150" hidden="1" spans="2:5">
       <c r="B829" s="1" t="s">
         <v>2673</v>
       </c>
@@ -38760,7 +38756,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="832" ht="24" hidden="1" spans="1:4">
+    <row r="832" hidden="1" spans="1:4">
       <c r="A832" s="1">
         <v>0</v>
       </c>
@@ -38774,7 +38770,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="833" ht="120" spans="1:5">
+    <row r="833" ht="112.5" spans="1:5">
       <c r="A833" s="1">
         <v>3</v>
       </c>
@@ -38813,7 +38809,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="836" ht="40" hidden="1" spans="1:5">
+    <row r="836" ht="37.5" hidden="1" spans="1:5">
       <c r="A836" s="1">
         <v>0</v>
       </c>
@@ -38855,7 +38851,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="839" ht="24" hidden="1" spans="2:4">
+    <row r="839" hidden="1" spans="2:4">
       <c r="B839" s="1" t="s">
         <v>2706</v>
       </c>
@@ -38927,7 +38923,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="845" ht="24" hidden="1" spans="2:4">
+    <row r="845" hidden="1" spans="2:4">
       <c r="B845" s="1" t="s">
         <v>2724</v>
       </c>
@@ -38955,7 +38951,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="847" ht="40" spans="1:4">
+    <row r="847" ht="37.5" spans="1:4">
       <c r="A847" s="1">
         <v>1</v>
       </c>
@@ -39047,7 +39043,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="854" ht="24" hidden="1" spans="2:4">
+    <row r="854" ht="37.5" hidden="1" spans="2:4">
       <c r="B854" s="1" t="s">
         <v>2753</v>
       </c>
@@ -39091,7 +39087,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="858" ht="23" hidden="1" spans="1:4">
+    <row r="858" hidden="1" spans="1:4">
       <c r="A858" s="1">
         <v>0</v>
       </c>
@@ -39141,7 +39137,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="862" ht="24" hidden="1" spans="2:5">
+    <row r="862" hidden="1" spans="2:5">
       <c r="B862" s="1" t="s">
         <v>2777</v>
       </c>
@@ -39155,7 +39151,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="863" ht="40" hidden="1" spans="2:4">
+    <row r="863" ht="37.5" hidden="1" spans="2:4">
       <c r="B863" s="1" t="s">
         <v>2781</v>
       </c>
@@ -39166,7 +39162,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="864" ht="40" hidden="1" spans="2:4">
+    <row r="864" ht="37.5" hidden="1" spans="2:4">
       <c r="B864" s="1" t="s">
         <v>2784</v>
       </c>
@@ -39177,7 +39173,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="865" ht="24" hidden="1" spans="2:4">
+    <row r="865" hidden="1" spans="2:4">
       <c r="B865" s="1" t="s">
         <v>2787</v>
       </c>
@@ -39221,7 +39217,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="869" ht="24" hidden="1" spans="1:4">
+    <row r="869" hidden="1" spans="1:4">
       <c r="A869" s="1">
         <v>0</v>
       </c>
@@ -39252,7 +39248,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="871" ht="24" hidden="1" spans="1:4">
+    <row r="871" hidden="1" spans="1:4">
       <c r="A871" s="1">
         <v>0</v>
       </c>
@@ -39280,7 +39276,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="873" ht="24" hidden="1" spans="2:4">
+    <row r="873" hidden="1" spans="2:4">
       <c r="B873" s="1" t="s">
         <v>2812</v>
       </c>
@@ -39302,7 +39298,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="875" ht="24" hidden="1" spans="2:4">
+    <row r="875" hidden="1" spans="2:4">
       <c r="B875" s="1" t="s">
         <v>2818</v>
       </c>
@@ -39355,7 +39351,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="879" ht="40" hidden="1" spans="1:5">
+    <row r="879" ht="37.5" hidden="1" spans="1:5">
       <c r="A879" s="1">
         <v>0</v>
       </c>
@@ -39372,7 +39368,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="880" ht="24" hidden="1" spans="2:4">
+    <row r="880" hidden="1" spans="2:4">
       <c r="B880" s="1" t="s">
         <v>2835</v>
       </c>
@@ -39397,7 +39393,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="882" ht="23" hidden="1" spans="2:4">
+    <row r="882" hidden="1" spans="2:4">
       <c r="B882" s="1" t="s">
         <v>2841</v>
       </c>
@@ -39464,7 +39460,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="887" ht="23" hidden="1" spans="2:4">
+    <row r="887" hidden="1" spans="2:4">
       <c r="B887" s="1" t="s">
         <v>2857</v>
       </c>
@@ -39514,7 +39510,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="891" ht="96" hidden="1" spans="2:5">
+    <row r="891" ht="75" hidden="1" spans="2:5">
       <c r="B891" s="1" t="s">
         <v>2869</v>
       </c>
@@ -39539,7 +39535,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="893" ht="24" hidden="1" spans="2:4">
+    <row r="893" hidden="1" spans="2:4">
       <c r="B893" s="1" t="s">
         <v>2876</v>
       </c>
@@ -39564,7 +39560,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="895" ht="40" hidden="1" spans="2:4">
+    <row r="895" ht="37.5" hidden="1" spans="2:4">
       <c r="B895" s="1" t="s">
         <v>2882</v>
       </c>
@@ -39644,7 +39640,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="902" ht="24" hidden="1" spans="2:4">
+    <row r="902" hidden="1" spans="2:4">
       <c r="B902" s="1" t="s">
         <v>2903</v>
       </c>
@@ -39655,7 +39651,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="903" ht="24" hidden="1" spans="2:4">
+    <row r="903" hidden="1" spans="2:4">
       <c r="B903" s="1" t="s">
         <v>2906</v>
       </c>
@@ -39677,7 +39673,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="905" ht="40" hidden="1" spans="1:4">
+    <row r="905" ht="37.5" hidden="1" spans="1:4">
       <c r="A905" s="1">
         <v>0</v>
       </c>
@@ -39752,7 +39748,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="911" ht="24" hidden="1" spans="1:4">
+    <row r="911" hidden="1" spans="1:4">
       <c r="A911" s="1">
         <v>0</v>
       </c>
@@ -39766,7 +39762,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="912" ht="100" hidden="1" spans="1:5">
+    <row r="912" ht="75" hidden="1" spans="1:5">
       <c r="A912" s="1">
         <v>0</v>
       </c>
@@ -39783,7 +39779,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="913" ht="60" hidden="1" spans="2:5">
+    <row r="913" ht="56.25" hidden="1" spans="2:5">
       <c r="B913" s="1" t="s">
         <v>2937</v>
       </c>
@@ -39797,7 +39793,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="914" ht="60" hidden="1" spans="2:5">
+    <row r="914" ht="56.25" hidden="1" spans="2:5">
       <c r="B914" s="1" t="s">
         <v>2941</v>
       </c>
@@ -39842,7 +39838,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="917" ht="24" hidden="1" spans="2:4">
+    <row r="917" hidden="1" spans="2:4">
       <c r="B917" s="1" t="s">
         <v>2952</v>
       </c>
@@ -39889,7 +39885,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="921" ht="24" hidden="1" spans="2:4">
+    <row r="921" hidden="1" spans="2:4">
       <c r="B921" s="1" t="s">
         <v>2964</v>
       </c>
@@ -39900,7 +39896,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="922" ht="44" hidden="1" spans="2:4">
+    <row r="922" hidden="1" spans="2:4">
       <c r="B922" s="1" t="s">
         <v>2967</v>
       </c>
@@ -39925,7 +39921,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="924" ht="116" spans="1:5">
+    <row r="924" ht="93.75" spans="1:5">
       <c r="A924" s="1">
         <v>3</v>
       </c>
@@ -39967,7 +39963,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="927" ht="24" hidden="1" spans="2:4">
+    <row r="927" hidden="1" spans="2:4">
       <c r="B927" s="1" t="s">
         <v>2983</v>
       </c>
@@ -40006,7 +40002,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="930" ht="24" hidden="1" spans="2:5">
+    <row r="930" hidden="1" spans="2:5">
       <c r="B930" s="1" t="s">
         <v>2992</v>
       </c>
@@ -40034,7 +40030,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="932" ht="24" hidden="1" spans="2:4">
+    <row r="932" hidden="1" spans="2:4">
       <c r="B932" s="1" t="s">
         <v>2999</v>
       </c>
@@ -40045,7 +40041,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="933" ht="40" spans="1:4">
+    <row r="933" ht="37.5" spans="1:4">
       <c r="A933" s="1">
         <v>1</v>
       </c>
@@ -40120,7 +40116,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="939" ht="40" hidden="1" spans="1:4">
+    <row r="939" ht="37.5" hidden="1" spans="1:4">
       <c r="A939" s="1">
         <v>0</v>
       </c>
@@ -40181,7 +40177,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="944" ht="24" hidden="1" spans="1:5">
+    <row r="944" hidden="1" spans="1:5">
       <c r="A944" s="1">
         <v>0</v>
       </c>
@@ -40198,7 +40194,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="945" ht="40" hidden="1" spans="1:4">
+    <row r="945" ht="37.5" hidden="1" spans="1:4">
       <c r="A945" s="1">
         <v>0</v>
       </c>
@@ -40212,7 +40208,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="946" ht="60" hidden="1" spans="1:5">
+    <row r="946" ht="56.25" hidden="1" spans="1:5">
       <c r="A946" s="1">
         <v>0</v>
       </c>
@@ -40240,7 +40236,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="948" ht="24" hidden="1" spans="2:4">
+    <row r="948" hidden="1" spans="2:4">
       <c r="B948" s="1" t="s">
         <v>3050</v>
       </c>
@@ -40251,7 +40247,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="949" ht="23" hidden="1" spans="2:4">
+    <row r="949" hidden="1" spans="2:4">
       <c r="B949" s="1" t="s">
         <v>3053</v>
       </c>
@@ -40262,7 +40258,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="950" ht="23" hidden="1" spans="2:5">
+    <row r="950" hidden="1" spans="2:5">
       <c r="B950" s="1" t="s">
         <v>3056</v>
       </c>
@@ -40287,7 +40283,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="952" ht="24" hidden="1" spans="2:4">
+    <row r="952" hidden="1" spans="2:4">
       <c r="B952" s="1" t="s">
         <v>3062</v>
       </c>
@@ -40312,7 +40308,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="954" ht="120" hidden="1" spans="2:5">
+    <row r="954" ht="112.5" hidden="1" spans="2:5">
       <c r="B954" s="1" t="s">
         <v>3068</v>
       </c>
@@ -40326,7 +40322,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="955" ht="120" hidden="1" spans="2:5">
+    <row r="955" ht="93.75" hidden="1" spans="2:5">
       <c r="B955" s="1" t="s">
         <v>3072</v>
       </c>
@@ -40340,7 +40336,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="956" ht="24" hidden="1" spans="2:4">
+    <row r="956" hidden="1" spans="2:4">
       <c r="B956" s="1" t="s">
         <v>3076</v>
       </c>
@@ -40351,7 +40347,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="957" ht="40" hidden="1" spans="2:4">
+    <row r="957" ht="37.5" hidden="1" spans="2:4">
       <c r="B957" s="1" t="s">
         <v>3079</v>
       </c>
@@ -40390,7 +40386,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="960" ht="40" hidden="1" spans="1:4">
+    <row r="960" ht="37.5" hidden="1" spans="1:4">
       <c r="A960" s="1">
         <v>0</v>
       </c>
@@ -40404,7 +40400,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="961" ht="24" hidden="1" spans="2:4">
+    <row r="961" hidden="1" spans="2:4">
       <c r="B961" s="1" t="s">
         <v>3091</v>
       </c>
@@ -40415,7 +40411,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="962" ht="24" hidden="1" spans="2:5">
+    <row r="962" hidden="1" spans="2:5">
       <c r="B962" s="1" t="s">
         <v>3094</v>
       </c>
@@ -40429,7 +40425,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="963" ht="40" hidden="1" spans="1:5">
+    <row r="963" ht="37.5" hidden="1" spans="1:5">
       <c r="A963" s="1">
         <v>0</v>
       </c>
@@ -40446,7 +40442,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="964" ht="24" hidden="1" spans="2:5">
+    <row r="964" hidden="1" spans="2:5">
       <c r="B964" s="1" t="s">
         <v>3102</v>
       </c>
@@ -40460,7 +40456,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="965" ht="23" spans="1:4">
+    <row r="965" spans="1:4">
       <c r="A965" s="1">
         <v>3</v>
       </c>
@@ -40510,7 +40506,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="969" ht="24" hidden="1" spans="2:4">
+    <row r="969" hidden="1" spans="2:4">
       <c r="B969" s="1" t="s">
         <v>3118</v>
       </c>
@@ -40585,7 +40581,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="975" ht="40" hidden="1" spans="2:4">
+    <row r="975" ht="37.5" hidden="1" spans="2:4">
       <c r="B975" s="1" t="s">
         <v>3136</v>
       </c>
@@ -40675,7 +40671,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="981" ht="24" hidden="1" spans="2:4">
+    <row r="981" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
         <v>3157</v>
       </c>
@@ -40686,7 +40682,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="982" ht="24" hidden="1" spans="2:4">
+    <row r="982" hidden="1" spans="2:4">
       <c r="B982" s="1" t="s">
         <v>3160</v>
       </c>
@@ -40747,7 +40743,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="987" ht="40" hidden="1" spans="1:4">
+    <row r="987" ht="37.5" hidden="1" spans="1:4">
       <c r="A987" s="1">
         <v>0</v>
       </c>
@@ -40772,7 +40768,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="989" ht="43" hidden="1" spans="2:4">
+    <row r="989" hidden="1" spans="2:4">
       <c r="B989" s="1" t="s">
         <v>3181</v>
       </c>
@@ -40794,7 +40790,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="991" ht="40" hidden="1" spans="2:4">
+    <row r="991" ht="37.5" hidden="1" spans="2:4">
       <c r="B991" s="1" t="s">
         <v>3187</v>
       </c>
@@ -40819,7 +40815,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="993" ht="24" hidden="1" spans="1:4">
+    <row r="993" hidden="1" spans="1:4">
       <c r="A993" s="1">
         <v>0</v>
       </c>
@@ -40833,7 +40829,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="994" ht="40" spans="1:5">
+    <row r="994" ht="37.5" spans="1:5">
       <c r="A994" s="1">
         <v>1</v>
       </c>
@@ -40878,7 +40874,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="997" ht="120" hidden="1" spans="2:5">
+    <row r="997" ht="93.75" hidden="1" spans="2:5">
       <c r="B997" s="1" t="s">
         <v>3206</v>
       </c>
@@ -40920,7 +40916,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="1000" ht="120" hidden="1" spans="2:5">
+    <row r="1000" ht="93.75" hidden="1" spans="2:5">
       <c r="B1000" s="1" t="s">
         <v>3217</v>
       </c>
@@ -40934,7 +40930,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="1001" ht="40" hidden="1" spans="2:4">
+    <row r="1001" ht="37.5" hidden="1" spans="2:4">
       <c r="B1001" s="1" t="s">
         <v>3221</v>
       </c>
@@ -40945,7 +40941,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="1002" ht="40" hidden="1" spans="1:5">
+    <row r="1002" ht="37.5" hidden="1" spans="1:5">
       <c r="A1002" s="1">
         <v>0</v>
       </c>
@@ -40962,7 +40958,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="1003" ht="40" spans="1:4">
+    <row r="1003" ht="37.5" spans="1:4">
       <c r="A1003" s="1">
         <v>2</v>
       </c>
@@ -41021,7 +41017,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="1007" ht="24" hidden="1" spans="2:4">
+    <row r="1007" hidden="1" spans="2:4">
       <c r="B1007" s="1" t="s">
         <v>3241</v>
       </c>
@@ -41043,7 +41039,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="1009" ht="24" hidden="1" spans="2:4">
+    <row r="1009" hidden="1" spans="2:4">
       <c r="B1009" s="1" t="s">
         <v>3247</v>
       </c>
@@ -41146,7 +41142,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="1017" ht="23" hidden="1" spans="2:4">
+    <row r="1017" hidden="1" spans="2:4">
       <c r="B1017" s="1" t="s">
         <v>3273</v>
       </c>
@@ -41193,7 +41189,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="1021" ht="24" hidden="1" spans="2:4">
+    <row r="1021" hidden="1" spans="2:4">
       <c r="B1021" s="1" t="s">
         <v>3285</v>
       </c>
@@ -41204,7 +41200,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="1022" ht="23" hidden="1" spans="2:4">
+    <row r="1022" hidden="1" spans="2:4">
       <c r="B1022" s="1" t="s">
         <v>3288</v>
       </c>
@@ -41232,7 +41228,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="1024" ht="24" hidden="1" spans="2:4">
+    <row r="1024" hidden="1" spans="2:4">
       <c r="B1024" s="1" t="s">
         <v>3294</v>
       </c>
@@ -41260,7 +41256,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="1026" ht="24" hidden="1" spans="2:4">
+    <row r="1026" hidden="1" spans="2:4">
       <c r="B1026" s="1" t="s">
         <v>3301</v>
       </c>
@@ -41318,7 +41314,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="1031" ht="24" hidden="1" spans="1:4">
+    <row r="1031" hidden="1" spans="1:4">
       <c r="A1031" s="1">
         <v>0</v>
       </c>
@@ -41346,7 +41342,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="1033" ht="40" hidden="1" spans="1:5">
+    <row r="1033" ht="37.5" hidden="1" spans="1:5">
       <c r="A1033" s="1">
         <v>0</v>
       </c>
@@ -41374,7 +41370,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="1035" ht="40" spans="1:4">
+    <row r="1035" ht="37.5" spans="1:4">
       <c r="A1035" s="1">
         <v>2</v>
       </c>
@@ -41388,7 +41384,7 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="1036" ht="80" spans="1:5">
+    <row r="1036" ht="56.25" spans="1:5">
       <c r="A1036" s="1">
         <v>2</v>
       </c>
@@ -41405,7 +41401,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="1037" ht="40" spans="1:4">
+    <row r="1037" ht="37.5" spans="1:4">
       <c r="A1037" s="1">
         <v>2</v>
       </c>
@@ -41480,7 +41476,7 @@
         <v>3351</v>
       </c>
     </row>
-    <row r="1043" ht="80" hidden="1" spans="1:5">
+    <row r="1043" ht="56.25" hidden="1" spans="1:5">
       <c r="A1043" s="1">
         <v>0</v>
       </c>
@@ -41497,7 +41493,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="1044" ht="40" hidden="1" spans="2:4">
+    <row r="1044" ht="37.5" hidden="1" spans="2:4">
       <c r="B1044" s="1" t="s">
         <v>3356</v>
       </c>
@@ -41580,7 +41576,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="1051" ht="24" hidden="1" spans="1:5">
+    <row r="1051" hidden="1" spans="1:5">
       <c r="A1051" s="1">
         <v>0</v>
       </c>
@@ -41608,7 +41604,7 @@
         <v>3383</v>
       </c>
     </row>
-    <row r="1053" ht="40" hidden="1" spans="2:4">
+    <row r="1053" ht="37.5" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
         <v>3384</v>
       </c>
@@ -41630,7 +41626,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="1055" ht="24" hidden="1" spans="2:4">
+    <row r="1055" hidden="1" spans="2:4">
       <c r="B1055" s="1" t="s">
         <v>3390</v>
       </c>
@@ -41652,7 +41648,7 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="1057" ht="80" hidden="1" spans="2:5">
+    <row r="1057" ht="75" hidden="1" spans="2:5">
       <c r="B1057" s="1" t="s">
         <v>3396</v>
       </c>
@@ -41677,7 +41673,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row r="1059" ht="40" hidden="1" spans="1:4">
+    <row r="1059" ht="37.5" hidden="1" spans="1:4">
       <c r="A1059" s="1">
         <v>0</v>
       </c>
@@ -41763,7 +41759,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="1066" ht="24" hidden="1" spans="2:4">
+    <row r="1066" hidden="1" spans="2:4">
       <c r="B1066" s="1" t="s">
         <v>3424</v>
       </c>
@@ -41774,7 +41770,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="1067" ht="23" hidden="1" spans="2:4">
+    <row r="1067" hidden="1" spans="2:4">
       <c r="B1067" s="1" t="s">
         <v>3427</v>
       </c>
@@ -41799,7 +41795,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="1069" ht="24" hidden="1" spans="1:4">
+    <row r="1069" hidden="1" spans="1:4">
       <c r="A1069" s="1">
         <v>0</v>
       </c>
@@ -41852,7 +41848,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="1073" ht="24" hidden="1" spans="2:4">
+    <row r="1073" hidden="1" spans="2:4">
       <c r="B1073" s="1" t="s">
         <v>3446</v>
       </c>
@@ -41877,7 +41873,7 @@
         <v>3451</v>
       </c>
     </row>
-    <row r="1075" ht="100" hidden="1" spans="2:5">
+    <row r="1075" ht="75" hidden="1" spans="2:5">
       <c r="B1075" s="1" t="s">
         <v>3452</v>
       </c>
@@ -41905,7 +41901,7 @@
         <v>3459</v>
       </c>
     </row>
-    <row r="1077" ht="24" spans="1:4">
+    <row r="1077" spans="1:4">
       <c r="A1077" s="1">
         <v>2</v>
       </c>
@@ -41919,7 +41915,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="1078" ht="24" hidden="1" spans="2:4">
+    <row r="1078" hidden="1" spans="2:4">
       <c r="B1078" s="1" t="s">
         <v>3463</v>
       </c>
@@ -41955,7 +41951,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="1081" ht="140" spans="1:5">
+    <row r="1081" ht="112.5" spans="1:5">
       <c r="A1081" s="1">
         <v>2</v>
       </c>
@@ -41986,7 +41982,7 @@
         <v>3478</v>
       </c>
     </row>
-    <row r="1083" ht="24" hidden="1" spans="1:4">
+    <row r="1083" hidden="1" spans="1:4">
       <c r="A1083" s="1">
         <v>0</v>
       </c>
@@ -42017,7 +42013,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="1085" ht="40" hidden="1" spans="1:4">
+    <row r="1085" ht="37.5" hidden="1" spans="1:4">
       <c r="A1085" s="1">
         <v>0</v>
       </c>
@@ -42031,7 +42027,7 @@
         <v>3488</v>
       </c>
     </row>
-    <row r="1086" ht="24" hidden="1" spans="2:4">
+    <row r="1086" hidden="1" spans="2:4">
       <c r="B1086" s="1" t="s">
         <v>3489</v>
       </c>
@@ -42042,7 +42038,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="1087" ht="24" hidden="1" spans="2:4">
+    <row r="1087" hidden="1" spans="2:4">
       <c r="B1087" s="1" t="s">
         <v>3492</v>
       </c>
@@ -42053,7 +42049,7 @@
         <v>3494</v>
       </c>
     </row>
-    <row r="1088" ht="40" hidden="1" spans="2:4">
+    <row r="1088" ht="37.5" hidden="1" spans="2:4">
       <c r="B1088" s="1" t="s">
         <v>3495</v>
       </c>
@@ -42097,7 +42093,7 @@
         <v>3506</v>
       </c>
     </row>
-    <row r="1092" ht="40" hidden="1" spans="2:4">
+    <row r="1092" ht="37.5" hidden="1" spans="2:4">
       <c r="B1092" s="1" t="s">
         <v>3507</v>
       </c>
@@ -42122,7 +42118,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="1094" ht="24" hidden="1" spans="2:4">
+    <row r="1094" hidden="1" spans="2:4">
       <c r="B1094" s="1" t="s">
         <v>3513</v>
       </c>
@@ -42133,7 +42129,7 @@
         <v>3515</v>
       </c>
     </row>
-    <row r="1095" ht="24" hidden="1" spans="2:4">
+    <row r="1095" hidden="1" spans="2:4">
       <c r="B1095" s="1" t="s">
         <v>3516</v>
       </c>
@@ -42144,7 +42140,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="1096" ht="24" hidden="1" spans="1:4">
+    <row r="1096" hidden="1" spans="1:4">
       <c r="A1096" s="1">
         <v>0</v>
       </c>
@@ -42158,7 +42154,7 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="1097" ht="24" hidden="1" spans="2:5">
+    <row r="1097" hidden="1" spans="2:5">
       <c r="B1097" s="1" t="s">
         <v>3522</v>
       </c>
@@ -42172,7 +42168,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="1098" ht="23" spans="1:4">
+    <row r="1098" spans="1:4">
       <c r="A1098" s="1">
         <v>1</v>
       </c>
@@ -42186,7 +42182,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="1099" ht="24" hidden="1" spans="2:4">
+    <row r="1099" hidden="1" spans="2:4">
       <c r="B1099" s="1" t="s">
         <v>3528</v>
       </c>
@@ -42208,7 +42204,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="1101" ht="40" hidden="1" spans="2:4">
+    <row r="1101" ht="37.5" hidden="1" spans="2:4">
       <c r="B1101" s="1" t="s">
         <v>3534</v>
       </c>
@@ -42219,7 +42215,10 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="1102" hidden="1" spans="2:4">
+    <row r="1102" spans="1:4">
+      <c r="A1102" s="1">
+        <v>1</v>
+      </c>
       <c r="B1102" s="1" t="s">
         <v>3537</v>
       </c>
@@ -42244,7 +42243,10 @@
         <v>3543</v>
       </c>
     </row>
-    <row r="1104" hidden="1" spans="2:5">
+    <row r="1104" spans="1:5">
+      <c r="A1104" s="1">
+        <v>1</v>
+      </c>
       <c r="B1104" s="1" t="s">
         <v>3544</v>
       </c>
@@ -42258,7 +42260,7 @@
         <v>3547</v>
       </c>
     </row>
-    <row r="1105" ht="40" hidden="1" spans="2:4">
+    <row r="1105" ht="37.5" hidden="1" spans="2:4">
       <c r="B1105" s="1" t="s">
         <v>3548</v>
       </c>
@@ -42269,7 +42271,7 @@
         <v>3550</v>
       </c>
     </row>
-    <row r="1106" ht="23" hidden="1" spans="2:4">
+    <row r="1106" hidden="1" spans="2:4">
       <c r="B1106" s="1" t="s">
         <v>3551</v>
       </c>
@@ -42280,7 +42282,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="1107" ht="24" hidden="1" spans="2:4">
+    <row r="1107" hidden="1" spans="2:4">
       <c r="B1107" s="1" t="s">
         <v>3554</v>
       </c>
@@ -42302,7 +42304,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="1109" ht="60" hidden="1" spans="2:5">
+    <row r="1109" ht="37.5" hidden="1" spans="2:5">
       <c r="B1109" s="1" t="s">
         <v>3560</v>
       </c>
@@ -42316,7 +42318,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="1110" ht="40" hidden="1" spans="2:5">
+    <row r="1110" ht="37.5" hidden="1" spans="2:5">
       <c r="B1110" s="1" t="s">
         <v>3564</v>
       </c>
@@ -42330,7 +42332,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="1111" ht="24" hidden="1" spans="2:4">
+    <row r="1111" hidden="1" spans="2:4">
       <c r="B1111" s="1" t="s">
         <v>3568</v>
       </c>
@@ -42352,7 +42354,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="1113" ht="40" hidden="1" spans="2:4">
+    <row r="1113" hidden="1" spans="2:4">
       <c r="B1113" s="1" t="s">
         <v>3574</v>
       </c>
@@ -42363,7 +42365,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="1114" ht="80" hidden="1" spans="2:5">
+    <row r="1114" ht="56.25" hidden="1" spans="2:5">
       <c r="B1114" s="1" t="s">
         <v>3577</v>
       </c>
@@ -42377,7 +42379,10 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="1115" hidden="1" spans="2:4">
+    <row r="1115" spans="1:4">
+      <c r="A1115" s="1">
+        <v>1</v>
+      </c>
       <c r="B1115" s="1" t="s">
         <v>3581</v>
       </c>
@@ -42413,7 +42418,7 @@
         <v>3590</v>
       </c>
     </row>
-    <row r="1118" ht="40" hidden="1" spans="2:5">
+    <row r="1118" ht="37.5" hidden="1" spans="2:5">
       <c r="B1118" s="1" t="s">
         <v>3591</v>
       </c>
@@ -42441,7 +42446,10 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="1120" ht="40" hidden="1" spans="2:4">
+    <row r="1120" ht="37.5" spans="1:4">
+      <c r="A1120" s="1">
+        <v>1</v>
+      </c>
       <c r="B1120" s="1" t="s">
         <v>3599</v>
       </c>
@@ -42452,7 +42460,7 @@
         <v>3601</v>
       </c>
     </row>
-    <row r="1121" ht="40" hidden="1" spans="2:5">
+    <row r="1121" ht="37.5" hidden="1" spans="2:5">
       <c r="B1121" s="1" t="s">
         <v>3602</v>
       </c>
@@ -42466,7 +42474,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="1122" ht="160" hidden="1" spans="2:5">
+    <row r="1122" ht="131.25" hidden="1" spans="2:5">
       <c r="B1122" s="1" t="s">
         <v>3606</v>
       </c>
@@ -42480,7 +42488,10 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="1123" ht="40" hidden="1" spans="2:5">
+    <row r="1123" ht="37.5" spans="1:5">
+      <c r="A1123" s="1">
+        <v>1</v>
+      </c>
       <c r="B1123" s="1" t="s">
         <v>3610</v>
       </c>
@@ -42494,7 +42505,7 @@
         <v>3613</v>
       </c>
     </row>
-    <row r="1124" ht="40" hidden="1" spans="2:4">
+    <row r="1124" ht="37.5" hidden="1" spans="2:4">
       <c r="B1124" s="1" t="s">
         <v>3614</v>
       </c>
@@ -42505,7 +42516,10 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="1125" ht="24" hidden="1" spans="2:4">
+    <row r="1125" spans="1:4">
+      <c r="A1125" s="1">
+        <v>1</v>
+      </c>
       <c r="B1125" s="1" t="s">
         <v>3617</v>
       </c>
@@ -42516,7 +42530,7 @@
         <v>3619</v>
       </c>
     </row>
-    <row r="1126" ht="40" hidden="1" spans="2:5">
+    <row r="1126" ht="37.5" hidden="1" spans="2:5">
       <c r="B1126" s="1" t="s">
         <v>3620</v>
       </c>
@@ -42530,7 +42544,10 @@
         <v>3623</v>
       </c>
     </row>
-    <row r="1127" hidden="1" spans="2:4">
+    <row r="1127" spans="1:4">
+      <c r="A1127" s="1">
+        <v>1</v>
+      </c>
       <c r="B1127" s="1" t="s">
         <v>3624</v>
       </c>
@@ -42541,7 +42558,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="1128" ht="60" hidden="1" spans="2:5">
+    <row r="1128" ht="56.25" hidden="1" spans="2:5">
       <c r="B1128" s="1" t="s">
         <v>3627</v>
       </c>
@@ -42566,7 +42583,10 @@
         <v>3633</v>
       </c>
     </row>
-    <row r="1130" ht="40" hidden="1" spans="2:4">
+    <row r="1130" ht="37.5" spans="1:4">
+      <c r="A1130" s="1">
+        <v>1</v>
+      </c>
       <c r="B1130" s="1" t="s">
         <v>3634</v>
       </c>
@@ -42577,7 +42597,10 @@
         <v>3636</v>
       </c>
     </row>
-    <row r="1131" ht="40" hidden="1" spans="2:4">
+    <row r="1131" ht="37.5" spans="1:4">
+      <c r="A1131" s="1">
+        <v>1</v>
+      </c>
       <c r="B1131" s="1" t="s">
         <v>3637</v>
       </c>
@@ -42599,7 +42622,7 @@
         <v>3642</v>
       </c>
     </row>
-    <row r="1133" ht="23" hidden="1" spans="2:4">
+    <row r="1133" hidden="1" spans="2:4">
       <c r="B1133" s="1" t="s">
         <v>3643</v>
       </c>
@@ -42610,7 +42633,10 @@
         <v>3645</v>
       </c>
     </row>
-    <row r="1134" ht="120" hidden="1" spans="2:5">
+    <row r="1134" ht="93.75" spans="1:5">
+      <c r="A1134" s="1">
+        <v>1</v>
+      </c>
       <c r="B1134" s="1" t="s">
         <v>3646</v>
       </c>
@@ -42624,7 +42650,7 @@
         <v>3649</v>
       </c>
     </row>
-    <row r="1135" ht="40" hidden="1" spans="2:4">
+    <row r="1135" ht="37.5" hidden="1" spans="2:4">
       <c r="B1135" s="1" t="s">
         <v>3650</v>
       </c>
@@ -42635,7 +42661,7 @@
         <v>3652</v>
       </c>
     </row>
-    <row r="1136" ht="60" hidden="1" spans="2:5">
+    <row r="1136" ht="56.25" hidden="1" spans="2:5">
       <c r="B1136" s="1" t="s">
         <v>3653</v>
       </c>
@@ -42649,7 +42675,7 @@
         <v>3656</v>
       </c>
     </row>
-    <row r="1137" ht="40" hidden="1" spans="2:4">
+    <row r="1137" ht="37.5" hidden="1" spans="2:4">
       <c r="B1137" s="1" t="s">
         <v>3657</v>
       </c>
@@ -42660,7 +42686,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="1138" ht="40" hidden="1" spans="2:4">
+    <row r="1138" ht="37.5" hidden="1" spans="2:4">
       <c r="B1138" s="1" t="s">
         <v>3660</v>
       </c>
@@ -42671,7 +42697,7 @@
         <v>3662</v>
       </c>
     </row>
-    <row r="1139" ht="23" hidden="1" spans="2:4">
+    <row r="1139" hidden="1" spans="2:4">
       <c r="B1139" s="1" t="s">
         <v>3663</v>
       </c>
@@ -42682,7 +42708,7 @@
         <v>3665</v>
       </c>
     </row>
-    <row r="1140" ht="77" hidden="1" spans="2:5">
+    <row r="1140" ht="56.25" hidden="1" spans="2:5">
       <c r="B1140" s="1" t="s">
         <v>3666</v>
       </c>
@@ -42696,7 +42722,10 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="1141" hidden="1" spans="2:4">
+    <row r="1141" spans="1:4">
+      <c r="A1141" s="1">
+        <v>1</v>
+      </c>
       <c r="B1141" s="1" t="s">
         <v>3670</v>
       </c>
@@ -42707,7 +42736,7 @@
         <v>3672</v>
       </c>
     </row>
-    <row r="1142" ht="24" hidden="1" spans="2:4">
+    <row r="1142" hidden="1" spans="2:4">
       <c r="B1142" s="1" t="s">
         <v>3673</v>
       </c>
@@ -42718,7 +42747,7 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="1143" ht="40" hidden="1" spans="2:4">
+    <row r="1143" ht="37.5" hidden="1" spans="2:4">
       <c r="B1143" s="1" t="s">
         <v>3676</v>
       </c>
@@ -42729,7 +42758,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="1144" ht="120" hidden="1" spans="2:5">
+    <row r="1144" ht="112.5" hidden="1" spans="2:5">
       <c r="B1144" s="1" t="s">
         <v>3679</v>
       </c>
@@ -42743,7 +42772,7 @@
         <v>3682</v>
       </c>
     </row>
-    <row r="1145" ht="77" hidden="1" spans="2:5">
+    <row r="1145" ht="56.25" hidden="1" spans="2:5">
       <c r="B1145" s="1" t="s">
         <v>3683</v>
       </c>
@@ -42757,7 +42786,10 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="1146" ht="160" hidden="1" spans="2:5">
+    <row r="1146" ht="131.25" spans="1:5">
+      <c r="A1146" s="1">
+        <v>1</v>
+      </c>
       <c r="B1146" s="1" t="s">
         <v>3687</v>
       </c>
@@ -42771,7 +42803,10 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="1147" hidden="1" spans="2:4">
+    <row r="1147" spans="1:4">
+      <c r="A1147" s="1">
+        <v>1</v>
+      </c>
       <c r="B1147" s="1" t="s">
         <v>3691</v>
       </c>
@@ -42782,7 +42817,7 @@
         <v>3693</v>
       </c>
     </row>
-    <row r="1148" ht="140" hidden="1" spans="2:5">
+    <row r="1148" ht="131.25" hidden="1" spans="2:5">
       <c r="B1148" s="1" t="s">
         <v>3694</v>
       </c>
@@ -42796,7 +42831,7 @@
         <v>3697</v>
       </c>
     </row>
-    <row r="1149" ht="160" hidden="1" spans="2:5">
+    <row r="1149" ht="131.25" hidden="1" spans="2:5">
       <c r="B1149" s="1" t="s">
         <v>3698</v>
       </c>
@@ -42810,7 +42845,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="1150" ht="40" hidden="1" spans="2:4">
+    <row r="1150" ht="37.5" hidden="1" spans="2:4">
       <c r="B1150" s="1" t="s">
         <v>3702</v>
       </c>
@@ -42821,7 +42856,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="1151" ht="40" hidden="1" spans="2:5">
+    <row r="1151" ht="37.5" hidden="1" spans="2:5">
       <c r="B1151" s="1" t="s">
         <v>3705</v>
       </c>
@@ -42835,7 +42870,7 @@
         <v>3708</v>
       </c>
     </row>
-    <row r="1152" ht="180" hidden="1" spans="2:5">
+    <row r="1152" ht="150" hidden="1" spans="2:5">
       <c r="B1152" s="1" t="s">
         <v>3709</v>
       </c>
@@ -42860,7 +42895,10 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="1154" hidden="1" spans="2:5">
+    <row r="1154" spans="1:5">
+      <c r="A1154" s="1">
+        <v>1</v>
+      </c>
       <c r="B1154" s="1" t="s">
         <v>3716</v>
       </c>
@@ -42907,7 +42945,7 @@
         <v>3728</v>
       </c>
     </row>
-    <row r="1158" ht="40" hidden="1" spans="2:4">
+    <row r="1158" ht="37.5" hidden="1" spans="2:4">
       <c r="B1158" s="1" t="s">
         <v>3729</v>
       </c>
@@ -42918,7 +42956,10 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="1159" hidden="1" spans="2:4">
+    <row r="1159" spans="1:4">
+      <c r="A1159" s="1">
+        <v>1</v>
+      </c>
       <c r="B1159" s="1" t="s">
         <v>3732</v>
       </c>
@@ -42929,7 +42970,10 @@
         <v>3734</v>
       </c>
     </row>
-    <row r="1160" ht="40" hidden="1" spans="2:4">
+    <row r="1160" ht="37.5" spans="1:4">
+      <c r="A1160" s="1">
+        <v>1</v>
+      </c>
       <c r="B1160" s="1" t="s">
         <v>3735</v>
       </c>
@@ -42940,7 +42984,10 @@
         <v>3737</v>
       </c>
     </row>
-    <row r="1161" hidden="1" spans="2:5">
+    <row r="1161" spans="1:5">
+      <c r="A1161" s="1">
+        <v>1</v>
+      </c>
       <c r="B1161" s="1" t="s">
         <v>3738</v>
       </c>
@@ -42954,7 +43001,10 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="1162" hidden="1" spans="2:5">
+    <row r="1162" spans="1:5">
+      <c r="A1162" s="1">
+        <v>1</v>
+      </c>
       <c r="B1162" s="1" t="s">
         <v>3742</v>
       </c>
@@ -42979,7 +43029,7 @@
         <v>3748</v>
       </c>
     </row>
-    <row r="1164" ht="40" hidden="1" spans="2:4">
+    <row r="1164" ht="37.5" hidden="1" spans="2:4">
       <c r="B1164" s="1" t="s">
         <v>3749</v>
       </c>
@@ -42990,7 +43040,10 @@
         <v>3751</v>
       </c>
     </row>
-    <row r="1165" hidden="1" spans="2:4">
+    <row r="1165" spans="1:4">
+      <c r="A1165" s="1">
+        <v>1</v>
+      </c>
       <c r="B1165" s="1" t="s">
         <v>3752</v>
       </c>
@@ -43012,7 +43065,10 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="1167" hidden="1" spans="2:5">
+    <row r="1167" spans="1:5">
+      <c r="A1167" s="1">
+        <v>1</v>
+      </c>
       <c r="B1167" s="1" t="s">
         <v>3758</v>
       </c>
@@ -43026,7 +43082,7 @@
         <v>3761</v>
       </c>
     </row>
-    <row r="1168" ht="23" hidden="1" spans="2:4">
+    <row r="1168" hidden="1" spans="2:4">
       <c r="B1168" s="1" t="s">
         <v>3762</v>
       </c>
@@ -43048,7 +43104,10 @@
         <v>3767</v>
       </c>
     </row>
-    <row r="1170" hidden="1" spans="2:4">
+    <row r="1170" spans="1:4">
+      <c r="A1170" s="1">
+        <v>1</v>
+      </c>
       <c r="B1170" s="1" t="s">
         <v>3768</v>
       </c>
@@ -43059,7 +43118,10 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="1171" hidden="1" spans="2:4">
+    <row r="1171" spans="1:4">
+      <c r="A1171" s="1">
+        <v>1</v>
+      </c>
       <c r="B1171" s="1" t="s">
         <v>3771</v>
       </c>
@@ -43081,7 +43143,10 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="1173" hidden="1" spans="2:5">
+    <row r="1173" spans="1:5">
+      <c r="A1173" s="1">
+        <v>1</v>
+      </c>
       <c r="B1173" s="1" t="s">
         <v>3777</v>
       </c>
@@ -43106,7 +43171,10 @@
         <v>3783</v>
       </c>
     </row>
-    <row r="1175" hidden="1" spans="2:4">
+    <row r="1175" spans="1:4">
+      <c r="A1175" s="1">
+        <v>1</v>
+      </c>
       <c r="B1175" s="1" t="s">
         <v>3784</v>
       </c>
@@ -43117,7 +43185,10 @@
         <v>3786</v>
       </c>
     </row>
-    <row r="1176" hidden="1" spans="2:4">
+    <row r="1176" spans="1:4">
+      <c r="A1176" s="1">
+        <v>1</v>
+      </c>
       <c r="B1176" s="1" t="s">
         <v>3787</v>
       </c>
@@ -43128,7 +43199,10 @@
         <v>3789</v>
       </c>
     </row>
-    <row r="1177" ht="23" hidden="1" spans="2:4">
+    <row r="1177" spans="1:4">
+      <c r="A1177" s="1">
+        <v>1</v>
+      </c>
       <c r="B1177" s="1" t="s">
         <v>3790</v>
       </c>
@@ -43139,7 +43213,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="1178" ht="24" hidden="1" spans="2:5">
+    <row r="1178" hidden="1" spans="2:5">
       <c r="B1178" s="1" t="s">
         <v>3793</v>
       </c>
@@ -43153,7 +43227,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="1179" ht="24" hidden="1" spans="2:4">
+    <row r="1179" hidden="1" spans="2:4">
       <c r="B1179" s="1" t="s">
         <v>3797</v>
       </c>
@@ -43164,7 +43238,10 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="1180" ht="24" hidden="1" spans="2:4">
+    <row r="1180" spans="1:4">
+      <c r="A1180" s="1">
+        <v>1</v>
+      </c>
       <c r="B1180" s="1" t="s">
         <v>3800</v>
       </c>
@@ -43186,7 +43263,10 @@
         <v>3805</v>
       </c>
     </row>
-    <row r="1182" ht="106" hidden="1" spans="2:5">
+    <row r="1182" ht="93.75" spans="1:5">
+      <c r="A1182" s="1">
+        <v>1</v>
+      </c>
       <c r="B1182" s="1" t="s">
         <v>3806</v>
       </c>
@@ -43222,7 +43302,10 @@
         <v>3815</v>
       </c>
     </row>
-    <row r="1185" hidden="1" spans="2:4">
+    <row r="1185" spans="1:4">
+      <c r="A1185" s="1">
+        <v>1</v>
+      </c>
       <c r="B1185" s="1" t="s">
         <v>3816</v>
       </c>
@@ -43244,7 +43327,7 @@
         <v>3821</v>
       </c>
     </row>
-    <row r="1187" ht="40" hidden="1" spans="2:5">
+    <row r="1187" ht="37.5" hidden="1" spans="2:5">
       <c r="B1187" s="1" t="s">
         <v>3822</v>
       </c>
@@ -43258,7 +43341,10 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="1188" hidden="1" spans="2:4">
+    <row r="1188" spans="1:4">
+      <c r="A1188" s="1">
+        <v>1</v>
+      </c>
       <c r="B1188" s="1" t="s">
         <v>3826</v>
       </c>
@@ -43269,7 +43355,10 @@
         <v>3828</v>
       </c>
     </row>
-    <row r="1189" hidden="1" spans="2:5">
+    <row r="1189" spans="1:5">
+      <c r="A1189" s="1">
+        <v>1</v>
+      </c>
       <c r="B1189" s="1" t="s">
         <v>3829</v>
       </c>
@@ -43283,7 +43372,10 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="1190" ht="120" hidden="1" spans="2:5">
+    <row r="1190" ht="112.5" spans="1:5">
+      <c r="A1190" s="1">
+        <v>1</v>
+      </c>
       <c r="B1190" s="1" t="s">
         <v>3833</v>
       </c>
@@ -43297,7 +43389,10 @@
         <v>3836</v>
       </c>
     </row>
-    <row r="1191" hidden="1" spans="2:4">
+    <row r="1191" spans="1:4">
+      <c r="A1191" s="1">
+        <v>1</v>
+      </c>
       <c r="B1191" s="1" t="s">
         <v>3837</v>
       </c>
@@ -43308,7 +43403,10 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="1192" hidden="1" spans="2:5">
+    <row r="1192" spans="1:5">
+      <c r="A1192" s="1">
+        <v>1</v>
+      </c>
       <c r="B1192" s="1" t="s">
         <v>3840</v>
       </c>
@@ -43322,7 +43420,10 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="1193" ht="60" hidden="1" spans="2:5">
+    <row r="1193" ht="56.25" spans="1:5">
+      <c r="A1193" s="1">
+        <v>1</v>
+      </c>
       <c r="B1193" s="1" t="s">
         <v>3844</v>
       </c>
@@ -43358,7 +43459,10 @@
         <v>3853</v>
       </c>
     </row>
-    <row r="1196" hidden="1" spans="2:4">
+    <row r="1196" spans="1:4">
+      <c r="A1196" s="1">
+        <v>1</v>
+      </c>
       <c r="B1196" s="1" t="s">
         <v>3854</v>
       </c>
@@ -43369,7 +43473,10 @@
         <v>3856</v>
       </c>
     </row>
-    <row r="1197" hidden="1" spans="2:4">
+    <row r="1197" spans="1:4">
+      <c r="A1197" s="1">
+        <v>1</v>
+      </c>
       <c r="B1197" s="1" t="s">
         <v>3857</v>
       </c>
@@ -43391,7 +43498,10 @@
         <v>3862</v>
       </c>
     </row>
-    <row r="1199" ht="24" hidden="1" spans="2:4">
+    <row r="1199" spans="1:4">
+      <c r="A1199" s="1">
+        <v>1</v>
+      </c>
       <c r="B1199" s="1" t="s">
         <v>3863</v>
       </c>
@@ -43402,7 +43512,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="1200" ht="24" hidden="1" spans="2:5">
+    <row r="1200" hidden="1" spans="2:5">
       <c r="B1200" s="1" t="s">
         <v>3866</v>
       </c>
@@ -43430,7 +43540,7 @@
         <v>3873</v>
       </c>
     </row>
-    <row r="1202" ht="24" hidden="1" spans="2:4">
+    <row r="1202" hidden="1" spans="2:4">
       <c r="B1202" s="1" t="s">
         <v>3874</v>
       </c>
@@ -43441,7 +43551,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="1203" ht="23" hidden="1" spans="2:4">
+    <row r="1203" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
         <v>3877</v>
       </c>
@@ -43463,7 +43573,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="1205" ht="24" hidden="1" spans="2:4">
+    <row r="1205" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
         <v>3883</v>
       </c>
@@ -43532,7 +43642,7 @@
         <v>3901</v>
       </c>
     </row>
-    <row r="1211" ht="100" hidden="1" spans="2:5">
+    <row r="1211" ht="75" hidden="1" spans="2:5">
       <c r="B1211" s="1" t="s">
         <v>3902</v>
       </c>
@@ -43582,7 +43692,7 @@
         <v>3914</v>
       </c>
     </row>
-    <row r="1215" ht="23" hidden="1" spans="2:5">
+    <row r="1215" hidden="1" spans="2:5">
       <c r="B1215" s="1" t="s">
         <v>3915</v>
       </c>
@@ -43679,7 +43789,7 @@
         <v>3941</v>
       </c>
     </row>
-    <row r="1223" ht="24" hidden="1" spans="2:4">
+    <row r="1223" hidden="1" spans="2:4">
       <c r="B1223" s="1" t="s">
         <v>3942</v>
       </c>
@@ -43690,7 +43800,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="1224" ht="40" hidden="1" spans="2:4">
+    <row r="1224" ht="37.5" hidden="1" spans="2:4">
       <c r="B1224" s="1" t="s">
         <v>3945</v>
       </c>
@@ -43712,7 +43822,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="1226" ht="24" hidden="1" spans="2:4">
+    <row r="1226" hidden="1" spans="2:4">
       <c r="B1226" s="1" t="s">
         <v>3951</v>
       </c>
@@ -43723,7 +43833,7 @@
         <v>3953</v>
       </c>
     </row>
-    <row r="1227" ht="120" hidden="1" spans="2:5">
+    <row r="1227" ht="112.5" hidden="1" spans="2:5">
       <c r="B1227" s="1" t="s">
         <v>3954</v>
       </c>
@@ -43784,7 +43894,7 @@
         <v>3970</v>
       </c>
     </row>
-    <row r="1232" ht="40" hidden="1" spans="2:4">
+    <row r="1232" ht="37.5" hidden="1" spans="2:4">
       <c r="B1232" s="1" t="s">
         <v>3971</v>
       </c>
@@ -43861,7 +43971,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="1239" ht="80" hidden="1" spans="2:5">
+    <row r="1239" ht="75" hidden="1" spans="2:5">
       <c r="B1239" s="1" t="s">
         <v>3992</v>
       </c>
@@ -43875,7 +43985,7 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="1240" ht="24" hidden="1" spans="2:4">
+    <row r="1240" hidden="1" spans="2:4">
       <c r="B1240" s="1" t="s">
         <v>3996</v>
       </c>
@@ -43897,7 +44007,7 @@
         <v>4001</v>
       </c>
     </row>
-    <row r="1242" ht="40" hidden="1" spans="2:4">
+    <row r="1242" ht="37.5" hidden="1" spans="2:4">
       <c r="B1242" s="1" t="s">
         <v>4002</v>
       </c>
@@ -43930,7 +44040,7 @@
         <v>4010</v>
       </c>
     </row>
-    <row r="1245" ht="40" hidden="1" spans="2:4">
+    <row r="1245" ht="37.5" hidden="1" spans="2:4">
       <c r="B1245" s="1" t="s">
         <v>4011</v>
       </c>
@@ -43966,7 +44076,7 @@
         <v>4019</v>
       </c>
     </row>
-    <row r="1248" ht="40" hidden="1" spans="2:4">
+    <row r="1248" ht="37.5" hidden="1" spans="2:4">
       <c r="B1248" s="1" t="s">
         <v>4020</v>
       </c>
@@ -43977,7 +44087,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="1249" ht="40" hidden="1" spans="2:4">
+    <row r="1249" ht="37.5" hidden="1" spans="2:4">
       <c r="B1249" s="1" t="s">
         <v>4023</v>
       </c>
@@ -43999,7 +44109,7 @@
         <v>4028</v>
       </c>
     </row>
-    <row r="1251" ht="23" hidden="1" spans="2:4">
+    <row r="1251" hidden="1" spans="2:4">
       <c r="B1251" s="1" t="s">
         <v>4029</v>
       </c>
@@ -44010,7 +44120,7 @@
         <v>4031</v>
       </c>
     </row>
-    <row r="1252" ht="40" hidden="1" spans="2:5">
+    <row r="1252" ht="37.5" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
         <v>4032</v>
       </c>
@@ -44038,7 +44148,7 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="1254" ht="40" hidden="1" spans="2:4">
+    <row r="1254" ht="37.5" hidden="1" spans="2:4">
       <c r="B1254" s="1" t="s">
         <v>4040</v>
       </c>
@@ -44071,7 +44181,7 @@
         <v>4048</v>
       </c>
     </row>
-    <row r="1257" ht="40" hidden="1" spans="2:4">
+    <row r="1257" ht="37.5" hidden="1" spans="2:4">
       <c r="B1257" s="1" t="s">
         <v>4049</v>
       </c>
@@ -44093,7 +44203,7 @@
         <v>4054</v>
       </c>
     </row>
-    <row r="1259" ht="40" hidden="1" spans="2:5">
+    <row r="1259" ht="37.5" hidden="1" spans="2:5">
       <c r="B1259" s="1" t="s">
         <v>4055</v>
       </c>
@@ -44151,7 +44261,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="1264" ht="24" hidden="1" spans="2:4">
+    <row r="1264" hidden="1" spans="2:4">
       <c r="B1264" s="1" t="s">
         <v>4071</v>
       </c>
@@ -44253,7 +44363,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="1273" ht="40" hidden="1" spans="2:4">
+    <row r="1273" ht="37.5" hidden="1" spans="2:4">
       <c r="B1273" s="1" t="s">
         <v>4099</v>
       </c>
@@ -44264,7 +44374,7 @@
         <v>4101</v>
       </c>
     </row>
-    <row r="1274" ht="40" hidden="1" spans="2:4">
+    <row r="1274" ht="37.5" hidden="1" spans="2:4">
       <c r="B1274" s="1" t="s">
         <v>4102</v>
       </c>
@@ -44286,7 +44396,7 @@
         <v>4107</v>
       </c>
     </row>
-    <row r="1276" ht="24" hidden="1" spans="2:4">
+    <row r="1276" hidden="1" spans="2:4">
       <c r="B1276" s="1" t="s">
         <v>4108</v>
       </c>
@@ -44377,7 +44487,7 @@
         <v>4132</v>
       </c>
     </row>
-    <row r="1284" ht="40" hidden="1" spans="2:4">
+    <row r="1284" ht="37.5" hidden="1" spans="2:4">
       <c r="B1284" s="1" t="s">
         <v>4133</v>
       </c>
@@ -44471,7 +44581,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="1292" ht="24" hidden="1" spans="2:4">
+    <row r="1292" hidden="1" spans="2:4">
       <c r="B1292" s="1" t="s">
         <v>4159</v>
       </c>
@@ -44493,7 +44603,7 @@
         <v>4164</v>
       </c>
     </row>
-    <row r="1294" ht="100" hidden="1" spans="2:5">
+    <row r="1294" ht="93.75" hidden="1" spans="2:5">
       <c r="B1294" s="1" t="s">
         <v>4165</v>
       </c>
@@ -44518,7 +44628,7 @@
         <v>4171</v>
       </c>
     </row>
-    <row r="1296" ht="24" hidden="1" spans="2:4">
+    <row r="1296" hidden="1" spans="2:4">
       <c r="B1296" s="1" t="s">
         <v>4172</v>
       </c>
@@ -44551,7 +44661,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="1299" ht="40" hidden="1" spans="2:4">
+    <row r="1299" ht="37.5" hidden="1" spans="2:4">
       <c r="B1299" s="1" t="s">
         <v>4181</v>
       </c>
@@ -44584,7 +44694,7 @@
         <v>4189</v>
       </c>
     </row>
-    <row r="1302" ht="40" hidden="1" spans="2:5">
+    <row r="1302" hidden="1" spans="2:5">
       <c r="B1302" s="1" t="s">
         <v>4190</v>
       </c>
@@ -44598,7 +44708,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="1303" ht="24" hidden="1" spans="2:4">
+    <row r="1303" hidden="1" spans="2:4">
       <c r="B1303" s="1" t="s">
         <v>4193</v>
       </c>
@@ -44609,7 +44719,7 @@
         <v>4195</v>
       </c>
     </row>
-    <row r="1304" ht="40" hidden="1" spans="2:4">
+    <row r="1304" ht="37.5" hidden="1" spans="2:4">
       <c r="B1304" s="1" t="s">
         <v>4196</v>
       </c>
@@ -44686,7 +44796,7 @@
         <v>4216</v>
       </c>
     </row>
-    <row r="1311" ht="40" hidden="1" spans="2:4">
+    <row r="1311" ht="37.5" hidden="1" spans="2:4">
       <c r="B1311" s="1" t="s">
         <v>4217</v>
       </c>
@@ -44708,7 +44818,7 @@
         <v>4222</v>
       </c>
     </row>
-    <row r="1313" ht="180" hidden="1" spans="2:5">
+    <row r="1313" ht="150" hidden="1" spans="2:5">
       <c r="B1313" s="1" t="s">
         <v>4223</v>
       </c>
@@ -44744,7 +44854,7 @@
         <v>4232</v>
       </c>
     </row>
-    <row r="1316" ht="40" hidden="1" spans="2:5">
+    <row r="1316" ht="37.5" hidden="1" spans="2:5">
       <c r="B1316" s="1" t="s">
         <v>4233</v>
       </c>
@@ -44758,7 +44868,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="1317" ht="24" hidden="1" spans="2:4">
+    <row r="1317" hidden="1" spans="2:4">
       <c r="B1317" s="1" t="s">
         <v>4237</v>
       </c>
@@ -44769,7 +44879,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="1318" ht="40" hidden="1" spans="2:4">
+    <row r="1318" ht="37.5" hidden="1" spans="2:4">
       <c r="B1318" s="1" t="s">
         <v>4240</v>
       </c>
@@ -44849,7 +44959,7 @@
         <v>4261</v>
       </c>
     </row>
-    <row r="1325" ht="24" hidden="1" spans="2:4">
+    <row r="1325" hidden="1" spans="2:4">
       <c r="B1325" s="1" t="s">
         <v>4262</v>
       </c>
@@ -44885,7 +44995,7 @@
         <v>4271</v>
       </c>
     </row>
-    <row r="1328" ht="40" hidden="1" spans="2:4">
+    <row r="1328" ht="37.5" hidden="1" spans="2:4">
       <c r="B1328" s="1" t="s">
         <v>4272</v>
       </c>
@@ -44929,7 +45039,7 @@
         <v>4283</v>
       </c>
     </row>
-    <row r="1332" ht="23" hidden="1" spans="2:5">
+    <row r="1332" hidden="1" spans="2:5">
       <c r="B1332" s="1" t="s">
         <v>4284</v>
       </c>
@@ -44943,7 +45053,7 @@
         <v>4287</v>
       </c>
     </row>
-    <row r="1333" ht="40" hidden="1" spans="2:4">
+    <row r="1333" ht="37.5" hidden="1" spans="2:4">
       <c r="B1333" s="1" t="s">
         <v>4288</v>
       </c>
@@ -45020,7 +45130,7 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="1340" ht="24" hidden="1" spans="2:4">
+    <row r="1340" hidden="1" spans="2:4">
       <c r="B1340" s="1" t="s">
         <v>4309</v>
       </c>
@@ -45053,7 +45163,7 @@
         <v>4317</v>
       </c>
     </row>
-    <row r="1343" ht="60" hidden="1" spans="2:5">
+    <row r="1343" ht="56.25" hidden="1" spans="2:5">
       <c r="B1343" s="1" t="s">
         <v>4318</v>
       </c>
@@ -45122,7 +45232,7 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="1349" ht="60" hidden="1" spans="2:5">
+    <row r="1349" ht="56.25" hidden="1" spans="2:5">
       <c r="B1349" s="1" t="s">
         <v>4337</v>
       </c>
@@ -45158,7 +45268,7 @@
         <v>4346</v>
       </c>
     </row>
-    <row r="1352" ht="40" hidden="1" spans="2:4">
+    <row r="1352" ht="37.5" hidden="1" spans="2:4">
       <c r="B1352" s="1" t="s">
         <v>4347</v>
       </c>
@@ -45180,7 +45290,7 @@
         <v>4352</v>
       </c>
     </row>
-    <row r="1354" ht="24" hidden="1" spans="2:4">
+    <row r="1354" hidden="1" spans="2:4">
       <c r="B1354" s="1" t="s">
         <v>4353</v>
       </c>
@@ -45213,7 +45323,7 @@
         <v>4361</v>
       </c>
     </row>
-    <row r="1357" ht="24" hidden="1" spans="2:4">
+    <row r="1357" hidden="1" spans="2:4">
       <c r="B1357" s="1" t="s">
         <v>4362</v>
       </c>
@@ -45224,7 +45334,7 @@
         <v>4364</v>
       </c>
     </row>
-    <row r="1358" ht="40" hidden="1" spans="2:5">
+    <row r="1358" ht="37.5" hidden="1" spans="2:5">
       <c r="B1358" s="1" t="s">
         <v>4365</v>
       </c>
@@ -45307,7 +45417,7 @@
         <v>4387</v>
       </c>
     </row>
-    <row r="1365" ht="40" hidden="1" spans="2:4">
+    <row r="1365" ht="37.5" hidden="1" spans="2:4">
       <c r="B1365" s="1" t="s">
         <v>4388</v>
       </c>
@@ -45318,7 +45428,7 @@
         <v>4390</v>
       </c>
     </row>
-    <row r="1366" ht="40" hidden="1" spans="2:4">
+    <row r="1366" ht="37.5" hidden="1" spans="2:4">
       <c r="B1366" s="1" t="s">
         <v>4391</v>
       </c>
@@ -45329,7 +45439,7 @@
         <v>4393</v>
       </c>
     </row>
-    <row r="1367" ht="23" hidden="1" spans="2:4">
+    <row r="1367" hidden="1" spans="2:4">
       <c r="B1367" s="1" t="s">
         <v>4394</v>
       </c>
@@ -45395,7 +45505,7 @@
         <v>4410</v>
       </c>
     </row>
-    <row r="1373" ht="40" hidden="1" spans="2:4">
+    <row r="1373" ht="37.5" hidden="1" spans="2:4">
       <c r="B1373" s="1" t="s">
         <v>4411</v>
       </c>
@@ -45417,7 +45527,7 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="1375" ht="40" hidden="1" spans="2:4">
+    <row r="1375" ht="37.5" hidden="1" spans="2:4">
       <c r="B1375" s="1" t="s">
         <v>4417</v>
       </c>
@@ -45461,7 +45571,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="1379" ht="24" hidden="1" spans="2:4">
+    <row r="1379" hidden="1" spans="2:4">
       <c r="B1379" s="1" t="s">
         <v>4429</v>
       </c>
@@ -45483,7 +45593,7 @@
         <v>4434</v>
       </c>
     </row>
-    <row r="1381" ht="140" hidden="1" spans="2:5">
+    <row r="1381" ht="112.5" hidden="1" spans="2:5">
       <c r="B1381" s="1" t="s">
         <v>4435</v>
       </c>
@@ -45497,7 +45607,7 @@
         <v>4438</v>
       </c>
     </row>
-    <row r="1382" ht="40" hidden="1" spans="2:5">
+    <row r="1382" ht="37.5" hidden="1" spans="2:5">
       <c r="B1382" s="1" t="s">
         <v>4439</v>
       </c>
@@ -45511,7 +45621,7 @@
         <v>4442</v>
       </c>
     </row>
-    <row r="1383" ht="40" hidden="1" spans="2:5">
+    <row r="1383" ht="37.5" hidden="1" spans="2:5">
       <c r="B1383" s="1" t="s">
         <v>4443</v>
       </c>
@@ -45569,7 +45679,7 @@
         <v>4458</v>
       </c>
     </row>
-    <row r="1388" ht="23" hidden="1" spans="2:4">
+    <row r="1388" hidden="1" spans="2:4">
       <c r="B1388" s="1" t="s">
         <v>4459</v>
       </c>
@@ -45602,7 +45712,7 @@
         <v>4467</v>
       </c>
     </row>
-    <row r="1391" ht="24" hidden="1" spans="2:4">
+    <row r="1391" hidden="1" spans="2:4">
       <c r="B1391" s="1" t="s">
         <v>4468</v>
       </c>
@@ -45613,7 +45723,7 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="1392" ht="24" hidden="1" spans="2:4">
+    <row r="1392" hidden="1" spans="2:4">
       <c r="B1392" s="1" t="s">
         <v>4471</v>
       </c>
@@ -45690,7 +45800,7 @@
         <v>4491</v>
       </c>
     </row>
-    <row r="1399" ht="60" hidden="1" spans="2:5">
+    <row r="1399" ht="56.25" hidden="1" spans="2:5">
       <c r="B1399" s="1" t="s">
         <v>4492</v>
       </c>
@@ -45798,7 +45908,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="1408" ht="40" hidden="1" spans="2:5">
+    <row r="1408" ht="37.5" hidden="1" spans="2:5">
       <c r="B1408" s="1" t="s">
         <v>4522</v>
       </c>
@@ -45856,7 +45966,7 @@
         <v>4537</v>
       </c>
     </row>
-    <row r="1413" ht="24" hidden="1" spans="2:4">
+    <row r="1413" hidden="1" spans="2:4">
       <c r="B1413" s="1" t="s">
         <v>4538</v>
       </c>
@@ -45889,7 +45999,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="1416" ht="24" hidden="1" spans="2:4">
+    <row r="1416" hidden="1" spans="2:4">
       <c r="B1416" s="1" t="s">
         <v>4547</v>
       </c>
@@ -45911,7 +46021,7 @@
         <v>4552</v>
       </c>
     </row>
-    <row r="1418" ht="40" hidden="1" spans="2:4">
+    <row r="1418" ht="37.5" hidden="1" spans="2:4">
       <c r="B1418" s="1" t="s">
         <v>4553</v>
       </c>
@@ -45922,7 +46032,7 @@
         <v>4555</v>
       </c>
     </row>
-    <row r="1419" ht="40" hidden="1" spans="2:4">
+    <row r="1419" ht="37.5" hidden="1" spans="2:4">
       <c r="B1419" s="1" t="s">
         <v>4556</v>
       </c>
@@ -45966,7 +46076,7 @@
         <v>4566</v>
       </c>
     </row>
-    <row r="1423" ht="40" hidden="1" spans="2:4">
+    <row r="1423" ht="37.5" hidden="1" spans="2:4">
       <c r="B1423" s="1" t="s">
         <v>4567</v>
       </c>
@@ -45988,7 +46098,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="1425" ht="40" hidden="1" spans="2:4">
+    <row r="1425" ht="37.5" hidden="1" spans="2:4">
       <c r="B1425" s="1" t="s">
         <v>4573</v>
       </c>
@@ -46010,7 +46120,7 @@
         <v>4578</v>
       </c>
     </row>
-    <row r="1427" ht="40" hidden="1" spans="2:4">
+    <row r="1427" ht="37.5" hidden="1" spans="2:4">
       <c r="B1427" s="1" t="s">
         <v>4579</v>
       </c>
@@ -46032,7 +46142,7 @@
         <v>4584</v>
       </c>
     </row>
-    <row r="1429" ht="24" hidden="1" spans="2:4">
+    <row r="1429" hidden="1" spans="2:4">
       <c r="B1429" s="1" t="s">
         <v>4585</v>
       </c>
@@ -46043,7 +46153,7 @@
         <v>4587</v>
       </c>
     </row>
-    <row r="1430" ht="24" hidden="1" spans="2:4">
+    <row r="1430" hidden="1" spans="2:4">
       <c r="B1430" s="1" t="s">
         <v>4588</v>
       </c>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595">
   <si>
     <t>标记</t>
   </si>
@@ -18076,6 +18076,9 @@
   </si>
   <si>
     <t>n.提议，建议</t>
+  </si>
+  <si>
+    <t>purpose 目的       propose 提议</t>
   </si>
   <si>
     <t>weather *</t>
@@ -26661,10 +26664,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -26702,24 +26705,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26733,15 +26721,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26757,6 +26744,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -26765,6 +26759,51 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -26787,13 +26826,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -26803,36 +26835,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26935,7 +26938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26947,7 +26956,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26959,19 +27046,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26983,49 +27088,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27037,55 +27100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27097,25 +27112,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27142,7 +27145,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27151,6 +27154,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -27167,17 +27181,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27229,145 +27232,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -27770,8 +27773,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F847" sqref="F847"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A1165" workbookViewId="0">
+      <selection activeCell="E1190" sqref="E1190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -35353,7 +35356,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>1853</v>
@@ -37711,7 +37714,7 @@
     </row>
     <row r="751" spans="1:4">
       <c r="A751" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>2427</v>
@@ -37967,7 +37970,7 @@
     </row>
     <row r="771" spans="1:4">
       <c r="A771" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2490</v>
@@ -38059,7 +38062,7 @@
     </row>
     <row r="778" ht="37.5" spans="1:5">
       <c r="A778" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>2511</v>
@@ -38594,9 +38597,9 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" hidden="1" spans="1:5">
       <c r="A820" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B820" s="1" t="s">
         <v>2644</v>
@@ -38611,9 +38614,9 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="821" spans="1:4">
+    <row r="821" hidden="1" spans="1:4">
       <c r="A821" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B821" s="3" t="s">
         <v>2648</v>
@@ -38636,9 +38639,9 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="823" ht="37.5" spans="1:5">
+    <row r="823" ht="37.5" hidden="1" spans="1:5">
       <c r="A823" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B823" s="1" t="s">
         <v>2654</v>
@@ -38772,7 +38775,7 @@
     </row>
     <row r="833" ht="112.5" spans="1:5">
       <c r="A833" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>2687</v>
@@ -38951,9 +38954,9 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="847" ht="37.5" spans="1:4">
+    <row r="847" ht="37.5" hidden="1" spans="1:4">
       <c r="A847" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B847" s="1" t="s">
         <v>2731</v>
@@ -39379,9 +39382,9 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="881" spans="1:4">
+    <row r="881" hidden="1" spans="1:4">
       <c r="A881" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B881" s="1" t="s">
         <v>2838</v>
@@ -39487,7 +39490,7 @@
     </row>
     <row r="889" spans="1:4">
       <c r="A889" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B889" s="1" t="s">
         <v>2863</v>
@@ -39573,7 +39576,7 @@
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B896" s="1" t="s">
         <v>2885</v>
@@ -39687,9 +39690,9 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="906" spans="1:4">
+    <row r="906" hidden="1" spans="1:4">
       <c r="A906" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B906" s="1" t="s">
         <v>2915</v>
@@ -39923,7 +39926,7 @@
     </row>
     <row r="924" ht="93.75" spans="1:5">
       <c r="A924" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>2973</v>
@@ -39949,9 +39952,9 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="926" spans="1:4">
+    <row r="926" hidden="1" spans="1:4">
       <c r="A926" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B926" s="1" t="s">
         <v>2980</v>
@@ -40041,9 +40044,9 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="933" ht="37.5" spans="1:4">
+    <row r="933" ht="37.5" hidden="1" spans="1:4">
       <c r="A933" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B933" s="1" t="s">
         <v>3002</v>
@@ -40294,9 +40297,9 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="953" spans="1:4">
+    <row r="953" ht="37.5" spans="1:5">
       <c r="A953" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B953" s="1" t="s">
         <v>3065</v>
@@ -40307,55 +40310,58 @@
       <c r="D953" s="1" t="s">
         <v>3067</v>
       </c>
+      <c r="E953" s="1" t="s">
+        <v>3068</v>
+      </c>
     </row>
     <row r="954" ht="112.5" hidden="1" spans="2:5">
       <c r="B954" s="1" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="C954" s="1" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="D954" s="1" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="E954" s="1" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="955" ht="93.75" hidden="1" spans="2:5">
       <c r="B955" s="1" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="C955" s="1" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="D955" s="1" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="E955" s="1" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="956" hidden="1" spans="2:4">
       <c r="B956" s="1" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="C956" s="1" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="D956" s="1" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="957" ht="37.5" hidden="1" spans="2:4">
       <c r="B957" s="1" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="C957" s="1" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="D957" s="1" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="958" hidden="1" spans="1:4">
@@ -40363,13 +40369,13 @@
         <v>0</v>
       </c>
       <c r="B958" s="1" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="C958" s="1" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="D958" s="1" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="959" hidden="1" spans="1:4">
@@ -40377,13 +40383,13 @@
         <v>0</v>
       </c>
       <c r="B959" s="1" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="C959" s="1" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="D959" s="1" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="960" ht="37.5" hidden="1" spans="1:4">
@@ -40391,38 +40397,38 @@
         <v>0</v>
       </c>
       <c r="B960" s="1" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C960" s="1" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="D960" s="1" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="961" hidden="1" spans="2:4">
       <c r="B961" s="1" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="C961" s="1" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="D961" s="1" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="962" hidden="1" spans="2:5">
       <c r="B962" s="1" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="C962" s="1" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="D962" s="1" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="E962" s="1" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="963" ht="37.5" hidden="1" spans="1:5">
@@ -40430,44 +40436,44 @@
         <v>0</v>
       </c>
       <c r="B963" s="1" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="C963" s="1" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="D963" s="1" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="E963" s="1" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="964" hidden="1" spans="2:5">
       <c r="B964" s="1" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="C964" s="1" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="D964" s="1" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="E964" s="1" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="965" spans="1:4">
       <c r="A965" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B965" s="1" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="C965" s="1" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="D965" s="1" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="966" hidden="1" spans="1:4">
@@ -40475,46 +40481,46 @@
         <v>0</v>
       </c>
       <c r="B966" s="1" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="D966" s="1" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="967" hidden="1" spans="2:4">
       <c r="B967" s="1" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="C967" s="1" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="D967" s="1" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="968" hidden="1" spans="2:4">
       <c r="B968" s="1" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="C968" s="1" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="969" hidden="1" spans="2:4">
       <c r="B969" s="1" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="C969" s="1" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="D969" s="1" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="970" hidden="1" spans="1:5">
@@ -40522,13 +40528,13 @@
         <v>0</v>
       </c>
       <c r="B970" s="1" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="C970" s="1" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="D970" s="1" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="E970" s="1" t="s">
         <v>2076</v>
@@ -40536,60 +40542,60 @@
     </row>
     <row r="971" spans="1:4">
       <c r="A971" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B971" s="1" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="C971" s="1" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="D971" s="1" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="972" hidden="1" spans="2:4">
       <c r="B972" s="1" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="C972" s="1" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="D972" s="1" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="973" hidden="1" spans="2:4">
       <c r="B973" s="1" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C973" s="1" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="D973" s="1" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="974" hidden="1" spans="2:4">
       <c r="B974" s="1" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="C974" s="1" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="D974" s="1" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="975" ht="37.5" hidden="1" spans="2:4">
       <c r="B975" s="1" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="C975" s="1" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="D975" s="1" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="976" hidden="1" spans="1:4">
@@ -40597,13 +40603,13 @@
         <v>0</v>
       </c>
       <c r="B976" s="1" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="C976" s="1" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="D976" s="1" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="977" hidden="1" spans="1:4">
@@ -40611,13 +40617,13 @@
         <v>0</v>
       </c>
       <c r="B977" s="1" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="C977" s="1" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="D977" s="1" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="978" hidden="1" spans="1:5">
@@ -40625,33 +40631,33 @@
         <v>0</v>
       </c>
       <c r="B978" s="1" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="C978" s="1" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="D978" s="1" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="E978" s="1" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="979" spans="1:5">
       <c r="A979" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B979" s="1" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="C979" s="1" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="D979" s="1" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="E979" s="1" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="980" hidden="1" spans="1:5">
@@ -40659,49 +40665,49 @@
         <v>0</v>
       </c>
       <c r="B980" s="1" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="C980" s="1" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="D980" s="1" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="E980" s="1" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="981" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="C981" s="1" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="D981" s="1" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="982" hidden="1" spans="2:4">
       <c r="B982" s="1" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="C982" s="1" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="D982" s="1" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="983" hidden="1" spans="2:4">
       <c r="B983" s="1" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="C983" s="1" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="D983" s="1" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="984" hidden="1" spans="1:4">
@@ -40709,13 +40715,13 @@
         <v>0</v>
       </c>
       <c r="B984" s="1" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="C984" s="1" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="D984" s="1" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="985" hidden="1" spans="1:4">
@@ -40723,24 +40729,24 @@
         <v>0</v>
       </c>
       <c r="B985" s="1" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="C985" s="1" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="D985" s="1" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="986" hidden="1" spans="2:4">
       <c r="B986" s="1" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C986" s="1" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="D986" s="1" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="987" ht="37.5" hidden="1" spans="1:4">
@@ -40748,57 +40754,57 @@
         <v>0</v>
       </c>
       <c r="B987" s="1" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="D987" s="1" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="988" hidden="1" spans="2:4">
       <c r="B988" s="1" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="C988" s="1" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="D988" s="1" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="989" hidden="1" spans="2:4">
       <c r="B989" s="1" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="C989" s="1" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="D989" s="1" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="990" hidden="1" spans="2:4">
       <c r="B990" s="1" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="C990" s="1" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="D990" s="1" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="991" ht="37.5" hidden="1" spans="2:4">
       <c r="B991" s="1" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="C991" s="1" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="D991" s="1" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="992" hidden="1" spans="1:4">
@@ -40806,13 +40812,13 @@
         <v>0</v>
       </c>
       <c r="B992" s="1" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="C992" s="1" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="D992" s="1" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="993" hidden="1" spans="1:4">
@@ -40820,83 +40826,83 @@
         <v>0</v>
       </c>
       <c r="B993" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C993" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="D993" s="1" t="s">
         <v>3193</v>
       </c>
-      <c r="C993" s="1" t="s">
-        <v>3194</v>
-      </c>
-      <c r="D993" s="1" t="s">
-        <v>3192</v>
-      </c>
-    </row>
-    <row r="994" ht="37.5" spans="1:5">
+    </row>
+    <row r="994" ht="37.5" hidden="1" spans="1:5">
       <c r="A994" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B994" s="1" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="C994" s="1" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="D994" s="1" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="E994" s="1" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="995" spans="1:5">
       <c r="A995" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B995" s="1" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="C995" s="1" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="D995" s="1" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="E995" s="1" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="996" hidden="1" spans="2:4">
       <c r="B996" s="1" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="C996" s="1" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="D996" s="1" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="997" ht="93.75" hidden="1" spans="2:5">
       <c r="B997" s="1" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="D997" s="1" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="E997" s="1" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="998" hidden="1" spans="2:4">
       <c r="B998" s="1" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="C998" s="1" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="D998" s="1" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="999" hidden="1" spans="1:5">
@@ -40904,41 +40910,41 @@
         <v>0</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="C999" s="1" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="D999" s="1" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="E999" s="1" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="1000" ht="93.75" hidden="1" spans="2:5">
       <c r="B1000" s="1" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="C1000" s="1" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1000" s="1" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1000" s="1" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="1001" ht="37.5" hidden="1" spans="2:4">
       <c r="B1001" s="1" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="C1001" s="1" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="D1001" s="1" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="1002" ht="37.5" hidden="1" spans="1:5">
@@ -40946,44 +40952,44 @@
         <v>0</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="C1002" s="1" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="D1002" s="1" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="E1002" s="1" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="1003" ht="37.5" spans="1:4">
       <c r="A1003" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="C1003" s="1" t="s">
-        <v>3229</v>
+        <v>3230</v>
       </c>
       <c r="D1003" s="1" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="1004" spans="1:4">
       <c r="A1004" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1004" s="1" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="C1004" s="1" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="D1004" s="1" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="1005" hidden="1" spans="1:4">
@@ -40991,13 +40997,13 @@
         <v>0</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="C1005" s="1" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="D1005" s="1" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="1006" hidden="1" spans="1:5">
@@ -41005,66 +41011,66 @@
         <v>0</v>
       </c>
       <c r="B1006" s="1" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="C1006" s="1" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="D1006" s="1" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="E1006" s="1" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="1007" hidden="1" spans="2:4">
       <c r="B1007" s="1" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="C1007" s="1" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="D1007" s="1" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="1008" hidden="1" spans="2:4">
       <c r="B1008" s="1" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="C1008" s="1" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="D1008" s="1" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1009" hidden="1" spans="2:4">
       <c r="B1009" s="1" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="C1009" s="1" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="D1009" s="1" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="1010" spans="1:5">
       <c r="A1010" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1010" s="1" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="C1010" s="1" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="D1010" s="1" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="E1010" s="1" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="1011" hidden="1" spans="1:5">
@@ -41072,13 +41078,13 @@
         <v>0</v>
       </c>
       <c r="B1011" s="1" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="C1011" s="1" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="D1011" s="1" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="E1011" s="1" t="s">
         <v>3043</v>
@@ -41086,143 +41092,143 @@
     </row>
     <row r="1012" hidden="1" spans="2:5">
       <c r="B1012" s="1" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="C1012" s="1" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="D1012" s="1" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="E1012" s="1" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="1013" hidden="1" spans="2:4">
       <c r="B1013" s="1" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="C1013" s="1" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="D1013" s="1" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="1014" hidden="1" spans="2:4">
       <c r="B1014" s="1" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="C1014" s="1" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="D1014" s="1" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="1015" hidden="1" spans="2:4">
       <c r="B1015" s="1" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="C1015" s="1" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="D1015" s="1" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="1016" hidden="1" spans="2:4">
       <c r="B1016" s="1" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="C1016" s="1" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="D1016" s="1" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="1017" hidden="1" spans="2:4">
       <c r="B1017" s="1" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="C1017" s="1" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="D1017" s="1" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="1018" hidden="1" spans="2:4">
       <c r="B1018" s="1" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="C1018" s="1" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="D1018" s="1" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="1019" hidden="1" spans="2:4">
       <c r="B1019" s="1" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="C1019" s="1" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="D1019" s="1" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="1020" spans="1:4">
       <c r="A1020" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="C1020" s="1" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="D1020" s="1" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="1021" hidden="1" spans="2:4">
       <c r="B1021" s="1" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="C1021" s="1" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="D1021" s="1" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="1022" hidden="1" spans="2:4">
       <c r="B1022" s="1" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="C1022" s="1" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="D1022" s="1" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="1023" spans="1:5">
       <c r="A1023" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1023" s="1" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="C1023" s="1" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="D1023" s="1" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="E1023" s="1" t="s">
         <v>1075</v>
@@ -41230,88 +41236,88 @@
     </row>
     <row r="1024" hidden="1" spans="2:4">
       <c r="B1024" s="1" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="C1024" s="1" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="D1024" s="1" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="1025" spans="1:5">
       <c r="A1025" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1025" s="1" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="C1025" s="1" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="D1025" s="1" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="E1025" s="1" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="1026" hidden="1" spans="2:4">
       <c r="B1026" s="1" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="C1026" s="1" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="D1026" s="1" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1027" hidden="1" spans="2:4">
       <c r="B1027" s="1" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="C1027" s="1" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="D1027" s="1" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="1028" hidden="1" spans="2:4">
       <c r="B1028" s="1" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="C1028" s="1" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="D1028" s="1" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="1029" hidden="1" spans="2:4">
       <c r="B1029" s="1" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="C1029" s="1" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="D1029" s="1" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="1030" spans="1:4">
       <c r="A1030" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1030" s="1" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="C1030" s="1" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="D1030" s="1" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="1031" hidden="1" spans="1:4">
@@ -41319,13 +41325,13 @@
         <v>0</v>
       </c>
       <c r="B1031" s="1" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="C1031" s="1" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="D1031" s="1" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="1032" hidden="1" spans="1:4">
@@ -41333,13 +41339,13 @@
         <v>0</v>
       </c>
       <c r="B1032" s="1" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="C1032" s="1" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="D1032" s="1" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="1033" ht="37.5" hidden="1" spans="1:5">
@@ -41347,13 +41353,13 @@
         <v>0</v>
       </c>
       <c r="B1033" s="1" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="C1033" s="1" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="D1033" s="1" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="E1033" s="1" t="s">
         <v>2647</v>
@@ -41361,13 +41367,13 @@
     </row>
     <row r="1034" hidden="1" spans="2:4">
       <c r="B1034" s="1" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="C1034" s="1" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="D1034" s="1" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="1035" ht="37.5" spans="1:4">
@@ -41375,13 +41381,13 @@
         <v>2</v>
       </c>
       <c r="B1035" s="1" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="C1035" s="1" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="D1035" s="1" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="1036" ht="56.25" spans="1:5">
@@ -41389,66 +41395,66 @@
         <v>2</v>
       </c>
       <c r="B1036" s="1" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="C1036" s="1" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="D1036" s="1" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="E1036" s="1" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="1037" ht="37.5" spans="1:4">
       <c r="A1037" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1037" s="1" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="C1037" s="1" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="D1037" s="1" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1038" spans="1:4">
       <c r="A1038" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1038" s="1" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="C1038" s="1" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="D1038" s="1" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="1039" hidden="1" spans="2:4">
       <c r="B1039" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="C1039" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="D1039" s="1" t="s">
         <v>3341</v>
-      </c>
-      <c r="C1039" s="1" t="s">
-        <v>3342</v>
-      </c>
-      <c r="D1039" s="1" t="s">
-        <v>3340</v>
       </c>
     </row>
     <row r="1040" hidden="1" spans="2:4">
       <c r="B1040" s="1" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="C1040" s="1" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="D1040" s="1" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="1041" hidden="1" spans="1:4">
@@ -41456,24 +41462,24 @@
         <v>0</v>
       </c>
       <c r="B1041" s="1" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="C1041" s="1" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="D1041" s="1" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="1042" hidden="1" spans="2:4">
       <c r="B1042" s="1" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="C1042" s="1" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="D1042" s="1" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="1043" ht="56.25" hidden="1" spans="1:5">
@@ -41481,49 +41487,49 @@
         <v>0</v>
       </c>
       <c r="B1043" s="1" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="C1043" s="1" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="D1043" s="1" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="E1043" s="1" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="1044" ht="37.5" hidden="1" spans="2:4">
       <c r="B1044" s="1" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="C1044" s="1" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="D1044" s="1" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="1045" hidden="1" spans="2:4">
       <c r="B1045" s="1" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="C1045" s="1" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="D1045" s="1" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="1046" hidden="1" spans="2:4">
       <c r="B1046" s="1" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="C1046" s="1" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="D1046" s="1" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="1047" hidden="1" spans="1:4">
@@ -41531,13 +41537,13 @@
         <v>0</v>
       </c>
       <c r="B1047" s="1" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="C1047" s="1" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="D1047" s="1" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="1048" hidden="1" spans="1:4">
@@ -41545,35 +41551,35 @@
         <v>0</v>
       </c>
       <c r="B1048" s="1" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="C1048" s="1" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="D1048" s="1" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="1049" hidden="1" spans="2:4">
       <c r="B1049" s="1" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="C1049" s="1" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="D1049" s="1" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="1050" hidden="1" spans="2:4">
       <c r="B1050" s="1" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="C1050" s="1" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="D1050" s="1" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="1051" hidden="1" spans="1:5">
@@ -41581,96 +41587,96 @@
         <v>0</v>
       </c>
       <c r="B1051" s="1" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="C1051" s="1" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="D1051" s="1" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="E1051" s="1" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="1052" hidden="1" spans="2:4">
       <c r="B1052" s="1" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="C1052" s="1" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="D1052" s="1" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="1053" ht="37.5" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="C1053" s="1" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="D1053" s="1" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="1054" hidden="1" spans="2:4">
       <c r="B1054" s="1" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="C1054" s="1" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="D1054" s="1" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="1055" hidden="1" spans="2:4">
       <c r="B1055" s="1" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="C1055" s="1" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="D1055" s="1" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="1056" hidden="1" spans="2:4">
       <c r="B1056" s="1" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="C1056" s="1" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="D1056" s="1" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="1057" ht="75" hidden="1" spans="2:5">
       <c r="B1057" s="1" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="C1057" s="1" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="D1057" s="1" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="E1057" s="1" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1058" hidden="1" spans="2:4">
       <c r="B1058" s="1" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="C1058" s="1" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="D1058" s="1" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="1059" ht="37.5" hidden="1" spans="1:4">
@@ -41678,71 +41684,71 @@
         <v>0</v>
       </c>
       <c r="B1059" s="1" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="C1059" s="1" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="D1059" s="1" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="1060" hidden="1" spans="2:4">
       <c r="B1060" s="1" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="C1060" s="1" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="D1060" s="1" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="1061" hidden="1" spans="2:4">
       <c r="B1061" s="1" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="C1061" s="1" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="D1061" s="1" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="1062" spans="1:4">
       <c r="A1062" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1062" s="1" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="C1062" s="1" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="D1062" s="1" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="1063" hidden="1" spans="2:4">
       <c r="B1063" s="1" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="C1063" s="1" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="D1063" s="1" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="1064" hidden="1" spans="2:4">
       <c r="B1064" s="1" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="C1064" s="1" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="D1064" s="1" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="1065" hidden="1" spans="1:4">
@@ -41750,49 +41756,49 @@
         <v>0</v>
       </c>
       <c r="B1065" s="1" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="C1065" s="1" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="D1065" s="1" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="1066" hidden="1" spans="2:4">
       <c r="B1066" s="1" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="C1066" s="1" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="D1066" s="1" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="1067" hidden="1" spans="2:4">
       <c r="B1067" s="1" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="C1067" s="1" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="D1067" s="1" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="1068" spans="1:4">
       <c r="A1068" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1068" s="1" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="C1068" s="1" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="D1068" s="1" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="1069" hidden="1" spans="1:4">
@@ -41800,63 +41806,63 @@
         <v>0</v>
       </c>
       <c r="B1069" s="1" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="C1069" s="1" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="D1069" s="1" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="1070" spans="1:5">
       <c r="A1070" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1070" s="1" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="C1070" s="1" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="D1070" s="1" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="E1070" s="1" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
     </row>
     <row r="1071" hidden="1" spans="2:4">
       <c r="B1071" s="1" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="C1071" s="1" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="D1071" s="1" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="1072" hidden="1" spans="2:4">
       <c r="B1072" s="1" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="C1072" s="1" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="D1072" s="1" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="1073" hidden="1" spans="2:4">
       <c r="B1073" s="1" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="C1073" s="1" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="D1073" s="1" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
     </row>
     <row r="1074" hidden="1" spans="1:4">
@@ -41864,122 +41870,122 @@
         <v>0</v>
       </c>
       <c r="B1074" s="1" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="C1074" s="1" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="D1074" s="1" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="1075" ht="75" hidden="1" spans="2:5">
       <c r="B1075" s="1" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="C1075" s="1" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="D1075" s="1" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="E1075" s="1" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="1076" hidden="1" spans="2:5">
       <c r="B1076" s="1" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="C1076" s="1" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="D1076" s="1" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="E1076" s="1" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="1077" spans="1:4">
       <c r="A1077" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1077" s="1" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="C1077" s="1" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="D1077" s="1" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="1078" hidden="1" spans="2:4">
       <c r="B1078" s="1" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="C1078" s="1" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="D1078" s="1" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="1079" spans="1:4">
       <c r="A1079" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1079" s="1" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="C1079" s="1" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="D1079" s="1" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1080" hidden="1" spans="2:4">
       <c r="B1080" s="1" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="C1080" s="1" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="D1080" s="1" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="1081" ht="112.5" spans="1:5">
       <c r="A1081" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1081" s="1" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="C1081" s="1" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="D1081" s="1" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="E1081" s="1" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="1082" spans="1:4">
       <c r="A1082" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1082" s="1" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="C1082" s="1" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="D1082" s="1" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="1083" hidden="1" spans="1:4">
@@ -41987,30 +41993,30 @@
         <v>0</v>
       </c>
       <c r="B1083" s="1" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="C1083" s="1" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="D1083" s="1" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="1084" spans="1:5">
       <c r="A1084" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1084" s="1" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="C1084" s="1" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="D1084" s="1" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="E1084" s="1" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="1085" ht="37.5" hidden="1" spans="1:4">
@@ -42018,126 +42024,126 @@
         <v>0</v>
       </c>
       <c r="B1085" s="1" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="C1085" s="1" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="D1085" s="1" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="1086" hidden="1" spans="2:4">
       <c r="B1086" s="1" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="C1086" s="1" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="D1086" s="1" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="1087" hidden="1" spans="2:4">
       <c r="B1087" s="1" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="C1087" s="1" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="D1087" s="1" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="1088" ht="37.5" hidden="1" spans="2:4">
       <c r="B1088" s="1" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="C1088" s="1" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="D1088" s="1" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="1089" hidden="1" spans="2:4">
       <c r="B1089" s="1" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="C1089" s="1" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="D1089" s="1" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1090" hidden="1" spans="2:4">
       <c r="B1090" s="1" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="C1090" s="1" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="D1090" s="1" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="1091" hidden="1" spans="2:4">
       <c r="B1091" s="1" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="C1091" s="1" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="D1091" s="1" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1092" ht="37.5" hidden="1" spans="2:4">
       <c r="B1092" s="1" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="C1092" s="1" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="D1092" s="1" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="1093" spans="1:4">
       <c r="A1093" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1093" s="1" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="C1093" s="1" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="D1093" s="1" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="1094" hidden="1" spans="2:4">
       <c r="B1094" s="1" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="C1094" s="1" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="D1094" s="1" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="1095" hidden="1" spans="2:4">
       <c r="B1095" s="1" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="C1095" s="1" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="D1095" s="1" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="1096" hidden="1" spans="1:4">
@@ -42145,442 +42151,442 @@
         <v>0</v>
       </c>
       <c r="B1096" s="1" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="C1096" s="1" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="D1096" s="1" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="1097" hidden="1" spans="2:5">
       <c r="B1097" s="1" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="C1097" s="1" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="D1097" s="1" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="E1097" s="1" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="1098" spans="1:4">
+    <row r="1098" hidden="1" spans="1:4">
       <c r="A1098" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1098" s="1" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="C1098" s="1" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="D1098" s="1" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="1099" hidden="1" spans="2:4">
       <c r="B1099" s="1" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="C1099" s="1" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="D1099" s="1" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1100" hidden="1" spans="2:4">
       <c r="B1100" s="1" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="C1100" s="1" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="D1100" s="1" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1101" ht="37.5" hidden="1" spans="2:4">
       <c r="B1101" s="1" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="C1101" s="1" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="D1101" s="1" t="s">
-        <v>3536</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:4">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="1102" hidden="1" spans="1:4">
       <c r="A1102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1102" s="1" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="C1102" s="1" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="D1102" s="1" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1103" hidden="1" spans="2:5">
       <c r="B1103" s="1" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="C1103" s="1" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="D1103" s="1" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="E1103" s="1" t="s">
-        <v>3543</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:5">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="1104" hidden="1" spans="1:5">
       <c r="A1104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1104" s="1" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="C1104" s="1" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="D1104" s="1" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="E1104" s="1" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="1105" ht="37.5" hidden="1" spans="2:4">
       <c r="B1105" s="1" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="C1105" s="1" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="D1105" s="1" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="1106" hidden="1" spans="2:4">
       <c r="B1106" s="1" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="C1106" s="1" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="D1106" s="1" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="1107" hidden="1" spans="2:4">
       <c r="B1107" s="1" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="C1107" s="1" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="D1107" s="1" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1108" hidden="1" spans="2:4">
       <c r="B1108" s="1" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="C1108" s="1" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="D1108" s="1" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="1109" ht="37.5" hidden="1" spans="2:5">
       <c r="B1109" s="1" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="C1109" s="1" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="D1109" s="1" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="E1109" s="1" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="1110" ht="37.5" hidden="1" spans="2:5">
       <c r="B1110" s="1" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="C1110" s="1" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="D1110" s="1" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="E1110" s="1" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="1111" hidden="1" spans="2:4">
       <c r="B1111" s="1" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="C1111" s="1" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="D1111" s="1" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="1112" hidden="1" spans="2:4">
       <c r="B1112" s="1" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="C1112" s="1" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="D1112" s="1" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="1113" hidden="1" spans="2:4">
       <c r="B1113" s="1" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
       <c r="C1113" s="1" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="D1113" s="1" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="1114" ht="56.25" hidden="1" spans="2:5">
       <c r="B1114" s="1" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="C1114" s="1" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="D1114" s="1" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="E1114" s="1" t="s">
-        <v>3580</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:4">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="1115" hidden="1" spans="1:4">
       <c r="A1115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1115" s="1" t="s">
-        <v>3581</v>
+        <v>3582</v>
       </c>
       <c r="C1115" s="1" t="s">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="D1115" s="1" t="s">
-        <v>3583</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="1116" hidden="1" spans="2:4">
       <c r="B1116" s="1" t="s">
-        <v>3584</v>
+        <v>3585</v>
       </c>
       <c r="C1116" s="1" t="s">
-        <v>3585</v>
+        <v>3586</v>
       </c>
       <c r="D1116" s="1" t="s">
-        <v>3586</v>
+        <v>3587</v>
       </c>
     </row>
     <row r="1117" hidden="1" spans="2:5">
       <c r="B1117" s="1" t="s">
-        <v>3587</v>
+        <v>3588</v>
       </c>
       <c r="C1117" s="1" t="s">
-        <v>3588</v>
+        <v>3589</v>
       </c>
       <c r="D1117" s="1" t="s">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="E1117" s="1" t="s">
-        <v>3590</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="1118" ht="37.5" hidden="1" spans="2:5">
       <c r="B1118" s="1" t="s">
-        <v>3591</v>
+        <v>3592</v>
       </c>
       <c r="C1118" s="1" t="s">
-        <v>3592</v>
+        <v>3593</v>
       </c>
       <c r="D1118" s="1" t="s">
-        <v>3593</v>
+        <v>3594</v>
       </c>
       <c r="E1118" s="1" t="s">
-        <v>3594</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1119" hidden="1" spans="2:5">
       <c r="B1119" s="1" t="s">
-        <v>3595</v>
+        <v>3596</v>
       </c>
       <c r="C1119" s="1" t="s">
-        <v>3596</v>
+        <v>3597</v>
       </c>
       <c r="D1119" s="1" t="s">
-        <v>3597</v>
+        <v>3598</v>
       </c>
       <c r="E1119" s="1" t="s">
-        <v>3598</v>
-      </c>
-    </row>
-    <row r="1120" ht="37.5" spans="1:4">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="1120" ht="37.5" hidden="1" spans="1:4">
       <c r="A1120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1120" s="1" t="s">
-        <v>3599</v>
+        <v>3600</v>
       </c>
       <c r="C1120" s="1" t="s">
-        <v>3600</v>
+        <v>3601</v>
       </c>
       <c r="D1120" s="1" t="s">
-        <v>3601</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1121" ht="37.5" hidden="1" spans="2:5">
       <c r="B1121" s="1" t="s">
-        <v>3602</v>
+        <v>3603</v>
       </c>
       <c r="C1121" s="1" t="s">
-        <v>3603</v>
+        <v>3604</v>
       </c>
       <c r="D1121" s="1" t="s">
-        <v>3604</v>
+        <v>3605</v>
       </c>
       <c r="E1121" s="1" t="s">
-        <v>3605</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="1122" ht="131.25" hidden="1" spans="2:5">
       <c r="B1122" s="1" t="s">
-        <v>3606</v>
+        <v>3607</v>
       </c>
       <c r="C1122" s="1" t="s">
-        <v>3607</v>
+        <v>3608</v>
       </c>
       <c r="D1122" s="1" t="s">
-        <v>3608</v>
+        <v>3609</v>
       </c>
       <c r="E1122" s="1" t="s">
-        <v>3609</v>
-      </c>
-    </row>
-    <row r="1123" ht="37.5" spans="1:5">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="1123" ht="37.5" hidden="1" spans="1:5">
       <c r="A1123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1123" s="1" t="s">
-        <v>3610</v>
+        <v>3611</v>
       </c>
       <c r="C1123" s="1" t="s">
-        <v>3611</v>
+        <v>3612</v>
       </c>
       <c r="D1123" s="1" t="s">
-        <v>3612</v>
+        <v>3613</v>
       </c>
       <c r="E1123" s="1" t="s">
-        <v>3613</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="1124" ht="37.5" hidden="1" spans="2:4">
       <c r="B1124" s="1" t="s">
-        <v>3614</v>
+        <v>3615</v>
       </c>
       <c r="C1124" s="1" t="s">
-        <v>3615</v>
+        <v>3616</v>
       </c>
       <c r="D1124" s="1" t="s">
-        <v>3616</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:4">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="1125" hidden="1" spans="1:4">
       <c r="A1125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1125" s="1" t="s">
-        <v>3617</v>
+        <v>3618</v>
       </c>
       <c r="C1125" s="1" t="s">
-        <v>3618</v>
+        <v>3619</v>
       </c>
       <c r="D1125" s="1" t="s">
-        <v>3619</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="1126" ht="37.5" hidden="1" spans="2:5">
       <c r="B1126" s="1" t="s">
-        <v>3620</v>
+        <v>3621</v>
       </c>
       <c r="C1126" s="1" t="s">
-        <v>3621</v>
+        <v>3622</v>
       </c>
       <c r="D1126" s="1" t="s">
-        <v>3622</v>
+        <v>3623</v>
       </c>
       <c r="E1126" s="1" t="s">
-        <v>3623</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="1127" spans="1:4">
       <c r="A1127" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1127" s="1" t="s">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="C1127" s="1" t="s">
-        <v>3625</v>
+        <v>3626</v>
       </c>
       <c r="D1127" s="1" t="s">
-        <v>3626</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="1128" ht="56.25" hidden="1" spans="2:5">
       <c r="B1128" s="1" t="s">
-        <v>3627</v>
+        <v>3628</v>
       </c>
       <c r="C1128" s="1" t="s">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="D1128" s="1" t="s">
-        <v>3629</v>
+        <v>3630</v>
       </c>
       <c r="E1128" s="1" t="s">
-        <v>3630</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="1129" hidden="1" spans="2:4">
       <c r="B1129" s="1" t="s">
-        <v>3631</v>
+        <v>3632</v>
       </c>
       <c r="C1129" s="1" t="s">
-        <v>3632</v>
+        <v>3633</v>
       </c>
       <c r="D1129" s="1" t="s">
-        <v>3633</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="1130" ht="37.5" spans="1:4">
@@ -42588,202 +42594,202 @@
         <v>1</v>
       </c>
       <c r="B1130" s="1" t="s">
-        <v>3634</v>
+        <v>3635</v>
       </c>
       <c r="C1130" s="1" t="s">
-        <v>3635</v>
+        <v>3636</v>
       </c>
       <c r="D1130" s="1" t="s">
-        <v>3636</v>
-      </c>
-    </row>
-    <row r="1131" ht="37.5" spans="1:4">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="1131" ht="37.5" hidden="1" spans="1:4">
       <c r="A1131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1131" s="1" t="s">
-        <v>3637</v>
+        <v>3638</v>
       </c>
       <c r="C1131" s="1" t="s">
-        <v>3638</v>
+        <v>3639</v>
       </c>
       <c r="D1131" s="1" t="s">
-        <v>3639</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="1132" hidden="1" spans="2:4">
       <c r="B1132" s="1" t="s">
-        <v>3640</v>
+        <v>3641</v>
       </c>
       <c r="C1132" s="1" t="s">
-        <v>3641</v>
+        <v>3642</v>
       </c>
       <c r="D1132" s="1" t="s">
-        <v>3642</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="1133" hidden="1" spans="2:4">
       <c r="B1133" s="1" t="s">
-        <v>3643</v>
+        <v>3644</v>
       </c>
       <c r="C1133" s="1" t="s">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="D1133" s="1" t="s">
-        <v>3645</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="1134" ht="93.75" spans="1:5">
       <c r="A1134" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1134" s="1" t="s">
-        <v>3646</v>
+        <v>3647</v>
       </c>
       <c r="C1134" s="1" t="s">
-        <v>3647</v>
+        <v>3648</v>
       </c>
       <c r="D1134" s="1" t="s">
-        <v>3648</v>
+        <v>3649</v>
       </c>
       <c r="E1134" s="1" t="s">
-        <v>3649</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1135" ht="37.5" hidden="1" spans="2:4">
       <c r="B1135" s="1" t="s">
-        <v>3650</v>
+        <v>3651</v>
       </c>
       <c r="C1135" s="1" t="s">
-        <v>3651</v>
+        <v>3652</v>
       </c>
       <c r="D1135" s="1" t="s">
-        <v>3652</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1136" ht="56.25" hidden="1" spans="2:5">
       <c r="B1136" s="1" t="s">
-        <v>3653</v>
+        <v>3654</v>
       </c>
       <c r="C1136" s="1" t="s">
-        <v>3654</v>
+        <v>3655</v>
       </c>
       <c r="D1136" s="1" t="s">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="E1136" s="1" t="s">
-        <v>3656</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="1137" ht="37.5" hidden="1" spans="2:4">
       <c r="B1137" s="1" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="C1137" s="1" t="s">
-        <v>3658</v>
+        <v>3659</v>
       </c>
       <c r="D1137" s="1" t="s">
-        <v>3659</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="1138" ht="37.5" hidden="1" spans="2:4">
       <c r="B1138" s="1" t="s">
-        <v>3660</v>
+        <v>3661</v>
       </c>
       <c r="C1138" s="1" t="s">
-        <v>3661</v>
+        <v>3662</v>
       </c>
       <c r="D1138" s="1" t="s">
-        <v>3662</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1139" hidden="1" spans="2:4">
       <c r="B1139" s="1" t="s">
-        <v>3663</v>
+        <v>3664</v>
       </c>
       <c r="C1139" s="1" t="s">
-        <v>3664</v>
+        <v>3665</v>
       </c>
       <c r="D1139" s="1" t="s">
-        <v>3665</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="1140" ht="56.25" hidden="1" spans="2:5">
       <c r="B1140" s="1" t="s">
-        <v>3666</v>
+        <v>3667</v>
       </c>
       <c r="C1140" s="1" t="s">
-        <v>3667</v>
+        <v>3668</v>
       </c>
       <c r="D1140" s="1" t="s">
-        <v>3668</v>
+        <v>3669</v>
       </c>
       <c r="E1140" s="1" t="s">
-        <v>3669</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:4">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="1141" hidden="1" spans="1:4">
       <c r="A1141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1141" s="1" t="s">
-        <v>3670</v>
+        <v>3671</v>
       </c>
       <c r="C1141" s="1" t="s">
-        <v>3671</v>
+        <v>3672</v>
       </c>
       <c r="D1141" s="1" t="s">
-        <v>3672</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="1142" hidden="1" spans="2:4">
       <c r="B1142" s="1" t="s">
-        <v>3673</v>
+        <v>3674</v>
       </c>
       <c r="C1142" s="1" t="s">
-        <v>3674</v>
+        <v>3675</v>
       </c>
       <c r="D1142" s="1" t="s">
-        <v>3675</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="1143" ht="37.5" hidden="1" spans="2:4">
       <c r="B1143" s="1" t="s">
-        <v>3676</v>
+        <v>3677</v>
       </c>
       <c r="C1143" s="1" t="s">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="D1143" s="1" t="s">
-        <v>3678</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="1144" ht="112.5" hidden="1" spans="2:5">
       <c r="B1144" s="1" t="s">
-        <v>3679</v>
+        <v>3680</v>
       </c>
       <c r="C1144" s="1" t="s">
-        <v>3680</v>
+        <v>3681</v>
       </c>
       <c r="D1144" s="1" t="s">
-        <v>3681</v>
+        <v>3682</v>
       </c>
       <c r="E1144" s="1" t="s">
-        <v>3682</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="1145" ht="56.25" hidden="1" spans="2:5">
       <c r="B1145" s="1" t="s">
-        <v>3683</v>
+        <v>3684</v>
       </c>
       <c r="C1145" s="1" t="s">
-        <v>3684</v>
+        <v>3685</v>
       </c>
       <c r="D1145" s="1" t="s">
-        <v>3685</v>
+        <v>3686</v>
       </c>
       <c r="E1145" s="1" t="s">
-        <v>3686</v>
+        <v>3687</v>
       </c>
     </row>
     <row r="1146" ht="131.25" spans="1:5">
@@ -42791,476 +42797,476 @@
         <v>1</v>
       </c>
       <c r="B1146" s="1" t="s">
-        <v>3687</v>
+        <v>3688</v>
       </c>
       <c r="C1146" s="1" t="s">
-        <v>3688</v>
+        <v>3689</v>
       </c>
       <c r="D1146" s="1" t="s">
-        <v>3689</v>
+        <v>3690</v>
       </c>
       <c r="E1146" s="1" t="s">
-        <v>3690</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:4">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="1147" hidden="1" spans="1:4">
       <c r="A1147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1147" s="1" t="s">
-        <v>3691</v>
+        <v>3692</v>
       </c>
       <c r="C1147" s="1" t="s">
-        <v>3692</v>
+        <v>3693</v>
       </c>
       <c r="D1147" s="1" t="s">
-        <v>3693</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="1148" ht="131.25" hidden="1" spans="2:5">
       <c r="B1148" s="1" t="s">
-        <v>3694</v>
+        <v>3695</v>
       </c>
       <c r="C1148" s="1" t="s">
-        <v>3695</v>
+        <v>3696</v>
       </c>
       <c r="D1148" s="1" t="s">
-        <v>3696</v>
+        <v>3697</v>
       </c>
       <c r="E1148" s="1" t="s">
-        <v>3697</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="1149" ht="131.25" hidden="1" spans="2:5">
       <c r="B1149" s="1" t="s">
-        <v>3698</v>
+        <v>3699</v>
       </c>
       <c r="C1149" s="1" t="s">
-        <v>3699</v>
+        <v>3700</v>
       </c>
       <c r="D1149" s="1" t="s">
-        <v>3700</v>
+        <v>3701</v>
       </c>
       <c r="E1149" s="1" t="s">
-        <v>3701</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="1150" ht="37.5" hidden="1" spans="2:4">
       <c r="B1150" s="1" t="s">
-        <v>3702</v>
+        <v>3703</v>
       </c>
       <c r="C1150" s="1" t="s">
-        <v>3703</v>
+        <v>3704</v>
       </c>
       <c r="D1150" s="1" t="s">
-        <v>3704</v>
+        <v>3705</v>
       </c>
     </row>
     <row r="1151" ht="37.5" hidden="1" spans="2:5">
       <c r="B1151" s="1" t="s">
-        <v>3705</v>
+        <v>3706</v>
       </c>
       <c r="C1151" s="1" t="s">
-        <v>3706</v>
+        <v>3707</v>
       </c>
       <c r="D1151" s="1" t="s">
-        <v>3707</v>
+        <v>3708</v>
       </c>
       <c r="E1151" s="1" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="1152" ht="150" hidden="1" spans="2:5">
       <c r="B1152" s="1" t="s">
-        <v>3709</v>
+        <v>3710</v>
       </c>
       <c r="C1152" s="1" t="s">
-        <v>3710</v>
+        <v>3711</v>
       </c>
       <c r="D1152" s="1" t="s">
-        <v>3711</v>
+        <v>3712</v>
       </c>
       <c r="E1152" s="1" t="s">
-        <v>3712</v>
+        <v>3713</v>
       </c>
     </row>
     <row r="1153" hidden="1" spans="2:4">
       <c r="B1153" s="1" t="s">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="C1153" s="1" t="s">
-        <v>3714</v>
+        <v>3715</v>
       </c>
       <c r="D1153" s="1" t="s">
-        <v>3715</v>
+        <v>3716</v>
       </c>
     </row>
     <row r="1154" spans="1:5">
       <c r="A1154" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1154" s="1" t="s">
-        <v>3716</v>
+        <v>3717</v>
       </c>
       <c r="C1154" s="1" t="s">
-        <v>3717</v>
+        <v>3718</v>
       </c>
       <c r="D1154" s="1" t="s">
-        <v>3718</v>
+        <v>3719</v>
       </c>
       <c r="E1154" s="1" t="s">
-        <v>3719</v>
+        <v>3720</v>
       </c>
     </row>
     <row r="1155" hidden="1" spans="2:4">
       <c r="B1155" s="1" t="s">
-        <v>3720</v>
+        <v>3721</v>
       </c>
       <c r="C1155" s="1" t="s">
-        <v>3721</v>
+        <v>3722</v>
       </c>
       <c r="D1155" s="1" t="s">
-        <v>3722</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="1156" hidden="1" spans="2:4">
       <c r="B1156" s="1" t="s">
-        <v>3723</v>
+        <v>3724</v>
       </c>
       <c r="C1156" s="1" t="s">
-        <v>3724</v>
+        <v>3725</v>
       </c>
       <c r="D1156" s="1" t="s">
-        <v>3725</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="1157" hidden="1" spans="2:4">
       <c r="B1157" s="1" t="s">
-        <v>3726</v>
+        <v>3727</v>
       </c>
       <c r="C1157" s="1" t="s">
-        <v>3727</v>
+        <v>3728</v>
       </c>
       <c r="D1157" s="1" t="s">
-        <v>3728</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="1158" ht="37.5" hidden="1" spans="2:4">
       <c r="B1158" s="1" t="s">
-        <v>3729</v>
+        <v>3730</v>
       </c>
       <c r="C1158" s="1" t="s">
-        <v>3730</v>
+        <v>3731</v>
       </c>
       <c r="D1158" s="1" t="s">
-        <v>3731</v>
+        <v>3732</v>
       </c>
     </row>
     <row r="1159" spans="1:4">
       <c r="A1159" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1159" s="1" t="s">
-        <v>3732</v>
+        <v>3733</v>
       </c>
       <c r="C1159" s="1" t="s">
-        <v>3733</v>
+        <v>3734</v>
       </c>
       <c r="D1159" s="1" t="s">
-        <v>3734</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="1160" ht="37.5" spans="1:4">
       <c r="A1160" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1160" s="1" t="s">
-        <v>3735</v>
+        <v>3736</v>
       </c>
       <c r="C1160" s="1" t="s">
-        <v>3736</v>
+        <v>3737</v>
       </c>
       <c r="D1160" s="1" t="s">
-        <v>3737</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="1161" spans="1:5">
       <c r="A1161" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1161" s="1" t="s">
-        <v>3738</v>
+        <v>3739</v>
       </c>
       <c r="C1161" s="1" t="s">
-        <v>3739</v>
+        <v>3740</v>
       </c>
       <c r="D1161" s="1" t="s">
-        <v>3740</v>
+        <v>3741</v>
       </c>
       <c r="E1161" s="1" t="s">
-        <v>3741</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:5">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="1162" hidden="1" spans="1:5">
       <c r="A1162" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1162" s="1" t="s">
-        <v>3742</v>
+        <v>3743</v>
       </c>
       <c r="C1162" s="1" t="s">
-        <v>3743</v>
+        <v>3744</v>
       </c>
       <c r="D1162" s="1" t="s">
-        <v>3744</v>
+        <v>3745</v>
       </c>
       <c r="E1162" s="1" t="s">
-        <v>3745</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="1163" hidden="1" spans="2:4">
       <c r="B1163" s="1" t="s">
-        <v>3746</v>
+        <v>3747</v>
       </c>
       <c r="C1163" s="1" t="s">
-        <v>3747</v>
+        <v>3748</v>
       </c>
       <c r="D1163" s="1" t="s">
-        <v>3748</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="1164" ht="37.5" hidden="1" spans="2:4">
       <c r="B1164" s="1" t="s">
-        <v>3749</v>
+        <v>3750</v>
       </c>
       <c r="C1164" s="1" t="s">
-        <v>3750</v>
+        <v>3751</v>
       </c>
       <c r="D1164" s="1" t="s">
-        <v>3751</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="1165" spans="1:4">
       <c r="A1165" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1165" s="1" t="s">
-        <v>3752</v>
+        <v>3753</v>
       </c>
       <c r="C1165" s="1" t="s">
-        <v>3753</v>
+        <v>3754</v>
       </c>
       <c r="D1165" s="1" t="s">
-        <v>3754</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="1166" hidden="1" spans="2:4">
       <c r="B1166" s="1" t="s">
-        <v>3755</v>
+        <v>3756</v>
       </c>
       <c r="C1166" s="1" t="s">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="D1166" s="1" t="s">
-        <v>3757</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="1167" spans="1:5">
       <c r="A1167" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1167" s="1" t="s">
-        <v>3758</v>
+        <v>3759</v>
       </c>
       <c r="C1167" s="1" t="s">
-        <v>3759</v>
+        <v>3760</v>
       </c>
       <c r="D1167" s="1" t="s">
-        <v>3760</v>
+        <v>3761</v>
       </c>
       <c r="E1167" s="1" t="s">
-        <v>3761</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="1168" hidden="1" spans="2:4">
       <c r="B1168" s="1" t="s">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="C1168" s="1" t="s">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="D1168" s="1" t="s">
-        <v>3764</v>
+        <v>3765</v>
       </c>
     </row>
     <row r="1169" hidden="1" spans="2:4">
       <c r="B1169" s="1" t="s">
-        <v>3765</v>
+        <v>3766</v>
       </c>
       <c r="C1169" s="1" t="s">
-        <v>3766</v>
+        <v>3767</v>
       </c>
       <c r="D1169" s="1" t="s">
-        <v>3767</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:4">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="1170" hidden="1" spans="1:4">
       <c r="A1170" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1170" s="1" t="s">
-        <v>3768</v>
+        <v>3769</v>
       </c>
       <c r="C1170" s="1" t="s">
-        <v>3769</v>
+        <v>3770</v>
       </c>
       <c r="D1170" s="1" t="s">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:4">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="1171" hidden="1" spans="1:4">
       <c r="A1171" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1171" s="1" t="s">
-        <v>3771</v>
+        <v>3772</v>
       </c>
       <c r="C1171" s="1" t="s">
-        <v>3772</v>
+        <v>3773</v>
       </c>
       <c r="D1171" s="1" t="s">
-        <v>3773</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="1172" hidden="1" spans="2:4">
       <c r="B1172" s="1" t="s">
-        <v>3774</v>
+        <v>3775</v>
       </c>
       <c r="C1172" s="1" t="s">
-        <v>3775</v>
+        <v>3776</v>
       </c>
       <c r="D1172" s="1" t="s">
-        <v>3776</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:5">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="1173" hidden="1" spans="1:5">
       <c r="A1173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1173" s="1" t="s">
-        <v>3777</v>
+        <v>3778</v>
       </c>
       <c r="C1173" s="1" t="s">
-        <v>3778</v>
+        <v>3779</v>
       </c>
       <c r="D1173" s="1" t="s">
-        <v>3779</v>
+        <v>3780</v>
       </c>
       <c r="E1173" s="1" t="s">
-        <v>3780</v>
+        <v>3781</v>
       </c>
     </row>
     <row r="1174" hidden="1" spans="2:4">
       <c r="B1174" s="1" t="s">
-        <v>3781</v>
+        <v>3782</v>
       </c>
       <c r="C1174" s="1" t="s">
-        <v>3782</v>
+        <v>3783</v>
       </c>
       <c r="D1174" s="1" t="s">
-        <v>3783</v>
+        <v>3784</v>
       </c>
     </row>
     <row r="1175" spans="1:4">
       <c r="A1175" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1175" s="1" t="s">
-        <v>3784</v>
+        <v>3785</v>
       </c>
       <c r="C1175" s="1" t="s">
-        <v>3785</v>
+        <v>3786</v>
       </c>
       <c r="D1175" s="1" t="s">
-        <v>3786</v>
+        <v>3787</v>
       </c>
     </row>
     <row r="1176" spans="1:4">
       <c r="A1176" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1176" s="1" t="s">
-        <v>3787</v>
+        <v>3788</v>
       </c>
       <c r="C1176" s="1" t="s">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="D1176" s="1" t="s">
-        <v>3789</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:4">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="1177" hidden="1" spans="1:4">
       <c r="A1177" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1177" s="1" t="s">
-        <v>3790</v>
+        <v>3791</v>
       </c>
       <c r="C1177" s="1" t="s">
-        <v>3791</v>
+        <v>3792</v>
       </c>
       <c r="D1177" s="1" t="s">
-        <v>3792</v>
+        <v>3793</v>
       </c>
     </row>
     <row r="1178" hidden="1" spans="2:5">
       <c r="B1178" s="1" t="s">
-        <v>3793</v>
+        <v>3794</v>
       </c>
       <c r="C1178" s="1" t="s">
-        <v>3794</v>
+        <v>3795</v>
       </c>
       <c r="D1178" s="1" t="s">
-        <v>3795</v>
+        <v>3796</v>
       </c>
       <c r="E1178" s="1" t="s">
-        <v>3796</v>
+        <v>3797</v>
       </c>
     </row>
     <row r="1179" hidden="1" spans="2:4">
       <c r="B1179" s="1" t="s">
-        <v>3797</v>
+        <v>3798</v>
       </c>
       <c r="C1179" s="1" t="s">
-        <v>3798</v>
+        <v>3799</v>
       </c>
       <c r="D1179" s="1" t="s">
-        <v>3799</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:4">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="1180" hidden="1" spans="1:4">
       <c r="A1180" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1180" s="1" t="s">
-        <v>3800</v>
+        <v>3801</v>
       </c>
       <c r="C1180" s="1" t="s">
-        <v>3801</v>
+        <v>3802</v>
       </c>
       <c r="D1180" s="1" t="s">
-        <v>3802</v>
+        <v>3803</v>
       </c>
     </row>
     <row r="1181" hidden="1" spans="2:4">
       <c r="B1181" s="1" t="s">
-        <v>3803</v>
+        <v>3804</v>
       </c>
       <c r="C1181" s="1" t="s">
-        <v>3804</v>
+        <v>3805</v>
       </c>
       <c r="D1181" s="1" t="s">
-        <v>3805</v>
+        <v>3806</v>
       </c>
     </row>
     <row r="1182" ht="93.75" spans="1:5">
@@ -43268,414 +43274,414 @@
         <v>1</v>
       </c>
       <c r="B1182" s="1" t="s">
-        <v>3806</v>
+        <v>3807</v>
       </c>
       <c r="C1182" s="1" t="s">
-        <v>3807</v>
+        <v>3808</v>
       </c>
       <c r="D1182" s="1" t="s">
-        <v>3808</v>
+        <v>3809</v>
       </c>
       <c r="E1182" s="1" t="s">
-        <v>3809</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="1183" hidden="1" spans="2:4">
       <c r="B1183" s="1" t="s">
-        <v>3810</v>
+        <v>3811</v>
       </c>
       <c r="C1183" s="1" t="s">
-        <v>3811</v>
+        <v>3812</v>
       </c>
       <c r="D1183" s="1" t="s">
-        <v>3812</v>
+        <v>3813</v>
       </c>
     </row>
     <row r="1184" hidden="1" spans="2:4">
       <c r="B1184" s="1" t="s">
-        <v>3813</v>
+        <v>3814</v>
       </c>
       <c r="C1184" s="1" t="s">
-        <v>3814</v>
+        <v>3815</v>
       </c>
       <c r="D1184" s="1" t="s">
-        <v>3815</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:4">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="1185" hidden="1" spans="1:4">
       <c r="A1185" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1185" s="1" t="s">
-        <v>3816</v>
+        <v>3817</v>
       </c>
       <c r="C1185" s="1" t="s">
-        <v>3817</v>
+        <v>3818</v>
       </c>
       <c r="D1185" s="1" t="s">
-        <v>3818</v>
+        <v>3819</v>
       </c>
     </row>
     <row r="1186" hidden="1" spans="2:4">
       <c r="B1186" s="1" t="s">
-        <v>3819</v>
+        <v>3820</v>
       </c>
       <c r="C1186" s="1" t="s">
-        <v>3820</v>
+        <v>3821</v>
       </c>
       <c r="D1186" s="1" t="s">
-        <v>3821</v>
+        <v>3822</v>
       </c>
     </row>
     <row r="1187" ht="37.5" hidden="1" spans="2:5">
       <c r="B1187" s="1" t="s">
-        <v>3822</v>
+        <v>3823</v>
       </c>
       <c r="C1187" s="1" t="s">
-        <v>3823</v>
+        <v>3824</v>
       </c>
       <c r="D1187" s="1" t="s">
-        <v>3824</v>
+        <v>3825</v>
       </c>
       <c r="E1187" s="1" t="s">
-        <v>3825</v>
+        <v>3826</v>
       </c>
     </row>
     <row r="1188" spans="1:4">
       <c r="A1188" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1188" s="1" t="s">
-        <v>3826</v>
+        <v>3827</v>
       </c>
       <c r="C1188" s="1" t="s">
-        <v>3827</v>
+        <v>3828</v>
       </c>
       <c r="D1188" s="1" t="s">
-        <v>3828</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:5">
+        <v>3829</v>
+      </c>
+    </row>
+    <row r="1189" hidden="1" spans="1:5">
       <c r="A1189" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1189" s="1" t="s">
-        <v>3829</v>
+        <v>3830</v>
       </c>
       <c r="C1189" s="1" t="s">
-        <v>3830</v>
+        <v>3831</v>
       </c>
       <c r="D1189" s="1" t="s">
-        <v>3831</v>
+        <v>3832</v>
       </c>
       <c r="E1189" s="1" t="s">
-        <v>3832</v>
+        <v>3833</v>
       </c>
     </row>
     <row r="1190" ht="112.5" spans="1:5">
       <c r="A1190" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1190" s="1" t="s">
-        <v>3833</v>
+        <v>3834</v>
       </c>
       <c r="C1190" s="1" t="s">
-        <v>3834</v>
+        <v>3835</v>
       </c>
       <c r="D1190" s="1" t="s">
-        <v>3835</v>
+        <v>3836</v>
       </c>
       <c r="E1190" s="1" t="s">
-        <v>3836</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:4">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="1191" hidden="1" spans="1:4">
       <c r="A1191" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1191" s="1" t="s">
-        <v>3837</v>
+        <v>3838</v>
       </c>
       <c r="C1191" s="1" t="s">
-        <v>3838</v>
+        <v>3839</v>
       </c>
       <c r="D1191" s="1" t="s">
-        <v>3839</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:5">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="1192" hidden="1" spans="1:5">
       <c r="A1192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1192" s="1" t="s">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="C1192" s="1" t="s">
-        <v>3841</v>
+        <v>3842</v>
       </c>
       <c r="D1192" s="1" t="s">
-        <v>3842</v>
+        <v>3843</v>
       </c>
       <c r="E1192" s="1" t="s">
-        <v>3843</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="1193" ht="56.25" spans="1:5">
       <c r="A1193" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1193" s="1" t="s">
-        <v>3844</v>
+        <v>3845</v>
       </c>
       <c r="C1193" s="1" t="s">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="D1193" s="1" t="s">
-        <v>3846</v>
+        <v>3847</v>
       </c>
       <c r="E1193" s="1" t="s">
-        <v>3847</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="1194" hidden="1" spans="2:4">
       <c r="B1194" s="1" t="s">
-        <v>3848</v>
+        <v>3849</v>
       </c>
       <c r="C1194" s="1" t="s">
-        <v>3849</v>
+        <v>3850</v>
       </c>
       <c r="D1194" s="1" t="s">
-        <v>3850</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="1195" hidden="1" spans="2:4">
       <c r="B1195" s="1" t="s">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="C1195" s="1" t="s">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="D1195" s="1" t="s">
-        <v>3853</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="1196" spans="1:4">
       <c r="A1196" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1196" s="1" t="s">
-        <v>3854</v>
+        <v>3855</v>
       </c>
       <c r="C1196" s="1" t="s">
-        <v>3855</v>
+        <v>3856</v>
       </c>
       <c r="D1196" s="1" t="s">
-        <v>3856</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:4">
+        <v>3857</v>
+      </c>
+    </row>
+    <row r="1197" hidden="1" spans="1:4">
       <c r="A1197" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1197" s="1" t="s">
-        <v>3857</v>
+        <v>3858</v>
       </c>
       <c r="C1197" s="1" t="s">
-        <v>3858</v>
+        <v>3859</v>
       </c>
       <c r="D1197" s="1" t="s">
-        <v>3859</v>
+        <v>3860</v>
       </c>
     </row>
     <row r="1198" hidden="1" spans="2:4">
       <c r="B1198" s="1" t="s">
-        <v>3860</v>
+        <v>3861</v>
       </c>
       <c r="C1198" s="1" t="s">
-        <v>3861</v>
+        <v>3862</v>
       </c>
       <c r="D1198" s="1" t="s">
-        <v>3862</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:4">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="1199" hidden="1" spans="1:4">
       <c r="A1199" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1199" s="1" t="s">
-        <v>3863</v>
+        <v>3864</v>
       </c>
       <c r="C1199" s="1" t="s">
-        <v>3864</v>
+        <v>3865</v>
       </c>
       <c r="D1199" s="1" t="s">
-        <v>3865</v>
+        <v>3866</v>
       </c>
     </row>
     <row r="1200" hidden="1" spans="2:5">
       <c r="B1200" s="1" t="s">
-        <v>3866</v>
+        <v>3867</v>
       </c>
       <c r="C1200" s="1" t="s">
-        <v>3867</v>
+        <v>3868</v>
       </c>
       <c r="D1200" s="1" t="s">
-        <v>3868</v>
+        <v>3869</v>
       </c>
       <c r="E1200" s="1" t="s">
-        <v>3869</v>
+        <v>3870</v>
       </c>
     </row>
     <row r="1201" hidden="1" spans="2:5">
       <c r="B1201" s="1" t="s">
-        <v>3870</v>
+        <v>3871</v>
       </c>
       <c r="C1201" s="1" t="s">
-        <v>3871</v>
+        <v>3872</v>
       </c>
       <c r="D1201" s="1" t="s">
-        <v>3872</v>
+        <v>3873</v>
       </c>
       <c r="E1201" s="1" t="s">
-        <v>3873</v>
+        <v>3874</v>
       </c>
     </row>
     <row r="1202" hidden="1" spans="2:4">
       <c r="B1202" s="1" t="s">
-        <v>3874</v>
+        <v>3875</v>
       </c>
       <c r="C1202" s="1" t="s">
-        <v>3875</v>
+        <v>3876</v>
       </c>
       <c r="D1202" s="1" t="s">
-        <v>3876</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="1203" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
-        <v>3877</v>
+        <v>3878</v>
       </c>
       <c r="C1203" s="1" t="s">
-        <v>3878</v>
+        <v>3879</v>
       </c>
       <c r="D1203" s="1" t="s">
-        <v>3879</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="1204" hidden="1" spans="2:4">
       <c r="B1204" s="1" t="s">
-        <v>3880</v>
+        <v>3881</v>
       </c>
       <c r="C1204" s="1" t="s">
-        <v>3881</v>
+        <v>3882</v>
       </c>
       <c r="D1204" s="1" t="s">
-        <v>3882</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="1205" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
-        <v>3883</v>
+        <v>3884</v>
       </c>
       <c r="C1205" s="1" t="s">
-        <v>3884</v>
+        <v>3885</v>
       </c>
       <c r="D1205" s="1" t="s">
-        <v>3885</v>
+        <v>3886</v>
       </c>
     </row>
     <row r="1206" hidden="1" spans="2:4">
       <c r="B1206" s="1" t="s">
-        <v>3886</v>
+        <v>3887</v>
       </c>
       <c r="C1206" s="1" t="s">
-        <v>3887</v>
+        <v>3888</v>
       </c>
       <c r="D1206" s="1" t="s">
-        <v>3888</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="1207" hidden="1" spans="2:5">
       <c r="B1207" s="1" t="s">
-        <v>3889</v>
+        <v>3890</v>
       </c>
       <c r="C1207" s="1" t="s">
-        <v>3890</v>
+        <v>3891</v>
       </c>
       <c r="D1207" s="1" t="s">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="E1207" s="1" t="s">
-        <v>3892</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="1208" hidden="1" spans="2:4">
       <c r="B1208" s="1" t="s">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="C1208" s="1" t="s">
-        <v>3894</v>
+        <v>3895</v>
       </c>
       <c r="D1208" s="1" t="s">
-        <v>3895</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="1209" hidden="1" spans="2:4">
       <c r="B1209" s="1" t="s">
-        <v>3896</v>
+        <v>3897</v>
       </c>
       <c r="C1209" s="1" t="s">
-        <v>3897</v>
+        <v>3898</v>
       </c>
       <c r="D1209" s="1" t="s">
-        <v>3898</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="1210" hidden="1" spans="2:4">
       <c r="B1210" s="1" t="s">
-        <v>3899</v>
+        <v>3900</v>
       </c>
       <c r="C1210" s="1" t="s">
-        <v>3900</v>
+        <v>3901</v>
       </c>
       <c r="D1210" s="1" t="s">
-        <v>3901</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="1211" ht="75" hidden="1" spans="2:5">
       <c r="B1211" s="1" t="s">
-        <v>3902</v>
+        <v>3903</v>
       </c>
       <c r="C1211" s="1" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="D1211" s="1" t="s">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="E1211" s="1" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="1212" hidden="1" spans="2:4">
       <c r="B1212" s="1" t="s">
-        <v>3906</v>
+        <v>3907</v>
       </c>
       <c r="C1212" s="1" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="D1212" s="1" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
     </row>
     <row r="1213" hidden="1" spans="2:5">
       <c r="B1213" s="1" t="s">
-        <v>3909</v>
+        <v>3910</v>
       </c>
       <c r="C1213" s="1" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="D1213" s="1" t="s">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="E1213" s="1" t="s">
         <v>1639</v>
@@ -43683,1026 +43689,1026 @@
     </row>
     <row r="1214" hidden="1" spans="2:4">
       <c r="B1214" s="1" t="s">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="C1214" s="1" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="D1214" s="1" t="s">
-        <v>3914</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="1215" hidden="1" spans="2:5">
       <c r="B1215" s="1" t="s">
-        <v>3915</v>
+        <v>3916</v>
       </c>
       <c r="C1215" s="1" t="s">
-        <v>3916</v>
+        <v>3917</v>
       </c>
       <c r="D1215" s="1" t="s">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="E1215" s="1" t="s">
-        <v>3918</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="1216" hidden="1" spans="2:4">
       <c r="B1216" s="1" t="s">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="C1216" s="1" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="D1216" s="1" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="1217" hidden="1" spans="2:4">
       <c r="B1217" s="1" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
       <c r="C1217" s="1" t="s">
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="D1217" s="1" t="s">
-        <v>3924</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="1218" hidden="1" spans="2:4">
       <c r="B1218" s="1" t="s">
-        <v>3925</v>
+        <v>3926</v>
       </c>
       <c r="C1218" s="1" t="s">
-        <v>3926</v>
+        <v>3927</v>
       </c>
       <c r="D1218" s="1" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="1219" hidden="1" spans="2:4">
       <c r="B1219" s="1" t="s">
-        <v>3928</v>
+        <v>3929</v>
       </c>
       <c r="C1219" s="1" t="s">
-        <v>3929</v>
+        <v>3930</v>
       </c>
       <c r="D1219" s="1" t="s">
-        <v>3930</v>
+        <v>3931</v>
       </c>
     </row>
     <row r="1220" hidden="1" spans="2:4">
       <c r="B1220" s="1" t="s">
-        <v>3931</v>
+        <v>3932</v>
       </c>
       <c r="C1220" s="1" t="s">
-        <v>3932</v>
+        <v>3933</v>
       </c>
       <c r="D1220" s="1" t="s">
-        <v>3933</v>
+        <v>3934</v>
       </c>
     </row>
     <row r="1221" hidden="1" spans="2:5">
       <c r="B1221" s="1" t="s">
-        <v>3934</v>
+        <v>3935</v>
       </c>
       <c r="C1221" s="1" t="s">
-        <v>3935</v>
+        <v>3936</v>
       </c>
       <c r="D1221" s="1" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="E1221" s="1" t="s">
-        <v>3937</v>
+        <v>3938</v>
       </c>
     </row>
     <row r="1222" hidden="1" spans="2:5">
       <c r="B1222" s="1" t="s">
-        <v>3938</v>
+        <v>3939</v>
       </c>
       <c r="C1222" s="1" t="s">
-        <v>3939</v>
+        <v>3940</v>
       </c>
       <c r="D1222" s="1" t="s">
-        <v>3940</v>
+        <v>3941</v>
       </c>
       <c r="E1222" s="1" t="s">
-        <v>3941</v>
+        <v>3942</v>
       </c>
     </row>
     <row r="1223" hidden="1" spans="2:4">
       <c r="B1223" s="1" t="s">
-        <v>3942</v>
+        <v>3943</v>
       </c>
       <c r="C1223" s="1" t="s">
-        <v>3943</v>
+        <v>3944</v>
       </c>
       <c r="D1223" s="1" t="s">
-        <v>3944</v>
+        <v>3945</v>
       </c>
     </row>
     <row r="1224" ht="37.5" hidden="1" spans="2:4">
       <c r="B1224" s="1" t="s">
-        <v>3945</v>
+        <v>3946</v>
       </c>
       <c r="C1224" s="1" t="s">
-        <v>3946</v>
+        <v>3947</v>
       </c>
       <c r="D1224" s="1" t="s">
-        <v>3947</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="1225" hidden="1" spans="2:4">
       <c r="B1225" s="1" t="s">
-        <v>3948</v>
+        <v>3949</v>
       </c>
       <c r="C1225" s="1" t="s">
-        <v>3949</v>
+        <v>3950</v>
       </c>
       <c r="D1225" s="1" t="s">
-        <v>3950</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="1226" hidden="1" spans="2:4">
       <c r="B1226" s="1" t="s">
-        <v>3951</v>
+        <v>3952</v>
       </c>
       <c r="C1226" s="1" t="s">
-        <v>3952</v>
+        <v>3953</v>
       </c>
       <c r="D1226" s="1" t="s">
-        <v>3953</v>
+        <v>3954</v>
       </c>
     </row>
     <row r="1227" ht="112.5" hidden="1" spans="2:5">
       <c r="B1227" s="1" t="s">
-        <v>3954</v>
+        <v>3955</v>
       </c>
       <c r="C1227" s="1" t="s">
-        <v>3955</v>
+        <v>3956</v>
       </c>
       <c r="D1227" s="1" t="s">
-        <v>3956</v>
+        <v>3957</v>
       </c>
       <c r="E1227" s="1" t="s">
-        <v>3957</v>
+        <v>3958</v>
       </c>
     </row>
     <row r="1228" hidden="1" spans="2:4">
       <c r="B1228" s="1" t="s">
-        <v>3958</v>
+        <v>3959</v>
       </c>
       <c r="C1228" s="1" t="s">
-        <v>3959</v>
+        <v>3960</v>
       </c>
       <c r="D1228" s="1" t="s">
-        <v>3960</v>
+        <v>3961</v>
       </c>
     </row>
     <row r="1229" hidden="1" spans="2:4">
       <c r="B1229" s="1" t="s">
-        <v>3961</v>
+        <v>3962</v>
       </c>
       <c r="C1229" s="1" t="s">
-        <v>3962</v>
+        <v>3963</v>
       </c>
       <c r="D1229" s="1" t="s">
-        <v>3963</v>
+        <v>3964</v>
       </c>
     </row>
     <row r="1230" hidden="1" spans="2:4">
       <c r="B1230" s="1" t="s">
-        <v>3964</v>
+        <v>3965</v>
       </c>
       <c r="C1230" s="1" t="s">
-        <v>3965</v>
+        <v>3966</v>
       </c>
       <c r="D1230" s="1" t="s">
-        <v>3966</v>
+        <v>3967</v>
       </c>
     </row>
     <row r="1231" hidden="1" spans="2:5">
       <c r="B1231" s="1" t="s">
-        <v>3967</v>
+        <v>3968</v>
       </c>
       <c r="C1231" s="1" t="s">
-        <v>3968</v>
+        <v>3969</v>
       </c>
       <c r="D1231" s="1" t="s">
-        <v>3969</v>
+        <v>3970</v>
       </c>
       <c r="E1231" s="1" t="s">
-        <v>3970</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="1232" ht="37.5" hidden="1" spans="2:4">
       <c r="B1232" s="1" t="s">
-        <v>3971</v>
+        <v>3972</v>
       </c>
       <c r="C1232" s="1" t="s">
-        <v>3972</v>
+        <v>3973</v>
       </c>
       <c r="D1232" s="1" t="s">
-        <v>3973</v>
+        <v>3974</v>
       </c>
     </row>
     <row r="1233" hidden="1" spans="2:4">
       <c r="B1233" s="1" t="s">
-        <v>3974</v>
+        <v>3975</v>
       </c>
       <c r="C1233" s="1" t="s">
-        <v>3975</v>
+        <v>3976</v>
       </c>
       <c r="D1233" s="1" t="s">
-        <v>3976</v>
+        <v>3977</v>
       </c>
     </row>
     <row r="1234" hidden="1" spans="2:4">
       <c r="B1234" s="1" t="s">
-        <v>3977</v>
+        <v>3978</v>
       </c>
       <c r="C1234" s="1" t="s">
-        <v>3978</v>
+        <v>3979</v>
       </c>
       <c r="D1234" s="1" t="s">
-        <v>3979</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="1235" hidden="1" spans="2:4">
       <c r="B1235" s="1" t="s">
-        <v>3980</v>
+        <v>3981</v>
       </c>
       <c r="C1235" s="1" t="s">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="D1235" s="1" t="s">
-        <v>3982</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1236" hidden="1" spans="2:4">
       <c r="B1236" s="1" t="s">
-        <v>3983</v>
+        <v>3984</v>
       </c>
       <c r="C1236" s="1" t="s">
-        <v>3984</v>
+        <v>3985</v>
       </c>
       <c r="D1236" s="1" t="s">
-        <v>3985</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1237" hidden="1" spans="2:4">
       <c r="B1237" s="1" t="s">
-        <v>3986</v>
+        <v>3987</v>
       </c>
       <c r="C1237" s="1" t="s">
-        <v>3987</v>
+        <v>3988</v>
       </c>
       <c r="D1237" s="1" t="s">
-        <v>3988</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1238" hidden="1" spans="2:4">
       <c r="B1238" s="1" t="s">
-        <v>3989</v>
+        <v>3990</v>
       </c>
       <c r="C1238" s="1" t="s">
-        <v>3990</v>
+        <v>3991</v>
       </c>
       <c r="D1238" s="1" t="s">
-        <v>3991</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1239" ht="75" hidden="1" spans="2:5">
       <c r="B1239" s="1" t="s">
-        <v>3992</v>
+        <v>3993</v>
       </c>
       <c r="C1239" s="1" t="s">
-        <v>3993</v>
+        <v>3994</v>
       </c>
       <c r="D1239" s="1" t="s">
-        <v>3994</v>
+        <v>3995</v>
       </c>
       <c r="E1239" s="1" t="s">
-        <v>3995</v>
+        <v>3996</v>
       </c>
     </row>
     <row r="1240" hidden="1" spans="2:4">
       <c r="B1240" s="1" t="s">
-        <v>3996</v>
+        <v>3997</v>
       </c>
       <c r="C1240" s="1" t="s">
-        <v>3997</v>
+        <v>3998</v>
       </c>
       <c r="D1240" s="1" t="s">
-        <v>3998</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="1241" hidden="1" spans="2:4">
       <c r="B1241" s="1" t="s">
-        <v>3999</v>
+        <v>4000</v>
       </c>
       <c r="C1241" s="1" t="s">
-        <v>4000</v>
+        <v>4001</v>
       </c>
       <c r="D1241" s="1" t="s">
-        <v>4001</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1242" ht="37.5" hidden="1" spans="2:4">
       <c r="B1242" s="1" t="s">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="C1242" s="1" t="s">
-        <v>4003</v>
+        <v>4004</v>
       </c>
       <c r="D1242" s="1" t="s">
-        <v>4004</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="1243" hidden="1" spans="2:4">
       <c r="B1243" s="1" t="s">
-        <v>4005</v>
+        <v>4006</v>
       </c>
       <c r="C1243" s="1" t="s">
-        <v>4006</v>
+        <v>4007</v>
       </c>
       <c r="D1243" s="1" t="s">
-        <v>4007</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="1244" hidden="1" spans="2:4">
       <c r="B1244" s="1" t="s">
-        <v>4008</v>
+        <v>4009</v>
       </c>
       <c r="C1244" s="1" t="s">
-        <v>4009</v>
+        <v>4010</v>
       </c>
       <c r="D1244" s="1" t="s">
-        <v>4010</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="1245" ht="37.5" hidden="1" spans="2:4">
       <c r="B1245" s="1" t="s">
-        <v>4011</v>
+        <v>4012</v>
       </c>
       <c r="C1245" s="1" t="s">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="D1245" s="1" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1246" hidden="1" spans="2:5">
       <c r="B1246" s="1" t="s">
-        <v>3708</v>
+        <v>3709</v>
       </c>
       <c r="C1246" s="1" t="s">
-        <v>4014</v>
+        <v>4015</v>
       </c>
       <c r="D1246" s="1" t="s">
-        <v>4015</v>
+        <v>4016</v>
       </c>
       <c r="E1246" s="1" t="s">
-        <v>4016</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1247" hidden="1" spans="2:4">
       <c r="B1247" s="1" t="s">
-        <v>4017</v>
+        <v>4018</v>
       </c>
       <c r="C1247" s="1" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
       <c r="D1247" s="1" t="s">
-        <v>4019</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1248" ht="37.5" hidden="1" spans="2:4">
       <c r="B1248" s="1" t="s">
-        <v>4020</v>
+        <v>4021</v>
       </c>
       <c r="C1248" s="1" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
       <c r="D1248" s="1" t="s">
-        <v>4022</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="1249" ht="37.5" hidden="1" spans="2:4">
       <c r="B1249" s="1" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
       <c r="C1249" s="1" t="s">
-        <v>4024</v>
+        <v>4025</v>
       </c>
       <c r="D1249" s="1" t="s">
-        <v>4025</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1250" hidden="1" spans="2:4">
       <c r="B1250" s="1" t="s">
-        <v>4026</v>
+        <v>4027</v>
       </c>
       <c r="C1250" s="1" t="s">
-        <v>4027</v>
+        <v>4028</v>
       </c>
       <c r="D1250" s="1" t="s">
-        <v>4028</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="1251" hidden="1" spans="2:4">
       <c r="B1251" s="1" t="s">
-        <v>4029</v>
+        <v>4030</v>
       </c>
       <c r="C1251" s="1" t="s">
-        <v>4030</v>
+        <v>4031</v>
       </c>
       <c r="D1251" s="1" t="s">
-        <v>4031</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1252" ht="37.5" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
-        <v>4032</v>
+        <v>4033</v>
       </c>
       <c r="C1252" s="1" t="s">
-        <v>4033</v>
+        <v>4034</v>
       </c>
       <c r="D1252" s="1" t="s">
-        <v>4034</v>
+        <v>4035</v>
       </c>
       <c r="E1252" s="1" t="s">
-        <v>4035</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1253" hidden="1" spans="2:5">
       <c r="B1253" s="1" t="s">
-        <v>4036</v>
+        <v>4037</v>
       </c>
       <c r="C1253" s="1" t="s">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="D1253" s="1" t="s">
-        <v>4038</v>
+        <v>4039</v>
       </c>
       <c r="E1253" s="1" t="s">
-        <v>4039</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1254" ht="37.5" hidden="1" spans="2:4">
       <c r="B1254" s="1" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="C1254" s="1" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
       <c r="D1254" s="1" t="s">
-        <v>4042</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="1255" hidden="1" spans="2:4">
       <c r="B1255" s="1" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
       <c r="C1255" s="1" t="s">
-        <v>4044</v>
+        <v>4045</v>
       </c>
       <c r="D1255" s="1" t="s">
-        <v>4045</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="1256" hidden="1" spans="2:4">
       <c r="B1256" s="1" t="s">
-        <v>4046</v>
+        <v>4047</v>
       </c>
       <c r="C1256" s="1" t="s">
-        <v>4047</v>
+        <v>4048</v>
       </c>
       <c r="D1256" s="1" t="s">
-        <v>4048</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="1257" ht="37.5" hidden="1" spans="2:4">
       <c r="B1257" s="1" t="s">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="C1257" s="1" t="s">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="D1257" s="1" t="s">
-        <v>4051</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1258" hidden="1" spans="2:4">
       <c r="B1258" s="1" t="s">
-        <v>4052</v>
+        <v>4053</v>
       </c>
       <c r="C1258" s="1" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
       <c r="D1258" s="1" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="1259" ht="37.5" hidden="1" spans="2:5">
       <c r="B1259" s="1" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="C1259" s="1" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
       <c r="D1259" s="1" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
       <c r="E1259" s="1" t="s">
-        <v>4058</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1260" hidden="1" spans="2:4">
       <c r="B1260" s="1" t="s">
-        <v>4059</v>
+        <v>4060</v>
       </c>
       <c r="C1260" s="1" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
       <c r="D1260" s="1" t="s">
-        <v>4061</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="1261" hidden="1" spans="2:4">
       <c r="B1261" s="1" t="s">
-        <v>4062</v>
+        <v>4063</v>
       </c>
       <c r="C1261" s="1" t="s">
-        <v>4063</v>
+        <v>4064</v>
       </c>
       <c r="D1261" s="1" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="1262" hidden="1" spans="2:4">
       <c r="B1262" s="1" t="s">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="C1262" s="1" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
       <c r="D1262" s="1" t="s">
-        <v>4067</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="1263" hidden="1" spans="2:4">
       <c r="B1263" s="1" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="C1263" s="1" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
       <c r="D1263" s="1" t="s">
-        <v>4070</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="1264" hidden="1" spans="2:4">
       <c r="B1264" s="1" t="s">
-        <v>4071</v>
+        <v>4072</v>
       </c>
       <c r="C1264" s="1" t="s">
-        <v>4072</v>
+        <v>4073</v>
       </c>
       <c r="D1264" s="1" t="s">
-        <v>4073</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="1265" hidden="1" spans="2:4">
       <c r="B1265" s="1" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
       <c r="C1265" s="1" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
       <c r="D1265" s="1" t="s">
-        <v>4076</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="1266" hidden="1" spans="2:4">
       <c r="B1266" s="1" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
       <c r="C1266" s="1" t="s">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="D1266" s="1" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="1267" hidden="1" spans="2:4">
       <c r="B1267" s="1" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="C1267" s="1" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
       <c r="D1267" s="1" t="s">
-        <v>4082</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="1268" hidden="1" spans="2:4">
       <c r="B1268" s="1" t="s">
-        <v>4083</v>
+        <v>4084</v>
       </c>
       <c r="C1268" s="1" t="s">
-        <v>4084</v>
+        <v>4085</v>
       </c>
       <c r="D1268" s="1" t="s">
-        <v>4085</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="1269" hidden="1" spans="2:4">
       <c r="B1269" s="1" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
       <c r="C1269" s="1" t="s">
-        <v>4087</v>
+        <v>4088</v>
       </c>
       <c r="D1269" s="1" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="1270" hidden="1" spans="2:5">
       <c r="B1270" s="1" t="s">
-        <v>4089</v>
+        <v>4090</v>
       </c>
       <c r="C1270" s="1" t="s">
-        <v>4090</v>
+        <v>4091</v>
       </c>
       <c r="D1270" s="1" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
       <c r="E1270" s="1" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="1271" hidden="1" spans="2:4">
       <c r="B1271" s="1" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
       <c r="C1271" s="1" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
       <c r="D1271" s="1" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="1272" hidden="1" spans="2:4">
       <c r="B1272" s="1" t="s">
-        <v>4096</v>
+        <v>4097</v>
       </c>
       <c r="C1272" s="1" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="D1272" s="1" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="1273" ht="37.5" hidden="1" spans="2:4">
       <c r="B1273" s="1" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
       <c r="C1273" s="1" t="s">
-        <v>4100</v>
+        <v>4101</v>
       </c>
       <c r="D1273" s="1" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="1274" ht="37.5" hidden="1" spans="2:4">
       <c r="B1274" s="1" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
       <c r="C1274" s="1" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
       <c r="D1274" s="1" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="1275" hidden="1" spans="2:4">
       <c r="B1275" s="1" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
       <c r="C1275" s="1" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="D1275" s="1" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="1276" hidden="1" spans="2:4">
       <c r="B1276" s="1" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
       <c r="C1276" s="1" t="s">
-        <v>4109</v>
+        <v>4110</v>
       </c>
       <c r="D1276" s="1" t="s">
-        <v>4110</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="1277" hidden="1" spans="2:4">
       <c r="B1277" s="1" t="s">
-        <v>4111</v>
+        <v>4112</v>
       </c>
       <c r="C1277" s="1" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
       <c r="D1277" s="1" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="1278" hidden="1" spans="2:4">
       <c r="B1278" s="1" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
       <c r="C1278" s="1" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
       <c r="D1278" s="1" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="1279" hidden="1" spans="2:4">
       <c r="B1279" s="1" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="C1279" s="1" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
       <c r="D1279" s="1" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1280" hidden="1" spans="2:4">
       <c r="B1280" s="1" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
       <c r="C1280" s="1" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
       <c r="D1280" s="1" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="1281" hidden="1" spans="2:4">
       <c r="B1281" s="1" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="C1281" s="1" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
       <c r="D1281" s="1" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="1282" hidden="1" spans="2:5">
       <c r="B1282" s="1" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
       <c r="C1282" s="1" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
       <c r="D1282" s="1" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
       <c r="E1282" s="1" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1283" hidden="1" spans="2:4">
       <c r="B1283" s="1" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
       <c r="C1283" s="1" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
       <c r="D1283" s="1" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="1284" ht="37.5" hidden="1" spans="2:4">
       <c r="B1284" s="1" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
       <c r="C1284" s="1" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="D1284" s="1" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="1285" hidden="1" spans="2:4">
       <c r="B1285" s="1" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
       <c r="C1285" s="1" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
       <c r="D1285" s="1" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="1286" hidden="1" spans="2:4">
       <c r="B1286" s="1" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
       <c r="C1286" s="1" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="D1286" s="1" t="s">
-        <v>4141</v>
+        <v>4142</v>
       </c>
     </row>
     <row r="1287" hidden="1" spans="2:5">
       <c r="B1287" s="1" t="s">
-        <v>4142</v>
+        <v>4143</v>
       </c>
       <c r="C1287" s="1" t="s">
-        <v>4143</v>
+        <v>4144</v>
       </c>
       <c r="D1287" s="1" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="E1287" s="1" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="1288" hidden="1" spans="2:4">
       <c r="B1288" s="1" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
       <c r="C1288" s="1" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
       <c r="D1288" s="1" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="1289" hidden="1" spans="2:4">
       <c r="B1289" s="1" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
       <c r="C1289" s="1" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
       <c r="D1289" s="1" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="1290" hidden="1" spans="2:5">
       <c r="B1290" s="1" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
       <c r="C1290" s="1" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
       <c r="D1290" s="1" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
       <c r="E1290" s="1" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="1291" hidden="1" spans="2:4">
       <c r="B1291" s="1" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
       <c r="C1291" s="1" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
       <c r="D1291" s="1" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="1292" hidden="1" spans="2:4">
       <c r="B1292" s="1" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="C1292" s="1" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
       <c r="D1292" s="1" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="1293" hidden="1" spans="2:4">
       <c r="B1293" s="1" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
       <c r="C1293" s="1" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
       <c r="D1293" s="1" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="1294" ht="93.75" hidden="1" spans="2:5">
       <c r="B1294" s="1" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
       <c r="C1294" s="1" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="D1294" s="1" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="E1294" s="1" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="1295" hidden="1" spans="2:4">
       <c r="B1295" s="1" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
       <c r="C1295" s="1" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
       <c r="D1295" s="1" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="1296" hidden="1" spans="2:4">
       <c r="B1296" s="1" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
       <c r="C1296" s="1" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="D1296" s="1" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="1297" hidden="1" spans="2:4">
       <c r="B1297" s="1" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
       <c r="C1297" s="1" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
       <c r="D1297" s="1" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="1298" hidden="1" spans="2:4">
       <c r="B1298" s="1" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
       <c r="C1298" s="1" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
       <c r="D1298" s="1" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="1299" ht="37.5" hidden="1" spans="2:4">
       <c r="B1299" s="1" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="C1299" s="1" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
       <c r="D1299" s="1" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="1300" hidden="1" spans="2:4">
       <c r="B1300" s="1" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
       <c r="C1300" s="1" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
       <c r="D1300" s="1" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="1301" hidden="1" spans="2:4">
       <c r="B1301" s="1" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
       <c r="C1301" s="1" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
       <c r="D1301" s="1" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1302" hidden="1" spans="2:5">
       <c r="B1302" s="1" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
       <c r="C1302" s="1" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
       <c r="D1302" s="1" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
       <c r="E1302" s="1" t="s">
         <v>397</v>
@@ -44710,1469 +44716,1469 @@
     </row>
     <row r="1303" hidden="1" spans="2:4">
       <c r="B1303" s="1" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
       <c r="C1303" s="1" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
       <c r="D1303" s="1" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1304" ht="37.5" hidden="1" spans="2:4">
       <c r="B1304" s="1" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
       <c r="C1304" s="1" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
       <c r="D1304" s="1" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="1305" hidden="1" spans="2:4">
       <c r="B1305" s="1" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
       <c r="C1305" s="1" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
       <c r="D1305" s="1" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1306" hidden="1" spans="2:4">
       <c r="B1306" s="1" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="C1306" s="1" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
       <c r="D1306" s="1" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="1307" hidden="1" spans="2:4">
       <c r="B1307" s="1" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
       <c r="C1307" s="1" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
       <c r="D1307" s="1" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1308" hidden="1" spans="2:4">
       <c r="B1308" s="1" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="C1308" s="1" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
       <c r="D1308" s="1" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="1309" hidden="1" spans="2:4">
       <c r="B1309" s="1" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
       <c r="C1309" s="1" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
       <c r="D1309" s="1" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1310" hidden="1" spans="2:4">
       <c r="B1310" s="1" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
       <c r="C1310" s="1" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="D1310" s="1" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="1311" ht="37.5" hidden="1" spans="2:4">
       <c r="B1311" s="1" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
       <c r="C1311" s="1" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
       <c r="D1311" s="1" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1312" hidden="1" spans="2:4">
       <c r="B1312" s="1" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="C1312" s="1" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="D1312" s="1" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="1313" ht="150" hidden="1" spans="2:5">
       <c r="B1313" s="1" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
       <c r="C1313" s="1" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
       <c r="D1313" s="1" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
       <c r="E1313" s="1" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="1314" hidden="1" spans="2:4">
       <c r="B1314" s="1" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
       <c r="C1314" s="1" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
       <c r="D1314" s="1" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1315" hidden="1" spans="2:4">
       <c r="B1315" s="1" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="C1315" s="1" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
       <c r="D1315" s="1" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="1316" ht="37.5" hidden="1" spans="2:5">
       <c r="B1316" s="1" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
       <c r="C1316" s="1" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="D1316" s="1" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="E1316" s="1" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="1317" hidden="1" spans="2:4">
       <c r="B1317" s="1" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="C1317" s="1" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
       <c r="D1317" s="1" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1318" ht="37.5" hidden="1" spans="2:4">
       <c r="B1318" s="1" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="C1318" s="1" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
       <c r="D1318" s="1" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="1319" hidden="1" spans="2:4">
       <c r="B1319" s="1" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
       <c r="C1319" s="1" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
       <c r="D1319" s="1" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1320" hidden="1" spans="2:5">
       <c r="B1320" s="1" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
       <c r="C1320" s="1" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
       <c r="D1320" s="1" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
       <c r="E1320" s="1" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1321" hidden="1" spans="2:4">
       <c r="B1321" s="1" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
       <c r="C1321" s="1" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
       <c r="D1321" s="1" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="1322" hidden="1" spans="2:4">
       <c r="B1322" s="1" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
       <c r="C1322" s="1" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
       <c r="D1322" s="1" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1323" hidden="1" spans="2:4">
       <c r="B1323" s="1" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
       <c r="C1323" s="1" t="s">
-        <v>4257</v>
+        <v>4258</v>
       </c>
       <c r="D1323" s="1" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="1324" hidden="1" spans="2:4">
       <c r="B1324" s="1" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
       <c r="C1324" s="1" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
       <c r="D1324" s="1" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1325" hidden="1" spans="2:4">
       <c r="B1325" s="1" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
       <c r="C1325" s="1" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
       <c r="D1325" s="1" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1326" hidden="1" spans="2:4">
       <c r="B1326" s="1" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
       <c r="C1326" s="1" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
       <c r="D1326" s="1" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1327" hidden="1" spans="2:5">
       <c r="B1327" s="1" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
       <c r="C1327" s="1" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
       <c r="D1327" s="1" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
       <c r="E1327" s="1" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1328" ht="37.5" hidden="1" spans="2:4">
       <c r="B1328" s="1" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
       <c r="C1328" s="1" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
       <c r="D1328" s="1" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="1329" hidden="1" spans="2:4">
       <c r="B1329" s="1" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
       <c r="C1329" s="1" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
       <c r="D1329" s="1" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1330" hidden="1" spans="2:4">
       <c r="B1330" s="1" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="C1330" s="1" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
       <c r="D1330" s="1" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="1331" hidden="1" spans="2:4">
       <c r="B1331" s="1" t="s">
-        <v>4281</v>
+        <v>4282</v>
       </c>
       <c r="C1331" s="1" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
       <c r="D1331" s="1" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1332" hidden="1" spans="2:5">
       <c r="B1332" s="1" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
       <c r="C1332" s="1" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
       <c r="D1332" s="1" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
       <c r="E1332" s="1" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1333" ht="37.5" hidden="1" spans="2:4">
       <c r="B1333" s="1" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
       <c r="C1333" s="1" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
       <c r="D1333" s="1" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1334" hidden="1" spans="2:4">
       <c r="B1334" s="1" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
       <c r="C1334" s="1" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
       <c r="D1334" s="1" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1335" hidden="1" spans="2:4">
       <c r="B1335" s="1" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
       <c r="C1335" s="1" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
       <c r="D1335" s="1" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1336" hidden="1" spans="2:4">
       <c r="B1336" s="1" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
       <c r="C1336" s="1" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="D1336" s="1" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1337" hidden="1" spans="2:4">
       <c r="B1337" s="1" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
       <c r="C1337" s="1" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
       <c r="D1337" s="1" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1338" hidden="1" spans="2:4">
       <c r="B1338" s="1" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
       <c r="C1338" s="1" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
       <c r="D1338" s="1" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1339" hidden="1" spans="2:4">
       <c r="B1339" s="1" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
       <c r="C1339" s="1" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
       <c r="D1339" s="1" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1340" hidden="1" spans="2:4">
       <c r="B1340" s="1" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="C1340" s="1" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
       <c r="D1340" s="1" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1341" hidden="1" spans="2:4">
       <c r="B1341" s="1" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
       <c r="C1341" s="1" t="s">
-        <v>4313</v>
+        <v>4314</v>
       </c>
       <c r="D1341" s="1" t="s">
-        <v>4314</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1342" hidden="1" spans="2:4">
       <c r="B1342" s="1" t="s">
-        <v>4315</v>
+        <v>4316</v>
       </c>
       <c r="C1342" s="1" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
       <c r="D1342" s="1" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1343" ht="56.25" hidden="1" spans="2:5">
       <c r="B1343" s="1" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
       <c r="C1343" s="1" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
       <c r="D1343" s="1" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
       <c r="E1343" s="1" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="1344" hidden="1" spans="2:4">
       <c r="B1344" s="1" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
       <c r="C1344" s="1" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="D1344" s="1" t="s">
-        <v>4324</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="1345" hidden="1" spans="2:4">
       <c r="B1345" s="1" t="s">
-        <v>4325</v>
+        <v>4326</v>
       </c>
       <c r="C1345" s="1" t="s">
-        <v>4326</v>
+        <v>4327</v>
       </c>
       <c r="D1345" s="1" t="s">
-        <v>4327</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1346" hidden="1" spans="2:4">
       <c r="B1346" s="1" t="s">
-        <v>4328</v>
+        <v>4329</v>
       </c>
       <c r="C1346" s="1" t="s">
-        <v>4329</v>
+        <v>4330</v>
       </c>
       <c r="D1346" s="1" t="s">
-        <v>4330</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1347" hidden="1" spans="2:4">
       <c r="B1347" s="1" t="s">
-        <v>4331</v>
+        <v>4332</v>
       </c>
       <c r="C1347" s="1" t="s">
-        <v>4332</v>
+        <v>4333</v>
       </c>
       <c r="D1347" s="1" t="s">
-        <v>4333</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1348" hidden="1" spans="2:4">
       <c r="B1348" s="1" t="s">
-        <v>4334</v>
+        <v>4335</v>
       </c>
       <c r="C1348" s="1" t="s">
-        <v>4335</v>
+        <v>4336</v>
       </c>
       <c r="D1348" s="1" t="s">
-        <v>4336</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1349" ht="56.25" hidden="1" spans="2:5">
       <c r="B1349" s="1" t="s">
-        <v>4337</v>
+        <v>4338</v>
       </c>
       <c r="C1349" s="1" t="s">
-        <v>4338</v>
+        <v>4339</v>
       </c>
       <c r="D1349" s="1" t="s">
-        <v>4339</v>
+        <v>4340</v>
       </c>
       <c r="E1349" s="1" t="s">
-        <v>4340</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="1350" hidden="1" spans="2:4">
       <c r="B1350" s="1" t="s">
-        <v>4341</v>
+        <v>4342</v>
       </c>
       <c r="C1350" s="1" t="s">
-        <v>4342</v>
+        <v>4343</v>
       </c>
       <c r="D1350" s="1" t="s">
-        <v>4343</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="1351" hidden="1" spans="2:4">
       <c r="B1351" s="1" t="s">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="C1351" s="1" t="s">
-        <v>4345</v>
+        <v>4346</v>
       </c>
       <c r="D1351" s="1" t="s">
-        <v>4346</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1352" ht="37.5" hidden="1" spans="2:4">
       <c r="B1352" s="1" t="s">
-        <v>4347</v>
+        <v>4348</v>
       </c>
       <c r="C1352" s="1" t="s">
-        <v>4348</v>
+        <v>4349</v>
       </c>
       <c r="D1352" s="1" t="s">
-        <v>4349</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1353" hidden="1" spans="2:4">
       <c r="B1353" s="1" t="s">
-        <v>4350</v>
+        <v>4351</v>
       </c>
       <c r="C1353" s="1" t="s">
-        <v>4351</v>
+        <v>4352</v>
       </c>
       <c r="D1353" s="1" t="s">
-        <v>4352</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1354" hidden="1" spans="2:4">
       <c r="B1354" s="1" t="s">
-        <v>4353</v>
+        <v>4354</v>
       </c>
       <c r="C1354" s="1" t="s">
-        <v>4354</v>
+        <v>4355</v>
       </c>
       <c r="D1354" s="1" t="s">
-        <v>4355</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1355" hidden="1" spans="2:4">
       <c r="B1355" s="1" t="s">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="C1355" s="1" t="s">
-        <v>4357</v>
+        <v>4358</v>
       </c>
       <c r="D1355" s="1" t="s">
-        <v>4358</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1356" hidden="1" spans="2:4">
       <c r="B1356" s="1" t="s">
-        <v>4359</v>
+        <v>4360</v>
       </c>
       <c r="C1356" s="1" t="s">
-        <v>4360</v>
+        <v>4361</v>
       </c>
       <c r="D1356" s="1" t="s">
-        <v>4361</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1357" hidden="1" spans="2:4">
       <c r="B1357" s="1" t="s">
-        <v>4362</v>
+        <v>4363</v>
       </c>
       <c r="C1357" s="1" t="s">
-        <v>4363</v>
+        <v>4364</v>
       </c>
       <c r="D1357" s="1" t="s">
-        <v>4364</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1358" ht="37.5" hidden="1" spans="2:5">
       <c r="B1358" s="1" t="s">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="C1358" s="1" t="s">
-        <v>4366</v>
+        <v>4367</v>
       </c>
       <c r="D1358" s="1" t="s">
-        <v>4367</v>
+        <v>4368</v>
       </c>
       <c r="E1358" s="1" t="s">
-        <v>4368</v>
+        <v>4369</v>
       </c>
     </row>
     <row r="1359" hidden="1" spans="2:4">
       <c r="B1359" s="1" t="s">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="C1359" s="1" t="s">
-        <v>4370</v>
+        <v>4371</v>
       </c>
       <c r="D1359" s="1" t="s">
-        <v>4371</v>
+        <v>4372</v>
       </c>
     </row>
     <row r="1360" hidden="1" spans="2:4">
       <c r="B1360" s="1" t="s">
-        <v>4372</v>
+        <v>4373</v>
       </c>
       <c r="C1360" s="1" t="s">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="D1360" s="1" t="s">
-        <v>4374</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1361" hidden="1" spans="2:5">
       <c r="B1361" s="1" t="s">
-        <v>4375</v>
+        <v>4376</v>
       </c>
       <c r="C1361" s="1" t="s">
-        <v>4376</v>
+        <v>4377</v>
       </c>
       <c r="D1361" s="1" t="s">
-        <v>4377</v>
+        <v>4378</v>
       </c>
       <c r="E1361" s="1" t="s">
-        <v>4378</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="1362" hidden="1" spans="2:4">
       <c r="B1362" s="1" t="s">
-        <v>4379</v>
+        <v>4380</v>
       </c>
       <c r="C1362" s="1" t="s">
-        <v>4380</v>
+        <v>4381</v>
       </c>
       <c r="D1362" s="1" t="s">
-        <v>4381</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="1363" hidden="1" spans="2:4">
       <c r="B1363" s="1" t="s">
-        <v>4382</v>
+        <v>4383</v>
       </c>
       <c r="C1363" s="1" t="s">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="D1363" s="1" t="s">
-        <v>4384</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1364" hidden="1" spans="2:4">
       <c r="B1364" s="1" t="s">
-        <v>4385</v>
+        <v>4386</v>
       </c>
       <c r="C1364" s="1" t="s">
-        <v>4386</v>
+        <v>4387</v>
       </c>
       <c r="D1364" s="1" t="s">
-        <v>4387</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1365" ht="37.5" hidden="1" spans="2:4">
       <c r="B1365" s="1" t="s">
-        <v>4388</v>
+        <v>4389</v>
       </c>
       <c r="C1365" s="1" t="s">
-        <v>4389</v>
+        <v>4390</v>
       </c>
       <c r="D1365" s="1" t="s">
-        <v>4390</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1366" ht="37.5" hidden="1" spans="2:4">
       <c r="B1366" s="1" t="s">
-        <v>4391</v>
+        <v>4392</v>
       </c>
       <c r="C1366" s="1" t="s">
-        <v>4392</v>
+        <v>4393</v>
       </c>
       <c r="D1366" s="1" t="s">
-        <v>4393</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1367" hidden="1" spans="2:4">
       <c r="B1367" s="1" t="s">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="C1367" s="1" t="s">
-        <v>4395</v>
+        <v>4396</v>
       </c>
       <c r="D1367" s="1" t="s">
-        <v>4396</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1368" hidden="1" spans="2:4">
       <c r="B1368" s="1" t="s">
-        <v>4397</v>
+        <v>4398</v>
       </c>
       <c r="C1368" s="1" t="s">
-        <v>4398</v>
+        <v>4399</v>
       </c>
       <c r="D1368" s="1" t="s">
-        <v>4399</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1369" hidden="1" spans="2:4">
       <c r="B1369" s="1" t="s">
-        <v>4400</v>
+        <v>4401</v>
       </c>
       <c r="C1369" s="1" t="s">
-        <v>4401</v>
+        <v>4402</v>
       </c>
       <c r="D1369" s="1" t="s">
-        <v>4402</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1370" hidden="1" spans="2:4">
       <c r="B1370" s="1" t="s">
-        <v>4403</v>
+        <v>4404</v>
       </c>
       <c r="C1370" s="1" t="s">
-        <v>4404</v>
+        <v>4405</v>
       </c>
       <c r="D1370" s="1" t="s">
-        <v>4405</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1371" hidden="1" spans="2:4">
       <c r="B1371" s="1" t="s">
+        <v>4407</v>
+      </c>
+      <c r="C1371" s="1" t="s">
+        <v>4408</v>
+      </c>
+      <c r="D1371" s="1" t="s">
         <v>4406</v>
-      </c>
-      <c r="C1371" s="1" t="s">
-        <v>4407</v>
-      </c>
-      <c r="D1371" s="1" t="s">
-        <v>4405</v>
       </c>
     </row>
     <row r="1372" hidden="1" spans="2:4">
       <c r="B1372" s="1" t="s">
-        <v>4408</v>
+        <v>4409</v>
       </c>
       <c r="C1372" s="1" t="s">
-        <v>4409</v>
+        <v>4410</v>
       </c>
       <c r="D1372" s="1" t="s">
-        <v>4410</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="1373" ht="37.5" hidden="1" spans="2:4">
       <c r="B1373" s="1" t="s">
-        <v>4411</v>
+        <v>4412</v>
       </c>
       <c r="C1373" s="1" t="s">
-        <v>4412</v>
+        <v>4413</v>
       </c>
       <c r="D1373" s="1" t="s">
-        <v>4413</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="1374" hidden="1" spans="2:4">
       <c r="B1374" s="1" t="s">
-        <v>4414</v>
+        <v>4415</v>
       </c>
       <c r="C1374" s="1" t="s">
-        <v>4415</v>
+        <v>4416</v>
       </c>
       <c r="D1374" s="1" t="s">
-        <v>4416</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1375" ht="37.5" hidden="1" spans="2:4">
       <c r="B1375" s="1" t="s">
-        <v>4417</v>
+        <v>4418</v>
       </c>
       <c r="C1375" s="1" t="s">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="D1375" s="1" t="s">
-        <v>4419</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1376" hidden="1" spans="2:4">
       <c r="B1376" s="1" t="s">
-        <v>4420</v>
+        <v>4421</v>
       </c>
       <c r="C1376" s="1" t="s">
-        <v>4421</v>
+        <v>4422</v>
       </c>
       <c r="D1376" s="1" t="s">
-        <v>4422</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1377" hidden="1" spans="2:4">
       <c r="B1377" s="1" t="s">
-        <v>4423</v>
+        <v>4424</v>
       </c>
       <c r="C1377" s="1" t="s">
-        <v>4424</v>
+        <v>4425</v>
       </c>
       <c r="D1377" s="1" t="s">
-        <v>4425</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1378" hidden="1" spans="2:4">
       <c r="B1378" s="1" t="s">
-        <v>4426</v>
+        <v>4427</v>
       </c>
       <c r="C1378" s="1" t="s">
-        <v>4427</v>
+        <v>4428</v>
       </c>
       <c r="D1378" s="1" t="s">
-        <v>4428</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1379" hidden="1" spans="2:4">
       <c r="B1379" s="1" t="s">
-        <v>4429</v>
+        <v>4430</v>
       </c>
       <c r="C1379" s="1" t="s">
-        <v>4430</v>
+        <v>4431</v>
       </c>
       <c r="D1379" s="1" t="s">
-        <v>4431</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1380" hidden="1" spans="2:4">
       <c r="B1380" s="1" t="s">
-        <v>4432</v>
+        <v>4433</v>
       </c>
       <c r="C1380" s="1" t="s">
-        <v>4433</v>
+        <v>4434</v>
       </c>
       <c r="D1380" s="1" t="s">
-        <v>4434</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1381" ht="112.5" hidden="1" spans="2:5">
       <c r="B1381" s="1" t="s">
-        <v>4435</v>
+        <v>4436</v>
       </c>
       <c r="C1381" s="1" t="s">
-        <v>4436</v>
+        <v>4437</v>
       </c>
       <c r="D1381" s="1" t="s">
-        <v>4437</v>
+        <v>4438</v>
       </c>
       <c r="E1381" s="1" t="s">
-        <v>4438</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="1382" ht="37.5" hidden="1" spans="2:5">
       <c r="B1382" s="1" t="s">
-        <v>4439</v>
+        <v>4440</v>
       </c>
       <c r="C1382" s="1" t="s">
-        <v>4440</v>
+        <v>4441</v>
       </c>
       <c r="D1382" s="1" t="s">
-        <v>4441</v>
+        <v>4442</v>
       </c>
       <c r="E1382" s="1" t="s">
-        <v>4442</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="1383" ht="37.5" hidden="1" spans="2:5">
       <c r="B1383" s="1" t="s">
-        <v>4443</v>
+        <v>4444</v>
       </c>
       <c r="C1383" s="1" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
       <c r="D1383" s="1" t="s">
-        <v>4445</v>
+        <v>4446</v>
       </c>
       <c r="E1383" s="1" t="s">
-        <v>4446</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="1384" hidden="1" spans="2:4">
       <c r="B1384" s="1" t="s">
-        <v>4447</v>
+        <v>4448</v>
       </c>
       <c r="C1384" s="1" t="s">
-        <v>4448</v>
+        <v>4449</v>
       </c>
       <c r="D1384" s="1" t="s">
-        <v>4449</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="1385" hidden="1" spans="2:4">
       <c r="B1385" s="1" t="s">
-        <v>4450</v>
+        <v>4451</v>
       </c>
       <c r="C1385" s="1" t="s">
-        <v>4451</v>
+        <v>4452</v>
       </c>
       <c r="D1385" s="1" t="s">
-        <v>4452</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1386" hidden="1" spans="2:4">
       <c r="B1386" s="1" t="s">
-        <v>4453</v>
+        <v>4454</v>
       </c>
       <c r="C1386" s="1" t="s">
-        <v>4454</v>
+        <v>4455</v>
       </c>
       <c r="D1386" s="1" t="s">
-        <v>4455</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1387" hidden="1" spans="2:4">
       <c r="B1387" s="1" t="s">
-        <v>4456</v>
+        <v>4457</v>
       </c>
       <c r="C1387" s="1" t="s">
-        <v>4457</v>
+        <v>4458</v>
       </c>
       <c r="D1387" s="1" t="s">
-        <v>4458</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1388" hidden="1" spans="2:4">
       <c r="B1388" s="1" t="s">
-        <v>4459</v>
+        <v>4460</v>
       </c>
       <c r="C1388" s="1" t="s">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="D1388" s="1" t="s">
-        <v>4461</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1389" hidden="1" spans="2:4">
       <c r="B1389" s="1" t="s">
-        <v>4462</v>
+        <v>4463</v>
       </c>
       <c r="C1389" s="1" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
       <c r="D1389" s="1" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1390" hidden="1" spans="2:4">
       <c r="B1390" s="1" t="s">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="C1390" s="1" t="s">
-        <v>4466</v>
+        <v>4467</v>
       </c>
       <c r="D1390" s="1" t="s">
-        <v>4467</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1391" hidden="1" spans="2:4">
       <c r="B1391" s="1" t="s">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="C1391" s="1" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="D1391" s="1" t="s">
-        <v>4470</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1392" hidden="1" spans="2:4">
       <c r="B1392" s="1" t="s">
-        <v>4471</v>
+        <v>4472</v>
       </c>
       <c r="C1392" s="1" t="s">
-        <v>4472</v>
+        <v>4473</v>
       </c>
       <c r="D1392" s="1" t="s">
-        <v>4473</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1393" hidden="1" spans="2:4">
       <c r="B1393" s="1" t="s">
-        <v>4474</v>
+        <v>4475</v>
       </c>
       <c r="C1393" s="1" t="s">
-        <v>4475</v>
+        <v>4476</v>
       </c>
       <c r="D1393" s="1" t="s">
-        <v>4476</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1394" hidden="1" spans="2:4">
       <c r="B1394" s="1" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="C1394" s="1" t="s">
-        <v>4478</v>
+        <v>4479</v>
       </c>
       <c r="D1394" s="1" t="s">
-        <v>4479</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1395" hidden="1" spans="2:4">
       <c r="B1395" s="1" t="s">
-        <v>4480</v>
+        <v>4481</v>
       </c>
       <c r="C1395" s="1" t="s">
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="D1395" s="1" t="s">
-        <v>4482</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1396" hidden="1" spans="2:4">
       <c r="B1396" s="1" t="s">
-        <v>4483</v>
+        <v>4484</v>
       </c>
       <c r="C1396" s="1" t="s">
-        <v>4484</v>
+        <v>4485</v>
       </c>
       <c r="D1396" s="1" t="s">
-        <v>4485</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1397" hidden="1" spans="2:4">
       <c r="B1397" s="1" t="s">
-        <v>4486</v>
+        <v>4487</v>
       </c>
       <c r="C1397" s="1" t="s">
-        <v>4487</v>
+        <v>4488</v>
       </c>
       <c r="D1397" s="1" t="s">
-        <v>4488</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1398" hidden="1" spans="2:4">
       <c r="B1398" s="1" t="s">
-        <v>4489</v>
+        <v>4490</v>
       </c>
       <c r="C1398" s="1" t="s">
-        <v>4490</v>
+        <v>4491</v>
       </c>
       <c r="D1398" s="1" t="s">
-        <v>4491</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1399" ht="56.25" hidden="1" spans="2:5">
       <c r="B1399" s="1" t="s">
-        <v>4492</v>
+        <v>4493</v>
       </c>
       <c r="C1399" s="1" t="s">
-        <v>4493</v>
+        <v>4494</v>
       </c>
       <c r="D1399" s="1" t="s">
-        <v>4494</v>
+        <v>4495</v>
       </c>
       <c r="E1399" s="1" t="s">
-        <v>4495</v>
+        <v>4496</v>
       </c>
     </row>
     <row r="1400" hidden="1" spans="2:5">
       <c r="B1400" s="1" t="s">
-        <v>4496</v>
+        <v>4497</v>
       </c>
       <c r="C1400" s="1" t="s">
-        <v>4497</v>
+        <v>4498</v>
       </c>
       <c r="D1400" s="1" t="s">
-        <v>4498</v>
+        <v>4499</v>
       </c>
       <c r="E1400" s="1" t="s">
-        <v>4499</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="1401" hidden="1" spans="2:4">
       <c r="B1401" s="1" t="s">
-        <v>4500</v>
+        <v>4501</v>
       </c>
       <c r="C1401" s="1" t="s">
-        <v>4501</v>
+        <v>4502</v>
       </c>
       <c r="D1401" s="1" t="s">
-        <v>4502</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="1402" hidden="1" spans="2:4">
       <c r="B1402" s="1" t="s">
-        <v>4503</v>
+        <v>4504</v>
       </c>
       <c r="C1402" s="1" t="s">
-        <v>4504</v>
+        <v>4505</v>
       </c>
       <c r="D1402" s="1" t="s">
-        <v>4505</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1403" hidden="1" spans="2:4">
       <c r="B1403" s="1" t="s">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="C1403" s="1" t="s">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="D1403" s="1" t="s">
-        <v>4508</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1404" hidden="1" spans="2:5">
       <c r="B1404" s="1" t="s">
-        <v>4509</v>
+        <v>4510</v>
       </c>
       <c r="C1404" s="1" t="s">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="D1404" s="1" t="s">
-        <v>4511</v>
+        <v>4512</v>
       </c>
       <c r="E1404" s="1" t="s">
-        <v>4512</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="1405" hidden="1" spans="2:4">
       <c r="B1405" s="1" t="s">
-        <v>4513</v>
+        <v>4514</v>
       </c>
       <c r="C1405" s="1" t="s">
-        <v>4514</v>
+        <v>4515</v>
       </c>
       <c r="D1405" s="1" t="s">
-        <v>4515</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="1406" hidden="1" spans="2:4">
       <c r="B1406" s="1" t="s">
-        <v>4516</v>
+        <v>4517</v>
       </c>
       <c r="C1406" s="1" t="s">
-        <v>4517</v>
+        <v>4518</v>
       </c>
       <c r="D1406" s="1" t="s">
-        <v>4518</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1407" hidden="1" spans="2:4">
       <c r="B1407" s="1" t="s">
-        <v>4519</v>
+        <v>4520</v>
       </c>
       <c r="C1407" s="1" t="s">
-        <v>4520</v>
+        <v>4521</v>
       </c>
       <c r="D1407" s="1" t="s">
-        <v>4521</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1408" ht="37.5" hidden="1" spans="2:5">
       <c r="B1408" s="1" t="s">
-        <v>4522</v>
+        <v>4523</v>
       </c>
       <c r="C1408" s="1" t="s">
-        <v>4523</v>
+        <v>4524</v>
       </c>
       <c r="D1408" s="1" t="s">
-        <v>4524</v>
+        <v>4525</v>
       </c>
       <c r="E1408" s="1" t="s">
-        <v>4525</v>
+        <v>4526</v>
       </c>
     </row>
     <row r="1409" hidden="1" spans="2:4">
       <c r="B1409" s="1" t="s">
-        <v>4526</v>
+        <v>4527</v>
       </c>
       <c r="C1409" s="1" t="s">
-        <v>4527</v>
+        <v>4528</v>
       </c>
       <c r="D1409" s="1" t="s">
-        <v>4528</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="1410" hidden="1" spans="2:4">
       <c r="B1410" s="1" t="s">
-        <v>4529</v>
+        <v>4530</v>
       </c>
       <c r="C1410" s="1" t="s">
-        <v>4530</v>
+        <v>4531</v>
       </c>
       <c r="D1410" s="1" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1411" hidden="1" spans="2:4">
       <c r="B1411" s="1" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="C1411" s="1" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="D1411" s="1" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1412" hidden="1" spans="2:4">
       <c r="B1412" s="1" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="C1412" s="1" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="D1412" s="1" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1413" hidden="1" spans="2:4">
       <c r="B1413" s="1" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="C1413" s="1" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="D1413" s="1" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1414" hidden="1" spans="2:4">
       <c r="B1414" s="1" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="C1414" s="1" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="D1414" s="1" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1415" hidden="1" spans="2:4">
       <c r="B1415" s="1" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="C1415" s="1" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="D1415" s="1" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1416" hidden="1" spans="2:4">
       <c r="B1416" s="1" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="C1416" s="1" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="D1416" s="1" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1417" hidden="1" spans="2:4">
       <c r="B1417" s="1" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="C1417" s="1" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="D1417" s="1" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1418" ht="37.5" hidden="1" spans="2:4">
       <c r="B1418" s="1" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="C1418" s="1" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="D1418" s="1" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1419" ht="37.5" hidden="1" spans="2:4">
       <c r="B1419" s="1" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="C1419" s="1" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="D1419" s="1" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1420" hidden="1" spans="2:4">
       <c r="B1420" s="1" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="C1420" s="1" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="D1420" s="1" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="1421" hidden="1" spans="2:4">
       <c r="B1421" s="1" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="C1421" s="1" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="D1421" s="1" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="1422" hidden="1" spans="2:4">
       <c r="B1422" s="1" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="C1422" s="1" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="D1422" s="1" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="1423" ht="37.5" hidden="1" spans="2:4">
       <c r="B1423" s="1" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="C1423" s="1" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="D1423" s="1" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="1424" hidden="1" spans="2:4">
       <c r="B1424" s="1" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="C1424" s="1" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
       <c r="D1424" s="1" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1425" ht="37.5" hidden="1" spans="2:4">
       <c r="B1425" s="1" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="C1425" s="1" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="D1425" s="1" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1426" hidden="1" spans="2:4">
       <c r="B1426" s="1" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="C1426" s="1" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="D1426" s="1" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1427" ht="37.5" hidden="1" spans="2:4">
       <c r="B1427" s="1" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="C1427" s="1" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="D1427" s="1" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="1428" hidden="1" spans="2:4">
       <c r="B1428" s="1" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="C1428" s="1" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="D1428" s="1" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1429" hidden="1" spans="2:4">
       <c r="B1429" s="1" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="C1429" s="1" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="D1429" s="1" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1430" hidden="1" spans="2:4">
       <c r="B1430" s="1" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="C1430" s="1" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="D1430" s="1" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1431" hidden="1" spans="2:4">
       <c r="B1431" s="1" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="C1431" s="1" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
       <c r="D1431" s="1" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
     </row>
   </sheetData>
@@ -46183,7 +46189,7 @@
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
-        <filter val="6"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4601">
   <si>
     <t>标记</t>
   </si>
@@ -23047,6 +23047,9 @@
     <t>v.估定，评定</t>
   </si>
   <si>
+    <t>asset 资产</t>
+  </si>
+  <si>
     <t>estimate</t>
   </si>
   <si>
@@ -23155,6 +23158,9 @@
   </si>
   <si>
     <t>v.忽视</t>
+  </si>
+  <si>
+    <t>regard 注视 尊敬</t>
   </si>
   <si>
     <t>neglect</t>
@@ -23329,6 +23335,9 @@
     <t>v.急速上升，突然扩大，急速上升</t>
   </si>
   <si>
+    <t>zone 区域</t>
+  </si>
+  <si>
     <t>assemble</t>
   </si>
   <si>
@@ -23708,7 +23717,7 @@
     <t>v.解放，释放</t>
   </si>
   <si>
-    <t>联系liberty</t>
+    <t>联系liberty 自由，elaboration 详细说明，elaborate精心制作</t>
   </si>
   <si>
     <t>dismiss *</t>
@@ -23885,6 +23894,9 @@
     <t>v.举起，提升，鼓舞</t>
   </si>
   <si>
+    <t>evolve 进化elevator 电梯</t>
+  </si>
+  <si>
     <t>determine</t>
   </si>
   <si>
@@ -24014,7 +24026,7 @@
     <t>v.控告，谴责</t>
   </si>
   <si>
-    <t>联系excuse</t>
+    <t>联系excuse 接口，请求原谅</t>
   </si>
   <si>
     <t>dictate</t>
@@ -24188,6 +24200,9 @@
     <t>v.冒险，风险投资</t>
   </si>
   <si>
+    <t>adventure 冒险</t>
+  </si>
+  <si>
     <t>confront</t>
   </si>
   <si>
@@ -24338,6 +24353,9 @@
   </si>
   <si>
     <t>v.努力，奋斗，斗争</t>
+  </si>
+  <si>
+    <t>starvation 饥饿</t>
   </si>
   <si>
     <t>eliminate</t>
@@ -26664,9 +26682,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
@@ -26705,6 +26723,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -26712,7 +26737,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -26727,8 +26760,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26742,32 +26784,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26780,47 +26798,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26836,6 +26815,45 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26938,13 +26956,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26962,7 +26992,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26974,19 +27016,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26998,31 +27064,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27040,55 +27112,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27100,25 +27136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27145,27 +27163,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27186,16 +27199,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27214,163 +27247,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -27773,8 +27791,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A1165" workbookViewId="0">
-      <selection activeCell="E1190" sqref="E1190"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A1225" workbookViewId="0">
+      <selection activeCell="E1287" sqref="E1287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
@@ -35356,7 +35374,7 @@
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>1853</v>
@@ -37712,9 +37730,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" hidden="1" spans="1:4">
       <c r="A751" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B751" s="1" t="s">
         <v>2427</v>
@@ -37968,9 +37986,9 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" hidden="1" spans="1:4">
       <c r="A771" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>2490</v>
@@ -38060,9 +38078,9 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="778" ht="37.5" spans="1:5">
+    <row r="778" ht="37.5" hidden="1" spans="1:5">
       <c r="A778" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B778" s="1" t="s">
         <v>2511</v>
@@ -38775,7 +38793,7 @@
     </row>
     <row r="833" ht="112.5" spans="1:5">
       <c r="A833" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>2687</v>
@@ -39488,9 +39506,9 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="889" spans="1:4">
+    <row r="889" hidden="1" spans="1:4">
       <c r="A889" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B889" s="1" t="s">
         <v>2863</v>
@@ -39576,7 +39594,7 @@
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B896" s="1" t="s">
         <v>2885</v>
@@ -39926,7 +39944,7 @@
     </row>
     <row r="924" ht="93.75" spans="1:5">
       <c r="A924" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>2973</v>
@@ -40299,7 +40317,7 @@
     </row>
     <row r="953" ht="37.5" spans="1:5">
       <c r="A953" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B953" s="1" t="s">
         <v>3065</v>
@@ -40464,7 +40482,7 @@
     </row>
     <row r="965" spans="1:4">
       <c r="A965" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B965" s="1" t="s">
         <v>3107</v>
@@ -40542,7 +40560,7 @@
     </row>
     <row r="971" spans="1:4">
       <c r="A971" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B971" s="1" t="s">
         <v>3125</v>
@@ -40645,7 +40663,7 @@
     </row>
     <row r="979" spans="1:5">
       <c r="A979" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B979" s="1" t="s">
         <v>3150</v>
@@ -40854,7 +40872,7 @@
     </row>
     <row r="995" spans="1:5">
       <c r="A995" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B995" s="1" t="s">
         <v>3200</v>
@@ -40966,7 +40984,7 @@
     </row>
     <row r="1003" ht="37.5" spans="1:4">
       <c r="A1003" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1003" s="1" t="s">
         <v>3229</v>
@@ -40980,7 +40998,7 @@
     </row>
     <row r="1004" spans="1:4">
       <c r="A1004" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1004" s="1" t="s">
         <v>3232</v>
@@ -41058,7 +41076,7 @@
     </row>
     <row r="1010" spans="1:5">
       <c r="A1010" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1010" s="1" t="s">
         <v>3251</v>
@@ -41181,9 +41199,9 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="1020" spans="1:4">
+    <row r="1020" hidden="1" spans="1:4">
       <c r="A1020" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1020" s="1" t="s">
         <v>3283</v>
@@ -41219,7 +41237,7 @@
     </row>
     <row r="1023" spans="1:5">
       <c r="A1023" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1023" s="1" t="s">
         <v>3292</v>
@@ -41245,9 +41263,9 @@
         <v>3297</v>
       </c>
     </row>
-    <row r="1025" spans="1:5">
+    <row r="1025" hidden="1" spans="1:5">
       <c r="A1025" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1025" s="1" t="s">
         <v>3298</v>
@@ -41306,9 +41324,9 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="1030" spans="1:4">
+    <row r="1030" hidden="1" spans="1:4">
       <c r="A1030" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1030" s="1" t="s">
         <v>3314</v>
@@ -41378,7 +41396,7 @@
     </row>
     <row r="1035" ht="37.5" spans="1:4">
       <c r="A1035" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1035" s="1" t="s">
         <v>3329</v>
@@ -41392,7 +41410,7 @@
     </row>
     <row r="1036" ht="56.25" spans="1:5">
       <c r="A1036" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1036" s="1" t="s">
         <v>3332</v>
@@ -41407,9 +41425,9 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="1037" ht="37.5" spans="1:4">
+    <row r="1037" ht="37.5" hidden="1" spans="1:4">
       <c r="A1037" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1037" s="1" t="s">
         <v>3336</v>
@@ -41421,9 +41439,9 @@
         <v>3338</v>
       </c>
     </row>
-    <row r="1038" spans="1:4">
+    <row r="1038" hidden="1" spans="1:4">
       <c r="A1038" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1038" s="1" t="s">
         <v>3339</v>
@@ -41715,9 +41733,9 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="1062" spans="1:4">
+    <row r="1062" hidden="1" spans="1:4">
       <c r="A1062" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1062" s="1" t="s">
         <v>3413</v>
@@ -41789,7 +41807,7 @@
     </row>
     <row r="1068" spans="1:4">
       <c r="A1068" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1068" s="1" t="s">
         <v>3431</v>
@@ -41815,9 +41833,9 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="1070" spans="1:5">
+    <row r="1070" hidden="1" spans="1:5">
       <c r="A1070" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1070" s="1" t="s">
         <v>3437</v>
@@ -41907,9 +41925,9 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="1077" spans="1:4">
+    <row r="1077" hidden="1" spans="1:4">
       <c r="A1077" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1077" s="1" t="s">
         <v>3461</v>
@@ -41934,7 +41952,7 @@
     </row>
     <row r="1079" spans="1:4">
       <c r="A1079" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1079" s="1" t="s">
         <v>3467</v>
@@ -41957,9 +41975,9 @@
         <v>3472</v>
       </c>
     </row>
-    <row r="1081" ht="112.5" spans="1:5">
+    <row r="1081" ht="112.5" hidden="1" spans="1:5">
       <c r="A1081" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1081" s="1" t="s">
         <v>3473</v>
@@ -41974,9 +41992,9 @@
         <v>3476</v>
       </c>
     </row>
-    <row r="1082" spans="1:4">
+    <row r="1082" hidden="1" spans="1:4">
       <c r="A1082" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1082" s="1" t="s">
         <v>3477</v>
@@ -42002,9 +42020,9 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="1084" spans="1:5">
+    <row r="1084" hidden="1" spans="1:5">
       <c r="A1084" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1084" s="1" t="s">
         <v>3483</v>
@@ -42110,9 +42128,9 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="1093" spans="1:4">
+    <row r="1093" hidden="1" spans="1:4">
       <c r="A1093" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1093" s="1" t="s">
         <v>3511</v>
@@ -42552,7 +42570,7 @@
     </row>
     <row r="1127" spans="1:4">
       <c r="A1127" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1127" s="1" t="s">
         <v>3625</v>
@@ -42589,9 +42607,9 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="1130" ht="37.5" spans="1:4">
+    <row r="1130" ht="37.5" hidden="1" spans="1:4">
       <c r="A1130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1130" s="1" t="s">
         <v>3635</v>
@@ -42641,7 +42659,7 @@
     </row>
     <row r="1134" ht="93.75" spans="1:5">
       <c r="A1134" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1134" s="1" t="s">
         <v>3647</v>
@@ -42792,9 +42810,9 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="1146" ht="131.25" spans="1:5">
+    <row r="1146" ht="131.25" hidden="1" spans="1:5">
       <c r="A1146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1146" s="1" t="s">
         <v>3688</v>
@@ -42903,7 +42921,7 @@
     </row>
     <row r="1154" spans="1:5">
       <c r="A1154" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1154" s="1" t="s">
         <v>3717</v>
@@ -42964,7 +42982,7 @@
     </row>
     <row r="1159" spans="1:4">
       <c r="A1159" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1159" s="1" t="s">
         <v>3733</v>
@@ -42978,7 +42996,7 @@
     </row>
     <row r="1160" ht="37.5" spans="1:4">
       <c r="A1160" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1160" s="1" t="s">
         <v>3736</v>
@@ -42992,7 +43010,7 @@
     </row>
     <row r="1161" spans="1:5">
       <c r="A1161" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1161" s="1" t="s">
         <v>3739</v>
@@ -43073,7 +43091,7 @@
     </row>
     <row r="1167" spans="1:5">
       <c r="A1167" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1167" s="1" t="s">
         <v>3759</v>
@@ -43179,7 +43197,7 @@
     </row>
     <row r="1175" spans="1:4">
       <c r="A1175" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1175" s="1" t="s">
         <v>3785</v>
@@ -43193,7 +43211,7 @@
     </row>
     <row r="1176" spans="1:4">
       <c r="A1176" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1176" s="1" t="s">
         <v>3788</v>
@@ -43269,9 +43287,9 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="1182" ht="93.75" spans="1:5">
+    <row r="1182" ht="93.75" hidden="1" spans="1:5">
       <c r="A1182" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1182" s="1" t="s">
         <v>3807</v>
@@ -43349,7 +43367,7 @@
     </row>
     <row r="1188" spans="1:4">
       <c r="A1188" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1188" s="1" t="s">
         <v>3827</v>
@@ -43380,7 +43398,7 @@
     </row>
     <row r="1190" ht="112.5" spans="1:5">
       <c r="A1190" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1190" s="1" t="s">
         <v>3834</v>
@@ -43428,7 +43446,7 @@
     </row>
     <row r="1193" ht="56.25" spans="1:5">
       <c r="A1193" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1193" s="1" t="s">
         <v>3845</v>
@@ -43467,7 +43485,7 @@
     </row>
     <row r="1196" spans="1:4">
       <c r="A1196" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1196" s="1" t="s">
         <v>3855</v>
@@ -43568,7 +43586,10 @@
         <v>3880</v>
       </c>
     </row>
-    <row r="1204" hidden="1" spans="2:4">
+    <row r="1204" spans="1:4">
+      <c r="A1204" s="1">
+        <v>1</v>
+      </c>
       <c r="B1204" s="1" t="s">
         <v>3881</v>
       </c>
@@ -43615,7 +43636,10 @@
         <v>3893</v>
       </c>
     </row>
-    <row r="1208" hidden="1" spans="2:4">
+    <row r="1208" spans="1:4">
+      <c r="A1208" s="1">
+        <v>1</v>
+      </c>
       <c r="B1208" s="1" t="s">
         <v>3894</v>
       </c>
@@ -43626,7 +43650,10 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="1209" hidden="1" spans="2:4">
+    <row r="1209" spans="1:4">
+      <c r="A1209" s="1">
+        <v>1</v>
+      </c>
       <c r="B1209" s="1" t="s">
         <v>3897</v>
       </c>
@@ -43637,7 +43664,10 @@
         <v>3899</v>
       </c>
     </row>
-    <row r="1210" hidden="1" spans="2:4">
+    <row r="1210" spans="1:5">
+      <c r="A1210" s="1">
+        <v>1</v>
+      </c>
       <c r="B1210" s="1" t="s">
         <v>3900</v>
       </c>
@@ -43647,414 +43677,477 @@
       <c r="D1210" s="1" t="s">
         <v>3902</v>
       </c>
+      <c r="E1210" s="1" t="s">
+        <v>3903</v>
+      </c>
     </row>
     <row r="1211" ht="75" hidden="1" spans="2:5">
       <c r="B1211" s="1" t="s">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="C1211" s="1" t="s">
-        <v>3904</v>
+        <v>3905</v>
       </c>
       <c r="D1211" s="1" t="s">
-        <v>3905</v>
+        <v>3906</v>
       </c>
       <c r="E1211" s="1" t="s">
-        <v>3906</v>
+        <v>3907</v>
       </c>
     </row>
     <row r="1212" hidden="1" spans="2:4">
       <c r="B1212" s="1" t="s">
-        <v>3907</v>
+        <v>3908</v>
       </c>
       <c r="C1212" s="1" t="s">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="D1212" s="1" t="s">
-        <v>3909</v>
-      </c>
-    </row>
-    <row r="1213" hidden="1" spans="2:5">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5">
+      <c r="A1213" s="1">
+        <v>1</v>
+      </c>
       <c r="B1213" s="1" t="s">
-        <v>3910</v>
+        <v>3911</v>
       </c>
       <c r="C1213" s="1" t="s">
-        <v>3911</v>
+        <v>3912</v>
       </c>
       <c r="D1213" s="1" t="s">
-        <v>3912</v>
+        <v>3913</v>
       </c>
       <c r="E1213" s="1" t="s">
         <v>1639</v>
       </c>
     </row>
-    <row r="1214" hidden="1" spans="2:4">
+    <row r="1214" spans="1:4">
+      <c r="A1214" s="1">
+        <v>1</v>
+      </c>
       <c r="B1214" s="1" t="s">
-        <v>3913</v>
+        <v>3914</v>
       </c>
       <c r="C1214" s="1" t="s">
-        <v>3914</v>
+        <v>3915</v>
       </c>
       <c r="D1214" s="1" t="s">
-        <v>3915</v>
-      </c>
-    </row>
-    <row r="1215" hidden="1" spans="2:5">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5">
+      <c r="A1215" s="1">
+        <v>1</v>
+      </c>
       <c r="B1215" s="1" t="s">
-        <v>3916</v>
+        <v>3917</v>
       </c>
       <c r="C1215" s="1" t="s">
-        <v>3917</v>
+        <v>3918</v>
       </c>
       <c r="D1215" s="1" t="s">
-        <v>3918</v>
+        <v>3919</v>
       </c>
       <c r="E1215" s="1" t="s">
-        <v>3919</v>
-      </c>
-    </row>
-    <row r="1216" hidden="1" spans="2:4">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4">
+      <c r="A1216" s="1">
+        <v>1</v>
+      </c>
       <c r="B1216" s="1" t="s">
-        <v>3920</v>
+        <v>3921</v>
       </c>
       <c r="C1216" s="1" t="s">
-        <v>3921</v>
+        <v>3922</v>
       </c>
       <c r="D1216" s="1" t="s">
-        <v>3922</v>
+        <v>3923</v>
       </c>
     </row>
     <row r="1217" hidden="1" spans="2:4">
       <c r="B1217" s="1" t="s">
-        <v>3923</v>
+        <v>3924</v>
       </c>
       <c r="C1217" s="1" t="s">
-        <v>3924</v>
+        <v>3925</v>
       </c>
       <c r="D1217" s="1" t="s">
-        <v>3925</v>
-      </c>
-    </row>
-    <row r="1218" hidden="1" spans="2:4">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:5">
+      <c r="A1218" s="1">
+        <v>1</v>
+      </c>
       <c r="B1218" s="1" t="s">
-        <v>3926</v>
+        <v>3927</v>
       </c>
       <c r="C1218" s="1" t="s">
-        <v>3927</v>
+        <v>3928</v>
       </c>
       <c r="D1218" s="1" t="s">
-        <v>3928</v>
-      </c>
-    </row>
-    <row r="1219" hidden="1" spans="2:4">
+        <v>3929</v>
+      </c>
+      <c r="E1218" s="1" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4">
+      <c r="A1219" s="1">
+        <v>1</v>
+      </c>
       <c r="B1219" s="1" t="s">
-        <v>3929</v>
+        <v>3931</v>
       </c>
       <c r="C1219" s="1" t="s">
-        <v>3930</v>
+        <v>3932</v>
       </c>
       <c r="D1219" s="1" t="s">
-        <v>3931</v>
-      </c>
-    </row>
-    <row r="1220" hidden="1" spans="2:4">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4">
+      <c r="A1220" s="1">
+        <v>1</v>
+      </c>
       <c r="B1220" s="1" t="s">
-        <v>3932</v>
+        <v>3934</v>
       </c>
       <c r="C1220" s="1" t="s">
-        <v>3933</v>
+        <v>3935</v>
       </c>
       <c r="D1220" s="1" t="s">
-        <v>3934</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="1221" hidden="1" spans="2:5">
       <c r="B1221" s="1" t="s">
-        <v>3935</v>
+        <v>3937</v>
       </c>
       <c r="C1221" s="1" t="s">
-        <v>3936</v>
+        <v>3938</v>
       </c>
       <c r="D1221" s="1" t="s">
-        <v>3937</v>
+        <v>3939</v>
       </c>
       <c r="E1221" s="1" t="s">
-        <v>3938</v>
-      </c>
-    </row>
-    <row r="1222" hidden="1" spans="2:5">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5">
+      <c r="A1222" s="1">
+        <v>1</v>
+      </c>
       <c r="B1222" s="1" t="s">
-        <v>3939</v>
+        <v>3941</v>
       </c>
       <c r="C1222" s="1" t="s">
-        <v>3940</v>
+        <v>3942</v>
       </c>
       <c r="D1222" s="1" t="s">
-        <v>3941</v>
+        <v>3943</v>
       </c>
       <c r="E1222" s="1" t="s">
-        <v>3942</v>
+        <v>3944</v>
       </c>
     </row>
     <row r="1223" hidden="1" spans="2:4">
       <c r="B1223" s="1" t="s">
-        <v>3943</v>
+        <v>3945</v>
       </c>
       <c r="C1223" s="1" t="s">
-        <v>3944</v>
+        <v>3946</v>
       </c>
       <c r="D1223" s="1" t="s">
-        <v>3945</v>
-      </c>
-    </row>
-    <row r="1224" ht="37.5" hidden="1" spans="2:4">
+        <v>3947</v>
+      </c>
+    </row>
+    <row r="1224" ht="37.5" spans="1:4">
+      <c r="A1224" s="1">
+        <v>1</v>
+      </c>
       <c r="B1224" s="1" t="s">
-        <v>3946</v>
+        <v>3948</v>
       </c>
       <c r="C1224" s="1" t="s">
-        <v>3947</v>
+        <v>3949</v>
       </c>
       <c r="D1224" s="1" t="s">
-        <v>3948</v>
-      </c>
-    </row>
-    <row r="1225" hidden="1" spans="2:4">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4">
+      <c r="A1225" s="1">
+        <v>1</v>
+      </c>
       <c r="B1225" s="1" t="s">
-        <v>3949</v>
+        <v>3951</v>
       </c>
       <c r="C1225" s="1" t="s">
-        <v>3950</v>
+        <v>3952</v>
       </c>
       <c r="D1225" s="1" t="s">
-        <v>3951</v>
+        <v>3953</v>
       </c>
     </row>
     <row r="1226" hidden="1" spans="2:4">
       <c r="B1226" s="1" t="s">
-        <v>3952</v>
+        <v>3954</v>
       </c>
       <c r="C1226" s="1" t="s">
-        <v>3953</v>
+        <v>3955</v>
       </c>
       <c r="D1226" s="1" t="s">
-        <v>3954</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="1227" ht="112.5" hidden="1" spans="2:5">
       <c r="B1227" s="1" t="s">
-        <v>3955</v>
+        <v>3957</v>
       </c>
       <c r="C1227" s="1" t="s">
-        <v>3956</v>
+        <v>3958</v>
       </c>
       <c r="D1227" s="1" t="s">
-        <v>3957</v>
+        <v>3959</v>
       </c>
       <c r="E1227" s="1" t="s">
-        <v>3958</v>
+        <v>3960</v>
       </c>
     </row>
     <row r="1228" hidden="1" spans="2:4">
       <c r="B1228" s="1" t="s">
-        <v>3959</v>
+        <v>3961</v>
       </c>
       <c r="C1228" s="1" t="s">
-        <v>3960</v>
+        <v>3962</v>
       </c>
       <c r="D1228" s="1" t="s">
-        <v>3961</v>
-      </c>
-    </row>
-    <row r="1229" hidden="1" spans="2:4">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4">
+      <c r="A1229" s="1">
+        <v>1</v>
+      </c>
       <c r="B1229" s="1" t="s">
-        <v>3962</v>
+        <v>3964</v>
       </c>
       <c r="C1229" s="1" t="s">
-        <v>3963</v>
+        <v>3965</v>
       </c>
       <c r="D1229" s="1" t="s">
-        <v>3964</v>
-      </c>
-    </row>
-    <row r="1230" hidden="1" spans="2:4">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4">
+      <c r="A1230" s="1">
+        <v>1</v>
+      </c>
       <c r="B1230" s="1" t="s">
-        <v>3965</v>
+        <v>3967</v>
       </c>
       <c r="C1230" s="1" t="s">
-        <v>3966</v>
+        <v>3968</v>
       </c>
       <c r="D1230" s="1" t="s">
-        <v>3967</v>
-      </c>
-    </row>
-    <row r="1231" hidden="1" spans="2:5">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5">
+      <c r="A1231" s="1">
+        <v>1</v>
+      </c>
       <c r="B1231" s="1" t="s">
-        <v>3968</v>
+        <v>3970</v>
       </c>
       <c r="C1231" s="1" t="s">
-        <v>3969</v>
+        <v>3971</v>
       </c>
       <c r="D1231" s="1" t="s">
-        <v>3970</v>
+        <v>3972</v>
       </c>
       <c r="E1231" s="1" t="s">
-        <v>3971</v>
-      </c>
-    </row>
-    <row r="1232" ht="37.5" hidden="1" spans="2:4">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="1232" ht="37.5" spans="1:5">
+      <c r="A1232" s="1">
+        <v>1</v>
+      </c>
       <c r="B1232" s="1" t="s">
-        <v>3972</v>
+        <v>3974</v>
       </c>
       <c r="C1232" s="1" t="s">
-        <v>3973</v>
+        <v>3975</v>
       </c>
       <c r="D1232" s="1" t="s">
-        <v>3974</v>
+        <v>3976</v>
+      </c>
+      <c r="E1232" s="1" t="s">
+        <v>3977</v>
       </c>
     </row>
     <row r="1233" hidden="1" spans="2:4">
       <c r="B1233" s="1" t="s">
-        <v>3975</v>
+        <v>3978</v>
       </c>
       <c r="C1233" s="1" t="s">
-        <v>3976</v>
+        <v>3979</v>
       </c>
       <c r="D1233" s="1" t="s">
-        <v>3977</v>
+        <v>3980</v>
       </c>
     </row>
     <row r="1234" hidden="1" spans="2:4">
       <c r="B1234" s="1" t="s">
-        <v>3978</v>
+        <v>3981</v>
       </c>
       <c r="C1234" s="1" t="s">
-        <v>3979</v>
+        <v>3982</v>
       </c>
       <c r="D1234" s="1" t="s">
-        <v>3980</v>
+        <v>3983</v>
       </c>
     </row>
     <row r="1235" hidden="1" spans="2:4">
       <c r="B1235" s="1" t="s">
-        <v>3981</v>
+        <v>3984</v>
       </c>
       <c r="C1235" s="1" t="s">
-        <v>3982</v>
+        <v>3985</v>
       </c>
       <c r="D1235" s="1" t="s">
-        <v>3983</v>
+        <v>3986</v>
       </c>
     </row>
     <row r="1236" hidden="1" spans="2:4">
       <c r="B1236" s="1" t="s">
-        <v>3984</v>
+        <v>3987</v>
       </c>
       <c r="C1236" s="1" t="s">
-        <v>3985</v>
+        <v>3988</v>
       </c>
       <c r="D1236" s="1" t="s">
-        <v>3986</v>
+        <v>3989</v>
       </c>
     </row>
     <row r="1237" hidden="1" spans="2:4">
       <c r="B1237" s="1" t="s">
-        <v>3987</v>
+        <v>3990</v>
       </c>
       <c r="C1237" s="1" t="s">
-        <v>3988</v>
+        <v>3991</v>
       </c>
       <c r="D1237" s="1" t="s">
-        <v>3989</v>
+        <v>3992</v>
       </c>
     </row>
     <row r="1238" hidden="1" spans="2:4">
       <c r="B1238" s="1" t="s">
-        <v>3990</v>
+        <v>3993</v>
       </c>
       <c r="C1238" s="1" t="s">
-        <v>3991</v>
+        <v>3994</v>
       </c>
       <c r="D1238" s="1" t="s">
-        <v>3992</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="1239" ht="75" hidden="1" spans="2:5">
       <c r="B1239" s="1" t="s">
-        <v>3993</v>
+        <v>3996</v>
       </c>
       <c r="C1239" s="1" t="s">
-        <v>3994</v>
+        <v>3997</v>
       </c>
       <c r="D1239" s="1" t="s">
-        <v>3995</v>
+        <v>3998</v>
       </c>
       <c r="E1239" s="1" t="s">
-        <v>3996</v>
-      </c>
-    </row>
-    <row r="1240" hidden="1" spans="2:4">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4">
+      <c r="A1240" s="1">
+        <v>1</v>
+      </c>
       <c r="B1240" s="1" t="s">
-        <v>3997</v>
+        <v>4000</v>
       </c>
       <c r="C1240" s="1" t="s">
-        <v>3998</v>
+        <v>4001</v>
       </c>
       <c r="D1240" s="1" t="s">
-        <v>3999</v>
+        <v>4002</v>
       </c>
     </row>
     <row r="1241" hidden="1" spans="2:4">
       <c r="B1241" s="1" t="s">
-        <v>4000</v>
+        <v>4003</v>
       </c>
       <c r="C1241" s="1" t="s">
-        <v>4001</v>
+        <v>4004</v>
       </c>
       <c r="D1241" s="1" t="s">
-        <v>4002</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="1242" ht="37.5" hidden="1" spans="2:4">
       <c r="B1242" s="1" t="s">
-        <v>4003</v>
+        <v>4006</v>
       </c>
       <c r="C1242" s="1" t="s">
-        <v>4004</v>
+        <v>4007</v>
       </c>
       <c r="D1242" s="1" t="s">
-        <v>4005</v>
-      </c>
-    </row>
-    <row r="1243" hidden="1" spans="2:4">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4">
+      <c r="A1243" s="1">
+        <v>1</v>
+      </c>
       <c r="B1243" s="1" t="s">
-        <v>4006</v>
+        <v>4009</v>
       </c>
       <c r="C1243" s="1" t="s">
-        <v>4007</v>
+        <v>4010</v>
       </c>
       <c r="D1243" s="1" t="s">
-        <v>4008</v>
-      </c>
-    </row>
-    <row r="1244" hidden="1" spans="2:4">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4">
+      <c r="A1244" s="1">
+        <v>1</v>
+      </c>
       <c r="B1244" s="1" t="s">
-        <v>4009</v>
+        <v>4012</v>
       </c>
       <c r="C1244" s="1" t="s">
-        <v>4010</v>
+        <v>4013</v>
       </c>
       <c r="D1244" s="1" t="s">
-        <v>4011</v>
-      </c>
-    </row>
-    <row r="1245" ht="37.5" hidden="1" spans="2:4">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="1245" ht="37.5" spans="1:4">
+      <c r="A1245" s="1">
+        <v>1</v>
+      </c>
       <c r="B1245" s="1" t="s">
-        <v>4012</v>
+        <v>4015</v>
       </c>
       <c r="C1245" s="1" t="s">
-        <v>4013</v>
+        <v>4016</v>
       </c>
       <c r="D1245" s="1" t="s">
-        <v>4014</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1246" hidden="1" spans="2:5">
@@ -44062,653 +44155,737 @@
         <v>3709</v>
       </c>
       <c r="C1246" s="1" t="s">
-        <v>4015</v>
+        <v>4018</v>
       </c>
       <c r="D1246" s="1" t="s">
-        <v>4016</v>
+        <v>4019</v>
       </c>
       <c r="E1246" s="1" t="s">
-        <v>4017</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1247" hidden="1" spans="2:4">
       <c r="B1247" s="1" t="s">
-        <v>4018</v>
+        <v>4021</v>
       </c>
       <c r="C1247" s="1" t="s">
-        <v>4019</v>
+        <v>4022</v>
       </c>
       <c r="D1247" s="1" t="s">
-        <v>4020</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="1248" ht="37.5" hidden="1" spans="2:4">
       <c r="B1248" s="1" t="s">
-        <v>4021</v>
+        <v>4024</v>
       </c>
       <c r="C1248" s="1" t="s">
-        <v>4022</v>
+        <v>4025</v>
       </c>
       <c r="D1248" s="1" t="s">
-        <v>4023</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1249" ht="37.5" hidden="1" spans="2:4">
       <c r="B1249" s="1" t="s">
-        <v>4024</v>
+        <v>4027</v>
       </c>
       <c r="C1249" s="1" t="s">
-        <v>4025</v>
+        <v>4028</v>
       </c>
       <c r="D1249" s="1" t="s">
-        <v>4026</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="1250" hidden="1" spans="2:4">
       <c r="B1250" s="1" t="s">
-        <v>4027</v>
+        <v>4030</v>
       </c>
       <c r="C1250" s="1" t="s">
-        <v>4028</v>
+        <v>4031</v>
       </c>
       <c r="D1250" s="1" t="s">
-        <v>4029</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1251" hidden="1" spans="2:4">
       <c r="B1251" s="1" t="s">
-        <v>4030</v>
+        <v>4033</v>
       </c>
       <c r="C1251" s="1" t="s">
-        <v>4031</v>
+        <v>4034</v>
       </c>
       <c r="D1251" s="1" t="s">
-        <v>4032</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1252" ht="37.5" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
-        <v>4033</v>
+        <v>4036</v>
       </c>
       <c r="C1252" s="1" t="s">
-        <v>4034</v>
+        <v>4037</v>
       </c>
       <c r="D1252" s="1" t="s">
-        <v>4035</v>
+        <v>4038</v>
       </c>
       <c r="E1252" s="1" t="s">
-        <v>4036</v>
-      </c>
-    </row>
-    <row r="1253" hidden="1" spans="2:5">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="1253" ht="56.25" spans="1:5">
+      <c r="A1253" s="1">
+        <v>1</v>
+      </c>
       <c r="B1253" s="1" t="s">
-        <v>4037</v>
+        <v>4040</v>
       </c>
       <c r="C1253" s="1" t="s">
-        <v>4038</v>
+        <v>4041</v>
       </c>
       <c r="D1253" s="1" t="s">
-        <v>4039</v>
+        <v>4042</v>
       </c>
       <c r="E1253" s="1" t="s">
-        <v>4040</v>
-      </c>
-    </row>
-    <row r="1254" ht="37.5" hidden="1" spans="2:4">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="1254" ht="37.5" spans="1:4">
+      <c r="A1254" s="1">
+        <v>1</v>
+      </c>
       <c r="B1254" s="1" t="s">
-        <v>4041</v>
+        <v>4044</v>
       </c>
       <c r="C1254" s="1" t="s">
-        <v>4042</v>
+        <v>4045</v>
       </c>
       <c r="D1254" s="1" t="s">
-        <v>4043</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="1255" hidden="1" spans="2:4">
       <c r="B1255" s="1" t="s">
-        <v>4044</v>
+        <v>4047</v>
       </c>
       <c r="C1255" s="1" t="s">
-        <v>4045</v>
+        <v>4048</v>
       </c>
       <c r="D1255" s="1" t="s">
-        <v>4046</v>
-      </c>
-    </row>
-    <row r="1256" hidden="1" spans="2:4">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4">
+      <c r="A1256" s="1">
+        <v>1</v>
+      </c>
       <c r="B1256" s="1" t="s">
-        <v>4047</v>
+        <v>4050</v>
       </c>
       <c r="C1256" s="1" t="s">
-        <v>4048</v>
+        <v>4051</v>
       </c>
       <c r="D1256" s="1" t="s">
-        <v>4049</v>
-      </c>
-    </row>
-    <row r="1257" ht="37.5" hidden="1" spans="2:4">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="1257" ht="37.5" spans="1:4">
+      <c r="A1257" s="1">
+        <v>1</v>
+      </c>
       <c r="B1257" s="1" t="s">
-        <v>4050</v>
+        <v>4053</v>
       </c>
       <c r="C1257" s="1" t="s">
-        <v>4051</v>
+        <v>4054</v>
       </c>
       <c r="D1257" s="1" t="s">
-        <v>4052</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="1258" hidden="1" spans="2:4">
       <c r="B1258" s="1" t="s">
-        <v>4053</v>
+        <v>4056</v>
       </c>
       <c r="C1258" s="1" t="s">
-        <v>4054</v>
+        <v>4057</v>
       </c>
       <c r="D1258" s="1" t="s">
-        <v>4055</v>
-      </c>
-    </row>
-    <row r="1259" ht="37.5" hidden="1" spans="2:5">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="1259" ht="37.5" spans="1:5">
+      <c r="A1259" s="1">
+        <v>1</v>
+      </c>
       <c r="B1259" s="1" t="s">
-        <v>4056</v>
+        <v>4059</v>
       </c>
       <c r="C1259" s="1" t="s">
-        <v>4057</v>
+        <v>4060</v>
       </c>
       <c r="D1259" s="1" t="s">
-        <v>4058</v>
+        <v>4061</v>
       </c>
       <c r="E1259" s="1" t="s">
-        <v>4059</v>
-      </c>
-    </row>
-    <row r="1260" hidden="1" spans="2:4">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4">
+      <c r="A1260" s="1">
+        <v>1</v>
+      </c>
       <c r="B1260" s="1" t="s">
-        <v>4060</v>
+        <v>4063</v>
       </c>
       <c r="C1260" s="1" t="s">
-        <v>4061</v>
+        <v>4064</v>
       </c>
       <c r="D1260" s="1" t="s">
-        <v>4062</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="1261" hidden="1" spans="2:4">
       <c r="B1261" s="1" t="s">
-        <v>4063</v>
+        <v>4066</v>
       </c>
       <c r="C1261" s="1" t="s">
-        <v>4064</v>
+        <v>4067</v>
       </c>
       <c r="D1261" s="1" t="s">
-        <v>4065</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="1262" hidden="1" spans="2:4">
       <c r="B1262" s="1" t="s">
-        <v>4066</v>
+        <v>4069</v>
       </c>
       <c r="C1262" s="1" t="s">
-        <v>4067</v>
+        <v>4070</v>
       </c>
       <c r="D1262" s="1" t="s">
-        <v>4068</v>
-      </c>
-    </row>
-    <row r="1263" hidden="1" spans="2:4">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5">
+      <c r="A1263" s="1">
+        <v>1</v>
+      </c>
       <c r="B1263" s="1" t="s">
-        <v>4069</v>
+        <v>4072</v>
       </c>
       <c r="C1263" s="1" t="s">
-        <v>4070</v>
+        <v>4073</v>
       </c>
       <c r="D1263" s="1" t="s">
-        <v>4071</v>
+        <v>4074</v>
+      </c>
+      <c r="E1263" s="1" t="s">
+        <v>4075</v>
       </c>
     </row>
     <row r="1264" hidden="1" spans="2:4">
       <c r="B1264" s="1" t="s">
-        <v>4072</v>
+        <v>4076</v>
       </c>
       <c r="C1264" s="1" t="s">
-        <v>4073</v>
+        <v>4077</v>
       </c>
       <c r="D1264" s="1" t="s">
-        <v>4074</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="1265" hidden="1" spans="2:4">
       <c r="B1265" s="1" t="s">
-        <v>4075</v>
+        <v>4079</v>
       </c>
       <c r="C1265" s="1" t="s">
-        <v>4076</v>
+        <v>4080</v>
       </c>
       <c r="D1265" s="1" t="s">
-        <v>4077</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="1266" hidden="1" spans="2:4">
       <c r="B1266" s="1" t="s">
-        <v>4078</v>
+        <v>4082</v>
       </c>
       <c r="C1266" s="1" t="s">
-        <v>4079</v>
+        <v>4083</v>
       </c>
       <c r="D1266" s="1" t="s">
-        <v>4080</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="1267" hidden="1" spans="2:4">
       <c r="B1267" s="1" t="s">
-        <v>4081</v>
+        <v>4085</v>
       </c>
       <c r="C1267" s="1" t="s">
-        <v>4082</v>
+        <v>4086</v>
       </c>
       <c r="D1267" s="1" t="s">
-        <v>4083</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="1268" hidden="1" spans="2:4">
       <c r="B1268" s="1" t="s">
-        <v>4084</v>
+        <v>4088</v>
       </c>
       <c r="C1268" s="1" t="s">
-        <v>4085</v>
+        <v>4089</v>
       </c>
       <c r="D1268" s="1" t="s">
-        <v>4086</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="1269" hidden="1" spans="2:4">
       <c r="B1269" s="1" t="s">
-        <v>4087</v>
+        <v>4091</v>
       </c>
       <c r="C1269" s="1" t="s">
-        <v>4088</v>
+        <v>4092</v>
       </c>
       <c r="D1269" s="1" t="s">
-        <v>4089</v>
-      </c>
-    </row>
-    <row r="1270" hidden="1" spans="2:5">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="1270" ht="37.5" spans="1:5">
+      <c r="A1270" s="1">
+        <v>1</v>
+      </c>
       <c r="B1270" s="1" t="s">
-        <v>4090</v>
+        <v>4094</v>
       </c>
       <c r="C1270" s="1" t="s">
-        <v>4091</v>
+        <v>4095</v>
       </c>
       <c r="D1270" s="1" t="s">
-        <v>4092</v>
+        <v>4096</v>
       </c>
       <c r="E1270" s="1" t="s">
-        <v>4093</v>
-      </c>
-    </row>
-    <row r="1271" hidden="1" spans="2:4">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4">
+      <c r="A1271" s="1">
+        <v>1</v>
+      </c>
       <c r="B1271" s="1" t="s">
-        <v>4094</v>
+        <v>4098</v>
       </c>
       <c r="C1271" s="1" t="s">
-        <v>4095</v>
+        <v>4099</v>
       </c>
       <c r="D1271" s="1" t="s">
-        <v>4096</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1272" hidden="1" spans="2:4">
       <c r="B1272" s="1" t="s">
-        <v>4097</v>
+        <v>4101</v>
       </c>
       <c r="C1272" s="1" t="s">
-        <v>4098</v>
+        <v>4102</v>
       </c>
       <c r="D1272" s="1" t="s">
-        <v>4099</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="1273" ht="37.5" hidden="1" spans="2:4">
       <c r="B1273" s="1" t="s">
-        <v>4100</v>
+        <v>4104</v>
       </c>
       <c r="C1273" s="1" t="s">
-        <v>4101</v>
+        <v>4105</v>
       </c>
       <c r="D1273" s="1" t="s">
-        <v>4102</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="1274" ht="37.5" hidden="1" spans="2:4">
       <c r="B1274" s="1" t="s">
-        <v>4103</v>
+        <v>4107</v>
       </c>
       <c r="C1274" s="1" t="s">
-        <v>4104</v>
+        <v>4108</v>
       </c>
       <c r="D1274" s="1" t="s">
-        <v>4105</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="1275" hidden="1" spans="2:4">
       <c r="B1275" s="1" t="s">
-        <v>4106</v>
+        <v>4110</v>
       </c>
       <c r="C1275" s="1" t="s">
-        <v>4107</v>
+        <v>4111</v>
       </c>
       <c r="D1275" s="1" t="s">
-        <v>4108</v>
-      </c>
-    </row>
-    <row r="1276" hidden="1" spans="2:4">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4">
+      <c r="A1276" s="1">
+        <v>1</v>
+      </c>
       <c r="B1276" s="1" t="s">
-        <v>4109</v>
+        <v>4113</v>
       </c>
       <c r="C1276" s="1" t="s">
-        <v>4110</v>
+        <v>4114</v>
       </c>
       <c r="D1276" s="1" t="s">
-        <v>4111</v>
-      </c>
-    </row>
-    <row r="1277" hidden="1" spans="2:4">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4">
+      <c r="A1277" s="1">
+        <v>1</v>
+      </c>
       <c r="B1277" s="1" t="s">
-        <v>4112</v>
+        <v>4116</v>
       </c>
       <c r="C1277" s="1" t="s">
-        <v>4113</v>
+        <v>4117</v>
       </c>
       <c r="D1277" s="1" t="s">
-        <v>4114</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1278" hidden="1" spans="2:4">
       <c r="B1278" s="1" t="s">
-        <v>4115</v>
+        <v>4119</v>
       </c>
       <c r="C1278" s="1" t="s">
-        <v>4116</v>
+        <v>4120</v>
       </c>
       <c r="D1278" s="1" t="s">
-        <v>4117</v>
-      </c>
-    </row>
-    <row r="1279" hidden="1" spans="2:4">
+        <v>4121</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5">
+      <c r="A1279" s="1">
+        <v>1</v>
+      </c>
       <c r="B1279" s="1" t="s">
-        <v>4118</v>
+        <v>4122</v>
       </c>
       <c r="C1279" s="1" t="s">
-        <v>4119</v>
+        <v>4123</v>
       </c>
       <c r="D1279" s="1" t="s">
-        <v>4120</v>
-      </c>
-    </row>
-    <row r="1280" hidden="1" spans="2:4">
+        <v>4124</v>
+      </c>
+      <c r="E1279" s="1" t="s">
+        <v>4125</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4">
+      <c r="A1280" s="1">
+        <v>1</v>
+      </c>
       <c r="B1280" s="1" t="s">
-        <v>4121</v>
+        <v>4126</v>
       </c>
       <c r="C1280" s="1" t="s">
-        <v>4122</v>
+        <v>4127</v>
       </c>
       <c r="D1280" s="1" t="s">
-        <v>4123</v>
-      </c>
-    </row>
-    <row r="1281" hidden="1" spans="2:4">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4">
+      <c r="A1281" s="1">
+        <v>1</v>
+      </c>
       <c r="B1281" s="1" t="s">
-        <v>4124</v>
+        <v>4129</v>
       </c>
       <c r="C1281" s="1" t="s">
-        <v>4125</v>
+        <v>4130</v>
       </c>
       <c r="D1281" s="1" t="s">
-        <v>4126</v>
-      </c>
-    </row>
-    <row r="1282" hidden="1" spans="2:5">
+        <v>4131</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:5">
+      <c r="A1282" s="1">
+        <v>1</v>
+      </c>
       <c r="B1282" s="1" t="s">
-        <v>4127</v>
+        <v>4132</v>
       </c>
       <c r="C1282" s="1" t="s">
-        <v>4128</v>
+        <v>4133</v>
       </c>
       <c r="D1282" s="1" t="s">
-        <v>4129</v>
+        <v>4134</v>
       </c>
       <c r="E1282" s="1" t="s">
-        <v>4130</v>
-      </c>
-    </row>
-    <row r="1283" hidden="1" spans="2:4">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4">
+      <c r="A1283" s="1">
+        <v>1</v>
+      </c>
       <c r="B1283" s="1" t="s">
-        <v>4131</v>
+        <v>4136</v>
       </c>
       <c r="C1283" s="1" t="s">
-        <v>4132</v>
+        <v>4137</v>
       </c>
       <c r="D1283" s="1" t="s">
-        <v>4133</v>
-      </c>
-    </row>
-    <row r="1284" ht="37.5" hidden="1" spans="2:4">
+        <v>4138</v>
+      </c>
+    </row>
+    <row r="1284" ht="37.5" spans="1:4">
+      <c r="A1284" s="1">
+        <v>1</v>
+      </c>
       <c r="B1284" s="1" t="s">
-        <v>4134</v>
+        <v>4139</v>
       </c>
       <c r="C1284" s="1" t="s">
-        <v>4135</v>
+        <v>4140</v>
       </c>
       <c r="D1284" s="1" t="s">
-        <v>4136</v>
-      </c>
-    </row>
-    <row r="1285" hidden="1" spans="2:4">
+        <v>4141</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4">
+      <c r="A1285" s="1">
+        <v>1</v>
+      </c>
       <c r="B1285" s="1" t="s">
-        <v>4137</v>
+        <v>4142</v>
       </c>
       <c r="C1285" s="1" t="s">
-        <v>4138</v>
+        <v>4143</v>
       </c>
       <c r="D1285" s="1" t="s">
-        <v>4139</v>
+        <v>4144</v>
       </c>
     </row>
     <row r="1286" hidden="1" spans="2:4">
       <c r="B1286" s="1" t="s">
-        <v>4140</v>
+        <v>4145</v>
       </c>
       <c r="C1286" s="1" t="s">
-        <v>4141</v>
+        <v>4146</v>
       </c>
       <c r="D1286" s="1" t="s">
-        <v>4142</v>
-      </c>
-    </row>
-    <row r="1287" hidden="1" spans="2:5">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:5">
+      <c r="A1287" s="1">
+        <v>1</v>
+      </c>
       <c r="B1287" s="1" t="s">
-        <v>4143</v>
+        <v>4148</v>
       </c>
       <c r="C1287" s="1" t="s">
-        <v>4144</v>
+        <v>4149</v>
       </c>
       <c r="D1287" s="1" t="s">
-        <v>4145</v>
+        <v>4150</v>
       </c>
       <c r="E1287" s="1" t="s">
-        <v>4146</v>
-      </c>
-    </row>
-    <row r="1288" hidden="1" spans="2:4">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:5">
+      <c r="A1288" s="1">
+        <v>1</v>
+      </c>
       <c r="B1288" s="1" t="s">
-        <v>4147</v>
+        <v>4152</v>
       </c>
       <c r="C1288" s="1" t="s">
-        <v>4148</v>
+        <v>4153</v>
       </c>
       <c r="D1288" s="1" t="s">
-        <v>4149</v>
+        <v>4154</v>
+      </c>
+      <c r="E1288" s="1" t="s">
+        <v>4155</v>
       </c>
     </row>
     <row r="1289" hidden="1" spans="2:4">
       <c r="B1289" s="1" t="s">
-        <v>4150</v>
+        <v>4156</v>
       </c>
       <c r="C1289" s="1" t="s">
-        <v>4151</v>
+        <v>4157</v>
       </c>
       <c r="D1289" s="1" t="s">
-        <v>4152</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="1290" hidden="1" spans="2:5">
       <c r="B1290" s="1" t="s">
-        <v>4153</v>
+        <v>4159</v>
       </c>
       <c r="C1290" s="1" t="s">
-        <v>4154</v>
+        <v>4160</v>
       </c>
       <c r="D1290" s="1" t="s">
-        <v>4155</v>
+        <v>4161</v>
       </c>
       <c r="E1290" s="1" t="s">
-        <v>4156</v>
-      </c>
-    </row>
-    <row r="1291" hidden="1" spans="2:4">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4">
+      <c r="A1291" s="1">
+        <v>1</v>
+      </c>
       <c r="B1291" s="1" t="s">
-        <v>4157</v>
+        <v>4163</v>
       </c>
       <c r="C1291" s="1" t="s">
-        <v>4158</v>
+        <v>4164</v>
       </c>
       <c r="D1291" s="1" t="s">
-        <v>4159</v>
-      </c>
-    </row>
-    <row r="1292" hidden="1" spans="2:4">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4">
+      <c r="A1292" s="1">
+        <v>1</v>
+      </c>
       <c r="B1292" s="1" t="s">
-        <v>4160</v>
+        <v>4166</v>
       </c>
       <c r="C1292" s="1" t="s">
-        <v>4161</v>
+        <v>4167</v>
       </c>
       <c r="D1292" s="1" t="s">
-        <v>4162</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1293" hidden="1" spans="2:4">
       <c r="B1293" s="1" t="s">
-        <v>4163</v>
+        <v>4169</v>
       </c>
       <c r="C1293" s="1" t="s">
-        <v>4164</v>
+        <v>4170</v>
       </c>
       <c r="D1293" s="1" t="s">
-        <v>4165</v>
-      </c>
-    </row>
-    <row r="1294" ht="93.75" hidden="1" spans="2:5">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="1294" ht="93.75" spans="1:5">
+      <c r="A1294" s="1">
+        <v>1</v>
+      </c>
       <c r="B1294" s="1" t="s">
-        <v>4166</v>
+        <v>4172</v>
       </c>
       <c r="C1294" s="1" t="s">
-        <v>4167</v>
+        <v>4173</v>
       </c>
       <c r="D1294" s="1" t="s">
-        <v>4168</v>
+        <v>4174</v>
       </c>
       <c r="E1294" s="1" t="s">
-        <v>4169</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="1295" hidden="1" spans="2:4">
       <c r="B1295" s="1" t="s">
-        <v>4170</v>
+        <v>4176</v>
       </c>
       <c r="C1295" s="1" t="s">
-        <v>4171</v>
+        <v>4177</v>
       </c>
       <c r="D1295" s="1" t="s">
-        <v>4172</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="1296" hidden="1" spans="2:4">
       <c r="B1296" s="1" t="s">
-        <v>4173</v>
+        <v>4179</v>
       </c>
       <c r="C1296" s="1" t="s">
-        <v>4174</v>
+        <v>4180</v>
       </c>
       <c r="D1296" s="1" t="s">
-        <v>4175</v>
-      </c>
-    </row>
-    <row r="1297" hidden="1" spans="2:4">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4">
+      <c r="A1297" s="1">
+        <v>1</v>
+      </c>
       <c r="B1297" s="1" t="s">
-        <v>4176</v>
+        <v>4182</v>
       </c>
       <c r="C1297" s="1" t="s">
-        <v>4177</v>
+        <v>4183</v>
       </c>
       <c r="D1297" s="1" t="s">
-        <v>4178</v>
-      </c>
-    </row>
-    <row r="1298" hidden="1" spans="2:4">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4">
+      <c r="A1298" s="1">
+        <v>1</v>
+      </c>
       <c r="B1298" s="1" t="s">
-        <v>4179</v>
+        <v>4185</v>
       </c>
       <c r="C1298" s="1" t="s">
-        <v>4180</v>
+        <v>4186</v>
       </c>
       <c r="D1298" s="1" t="s">
-        <v>4181</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="1299" ht="37.5" hidden="1" spans="2:4">
       <c r="B1299" s="1" t="s">
-        <v>4182</v>
+        <v>4188</v>
       </c>
       <c r="C1299" s="1" t="s">
-        <v>4183</v>
+        <v>4189</v>
       </c>
       <c r="D1299" s="1" t="s">
-        <v>4184</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1300" hidden="1" spans="2:4">
       <c r="B1300" s="1" t="s">
-        <v>4185</v>
+        <v>4191</v>
       </c>
       <c r="C1300" s="1" t="s">
-        <v>4186</v>
+        <v>4192</v>
       </c>
       <c r="D1300" s="1" t="s">
-        <v>4187</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="1301" hidden="1" spans="2:4">
       <c r="B1301" s="1" t="s">
-        <v>4188</v>
+        <v>4194</v>
       </c>
       <c r="C1301" s="1" t="s">
-        <v>4189</v>
+        <v>4195</v>
       </c>
       <c r="D1301" s="1" t="s">
-        <v>4190</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1302" hidden="1" spans="2:5">
       <c r="B1302" s="1" t="s">
-        <v>4191</v>
+        <v>4197</v>
       </c>
       <c r="C1302" s="1" t="s">
-        <v>4192</v>
+        <v>4198</v>
       </c>
       <c r="D1302" s="1" t="s">
-        <v>4193</v>
+        <v>4199</v>
       </c>
       <c r="E1302" s="1" t="s">
         <v>397</v>
@@ -44716,1348 +44893,1348 @@
     </row>
     <row r="1303" hidden="1" spans="2:4">
       <c r="B1303" s="1" t="s">
-        <v>4194</v>
+        <v>4200</v>
       </c>
       <c r="C1303" s="1" t="s">
-        <v>4195</v>
+        <v>4201</v>
       </c>
       <c r="D1303" s="1" t="s">
-        <v>4196</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1304" ht="37.5" hidden="1" spans="2:4">
       <c r="B1304" s="1" t="s">
-        <v>4197</v>
+        <v>4203</v>
       </c>
       <c r="C1304" s="1" t="s">
-        <v>4198</v>
+        <v>4204</v>
       </c>
       <c r="D1304" s="1" t="s">
-        <v>4199</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="1305" hidden="1" spans="2:4">
       <c r="B1305" s="1" t="s">
-        <v>4200</v>
+        <v>4206</v>
       </c>
       <c r="C1305" s="1" t="s">
-        <v>4201</v>
+        <v>4207</v>
       </c>
       <c r="D1305" s="1" t="s">
-        <v>4202</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1306" hidden="1" spans="2:4">
       <c r="B1306" s="1" t="s">
-        <v>4203</v>
+        <v>4209</v>
       </c>
       <c r="C1306" s="1" t="s">
-        <v>4204</v>
+        <v>4210</v>
       </c>
       <c r="D1306" s="1" t="s">
-        <v>4205</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="1307" hidden="1" spans="2:4">
       <c r="B1307" s="1" t="s">
-        <v>4206</v>
+        <v>4212</v>
       </c>
       <c r="C1307" s="1" t="s">
-        <v>4207</v>
+        <v>4213</v>
       </c>
       <c r="D1307" s="1" t="s">
-        <v>4208</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1308" hidden="1" spans="2:4">
       <c r="B1308" s="1" t="s">
-        <v>4209</v>
+        <v>4215</v>
       </c>
       <c r="C1308" s="1" t="s">
-        <v>4210</v>
+        <v>4216</v>
       </c>
       <c r="D1308" s="1" t="s">
-        <v>4211</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="1309" hidden="1" spans="2:4">
       <c r="B1309" s="1" t="s">
-        <v>4212</v>
+        <v>4218</v>
       </c>
       <c r="C1309" s="1" t="s">
-        <v>4213</v>
+        <v>4219</v>
       </c>
       <c r="D1309" s="1" t="s">
-        <v>4214</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1310" hidden="1" spans="2:4">
       <c r="B1310" s="1" t="s">
-        <v>4215</v>
+        <v>4221</v>
       </c>
       <c r="C1310" s="1" t="s">
-        <v>4216</v>
+        <v>4222</v>
       </c>
       <c r="D1310" s="1" t="s">
-        <v>4217</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="1311" ht="37.5" hidden="1" spans="2:4">
       <c r="B1311" s="1" t="s">
-        <v>4218</v>
+        <v>4224</v>
       </c>
       <c r="C1311" s="1" t="s">
-        <v>4219</v>
+        <v>4225</v>
       </c>
       <c r="D1311" s="1" t="s">
-        <v>4220</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="1312" hidden="1" spans="2:4">
       <c r="B1312" s="1" t="s">
-        <v>4221</v>
+        <v>4227</v>
       </c>
       <c r="C1312" s="1" t="s">
-        <v>4222</v>
+        <v>4228</v>
       </c>
       <c r="D1312" s="1" t="s">
-        <v>4223</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="1313" ht="150" hidden="1" spans="2:5">
       <c r="B1313" s="1" t="s">
-        <v>4224</v>
+        <v>4230</v>
       </c>
       <c r="C1313" s="1" t="s">
-        <v>4225</v>
+        <v>4231</v>
       </c>
       <c r="D1313" s="1" t="s">
-        <v>4226</v>
+        <v>4232</v>
       </c>
       <c r="E1313" s="1" t="s">
-        <v>4227</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="1314" hidden="1" spans="2:4">
       <c r="B1314" s="1" t="s">
-        <v>4228</v>
+        <v>4234</v>
       </c>
       <c r="C1314" s="1" t="s">
-        <v>4229</v>
+        <v>4235</v>
       </c>
       <c r="D1314" s="1" t="s">
-        <v>4230</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1315" hidden="1" spans="2:4">
       <c r="B1315" s="1" t="s">
-        <v>4231</v>
+        <v>4237</v>
       </c>
       <c r="C1315" s="1" t="s">
-        <v>4232</v>
+        <v>4238</v>
       </c>
       <c r="D1315" s="1" t="s">
-        <v>4233</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="1316" ht="37.5" hidden="1" spans="2:5">
       <c r="B1316" s="1" t="s">
-        <v>4234</v>
+        <v>4240</v>
       </c>
       <c r="C1316" s="1" t="s">
-        <v>4235</v>
+        <v>4241</v>
       </c>
       <c r="D1316" s="1" t="s">
-        <v>4236</v>
+        <v>4242</v>
       </c>
       <c r="E1316" s="1" t="s">
-        <v>4237</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="1317" hidden="1" spans="2:4">
       <c r="B1317" s="1" t="s">
-        <v>4238</v>
+        <v>4244</v>
       </c>
       <c r="C1317" s="1" t="s">
-        <v>4239</v>
+        <v>4245</v>
       </c>
       <c r="D1317" s="1" t="s">
-        <v>4240</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1318" ht="37.5" hidden="1" spans="2:4">
       <c r="B1318" s="1" t="s">
-        <v>4241</v>
+        <v>4247</v>
       </c>
       <c r="C1318" s="1" t="s">
-        <v>4242</v>
+        <v>4248</v>
       </c>
       <c r="D1318" s="1" t="s">
-        <v>4243</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="1319" hidden="1" spans="2:4">
       <c r="B1319" s="1" t="s">
-        <v>4244</v>
+        <v>4250</v>
       </c>
       <c r="C1319" s="1" t="s">
-        <v>4245</v>
+        <v>4251</v>
       </c>
       <c r="D1319" s="1" t="s">
-        <v>4246</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1320" hidden="1" spans="2:5">
       <c r="B1320" s="1" t="s">
-        <v>4247</v>
+        <v>4253</v>
       </c>
       <c r="C1320" s="1" t="s">
-        <v>4248</v>
+        <v>4254</v>
       </c>
       <c r="D1320" s="1" t="s">
-        <v>4249</v>
+        <v>4255</v>
       </c>
       <c r="E1320" s="1" t="s">
-        <v>4250</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1321" hidden="1" spans="2:4">
       <c r="B1321" s="1" t="s">
-        <v>4251</v>
+        <v>4257</v>
       </c>
       <c r="C1321" s="1" t="s">
-        <v>4252</v>
+        <v>4258</v>
       </c>
       <c r="D1321" s="1" t="s">
-        <v>4253</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="1322" hidden="1" spans="2:4">
       <c r="B1322" s="1" t="s">
-        <v>4254</v>
+        <v>4260</v>
       </c>
       <c r="C1322" s="1" t="s">
-        <v>4255</v>
+        <v>4261</v>
       </c>
       <c r="D1322" s="1" t="s">
-        <v>4256</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1323" hidden="1" spans="2:4">
       <c r="B1323" s="1" t="s">
-        <v>4257</v>
+        <v>4263</v>
       </c>
       <c r="C1323" s="1" t="s">
-        <v>4258</v>
+        <v>4264</v>
       </c>
       <c r="D1323" s="1" t="s">
-        <v>4259</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1324" hidden="1" spans="2:4">
       <c r="B1324" s="1" t="s">
-        <v>4260</v>
+        <v>4266</v>
       </c>
       <c r="C1324" s="1" t="s">
-        <v>4261</v>
+        <v>4267</v>
       </c>
       <c r="D1324" s="1" t="s">
-        <v>4262</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1325" hidden="1" spans="2:4">
       <c r="B1325" s="1" t="s">
-        <v>4263</v>
+        <v>4269</v>
       </c>
       <c r="C1325" s="1" t="s">
-        <v>4264</v>
+        <v>4270</v>
       </c>
       <c r="D1325" s="1" t="s">
-        <v>4265</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="1326" hidden="1" spans="2:4">
       <c r="B1326" s="1" t="s">
-        <v>4266</v>
+        <v>4272</v>
       </c>
       <c r="C1326" s="1" t="s">
-        <v>4267</v>
+        <v>4273</v>
       </c>
       <c r="D1326" s="1" t="s">
-        <v>4268</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1327" hidden="1" spans="2:5">
       <c r="B1327" s="1" t="s">
-        <v>4269</v>
+        <v>4275</v>
       </c>
       <c r="C1327" s="1" t="s">
-        <v>4270</v>
+        <v>4276</v>
       </c>
       <c r="D1327" s="1" t="s">
-        <v>4271</v>
+        <v>4277</v>
       </c>
       <c r="E1327" s="1" t="s">
-        <v>4272</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1328" ht="37.5" hidden="1" spans="2:4">
       <c r="B1328" s="1" t="s">
-        <v>4273</v>
+        <v>4279</v>
       </c>
       <c r="C1328" s="1" t="s">
-        <v>4274</v>
+        <v>4280</v>
       </c>
       <c r="D1328" s="1" t="s">
-        <v>4275</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="1329" hidden="1" spans="2:4">
       <c r="B1329" s="1" t="s">
-        <v>4276</v>
+        <v>4282</v>
       </c>
       <c r="C1329" s="1" t="s">
-        <v>4277</v>
+        <v>4283</v>
       </c>
       <c r="D1329" s="1" t="s">
-        <v>4278</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1330" hidden="1" spans="2:4">
       <c r="B1330" s="1" t="s">
-        <v>4279</v>
+        <v>4285</v>
       </c>
       <c r="C1330" s="1" t="s">
-        <v>4280</v>
+        <v>4286</v>
       </c>
       <c r="D1330" s="1" t="s">
-        <v>4281</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="1331" hidden="1" spans="2:4">
       <c r="B1331" s="1" t="s">
-        <v>4282</v>
+        <v>4288</v>
       </c>
       <c r="C1331" s="1" t="s">
-        <v>4283</v>
+        <v>4289</v>
       </c>
       <c r="D1331" s="1" t="s">
-        <v>4284</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1332" hidden="1" spans="2:5">
       <c r="B1332" s="1" t="s">
-        <v>4285</v>
+        <v>4291</v>
       </c>
       <c r="C1332" s="1" t="s">
-        <v>4286</v>
+        <v>4292</v>
       </c>
       <c r="D1332" s="1" t="s">
-        <v>4287</v>
+        <v>4293</v>
       </c>
       <c r="E1332" s="1" t="s">
-        <v>4288</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1333" ht="37.5" hidden="1" spans="2:4">
       <c r="B1333" s="1" t="s">
-        <v>4289</v>
+        <v>4295</v>
       </c>
       <c r="C1333" s="1" t="s">
-        <v>4290</v>
+        <v>4296</v>
       </c>
       <c r="D1333" s="1" t="s">
-        <v>4291</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1334" hidden="1" spans="2:4">
       <c r="B1334" s="1" t="s">
-        <v>4292</v>
+        <v>4298</v>
       </c>
       <c r="C1334" s="1" t="s">
-        <v>4293</v>
+        <v>4299</v>
       </c>
       <c r="D1334" s="1" t="s">
-        <v>4294</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1335" hidden="1" spans="2:4">
       <c r="B1335" s="1" t="s">
-        <v>4295</v>
+        <v>4301</v>
       </c>
       <c r="C1335" s="1" t="s">
-        <v>4296</v>
+        <v>4302</v>
       </c>
       <c r="D1335" s="1" t="s">
-        <v>4297</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1336" hidden="1" spans="2:4">
       <c r="B1336" s="1" t="s">
-        <v>4298</v>
+        <v>4304</v>
       </c>
       <c r="C1336" s="1" t="s">
-        <v>4299</v>
+        <v>4305</v>
       </c>
       <c r="D1336" s="1" t="s">
-        <v>4300</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1337" hidden="1" spans="2:4">
       <c r="B1337" s="1" t="s">
-        <v>4301</v>
+        <v>4307</v>
       </c>
       <c r="C1337" s="1" t="s">
-        <v>4302</v>
+        <v>4308</v>
       </c>
       <c r="D1337" s="1" t="s">
-        <v>4303</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1338" hidden="1" spans="2:4">
       <c r="B1338" s="1" t="s">
-        <v>4304</v>
+        <v>4310</v>
       </c>
       <c r="C1338" s="1" t="s">
-        <v>4305</v>
+        <v>4311</v>
       </c>
       <c r="D1338" s="1" t="s">
-        <v>4306</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="1339" hidden="1" spans="2:4">
       <c r="B1339" s="1" t="s">
-        <v>4307</v>
+        <v>4313</v>
       </c>
       <c r="C1339" s="1" t="s">
-        <v>4308</v>
+        <v>4314</v>
       </c>
       <c r="D1339" s="1" t="s">
-        <v>4309</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="1340" hidden="1" spans="2:4">
       <c r="B1340" s="1" t="s">
-        <v>4310</v>
+        <v>4316</v>
       </c>
       <c r="C1340" s="1" t="s">
-        <v>4311</v>
+        <v>4317</v>
       </c>
       <c r="D1340" s="1" t="s">
-        <v>4312</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="1341" hidden="1" spans="2:4">
       <c r="B1341" s="1" t="s">
-        <v>4313</v>
+        <v>4319</v>
       </c>
       <c r="C1341" s="1" t="s">
-        <v>4314</v>
+        <v>4320</v>
       </c>
       <c r="D1341" s="1" t="s">
-        <v>4315</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="1342" hidden="1" spans="2:4">
       <c r="B1342" s="1" t="s">
-        <v>4316</v>
+        <v>4322</v>
       </c>
       <c r="C1342" s="1" t="s">
-        <v>4317</v>
+        <v>4323</v>
       </c>
       <c r="D1342" s="1" t="s">
-        <v>4318</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="1343" ht="56.25" hidden="1" spans="2:5">
       <c r="B1343" s="1" t="s">
-        <v>4319</v>
+        <v>4325</v>
       </c>
       <c r="C1343" s="1" t="s">
-        <v>4320</v>
+        <v>4326</v>
       </c>
       <c r="D1343" s="1" t="s">
-        <v>4321</v>
+        <v>4327</v>
       </c>
       <c r="E1343" s="1" t="s">
-        <v>4322</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="1344" hidden="1" spans="2:4">
       <c r="B1344" s="1" t="s">
-        <v>4323</v>
+        <v>4329</v>
       </c>
       <c r="C1344" s="1" t="s">
-        <v>4324</v>
+        <v>4330</v>
       </c>
       <c r="D1344" s="1" t="s">
-        <v>4325</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="1345" hidden="1" spans="2:4">
       <c r="B1345" s="1" t="s">
-        <v>4326</v>
+        <v>4332</v>
       </c>
       <c r="C1345" s="1" t="s">
-        <v>4327</v>
+        <v>4333</v>
       </c>
       <c r="D1345" s="1" t="s">
-        <v>4328</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="1346" hidden="1" spans="2:4">
       <c r="B1346" s="1" t="s">
-        <v>4329</v>
+        <v>4335</v>
       </c>
       <c r="C1346" s="1" t="s">
-        <v>4330</v>
+        <v>4336</v>
       </c>
       <c r="D1346" s="1" t="s">
-        <v>4331</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="1347" hidden="1" spans="2:4">
       <c r="B1347" s="1" t="s">
-        <v>4332</v>
+        <v>4338</v>
       </c>
       <c r="C1347" s="1" t="s">
-        <v>4333</v>
+        <v>4339</v>
       </c>
       <c r="D1347" s="1" t="s">
-        <v>4334</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="1348" hidden="1" spans="2:4">
       <c r="B1348" s="1" t="s">
-        <v>4335</v>
+        <v>4341</v>
       </c>
       <c r="C1348" s="1" t="s">
-        <v>4336</v>
+        <v>4342</v>
       </c>
       <c r="D1348" s="1" t="s">
-        <v>4337</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="1349" ht="56.25" hidden="1" spans="2:5">
       <c r="B1349" s="1" t="s">
-        <v>4338</v>
+        <v>4344</v>
       </c>
       <c r="C1349" s="1" t="s">
-        <v>4339</v>
+        <v>4345</v>
       </c>
       <c r="D1349" s="1" t="s">
-        <v>4340</v>
+        <v>4346</v>
       </c>
       <c r="E1349" s="1" t="s">
-        <v>4341</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="1350" hidden="1" spans="2:4">
       <c r="B1350" s="1" t="s">
-        <v>4342</v>
+        <v>4348</v>
       </c>
       <c r="C1350" s="1" t="s">
-        <v>4343</v>
+        <v>4349</v>
       </c>
       <c r="D1350" s="1" t="s">
-        <v>4344</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="1351" hidden="1" spans="2:4">
       <c r="B1351" s="1" t="s">
-        <v>4345</v>
+        <v>4351</v>
       </c>
       <c r="C1351" s="1" t="s">
-        <v>4346</v>
+        <v>4352</v>
       </c>
       <c r="D1351" s="1" t="s">
-        <v>4347</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="1352" ht="37.5" hidden="1" spans="2:4">
       <c r="B1352" s="1" t="s">
-        <v>4348</v>
+        <v>4354</v>
       </c>
       <c r="C1352" s="1" t="s">
-        <v>4349</v>
+        <v>4355</v>
       </c>
       <c r="D1352" s="1" t="s">
-        <v>4350</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="1353" hidden="1" spans="2:4">
       <c r="B1353" s="1" t="s">
-        <v>4351</v>
+        <v>4357</v>
       </c>
       <c r="C1353" s="1" t="s">
-        <v>4352</v>
+        <v>4358</v>
       </c>
       <c r="D1353" s="1" t="s">
-        <v>4353</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="1354" hidden="1" spans="2:4">
       <c r="B1354" s="1" t="s">
-        <v>4354</v>
+        <v>4360</v>
       </c>
       <c r="C1354" s="1" t="s">
-        <v>4355</v>
+        <v>4361</v>
       </c>
       <c r="D1354" s="1" t="s">
-        <v>4356</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="1355" hidden="1" spans="2:4">
       <c r="B1355" s="1" t="s">
-        <v>4357</v>
+        <v>4363</v>
       </c>
       <c r="C1355" s="1" t="s">
-        <v>4358</v>
+        <v>4364</v>
       </c>
       <c r="D1355" s="1" t="s">
-        <v>4359</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="1356" hidden="1" spans="2:4">
       <c r="B1356" s="1" t="s">
-        <v>4360</v>
+        <v>4366</v>
       </c>
       <c r="C1356" s="1" t="s">
-        <v>4361</v>
+        <v>4367</v>
       </c>
       <c r="D1356" s="1" t="s">
-        <v>4362</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="1357" hidden="1" spans="2:4">
       <c r="B1357" s="1" t="s">
-        <v>4363</v>
+        <v>4369</v>
       </c>
       <c r="C1357" s="1" t="s">
-        <v>4364</v>
+        <v>4370</v>
       </c>
       <c r="D1357" s="1" t="s">
-        <v>4365</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="1358" ht="37.5" hidden="1" spans="2:5">
       <c r="B1358" s="1" t="s">
-        <v>4366</v>
+        <v>4372</v>
       </c>
       <c r="C1358" s="1" t="s">
-        <v>4367</v>
+        <v>4373</v>
       </c>
       <c r="D1358" s="1" t="s">
-        <v>4368</v>
+        <v>4374</v>
       </c>
       <c r="E1358" s="1" t="s">
-        <v>4369</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1359" hidden="1" spans="2:4">
       <c r="B1359" s="1" t="s">
-        <v>4370</v>
+        <v>4376</v>
       </c>
       <c r="C1359" s="1" t="s">
-        <v>4371</v>
+        <v>4377</v>
       </c>
       <c r="D1359" s="1" t="s">
-        <v>4372</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="1360" hidden="1" spans="2:4">
       <c r="B1360" s="1" t="s">
-        <v>4373</v>
+        <v>4379</v>
       </c>
       <c r="C1360" s="1" t="s">
-        <v>4374</v>
+        <v>4380</v>
       </c>
       <c r="D1360" s="1" t="s">
-        <v>4375</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1361" hidden="1" spans="2:5">
       <c r="B1361" s="1" t="s">
-        <v>4376</v>
+        <v>4382</v>
       </c>
       <c r="C1361" s="1" t="s">
-        <v>4377</v>
+        <v>4383</v>
       </c>
       <c r="D1361" s="1" t="s">
-        <v>4378</v>
+        <v>4384</v>
       </c>
       <c r="E1361" s="1" t="s">
-        <v>4379</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="1362" hidden="1" spans="2:4">
       <c r="B1362" s="1" t="s">
-        <v>4380</v>
+        <v>4386</v>
       </c>
       <c r="C1362" s="1" t="s">
-        <v>4381</v>
+        <v>4387</v>
       </c>
       <c r="D1362" s="1" t="s">
-        <v>4382</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="1363" hidden="1" spans="2:4">
       <c r="B1363" s="1" t="s">
-        <v>4383</v>
+        <v>4389</v>
       </c>
       <c r="C1363" s="1" t="s">
-        <v>4384</v>
+        <v>4390</v>
       </c>
       <c r="D1363" s="1" t="s">
-        <v>4385</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="1364" hidden="1" spans="2:4">
       <c r="B1364" s="1" t="s">
-        <v>4386</v>
+        <v>4392</v>
       </c>
       <c r="C1364" s="1" t="s">
-        <v>4387</v>
+        <v>4393</v>
       </c>
       <c r="D1364" s="1" t="s">
-        <v>4388</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="1365" ht="37.5" hidden="1" spans="2:4">
       <c r="B1365" s="1" t="s">
-        <v>4389</v>
+        <v>4395</v>
       </c>
       <c r="C1365" s="1" t="s">
-        <v>4390</v>
+        <v>4396</v>
       </c>
       <c r="D1365" s="1" t="s">
-        <v>4391</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="1366" ht="37.5" hidden="1" spans="2:4">
       <c r="B1366" s="1" t="s">
-        <v>4392</v>
+        <v>4398</v>
       </c>
       <c r="C1366" s="1" t="s">
-        <v>4393</v>
+        <v>4399</v>
       </c>
       <c r="D1366" s="1" t="s">
-        <v>4394</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="1367" hidden="1" spans="2:4">
       <c r="B1367" s="1" t="s">
-        <v>4395</v>
+        <v>4401</v>
       </c>
       <c r="C1367" s="1" t="s">
-        <v>4396</v>
+        <v>4402</v>
       </c>
       <c r="D1367" s="1" t="s">
-        <v>4397</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="1368" hidden="1" spans="2:4">
       <c r="B1368" s="1" t="s">
-        <v>4398</v>
+        <v>4404</v>
       </c>
       <c r="C1368" s="1" t="s">
-        <v>4399</v>
+        <v>4405</v>
       </c>
       <c r="D1368" s="1" t="s">
-        <v>4400</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="1369" hidden="1" spans="2:4">
       <c r="B1369" s="1" t="s">
-        <v>4401</v>
+        <v>4407</v>
       </c>
       <c r="C1369" s="1" t="s">
-        <v>4402</v>
+        <v>4408</v>
       </c>
       <c r="D1369" s="1" t="s">
-        <v>4403</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="1370" hidden="1" spans="2:4">
       <c r="B1370" s="1" t="s">
-        <v>4404</v>
+        <v>4410</v>
       </c>
       <c r="C1370" s="1" t="s">
-        <v>4405</v>
+        <v>4411</v>
       </c>
       <c r="D1370" s="1" t="s">
-        <v>4406</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1371" hidden="1" spans="2:4">
       <c r="B1371" s="1" t="s">
-        <v>4407</v>
+        <v>4413</v>
       </c>
       <c r="C1371" s="1" t="s">
-        <v>4408</v>
+        <v>4414</v>
       </c>
       <c r="D1371" s="1" t="s">
-        <v>4406</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="1372" hidden="1" spans="2:4">
       <c r="B1372" s="1" t="s">
-        <v>4409</v>
+        <v>4415</v>
       </c>
       <c r="C1372" s="1" t="s">
-        <v>4410</v>
+        <v>4416</v>
       </c>
       <c r="D1372" s="1" t="s">
-        <v>4411</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="1373" ht="37.5" hidden="1" spans="2:4">
       <c r="B1373" s="1" t="s">
-        <v>4412</v>
+        <v>4418</v>
       </c>
       <c r="C1373" s="1" t="s">
-        <v>4413</v>
+        <v>4419</v>
       </c>
       <c r="D1373" s="1" t="s">
-        <v>4414</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="1374" hidden="1" spans="2:4">
       <c r="B1374" s="1" t="s">
-        <v>4415</v>
+        <v>4421</v>
       </c>
       <c r="C1374" s="1" t="s">
-        <v>4416</v>
+        <v>4422</v>
       </c>
       <c r="D1374" s="1" t="s">
-        <v>4417</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="1375" ht="37.5" hidden="1" spans="2:4">
       <c r="B1375" s="1" t="s">
-        <v>4418</v>
+        <v>4424</v>
       </c>
       <c r="C1375" s="1" t="s">
-        <v>4419</v>
+        <v>4425</v>
       </c>
       <c r="D1375" s="1" t="s">
-        <v>4420</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="1376" hidden="1" spans="2:4">
       <c r="B1376" s="1" t="s">
-        <v>4421</v>
+        <v>4427</v>
       </c>
       <c r="C1376" s="1" t="s">
-        <v>4422</v>
+        <v>4428</v>
       </c>
       <c r="D1376" s="1" t="s">
-        <v>4423</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="1377" hidden="1" spans="2:4">
       <c r="B1377" s="1" t="s">
-        <v>4424</v>
+        <v>4430</v>
       </c>
       <c r="C1377" s="1" t="s">
-        <v>4425</v>
+        <v>4431</v>
       </c>
       <c r="D1377" s="1" t="s">
-        <v>4426</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="1378" hidden="1" spans="2:4">
       <c r="B1378" s="1" t="s">
-        <v>4427</v>
+        <v>4433</v>
       </c>
       <c r="C1378" s="1" t="s">
-        <v>4428</v>
+        <v>4434</v>
       </c>
       <c r="D1378" s="1" t="s">
-        <v>4429</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="1379" hidden="1" spans="2:4">
       <c r="B1379" s="1" t="s">
-        <v>4430</v>
+        <v>4436</v>
       </c>
       <c r="C1379" s="1" t="s">
-        <v>4431</v>
+        <v>4437</v>
       </c>
       <c r="D1379" s="1" t="s">
-        <v>4432</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="1380" hidden="1" spans="2:4">
       <c r="B1380" s="1" t="s">
-        <v>4433</v>
+        <v>4439</v>
       </c>
       <c r="C1380" s="1" t="s">
-        <v>4434</v>
+        <v>4440</v>
       </c>
       <c r="D1380" s="1" t="s">
-        <v>4435</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="1381" ht="112.5" hidden="1" spans="2:5">
       <c r="B1381" s="1" t="s">
-        <v>4436</v>
+        <v>4442</v>
       </c>
       <c r="C1381" s="1" t="s">
-        <v>4437</v>
+        <v>4443</v>
       </c>
       <c r="D1381" s="1" t="s">
-        <v>4438</v>
+        <v>4444</v>
       </c>
       <c r="E1381" s="1" t="s">
-        <v>4439</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="1382" ht="37.5" hidden="1" spans="2:5">
       <c r="B1382" s="1" t="s">
-        <v>4440</v>
+        <v>4446</v>
       </c>
       <c r="C1382" s="1" t="s">
-        <v>4441</v>
+        <v>4447</v>
       </c>
       <c r="D1382" s="1" t="s">
-        <v>4442</v>
+        <v>4448</v>
       </c>
       <c r="E1382" s="1" t="s">
-        <v>4443</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="1383" ht="37.5" hidden="1" spans="2:5">
       <c r="B1383" s="1" t="s">
-        <v>4444</v>
+        <v>4450</v>
       </c>
       <c r="C1383" s="1" t="s">
-        <v>4445</v>
+        <v>4451</v>
       </c>
       <c r="D1383" s="1" t="s">
-        <v>4446</v>
+        <v>4452</v>
       </c>
       <c r="E1383" s="1" t="s">
-        <v>4447</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="1384" hidden="1" spans="2:4">
       <c r="B1384" s="1" t="s">
-        <v>4448</v>
+        <v>4454</v>
       </c>
       <c r="C1384" s="1" t="s">
-        <v>4449</v>
+        <v>4455</v>
       </c>
       <c r="D1384" s="1" t="s">
-        <v>4450</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="1385" hidden="1" spans="2:4">
       <c r="B1385" s="1" t="s">
-        <v>4451</v>
+        <v>4457</v>
       </c>
       <c r="C1385" s="1" t="s">
-        <v>4452</v>
+        <v>4458</v>
       </c>
       <c r="D1385" s="1" t="s">
-        <v>4453</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="1386" hidden="1" spans="2:4">
       <c r="B1386" s="1" t="s">
-        <v>4454</v>
+        <v>4460</v>
       </c>
       <c r="C1386" s="1" t="s">
-        <v>4455</v>
+        <v>4461</v>
       </c>
       <c r="D1386" s="1" t="s">
-        <v>4456</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="1387" hidden="1" spans="2:4">
       <c r="B1387" s="1" t="s">
-        <v>4457</v>
+        <v>4463</v>
       </c>
       <c r="C1387" s="1" t="s">
-        <v>4458</v>
+        <v>4464</v>
       </c>
       <c r="D1387" s="1" t="s">
-        <v>4459</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="1388" hidden="1" spans="2:4">
       <c r="B1388" s="1" t="s">
-        <v>4460</v>
+        <v>4466</v>
       </c>
       <c r="C1388" s="1" t="s">
-        <v>4461</v>
+        <v>4467</v>
       </c>
       <c r="D1388" s="1" t="s">
-        <v>4462</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="1389" hidden="1" spans="2:4">
       <c r="B1389" s="1" t="s">
-        <v>4463</v>
+        <v>4469</v>
       </c>
       <c r="C1389" s="1" t="s">
-        <v>4464</v>
+        <v>4470</v>
       </c>
       <c r="D1389" s="1" t="s">
-        <v>4465</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="1390" hidden="1" spans="2:4">
       <c r="B1390" s="1" t="s">
-        <v>4466</v>
+        <v>4472</v>
       </c>
       <c r="C1390" s="1" t="s">
-        <v>4467</v>
+        <v>4473</v>
       </c>
       <c r="D1390" s="1" t="s">
-        <v>4468</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="1391" hidden="1" spans="2:4">
       <c r="B1391" s="1" t="s">
-        <v>4469</v>
+        <v>4475</v>
       </c>
       <c r="C1391" s="1" t="s">
-        <v>4470</v>
+        <v>4476</v>
       </c>
       <c r="D1391" s="1" t="s">
-        <v>4471</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="1392" hidden="1" spans="2:4">
       <c r="B1392" s="1" t="s">
-        <v>4472</v>
+        <v>4478</v>
       </c>
       <c r="C1392" s="1" t="s">
-        <v>4473</v>
+        <v>4479</v>
       </c>
       <c r="D1392" s="1" t="s">
-        <v>4474</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="1393" hidden="1" spans="2:4">
       <c r="B1393" s="1" t="s">
-        <v>4475</v>
+        <v>4481</v>
       </c>
       <c r="C1393" s="1" t="s">
-        <v>4476</v>
+        <v>4482</v>
       </c>
       <c r="D1393" s="1" t="s">
-        <v>4477</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="1394" hidden="1" spans="2:4">
       <c r="B1394" s="1" t="s">
-        <v>4478</v>
+        <v>4484</v>
       </c>
       <c r="C1394" s="1" t="s">
-        <v>4479</v>
+        <v>4485</v>
       </c>
       <c r="D1394" s="1" t="s">
-        <v>4480</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1395" hidden="1" spans="2:4">
       <c r="B1395" s="1" t="s">
-        <v>4481</v>
+        <v>4487</v>
       </c>
       <c r="C1395" s="1" t="s">
-        <v>4482</v>
+        <v>4488</v>
       </c>
       <c r="D1395" s="1" t="s">
-        <v>4483</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="1396" hidden="1" spans="2:4">
       <c r="B1396" s="1" t="s">
-        <v>4484</v>
+        <v>4490</v>
       </c>
       <c r="C1396" s="1" t="s">
-        <v>4485</v>
+        <v>4491</v>
       </c>
       <c r="D1396" s="1" t="s">
-        <v>4486</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="1397" hidden="1" spans="2:4">
       <c r="B1397" s="1" t="s">
-        <v>4487</v>
+        <v>4493</v>
       </c>
       <c r="C1397" s="1" t="s">
-        <v>4488</v>
+        <v>4494</v>
       </c>
       <c r="D1397" s="1" t="s">
-        <v>4489</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="1398" hidden="1" spans="2:4">
       <c r="B1398" s="1" t="s">
-        <v>4490</v>
+        <v>4496</v>
       </c>
       <c r="C1398" s="1" t="s">
-        <v>4491</v>
+        <v>4497</v>
       </c>
       <c r="D1398" s="1" t="s">
-        <v>4492</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="1399" ht="56.25" hidden="1" spans="2:5">
       <c r="B1399" s="1" t="s">
-        <v>4493</v>
+        <v>4499</v>
       </c>
       <c r="C1399" s="1" t="s">
-        <v>4494</v>
+        <v>4500</v>
       </c>
       <c r="D1399" s="1" t="s">
-        <v>4495</v>
+        <v>4501</v>
       </c>
       <c r="E1399" s="1" t="s">
-        <v>4496</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="1400" hidden="1" spans="2:5">
       <c r="B1400" s="1" t="s">
-        <v>4497</v>
+        <v>4503</v>
       </c>
       <c r="C1400" s="1" t="s">
-        <v>4498</v>
+        <v>4504</v>
       </c>
       <c r="D1400" s="1" t="s">
-        <v>4499</v>
+        <v>4505</v>
       </c>
       <c r="E1400" s="1" t="s">
-        <v>4500</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="1401" hidden="1" spans="2:4">
       <c r="B1401" s="1" t="s">
-        <v>4501</v>
+        <v>4507</v>
       </c>
       <c r="C1401" s="1" t="s">
-        <v>4502</v>
+        <v>4508</v>
       </c>
       <c r="D1401" s="1" t="s">
-        <v>4503</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="1402" hidden="1" spans="2:4">
       <c r="B1402" s="1" t="s">
-        <v>4504</v>
+        <v>4510</v>
       </c>
       <c r="C1402" s="1" t="s">
-        <v>4505</v>
+        <v>4511</v>
       </c>
       <c r="D1402" s="1" t="s">
-        <v>4506</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="1403" hidden="1" spans="2:4">
       <c r="B1403" s="1" t="s">
-        <v>4507</v>
+        <v>4513</v>
       </c>
       <c r="C1403" s="1" t="s">
-        <v>4508</v>
+        <v>4514</v>
       </c>
       <c r="D1403" s="1" t="s">
-        <v>4509</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="1404" hidden="1" spans="2:5">
       <c r="B1404" s="1" t="s">
-        <v>4510</v>
+        <v>4516</v>
       </c>
       <c r="C1404" s="1" t="s">
-        <v>4511</v>
+        <v>4517</v>
       </c>
       <c r="D1404" s="1" t="s">
-        <v>4512</v>
+        <v>4518</v>
       </c>
       <c r="E1404" s="1" t="s">
-        <v>4513</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="1405" hidden="1" spans="2:4">
       <c r="B1405" s="1" t="s">
-        <v>4514</v>
+        <v>4520</v>
       </c>
       <c r="C1405" s="1" t="s">
-        <v>4515</v>
+        <v>4521</v>
       </c>
       <c r="D1405" s="1" t="s">
-        <v>4516</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="1406" hidden="1" spans="2:4">
       <c r="B1406" s="1" t="s">
-        <v>4517</v>
+        <v>4523</v>
       </c>
       <c r="C1406" s="1" t="s">
-        <v>4518</v>
+        <v>4524</v>
       </c>
       <c r="D1406" s="1" t="s">
-        <v>4519</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1407" hidden="1" spans="2:4">
       <c r="B1407" s="1" t="s">
-        <v>4520</v>
+        <v>4526</v>
       </c>
       <c r="C1407" s="1" t="s">
-        <v>4521</v>
+        <v>4527</v>
       </c>
       <c r="D1407" s="1" t="s">
-        <v>4522</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="1408" ht="37.5" hidden="1" spans="2:5">
       <c r="B1408" s="1" t="s">
-        <v>4523</v>
+        <v>4529</v>
       </c>
       <c r="C1408" s="1" t="s">
-        <v>4524</v>
+        <v>4530</v>
       </c>
       <c r="D1408" s="1" t="s">
-        <v>4525</v>
+        <v>4531</v>
       </c>
       <c r="E1408" s="1" t="s">
-        <v>4526</v>
+        <v>4532</v>
       </c>
     </row>
     <row r="1409" hidden="1" spans="2:4">
       <c r="B1409" s="1" t="s">
-        <v>4527</v>
+        <v>4533</v>
       </c>
       <c r="C1409" s="1" t="s">
-        <v>4528</v>
+        <v>4534</v>
       </c>
       <c r="D1409" s="1" t="s">
-        <v>4529</v>
+        <v>4535</v>
       </c>
     </row>
     <row r="1410" hidden="1" spans="2:4">
       <c r="B1410" s="1" t="s">
-        <v>4530</v>
+        <v>4536</v>
       </c>
       <c r="C1410" s="1" t="s">
-        <v>4531</v>
+        <v>4537</v>
       </c>
       <c r="D1410" s="1" t="s">
-        <v>4532</v>
+        <v>4538</v>
       </c>
     </row>
     <row r="1411" hidden="1" spans="2:4">
       <c r="B1411" s="1" t="s">
-        <v>4533</v>
+        <v>4539</v>
       </c>
       <c r="C1411" s="1" t="s">
-        <v>4534</v>
+        <v>4540</v>
       </c>
       <c r="D1411" s="1" t="s">
-        <v>4535</v>
+        <v>4541</v>
       </c>
     </row>
     <row r="1412" hidden="1" spans="2:4">
       <c r="B1412" s="1" t="s">
-        <v>4536</v>
+        <v>4542</v>
       </c>
       <c r="C1412" s="1" t="s">
-        <v>4537</v>
+        <v>4543</v>
       </c>
       <c r="D1412" s="1" t="s">
-        <v>4538</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1413" hidden="1" spans="2:4">
       <c r="B1413" s="1" t="s">
-        <v>4539</v>
+        <v>4545</v>
       </c>
       <c r="C1413" s="1" t="s">
-        <v>4540</v>
+        <v>4546</v>
       </c>
       <c r="D1413" s="1" t="s">
-        <v>4541</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="1414" hidden="1" spans="2:4">
       <c r="B1414" s="1" t="s">
-        <v>4542</v>
+        <v>4548</v>
       </c>
       <c r="C1414" s="1" t="s">
-        <v>4543</v>
+        <v>4549</v>
       </c>
       <c r="D1414" s="1" t="s">
-        <v>4544</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="1415" hidden="1" spans="2:4">
       <c r="B1415" s="1" t="s">
-        <v>4545</v>
+        <v>4551</v>
       </c>
       <c r="C1415" s="1" t="s">
-        <v>4546</v>
+        <v>4552</v>
       </c>
       <c r="D1415" s="1" t="s">
-        <v>4547</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="1416" hidden="1" spans="2:4">
       <c r="B1416" s="1" t="s">
-        <v>4548</v>
+        <v>4554</v>
       </c>
       <c r="C1416" s="1" t="s">
-        <v>4549</v>
+        <v>4555</v>
       </c>
       <c r="D1416" s="1" t="s">
-        <v>4550</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="1417" hidden="1" spans="2:4">
       <c r="B1417" s="1" t="s">
-        <v>4551</v>
+        <v>4557</v>
       </c>
       <c r="C1417" s="1" t="s">
-        <v>4552</v>
+        <v>4558</v>
       </c>
       <c r="D1417" s="1" t="s">
-        <v>4553</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="1418" ht="37.5" hidden="1" spans="2:4">
       <c r="B1418" s="1" t="s">
-        <v>4554</v>
+        <v>4560</v>
       </c>
       <c r="C1418" s="1" t="s">
-        <v>4555</v>
+        <v>4561</v>
       </c>
       <c r="D1418" s="1" t="s">
-        <v>4556</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="1419" ht="37.5" hidden="1" spans="2:4">
       <c r="B1419" s="1" t="s">
-        <v>4557</v>
+        <v>4563</v>
       </c>
       <c r="C1419" s="1" t="s">
-        <v>4558</v>
+        <v>4564</v>
       </c>
       <c r="D1419" s="1" t="s">
-        <v>4559</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="1420" hidden="1" spans="2:4">
       <c r="B1420" s="1" t="s">
-        <v>4560</v>
+        <v>4566</v>
       </c>
       <c r="C1420" s="1" t="s">
-        <v>4561</v>
+        <v>4567</v>
       </c>
       <c r="D1420" s="1" t="s">
-        <v>4562</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="1421" hidden="1" spans="2:4">
@@ -46065,120 +46242,120 @@
         <v>3548</v>
       </c>
       <c r="C1421" s="1" t="s">
-        <v>4563</v>
+        <v>4569</v>
       </c>
       <c r="D1421" s="1" t="s">
-        <v>4564</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="1422" hidden="1" spans="2:4">
       <c r="B1422" s="1" t="s">
-        <v>4565</v>
+        <v>4571</v>
       </c>
       <c r="C1422" s="1" t="s">
-        <v>4566</v>
+        <v>4572</v>
       </c>
       <c r="D1422" s="1" t="s">
-        <v>4567</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="1423" ht="37.5" hidden="1" spans="2:4">
       <c r="B1423" s="1" t="s">
-        <v>4568</v>
+        <v>4574</v>
       </c>
       <c r="C1423" s="1" t="s">
-        <v>4569</v>
+        <v>4575</v>
       </c>
       <c r="D1423" s="1" t="s">
-        <v>4570</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="1424" hidden="1" spans="2:4">
       <c r="B1424" s="1" t="s">
-        <v>4571</v>
+        <v>4577</v>
       </c>
       <c r="C1424" s="1" t="s">
-        <v>4572</v>
+        <v>4578</v>
       </c>
       <c r="D1424" s="1" t="s">
-        <v>4573</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="1425" ht="37.5" hidden="1" spans="2:4">
       <c r="B1425" s="1" t="s">
-        <v>4574</v>
+        <v>4580</v>
       </c>
       <c r="C1425" s="1" t="s">
-        <v>4575</v>
+        <v>4581</v>
       </c>
       <c r="D1425" s="1" t="s">
-        <v>4576</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="1426" hidden="1" spans="2:4">
       <c r="B1426" s="1" t="s">
-        <v>4577</v>
+        <v>4583</v>
       </c>
       <c r="C1426" s="1" t="s">
-        <v>4578</v>
+        <v>4584</v>
       </c>
       <c r="D1426" s="1" t="s">
-        <v>4579</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="1427" ht="37.5" hidden="1" spans="2:4">
       <c r="B1427" s="1" t="s">
-        <v>4580</v>
+        <v>4586</v>
       </c>
       <c r="C1427" s="1" t="s">
-        <v>4581</v>
+        <v>4587</v>
       </c>
       <c r="D1427" s="1" t="s">
-        <v>4582</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="1428" hidden="1" spans="2:4">
       <c r="B1428" s="1" t="s">
-        <v>4583</v>
+        <v>4589</v>
       </c>
       <c r="C1428" s="1" t="s">
-        <v>4584</v>
+        <v>4590</v>
       </c>
       <c r="D1428" s="1" t="s">
-        <v>4585</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="1429" hidden="1" spans="2:4">
       <c r="B1429" s="1" t="s">
-        <v>4586</v>
+        <v>4592</v>
       </c>
       <c r="C1429" s="1" t="s">
-        <v>4587</v>
+        <v>4593</v>
       </c>
       <c r="D1429" s="1" t="s">
-        <v>4588</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="1430" hidden="1" spans="2:4">
       <c r="B1430" s="1" t="s">
-        <v>4589</v>
+        <v>4595</v>
       </c>
       <c r="C1430" s="1" t="s">
-        <v>4590</v>
+        <v>4596</v>
       </c>
       <c r="D1430" s="1" t="s">
-        <v>4591</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="1431" hidden="1" spans="2:4">
       <c r="B1431" s="1" t="s">
-        <v>4592</v>
+        <v>4598</v>
       </c>
       <c r="C1431" s="1" t="s">
-        <v>4593</v>
+        <v>4599</v>
       </c>
       <c r="D1431" s="1" t="s">
-        <v>4594</v>
+        <v>4600</v>
       </c>
     </row>
   </sheetData>
@@ -46189,7 +46366,6 @@
         <filter val="2"/>
         <filter val="3"/>
         <filter val="4"/>
-        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
+    <workbookView windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26723,7 +26723,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26737,10 +26737,71 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26760,6 +26821,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -26776,84 +26852,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26956,7 +26956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26968,7 +26968,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26980,61 +27010,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27052,37 +27052,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27100,19 +27070,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27124,19 +27124,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27159,15 +27159,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -27179,6 +27170,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27215,20 +27215,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27247,31 +27236,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -27280,115 +27280,115 @@
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -27459,6 +27459,11 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -27494,7 +27499,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2713990" y="238125"/>
+          <a:off x="2814320" y="254000"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27535,7 +27540,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -27782,7 +27787,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -27791,17 +27795,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A1225" workbookViewId="0">
-      <selection activeCell="E1287" sqref="E1287"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A1204" workbookViewId="0">
+      <selection activeCell="A1035" sqref="A1035"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.8296296296296" style="1"/>
-    <col min="2" max="2" width="20.8296296296296" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3259259259259" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.8296296296296" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5037037037037" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8285714285714" style="1"/>
+    <col min="2" max="2" width="20.8285714285714" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3285714285714" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5071428571429" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27822,7 +27826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="37.5" hidden="1" spans="1:5">
+    <row r="2" ht="40" hidden="1" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -27839,7 +27843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:5">
+    <row r="3" ht="24" hidden="1" spans="1:5">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -27881,7 +27885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="37.5" hidden="1" spans="2:4">
+    <row r="6" ht="40" hidden="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -27892,7 +27896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="75" hidden="1" spans="2:4">
+    <row r="7" ht="80" hidden="1" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -27903,7 +27907,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="37.5" hidden="1" spans="2:4">
+    <row r="8" ht="40" hidden="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -27914,7 +27918,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="37.5" hidden="1" spans="2:4">
+    <row r="9" ht="40" hidden="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -27925,7 +27929,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="56.25" hidden="1" spans="2:5">
+    <row r="10" ht="60" hidden="1" spans="2:5">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -27939,7 +27943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="37.5" hidden="1" spans="2:4">
+    <row r="11" ht="40" hidden="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
@@ -27950,7 +27954,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" ht="37.5" hidden="1" spans="2:4">
+    <row r="12" ht="40" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -27961,7 +27965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="37.5" hidden="1" spans="2:4">
+    <row r="13" ht="40" hidden="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -27972,7 +27976,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="37.5" hidden="1" spans="2:4">
+    <row r="14" ht="40" hidden="1" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
@@ -27983,7 +27987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" ht="37.5" hidden="1" spans="1:4">
+    <row r="15" ht="40" hidden="1" spans="1:4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -27997,7 +28001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="37.5" hidden="1" spans="1:5">
+    <row r="16" ht="40" hidden="1" spans="1:5">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -28014,7 +28018,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" ht="37.5" hidden="1" spans="2:4">
+    <row r="17" ht="40" hidden="1" spans="2:4">
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
@@ -28025,7 +28029,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="2:4">
+    <row r="18" ht="24" hidden="1" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -28036,7 +28040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" ht="37.5" hidden="1" spans="2:5">
+    <row r="19" ht="40" hidden="1" spans="2:5">
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
@@ -28050,7 +28054,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" ht="75" hidden="1" spans="1:5">
+    <row r="20" ht="100" hidden="1" spans="1:5">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -28081,7 +28085,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" ht="37.5" hidden="1" spans="1:4">
+    <row r="22" ht="40" hidden="1" spans="1:4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -28095,7 +28099,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" ht="93.75" hidden="1" spans="1:5">
+    <row r="23" ht="120" hidden="1" spans="1:5">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -28112,7 +28116,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="2:4">
+    <row r="24" ht="24" hidden="1" spans="2:4">
       <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
@@ -28123,7 +28127,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" ht="37.5" hidden="1" spans="2:5">
+    <row r="25" ht="40" hidden="1" spans="2:5">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
@@ -28173,7 +28177,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" ht="37.5" hidden="1" spans="2:4">
+    <row r="29" ht="40" hidden="1" spans="2:4">
       <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
@@ -28184,7 +28188,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" ht="37.5" hidden="1" spans="1:4">
+    <row r="30" ht="40" hidden="1" spans="1:4">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -28198,7 +28202,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" ht="37.5" hidden="1" spans="2:5">
+    <row r="31" ht="40" hidden="1" spans="2:5">
       <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
@@ -28212,7 +28216,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" ht="37.5" hidden="1" spans="1:5">
+    <row r="32" ht="60" hidden="1" spans="1:5">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -28229,7 +28233,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" ht="37.5" hidden="1" spans="1:5">
+    <row r="33" ht="40" hidden="1" spans="1:5">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -28246,7 +28250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="150" hidden="1" spans="2:5">
+    <row r="34" ht="180" hidden="1" spans="2:5">
       <c r="B34" s="1" t="s">
         <v>113</v>
       </c>
@@ -28260,7 +28264,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" ht="37.5" hidden="1" spans="1:4">
+    <row r="35" ht="40" hidden="1" spans="1:4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -28274,7 +28278,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" ht="93.75" hidden="1" spans="1:5">
+    <row r="36" ht="120" hidden="1" spans="1:5">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -28291,7 +28295,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" ht="56.25" hidden="1" spans="1:4">
+    <row r="37" ht="60" hidden="1" spans="1:4">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -28305,7 +28309,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" ht="37.5" hidden="1" spans="2:5">
+    <row r="38" ht="40" hidden="1" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>127</v>
       </c>
@@ -28333,7 +28337,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" ht="37.5" hidden="1" spans="1:5">
+    <row r="40" ht="40" hidden="1" spans="1:5">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -28350,7 +28354,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:4">
+    <row r="41" ht="24" hidden="1" spans="1:4">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -28364,7 +28368,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" ht="37.5" hidden="1" spans="1:5">
+    <row r="42" ht="40" hidden="1" spans="1:5">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -28423,7 +28427,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:4">
+    <row r="46" ht="24" hidden="1" spans="1:4">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -28448,7 +28452,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" ht="37.5" hidden="1" spans="1:4">
+    <row r="48" ht="40" hidden="1" spans="1:4">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -28473,7 +28477,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" ht="37.5" hidden="1" spans="1:5">
+    <row r="50" ht="40" hidden="1" spans="1:5">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -28490,7 +28494,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" ht="37.5" hidden="1" spans="2:4">
+    <row r="51" ht="40" hidden="1" spans="2:4">
       <c r="B51" s="1" t="s">
         <v>171</v>
       </c>
@@ -28501,7 +28505,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="2:4">
+    <row r="52" ht="23" hidden="1" spans="2:4">
       <c r="B52" s="1" t="s">
         <v>174</v>
       </c>
@@ -28537,7 +28541,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" ht="37.5" hidden="1" spans="2:5">
+    <row r="55" ht="40" hidden="1" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>183</v>
       </c>
@@ -28551,7 +28555,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" ht="37.5" hidden="1" spans="2:5">
+    <row r="56" ht="40" hidden="1" spans="2:5">
       <c r="B56" s="1" t="s">
         <v>187</v>
       </c>
@@ -28582,7 +28586,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" ht="37.5" hidden="1" spans="2:4">
+    <row r="58" ht="40" hidden="1" spans="2:4">
       <c r="B58" s="1" t="s">
         <v>195</v>
       </c>
@@ -28593,7 +28597,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" ht="37.5" hidden="1" spans="1:5">
+    <row r="59" ht="40" hidden="1" spans="1:5">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -28610,7 +28614,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" ht="37.5" hidden="1" spans="2:5">
+    <row r="60" ht="40" hidden="1" spans="2:5">
       <c r="B60" s="1" t="s">
         <v>202</v>
       </c>
@@ -28635,7 +28639,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" ht="37.5" hidden="1" spans="2:5">
+    <row r="62" ht="40" hidden="1" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>209</v>
       </c>
@@ -28649,7 +28653,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="2:4">
+    <row r="63" ht="24" hidden="1" spans="2:4">
       <c r="B63" s="1" t="s">
         <v>213</v>
       </c>
@@ -28660,7 +28664,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" ht="37.5" hidden="1" spans="1:5">
+    <row r="64" ht="40" hidden="1" spans="1:5">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -28677,7 +28681,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" ht="37.5" hidden="1" spans="2:4">
+    <row r="65" ht="40" hidden="1" spans="2:4">
       <c r="B65" s="1" t="s">
         <v>220</v>
       </c>
@@ -28705,7 +28709,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" ht="37.5" hidden="1" spans="2:5">
+    <row r="67" ht="40" hidden="1" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>227</v>
       </c>
@@ -28781,7 +28785,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" ht="37.5" hidden="1" spans="2:5">
+    <row r="72" ht="40" hidden="1" spans="2:5">
       <c r="B72" s="1" t="s">
         <v>246</v>
       </c>
@@ -28806,7 +28810,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" ht="37.5" hidden="1" spans="2:5">
+    <row r="74" ht="40" hidden="1" spans="2:5">
       <c r="B74" s="1" t="s">
         <v>253</v>
       </c>
@@ -28845,7 +28849,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="77" ht="37.5" hidden="1" spans="2:5">
+    <row r="77" ht="40" hidden="1" spans="2:5">
       <c r="B77" s="1" t="s">
         <v>263</v>
       </c>
@@ -28876,7 +28880,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="2:5">
+    <row r="79" ht="24" hidden="1" spans="2:5">
       <c r="B79" s="1" t="s">
         <v>271</v>
       </c>
@@ -28890,7 +28894,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="2:5">
+    <row r="80" ht="24" hidden="1" spans="2:5">
       <c r="B80" s="1" t="s">
         <v>275</v>
       </c>
@@ -28932,7 +28936,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" ht="37.5" hidden="1" spans="2:4">
+    <row r="83" ht="40" hidden="1" spans="2:4">
       <c r="B83" s="1" t="s">
         <v>284</v>
       </c>
@@ -28957,7 +28961,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" ht="37.5" hidden="1" spans="1:5">
+    <row r="85" ht="40" hidden="1" spans="1:5">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -29002,7 +29006,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" ht="56.25" hidden="1" spans="1:5">
+    <row r="88" ht="60" hidden="1" spans="1:5">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -29061,7 +29065,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="2:4">
+    <row r="92" ht="24" hidden="1" spans="2:4">
       <c r="B92" s="1" t="s">
         <v>313</v>
       </c>
@@ -29097,7 +29101,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="2:4">
+    <row r="95" ht="24" hidden="1" spans="2:4">
       <c r="B95" s="1" t="s">
         <v>322</v>
       </c>
@@ -29108,7 +29112,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
+    <row r="96" ht="24" hidden="1" spans="1:4">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -29122,7 +29126,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:4">
+    <row r="97" ht="23" hidden="1" spans="1:4">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -29136,7 +29140,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" ht="37.5" hidden="1" spans="1:5">
+    <row r="98" ht="40" hidden="1" spans="1:5">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -29167,7 +29171,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:4">
+    <row r="100" ht="24" hidden="1" spans="1:4">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -29242,7 +29246,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="2:4">
+    <row r="106" ht="24" hidden="1" spans="2:4">
       <c r="B106" s="1" t="s">
         <v>357</v>
       </c>
@@ -29253,7 +29257,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" ht="37.5" hidden="1" spans="2:4">
+    <row r="107" ht="40" hidden="1" spans="2:4">
       <c r="B107" s="1" t="s">
         <v>360</v>
       </c>
@@ -29264,7 +29268,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:4">
+    <row r="108" ht="24" hidden="1" spans="1:4">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -29278,7 +29282,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" ht="37.5" hidden="1" spans="1:5">
+    <row r="109" ht="40" hidden="1" spans="1:5">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -29309,7 +29313,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="111" ht="37.5" hidden="1" spans="1:5">
+    <row r="111" ht="40" hidden="1" spans="1:5">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -29337,7 +29341,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="113" ht="37.5" hidden="1" spans="2:4">
+    <row r="113" ht="40" hidden="1" spans="2:4">
       <c r="B113" s="1" t="s">
         <v>380</v>
       </c>
@@ -29348,7 +29352,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="114" ht="37.5" hidden="1" spans="1:5">
+    <row r="114" ht="40" hidden="1" spans="1:5">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -29376,7 +29380,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" ht="37.5" hidden="1" spans="1:5">
+    <row r="116" ht="40" hidden="1" spans="1:5">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -29393,7 +29397,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="2:5">
+    <row r="117" ht="40" hidden="1" spans="2:5">
       <c r="B117" s="1" t="s">
         <v>394</v>
       </c>
@@ -29407,7 +29411,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="2:4">
+    <row r="118" ht="24" hidden="1" spans="2:4">
       <c r="B118" s="1" t="s">
         <v>398</v>
       </c>
@@ -29418,7 +29422,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" ht="37.5" hidden="1" spans="2:4">
+    <row r="119" ht="40" hidden="1" spans="2:4">
       <c r="B119" s="1" t="s">
         <v>401</v>
       </c>
@@ -29446,7 +29450,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="121" ht="37.5" hidden="1" spans="1:4">
+    <row r="121" ht="40" hidden="1" spans="1:4">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -29460,7 +29464,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="2:4">
+    <row r="122" ht="24" hidden="1" spans="2:4">
       <c r="B122" s="1" t="s">
         <v>411</v>
       </c>
@@ -29471,7 +29475,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:4">
+    <row r="123" ht="24" hidden="1" spans="1:4">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -29485,7 +29489,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" ht="37.5" hidden="1" spans="1:4">
+    <row r="124" ht="40" hidden="1" spans="1:4">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -29524,7 +29528,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="2:4">
+    <row r="127" ht="23" hidden="1" spans="2:4">
       <c r="B127" s="1" t="s">
         <v>426</v>
       </c>
@@ -29594,7 +29598,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="132" ht="37.5" hidden="1" spans="1:4">
+    <row r="132" ht="40" hidden="1" spans="1:4">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -29608,7 +29612,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="133" ht="37.5" hidden="1" spans="2:4">
+    <row r="133" ht="40" hidden="1" spans="2:4">
       <c r="B133" s="1" t="s">
         <v>445</v>
       </c>
@@ -29633,7 +29637,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="135" ht="75" hidden="1" spans="1:5">
+    <row r="135" ht="100" hidden="1" spans="1:5">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -29650,7 +29654,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="2:4">
+    <row r="136" ht="24" hidden="1" spans="2:4">
       <c r="B136" s="1" t="s">
         <v>455</v>
       </c>
@@ -29661,7 +29665,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="2:4">
+    <row r="137" ht="24" hidden="1" spans="2:4">
       <c r="B137" s="1" t="s">
         <v>458</v>
       </c>
@@ -29672,7 +29676,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:4">
+    <row r="138" ht="23" hidden="1" spans="1:4">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -29686,7 +29690,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:4">
+    <row r="139" ht="24" hidden="1" spans="1:4">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -29700,7 +29704,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:4">
+    <row r="140" ht="24" hidden="1" spans="1:4">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -29728,7 +29732,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="142" ht="37.5" hidden="1" spans="1:4">
+    <row r="142" ht="40" hidden="1" spans="1:4">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -29787,7 +29791,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="146" ht="37.5" hidden="1" spans="2:4">
+    <row r="146" ht="40" hidden="1" spans="2:4">
       <c r="B146" s="1" t="s">
         <v>487</v>
       </c>
@@ -29826,7 +29830,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="149" ht="37.5" hidden="1" spans="2:4">
+    <row r="149" ht="40" hidden="1" spans="2:4">
       <c r="B149" s="1" t="s">
         <v>497</v>
       </c>
@@ -29848,7 +29852,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:4">
+    <row r="151" ht="24" hidden="1" spans="1:4">
       <c r="A151" s="1">
         <v>0</v>
       </c>
@@ -29862,7 +29866,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="152" ht="37.5" hidden="1" spans="1:5">
+    <row r="152" ht="40" hidden="1" spans="1:5">
       <c r="A152" s="1">
         <v>0</v>
       </c>
@@ -29893,7 +29897,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="2:4">
+    <row r="154" ht="24" hidden="1" spans="2:4">
       <c r="B154" s="1" t="s">
         <v>514</v>
       </c>
@@ -29904,7 +29908,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:4">
+    <row r="155" ht="23" hidden="1" spans="1:4">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -29983,7 +29987,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="2:4">
+    <row r="160" ht="24" hidden="1" spans="2:4">
       <c r="B160" s="1" t="s">
         <v>535</v>
       </c>
@@ -29994,7 +29998,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="161" ht="37.5" hidden="1" spans="2:4">
+    <row r="161" ht="40" hidden="1" spans="2:4">
       <c r="B161" s="1" t="s">
         <v>538</v>
       </c>
@@ -30019,7 +30023,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="2:4">
+    <row r="163" ht="23" hidden="1" spans="2:4">
       <c r="B163" s="1" t="s">
         <v>544</v>
       </c>
@@ -30030,7 +30034,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="2:4">
+    <row r="164" ht="24" hidden="1" spans="2:4">
       <c r="B164" s="1" t="s">
         <v>547</v>
       </c>
@@ -30055,7 +30059,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="2:4">
+    <row r="166" ht="24" hidden="1" spans="2:4">
       <c r="B166" s="1" t="s">
         <v>553</v>
       </c>
@@ -30066,7 +30070,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="167" ht="37.5" hidden="1" spans="1:4">
+    <row r="167" ht="40" hidden="1" spans="1:4">
       <c r="A167" s="1">
         <v>0</v>
       </c>
@@ -30094,7 +30098,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="169" ht="75" hidden="1" spans="2:5">
+    <row r="169" ht="100" hidden="1" spans="2:5">
       <c r="B169" s="1" t="s">
         <v>562</v>
       </c>
@@ -30108,7 +30112,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="170" ht="37.5" hidden="1" spans="1:4">
+    <row r="170" ht="40" hidden="1" spans="1:4">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -30122,7 +30126,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="171" ht="37.5" hidden="1" spans="1:4">
+    <row r="171" ht="40" hidden="1" spans="1:4">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -30150,7 +30154,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="173" ht="75" hidden="1" spans="1:5">
+    <row r="173" ht="100" hidden="1" spans="1:5">
       <c r="A173" s="1">
         <v>0</v>
       </c>
@@ -30167,7 +30171,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="2:4">
+    <row r="174" ht="24" hidden="1" spans="2:4">
       <c r="B174" s="1" t="s">
         <v>579</v>
       </c>
@@ -30189,7 +30193,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:5">
+    <row r="176" ht="23" hidden="1" spans="1:5">
       <c r="A176" s="1">
         <v>0</v>
       </c>
@@ -30206,7 +30210,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="2:4">
+    <row r="177" ht="24" hidden="1" spans="2:4">
       <c r="B177" s="1" t="s">
         <v>589</v>
       </c>
@@ -30217,7 +30221,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="2:4">
+    <row r="178" ht="23" hidden="1" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>592</v>
       </c>
@@ -30253,7 +30257,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="181" ht="37.5" hidden="1" spans="2:4">
+    <row r="181" ht="40" hidden="1" spans="2:4">
       <c r="B181" s="1" t="s">
         <v>601</v>
       </c>
@@ -30264,7 +30268,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="2:4">
+    <row r="182" ht="24" hidden="1" spans="2:4">
       <c r="B182" s="1" t="s">
         <v>604</v>
       </c>
@@ -30275,7 +30279,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="183" ht="37.5" hidden="1" spans="2:4">
+    <row r="183" ht="40" hidden="1" spans="2:4">
       <c r="B183" s="1" t="s">
         <v>607</v>
       </c>
@@ -30286,7 +30290,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="2:4">
+    <row r="184" ht="24" hidden="1" spans="2:4">
       <c r="B184" s="1" t="s">
         <v>610</v>
       </c>
@@ -30297,7 +30301,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="185" ht="37.5" hidden="1" spans="2:4">
+    <row r="185" ht="40" hidden="1" spans="2:4">
       <c r="B185" s="1" t="s">
         <v>613</v>
       </c>
@@ -30375,7 +30379,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="2:5">
+    <row r="191" ht="24" hidden="1" spans="2:5">
       <c r="B191" s="1" t="s">
         <v>632</v>
       </c>
@@ -30389,7 +30393,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="192" ht="37.5" hidden="1" spans="2:4">
+    <row r="192" ht="40" hidden="1" spans="2:4">
       <c r="B192" s="1" t="s">
         <v>636</v>
       </c>
@@ -30400,7 +30404,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="193" ht="37.5" hidden="1" spans="2:4">
+    <row r="193" ht="40" hidden="1" spans="2:4">
       <c r="B193" s="1" t="s">
         <v>639</v>
       </c>
@@ -30436,7 +30440,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="196" ht="37.5" hidden="1" spans="2:4">
+    <row r="196" ht="40" hidden="1" spans="2:4">
       <c r="B196" s="1" t="s">
         <v>648</v>
       </c>
@@ -30447,7 +30451,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="2:4">
+    <row r="197" ht="24" hidden="1" spans="2:4">
       <c r="B197" s="1" t="s">
         <v>651</v>
       </c>
@@ -30458,7 +30462,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="198" ht="37.5" hidden="1" spans="2:4">
+    <row r="198" ht="40" hidden="1" spans="2:4">
       <c r="B198" s="1" t="s">
         <v>654</v>
       </c>
@@ -30469,7 +30473,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="199" ht="37.5" hidden="1" spans="2:4">
+    <row r="199" ht="40" hidden="1" spans="2:4">
       <c r="B199" s="1" t="s">
         <v>657</v>
       </c>
@@ -30494,7 +30498,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="201" ht="37.5" hidden="1" spans="1:4">
+    <row r="201" ht="40" hidden="1" spans="1:4">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -30508,7 +30512,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="2:4">
+    <row r="202" ht="24" hidden="1" spans="2:4">
       <c r="B202" s="1" t="s">
         <v>666</v>
       </c>
@@ -30519,7 +30523,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="2:4">
+    <row r="203" ht="24" hidden="1" spans="2:4">
       <c r="B203" s="1" t="s">
         <v>669</v>
       </c>
@@ -30566,7 +30570,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="207" ht="37.5" hidden="1" spans="1:4">
+    <row r="207" ht="40" hidden="1" spans="1:4">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -30608,7 +30612,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="210" ht="37.5" hidden="1" spans="2:4">
+    <row r="210" ht="40" hidden="1" spans="2:4">
       <c r="B210" s="1" t="s">
         <v>691</v>
       </c>
@@ -30619,7 +30623,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="211" ht="37.5" hidden="1" spans="1:4">
+    <row r="211" ht="40" hidden="1" spans="1:4">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -30644,7 +30648,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="213" ht="37.5" hidden="1" spans="1:4">
+    <row r="213" ht="40" hidden="1" spans="1:4">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -30658,7 +30662,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="214" ht="75" hidden="1" spans="2:5">
+    <row r="214" ht="80" hidden="1" spans="2:5">
       <c r="B214" s="1" t="s">
         <v>703</v>
       </c>
@@ -30672,7 +30676,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="215" ht="37.5" hidden="1" spans="2:5">
+    <row r="215" ht="40" hidden="1" spans="2:5">
       <c r="B215" s="1" t="s">
         <v>707</v>
       </c>
@@ -30703,7 +30707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:4">
+    <row r="217" ht="24" hidden="1" spans="1:4">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -30745,7 +30749,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="220" ht="37.5" hidden="1" spans="2:4">
+    <row r="220" ht="40" hidden="1" spans="2:4">
       <c r="B220" s="1" t="s">
         <v>724</v>
       </c>
@@ -30801,7 +30805,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="224" ht="37.5" hidden="1" spans="1:4">
+    <row r="224" ht="40" hidden="1" spans="1:4">
       <c r="A224" s="1">
         <v>0</v>
       </c>
@@ -30837,7 +30841,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="227" ht="37.5" hidden="1" spans="2:4">
+    <row r="227" ht="40" hidden="1" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>746</v>
       </c>
@@ -30862,7 +30866,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="229" ht="37.5" hidden="1" spans="1:4">
+    <row r="229" ht="40" hidden="1" spans="1:4">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -30997,7 +31001,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:5">
+    <row r="238" ht="24" hidden="1" spans="1:5">
       <c r="A238" s="1">
         <v>0</v>
       </c>
@@ -31014,7 +31018,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="239" ht="37.5" hidden="1" spans="1:5">
+    <row r="239" ht="40" hidden="1" spans="1:5">
       <c r="A239" s="1">
         <v>0</v>
       </c>
@@ -31079,7 +31083,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="243" ht="37.5" hidden="1" spans="1:5">
+    <row r="243" ht="40" hidden="1" spans="1:5">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -31107,7 +31111,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="245" ht="37.5" hidden="1" spans="1:4">
+    <row r="245" ht="40" hidden="1" spans="1:4">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -31121,7 +31125,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="246" ht="37.5" hidden="1" spans="1:5">
+    <row r="246" ht="40" hidden="1" spans="1:5">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -31152,7 +31156,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="248" ht="37.5" hidden="1" spans="2:4">
+    <row r="248" ht="40" hidden="1" spans="2:4">
       <c r="B248" s="1" t="s">
         <v>820</v>
       </c>
@@ -31163,7 +31167,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="249" ht="37.5" hidden="1" spans="1:4">
+    <row r="249" ht="40" hidden="1" spans="1:4">
       <c r="A249" s="1">
         <v>0</v>
       </c>
@@ -31177,7 +31181,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="250" ht="37.5" hidden="1" spans="2:4">
+    <row r="250" ht="40" hidden="1" spans="2:4">
       <c r="B250" s="1" t="s">
         <v>826</v>
       </c>
@@ -31202,7 +31206,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="252" ht="37.5" hidden="1" spans="2:5">
+    <row r="252" ht="40" hidden="1" spans="2:5">
       <c r="B252" s="1" t="s">
         <v>832</v>
       </c>
@@ -31230,7 +31234,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:4">
+    <row r="254" ht="24" hidden="1" spans="1:4">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -31244,7 +31248,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:4">
+    <row r="255" ht="24" hidden="1" spans="1:4">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -31280,7 +31284,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="258" ht="37.5" hidden="1" spans="1:4">
+    <row r="258" ht="40" hidden="1" spans="1:4">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -31294,7 +31298,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="259" ht="37.5" hidden="1" spans="1:4">
+    <row r="259" ht="40" hidden="1" spans="1:4">
       <c r="A259" s="1">
         <v>0</v>
       </c>
@@ -31308,7 +31312,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="2:4">
+    <row r="260" ht="24" hidden="1" spans="2:4">
       <c r="B260" s="1" t="s">
         <v>857</v>
       </c>
@@ -31319,7 +31323,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="261" ht="37.5" hidden="1" spans="2:4">
+    <row r="261" ht="40" hidden="1" spans="2:4">
       <c r="B261" s="1" t="s">
         <v>860</v>
       </c>
@@ -31330,7 +31334,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:4">
+    <row r="262" ht="24" hidden="1" spans="1:4">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -31358,7 +31362,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="264" ht="37.5" hidden="1" spans="1:4">
+    <row r="264" ht="40" hidden="1" spans="1:4">
       <c r="A264" s="1">
         <v>0</v>
       </c>
@@ -31372,7 +31376,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="2:4">
+    <row r="265" ht="24" hidden="1" spans="2:4">
       <c r="B265" s="1" t="s">
         <v>872</v>
       </c>
@@ -31400,7 +31404,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="267" ht="37.5" hidden="1" spans="1:5">
+    <row r="267" ht="40" hidden="1" spans="1:5">
       <c r="A267" s="1">
         <v>0</v>
       </c>
@@ -31417,7 +31421,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="268" ht="75" hidden="1" spans="1:5">
+    <row r="268" ht="80" hidden="1" spans="1:5">
       <c r="A268" s="1">
         <v>0</v>
       </c>
@@ -31434,7 +31438,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="269" ht="56.25" hidden="1" spans="1:5">
+    <row r="269" ht="60" hidden="1" spans="1:5">
       <c r="A269" s="1">
         <v>0</v>
       </c>
@@ -31462,7 +31466,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:4">
+    <row r="271" ht="24" hidden="1" spans="1:4">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -31476,7 +31480,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="272" ht="37.5" hidden="1" spans="2:4">
+    <row r="272" ht="40" hidden="1" spans="2:4">
       <c r="B272" s="1" t="s">
         <v>897</v>
       </c>
@@ -31487,7 +31491,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="2:4">
+    <row r="273" ht="24" hidden="1" spans="2:4">
       <c r="B273" s="1" t="s">
         <v>900</v>
       </c>
@@ -31498,7 +31502,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="274" ht="37.5" hidden="1" spans="2:4">
+    <row r="274" ht="40" hidden="1" spans="2:4">
       <c r="B274" s="1" t="s">
         <v>903</v>
       </c>
@@ -31509,7 +31513,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="275" ht="37.5" hidden="1" spans="1:4">
+    <row r="275" ht="40" hidden="1" spans="1:4">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -31545,7 +31549,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="278" ht="37.5" hidden="1" spans="2:4">
+    <row r="278" ht="40" hidden="1" spans="2:4">
       <c r="B278" s="1" t="s">
         <v>915</v>
       </c>
@@ -31556,7 +31560,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:4">
+    <row r="279" ht="24" hidden="1" spans="1:4">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -31570,7 +31574,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:4">
+    <row r="280" ht="24" hidden="1" spans="1:4">
       <c r="A280" s="1">
         <v>0</v>
       </c>
@@ -31595,7 +31599,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="282" ht="37.5" hidden="1" spans="2:4">
+    <row r="282" ht="40" hidden="1" spans="2:4">
       <c r="B282" s="1" t="s">
         <v>927</v>
       </c>
@@ -31606,7 +31610,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="283" ht="37.5" hidden="1" spans="1:5">
+    <row r="283" ht="40" hidden="1" spans="1:5">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -31623,7 +31627,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:4">
+    <row r="284" ht="24" hidden="1" spans="1:4">
       <c r="A284" s="1">
         <v>0</v>
       </c>
@@ -31654,7 +31658,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="286" ht="75" hidden="1" spans="1:6">
+    <row r="286" ht="80" hidden="1" spans="1:6">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -31700,7 +31704,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="289" ht="75" hidden="1" spans="1:5">
+    <row r="289" ht="100" hidden="1" spans="1:5">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -31717,7 +31721,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="290" ht="37.5" hidden="1" spans="2:4">
+    <row r="290" ht="40" hidden="1" spans="2:4">
       <c r="B290" s="1" t="s">
         <v>955</v>
       </c>
@@ -31728,7 +31732,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="291" ht="37.5" hidden="1" spans="2:5">
+    <row r="291" ht="40" hidden="1" spans="2:5">
       <c r="B291" s="1" t="s">
         <v>958</v>
       </c>
@@ -31778,7 +31782,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:4">
+    <row r="295" ht="24" hidden="1" spans="1:4">
       <c r="A295" s="1">
         <v>0</v>
       </c>
@@ -31792,7 +31796,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="296" ht="37.5" hidden="1" spans="1:4">
+    <row r="296" ht="40" hidden="1" spans="1:4">
       <c r="A296" s="1">
         <v>0</v>
       </c>
@@ -31845,7 +31849,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:4">
+    <row r="300" ht="24" hidden="1" spans="1:4">
       <c r="A300" s="1">
         <v>0</v>
       </c>
@@ -31859,7 +31863,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="301" ht="37.5" hidden="1" spans="1:5">
+    <row r="301" ht="40" hidden="1" spans="1:5">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -31893,7 +31897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="37.5" hidden="1" spans="1:4">
+    <row r="303" ht="40" hidden="1" spans="1:4">
       <c r="A303" s="1">
         <v>0</v>
       </c>
@@ -31907,7 +31911,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:4">
+    <row r="304" ht="23" hidden="1" spans="1:4">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -31921,7 +31925,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="305" ht="37.5" hidden="1" spans="1:4">
+    <row r="305" ht="40" hidden="1" spans="1:4">
       <c r="A305" s="1">
         <v>0</v>
       </c>
@@ -31946,7 +31950,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="307" ht="37.5" hidden="1" spans="2:4">
+    <row r="307" ht="40" hidden="1" spans="2:4">
       <c r="B307" s="1" t="s">
         <v>1008</v>
       </c>
@@ -31957,7 +31961,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:4">
+    <row r="308" ht="24" hidden="1" spans="1:4">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -31982,7 +31986,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="310" ht="37.5" hidden="1" spans="2:4">
+    <row r="310" ht="40" hidden="1" spans="2:4">
       <c r="B310" s="1" t="s">
         <v>1017</v>
       </c>
@@ -32018,7 +32022,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="313" ht="37.5" hidden="1" spans="1:4">
+    <row r="313" ht="40" hidden="1" spans="1:4">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -32032,7 +32036,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="314" ht="75" hidden="1" spans="1:5">
+    <row r="314" ht="100" hidden="1" spans="1:5">
       <c r="A314" s="1">
         <v>0</v>
       </c>
@@ -32060,7 +32064,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="316" ht="37.5" hidden="1" spans="1:4">
+    <row r="316" ht="40" hidden="1" spans="1:4">
       <c r="A316" s="1">
         <v>0</v>
       </c>
@@ -32085,7 +32089,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="318" ht="37.5" hidden="1" spans="1:5">
+    <row r="318" ht="40" hidden="1" spans="1:5">
       <c r="A318" s="1">
         <v>0</v>
       </c>
@@ -32119,7 +32123,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="2:4">
+    <row r="320" ht="23" hidden="1" spans="2:4">
       <c r="B320" s="1" t="s">
         <v>1049</v>
       </c>
@@ -32130,7 +32134,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="321" ht="112.5" hidden="1" spans="2:5">
+    <row r="321" ht="135" hidden="1" spans="2:5">
       <c r="B321" s="1" t="s">
         <v>1052</v>
       </c>
@@ -32169,7 +32173,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="2:4">
+    <row r="324" ht="24" hidden="1" spans="2:4">
       <c r="B324" s="1" t="s">
         <v>1063</v>
       </c>
@@ -32253,7 +32257,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="330" ht="37.5" hidden="1" spans="1:4">
+    <row r="330" ht="40" hidden="1" spans="1:4">
       <c r="A330" s="1">
         <v>0</v>
       </c>
@@ -32281,7 +32285,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="332" ht="37.5" hidden="1" spans="2:4">
+    <row r="332" ht="40" hidden="1" spans="2:4">
       <c r="B332" s="1" t="s">
         <v>1089</v>
       </c>
@@ -32314,7 +32318,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="335" ht="37.5" hidden="1" spans="1:5">
+    <row r="335" ht="40" hidden="1" spans="1:5">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -32395,7 +32399,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="341" ht="93.75" hidden="1" spans="1:5">
+    <row r="341" ht="140" hidden="1" spans="1:5">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -32412,7 +32416,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="342" ht="37.5" hidden="1" spans="2:4">
+    <row r="342" ht="40" hidden="1" spans="2:4">
       <c r="B342" s="1" t="s">
         <v>1122</v>
       </c>
@@ -32423,7 +32427,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="343" ht="37.5" hidden="1" spans="2:4">
+    <row r="343" ht="40" hidden="1" spans="2:4">
       <c r="B343" s="1" t="s">
         <v>1125</v>
       </c>
@@ -32445,7 +32449,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="345" ht="37.5" hidden="1" spans="1:4">
+    <row r="345" ht="40" hidden="1" spans="1:4">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -32473,7 +32477,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="2:4">
+    <row r="347" ht="24" hidden="1" spans="2:4">
       <c r="B347" s="1" t="s">
         <v>1137</v>
       </c>
@@ -32518,7 +32522,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:4">
+    <row r="350" ht="24" hidden="1" spans="1:4">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -32543,7 +32547,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="2:4">
+    <row r="352" ht="24" hidden="1" spans="2:4">
       <c r="B352" s="1" t="s">
         <v>1153</v>
       </c>
@@ -32635,7 +32639,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="359" ht="37.5" hidden="1" spans="1:4">
+    <row r="359" ht="40" hidden="1" spans="1:4">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -32649,7 +32653,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="360" ht="37.5" hidden="1" spans="2:4">
+    <row r="360" ht="23" hidden="1" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>1178</v>
       </c>
@@ -32660,7 +32664,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="1:4">
+    <row r="361" ht="24" hidden="1" spans="1:4">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -32674,7 +32678,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="362" ht="37.5" hidden="1" spans="2:5">
+    <row r="362" ht="40" hidden="1" spans="2:5">
       <c r="B362" s="1" t="s">
         <v>1184</v>
       </c>
@@ -32716,7 +32720,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="365" ht="37.5" hidden="1" spans="2:5">
+    <row r="365" ht="40" hidden="1" spans="2:5">
       <c r="B365" s="1" t="s">
         <v>1195</v>
       </c>
@@ -32741,7 +32745,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="367" ht="37.5" hidden="1" spans="1:5">
+    <row r="367" ht="40" hidden="1" spans="1:5">
       <c r="A367" s="1">
         <v>0</v>
       </c>
@@ -32769,7 +32773,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="369" ht="37.5" hidden="1" spans="1:4">
+    <row r="369" ht="40" hidden="1" spans="1:4">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -32811,7 +32815,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="2:5">
+    <row r="372" ht="24" hidden="1" spans="2:5">
       <c r="B372" s="1" t="s">
         <v>1220</v>
       </c>
@@ -32825,7 +32829,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="373" ht="37.5" hidden="1" spans="2:4">
+    <row r="373" ht="40" hidden="1" spans="2:4">
       <c r="B373" s="1" t="s">
         <v>1224</v>
       </c>
@@ -32836,7 +32840,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="374" ht="37.5" hidden="1" spans="2:4">
+    <row r="374" ht="40" hidden="1" spans="2:4">
       <c r="B374" s="1" t="s">
         <v>1227</v>
       </c>
@@ -32847,7 +32851,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="375" ht="56.25" hidden="1" spans="2:4">
+    <row r="375" ht="60" hidden="1" spans="2:4">
       <c r="B375" s="1" t="s">
         <v>1230</v>
       </c>
@@ -32858,7 +32862,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="376" hidden="1" spans="2:4">
+    <row r="376" ht="24" hidden="1" spans="2:4">
       <c r="B376" s="1" t="s">
         <v>1233</v>
       </c>
@@ -32916,7 +32920,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="381" ht="37.5" hidden="1" spans="1:4">
+    <row r="381" ht="40" hidden="1" spans="1:4">
       <c r="A381" s="1">
         <v>0</v>
       </c>
@@ -32930,7 +32934,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="382" ht="37.5" hidden="1" spans="1:4">
+    <row r="382" ht="40" hidden="1" spans="1:4">
       <c r="A382" s="1">
         <v>0</v>
       </c>
@@ -32944,7 +32948,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="383" ht="37.5" hidden="1" spans="2:4">
+    <row r="383" ht="40" hidden="1" spans="2:4">
       <c r="B383" s="1" t="s">
         <v>1254</v>
       </c>
@@ -32980,7 +32984,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="386" ht="37.5" hidden="1" spans="2:4">
+    <row r="386" ht="40" hidden="1" spans="2:4">
       <c r="B386" s="1" t="s">
         <v>1263</v>
       </c>
@@ -32991,7 +32995,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="387" ht="37.5" hidden="1" spans="2:4">
+    <row r="387" ht="40" hidden="1" spans="2:4">
       <c r="B387" s="1" t="s">
         <v>1266</v>
       </c>
@@ -33002,7 +33006,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="388" hidden="1" spans="2:4">
+    <row r="388" ht="23" hidden="1" spans="2:4">
       <c r="B388" s="1" t="s">
         <v>1269</v>
       </c>
@@ -33083,7 +33087,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="394" hidden="1" spans="1:4">
+    <row r="394" ht="24" hidden="1" spans="1:4">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -33147,7 +33151,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="399" ht="37.5" hidden="1" spans="1:5">
+    <row r="399" ht="40" hidden="1" spans="1:5">
       <c r="A399" s="1">
         <v>0</v>
       </c>
@@ -33178,7 +33182,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="401" ht="168.75" hidden="1" spans="1:5">
+    <row r="401" ht="200" hidden="1" spans="1:5">
       <c r="A401" s="1">
         <v>0</v>
       </c>
@@ -33206,7 +33210,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:5">
+    <row r="403" ht="23" hidden="1" spans="1:5">
       <c r="A403" s="1">
         <v>0</v>
       </c>
@@ -33223,7 +33227,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:4">
+    <row r="404" ht="24" hidden="1" spans="1:4">
       <c r="A404" s="1">
         <v>0</v>
       </c>
@@ -33237,7 +33241,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="405" ht="112.5" hidden="1" spans="2:5">
+    <row r="405" ht="134" hidden="1" spans="2:5">
       <c r="B405" s="1" t="s">
         <v>1323</v>
       </c>
@@ -33251,7 +33255,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="406" ht="37.5" hidden="1" spans="2:4">
+    <row r="406" ht="40" hidden="1" spans="2:4">
       <c r="B406" s="1" t="s">
         <v>1327</v>
       </c>
@@ -33262,7 +33266,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="1:5">
+    <row r="407" ht="24" hidden="1" spans="1:5">
       <c r="A407" s="1">
         <v>0</v>
       </c>
@@ -33301,7 +33305,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="2:4">
+    <row r="410" ht="23" hidden="1" spans="2:4">
       <c r="B410" s="1" t="s">
         <v>1340</v>
       </c>
@@ -33312,7 +33316,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="411" ht="37.5" hidden="1" spans="2:4">
+    <row r="411" ht="40" hidden="1" spans="2:4">
       <c r="B411" s="1" t="s">
         <v>1343</v>
       </c>
@@ -33323,7 +33327,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="412" ht="37.5" hidden="1" spans="2:4">
+    <row r="412" ht="40" hidden="1" spans="2:4">
       <c r="B412" s="1" t="s">
         <v>1346</v>
       </c>
@@ -33334,7 +33338,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="413" ht="37.5" hidden="1" spans="2:4">
+    <row r="413" ht="40" hidden="1" spans="2:4">
       <c r="B413" s="1" t="s">
         <v>1349</v>
       </c>
@@ -33356,7 +33360,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="1:5">
+    <row r="415" ht="24" hidden="1" spans="1:5">
       <c r="A415" s="1">
         <v>0</v>
       </c>
@@ -33387,7 +33391,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="2:4">
+    <row r="417" ht="24" hidden="1" spans="2:4">
       <c r="B417" s="1" t="s">
         <v>1362</v>
       </c>
@@ -33398,7 +33402,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="418" ht="37.5" hidden="1" spans="1:5">
+    <row r="418" ht="40" hidden="1" spans="1:5">
       <c r="A418" s="1">
         <v>0</v>
       </c>
@@ -33415,7 +33419,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="419" ht="37.5" hidden="1" spans="1:5">
+    <row r="419" ht="40" hidden="1" spans="1:5">
       <c r="A419" s="1">
         <v>0</v>
       </c>
@@ -33446,7 +33450,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="421" hidden="1" spans="2:4">
+    <row r="421" ht="24" hidden="1" spans="2:4">
       <c r="B421" s="1" t="s">
         <v>1376</v>
       </c>
@@ -33457,7 +33461,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="2:4">
+    <row r="422" ht="23" hidden="1" spans="2:4">
       <c r="B422" s="1" t="s">
         <v>1379</v>
       </c>
@@ -33468,7 +33472,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="2:4">
+    <row r="423" ht="24" hidden="1" spans="2:4">
       <c r="B423" s="1" t="s">
         <v>1382</v>
       </c>
@@ -33479,7 +33483,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="2:4">
+    <row r="424" ht="24" hidden="1" spans="2:4">
       <c r="B424" s="1" t="s">
         <v>1385</v>
       </c>
@@ -33490,7 +33494,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="2:4">
+    <row r="425" ht="24" hidden="1" spans="2:4">
       <c r="B425" s="1" t="s">
         <v>1388</v>
       </c>
@@ -33501,7 +33505,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="426" hidden="1" spans="2:4">
+    <row r="426" ht="24" hidden="1" spans="2:4">
       <c r="B426" s="1" t="s">
         <v>1391</v>
       </c>
@@ -33512,7 +33516,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="1:5">
+    <row r="427" ht="23" hidden="1" spans="1:5">
       <c r="A427" s="1">
         <v>0</v>
       </c>
@@ -33529,7 +33533,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="428" ht="37.5" hidden="1" spans="2:4">
+    <row r="428" ht="40" hidden="1" spans="2:4">
       <c r="B428" s="1" t="s">
         <v>1398</v>
       </c>
@@ -33554,7 +33558,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="1:4">
+    <row r="430" ht="23" hidden="1" spans="1:4">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -33596,7 +33600,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:4">
+    <row r="433" ht="24" hidden="1" spans="1:4">
       <c r="A433" s="1">
         <v>0</v>
       </c>
@@ -33610,7 +33614,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="434" ht="37.5" hidden="1" spans="2:4">
+    <row r="434" ht="40" hidden="1" spans="2:4">
       <c r="B434" s="1" t="s">
         <v>1416</v>
       </c>
@@ -33621,7 +33625,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="2:4">
+    <row r="435" ht="24" hidden="1" spans="2:4">
       <c r="B435" s="1" t="s">
         <v>1419</v>
       </c>
@@ -33665,7 +33669,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="439" ht="37.5" hidden="1" spans="1:4">
+    <row r="439" ht="40" hidden="1" spans="1:4">
       <c r="A439" s="1">
         <v>0</v>
       </c>
@@ -33679,7 +33683,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="440" ht="37.5" hidden="1" spans="1:4">
+    <row r="440" ht="40" hidden="1" spans="1:4">
       <c r="A440" s="1">
         <v>0</v>
       </c>
@@ -33693,7 +33697,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="2:4">
+    <row r="441" ht="24" hidden="1" spans="2:4">
       <c r="B441" s="1" t="s">
         <v>1437</v>
       </c>
@@ -33718,7 +33722,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="2:4">
+    <row r="443" ht="24" hidden="1" spans="2:4">
       <c r="B443" s="1" t="s">
         <v>1444</v>
       </c>
@@ -33743,7 +33747,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="445" ht="37.5" hidden="1" spans="2:4">
+    <row r="445" ht="40" hidden="1" spans="2:4">
       <c r="B445" s="1" t="s">
         <v>1450</v>
       </c>
@@ -33779,7 +33783,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="448" ht="37.5" hidden="1" spans="1:4">
+    <row r="448" ht="40" hidden="1" spans="1:4">
       <c r="A448" s="1">
         <v>0</v>
       </c>
@@ -33793,7 +33797,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="449" hidden="1" spans="2:4">
+    <row r="449" ht="23" hidden="1" spans="2:4">
       <c r="B449" s="1" t="s">
         <v>1463</v>
       </c>
@@ -33815,7 +33819,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="451" hidden="1" spans="1:4">
+    <row r="451" ht="24" hidden="1" spans="1:4">
       <c r="A451" s="1">
         <v>0</v>
       </c>
@@ -33829,7 +33833,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="452" hidden="1" spans="2:4">
+    <row r="452" ht="24" hidden="1" spans="2:4">
       <c r="B452" s="1" t="s">
         <v>1472</v>
       </c>
@@ -33854,7 +33858,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="454" hidden="1" spans="2:4">
+    <row r="454" ht="24" hidden="1" spans="2:4">
       <c r="B454" s="1" t="s">
         <v>1478</v>
       </c>
@@ -33879,7 +33883,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="456" hidden="1" spans="1:4">
+    <row r="456" ht="24" hidden="1" spans="1:4">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -33915,7 +33919,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="459" ht="37.5" hidden="1" spans="1:4">
+    <row r="459" ht="40" hidden="1" spans="1:4">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -33940,7 +33944,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="461" hidden="1" spans="2:4">
+    <row r="461" ht="24" hidden="1" spans="2:4">
       <c r="B461" s="1" t="s">
         <v>1499</v>
       </c>
@@ -33965,7 +33969,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="2:4">
+    <row r="463" ht="23" hidden="1" spans="2:4">
       <c r="B463" s="1" t="s">
         <v>1505</v>
       </c>
@@ -33976,7 +33980,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="464" ht="37.5" hidden="1" spans="1:4">
+    <row r="464" ht="40" hidden="1" spans="1:4">
       <c r="A464" s="1">
         <v>0</v>
       </c>
@@ -34026,7 +34030,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="468" ht="37.5" hidden="1" spans="2:4">
+    <row r="468" ht="40" hidden="1" spans="2:4">
       <c r="B468" s="1" t="s">
         <v>1520</v>
       </c>
@@ -34109,7 +34113,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="475" hidden="1" spans="2:4">
+    <row r="475" ht="24" hidden="1" spans="2:4">
       <c r="B475" s="1" t="s">
         <v>1541</v>
       </c>
@@ -34131,7 +34135,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="477" hidden="1" spans="2:4">
+    <row r="477" ht="24" hidden="1" spans="2:4">
       <c r="B477" s="1" t="s">
         <v>1546</v>
       </c>
@@ -34142,7 +34146,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="478" hidden="1" spans="2:4">
+    <row r="478" ht="24" hidden="1" spans="2:4">
       <c r="B478" s="1" t="s">
         <v>1549</v>
       </c>
@@ -34153,7 +34157,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="2:4">
+    <row r="479" ht="24" hidden="1" spans="2:4">
       <c r="B479" s="1" t="s">
         <v>1552</v>
       </c>
@@ -34164,7 +34168,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="2:4">
+    <row r="480" ht="24" hidden="1" spans="2:4">
       <c r="B480" s="1" t="s">
         <v>1555</v>
       </c>
@@ -34175,7 +34179,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="2:4">
+    <row r="481" ht="24" hidden="1" spans="2:4">
       <c r="B481" s="1" t="s">
         <v>1558</v>
       </c>
@@ -34186,7 +34190,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="482" hidden="1" spans="2:4">
+    <row r="482" ht="23" hidden="1" spans="2:4">
       <c r="B482" s="1" t="s">
         <v>1561</v>
       </c>
@@ -34211,7 +34215,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="484" hidden="1" spans="2:4">
+    <row r="484" ht="24" hidden="1" spans="2:4">
       <c r="B484" s="1" t="s">
         <v>1567</v>
       </c>
@@ -34222,7 +34226,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="485" hidden="1" spans="2:4">
+    <row r="485" ht="24" hidden="1" spans="2:4">
       <c r="B485" s="1" t="s">
         <v>1570</v>
       </c>
@@ -34233,7 +34237,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="2:4">
+    <row r="486" ht="23" hidden="1" spans="2:4">
       <c r="B486" s="1" t="s">
         <v>1573</v>
       </c>
@@ -34244,7 +34248,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="487" ht="37.5" hidden="1" spans="2:5">
+    <row r="487" ht="58" hidden="1" spans="2:5">
       <c r="B487" s="1" t="s">
         <v>1576</v>
       </c>
@@ -34272,7 +34276,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="489" ht="37.5" hidden="1" spans="2:4">
+    <row r="489" ht="40" hidden="1" spans="2:4">
       <c r="B489" s="1" t="s">
         <v>1584</v>
       </c>
@@ -34283,7 +34287,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="490" ht="56.25" hidden="1" spans="1:5">
+    <row r="490" ht="60" hidden="1" spans="1:5">
       <c r="A490" s="1">
         <v>0</v>
       </c>
@@ -34314,7 +34318,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="492" ht="37.5" hidden="1" spans="2:4">
+    <row r="492" ht="40" hidden="1" spans="2:4">
       <c r="B492" s="1" t="s">
         <v>1594</v>
       </c>
@@ -34325,7 +34329,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="493" ht="37.5" hidden="1" spans="1:4">
+    <row r="493" ht="40" hidden="1" spans="1:4">
       <c r="A493" s="1">
         <v>0</v>
       </c>
@@ -34339,7 +34343,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="494" ht="37.5" hidden="1" spans="1:4">
+    <row r="494" ht="40" hidden="1" spans="1:4">
       <c r="A494" s="1">
         <v>0</v>
       </c>
@@ -34353,7 +34357,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="495" ht="37.5" hidden="1" spans="1:4">
+    <row r="495" ht="40" hidden="1" spans="1:4">
       <c r="A495" s="1">
         <v>0</v>
       </c>
@@ -34367,7 +34371,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="496" ht="37.5" hidden="1" spans="2:4">
+    <row r="496" ht="40" hidden="1" spans="2:4">
       <c r="B496" s="1" t="s">
         <v>1606</v>
       </c>
@@ -34389,7 +34393,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="498" ht="37.5" hidden="1" spans="1:5">
+    <row r="498" ht="40" hidden="1" spans="1:5">
       <c r="A498" s="1">
         <v>0</v>
       </c>
@@ -34406,7 +34410,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="2:4">
+    <row r="499" ht="24" hidden="1" spans="2:4">
       <c r="B499" s="1" t="s">
         <v>1616</v>
       </c>
@@ -34417,7 +34421,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="500" ht="37.5" hidden="1" spans="1:5">
+    <row r="500" ht="40" hidden="1" spans="1:5">
       <c r="A500" s="1">
         <v>0</v>
       </c>
@@ -34434,7 +34438,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="501" ht="37.5" hidden="1" spans="2:4">
+    <row r="501" ht="40" hidden="1" spans="2:4">
       <c r="B501" s="1" t="s">
         <v>1623</v>
       </c>
@@ -34445,7 +34449,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="502" ht="37.5" hidden="1" spans="2:4">
+    <row r="502" ht="40" hidden="1" spans="2:4">
       <c r="B502" s="1" t="s">
         <v>1626</v>
       </c>
@@ -34473,7 +34477,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="504" hidden="1" spans="2:4">
+    <row r="504" ht="23" hidden="1" spans="2:4">
       <c r="B504" s="1" t="s">
         <v>1633</v>
       </c>
@@ -34484,7 +34488,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="505" ht="37.5" hidden="1" spans="1:5">
+    <row r="505" ht="40" hidden="1" spans="1:5">
       <c r="A505" s="1">
         <v>0</v>
       </c>
@@ -34501,7 +34505,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="506" ht="37.5" hidden="1" spans="1:4">
+    <row r="506" ht="40" hidden="1" spans="1:4">
       <c r="A506" s="1">
         <v>0</v>
       </c>
@@ -34532,7 +34536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" ht="37.5" hidden="1" spans="1:5">
+    <row r="508" ht="60" hidden="1" spans="1:5">
       <c r="A508" s="1">
         <v>0</v>
       </c>
@@ -34560,7 +34564,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="510" hidden="1" spans="2:4">
+    <row r="510" ht="23" hidden="1" spans="2:4">
       <c r="B510" s="1" t="s">
         <v>1653</v>
       </c>
@@ -34571,7 +34575,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="511" ht="37.5" hidden="1" spans="1:5">
+    <row r="511" ht="40" hidden="1" spans="1:5">
       <c r="A511" s="1">
         <v>0</v>
       </c>
@@ -34605,7 +34609,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="513" ht="37.5" hidden="1" spans="1:4">
+    <row r="513" ht="40" hidden="1" spans="1:4">
       <c r="A513" s="1">
         <v>0</v>
       </c>
@@ -34619,7 +34623,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="514" ht="37.5" hidden="1" spans="2:4">
+    <row r="514" ht="40" hidden="1" spans="2:4">
       <c r="B514" s="1" t="s">
         <v>1667</v>
       </c>
@@ -34630,7 +34634,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="515" ht="37.5" hidden="1" spans="2:4">
+    <row r="515" ht="40" hidden="1" spans="2:4">
       <c r="B515" s="1" t="s">
         <v>1670</v>
       </c>
@@ -34641,7 +34645,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="516" ht="37.5" hidden="1" spans="2:4">
+    <row r="516" ht="40" hidden="1" spans="2:4">
       <c r="B516" s="1" t="s">
         <v>1673</v>
       </c>
@@ -34652,7 +34656,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="517" ht="37.5" hidden="1" spans="2:4">
+    <row r="517" ht="40" hidden="1" spans="2:4">
       <c r="B517" s="1" t="s">
         <v>1676</v>
       </c>
@@ -34663,7 +34667,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="518" ht="37.5" hidden="1" spans="1:4">
+    <row r="518" ht="40" hidden="1" spans="1:4">
       <c r="A518" s="1">
         <v>0</v>
       </c>
@@ -34677,7 +34681,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="519" ht="37.5" hidden="1" spans="1:4">
+    <row r="519" ht="40" hidden="1" spans="1:4">
       <c r="A519" s="1">
         <v>0</v>
       </c>
@@ -34691,7 +34695,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="520" ht="56.25" hidden="1" spans="1:5">
+    <row r="520" ht="60" hidden="1" spans="1:5">
       <c r="A520" s="1">
         <v>0</v>
       </c>
@@ -34708,7 +34712,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="521" ht="37.5" hidden="1" spans="2:5">
+    <row r="521" ht="44" hidden="1" spans="2:5">
       <c r="B521" s="1" t="s">
         <v>1689</v>
       </c>
@@ -34722,7 +34726,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="522" ht="37.5" hidden="1" spans="2:4">
+    <row r="522" ht="40" hidden="1" spans="2:4">
       <c r="B522" s="1" t="s">
         <v>1693</v>
       </c>
@@ -34733,7 +34737,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="2:4">
+    <row r="523" ht="24" hidden="1" spans="2:4">
       <c r="B523" s="1" t="s">
         <v>1696</v>
       </c>
@@ -34744,7 +34748,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="524" ht="37.5" hidden="1" spans="2:4">
+    <row r="524" ht="40" hidden="1" spans="2:4">
       <c r="B524" s="1" t="s">
         <v>1699</v>
       </c>
@@ -34766,7 +34770,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="526" ht="37.5" hidden="1" spans="1:4">
+    <row r="526" ht="40" hidden="1" spans="1:4">
       <c r="A526" s="1">
         <v>0</v>
       </c>
@@ -34780,7 +34784,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="1:4">
+    <row r="527" ht="24" hidden="1" spans="1:4">
       <c r="A527" s="1">
         <v>0</v>
       </c>
@@ -34822,7 +34826,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="530" ht="37.5" hidden="1" spans="2:4">
+    <row r="530" ht="40" hidden="1" spans="2:4">
       <c r="B530" s="1" t="s">
         <v>1717</v>
       </c>
@@ -34833,7 +34837,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="531" ht="37.5" hidden="1" spans="1:4">
+    <row r="531" ht="40" hidden="1" spans="1:4">
       <c r="A531" s="1">
         <v>0</v>
       </c>
@@ -34847,7 +34851,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="532" ht="37.5" hidden="1" spans="1:4">
+    <row r="532" ht="40" hidden="1" spans="1:4">
       <c r="A532" s="1">
         <v>0</v>
       </c>
@@ -34861,7 +34865,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="533" ht="37.5" hidden="1" spans="2:4">
+    <row r="533" ht="40" hidden="1" spans="2:4">
       <c r="B533" s="1" t="s">
         <v>1726</v>
       </c>
@@ -34872,7 +34876,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="534" ht="75" hidden="1" spans="1:5">
+    <row r="534" ht="80" hidden="1" spans="1:5">
       <c r="A534" s="1">
         <v>0</v>
       </c>
@@ -34900,7 +34904,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="536" ht="37.5" hidden="1" spans="2:5">
+    <row r="536" ht="40" hidden="1" spans="2:5">
       <c r="B536" s="1" t="s">
         <v>1736</v>
       </c>
@@ -34914,7 +34918,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="537" hidden="1" spans="1:4">
+    <row r="537" ht="24" hidden="1" spans="1:4">
       <c r="A537" s="1">
         <v>0</v>
       </c>
@@ -34939,7 +34943,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="539" hidden="1" spans="1:4">
+    <row r="539" ht="24" hidden="1" spans="1:4">
       <c r="A539" s="1">
         <v>0</v>
       </c>
@@ -35009,7 +35013,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="544" ht="37.5" hidden="1" spans="1:4">
+    <row r="544" ht="40" hidden="1" spans="1:4">
       <c r="A544" s="1">
         <v>0</v>
       </c>
@@ -35023,7 +35027,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="2:4">
+    <row r="545" ht="23" hidden="1" spans="2:4">
       <c r="B545" s="1" t="s">
         <v>1766</v>
       </c>
@@ -35034,7 +35038,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="1:5">
+    <row r="546" ht="40" hidden="1" spans="1:5">
       <c r="A546" s="1">
         <v>0</v>
       </c>
@@ -35065,7 +35069,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="548" ht="37.5" hidden="1" spans="1:5">
+    <row r="548" ht="40" hidden="1" spans="1:5">
       <c r="A548" s="1">
         <v>0</v>
       </c>
@@ -35082,7 +35086,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="549" hidden="1" spans="2:4">
+    <row r="549" ht="24" hidden="1" spans="2:4">
       <c r="B549" s="1" t="s">
         <v>1781</v>
       </c>
@@ -35093,7 +35097,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="550" ht="37.5" hidden="1" spans="1:4">
+    <row r="550" ht="40" hidden="1" spans="1:4">
       <c r="A550" s="1">
         <v>0</v>
       </c>
@@ -35121,7 +35125,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="552" ht="37.5" hidden="1" spans="2:4">
+    <row r="552" ht="40" hidden="1" spans="2:4">
       <c r="B552" s="1" t="s">
         <v>1790</v>
       </c>
@@ -35132,7 +35136,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="553" ht="37.5" hidden="1" spans="1:4">
+    <row r="553" ht="40" hidden="1" spans="1:4">
       <c r="A553" s="1">
         <v>0</v>
       </c>
@@ -35160,7 +35164,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="555" hidden="1" spans="2:4">
+    <row r="555" ht="24" hidden="1" spans="2:4">
       <c r="B555" s="1" t="s">
         <v>1799</v>
       </c>
@@ -35182,7 +35186,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="2:4">
+    <row r="557" ht="24" hidden="1" spans="2:4">
       <c r="B557" s="1" t="s">
         <v>1805</v>
       </c>
@@ -35193,7 +35197,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="558" ht="37.5" hidden="1" spans="2:4">
+    <row r="558" ht="40" hidden="1" spans="2:4">
       <c r="B558" s="1" t="s">
         <v>1808</v>
       </c>
@@ -35204,7 +35208,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="559" hidden="1" spans="2:5">
+    <row r="559" ht="24" hidden="1" spans="2:5">
       <c r="B559" s="1" t="s">
         <v>1811</v>
       </c>
@@ -35218,7 +35222,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="560" hidden="1" spans="2:4">
+    <row r="560" ht="24" hidden="1" spans="2:4">
       <c r="B560" s="1" t="s">
         <v>1815</v>
       </c>
@@ -35271,7 +35275,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="564" ht="37.5" hidden="1" spans="2:4">
+    <row r="564" ht="40" hidden="1" spans="2:4">
       <c r="B564" s="1" t="s">
         <v>1829</v>
       </c>
@@ -35282,7 +35286,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="565" hidden="1" spans="1:4">
+    <row r="565" ht="24" hidden="1" spans="1:4">
       <c r="A565" s="1">
         <v>0</v>
       </c>
@@ -35296,7 +35300,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="566" ht="75" hidden="1" spans="2:5">
+    <row r="566" ht="100" hidden="1" spans="2:5">
       <c r="B566" s="1" t="s">
         <v>1835</v>
       </c>
@@ -35358,7 +35362,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="570" ht="37.5" hidden="1" spans="1:4">
+    <row r="570" ht="40" hidden="1" spans="1:4">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -35372,9 +35376,9 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" ht="24" spans="1:4">
       <c r="A571" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>1853</v>
@@ -35386,7 +35390,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="572" hidden="1" spans="1:4">
+    <row r="572" ht="23" hidden="1" spans="1:4">
       <c r="A572" s="1">
         <v>0</v>
       </c>
@@ -35414,7 +35418,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="2:4">
+    <row r="574" ht="23" hidden="1" spans="2:4">
       <c r="B574" s="1" t="s">
         <v>1863</v>
       </c>
@@ -35425,7 +35429,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="575" ht="37.5" hidden="1" spans="2:4">
+    <row r="575" ht="44" hidden="1" spans="2:4">
       <c r="B575" s="1" t="s">
         <v>1866</v>
       </c>
@@ -35436,7 +35440,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="576" hidden="1" spans="2:4">
+    <row r="576" ht="24" hidden="1" spans="2:4">
       <c r="B576" s="1" t="s">
         <v>1869</v>
       </c>
@@ -35447,7 +35451,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="2:4">
+    <row r="577" ht="24" hidden="1" spans="2:4">
       <c r="B577" s="1" t="s">
         <v>1872</v>
       </c>
@@ -35469,7 +35473,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="579" hidden="1" spans="1:4">
+    <row r="579" ht="24" hidden="1" spans="1:4">
       <c r="A579" s="1">
         <v>0</v>
       </c>
@@ -35483,7 +35487,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="580" ht="37.5" hidden="1" spans="2:4">
+    <row r="580" ht="40" hidden="1" spans="2:4">
       <c r="B580" s="1" t="s">
         <v>1881</v>
       </c>
@@ -35508,7 +35512,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="582" hidden="1" spans="1:4">
+    <row r="582" ht="24" hidden="1" spans="1:4">
       <c r="A582" s="1">
         <v>0</v>
       </c>
@@ -35589,7 +35593,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="588" hidden="1" spans="2:4">
+    <row r="588" ht="24" hidden="1" spans="2:4">
       <c r="B588" s="1" t="s">
         <v>1906</v>
       </c>
@@ -35611,7 +35615,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="590" ht="37.5" hidden="1" spans="2:4">
+    <row r="590" ht="40" hidden="1" spans="2:4">
       <c r="B590" s="1" t="s">
         <v>1912</v>
       </c>
@@ -35647,7 +35651,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="593" ht="37.5" hidden="1" spans="1:5">
+    <row r="593" ht="40" hidden="1" spans="1:5">
       <c r="A593" s="1">
         <v>0</v>
       </c>
@@ -35717,7 +35721,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="598" ht="37.5" hidden="1" spans="1:5">
+    <row r="598" ht="40" hidden="1" spans="1:5">
       <c r="A598" s="1">
         <v>0</v>
       </c>
@@ -35748,7 +35752,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="1:4">
+    <row r="600" ht="24" hidden="1" spans="1:4">
       <c r="A600" s="1">
         <v>0</v>
       </c>
@@ -35762,7 +35766,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="2:4">
+    <row r="601" ht="24" hidden="1" spans="2:4">
       <c r="B601" s="1" t="s">
         <v>1948</v>
       </c>
@@ -35801,7 +35805,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="604" hidden="1" spans="2:5">
+    <row r="604" ht="24" hidden="1" spans="2:5">
       <c r="B604" s="1" t="s">
         <v>1958</v>
       </c>
@@ -35829,7 +35833,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="606" hidden="1" spans="2:4">
+    <row r="606" ht="24" hidden="1" spans="2:4">
       <c r="B606" s="1" t="s">
         <v>1965</v>
       </c>
@@ -35840,7 +35844,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="607" hidden="1" spans="1:5">
+    <row r="607" ht="24" hidden="1" spans="1:5">
       <c r="A607" s="1">
         <v>0</v>
       </c>
@@ -35857,7 +35861,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="608" hidden="1" spans="2:5">
+    <row r="608" ht="24" hidden="1" spans="2:5">
       <c r="B608" s="1" t="s">
         <v>1972</v>
       </c>
@@ -35871,7 +35875,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="609" ht="37.5" hidden="1" spans="1:5">
+    <row r="609" ht="40" hidden="1" spans="1:5">
       <c r="A609" s="1">
         <v>0</v>
       </c>
@@ -35902,7 +35906,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="611" hidden="1" spans="1:5">
+    <row r="611" ht="24" hidden="1" spans="1:5">
       <c r="A611" s="1">
         <v>0</v>
       </c>
@@ -35961,7 +35965,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="615" ht="37.5" hidden="1" spans="2:4">
+    <row r="615" ht="40" hidden="1" spans="2:4">
       <c r="B615" s="1" t="s">
         <v>1996</v>
       </c>
@@ -35997,7 +36001,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="618" hidden="1" spans="2:4">
+    <row r="618" ht="24" hidden="1" spans="2:4">
       <c r="B618" s="1" t="s">
         <v>2005</v>
       </c>
@@ -36030,7 +36034,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="621" hidden="1" spans="1:4">
+    <row r="621" ht="24" hidden="1" spans="1:4">
       <c r="A621" s="1">
         <v>0</v>
       </c>
@@ -36061,7 +36065,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="623" ht="37.5" hidden="1" spans="1:4">
+    <row r="623" ht="40" hidden="1" spans="1:4">
       <c r="A623" s="1">
         <v>0</v>
       </c>
@@ -36100,7 +36104,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="626" ht="37.5" hidden="1" spans="2:4">
+    <row r="626" ht="40" hidden="1" spans="2:4">
       <c r="B626" s="1" t="s">
         <v>2030</v>
       </c>
@@ -36136,7 +36140,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="629" hidden="1" spans="2:4">
+    <row r="629" ht="23" hidden="1" spans="2:4">
       <c r="B629" s="1" t="s">
         <v>2039</v>
       </c>
@@ -36147,7 +36151,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="630" ht="37.5" hidden="1" spans="1:4">
+    <row r="630" ht="40" hidden="1" spans="1:4">
       <c r="A630" s="1">
         <v>0</v>
       </c>
@@ -36161,7 +36165,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="631" hidden="1" spans="2:4">
+    <row r="631" ht="24" hidden="1" spans="2:4">
       <c r="B631" s="1" t="s">
         <v>2045</v>
       </c>
@@ -36172,7 +36176,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="632" hidden="1" spans="2:4">
+    <row r="632" ht="24" hidden="1" spans="2:4">
       <c r="B632" s="1" t="s">
         <v>2048</v>
       </c>
@@ -36183,7 +36187,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="633" ht="37.5" hidden="1" spans="1:4">
+    <row r="633" ht="40" hidden="1" spans="1:4">
       <c r="A633" s="1">
         <v>0</v>
       </c>
@@ -36303,7 +36307,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="642" ht="37.5" hidden="1" spans="1:4">
+    <row r="642" ht="40" hidden="1" spans="1:4">
       <c r="A642" s="1">
         <v>0</v>
       </c>
@@ -36317,7 +36321,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="643" ht="37.5" hidden="1" spans="1:4">
+    <row r="643" ht="40" hidden="1" spans="1:4">
       <c r="A643" s="1">
         <v>0</v>
       </c>
@@ -36393,7 +36397,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="648" hidden="1" spans="2:4">
+    <row r="648" ht="24" hidden="1" spans="2:4">
       <c r="B648" s="1" t="s">
         <v>2099</v>
       </c>
@@ -36404,7 +36408,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="649" ht="37.5" hidden="1" spans="1:5">
+    <row r="649" ht="40" hidden="1" spans="1:5">
       <c r="A649" s="1">
         <v>0</v>
       </c>
@@ -36421,7 +36425,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="650" ht="37.5" hidden="1" spans="2:4">
+    <row r="650" ht="40" hidden="1" spans="2:4">
       <c r="B650" s="1" t="s">
         <v>2106</v>
       </c>
@@ -36446,7 +36450,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="652" hidden="1" spans="1:4">
+    <row r="652" ht="24" hidden="1" spans="1:4">
       <c r="A652" s="1">
         <v>0</v>
       </c>
@@ -36460,7 +36464,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="653" ht="37.5" hidden="1" spans="1:5">
+    <row r="653" ht="60" hidden="1" spans="1:5">
       <c r="A653" s="1">
         <v>0</v>
       </c>
@@ -36477,7 +36481,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="654" hidden="1" spans="1:4">
+    <row r="654" ht="23" hidden="1" spans="1:4">
       <c r="A654" s="1">
         <v>0</v>
       </c>
@@ -36491,7 +36495,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="655" ht="37.5" hidden="1" spans="2:4">
+    <row r="655" ht="40" hidden="1" spans="2:4">
       <c r="B655" s="1" t="s">
         <v>2122</v>
       </c>
@@ -36519,7 +36523,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="657" ht="37.5" hidden="1" spans="2:5">
+    <row r="657" ht="40" hidden="1" spans="2:5">
       <c r="B657" s="1" t="s">
         <v>2128</v>
       </c>
@@ -36547,7 +36551,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="659" hidden="1" spans="2:5">
+    <row r="659" ht="24" hidden="1" spans="2:5">
       <c r="B659" s="1" t="s">
         <v>2134</v>
       </c>
@@ -36561,7 +36565,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="660" hidden="1" spans="2:4">
+    <row r="660" ht="24" hidden="1" spans="2:4">
       <c r="B660" s="1" t="s">
         <v>2138</v>
       </c>
@@ -36670,7 +36674,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="668" hidden="1" spans="2:4">
+    <row r="668" ht="24" hidden="1" spans="2:4">
       <c r="B668" s="1" t="s">
         <v>2163</v>
       </c>
@@ -36681,7 +36685,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="669" ht="37.5" hidden="1" spans="1:4">
+    <row r="669" ht="40" hidden="1" spans="1:4">
       <c r="A669" s="1">
         <v>0</v>
       </c>
@@ -36786,7 +36790,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="678" hidden="1" spans="2:5">
+    <row r="678" ht="40" hidden="1" spans="2:5">
       <c r="B678" s="1" t="s">
         <v>2193</v>
       </c>
@@ -36828,7 +36832,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="681" ht="37.5" hidden="1" spans="2:4">
+    <row r="681" ht="40" hidden="1" spans="2:4">
       <c r="B681" s="1" t="s">
         <v>2202</v>
       </c>
@@ -36839,7 +36843,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="682" hidden="1" spans="1:4">
+    <row r="682" ht="23" hidden="1" spans="1:4">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -36870,7 +36874,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="684" ht="37.5" hidden="1" spans="1:5">
+    <row r="684" ht="40" hidden="1" spans="1:5">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -36901,7 +36905,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="686" ht="112.5" hidden="1" spans="1:5">
+    <row r="686" ht="140" hidden="1" spans="1:5">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -36932,7 +36936,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="688" hidden="1" spans="2:4">
+    <row r="688" ht="24" hidden="1" spans="2:4">
       <c r="B688" s="1" t="s">
         <v>2228</v>
       </c>
@@ -36957,7 +36961,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="690" ht="37.5" hidden="1" spans="2:4">
+    <row r="690" ht="40" hidden="1" spans="2:4">
       <c r="B690" s="1" t="s">
         <v>2234</v>
       </c>
@@ -36990,7 +36994,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="693" hidden="1" spans="2:4">
+    <row r="693" ht="23" hidden="1" spans="2:4">
       <c r="B693" s="1" t="s">
         <v>2243</v>
       </c>
@@ -37026,7 +37030,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="696" hidden="1" spans="2:4">
+    <row r="696" ht="23" hidden="1" spans="2:4">
       <c r="B696" s="1" t="s">
         <v>2252</v>
       </c>
@@ -37037,7 +37041,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="697" hidden="1" spans="2:4">
+    <row r="697" ht="24" hidden="1" spans="2:4">
       <c r="B697" s="1" t="s">
         <v>2255</v>
       </c>
@@ -37073,7 +37077,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="700" ht="37.5" hidden="1" spans="2:4">
+    <row r="700" ht="40" hidden="1" spans="2:4">
       <c r="B700" s="1" t="s">
         <v>2264</v>
       </c>
@@ -37115,7 +37119,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="703" ht="56.25" hidden="1" spans="2:5">
+    <row r="703" ht="80" hidden="1" spans="2:5">
       <c r="B703" s="1" t="s">
         <v>2274</v>
       </c>
@@ -37129,7 +37133,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="704" ht="37.5" hidden="1" spans="1:4">
+    <row r="704" ht="40" hidden="1" spans="1:4">
       <c r="A704" s="1">
         <v>0</v>
       </c>
@@ -37143,7 +37147,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="705" hidden="1" spans="2:4">
+    <row r="705" ht="24" hidden="1" spans="2:4">
       <c r="B705" s="1" t="s">
         <v>2281</v>
       </c>
@@ -37190,7 +37194,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="709" hidden="1" spans="2:4">
+    <row r="709" ht="24" hidden="1" spans="2:4">
       <c r="B709" s="1" t="s">
         <v>2294</v>
       </c>
@@ -37254,7 +37258,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="714" hidden="1" spans="2:4">
+    <row r="714" ht="24" hidden="1" spans="2:4">
       <c r="B714" s="1" t="s">
         <v>2310</v>
       </c>
@@ -37265,7 +37269,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="715" ht="37.5" hidden="1" spans="1:4">
+    <row r="715" ht="40" hidden="1" spans="1:4">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -37279,7 +37283,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="716" ht="37.5" hidden="1" spans="1:4">
+    <row r="716" ht="40" hidden="1" spans="1:4">
       <c r="A716" s="1">
         <v>0</v>
       </c>
@@ -37349,7 +37353,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="721" ht="37.5" hidden="1" spans="1:5">
+    <row r="721" ht="40" hidden="1" spans="1:5">
       <c r="A721" s="1">
         <v>0</v>
       </c>
@@ -37366,7 +37370,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="722" hidden="1" spans="1:4">
+    <row r="722" ht="23" hidden="1" spans="1:4">
       <c r="A722" s="1">
         <v>0</v>
       </c>
@@ -37466,7 +37470,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="730" ht="37.5" hidden="1" spans="2:4">
+    <row r="730" ht="40" hidden="1" spans="2:4">
       <c r="B730" s="1" t="s">
         <v>2360</v>
       </c>
@@ -37536,7 +37540,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="735" hidden="1" spans="2:4">
+    <row r="735" ht="24" hidden="1" spans="2:4">
       <c r="B735" s="1" t="s">
         <v>2378</v>
       </c>
@@ -37547,7 +37551,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="736" hidden="1" spans="2:4">
+    <row r="736" ht="24" hidden="1" spans="2:4">
       <c r="B736" s="1" t="s">
         <v>2381</v>
       </c>
@@ -37569,7 +37573,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="738" ht="37.5" hidden="1" spans="1:4">
+    <row r="738" ht="40" hidden="1" spans="1:4">
       <c r="A738" s="1">
         <v>0</v>
       </c>
@@ -37597,7 +37601,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="740" ht="37.5" hidden="1" spans="2:5">
+    <row r="740" ht="40" hidden="1" spans="2:5">
       <c r="B740" s="1" t="s">
         <v>2393</v>
       </c>
@@ -37611,7 +37615,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="741" ht="37.5" hidden="1" spans="1:4">
+    <row r="741" ht="40" hidden="1" spans="1:4">
       <c r="A741" s="1">
         <v>0</v>
       </c>
@@ -37639,7 +37643,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="743" hidden="1" spans="2:4">
+    <row r="743" ht="23" hidden="1" spans="2:4">
       <c r="B743" s="1" t="s">
         <v>2403</v>
       </c>
@@ -37705,7 +37709,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="749" hidden="1" spans="2:4">
+    <row r="749" ht="24" hidden="1" spans="2:4">
       <c r="B749" s="1" t="s">
         <v>2421</v>
       </c>
@@ -37761,7 +37765,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="753" hidden="1" spans="2:4">
+    <row r="753" ht="24" hidden="1" spans="2:4">
       <c r="B753" s="1" t="s">
         <v>2434</v>
       </c>
@@ -37797,7 +37801,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="756" hidden="1" spans="2:4">
+    <row r="756" ht="24" hidden="1" spans="2:4">
       <c r="B756" s="1" t="s">
         <v>2443</v>
       </c>
@@ -37808,7 +37812,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="757" ht="37.5" hidden="1" spans="1:4">
+    <row r="757" ht="40" hidden="1" spans="1:4">
       <c r="A757" s="1">
         <v>0</v>
       </c>
@@ -37864,7 +37868,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="761" hidden="1" spans="2:4">
+    <row r="761" ht="24" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2459</v>
       </c>
@@ -37875,7 +37879,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="762" hidden="1" spans="2:4">
+    <row r="762" ht="24" hidden="1" spans="2:4">
       <c r="B762" s="1" t="s">
         <v>2462</v>
       </c>
@@ -37897,7 +37901,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="764" hidden="1" spans="2:4">
+    <row r="764" ht="24" hidden="1" spans="2:4">
       <c r="B764" s="1" t="s">
         <v>2468</v>
       </c>
@@ -37922,7 +37926,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="766" hidden="1" spans="2:4">
+    <row r="766" ht="24" hidden="1" spans="2:4">
       <c r="B766" s="1" t="s">
         <v>2474</v>
       </c>
@@ -37933,7 +37937,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="767" hidden="1" spans="1:4">
+    <row r="767" ht="24" hidden="1" spans="1:4">
       <c r="A767" s="1">
         <v>0</v>
       </c>
@@ -37958,7 +37962,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="769" hidden="1" spans="2:5">
+    <row r="769" ht="24" hidden="1" spans="2:5">
       <c r="B769" s="1" t="s">
         <v>2483</v>
       </c>
@@ -37986,7 +37990,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="771" hidden="1" spans="1:4">
+    <row r="771" ht="24" hidden="1" spans="1:4">
       <c r="A771" s="1">
         <v>0</v>
       </c>
@@ -38000,7 +38004,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="772" ht="37.5" hidden="1" spans="1:4">
+    <row r="772" ht="40" hidden="1" spans="1:4">
       <c r="A772" s="1">
         <v>0</v>
       </c>
@@ -38014,7 +38018,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="773" hidden="1" spans="2:4">
+    <row r="773" ht="24" hidden="1" spans="2:4">
       <c r="B773" s="1" t="s">
         <v>2495</v>
       </c>
@@ -38025,7 +38029,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="774" hidden="1" spans="2:4">
+    <row r="774" ht="24" hidden="1" spans="2:4">
       <c r="B774" s="1" t="s">
         <v>2498</v>
       </c>
@@ -38036,7 +38040,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="775" ht="37.5" hidden="1" spans="1:4">
+    <row r="775" ht="40" hidden="1" spans="1:4">
       <c r="A775" s="1">
         <v>0</v>
       </c>
@@ -38078,7 +38082,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="778" ht="37.5" hidden="1" spans="1:5">
+    <row r="778" ht="40" hidden="1" spans="1:5">
       <c r="A778" s="1">
         <v>0</v>
       </c>
@@ -38192,7 +38196,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="787" ht="131.25" hidden="1" spans="1:5">
+    <row r="787" ht="140" hidden="1" spans="1:5">
       <c r="A787" s="1">
         <v>0</v>
       </c>
@@ -38209,7 +38213,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="788" hidden="1" spans="1:4">
+    <row r="788" ht="24" hidden="1" spans="1:4">
       <c r="A788" s="1">
         <v>0</v>
       </c>
@@ -38245,7 +38249,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="791" ht="37.5" hidden="1" spans="2:5">
+    <row r="791" ht="40" hidden="1" spans="2:5">
       <c r="B791" s="1" t="s">
         <v>2552</v>
       </c>
@@ -38276,7 +38280,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="793" hidden="1" spans="1:4">
+    <row r="793" ht="23" hidden="1" spans="1:4">
       <c r="A793" s="1">
         <v>0</v>
       </c>
@@ -38340,7 +38344,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="798" ht="37.5" hidden="1" spans="2:4">
+    <row r="798" ht="40" hidden="1" spans="2:4">
       <c r="B798" s="1" t="s">
         <v>2575</v>
       </c>
@@ -38362,7 +38366,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="800" ht="112.5" hidden="1" spans="2:5">
+    <row r="800" ht="140" hidden="1" spans="2:5">
       <c r="B800" s="1" t="s">
         <v>2581</v>
       </c>
@@ -38387,7 +38391,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="802" hidden="1" spans="2:4">
+    <row r="802" ht="24" hidden="1" spans="2:4">
       <c r="B802" s="1" t="s">
         <v>2588</v>
       </c>
@@ -38398,7 +38402,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="803" hidden="1" spans="1:4">
+    <row r="803" ht="23" hidden="1" spans="1:4">
       <c r="A803" s="1">
         <v>0</v>
       </c>
@@ -38434,7 +38438,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="806" hidden="1" spans="2:4">
+    <row r="806" ht="24" hidden="1" spans="2:4">
       <c r="B806" s="1" t="s">
         <v>2600</v>
       </c>
@@ -38473,7 +38477,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="809" ht="37.5" hidden="1" spans="1:4">
+    <row r="809" ht="40" hidden="1" spans="1:4">
       <c r="A809" s="1">
         <v>0</v>
       </c>
@@ -38512,7 +38516,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="812" hidden="1" spans="2:4">
+    <row r="812" ht="24" hidden="1" spans="2:4">
       <c r="B812" s="1" t="s">
         <v>2619</v>
       </c>
@@ -38523,7 +38527,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="813" hidden="1" spans="1:4">
+    <row r="813" ht="24" hidden="1" spans="1:4">
       <c r="A813" s="1">
         <v>0</v>
       </c>
@@ -38537,7 +38541,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="814" ht="37.5" hidden="1" spans="1:5">
+    <row r="814" ht="40" hidden="1" spans="1:5">
       <c r="A814" s="1">
         <v>0</v>
       </c>
@@ -38604,7 +38608,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="819" ht="37.5" hidden="1" spans="2:4">
+    <row r="819" ht="40" hidden="1" spans="2:4">
       <c r="B819" s="1" t="s">
         <v>2641</v>
       </c>
@@ -38657,7 +38661,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="823" ht="37.5" hidden="1" spans="1:5">
+    <row r="823" ht="40" hidden="1" spans="1:5">
       <c r="A823" s="1">
         <v>0</v>
       </c>
@@ -38685,7 +38689,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="825" hidden="1" spans="1:4">
+    <row r="825" ht="23" hidden="1" spans="1:4">
       <c r="A825" s="1">
         <v>0</v>
       </c>
@@ -38699,7 +38703,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="826" hidden="1" spans="2:4">
+    <row r="826" ht="24" hidden="1" spans="2:4">
       <c r="B826" s="1" t="s">
         <v>2664</v>
       </c>
@@ -38721,7 +38725,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="828" hidden="1" spans="1:4">
+    <row r="828" ht="23" hidden="1" spans="1:4">
       <c r="A828" s="1">
         <v>0</v>
       </c>
@@ -38735,7 +38739,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="829" ht="150" hidden="1" spans="2:5">
+    <row r="829" ht="160" hidden="1" spans="2:5">
       <c r="B829" s="1" t="s">
         <v>2673</v>
       </c>
@@ -38777,7 +38781,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="832" hidden="1" spans="1:4">
+    <row r="832" ht="24" hidden="1" spans="1:4">
       <c r="A832" s="1">
         <v>0</v>
       </c>
@@ -38791,7 +38795,7 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="833" ht="112.5" spans="1:5">
+    <row r="833" ht="120" spans="1:5">
       <c r="A833" s="1">
         <v>1</v>
       </c>
@@ -38830,7 +38834,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="836" ht="37.5" hidden="1" spans="1:5">
+    <row r="836" ht="40" hidden="1" spans="1:5">
       <c r="A836" s="1">
         <v>0</v>
       </c>
@@ -38872,7 +38876,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="839" hidden="1" spans="2:4">
+    <row r="839" ht="24" hidden="1" spans="2:4">
       <c r="B839" s="1" t="s">
         <v>2706</v>
       </c>
@@ -38944,7 +38948,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="845" hidden="1" spans="2:4">
+    <row r="845" ht="24" hidden="1" spans="2:4">
       <c r="B845" s="1" t="s">
         <v>2724</v>
       </c>
@@ -38972,7 +38976,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="847" ht="37.5" hidden="1" spans="1:4">
+    <row r="847" ht="40" hidden="1" spans="1:4">
       <c r="A847" s="1">
         <v>0</v>
       </c>
@@ -39064,7 +39068,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="854" ht="37.5" hidden="1" spans="2:4">
+    <row r="854" ht="24" hidden="1" spans="2:4">
       <c r="B854" s="1" t="s">
         <v>2753</v>
       </c>
@@ -39108,7 +39112,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="858" hidden="1" spans="1:4">
+    <row r="858" ht="23" hidden="1" spans="1:4">
       <c r="A858" s="1">
         <v>0</v>
       </c>
@@ -39158,7 +39162,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="862" hidden="1" spans="2:5">
+    <row r="862" ht="24" hidden="1" spans="2:5">
       <c r="B862" s="1" t="s">
         <v>2777</v>
       </c>
@@ -39172,7 +39176,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="863" ht="37.5" hidden="1" spans="2:4">
+    <row r="863" ht="40" hidden="1" spans="2:4">
       <c r="B863" s="1" t="s">
         <v>2781</v>
       </c>
@@ -39183,7 +39187,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="864" ht="37.5" hidden="1" spans="2:4">
+    <row r="864" ht="40" hidden="1" spans="2:4">
       <c r="B864" s="1" t="s">
         <v>2784</v>
       </c>
@@ -39194,7 +39198,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="865" hidden="1" spans="2:4">
+    <row r="865" ht="24" hidden="1" spans="2:4">
       <c r="B865" s="1" t="s">
         <v>2787</v>
       </c>
@@ -39238,7 +39242,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="869" hidden="1" spans="1:4">
+    <row r="869" ht="24" hidden="1" spans="1:4">
       <c r="A869" s="1">
         <v>0</v>
       </c>
@@ -39269,7 +39273,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="871" hidden="1" spans="1:4">
+    <row r="871" ht="24" hidden="1" spans="1:4">
       <c r="A871" s="1">
         <v>0</v>
       </c>
@@ -39297,7 +39301,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="873" hidden="1" spans="2:4">
+    <row r="873" ht="24" hidden="1" spans="2:4">
       <c r="B873" s="1" t="s">
         <v>2812</v>
       </c>
@@ -39319,7 +39323,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="875" hidden="1" spans="2:4">
+    <row r="875" ht="24" hidden="1" spans="2:4">
       <c r="B875" s="1" t="s">
         <v>2818</v>
       </c>
@@ -39372,7 +39376,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="879" ht="37.5" hidden="1" spans="1:5">
+    <row r="879" ht="40" hidden="1" spans="1:5">
       <c r="A879" s="1">
         <v>0</v>
       </c>
@@ -39389,7 +39393,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="880" hidden="1" spans="2:4">
+    <row r="880" ht="24" hidden="1" spans="2:4">
       <c r="B880" s="1" t="s">
         <v>2835</v>
       </c>
@@ -39414,7 +39418,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="882" hidden="1" spans="2:4">
+    <row r="882" ht="23" hidden="1" spans="2:4">
       <c r="B882" s="1" t="s">
         <v>2841</v>
       </c>
@@ -39481,7 +39485,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="887" hidden="1" spans="2:4">
+    <row r="887" ht="23" hidden="1" spans="2:4">
       <c r="B887" s="1" t="s">
         <v>2857</v>
       </c>
@@ -39531,7 +39535,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="891" ht="75" hidden="1" spans="2:5">
+    <row r="891" ht="96" hidden="1" spans="2:5">
       <c r="B891" s="1" t="s">
         <v>2869</v>
       </c>
@@ -39556,7 +39560,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="893" hidden="1" spans="2:4">
+    <row r="893" ht="24" hidden="1" spans="2:4">
       <c r="B893" s="1" t="s">
         <v>2876</v>
       </c>
@@ -39581,7 +39585,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="895" ht="37.5" hidden="1" spans="2:4">
+    <row r="895" ht="40" hidden="1" spans="2:4">
       <c r="B895" s="1" t="s">
         <v>2882</v>
       </c>
@@ -39594,7 +39598,7 @@
     </row>
     <row r="896" spans="1:4">
       <c r="A896" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B896" s="1" t="s">
         <v>2885</v>
@@ -39661,7 +39665,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="902" hidden="1" spans="2:4">
+    <row r="902" ht="24" hidden="1" spans="2:4">
       <c r="B902" s="1" t="s">
         <v>2903</v>
       </c>
@@ -39672,7 +39676,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="903" hidden="1" spans="2:4">
+    <row r="903" ht="24" hidden="1" spans="2:4">
       <c r="B903" s="1" t="s">
         <v>2906</v>
       </c>
@@ -39694,7 +39698,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="905" ht="37.5" hidden="1" spans="1:4">
+    <row r="905" ht="40" hidden="1" spans="1:4">
       <c r="A905" s="1">
         <v>0</v>
       </c>
@@ -39769,7 +39773,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="911" hidden="1" spans="1:4">
+    <row r="911" ht="24" hidden="1" spans="1:4">
       <c r="A911" s="1">
         <v>0</v>
       </c>
@@ -39783,7 +39787,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="912" ht="75" hidden="1" spans="1:5">
+    <row r="912" ht="100" hidden="1" spans="1:5">
       <c r="A912" s="1">
         <v>0</v>
       </c>
@@ -39800,7 +39804,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="913" ht="56.25" hidden="1" spans="2:5">
+    <row r="913" ht="60" hidden="1" spans="2:5">
       <c r="B913" s="1" t="s">
         <v>2937</v>
       </c>
@@ -39814,7 +39818,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="914" ht="56.25" hidden="1" spans="2:5">
+    <row r="914" ht="60" hidden="1" spans="2:5">
       <c r="B914" s="1" t="s">
         <v>2941</v>
       </c>
@@ -39859,7 +39863,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="917" hidden="1" spans="2:4">
+    <row r="917" ht="24" hidden="1" spans="2:4">
       <c r="B917" s="1" t="s">
         <v>2952</v>
       </c>
@@ -39906,7 +39910,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="921" hidden="1" spans="2:4">
+    <row r="921" ht="24" hidden="1" spans="2:4">
       <c r="B921" s="1" t="s">
         <v>2964</v>
       </c>
@@ -39917,7 +39921,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="922" hidden="1" spans="2:4">
+    <row r="922" ht="44" hidden="1" spans="2:4">
       <c r="B922" s="1" t="s">
         <v>2967</v>
       </c>
@@ -39942,9 +39946,9 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="924" ht="93.75" spans="1:5">
+    <row r="924" ht="116" spans="1:5">
       <c r="A924" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>2973</v>
@@ -39984,7 +39988,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="927" hidden="1" spans="2:4">
+    <row r="927" ht="24" hidden="1" spans="2:4">
       <c r="B927" s="1" t="s">
         <v>2983</v>
       </c>
@@ -40023,7 +40027,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="930" hidden="1" spans="2:5">
+    <row r="930" ht="24" hidden="1" spans="2:5">
       <c r="B930" s="1" t="s">
         <v>2992</v>
       </c>
@@ -40051,7 +40055,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="932" hidden="1" spans="2:4">
+    <row r="932" ht="24" hidden="1" spans="2:4">
       <c r="B932" s="1" t="s">
         <v>2999</v>
       </c>
@@ -40062,7 +40066,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="933" ht="37.5" hidden="1" spans="1:4">
+    <row r="933" ht="40" hidden="1" spans="1:4">
       <c r="A933" s="1">
         <v>0</v>
       </c>
@@ -40137,7 +40141,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="939" ht="37.5" hidden="1" spans="1:4">
+    <row r="939" ht="40" hidden="1" spans="1:4">
       <c r="A939" s="1">
         <v>0</v>
       </c>
@@ -40198,7 +40202,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="944" hidden="1" spans="1:5">
+    <row r="944" ht="24" hidden="1" spans="1:5">
       <c r="A944" s="1">
         <v>0</v>
       </c>
@@ -40215,7 +40219,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="945" ht="37.5" hidden="1" spans="1:4">
+    <row r="945" ht="40" hidden="1" spans="1:4">
       <c r="A945" s="1">
         <v>0</v>
       </c>
@@ -40229,7 +40233,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="946" ht="56.25" hidden="1" spans="1:5">
+    <row r="946" ht="60" hidden="1" spans="1:5">
       <c r="A946" s="1">
         <v>0</v>
       </c>
@@ -40257,7 +40261,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="948" hidden="1" spans="2:4">
+    <row r="948" ht="24" hidden="1" spans="2:4">
       <c r="B948" s="1" t="s">
         <v>3050</v>
       </c>
@@ -40268,7 +40272,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="949" hidden="1" spans="2:4">
+    <row r="949" ht="23" hidden="1" spans="2:4">
       <c r="B949" s="1" t="s">
         <v>3053</v>
       </c>
@@ -40279,7 +40283,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="950" hidden="1" spans="2:5">
+    <row r="950" ht="23" hidden="1" spans="2:5">
       <c r="B950" s="1" t="s">
         <v>3056</v>
       </c>
@@ -40304,7 +40308,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="952" hidden="1" spans="2:4">
+    <row r="952" ht="24" hidden="1" spans="2:4">
       <c r="B952" s="1" t="s">
         <v>3062</v>
       </c>
@@ -40315,7 +40319,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="953" ht="37.5" spans="1:5">
+    <row r="953" ht="40" spans="1:5">
       <c r="A953" s="1">
         <v>1</v>
       </c>
@@ -40332,7 +40336,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="954" ht="112.5" hidden="1" spans="2:5">
+    <row r="954" ht="120" hidden="1" spans="2:5">
       <c r="B954" s="1" t="s">
         <v>3069</v>
       </c>
@@ -40346,7 +40350,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="955" ht="93.75" hidden="1" spans="2:5">
+    <row r="955" ht="120" hidden="1" spans="2:5">
       <c r="B955" s="1" t="s">
         <v>3073</v>
       </c>
@@ -40360,7 +40364,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="956" hidden="1" spans="2:4">
+    <row r="956" ht="24" hidden="1" spans="2:4">
       <c r="B956" s="1" t="s">
         <v>3077</v>
       </c>
@@ -40371,7 +40375,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="957" ht="37.5" hidden="1" spans="2:4">
+    <row r="957" ht="40" hidden="1" spans="2:4">
       <c r="B957" s="1" t="s">
         <v>3080</v>
       </c>
@@ -40410,7 +40414,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="960" ht="37.5" hidden="1" spans="1:4">
+    <row r="960" ht="40" hidden="1" spans="1:4">
       <c r="A960" s="1">
         <v>0</v>
       </c>
@@ -40424,7 +40428,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="961" hidden="1" spans="2:4">
+    <row r="961" ht="24" hidden="1" spans="2:4">
       <c r="B961" s="1" t="s">
         <v>3092</v>
       </c>
@@ -40435,7 +40439,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="962" hidden="1" spans="2:5">
+    <row r="962" ht="24" hidden="1" spans="2:5">
       <c r="B962" s="1" t="s">
         <v>3095</v>
       </c>
@@ -40449,7 +40453,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="963" ht="37.5" hidden="1" spans="1:5">
+    <row r="963" ht="40" hidden="1" spans="1:5">
       <c r="A963" s="1">
         <v>0</v>
       </c>
@@ -40466,7 +40470,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="964" hidden="1" spans="2:5">
+    <row r="964" ht="24" hidden="1" spans="2:5">
       <c r="B964" s="1" t="s">
         <v>3103</v>
       </c>
@@ -40480,7 +40484,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="965" spans="1:4">
+    <row r="965" ht="23" spans="1:4">
       <c r="A965" s="1">
         <v>1</v>
       </c>
@@ -40530,7 +40534,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="969" hidden="1" spans="2:4">
+    <row r="969" ht="24" hidden="1" spans="2:4">
       <c r="B969" s="1" t="s">
         <v>3119</v>
       </c>
@@ -40560,7 +40564,7 @@
     </row>
     <row r="971" spans="1:4">
       <c r="A971" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B971" s="1" t="s">
         <v>3125</v>
@@ -40605,7 +40609,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="975" ht="37.5" hidden="1" spans="2:4">
+    <row r="975" ht="40" hidden="1" spans="2:4">
       <c r="B975" s="1" t="s">
         <v>3137</v>
       </c>
@@ -40695,7 +40699,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="981" hidden="1" spans="2:4">
+    <row r="981" ht="24" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
         <v>3158</v>
       </c>
@@ -40706,7 +40710,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="982" hidden="1" spans="2:4">
+    <row r="982" ht="24" hidden="1" spans="2:4">
       <c r="B982" s="1" t="s">
         <v>3161</v>
       </c>
@@ -40767,7 +40771,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="987" ht="37.5" hidden="1" spans="1:4">
+    <row r="987" ht="40" hidden="1" spans="1:4">
       <c r="A987" s="1">
         <v>0</v>
       </c>
@@ -40792,7 +40796,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="989" hidden="1" spans="2:4">
+    <row r="989" ht="43" hidden="1" spans="2:4">
       <c r="B989" s="1" t="s">
         <v>3182</v>
       </c>
@@ -40814,7 +40818,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="991" ht="37.5" hidden="1" spans="2:4">
+    <row r="991" ht="40" hidden="1" spans="2:4">
       <c r="B991" s="1" t="s">
         <v>3188</v>
       </c>
@@ -40839,7 +40843,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="993" hidden="1" spans="1:4">
+    <row r="993" ht="24" hidden="1" spans="1:4">
       <c r="A993" s="1">
         <v>0</v>
       </c>
@@ -40853,7 +40857,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="994" ht="37.5" hidden="1" spans="1:5">
+    <row r="994" ht="40" hidden="1" spans="1:5">
       <c r="A994" s="1">
         <v>0</v>
       </c>
@@ -40898,7 +40902,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="997" ht="93.75" hidden="1" spans="2:5">
+    <row r="997" ht="120" hidden="1" spans="2:5">
       <c r="B997" s="1" t="s">
         <v>3207</v>
       </c>
@@ -40940,7 +40944,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="1000" ht="93.75" hidden="1" spans="2:5">
+    <row r="1000" ht="120" hidden="1" spans="2:5">
       <c r="B1000" s="1" t="s">
         <v>3218</v>
       </c>
@@ -40954,7 +40958,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="1001" ht="37.5" hidden="1" spans="2:4">
+    <row r="1001" ht="40" hidden="1" spans="2:4">
       <c r="B1001" s="1" t="s">
         <v>3222</v>
       </c>
@@ -40965,7 +40969,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="1002" ht="37.5" hidden="1" spans="1:5">
+    <row r="1002" ht="40" hidden="1" spans="1:5">
       <c r="A1002" s="1">
         <v>0</v>
       </c>
@@ -40982,9 +40986,9 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="1003" ht="37.5" spans="1:4">
+    <row r="1003" ht="40" spans="1:4">
       <c r="A1003" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1003" s="1" t="s">
         <v>3229</v>
@@ -40998,7 +41002,7 @@
     </row>
     <row r="1004" spans="1:4">
       <c r="A1004" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1004" s="1" t="s">
         <v>3232</v>
@@ -41041,7 +41045,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="1007" hidden="1" spans="2:4">
+    <row r="1007" ht="24" hidden="1" spans="2:4">
       <c r="B1007" s="1" t="s">
         <v>3242</v>
       </c>
@@ -41063,7 +41067,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="1009" hidden="1" spans="2:4">
+    <row r="1009" ht="24" hidden="1" spans="2:4">
       <c r="B1009" s="1" t="s">
         <v>3248</v>
       </c>
@@ -41076,7 +41080,7 @@
     </row>
     <row r="1010" spans="1:5">
       <c r="A1010" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1010" s="1" t="s">
         <v>3251</v>
@@ -41166,7 +41170,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="1017" hidden="1" spans="2:4">
+    <row r="1017" ht="23" hidden="1" spans="2:4">
       <c r="B1017" s="1" t="s">
         <v>3274</v>
       </c>
@@ -41213,7 +41217,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="1021" hidden="1" spans="2:4">
+    <row r="1021" ht="24" hidden="1" spans="2:4">
       <c r="B1021" s="1" t="s">
         <v>3286</v>
       </c>
@@ -41224,7 +41228,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="1022" hidden="1" spans="2:4">
+    <row r="1022" ht="23" hidden="1" spans="2:4">
       <c r="B1022" s="1" t="s">
         <v>3289</v>
       </c>
@@ -41237,7 +41241,7 @@
     </row>
     <row r="1023" spans="1:5">
       <c r="A1023" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1023" s="1" t="s">
         <v>3292</v>
@@ -41252,7 +41256,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="1024" hidden="1" spans="2:4">
+    <row r="1024" ht="24" hidden="1" spans="2:4">
       <c r="B1024" s="1" t="s">
         <v>3295</v>
       </c>
@@ -41280,7 +41284,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="1026" hidden="1" spans="2:4">
+    <row r="1026" ht="24" hidden="1" spans="2:4">
       <c r="B1026" s="1" t="s">
         <v>3302</v>
       </c>
@@ -41338,7 +41342,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="1031" hidden="1" spans="1:4">
+    <row r="1031" ht="24" hidden="1" spans="1:4">
       <c r="A1031" s="1">
         <v>0</v>
       </c>
@@ -41366,7 +41370,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="1033" ht="37.5" hidden="1" spans="1:5">
+    <row r="1033" ht="40" hidden="1" spans="1:5">
       <c r="A1033" s="1">
         <v>0</v>
       </c>
@@ -41394,9 +41398,9 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="1035" ht="37.5" spans="1:4">
+    <row r="1035" ht="40" spans="1:4">
       <c r="A1035" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1035" s="1" t="s">
         <v>3329</v>
@@ -41408,7 +41412,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="1036" ht="56.25" spans="1:5">
+    <row r="1036" ht="80" spans="1:5">
       <c r="A1036" s="1">
         <v>1</v>
       </c>
@@ -41425,7 +41429,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="1037" ht="37.5" hidden="1" spans="1:4">
+    <row r="1037" ht="40" hidden="1" spans="1:4">
       <c r="A1037" s="1">
         <v>0</v>
       </c>
@@ -41500,7 +41504,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="1043" ht="56.25" hidden="1" spans="1:5">
+    <row r="1043" ht="80" hidden="1" spans="1:5">
       <c r="A1043" s="1">
         <v>0</v>
       </c>
@@ -41517,7 +41521,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="1044" ht="37.5" hidden="1" spans="2:4">
+    <row r="1044" ht="40" hidden="1" spans="2:4">
       <c r="B1044" s="1" t="s">
         <v>3357</v>
       </c>
@@ -41600,7 +41604,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="1051" hidden="1" spans="1:5">
+    <row r="1051" ht="24" hidden="1" spans="1:5">
       <c r="A1051" s="1">
         <v>0</v>
       </c>
@@ -41628,7 +41632,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="1053" ht="37.5" hidden="1" spans="2:4">
+    <row r="1053" ht="40" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
         <v>3385</v>
       </c>
@@ -41650,7 +41654,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="1055" hidden="1" spans="2:4">
+    <row r="1055" ht="24" hidden="1" spans="2:4">
       <c r="B1055" s="1" t="s">
         <v>3391</v>
       </c>
@@ -41672,7 +41676,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="1057" ht="75" hidden="1" spans="2:5">
+    <row r="1057" ht="80" hidden="1" spans="2:5">
       <c r="B1057" s="1" t="s">
         <v>3397</v>
       </c>
@@ -41697,7 +41701,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="1059" ht="37.5" hidden="1" spans="1:4">
+    <row r="1059" ht="40" hidden="1" spans="1:4">
       <c r="A1059" s="1">
         <v>0</v>
       </c>
@@ -41783,7 +41787,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="1066" hidden="1" spans="2:4">
+    <row r="1066" ht="24" hidden="1" spans="2:4">
       <c r="B1066" s="1" t="s">
         <v>3425</v>
       </c>
@@ -41794,7 +41798,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="1067" hidden="1" spans="2:4">
+    <row r="1067" ht="23" hidden="1" spans="2:4">
       <c r="B1067" s="1" t="s">
         <v>3428</v>
       </c>
@@ -41807,7 +41811,7 @@
     </row>
     <row r="1068" spans="1:4">
       <c r="A1068" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1068" s="1" t="s">
         <v>3431</v>
@@ -41819,7 +41823,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1069" hidden="1" spans="1:4">
+    <row r="1069" ht="24" hidden="1" spans="1:4">
       <c r="A1069" s="1">
         <v>0</v>
       </c>
@@ -41872,7 +41876,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="1073" hidden="1" spans="2:4">
+    <row r="1073" ht="24" hidden="1" spans="2:4">
       <c r="B1073" s="1" t="s">
         <v>3447</v>
       </c>
@@ -41897,7 +41901,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="1075" ht="75" hidden="1" spans="2:5">
+    <row r="1075" ht="100" hidden="1" spans="2:5">
       <c r="B1075" s="1" t="s">
         <v>3453</v>
       </c>
@@ -41925,7 +41929,7 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="1077" hidden="1" spans="1:4">
+    <row r="1077" ht="24" hidden="1" spans="1:4">
       <c r="A1077" s="1">
         <v>0</v>
       </c>
@@ -41939,7 +41943,7 @@
         <v>3463</v>
       </c>
     </row>
-    <row r="1078" hidden="1" spans="2:4">
+    <row r="1078" ht="24" hidden="1" spans="2:4">
       <c r="B1078" s="1" t="s">
         <v>3464</v>
       </c>
@@ -41952,7 +41956,7 @@
     </row>
     <row r="1079" spans="1:4">
       <c r="A1079" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1079" s="1" t="s">
         <v>3467</v>
@@ -41975,7 +41979,7 @@
         <v>3472</v>
       </c>
     </row>
-    <row r="1081" ht="112.5" hidden="1" spans="1:5">
+    <row r="1081" ht="140" hidden="1" spans="1:5">
       <c r="A1081" s="1">
         <v>0</v>
       </c>
@@ -42006,7 +42010,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="1083" hidden="1" spans="1:4">
+    <row r="1083" ht="24" hidden="1" spans="1:4">
       <c r="A1083" s="1">
         <v>0</v>
       </c>
@@ -42037,7 +42041,7 @@
         <v>3486</v>
       </c>
     </row>
-    <row r="1085" ht="37.5" hidden="1" spans="1:4">
+    <row r="1085" ht="40" hidden="1" spans="1:4">
       <c r="A1085" s="1">
         <v>0</v>
       </c>
@@ -42051,7 +42055,7 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="1086" hidden="1" spans="2:4">
+    <row r="1086" ht="24" hidden="1" spans="2:4">
       <c r="B1086" s="1" t="s">
         <v>3490</v>
       </c>
@@ -42062,7 +42066,7 @@
         <v>3492</v>
       </c>
     </row>
-    <row r="1087" hidden="1" spans="2:4">
+    <row r="1087" ht="24" hidden="1" spans="2:4">
       <c r="B1087" s="1" t="s">
         <v>3493</v>
       </c>
@@ -42073,7 +42077,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="1088" ht="37.5" hidden="1" spans="2:4">
+    <row r="1088" ht="40" hidden="1" spans="2:4">
       <c r="B1088" s="1" t="s">
         <v>3496</v>
       </c>
@@ -42117,7 +42121,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="1092" ht="37.5" hidden="1" spans="2:4">
+    <row r="1092" ht="40" hidden="1" spans="2:4">
       <c r="B1092" s="1" t="s">
         <v>3508</v>
       </c>
@@ -42142,7 +42146,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="1094" hidden="1" spans="2:4">
+    <row r="1094" ht="24" hidden="1" spans="2:4">
       <c r="B1094" s="1" t="s">
         <v>3514</v>
       </c>
@@ -42153,7 +42157,7 @@
         <v>3516</v>
       </c>
     </row>
-    <row r="1095" hidden="1" spans="2:4">
+    <row r="1095" ht="24" hidden="1" spans="2:4">
       <c r="B1095" s="1" t="s">
         <v>3517</v>
       </c>
@@ -42164,7 +42168,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="1096" hidden="1" spans="1:4">
+    <row r="1096" ht="24" hidden="1" spans="1:4">
       <c r="A1096" s="1">
         <v>0</v>
       </c>
@@ -42178,7 +42182,7 @@
         <v>3522</v>
       </c>
     </row>
-    <row r="1097" hidden="1" spans="2:5">
+    <row r="1097" ht="24" hidden="1" spans="2:5">
       <c r="B1097" s="1" t="s">
         <v>3523</v>
       </c>
@@ -42192,7 +42196,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="1098" hidden="1" spans="1:4">
+    <row r="1098" ht="23" hidden="1" spans="1:4">
       <c r="A1098" s="1">
         <v>0</v>
       </c>
@@ -42206,7 +42210,7 @@
         <v>3528</v>
       </c>
     </row>
-    <row r="1099" hidden="1" spans="2:4">
+    <row r="1099" ht="24" hidden="1" spans="2:4">
       <c r="B1099" s="1" t="s">
         <v>3529</v>
       </c>
@@ -42228,7 +42232,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="1101" ht="37.5" hidden="1" spans="2:4">
+    <row r="1101" ht="40" hidden="1" spans="2:4">
       <c r="B1101" s="1" t="s">
         <v>3535</v>
       </c>
@@ -42284,7 +42288,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="1105" ht="37.5" hidden="1" spans="2:4">
+    <row r="1105" ht="40" hidden="1" spans="2:4">
       <c r="B1105" s="1" t="s">
         <v>3549</v>
       </c>
@@ -42295,7 +42299,7 @@
         <v>3551</v>
       </c>
     </row>
-    <row r="1106" hidden="1" spans="2:4">
+    <row r="1106" ht="23" hidden="1" spans="2:4">
       <c r="B1106" s="1" t="s">
         <v>3552</v>
       </c>
@@ -42306,7 +42310,7 @@
         <v>3554</v>
       </c>
     </row>
-    <row r="1107" hidden="1" spans="2:4">
+    <row r="1107" ht="24" hidden="1" spans="2:4">
       <c r="B1107" s="1" t="s">
         <v>3555</v>
       </c>
@@ -42328,7 +42332,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="1109" ht="37.5" hidden="1" spans="2:5">
+    <row r="1109" ht="60" hidden="1" spans="2:5">
       <c r="B1109" s="1" t="s">
         <v>3561</v>
       </c>
@@ -42342,7 +42346,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="1110" ht="37.5" hidden="1" spans="2:5">
+    <row r="1110" ht="40" hidden="1" spans="2:5">
       <c r="B1110" s="1" t="s">
         <v>3565</v>
       </c>
@@ -42356,7 +42360,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="1111" hidden="1" spans="2:4">
+    <row r="1111" ht="24" hidden="1" spans="2:4">
       <c r="B1111" s="1" t="s">
         <v>3569</v>
       </c>
@@ -42378,7 +42382,7 @@
         <v>3574</v>
       </c>
     </row>
-    <row r="1113" hidden="1" spans="2:4">
+    <row r="1113" ht="40" hidden="1" spans="2:4">
       <c r="B1113" s="1" t="s">
         <v>3575</v>
       </c>
@@ -42389,7 +42393,7 @@
         <v>3577</v>
       </c>
     </row>
-    <row r="1114" ht="56.25" hidden="1" spans="2:5">
+    <row r="1114" ht="80" hidden="1" spans="2:5">
       <c r="B1114" s="1" t="s">
         <v>3578</v>
       </c>
@@ -42442,7 +42446,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="1118" ht="37.5" hidden="1" spans="2:5">
+    <row r="1118" ht="40" hidden="1" spans="2:5">
       <c r="B1118" s="1" t="s">
         <v>3592</v>
       </c>
@@ -42470,7 +42474,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="1120" ht="37.5" hidden="1" spans="1:4">
+    <row r="1120" ht="40" hidden="1" spans="1:4">
       <c r="A1120" s="1">
         <v>0</v>
       </c>
@@ -42484,7 +42488,7 @@
         <v>3602</v>
       </c>
     </row>
-    <row r="1121" ht="37.5" hidden="1" spans="2:5">
+    <row r="1121" ht="40" hidden="1" spans="2:5">
       <c r="B1121" s="1" t="s">
         <v>3603</v>
       </c>
@@ -42498,7 +42502,7 @@
         <v>3606</v>
       </c>
     </row>
-    <row r="1122" ht="131.25" hidden="1" spans="2:5">
+    <row r="1122" ht="160" hidden="1" spans="2:5">
       <c r="B1122" s="1" t="s">
         <v>3607</v>
       </c>
@@ -42512,7 +42516,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="1123" ht="37.5" hidden="1" spans="1:5">
+    <row r="1123" ht="40" hidden="1" spans="1:5">
       <c r="A1123" s="1">
         <v>0</v>
       </c>
@@ -42529,7 +42533,7 @@
         <v>3614</v>
       </c>
     </row>
-    <row r="1124" ht="37.5" hidden="1" spans="2:4">
+    <row r="1124" ht="40" hidden="1" spans="2:4">
       <c r="B1124" s="1" t="s">
         <v>3615</v>
       </c>
@@ -42540,7 +42544,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="1125" hidden="1" spans="1:4">
+    <row r="1125" ht="24" hidden="1" spans="1:4">
       <c r="A1125" s="1">
         <v>0</v>
       </c>
@@ -42554,7 +42558,7 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="1126" ht="37.5" hidden="1" spans="2:5">
+    <row r="1126" ht="40" hidden="1" spans="2:5">
       <c r="B1126" s="1" t="s">
         <v>3621</v>
       </c>
@@ -42582,7 +42586,7 @@
         <v>3627</v>
       </c>
     </row>
-    <row r="1128" ht="56.25" hidden="1" spans="2:5">
+    <row r="1128" ht="60" hidden="1" spans="2:5">
       <c r="B1128" s="1" t="s">
         <v>3628</v>
       </c>
@@ -42607,7 +42611,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="1130" ht="37.5" hidden="1" spans="1:4">
+    <row r="1130" ht="40" hidden="1" spans="1:4">
       <c r="A1130" s="1">
         <v>0</v>
       </c>
@@ -42621,7 +42625,7 @@
         <v>3637</v>
       </c>
     </row>
-    <row r="1131" ht="37.5" hidden="1" spans="1:4">
+    <row r="1131" ht="40" hidden="1" spans="1:4">
       <c r="A1131" s="1">
         <v>0</v>
       </c>
@@ -42646,7 +42650,7 @@
         <v>3643</v>
       </c>
     </row>
-    <row r="1133" hidden="1" spans="2:4">
+    <row r="1133" ht="23" hidden="1" spans="2:4">
       <c r="B1133" s="1" t="s">
         <v>3644</v>
       </c>
@@ -42657,7 +42661,7 @@
         <v>3646</v>
       </c>
     </row>
-    <row r="1134" ht="93.75" spans="1:5">
+    <row r="1134" ht="120" spans="1:5">
       <c r="A1134" s="1">
         <v>1</v>
       </c>
@@ -42674,7 +42678,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="1135" ht="37.5" hidden="1" spans="2:4">
+    <row r="1135" ht="40" hidden="1" spans="2:4">
       <c r="B1135" s="1" t="s">
         <v>3651</v>
       </c>
@@ -42685,7 +42689,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="1136" ht="56.25" hidden="1" spans="2:5">
+    <row r="1136" ht="60" hidden="1" spans="2:5">
       <c r="B1136" s="1" t="s">
         <v>3654</v>
       </c>
@@ -42699,7 +42703,7 @@
         <v>3657</v>
       </c>
     </row>
-    <row r="1137" ht="37.5" hidden="1" spans="2:4">
+    <row r="1137" ht="40" hidden="1" spans="2:4">
       <c r="B1137" s="1" t="s">
         <v>3658</v>
       </c>
@@ -42710,7 +42714,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="1138" ht="37.5" hidden="1" spans="2:4">
+    <row r="1138" ht="40" hidden="1" spans="2:4">
       <c r="B1138" s="1" t="s">
         <v>3661</v>
       </c>
@@ -42721,7 +42725,7 @@
         <v>3663</v>
       </c>
     </row>
-    <row r="1139" hidden="1" spans="2:4">
+    <row r="1139" ht="23" hidden="1" spans="2:4">
       <c r="B1139" s="1" t="s">
         <v>3664</v>
       </c>
@@ -42732,7 +42736,7 @@
         <v>3666</v>
       </c>
     </row>
-    <row r="1140" ht="56.25" hidden="1" spans="2:5">
+    <row r="1140" ht="77" hidden="1" spans="2:5">
       <c r="B1140" s="1" t="s">
         <v>3667</v>
       </c>
@@ -42760,7 +42764,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="1142" hidden="1" spans="2:4">
+    <row r="1142" ht="24" hidden="1" spans="2:4">
       <c r="B1142" s="1" t="s">
         <v>3674</v>
       </c>
@@ -42771,7 +42775,7 @@
         <v>3676</v>
       </c>
     </row>
-    <row r="1143" ht="37.5" hidden="1" spans="2:4">
+    <row r="1143" ht="40" hidden="1" spans="2:4">
       <c r="B1143" s="1" t="s">
         <v>3677</v>
       </c>
@@ -42782,7 +42786,7 @@
         <v>3679</v>
       </c>
     </row>
-    <row r="1144" ht="112.5" hidden="1" spans="2:5">
+    <row r="1144" ht="120" hidden="1" spans="2:5">
       <c r="B1144" s="1" t="s">
         <v>3680</v>
       </c>
@@ -42796,7 +42800,7 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="1145" ht="56.25" hidden="1" spans="2:5">
+    <row r="1145" ht="77" hidden="1" spans="2:5">
       <c r="B1145" s="1" t="s">
         <v>3684</v>
       </c>
@@ -42810,7 +42814,7 @@
         <v>3687</v>
       </c>
     </row>
-    <row r="1146" ht="131.25" hidden="1" spans="1:5">
+    <row r="1146" ht="160" hidden="1" spans="1:5">
       <c r="A1146" s="1">
         <v>0</v>
       </c>
@@ -42841,7 +42845,7 @@
         <v>3694</v>
       </c>
     </row>
-    <row r="1148" ht="131.25" hidden="1" spans="2:5">
+    <row r="1148" ht="140" hidden="1" spans="2:5">
       <c r="B1148" s="1" t="s">
         <v>3695</v>
       </c>
@@ -42855,7 +42859,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="1149" ht="131.25" hidden="1" spans="2:5">
+    <row r="1149" ht="160" hidden="1" spans="2:5">
       <c r="B1149" s="1" t="s">
         <v>3699</v>
       </c>
@@ -42869,7 +42873,7 @@
         <v>3702</v>
       </c>
     </row>
-    <row r="1150" ht="37.5" hidden="1" spans="2:4">
+    <row r="1150" ht="40" hidden="1" spans="2:4">
       <c r="B1150" s="1" t="s">
         <v>3703</v>
       </c>
@@ -42880,7 +42884,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="1151" ht="37.5" hidden="1" spans="2:5">
+    <row r="1151" ht="40" hidden="1" spans="2:5">
       <c r="B1151" s="1" t="s">
         <v>3706</v>
       </c>
@@ -42894,7 +42898,7 @@
         <v>3709</v>
       </c>
     </row>
-    <row r="1152" ht="150" hidden="1" spans="2:5">
+    <row r="1152" ht="180" hidden="1" spans="2:5">
       <c r="B1152" s="1" t="s">
         <v>3710</v>
       </c>
@@ -42969,7 +42973,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="1158" ht="37.5" hidden="1" spans="2:4">
+    <row r="1158" ht="40" hidden="1" spans="2:4">
       <c r="B1158" s="1" t="s">
         <v>3730</v>
       </c>
@@ -42994,7 +42998,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="1160" ht="37.5" spans="1:4">
+    <row r="1160" ht="40" spans="1:4">
       <c r="A1160" s="1">
         <v>1</v>
       </c>
@@ -43053,7 +43057,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="1164" ht="37.5" hidden="1" spans="2:4">
+    <row r="1164" ht="40" hidden="1" spans="2:4">
       <c r="B1164" s="1" t="s">
         <v>3750</v>
       </c>
@@ -43106,7 +43110,7 @@
         <v>3762</v>
       </c>
     </row>
-    <row r="1168" hidden="1" spans="2:4">
+    <row r="1168" ht="23" hidden="1" spans="2:4">
       <c r="B1168" s="1" t="s">
         <v>3763</v>
       </c>
@@ -43223,7 +43227,7 @@
         <v>3790</v>
       </c>
     </row>
-    <row r="1177" hidden="1" spans="1:4">
+    <row r="1177" ht="23" hidden="1" spans="1:4">
       <c r="A1177" s="1">
         <v>0</v>
       </c>
@@ -43237,7 +43241,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="1178" hidden="1" spans="2:5">
+    <row r="1178" ht="24" hidden="1" spans="2:5">
       <c r="B1178" s="1" t="s">
         <v>3794</v>
       </c>
@@ -43251,7 +43255,7 @@
         <v>3797</v>
       </c>
     </row>
-    <row r="1179" hidden="1" spans="2:4">
+    <row r="1179" ht="24" hidden="1" spans="2:4">
       <c r="B1179" s="1" t="s">
         <v>3798</v>
       </c>
@@ -43262,7 +43266,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="1180" hidden="1" spans="1:4">
+    <row r="1180" ht="24" hidden="1" spans="1:4">
       <c r="A1180" s="1">
         <v>0</v>
       </c>
@@ -43287,7 +43291,7 @@
         <v>3806</v>
       </c>
     </row>
-    <row r="1182" ht="93.75" hidden="1" spans="1:5">
+    <row r="1182" ht="106" hidden="1" spans="1:5">
       <c r="A1182" s="1">
         <v>0</v>
       </c>
@@ -43351,7 +43355,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="1187" ht="37.5" hidden="1" spans="2:5">
+    <row r="1187" ht="40" hidden="1" spans="2:5">
       <c r="B1187" s="1" t="s">
         <v>3823</v>
       </c>
@@ -43396,7 +43400,7 @@
         <v>3833</v>
       </c>
     </row>
-    <row r="1190" ht="112.5" spans="1:5">
+    <row r="1190" ht="120" spans="1:5">
       <c r="A1190" s="1">
         <v>3</v>
       </c>
@@ -43444,7 +43448,7 @@
         <v>3844</v>
       </c>
     </row>
-    <row r="1193" ht="56.25" spans="1:5">
+    <row r="1193" ht="80" spans="1:5">
       <c r="A1193" s="1">
         <v>1</v>
       </c>
@@ -43522,7 +43526,7 @@
         <v>3863</v>
       </c>
     </row>
-    <row r="1199" hidden="1" spans="1:4">
+    <row r="1199" ht="24" hidden="1" spans="1:4">
       <c r="A1199" s="1">
         <v>0</v>
       </c>
@@ -43536,7 +43540,7 @@
         <v>3866</v>
       </c>
     </row>
-    <row r="1200" hidden="1" spans="2:5">
+    <row r="1200" ht="24" hidden="1" spans="2:5">
       <c r="B1200" s="1" t="s">
         <v>3867</v>
       </c>
@@ -43564,7 +43568,7 @@
         <v>3874</v>
       </c>
     </row>
-    <row r="1202" hidden="1" spans="2:4">
+    <row r="1202" ht="24" hidden="1" spans="2:4">
       <c r="B1202" s="1" t="s">
         <v>3875</v>
       </c>
@@ -43575,7 +43579,7 @@
         <v>3877</v>
       </c>
     </row>
-    <row r="1203" hidden="1" spans="2:4">
+    <row r="1203" ht="23" hidden="1" spans="2:4">
       <c r="B1203" s="1" t="s">
         <v>3878</v>
       </c>
@@ -43600,7 +43604,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="1205" hidden="1" spans="2:4">
+    <row r="1205" ht="24" hidden="1" spans="2:4">
       <c r="B1205" s="1" t="s">
         <v>3884</v>
       </c>
@@ -43681,7 +43685,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="1211" ht="75" hidden="1" spans="2:5">
+    <row r="1211" ht="100" hidden="1" spans="2:5">
       <c r="B1211" s="1" t="s">
         <v>3904</v>
       </c>
@@ -43737,7 +43741,7 @@
         <v>3916</v>
       </c>
     </row>
-    <row r="1215" spans="1:5">
+    <row r="1215" ht="23" spans="1:5">
       <c r="A1215" s="1">
         <v>1</v>
       </c>
@@ -43855,7 +43859,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="1223" hidden="1" spans="2:4">
+    <row r="1223" ht="24" hidden="1" spans="2:4">
       <c r="B1223" s="1" t="s">
         <v>3945</v>
       </c>
@@ -43866,7 +43870,7 @@
         <v>3947</v>
       </c>
     </row>
-    <row r="1224" ht="37.5" spans="1:4">
+    <row r="1224" ht="40" spans="1:4">
       <c r="A1224" s="1">
         <v>1</v>
       </c>
@@ -43894,7 +43898,7 @@
         <v>3953</v>
       </c>
     </row>
-    <row r="1226" hidden="1" spans="2:4">
+    <row r="1226" ht="24" hidden="1" spans="2:4">
       <c r="B1226" s="1" t="s">
         <v>3954</v>
       </c>
@@ -43905,7 +43909,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="1227" ht="112.5" hidden="1" spans="2:5">
+    <row r="1227" ht="120" hidden="1" spans="2:5">
       <c r="B1227" s="1" t="s">
         <v>3957</v>
       </c>
@@ -43975,7 +43979,7 @@
         <v>3973</v>
       </c>
     </row>
-    <row r="1232" ht="37.5" spans="1:5">
+    <row r="1232" ht="40" spans="1:5">
       <c r="A1232" s="1">
         <v>1</v>
       </c>
@@ -44058,7 +44062,7 @@
         <v>3995</v>
       </c>
     </row>
-    <row r="1239" ht="75" hidden="1" spans="2:5">
+    <row r="1239" ht="80" hidden="1" spans="2:5">
       <c r="B1239" s="1" t="s">
         <v>3996</v>
       </c>
@@ -44072,7 +44076,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="1240" spans="1:4">
+    <row r="1240" ht="24" spans="1:4">
       <c r="A1240" s="1">
         <v>1</v>
       </c>
@@ -44097,7 +44101,7 @@
         <v>4005</v>
       </c>
     </row>
-    <row r="1242" ht="37.5" hidden="1" spans="2:4">
+    <row r="1242" ht="40" hidden="1" spans="2:4">
       <c r="B1242" s="1" t="s">
         <v>4006</v>
       </c>
@@ -44136,7 +44140,7 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="1245" ht="37.5" spans="1:4">
+    <row r="1245" ht="40" spans="1:4">
       <c r="A1245" s="1">
         <v>1</v>
       </c>
@@ -44175,7 +44179,7 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="1248" ht="37.5" hidden="1" spans="2:4">
+    <row r="1248" ht="40" hidden="1" spans="2:4">
       <c r="B1248" s="1" t="s">
         <v>4024</v>
       </c>
@@ -44186,7 +44190,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="1249" ht="37.5" hidden="1" spans="2:4">
+    <row r="1249" ht="40" hidden="1" spans="2:4">
       <c r="B1249" s="1" t="s">
         <v>4027</v>
       </c>
@@ -44208,7 +44212,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="1251" hidden="1" spans="2:4">
+    <row r="1251" ht="23" hidden="1" spans="2:4">
       <c r="B1251" s="1" t="s">
         <v>4033</v>
       </c>
@@ -44219,7 +44223,7 @@
         <v>4035</v>
       </c>
     </row>
-    <row r="1252" ht="37.5" hidden="1" spans="2:5">
+    <row r="1252" ht="40" hidden="1" spans="2:5">
       <c r="B1252" s="1" t="s">
         <v>4036</v>
       </c>
@@ -44233,7 +44237,7 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="1253" ht="56.25" spans="1:5">
+    <row r="1253" ht="60" spans="1:5">
       <c r="A1253" s="1">
         <v>1</v>
       </c>
@@ -44250,7 +44254,7 @@
         <v>4043</v>
       </c>
     </row>
-    <row r="1254" ht="37.5" spans="1:4">
+    <row r="1254" ht="40" spans="1:4">
       <c r="A1254" s="1">
         <v>1</v>
       </c>
@@ -44289,7 +44293,7 @@
         <v>4052</v>
       </c>
     </row>
-    <row r="1257" ht="37.5" spans="1:4">
+    <row r="1257" ht="40" spans="1:4">
       <c r="A1257" s="1">
         <v>1</v>
       </c>
@@ -44314,7 +44318,7 @@
         <v>4058</v>
       </c>
     </row>
-    <row r="1259" ht="37.5" spans="1:5">
+    <row r="1259" ht="40" spans="1:5">
       <c r="A1259" s="1">
         <v>1</v>
       </c>
@@ -44384,7 +44388,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="1264" hidden="1" spans="2:4">
+    <row r="1264" ht="24" hidden="1" spans="2:4">
       <c r="B1264" s="1" t="s">
         <v>4076</v>
       </c>
@@ -44450,7 +44454,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="1270" ht="37.5" spans="1:5">
+    <row r="1270" ht="40" spans="1:5">
       <c r="A1270" s="1">
         <v>1</v>
       </c>
@@ -44492,7 +44496,7 @@
         <v>4103</v>
       </c>
     </row>
-    <row r="1273" ht="37.5" hidden="1" spans="2:4">
+    <row r="1273" ht="40" hidden="1" spans="2:4">
       <c r="B1273" s="1" t="s">
         <v>4104</v>
       </c>
@@ -44503,7 +44507,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="1274" ht="37.5" hidden="1" spans="2:4">
+    <row r="1274" ht="40" hidden="1" spans="2:4">
       <c r="B1274" s="1" t="s">
         <v>4107</v>
       </c>
@@ -44525,7 +44529,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row r="1276" spans="1:4">
+    <row r="1276" ht="24" spans="1:4">
       <c r="A1276" s="1">
         <v>1</v>
       </c>
@@ -44640,7 +44644,7 @@
         <v>4138</v>
       </c>
     </row>
-    <row r="1284" ht="37.5" spans="1:4">
+    <row r="1284" ht="40" spans="1:4">
       <c r="A1284" s="1">
         <v>1</v>
       </c>
@@ -44752,7 +44756,7 @@
         <v>4165</v>
       </c>
     </row>
-    <row r="1292" spans="1:4">
+    <row r="1292" ht="24" spans="1:4">
       <c r="A1292" s="1">
         <v>1</v>
       </c>
@@ -44777,7 +44781,7 @@
         <v>4171</v>
       </c>
     </row>
-    <row r="1294" ht="93.75" spans="1:5">
+    <row r="1294" ht="100" spans="1:5">
       <c r="A1294" s="1">
         <v>1</v>
       </c>
@@ -44805,7 +44809,7 @@
         <v>4178</v>
       </c>
     </row>
-    <row r="1296" hidden="1" spans="2:4">
+    <row r="1296" ht="24" hidden="1" spans="2:4">
       <c r="B1296" s="1" t="s">
         <v>4179</v>
       </c>
@@ -44844,7 +44848,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="1299" ht="37.5" hidden="1" spans="2:4">
+    <row r="1299" ht="40" hidden="1" spans="2:4">
       <c r="B1299" s="1" t="s">
         <v>4188</v>
       </c>
@@ -44877,7 +44881,7 @@
         <v>4196</v>
       </c>
     </row>
-    <row r="1302" hidden="1" spans="2:5">
+    <row r="1302" ht="40" hidden="1" spans="2:5">
       <c r="B1302" s="1" t="s">
         <v>4197</v>
       </c>
@@ -44891,7 +44895,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="1303" hidden="1" spans="2:4">
+    <row r="1303" ht="24" hidden="1" spans="2:4">
       <c r="B1303" s="1" t="s">
         <v>4200</v>
       </c>
@@ -44902,7 +44906,7 @@
         <v>4202</v>
       </c>
     </row>
-    <row r="1304" ht="37.5" hidden="1" spans="2:4">
+    <row r="1304" ht="40" hidden="1" spans="2:4">
       <c r="B1304" s="1" t="s">
         <v>4203</v>
       </c>
@@ -44979,7 +44983,7 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="1311" ht="37.5" hidden="1" spans="2:4">
+    <row r="1311" ht="40" hidden="1" spans="2:4">
       <c r="B1311" s="1" t="s">
         <v>4224</v>
       </c>
@@ -45001,7 +45005,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="1313" ht="150" hidden="1" spans="2:5">
+    <row r="1313" ht="180" hidden="1" spans="2:5">
       <c r="B1313" s="1" t="s">
         <v>4230</v>
       </c>
@@ -45037,7 +45041,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="1316" ht="37.5" hidden="1" spans="2:5">
+    <row r="1316" ht="40" hidden="1" spans="2:5">
       <c r="B1316" s="1" t="s">
         <v>4240</v>
       </c>
@@ -45051,7 +45055,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="1317" hidden="1" spans="2:4">
+    <row r="1317" ht="24" hidden="1" spans="2:4">
       <c r="B1317" s="1" t="s">
         <v>4244</v>
       </c>
@@ -45062,7 +45066,7 @@
         <v>4246</v>
       </c>
     </row>
-    <row r="1318" ht="37.5" hidden="1" spans="2:4">
+    <row r="1318" ht="40" hidden="1" spans="2:4">
       <c r="B1318" s="1" t="s">
         <v>4247</v>
       </c>
@@ -45142,7 +45146,7 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="1325" hidden="1" spans="2:4">
+    <row r="1325" ht="24" hidden="1" spans="2:4">
       <c r="B1325" s="1" t="s">
         <v>4269</v>
       </c>
@@ -45178,7 +45182,7 @@
         <v>4278</v>
       </c>
     </row>
-    <row r="1328" ht="37.5" hidden="1" spans="2:4">
+    <row r="1328" ht="40" hidden="1" spans="2:4">
       <c r="B1328" s="1" t="s">
         <v>4279</v>
       </c>
@@ -45222,7 +45226,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="1332" hidden="1" spans="2:5">
+    <row r="1332" ht="23" hidden="1" spans="2:5">
       <c r="B1332" s="1" t="s">
         <v>4291</v>
       </c>
@@ -45236,7 +45240,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="1333" ht="37.5" hidden="1" spans="2:4">
+    <row r="1333" ht="40" hidden="1" spans="2:4">
       <c r="B1333" s="1" t="s">
         <v>4295</v>
       </c>
@@ -45313,7 +45317,7 @@
         <v>4315</v>
       </c>
     </row>
-    <row r="1340" hidden="1" spans="2:4">
+    <row r="1340" ht="24" hidden="1" spans="2:4">
       <c r="B1340" s="1" t="s">
         <v>4316</v>
       </c>
@@ -45346,7 +45350,7 @@
         <v>4324</v>
       </c>
     </row>
-    <row r="1343" ht="56.25" hidden="1" spans="2:5">
+    <row r="1343" ht="60" hidden="1" spans="2:5">
       <c r="B1343" s="1" t="s">
         <v>4325</v>
       </c>
@@ -45415,7 +45419,7 @@
         <v>4343</v>
       </c>
     </row>
-    <row r="1349" ht="56.25" hidden="1" spans="2:5">
+    <row r="1349" ht="60" hidden="1" spans="2:5">
       <c r="B1349" s="1" t="s">
         <v>4344</v>
       </c>
@@ -45451,7 +45455,7 @@
         <v>4353</v>
       </c>
     </row>
-    <row r="1352" ht="37.5" hidden="1" spans="2:4">
+    <row r="1352" ht="40" hidden="1" spans="2:4">
       <c r="B1352" s="1" t="s">
         <v>4354</v>
       </c>
@@ -45473,7 +45477,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="1354" hidden="1" spans="2:4">
+    <row r="1354" ht="24" hidden="1" spans="2:4">
       <c r="B1354" s="1" t="s">
         <v>4360</v>
       </c>
@@ -45506,7 +45510,7 @@
         <v>4368</v>
       </c>
     </row>
-    <row r="1357" hidden="1" spans="2:4">
+    <row r="1357" ht="24" hidden="1" spans="2:4">
       <c r="B1357" s="1" t="s">
         <v>4369</v>
       </c>
@@ -45517,7 +45521,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="1358" ht="37.5" hidden="1" spans="2:5">
+    <row r="1358" ht="40" hidden="1" spans="2:5">
       <c r="B1358" s="1" t="s">
         <v>4372</v>
       </c>
@@ -45600,7 +45604,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="1365" ht="37.5" hidden="1" spans="2:4">
+    <row r="1365" ht="40" hidden="1" spans="2:4">
       <c r="B1365" s="1" t="s">
         <v>4395</v>
       </c>
@@ -45611,7 +45615,7 @@
         <v>4397</v>
       </c>
     </row>
-    <row r="1366" ht="37.5" hidden="1" spans="2:4">
+    <row r="1366" ht="40" hidden="1" spans="2:4">
       <c r="B1366" s="1" t="s">
         <v>4398</v>
       </c>
@@ -45622,7 +45626,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="1367" hidden="1" spans="2:4">
+    <row r="1367" ht="23" hidden="1" spans="2:4">
       <c r="B1367" s="1" t="s">
         <v>4401</v>
       </c>
@@ -45688,7 +45692,7 @@
         <v>4417</v>
       </c>
     </row>
-    <row r="1373" ht="37.5" hidden="1" spans="2:4">
+    <row r="1373" ht="40" hidden="1" spans="2:4">
       <c r="B1373" s="1" t="s">
         <v>4418</v>
       </c>
@@ -45710,7 +45714,7 @@
         <v>4423</v>
       </c>
     </row>
-    <row r="1375" ht="37.5" hidden="1" spans="2:4">
+    <row r="1375" ht="40" hidden="1" spans="2:4">
       <c r="B1375" s="1" t="s">
         <v>4424</v>
       </c>
@@ -45754,7 +45758,7 @@
         <v>4435</v>
       </c>
     </row>
-    <row r="1379" hidden="1" spans="2:4">
+    <row r="1379" ht="24" hidden="1" spans="2:4">
       <c r="B1379" s="1" t="s">
         <v>4436</v>
       </c>
@@ -45776,7 +45780,7 @@
         <v>4441</v>
       </c>
     </row>
-    <row r="1381" ht="112.5" hidden="1" spans="2:5">
+    <row r="1381" ht="140" hidden="1" spans="2:5">
       <c r="B1381" s="1" t="s">
         <v>4442</v>
       </c>
@@ -45790,7 +45794,7 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="1382" ht="37.5" hidden="1" spans="2:5">
+    <row r="1382" ht="40" hidden="1" spans="2:5">
       <c r="B1382" s="1" t="s">
         <v>4446</v>
       </c>
@@ -45804,7 +45808,7 @@
         <v>4449</v>
       </c>
     </row>
-    <row r="1383" ht="37.5" hidden="1" spans="2:5">
+    <row r="1383" ht="40" hidden="1" spans="2:5">
       <c r="B1383" s="1" t="s">
         <v>4450</v>
       </c>
@@ -45862,7 +45866,7 @@
         <v>4465</v>
       </c>
     </row>
-    <row r="1388" hidden="1" spans="2:4">
+    <row r="1388" ht="23" hidden="1" spans="2:4">
       <c r="B1388" s="1" t="s">
         <v>4466</v>
       </c>
@@ -45895,7 +45899,7 @@
         <v>4474</v>
       </c>
     </row>
-    <row r="1391" hidden="1" spans="2:4">
+    <row r="1391" ht="24" hidden="1" spans="2:4">
       <c r="B1391" s="1" t="s">
         <v>4475</v>
       </c>
@@ -45906,7 +45910,7 @@
         <v>4477</v>
       </c>
     </row>
-    <row r="1392" hidden="1" spans="2:4">
+    <row r="1392" ht="24" hidden="1" spans="2:4">
       <c r="B1392" s="1" t="s">
         <v>4478</v>
       </c>
@@ -45983,7 +45987,7 @@
         <v>4498</v>
       </c>
     </row>
-    <row r="1399" ht="56.25" hidden="1" spans="2:5">
+    <row r="1399" ht="60" hidden="1" spans="2:5">
       <c r="B1399" s="1" t="s">
         <v>4499</v>
       </c>
@@ -46091,7 +46095,7 @@
         <v>4528</v>
       </c>
     </row>
-    <row r="1408" ht="37.5" hidden="1" spans="2:5">
+    <row r="1408" ht="40" hidden="1" spans="2:5">
       <c r="B1408" s="1" t="s">
         <v>4529</v>
       </c>
@@ -46149,7 +46153,7 @@
         <v>4544</v>
       </c>
     </row>
-    <row r="1413" hidden="1" spans="2:4">
+    <row r="1413" ht="24" hidden="1" spans="2:4">
       <c r="B1413" s="1" t="s">
         <v>4545</v>
       </c>
@@ -46182,7 +46186,7 @@
         <v>4553</v>
       </c>
     </row>
-    <row r="1416" hidden="1" spans="2:4">
+    <row r="1416" ht="24" hidden="1" spans="2:4">
       <c r="B1416" s="1" t="s">
         <v>4554</v>
       </c>
@@ -46204,7 +46208,7 @@
         <v>4559</v>
       </c>
     </row>
-    <row r="1418" ht="37.5" hidden="1" spans="2:4">
+    <row r="1418" ht="40" hidden="1" spans="2:4">
       <c r="B1418" s="1" t="s">
         <v>4560</v>
       </c>
@@ -46215,7 +46219,7 @@
         <v>4562</v>
       </c>
     </row>
-    <row r="1419" ht="37.5" hidden="1" spans="2:4">
+    <row r="1419" ht="40" hidden="1" spans="2:4">
       <c r="B1419" s="1" t="s">
         <v>4563</v>
       </c>
@@ -46259,7 +46263,7 @@
         <v>4573</v>
       </c>
     </row>
-    <row r="1423" ht="37.5" hidden="1" spans="2:4">
+    <row r="1423" ht="40" hidden="1" spans="2:4">
       <c r="B1423" s="1" t="s">
         <v>4574</v>
       </c>
@@ -46281,7 +46285,7 @@
         <v>4579</v>
       </c>
     </row>
-    <row r="1425" ht="37.5" hidden="1" spans="2:4">
+    <row r="1425" ht="40" hidden="1" spans="2:4">
       <c r="B1425" s="1" t="s">
         <v>4580</v>
       </c>
@@ -46303,7 +46307,7 @@
         <v>4585</v>
       </c>
     </row>
-    <row r="1427" ht="37.5" hidden="1" spans="2:4">
+    <row r="1427" ht="40" hidden="1" spans="2:4">
       <c r="B1427" s="1" t="s">
         <v>4586</v>
       </c>
@@ -46325,7 +46329,7 @@
         <v>4591</v>
       </c>
     </row>
-    <row r="1429" hidden="1" spans="2:4">
+    <row r="1429" ht="24" hidden="1" spans="2:4">
       <c r="B1429" s="1" t="s">
         <v>4592</v>
       </c>
@@ -46336,7 +46340,7 @@
         <v>4594</v>
       </c>
     </row>
-    <row r="1430" hidden="1" spans="2:4">
+    <row r="1430" ht="24" hidden="1" spans="2:4">
       <c r="B1430" s="1" t="s">
         <v>4595</v>
       </c>

--- a/Level 3.xlsx
+++ b/Level 3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17220" tabRatio="500"/>
+    <workbookView windowWidth="19410" windowHeight="8655" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4605">
   <si>
     <t>标记</t>
   </si>
@@ -25118,6 +25118,9 @@
     <t>v.授予，同意，准予</t>
   </si>
   <si>
+    <t>giant 巨大的 grand 宏大</t>
+  </si>
+  <si>
     <t>erect</t>
   </si>
   <si>
@@ -25250,6 +25253,9 @@
     <t>v.调查，研究</t>
   </si>
   <si>
+    <t>invast 投资</t>
+  </si>
+  <si>
     <t>coordinate</t>
   </si>
   <si>
@@ -25476,6 +25482,9 @@
   </si>
   <si>
     <t>v.伪装，掩饰</t>
+  </si>
+  <si>
+    <t>disgusting 令人厌恶的 distinguish 区分</t>
   </si>
   <si>
     <r>
@@ -25872,7 +25881,7 @@
     <t>v.摇动，摆动</t>
   </si>
   <si>
-    <t>Dogs, for example, will wag their tails, get down their front legs, and stick their behinds in the air to indicate “what follows is just for play.”</t>
+    <t>Dogs, for example, will wag their tails, get down their front legs, and stick their behinds in the air to indicate “what follows is just for play.”  wages 工资</t>
   </si>
   <si>
     <t>coincide</t>
@@ -26498,6 +26507,9 @@
   </si>
   <si>
     <t>v.转移，分散，分心</t>
+  </si>
+  <si>
+    <t>contract 合同 协议</t>
   </si>
   <si>
     <t>[pə'sju:]</t>
@@ -26682,10 +26694,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -26716,23 +26728,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -26753,53 +26759,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26815,14 +26789,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26836,9 +26811,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26853,7 +26834,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26956,7 +26968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26968,7 +26980,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26980,7 +26998,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26992,7 +27076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27004,13 +27100,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27022,121 +27148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27147,6 +27159,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -27170,15 +27215,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27215,30 +27251,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -27250,148 +27262,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -27459,11 +27471,6 @@
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -27499,7 +27506,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2814320" y="254000"/>
+          <a:off x="2713990" y="238125"/>
           <a:ext cx="190500" cy="139700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27540,7 +27547,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -27787,6 +27794,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -27795,18 +27803,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A1204" workbookViewId="0">
-      <selection activeCell="A1035" sqref="A1035"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1244" sqref="E1244"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="10.8285714285714" style="1"/>
-    <col min="2" max="2" width="20.8285714285714" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.3285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.8285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5071428571429" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="1" max="1" width="10.8296296296296" style="1"/>
+    <col min="2" max="2" width="20.8296296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3259259259259" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8296296296296" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5037037037037" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -27826,7 +27834,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="40" hidden="1" spans="1:5">
+    <row r="2" ht="37.5" hidden="1" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -27843,7 +27851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="24" hidden="1" spans="1:5">
+    <row r="3" hidden="1" spans="1:5">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -27885,7 +27893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" ht="40" hidden="1" spans="2:4">
+    <row r="6" ht="37.5" hidden="1" spans="2:4">
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
@@ -27896,7 +27904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" ht="80" hidden="1" spans="2:4">
+    <row r="7" ht="75" hidden="1" spans="2:4">
       <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
@@ -27907,7 +27915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="40" hidden="1" spans="2:4">
+    <row r="8" ht="37.5" hidden="1" spans="2:4">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -27918,7 +27926,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="40" hidden="1" spans="2:4">
+    <row r="9" ht="37.5" hidden="1" spans="2:4">
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -27929,7 +27937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" ht="60" hidden="1" spans="2:5">
+    <row r="10" ht="56.25" hidden="1" spans="2:5">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -27943,7 +27951,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="40" hidden="1" spans="2:4">
+    <row r="11" ht="37.5" hidden="1" spans="2:4">
       <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
@@ -27954,7 +27962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" ht="40" hidden="1" spans="2:4">
+    <row r="12" ht="37.5" hidden="1" spans="2:4">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -27965,7 +27973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" ht="40" hidden="1" spans="2:4">
+    <row r="13" ht="37.5" hidden="1" spans="2:4">
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -27976,7 +27984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" ht="40" hidden="1" spans="2:4">
+    <row r="14" ht="37.5" hidden="1" spans="2:4">
       <c r="B14" s="1" t="s">
         <v>45</v>
       </c>
@@ -27987,7 +27995,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" ht="40" hidden="1" spans="1:4">
+    <row r="15" ht="37.5" hidden="1" spans="1:4">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -28001,7 +28009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" ht="40" hidden="1" spans="1:5">
+    <row r="16" ht="37.5" hidden="1" spans="1:5">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -28018,7 +28026,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" ht="40" hidden="1" spans="2:4">
+    <row r="17" ht="37.5" hidden="1" spans="2:4">
       <c r="B17" s="1" t="s">
         <v>55</v>
       </c>
@@ -28029,7 +28037,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" ht="24" hidden="1" spans="2:4">
+    <row r="18" hidden="1" spans="2:4">
       <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
@@ -28040,7 +28048,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" ht="40" hidden="1" spans="2:5">
+    <row r="19" ht="37.5" hidden="1" spans="2:5">
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
@@ -28054,7 +28062,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" ht="100" hidden="1" spans="1:5">
+    <row r="20" ht="75" hidden="1" spans="1:5">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -28085,7 +28093,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" ht="40" hidden="1" spans="1:4">
+    <row r="22" ht="37.5" hidden="1" spans="1:4">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -28099,7 +28107,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" ht="120" hidden="1" spans="1:5">
+    <row r="23" ht="93.75" hidden="1" spans="1:5">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -28116,7 +28124,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" ht="24" hidden="1" spans="2:4">
+    <row r="24" hidden="1" spans="2:4">
       <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
@@ -28127,7 +28135,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" ht="40" hidden="1" spans="2:5">
+    <row r="25" ht="37.5" hidden="1" spans="2:5">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
@@ -28177,7 +28185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" ht="40" hidden="1" spans="2:4">
+    <row r="29" ht="37.5" hidden="1" spans="2:4">
       <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
@@ -28188,7 +28196,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" ht="40" hidden="1" spans="1:4">
+    <row r="30" ht="37.5" hidden="1" spans="1:4">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -28202,7 +28210,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" ht="40" hidden="1" spans="2:5">
+    <row r="31" ht="37.5" hidden="1" spans="2:5">
       <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
@@ -28216,7 +28224,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" ht="60" hidden="1" spans="1:5">
+    <row r="32" ht="37.5" hidden="1" spans="1:5">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -28233,7 +28241,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" ht="40" hidden="1" spans="1:5">
+    <row r="33" ht="37.5" hidden="1" spans="1:5">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -28250,7 +28258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="180" hidden="1" spans="2:5">
+    <row r="34" ht="150" hidden="1" spans="2:5">
       <c r="B34" s="1" t="s">
         <v>113</v>
       </c>
@@ -28264,7 +28272,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" ht="40" hidden="1" spans="1:4">
+    <row r="35" ht="37.5" hidden="1" spans="1:4">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -28278,7 +28286,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" ht="120" hidden="1" spans="1:5">
+    <row r="36" ht="93.75" hidden="1" spans="1:5">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -28295,7 +28303,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" ht="60" hidden="1" spans="1:4">
+    <row r="37" ht="56.25" hidden="1" spans="1:4">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -28309,7 +28317,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" ht="40" hidden="1" spans="2:5">
+    <row r="38" ht="37.5" hidden="1" spans="2:5">
       <c r="B38" s="1" t="s">
         <v>127</v>
       </c>
@@ -28337,7 +28345,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" ht="40" hidden="1" spans="1:5">
+    <row r="40" ht="37.5" hidden="1" spans="1:5">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -28354,7 +28362,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" ht="24" hidden="1" spans="1:4">
+    <row r="41" hidden="1" spans="1:4">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -28368,7 +28376,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" ht="40" hidden="1" spans="1:5">
+    <row r="42" ht="37.5" hidden="1" spans="1:5">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -28427,7 +28435,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" ht="24" hidden="1" spans="1:4">
+    <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -28452,7 +28460,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" ht="40" hidden="1" spans="1:4">
+    <row r="48" ht="37.5" hidden="1" spans="1:4">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -28477,7 +28485,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" ht="40" hidden="1" spans="1:5">
+    <row r="50" ht="37.5" hidden="1" spans="1:5">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -28494,7 +28502,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" ht="40" hidden="1" spans="2:4">
+    <row r="51" ht="37.5" hidden="1" spans="2:4">
       <c r="B51" s="1" t="s">
         <v>171</v>
       </c>
@@ -28505,7 +28513,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" ht="23" hidden="1" spans="2:4">
+    <row r="52" hidden="1" spans="2:4">
       <c r="B52" s="1" t="s">
         <v>174</v>
       </c>
@@ -28541,7 +28549,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" ht="40" hidden="1" spans="2:5">
+    <row r="55" ht="37.5" hidden="1" spans="2:5">
       <c r="B55" s="1" t="s">
         <v>183</v>
       </c>
@@ -28555,7 +28563,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" ht="40" hidden="1" spans="2:5">
+    <row r="56" ht="37.5" hidden="1" spans="2:5">
       <c r="B56" s="1" t="s">
         <v>187</v>
       </c>
@@ -28586,7 +28594,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" ht="40" hidden="1" spans="2:4">
+    <row r="58" ht="37.5" hidden="1" spans="2:4">
       <c r="B58" s="1" t="s">
         <v>195</v>
       </c>
@@ -28597,7 +28605,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="59" ht="40" hidden="1" spans="1:5">
+    <row r="59" ht="37.5" hidden="1" spans="1:5">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -28614,7 +28622,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" ht="40" hidden="1" spans="2:5">
+    <row r="60" ht="37.5" hidden="1" spans="2:5">
       <c r="B60" s="1" t="s">
         <v>202</v>
       </c>
@@ -28639,7 +28647,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="62" ht="40" hidden="1" spans="2:5">
+    <row r="62" ht="37.5" hidden="1" spans="2:5">
       <c r="B62" s="1" t="s">
         <v>209</v>
       </c>
@@ -28653,7 +28661,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="63" ht="24" hidden="1" spans="2:4">
+    <row r="63" hidden="1" spans="2:4">
       <c r="B63" s="1" t="s">
         <v>213</v>
       </c>
@@ -28664,7 +28672,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" ht="40" hidden="1" spans="1:5">
+    <row r="64" ht="37.5" hidden="1" spans="1:5">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -28681,7 +28689,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" ht="40" hidden="1" spans="2:4">
+    <row r="65" ht="37.5" hidden="1" spans="2:4">
       <c r="B65" s="1" t="s">
         <v>220</v>
       </c>
@@ -28709,7 +28717,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" ht="40" hidden="1" spans="2:5">
+    <row r="67" ht="37.5" hidden="1" spans="2:5">
       <c r="B67" s="1" t="s">
         <v>227</v>
       </c>
@@ -28785,7 +28793,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="72" ht="40" hidden="1" spans="2:5">
+    <row r="72" ht="37.5" hidden="1" spans="2:5">
       <c r="B72" s="1" t="s">
         <v>246</v>
       </c>
@@ -28810,7 +28818,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" ht="40" hidden="1" spans="2:5">
+    <row r="74" ht="37.5" hidden="1" spans="2:5">
       <c r="B74" s="1" t="s">
         <v>253</v>
       </c>
@@ -28849,7 +28857,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="77" ht="40" hidden="1" spans="2:5">
+    <row r="77" ht="37.5" hidden="1" spans="2:5">
       <c r="B77" s="1" t="s">
         <v>263</v>
       </c>
@@ -28880,7 +28888,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" ht="24" hidden="1" spans="2:5">
+    <row r="79" hidden="1" spans="2:5">
       <c r="B79" s="1" t="s">
         <v>271</v>
       </c>
@@ -28894,7 +28902,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="80" ht="24" hidden="1" spans="2:5">
+    <row r="80" hidden="1" spans="2:5">
       <c r="B80" s="1" t="s">
         <v>275</v>
       </c>
@@ -28936,7 +28944,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="83" ht="40" hidden="1" spans="2:4">
+    <row r="83" ht="37.5" hidden="1" spans="2:4">
       <c r="B83" s="1" t="s">
         <v>284</v>
       </c>
@@ -28961,7 +28969,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" ht="40" hidden="1" spans="1:5">
+    <row r="85" ht="37.5" hidden="1" spans="1:5">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -29006,7 +29014,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="88" ht="60" hidden="1" spans="1:5">
+    <row r="88" ht="56.25" hidden="1" spans="1:5">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -29065,7 +29073,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" ht="24" hidden="1" spans="2:4">
+    <row r="92" hidden="1" spans="2:4">
       <c r="B92" s="1" t="s">
         <v>313</v>
       </c>
@@ -29101,7 +29109,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" ht="24" hidden="1" spans="2:4">
+    <row r="95" hidden="1" spans="2:4">
       <c r="B95" s="1" t="s">
         <v>322</v>
       </c>
@@ -29112,7 +29120,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="96" ht="24" hidden="1" spans="1:4">
+    <row r="96" hidden="1" spans="1:4">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -29126,7 +29134,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="97" ht="23" hidden="1" spans="1:4">
+    <row r="97" hidden="1" spans="1:4">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -29140,7 +29148,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" ht="40" hidden="1" spans="1:5">
+    <row r="98" ht="37.5" hidden="1" spans="1:5">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -29171,7 +29179,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="100" ht="24" hidden="1" spans="1:4">
+    <row r="100" hidden="1" spans="1:4">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -29246,7 +29254,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="106" ht="24" hidden="1" spans="2:4">
+    <row r="106" hidden="1" spans="2:4">
       <c r="B106" s="1" t="s">
         <v>357</v>
       </c>
@@ -29257,7 +29265,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="107" ht="40" hidden="1" spans="2:4">
+    <row r="107" ht="37.5" hidden="1" spans="2:4">
       <c r="B107" s="1" t="s">
         <v>360</v>
       </c>
@@ -29268,7 +29276,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="108" ht="24" hidden="1" spans="1:4">
+    <row r="108" hidden="1" spans="1:4">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -29282,7 +29290,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" ht="40" hidden="1" spans="1:5">
+    <row r="109" ht="37.5" hidden="1" spans="1:5">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -29313,7 +29321,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="111" ht="40" hidden="1" spans="1:5">
+    <row r="111" ht="37.5" hidden="1" spans="1:5">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -29341,7 +29349,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="113" ht="40" hidden="1" spans="2:4">
+    <row r="113" ht="37.5" hidden="1" spans="2:4">
       <c r="B113" s="1" t="s">
         <v>380</v>
       </c>
@@ -29352,7 +29360,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="114" ht="40" hidden="1" spans="1:5">
+    <row r="114" ht="37.5" hidden="1" spans="1:5">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -29380,7 +29388,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="116" ht="40" hidden="1" spans="1:5">
+    <row r="116" ht="37.5" hidden="1" spans="1:5">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -29397,7 +29405,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="117" ht="40" hidden="1" spans="2:5">
+    <row r="117" hidden="1" spans="2:5">
       <c r="B117" s="1" t="s">
         <v>394</v>
       </c>
@@ -29411,7 +29419,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="118" ht="24" hidden="1" spans="2:4">
+    <row r="118" hidden="1" spans="2:4">
       <c r="B118" s="1" t="s">
         <v>398</v>
       </c>
@@ -29422,7 +29430,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" ht="40" hidden="1" spans="2:4">
+    <row r="119" ht="37.5" hidden="1" spans="2:4">
       <c r="B119" s="1" t="s">
         <v>401</v>
       </c>
@@ -29450,7 +29458,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="121" ht="40" hidden="1" spans="1:4">
+    <row r="121" ht="37.5" hidden="1" spans="1:4">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -29464,7 +29472,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="122" ht="24" hidden="1" spans="2:4">
+    <row r="122" hidden="1" spans="2:4">
       <c r="B122" s="1" t="s">
         <v>411</v>
       </c>
@@ -29475,7 +29483,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="123" ht="24" hidden="1" spans="1:4">
+    <row r="123" hidden="1" spans="1:4">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -29489,7 +29497,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="124" ht="40" hidden="1" spans="1:4">
+    <row r="124" ht="37.5" hidden="1" spans="1:4">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -29528,7 +29536,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="127" ht="23" hidden="1" spans="2:4">
+    <row r="127" hidden="1" spans="2:4">
       <c r="B127" s="1" t="s">
         <v>426</v>
       </c>
@@ -29598,7 +29606,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="132" ht="40" hidden="1" spans="1:4">
+    <row r="132" ht="37.5" hidden="1" spans="1:4">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -29612,7 +29620,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="133" ht="40" hidden="1" spans="2:4">
+    <row r="133" ht="37.5" hidden="1" spans="2:4">
       <c r="B133" s="1" t="s">
         <v>445</v>
       </c>
@@ -29637,7 +29645,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="135" ht="100" hidden="1" spans="1:5">
+    <row r="135" ht="75" hidden="1" spans="1:5">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -29654,7 +29662,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="136" ht="24" hidden="1" spans="2:4">
+    <row r="136" hidden="1" spans="2:4">
       <c r="B136" s="1" t="s">
         <v>455</v>
       </c>
@@ -29665,7 +29673,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="137" ht="24" hidden="1" spans="2:4">
+    <row r="137" hidden="1" spans="2:4">
       <c r="B137" s="1" t="s">
         <v>458</v>
       </c>
@@ -29676,7 +29684,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" ht="23" hidden="1" spans="1:4">
+    <row r="138" hidden="1" spans="1:4">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -29690,7 +29698,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="139" ht="24" hidden="1" spans="1:4">
+    <row r="139" hidden="1" spans="1:4">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -29704,7 +29712,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="140" ht="24" hidden="1" spans="1:4">
+    <row r="140" hidden="1" spans="1:4">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -29732,7 +29740,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="142" ht="40" hidden="1" spans="1:4">
+    <row r="142" ht="37.5" hidden="1" spans="1:4">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -29791,7 +29799,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="146" ht="40" hidden="1" spans="2:4">
+    <row r="146" ht="37.5" hidden="1" spans="2:4">
       <c r="B146" s="1" t="s">
         <v>487</v>
       </c>
@@ -29830,7 +29838,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="149" ht="40" hidden="1" spans="2:4">
+    <row r="149" ht="37.5" hidden="1" spans="2:4">
       <c r="B149" s="1" t="s">
         <v>497</v>
       </c>
@@ -29852,7 +29860,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="151" ht="24" hidden="1" spans="1:4">
+    <row r="151" hidden="1" spans="1:4">
       <c r="A151" s="1">
         <v>0</v>
       </c>
@@ -29866,7 +29874,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="152" ht="40" hidden="1" spans="1:5">
+    <row r="152" ht="37.5" hidden="1" spans="1:5">
       <c r="A152" s="1">
         <v>0</v>
       </c>
@@ -29897,7 +29905,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="154" ht="24" hidden="1" spans="2:4">
+    <row r="154" hidden="1" spans="2:4">
       <c r="B154" s="1" t="s">
         <v>514</v>
       </c>
@@ -29908,7 +29916,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="155" ht="23" hidden="1" spans="1:4">
+    <row r="155" hidden="1" spans="1:4">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -29987,7 +29995,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" ht="24" hidden="1" spans="2:4">
+    <row r="160" hidden="1" spans="2:4">
       <c r="B160" s="1" t="s">
         <v>535</v>
       </c>
@@ -29998,7 +30006,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="161" ht="40" hidden="1" spans="2:4">
+    <row r="161" ht="37.5" hidden="1" spans="2:4">
       <c r="B161" s="1" t="s">
         <v>538</v>
       </c>
@@ -30023,7 +30031,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="163" ht="23" hidden="1" spans="2:4">
+    <row r="163" hidden="1" spans="2:4">
       <c r="B163" s="1" t="s">
         <v>544</v>
       </c>
@@ -30034,7 +30042,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="164" ht="24" hidden="1" spans="2:4">
+    <row r="164" hidden="1" spans="2:4">
       <c r="B164" s="1" t="s">
         <v>547</v>
       </c>
@@ -30059,7 +30067,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="166" ht="24" hidden="1" spans="2:4">
+    <row r="166" hidden="1" spans="2:4">
       <c r="B166" s="1" t="s">
         <v>553</v>
       </c>
@@ -30070,7 +30078,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="167" ht="40" hidden="1" spans="1:4">
+    <row r="167" ht="37.5" hidden="1" spans="1:4">
       <c r="A167" s="1">
         <v>0</v>
       </c>
@@ -30098,7 +30106,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="169" ht="100" hidden="1" spans="2:5">
+    <row r="169" ht="75" hidden="1" spans="2:5">
       <c r="B169" s="1" t="s">
         <v>562</v>
       </c>
@@ -30112,7 +30120,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="170" ht="40" hidden="1" spans="1:4">
+    <row r="170" ht="37.5" hidden="1" spans="1:4">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -30126,7 +30134,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="171" ht="40" hidden="1" spans="1:4">
+    <row r="171" ht="37.5" hidden="1" spans="1:4">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -30154,7 +30162,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="173" ht="100" hidden="1" spans="1:5">
+    <row r="173" ht="75" hidden="1" spans="1:5">
       <c r="A173" s="1">
         <v>0</v>
       </c>
@@ -30171,7 +30179,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="174" ht="24" hidden="1" spans="2:4">
+    <row r="174" hidden="1" spans="2:4">
       <c r="B174" s="1" t="s">
         <v>579</v>
       </c>
@@ -30193,7 +30201,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="176" ht="23" hidden="1" spans="1:5">
+    <row r="176" hidden="1" spans="1:5">
       <c r="A176" s="1">
         <v>0</v>
       </c>
@@ -30210,7 +30218,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="177" ht="24" hidden="1" spans="2:4">
+    <row r="177" hidden="1" spans="2:4">
       <c r="B177" s="1" t="s">
         <v>589</v>
       </c>
@@ -30221,7 +30229,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="178" ht="23" hidden="1" spans="2:4">
+    <row r="178" hidden="1" spans="2:4">
       <c r="B178" s="1" t="s">
         <v>592</v>
       </c>
@@ -30257,7 +30265,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="181" ht="40" hidden="1" spans="2:4">
+    <row r="181" ht="37.5" hidden="1" spans="2:4">
       <c r="B181" s="1" t="s">
         <v>601</v>
       </c>
@@ -30268,7 +30276,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="182" ht="24" hidden="1" spans="2:4">
+    <row r="182" hidden="1" spans="2:4">
       <c r="B182" s="1" t="s">
         <v>604</v>
       </c>
@@ -30279,7 +30287,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="183" ht="40" hidden="1" spans="2:4">
+    <row r="183" ht="37.5" hidden="1" spans="2:4">
       <c r="B183" s="1" t="s">
         <v>607</v>
       </c>
@@ -30290,7 +30298,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="184" ht="24" hidden="1" spans="2:4">
+    <row r="184" hidden="1" spans="2:4">
       <c r="B184" s="1" t="s">
         <v>610</v>
       </c>
@@ -30301,7 +30309,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="185" ht="40" hidden="1" spans="2:4">
+    <row r="185" ht="37.5" hidden="1" spans="2:4">
       <c r="B185" s="1" t="s">
         <v>613</v>
       </c>
@@ -30379,7 +30387,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="191" ht="24" hidden="1" spans="2:5">
+    <row r="191" hidden="1" spans="2:5">
       <c r="B191" s="1" t="s">
         <v>632</v>
       </c>
@@ -30393,7 +30401,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="192" ht="40" hidden="1" spans="2:4">
+    <row r="192" ht="37.5" hidden="1" spans="2:4">
       <c r="B192" s="1" t="s">
         <v>636</v>
       </c>
@@ -30404,7 +30412,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="193" ht="40" hidden="1" spans="2:4">
+    <row r="193" ht="37.5" hidden="1" spans="2:4">
       <c r="B193" s="1" t="s">
         <v>639</v>
       </c>
@@ -30440,7 +30448,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="196" ht="40" hidden="1" spans="2:4">
+    <row r="196" ht="37.5" hidden="1" spans="2:4">
       <c r="B196" s="1" t="s">
         <v>648</v>
       </c>
@@ -30451,7 +30459,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="197" ht="24" hidden="1" spans="2:4">
+    <row r="197" hidden="1" spans="2:4">
       <c r="B197" s="1" t="s">
         <v>651</v>
       </c>
@@ -30462,7 +30470,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="198" ht="40" hidden="1" spans="2:4">
+    <row r="198" ht="37.5" hidden="1" spans="2:4">
       <c r="B198" s="1" t="s">
         <v>654</v>
       </c>
@@ -30473,7 +30481,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="199" ht="40" hidden="1" spans="2:4">
+    <row r="199" ht="37.5" hidden="1" spans="2:4">
       <c r="B199" s="1" t="s">
         <v>657</v>
       </c>
@@ -30498,7 +30506,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="201" ht="40" hidden="1" spans="1:4">
+    <row r="201" ht="37.5" hidden="1" spans="1:4">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -30512,7 +30520,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="202" ht="24" hidden="1" spans="2:4">
+    <row r="202" hidden="1" spans="2:4">
       <c r="B202" s="1" t="s">
         <v>666</v>
       </c>
@@ -30523,7 +30531,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="203" ht="24" hidden="1" spans="2:4">
+    <row r="203" hidden="1" spans="2:4">
       <c r="B203" s="1" t="s">
         <v>669</v>
       </c>
@@ -30570,7 +30578,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="207" ht="40" hidden="1" spans="1:4">
+    <row r="207" ht="37.5" hidden="1" spans="1:4">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -30612,7 +30620,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="210" ht="40" hidden="1" spans="2:4">
+    <row r="210" ht="37.5" hidden="1" spans="2:4">
       <c r="B210" s="1" t="s">
         <v>691</v>
       </c>
@@ -30623,7 +30631,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="211" ht="40" hidden="1" spans="1:4">
+    <row r="211" ht="37.5" hidden="1" spans="1:4">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -30648,7 +30656,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="213" ht="40" hidden="1" spans="1:4">
+    <row r="213" ht="37.5" hidden="1" spans="1:4">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -30662,7 +30670,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="214" ht="80" hidden="1" spans="2:5">
+    <row r="214" ht="75" hidden="1" spans="2:5">
       <c r="B214" s="1" t="s">
         <v>703</v>
       </c>
@@ -30676,7 +30684,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="215" ht="40" hidden="1" spans="2:5">
+    <row r="215" ht="37.5" hidden="1" spans="2:5">
       <c r="B215" s="1" t="s">
         <v>707</v>
       </c>
@@ -30707,7 +30715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" ht="24" hidden="1" spans="1:4">
+    <row r="217" hidden="1" spans="1:4">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -30749,7 +30757,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="220" ht="40" hidden="1" spans="2:4">
+    <row r="220" ht="37.5" hidden="1" spans="2:4">
       <c r="B220" s="1" t="s">
         <v>724</v>
       </c>
@@ -30805,7 +30813,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="224" ht="40" hidden="1" spans="1:4">
+    <row r="224" ht="37.5" hidden="1" spans="1:4">
       <c r="A224" s="1">
         <v>0</v>
       </c>
@@ -30841,7 +30849,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="227" ht="40" hidden="1" spans="2:4">
+    <row r="227" ht="37.5" hidden="1" spans="2:4">
       <c r="B227" s="1" t="s">
         <v>746</v>
       </c>
@@ -30866,7 +30874,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="229" ht="40" hidden="1" spans="1:4">
+    <row r="229" ht="37.5" hidden="1" spans="1:4">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -31001,7 +31009,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="238" ht="24" hidden="1" spans="1:5">
+    <row r="238" hidden="1" spans="1:5">
       <c r="A238" s="1">
         <v>0</v>
       </c>
@@ -31018,7 +31026,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="239" ht="40" hidden="1" spans="1:5">
+    <row r="239" ht="37.5" hidden="1" spans="1:5">
       <c r="A239" s="1">
         <v>0</v>
       </c>
@@ -31083,7 +31091,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="243" ht="40" hidden="1" spans="1:5">
+    <row r="243" ht="37.5" hidden="1" spans="1:5">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -31111,7 +31119,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="245" ht="40" hidden="1" spans="1:4">
+    <row r="245" ht="37.5" hidden="1" spans="1:4">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -31125,7 +31133,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="246" ht="40" hidden="1" spans="1:5">
+    <row r="246" ht="37.5" hidden="1" spans="1:5">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -31156,7 +31164,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="248" ht="40" hidden="1" spans="2:4">
+    <row r="248" ht="37.5" hidden="1" spans="2:4">
       <c r="B248" s="1" t="s">
         <v>820</v>
       </c>
@@ -31167,7 +31175,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="249" ht="40" hidden="1" spans="1:4">
+    <row r="249" ht="37.5" hidden="1" spans="1:4">
       <c r="A249" s="1">
         <v>0</v>
       </c>
@@ -31181,7 +31189,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="250" ht="40" hidden="1" spans="2:4">
+    <row r="250" ht="37.5" hidden="1" spans="2:4">
       <c r="B250" s="1" t="s">
         <v>826</v>
       </c>
@@ -31206,7 +31214,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="252" ht="40" hidden="1" spans="2:5">
+    <row r="252" ht="37.5" hidden="1" spans="2:5">
       <c r="B252" s="1" t="s">
         <v>832</v>
       </c>
@@ -31234,7 +31242,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="254" ht="24" hidden="1" spans="1:4">
+    <row r="254" hidden="1" spans="1:4">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -31248,7 +31256,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="255" ht="24" hidden="1" spans="1:4">
+    <row r="255" hidden="1" spans="1:4">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -31284,7 +31292,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="258" ht="40" hidden="1" spans="1:4">
+    <row r="258" ht="37.5" hidden="1" spans="1:4">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -31298,7 +31306,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="259" ht="40" hidden="1" spans="1:4">
+    <row r="259" ht="37.5" hidden="1" spans="1:4">
       <c r="A259" s="1">
         <v>0</v>
       </c>
@@ -31312,7 +31320,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="260" ht="24" hidden="1" spans="2:4">
+    <row r="260" hidden="1" spans="2:4">
       <c r="B260" s="1" t="s">
         <v>857</v>
       </c>
@@ -31323,7 +31331,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="261" ht="40" hidden="1" spans="2:4">
+    <row r="261" ht="37.5" hidden="1" spans="2:4">
       <c r="B261" s="1" t="s">
         <v>860</v>
       </c>
@@ -31334,7 +31342,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="262" ht="24" hidden="1" spans="1:4">
+    <row r="262" hidden="1" spans="1:4">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -31362,7 +31370,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="264" ht="40" hidden="1" spans="1:4">
+    <row r="264" ht="37.5" hidden="1" spans="1:4">
       <c r="A264" s="1">
         <v>0</v>
       </c>
@@ -31376,7 +31384,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="265" ht="24" hidden="1" spans="2:4">
+    <row r="265" hidden="1" spans="2:4">
       <c r="B265" s="1" t="s">
         <v>872</v>
       </c>
@@ -31404,7 +31412,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="267" ht="40" hidden="1" spans="1:5">
+    <row r="267" ht="37.5" hidden="1" spans="1:5">
       <c r="A267" s="1">
         <v>0</v>
       </c>
@@ -31421,7 +31429,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="268" ht="80" hidden="1" spans="1:5">
+    <row r="268" ht="75" hidden="1" spans="1:5">
       <c r="A268" s="1">
         <v>0</v>
       </c>
@@ -31438,7 +31446,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="269" ht="60" hidden="1" spans="1:5">
+    <row r="269" ht="56.25" hidden="1" spans="1:5">
       <c r="A269" s="1">
         <v>0</v>
       </c>
@@ -31466,7 +31474,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="271" ht="24" hidden="1" spans="1:4">
+    <row r="271" hidden="1" spans="1:4">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -31480,7 +31488,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="272" ht="40" hidden="1" spans="2:4">
+    <row r="272" ht="37.5" hidden="1" spans="2:4">
       <c r="B272" s="1" t="s">
         <v>897</v>
       </c>
@@ -31491,7 +31499,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="273" ht="24" hidden="1" spans="2:4">
+    <row r="273" hidden="1" spans="2:4">
       <c r="B273" s="1" t="s">
         <v>900</v>
       </c>
@@ -31502,7 +31510,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="274" ht="40" hidden="1" spans="2:4">
+    <row r="274" ht="37.5" hidden="1" spans="2:4">
       <c r="B274" s="1" t="s">
         <v>903</v>
       </c>
@@ -31513,7 +31521,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="275" ht="40" hidden="1" spans="1:4">
+    <row r="275" ht="37.5" hidden="1" spans="1:4">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -31549,7 +31557,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="278" ht="40" hidden="1" spans="2:4">
+    <row r="278" ht="37.5" hidden="1" spans="2:4">
       <c r="B278" s="1" t="s">
         <v>915</v>
       </c>
@@ -31560,7 +31568,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="279" ht="24" hidden="1" spans="1:4">
+    <row r="279" hidden="1" spans="1:4">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -31574,7 +31582,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="280" ht="24" hidden="1" spans="1:4">
+    <row r="280" hidden="1" spans="1:4">
       <c r="A280" s="1">
         <v>0</v>
       </c>
@@ -31599,7 +31607,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="282" ht="40" hidden="1" spans="2:4">
+    <row r="282" ht="37.5" hidden="1" spans="2:4">
       <c r="B282" s="1" t="s">
         <v>927</v>
       </c>
@@ -31610,7 +31618,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="283" ht="40" hidden="1" spans="1:5">
+    <row r="283" ht="37.5" hidden="1" spans="1:5">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -31627,7 +31635,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="284" ht="24" hidden="1" spans="1:4">
+    <row r="284" hidden="1" spans="1:4">
       <c r="A284" s="1">
         <v>0</v>
       </c>
@@ -31658,7 +31666,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="286" ht="80" hidden="1" spans="1:6">
+    <row r="286" ht="75" hidden="1" spans="1:6">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -31704,7 +31712,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="289" ht="100" hidden="1" spans="1:5">
+    <row r="289" ht="75" hidden="1" spans="1:5">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -31721,7 +31729,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="290" ht="40" hidden="1" spans="2:4">
+    <row r="290" ht="37.5" hidden="1" spans="2:4">
       <c r="B290" s="1" t="s">
         <v>955</v>
       </c>
@@ -31732,7 +31740,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="291" ht="40" hidden="1" spans="2:5">
+    <row r="291" ht="37.5" hidden="1" spans="2:5">
       <c r="B291" s="1" t="s">
         <v>958</v>
       </c>
@@ -31782,7 +31790,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="295" ht="24" hidden="1" spans="1:4">
+    <row r="295" hidden="1" spans="1:4">
       <c r="A295" s="1">
         <v>0</v>
       </c>
@@ -31796,7 +31804,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="296" ht="40" hidden="1" spans="1:4">
+    <row r="296" ht="37.5" hidden="1" spans="1:4">
       <c r="A296" s="1">
         <v>0</v>
       </c>
@@ -31849,7 +31857,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="300" ht="24" hidden="1" spans="1:4">
+    <row r="300" hidden="1" spans="1:4">
       <c r="A300" s="1">
         <v>0</v>
       </c>
@@ -31863,7 +31871,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="301" ht="40" hidden="1" spans="1:5">
+    <row r="301" ht="37.5" hidden="1" spans="1:5">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -31897,7 +31905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="40" hidden="1" spans="1:4">
+    <row r="303" ht="37.5" hidden="1" spans="1:4">
       <c r="A303" s="1">
         <v>0</v>
       </c>
@@ -31911,7 +31919,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="304" ht="23" hidden="1" spans="1:4">
+    <row r="304" hidden="1" spans="1:4">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -31925,7 +31933,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="305" ht="40" hidden="1" spans="1:4">
+    <row r="305" ht="37.5" hidden="1" spans="1:4">
       <c r="A305" s="1">
         <v>0</v>
       </c>
@@ -31950,7 +31958,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="307" ht="40" hidden="1" spans="2:4">
+    <row r="307" ht="37.5" hidden="1" spans="2:4">
       <c r="B307" s="1" t="s">
         <v>1008</v>
       </c>
@@ -31961,7 +31969,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="308" ht="24" hidden="1" spans="1:4">
+    <row r="308" hidden="1" spans="1:4">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -31986,7 +31994,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="310" ht="40" hidden="1" spans="2:4">
+    <row r="310" ht="37.5" hidden="1" spans="2:4">
       <c r="B310" s="1" t="s">
         <v>1017</v>
       </c>
@@ -32022,7 +32030,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="313" ht="40" hidden="1" spans="1:4">
+    <row r="313" ht="37.5" hidden="1" spans="1:4">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -32036,7 +32044,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="314" ht="100" hidden="1" spans="1:5">
+    <row r="314" ht="75" hidden="1" spans="1:5">
       <c r="A314" s="1">
         <v>0</v>
       </c>
@@ -32064,7 +32072,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="316" ht="40" hidden="1" spans="1:4">
+    <row r="316" ht="37.5" hidden="1" spans="1:4">
       <c r="A316" s="1">
         <v>0</v>
       </c>
@@ -32089,7 +32097,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="318" ht="40" hidden="1" spans="1:5">
+    <row r="318" ht="37.5" hidden="1" spans="1:5">
       <c r="A318" s="1">
         <v>0</v>
       </c>
@@ -32123,7 +32131,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="320" ht="23" hidden="1" spans="2:4">
+    <row r="320" hidden="1" spans="2:4">
       <c r="B320" s="1" t="s">
         <v>1049</v>
       </c>
@@ -32134,7 +32142,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="321" ht="135" hidden="1" spans="2:5">
+    <row r="321" ht="112.5" hidden="1" spans="2:5">
       <c r="B321" s="1" t="s">
         <v>1052</v>
       </c>
@@ -32173,7 +32181,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="324" ht="24" hidden="1" spans="2:4">
+    <row r="324" hidden="1" spans="2:4">
       <c r="B324" s="1" t="s">
         <v>1063</v>
       </c>
@@ -32257,7 +32265,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="330" ht="40" hidden="1" spans="1:4">
+    <row r="330" ht="37.5" hidden="1" spans="1:4">
       <c r="A330" s="1">
         <v>0</v>
       </c>
@@ -32285,7 +32293,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="332" ht="40" hidden="1" spans="2:4">
+    <row r="332" ht="37.5" hidden="1" spans="2:4">
       <c r="B332" s="1" t="s">
         <v>1089</v>
       </c>
@@ -32318,7 +32326,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="335" ht="40" hidden="1" spans="1:5">
+    <row r="335" ht="37.5" hidden="1" spans="1:5">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -32399,7 +32407,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="341" ht="140" hidden="1" spans="1:5">
+    <row r="341" ht="93.75" hidden="1" spans="1:5">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -32416,7 +32424,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="342" ht="40" hidden="1" spans="2:4">
+    <row r="342" ht="37.5" hidden="1" spans="2:4">
       <c r="B342" s="1" t="s">
         <v>1122</v>
       </c>
@@ -32427,7 +32435,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="343" ht="40" hidden="1" spans="2:4">
+    <row r="343" ht="37.5" hidden="1" spans="2:4">
       <c r="B343" s="1" t="s">
         <v>1125</v>
       </c>
@@ -32449,7 +32457,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="345" ht="40" hidden="1" spans="1:4">
+    <row r="345" ht="37.5" hidden="1" spans="1:4">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -32477,7 +32485,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="347" ht="24" hidden="1" spans="2:4">
+    <row r="347" hidden="1" spans="2:4">
       <c r="B347" s="1" t="s">
         <v>1137</v>
       </c>
@@ -32522,7 +32530,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="350" ht="24" hidden="1" spans="1:4">
+    <row r="350" hidden="1" spans="1:4">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -32547,7 +32555,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="352" ht="24" hidden="1" spans="2:4">
+    <row r="352" hidden="1" spans="2:4">
       <c r="B352" s="1" t="s">
         <v>1153</v>
       </c>
@@ -32639,7 +32647,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="359" ht="40" hidden="1" spans="1:4">
+    <row r="359" ht="37.5" hidden="1" spans="1:4">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -32653,7 +32661,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="360" ht="23" hidden="1" spans="2:4">
+    <row r="360" ht="37.5" hidden="1" spans="2:4">
       <c r="B360" s="1" t="s">
         <v>1178</v>
       </c>
@@ -32664,7 +32672,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="361" ht="24" hidden="1" spans="1:4">
+    <row r="361" hidden="1" spans="1:4">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -32678,7 +32686,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="362" ht="40" hidden="1" spans="2:5">
+    <row r="362" ht="37.5" hidden="1" spans="2:5">
       <c r="B362" s="1" t="s">
         <v>1184</v>
       </c>
@@ -32720,7 +32728,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="365" ht="40" hidden="1" spans="2:5">
+    <row r="365" ht="37.5" hidden="1" spans="2:5">
       <c r="B365" s="1" t="s">
         <v>1195</v>
       </c>
@@ -32745,7 +32753,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="367" ht="40" hidden="1" spans="1:5">
+    <row r="367" ht="37.5" hidden="1" spans="1:5">
       <c r="A367" s="1">
         <v>0</v>
       </c>
@@ -32773,7 +32781,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="369" ht="40" hidden="1" spans="1:4">
+    <row r="369" ht="37.5" hidden="1" spans="1:4">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -32815,7 +32823,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="372" ht="24" hidden="1" spans="2:5">
+    <row r="372" hidden="1" spans="2:5">
       <c r="B372" s="1" t="s">
         <v>1220</v>
       </c>
@@ -32829,7 +32837,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="373" ht="40" hidden="1" spans="2:4">
+    <row r="373" ht="37.5" hidden="1" spans="2:4">
       <c r="B373" s="1" t="s">
         <v>1224</v>
       </c>
@@ -32840,7 +32848,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="374" ht="40" hidden="1" spans="2:4">
+    <row r="374" ht="37.5" hidden="1" spans="2:4">
       <c r="B374" s="1" t="s">
         <v>1227</v>
       </c>
@@ -32851,7 +32859,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="375" ht="60" hidden="1" spans="2:4">
+    <row r="375" ht="56.25" hidden="1" spans="2:4">
       <c r="B375" s="1" t="s">
         <v>1230</v>
       </c>
@@ -32862,7 +32870,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="376" ht="24" hidden="1" spans="2:4">
+    <row r="376" hidden="1" spans="2:4">
       <c r="B376" s="1" t="s">
         <v>1233</v>
       </c>
@@ -32920,7 +32928,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="381" ht="40" hidden="1" spans="1:4">
+    <row r="381" ht="37.5" hidden="1" spans="1:4">
       <c r="A381" s="1">
         <v>0</v>
       </c>
@@ -32934,7 +32942,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="382" ht="40" hidden="1" spans="1:4">
+    <row r="382" ht="37.5" hidden="1" spans="1:4">
       <c r="A382" s="1">
         <v>0</v>
       </c>
@@ -32948,7 +32956,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="383" ht="40" hidden="1" spans="2:4">
+    <row r="383" ht="37.5" hidden="1" spans="2:4">
       <c r="B383" s="1" t="s">
         <v>1254</v>
       </c>
@@ -32984,7 +32992,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="386" ht="40" hidden="1" spans="2:4">
+    <row r="386" ht="37.5" hidden="1" spans="2:4">
       <c r="B386" s="1" t="s">
         <v>1263</v>
       </c>
@@ -32995,7 +33003,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="387" ht="40" hidden="1" spans="2:4">
+    <row r="387" ht="37.5" hidden="1" spans="2:4">
       <c r="B387" s="1" t="s">
         <v>1266</v>
       </c>
@@ -33006,7 +33014,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="388" ht="23" hidden="1" spans="2:4">
+    <row r="388" hidden="1" spans="2:4">
       <c r="B388" s="1" t="s">
         <v>1269</v>
       </c>
@@ -33087,7 +33095,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="394" ht="24" hidden="1" spans="1:4">
+    <row r="394" hidden="1" spans="1:4">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -33151,7 +33159,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="399" ht="40" hidden="1" spans="1:5">
+    <row r="399" ht="37.5" hidden="1" spans="1:5">
       <c r="A399" s="1">
         <v>0</v>
       </c>
@@ -33182,7 +33190,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="401" ht="200" hidden="1" spans="1:5">
+    <row r="401" ht="168.75" hidden="1" spans="1:5">
       <c r="A401" s="1">
         <v>0</v>
       </c>
@@ -33210,7 +33218,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="403" ht="23" hidden="1" spans="1:5">
+    <row r="403" hidden="1" spans="1:5">
       <c r="A403" s="1">
         <v>0</v>
       </c>
@@ -33227,7 +33235,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="404" ht="24" hidden="1" spans="1:4">
+    <row r="404" hidden="1" spans="1:4">
       <c r="A404" s="1">
         <v>0</v>
       </c>
@@ -33241,7 +33249,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="405" ht="134" hidden="1" spans="2:5">
+    <row r="405" ht="112.5" hidden="1" spans="2:5">
       <c r="B405" s="1" t="s">
         <v>1323</v>
       </c>
@@ -33255,7 +33263,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="406" ht="40" hidden="1" spans="2:4">
+    <row r="406" ht="37.5" hidden="1" spans="2:4">
       <c r="B406" s="1" t="s">
         <v>1327</v>
       </c>
@@ -33266,7 +33274,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="407" ht="24" hidden="1" spans="1:5">
+    <row r="407" hidden="1" spans="1:5">
       <c r="A407" s="1">
         <v>0</v>
       </c>
@@ -33305,7 +33313,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="410" ht="23" hidden="1" spans="2:4">
+    <row r="410" hidden="1" spans="2:4">
       <c r="B410" s="1" t="s">
         <v>1340</v>
       </c>
@@ -33316,7 +33324,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="411" ht="40" hidden="1" spans="2:4">
+    <row r="411" ht="37.5" hidden="1" spans="2:4">
       <c r="B411" s="1" t="s">
         <v>1343</v>
       </c>
@@ -33327,7 +33335,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="412" ht="40" hidden="1" spans="2:4">
+    <row r="412" ht="37.5" hidden="1" spans="2:4">
       <c r="B412" s="1" t="s">
         <v>1346</v>
       </c>
@@ -33338,7 +33346,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="413" ht="40" hidden="1" spans="2:4">
+    <row r="413" ht="37.5" hidden="1" spans="2:4">
       <c r="B413" s="1" t="s">
         <v>1349</v>
       </c>
@@ -33360,7 +33368,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="415" ht="24" hidden="1" spans="1:5">
+    <row r="415" hidden="1" spans="1:5">
       <c r="A415" s="1">
         <v>0</v>
       </c>
@@ -33391,7 +33399,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="417" ht="24" hidden="1" spans="2:4">
+    <row r="417" hidden="1" spans="2:4">
       <c r="B417" s="1" t="s">
         <v>1362</v>
       </c>
@@ -33402,7 +33410,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="418" ht="40" hidden="1" spans="1:5">
+    <row r="418" ht="37.5" hidden="1" spans="1:5">
       <c r="A418" s="1">
         <v>0</v>
       </c>
@@ -33419,7 +33427,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="419" ht="40" hidden="1" spans="1:5">
+    <row r="419" ht="37.5" hidden="1" spans="1:5">
       <c r="A419" s="1">
         <v>0</v>
       </c>
@@ -33450,7 +33458,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="421" ht="24" hidden="1" spans="2:4">
+    <row r="421" hidden="1" spans="2:4">
       <c r="B421" s="1" t="s">
         <v>1376</v>
       </c>
@@ -33461,7 +33469,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="422" ht="23" hidden="1" spans="2:4">
+    <row r="422" hidden="1" spans="2:4">
       <c r="B422" s="1" t="s">
         <v>1379</v>
       </c>
@@ -33472,7 +33480,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="423" ht="24" hidden="1" spans="2:4">
+    <row r="423" hidden="1" spans="2:4">
       <c r="B423" s="1" t="s">
         <v>1382</v>
       </c>
@@ -33483,7 +33491,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="424" ht="24" hidden="1" spans="2:4">
+    <row r="424" hidden="1" spans="2:4">
       <c r="B424" s="1" t="s">
         <v>1385</v>
       </c>
@@ -33494,7 +33502,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="425" ht="24" hidden="1" spans="2:4">
+    <row r="425" hidden="1" spans="2:4">
       <c r="B425" s="1" t="s">
         <v>1388</v>
       </c>
@@ -33505,7 +33513,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="426" ht="24" hidden="1" spans="2:4">
+    <row r="426" hidden="1" spans="2:4">
       <c r="B426" s="1" t="s">
         <v>1391</v>
       </c>
@@ -33516,7 +33524,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="427" ht="23" hidden="1" spans="1:5">
+    <row r="427" hidden="1" spans="1:5">
       <c r="A427" s="1">
         <v>0</v>
       </c>
@@ -33533,7 +33541,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="428" ht="40" hidden="1" spans="2:4">
+    <row r="428" ht="37.5" hidden="1" spans="2:4">
       <c r="B428" s="1" t="s">
         <v>1398</v>
       </c>
@@ -33558,7 +33566,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="430" ht="23" hidden="1" spans="1:4">
+    <row r="430" hidden="1" spans="1:4">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -33600,7 +33608,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="433" ht="24" hidden="1" spans="1:4">
+    <row r="433" hidden="1" spans="1:4">
       <c r="A433" s="1">
         <v>0</v>
       </c>
@@ -33614,7 +33622,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="434" ht="40" hidden="1" spans="2:4">
+    <row r="434" ht="37.5" hidden="1" spans="2:4">
       <c r="B434" s="1" t="s">
         <v>1416</v>
       </c>
@@ -33625,7 +33633,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="435" ht="24" hidden="1" spans="2:4">
+    <row r="435" hidden="1" spans="2:4">
       <c r="B435" s="1" t="s">
         <v>1419</v>
       </c>
@@ -33669,7 +33677,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="439" ht="40" hidden="1" spans="1:4">
+    <row r="439" ht="37.5" hidden="1" spans="1:4">
       <c r="A439" s="1">
         <v>0</v>
       </c>
@@ -33683,7 +33691,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="440" ht="40" hidden="1" spans="1:4">
+    <row r="440" ht="37.5" hidden="1" spans="1:4">
       <c r="A440" s="1">
         <v>0</v>
       </c>
@@ -33697,7 +33705,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="441" ht="24" hidden="1" spans="2:4">
+    <row r="441" hidden="1" spans="2:4">
       <c r="B441" s="1" t="s">
         <v>1437</v>
       </c>
@@ -33722,7 +33730,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="443" ht="24" hidden="1" spans="2:4">
+    <row r="443" hidden="1" spans="2:4">
       <c r="B443" s="1" t="s">
         <v>1444</v>
       </c>
@@ -33747,7 +33755,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="445" ht="40" hidden="1" spans="2:4">
+    <row r="445" ht="37.5" hidden="1" spans="2:4">
       <c r="B445" s="1" t="s">
         <v>1450</v>
       </c>
@@ -33783,7 +33791,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="448" ht="40" hidden="1" spans="1:4">
+    <row r="448" ht="37.5" hidden="1" spans="1:4">
       <c r="A448" s="1">
         <v>0</v>
       </c>
@@ -33797,7 +33805,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="449" ht="23" hidden="1" spans="2:4">
+    <row r="449" hidden="1" spans="2:4">
       <c r="B449" s="1" t="s">
         <v>1463</v>
       </c>
@@ -33819,7 +33827,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="451" ht="24" hidden="1" spans="1:4">
+    <row r="451" hidden="1" spans="1:4">
       <c r="A451" s="1">
         <v>0</v>
       </c>
@@ -33833,7 +33841,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="452" ht="24" hidden="1" spans="2:4">
+    <row r="452" hidden="1" spans="2:4">
       <c r="B452" s="1" t="s">
         <v>1472</v>
       </c>
@@ -33858,7 +33866,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="454" ht="24" hidden="1" spans="2:4">
+    <row r="454" hidden="1" spans="2:4">
       <c r="B454" s="1" t="s">
         <v>1478</v>
       </c>
@@ -33883,7 +33891,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="456" ht="24" hidden="1" spans="1:4">
+    <row r="456" hidden="1" spans="1:4">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -33919,7 +33927,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="459" ht="40" hidden="1" spans="1:4">
+    <row r="459" ht="37.5" hidden="1" spans="1:4">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -33944,7 +33952,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="461" ht="24" hidden="1" spans="2:4">
+    <row r="461" hidden="1" spans="2:4">
       <c r="B461" s="1" t="s">
         <v>1499</v>
       </c>
@@ -33969,7 +33977,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="463" ht="23" hidden="1" spans="2:4">
+    <row r="463" hidden="1" spans="2:4">
       <c r="B463" s="1" t="s">
         <v>1505</v>
       </c>
@@ -33980,7 +33988,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="464" ht="40" hidden="1" spans="1:4">
+    <row r="464" ht="37.5" hidden="1" spans="1:4">
       <c r="A464" s="1">
         <v>0</v>
       </c>
@@ -34030,7 +34038,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="468" ht="40" hidden="1" spans="2:4">
+    <row r="468" ht="37.5" hidden="1" spans="2:4">
       <c r="B468" s="1" t="s">
         <v>1520</v>
       </c>
@@ -34113,7 +34121,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="475" ht="24" hidden="1" spans="2:4">
+    <row r="475" hidden="1" spans="2:4">
       <c r="B475" s="1" t="s">
         <v>1541</v>
       </c>
@@ -34135,7 +34143,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="477" ht="24" hidden="1" spans="2:4">
+    <row r="477" hidden="1" spans="2:4">
       <c r="B477" s="1" t="s">
         <v>1546</v>
       </c>
@@ -34146,7 +34154,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="478" ht="24" hidden="1" spans="2:4">
+    <row r="478" hidden="1" spans="2:4">
       <c r="B478" s="1" t="s">
         <v>1549</v>
       </c>
@@ -34157,7 +34165,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="479" ht="24" hidden="1" spans="2:4">
+    <row r="479" hidden="1" spans="2:4">
       <c r="B479" s="1" t="s">
         <v>1552</v>
       </c>
@@ -34168,7 +34176,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="480" ht="24" hidden="1" spans="2:4">
+    <row r="480" hidden="1" spans="2:4">
       <c r="B480" s="1" t="s">
         <v>1555</v>
       </c>
@@ -34179,7 +34187,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="481" ht="24" hidden="1" spans="2:4">
+    <row r="481" hidden="1" spans="2:4">
       <c r="B481" s="1" t="s">
         <v>1558</v>
       </c>
@@ -34190,7 +34198,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="482" ht="23" hidden="1" spans="2:4">
+    <row r="482" hidden="1" spans="2:4">
       <c r="B482" s="1" t="s">
         <v>1561</v>
       </c>
@@ -34215,7 +34223,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="484" ht="24" hidden="1" spans="2:4">
+    <row r="484" hidden="1" spans="2:4">
       <c r="B484" s="1" t="s">
         <v>1567</v>
       </c>
@@ -34226,7 +34234,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="485" ht="24" hidden="1" spans="2:4">
+    <row r="485" hidden="1" spans="2:4">
       <c r="B485" s="1" t="s">
         <v>1570</v>
       </c>
@@ -34237,7 +34245,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="486" ht="23" hidden="1" spans="2:4">
+    <row r="486" hidden="1" spans="2:4">
       <c r="B486" s="1" t="s">
         <v>1573</v>
       </c>
@@ -34248,7 +34256,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="487" ht="58" hidden="1" spans="2:5">
+    <row r="487" ht="37.5" hidden="1" spans="2:5">
       <c r="B487" s="1" t="s">
         <v>1576</v>
       </c>
@@ -34276,7 +34284,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="489" ht="40" hidden="1" spans="2:4">
+    <row r="489" ht="37.5" hidden="1" spans="2:4">
       <c r="B489" s="1" t="s">
         <v>1584</v>
       </c>
@@ -34287,7 +34295,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="490" ht="60" hidden="1" spans="1:5">
+    <row r="490" ht="56.25" hidden="1" spans="1:5">
       <c r="A490" s="1">
         <v>0</v>
       </c>
@@ -34318,7 +34326,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="492" ht="40" hidden="1" spans="2:4">
+    <row r="492" ht="37.5" hidden="1" spans="2:4">
       <c r="B492" s="1" t="s">
         <v>1594</v>
       </c>
@@ -34329,7 +34337,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="493" ht="40" hidden="1" spans="1:4">
+    <row r="493" ht="37.5" hidden="1" spans="1:4">
       <c r="A493" s="1">
         <v>0</v>
       </c>
@@ -34343,7 +34351,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="494" ht="40" hidden="1" spans="1:4">
+    <row r="494" ht="37.5" hidden="1" spans="1:4">
       <c r="A494" s="1">
         <v>0</v>
       </c>
@@ -34357,7 +34365,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="495" ht="40" hidden="1" spans="1:4">
+    <row r="495" ht="37.5" hidden="1" spans="1:4">
       <c r="A495" s="1">
         <v>0</v>
       </c>
@@ -34371,7 +34379,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="496" ht="40" hidden="1" spans="2:4">
+    <row r="496" ht="37.5" hidden="1" spans="2:4">
       <c r="B496" s="1" t="s">
         <v>1606</v>
       </c>
@@ -34393,7 +34401,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="498" ht="40" hidden="1" spans="1:5">
+    <row r="498" ht="37.5" hidden="1" spans="1:5">
       <c r="A498" s="1">
         <v>0</v>
       </c>
@@ -34410,7 +34418,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="499" ht="24" hidden="1" spans="2:4">
+    <row r="499" hidden="1" spans="2:4">
       <c r="B499" s="1" t="s">
         <v>1616</v>
       </c>
@@ -34421,7 +34429,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="500" ht="40" hidden="1" spans="1:5">
+    <row r="500" ht="37.5" hidden="1" spans="1:5">
       <c r="A500" s="1">
         <v>0</v>
       </c>
@@ -34438,7 +34446,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="501" ht="40" hidden="1" spans="2:4">
+    <row r="501" ht="37.5" hidden="1" spans="2:4">
       <c r="B501" s="1" t="s">
         <v>1623</v>
       </c>
@@ -34449,7 +34457,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="502" ht="40" hidden="1" spans="2:4">
+    <row r="502" ht="37.5" hidden="1" spans="2:4">
       <c r="B502" s="1" t="s">
         <v>1626</v>
       </c>
@@ -34477,7 +34485,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="504" ht="23" hidden="1" spans="2:4">
+    <row r="504" hidden="1" spans="2:4">
       <c r="B504" s="1" t="s">
         <v>1633</v>
       </c>
@@ -34488,7 +34496,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="505" ht="40" hidden="1" spans="1:5">
+    <row r="505" ht="37.5" hidden="1" spans="1:5">
       <c r="A505" s="1">
         <v>0</v>
       </c>
@@ -34505,7 +34513,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="506" ht="40" hidden="1" spans="1:4">
+    <row r="506" ht="37.5" hidden="1" spans="1:4">
       <c r="A506" s="1">
         <v>0</v>
       </c>
@@ -34536,7 +34544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="508" ht="60" hidden="1" spans="1:5">
+    <row r="508" ht="37.5" hidden="1" spans="1:5">
       <c r="A508" s="1">
         <v>0</v>
       </c>
@@ -34564,7 +34572,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="510" ht="23" hidden="1" spans="2:4">
+    <row r="510" hidden="1" spans="2:4">
       <c r="B510" s="1" t="s">
         <v>1653</v>
       </c>
@@ -34575,7 +34583,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="511" ht="40" hidden="1" spans="1:5">
+    <row r="511" ht="37.5" hidden="1" spans="1:5">
       <c r="A511" s="1">
         <v>0</v>
       </c>
@@ -34609,7 +34617,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="513" ht="40" hidden="1" spans="1:4">
+    <row r="513" ht="37.5" hidden="1" spans="1:4">
       <c r="A513" s="1">
         <v>0</v>
       </c>
@@ -34623,7 +34631,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="514" ht="40" hidden="1" spans="2:4">
+    <row r="514" ht="37.5" hidden="1" spans="2:4">
       <c r="B514" s="1" t="s">
         <v>1667</v>
       </c>
@@ -34634,7 +34642,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="515" ht="40" hidden="1" spans="2:4">
+    <row r="515" ht="37.5" hidden="1" spans="2:4">
       <c r="B515" s="1" t="s">
         <v>1670</v>
       </c>
@@ -34645,7 +34653,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="516" ht="40" hidden="1" spans="2:4">
+    <row r="516" ht="37.5" hidden="1" spans="2:4">
       <c r="B516" s="1" t="s">
         <v>1673</v>
       </c>
@@ -34656,7 +34664,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="517" ht="40" hidden="1" spans="2:4">
+    <row r="517" ht="37.5" hidden="1" spans="2:4">
       <c r="B517" s="1" t="s">
         <v>1676</v>
       </c>
@@ -34667,7 +34675,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="518" ht="40" hidden="1" spans="1:4">
+    <row r="518" ht="37.5" hidden="1" spans="1:4">
       <c r="A518" s="1">
         <v>0</v>
       </c>
@@ -34681,7 +34689,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="519" ht="40" hidden="1" spans="1:4">
+    <row r="519" ht="37.5" hidden="1" spans="1:4">
       <c r="A519" s="1">
         <v>0</v>
       </c>
@@ -34695,7 +34703,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="520" ht="60" hidden="1" spans="1:5">
+    <row r="520" ht="56.25" hidden="1" spans="1:5">
       <c r="A520" s="1">
         <v>0</v>
       </c>
@@ -34712,7 +34720,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="521" ht="44" hidden="1" spans="2:5">
+    <row r="521" ht="37.5" hidden="1" spans="2:5">
       <c r="B521" s="1" t="s">
         <v>1689</v>
       </c>
@@ -34726,7 +34734,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="522" ht="40" hidden="1" spans="2:4">
+    <row r="522" ht="37.5" hidden="1" spans="2:4">
       <c r="B522" s="1" t="s">
         <v>1693</v>
       </c>
@@ -34737,7 +34745,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="523" ht="24" hidden="1" spans="2:4">
+    <row r="523" hidden="1" spans="2:4">
       <c r="B523" s="1" t="s">
         <v>1696</v>
       </c>
@@ -34748,7 +34756,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="524" ht="40" hidden="1" spans="2:4">
+    <row r="524" ht="37.5" hidden="1" spans="2:4">
       <c r="B524" s="1" t="s">
         <v>1699</v>
       </c>
@@ -34770,7 +34778,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="526" ht="40" hidden="1" spans="1:4">
+    <row r="526" ht="37.5" hidden="1" spans="1:4">
       <c r="A526" s="1">
         <v>0</v>
       </c>
@@ -34784,7 +34792,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="527" ht="24" hidden="1" spans="1:4">
+    <row r="527" hidden="1" spans="1:4">
       <c r="A527" s="1">
         <v>0</v>
       </c>
@@ -34826,7 +34834,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="530" ht="40" hidden="1" spans="2:4">
+    <row r="530" ht="37.5" hidden="1" spans="2:4">
       <c r="B530" s="1" t="s">
         <v>1717</v>
       </c>
@@ -34837,7 +34845,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="531" ht="40" hidden="1" spans="1:4">
+    <row r="531" ht="37.5" hidden="1" spans="1:4">
       <c r="A531" s="1">
         <v>0</v>
       </c>
@@ -34851,7 +34859,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="532" ht="40" hidden="1" spans="1:4">
+    <row r="532" ht="37.5" hidden="1" spans="1:4">
       <c r="A532" s="1">
         <v>0</v>
       </c>
@@ -34865,7 +34873,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="533" ht="40" hidden="1" spans="2:4">
+    <row r="533" ht="37.5" hidden="1" spans="2:4">
       <c r="B533" s="1" t="s">
         <v>1726</v>
       </c>
@@ -34876,7 +34884,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="534" ht="80" hidden="1" spans="1:5">
+    <row r="534" ht="75" hidden="1" spans="1:5">
       <c r="A534" s="1">
         <v>0</v>
       </c>
@@ -34904,7 +34912,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="536" ht="40" hidden="1" spans="2:5">
+    <row r="536" ht="37.5" hidden="1" spans="2:5">
       <c r="B536" s="1" t="s">
         <v>1736</v>
       </c>
@@ -34918,7 +34926,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="537" ht="24" hidden="1" spans="1:4">
+    <row r="537" hidden="1" spans="1:4">
       <c r="A537" s="1">
         <v>0</v>
       </c>
@@ -34943,7 +34951,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="539" ht="24" hidden="1" spans="1:4">
+    <row r="539" hidden="1" spans="1:4">
       <c r="A539" s="1">
         <v>0</v>
       </c>
@@ -35013,7 +35021,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="544" ht="40" hidden="1" spans="1:4">
+    <row r="544" ht="37.5" hidden="1" spans="1:4">
       <c r="A544" s="1">
         <v>0</v>
       </c>
@@ -35027,7 +35035,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="545" ht="23" hidden="1" spans="2:4">
+    <row r="545" hidden="1" spans="2:4">
       <c r="B545" s="1" t="s">
         <v>1766</v>
       </c>
@@ -35038,7 +35046,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="546" ht="40" hidden="1" spans="1:5">
+    <row r="546" hidden="1" spans="1:5">
       <c r="A546" s="1">
         <v>0</v>
       </c>
@@ -35069,7 +35077,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="548" ht="40" hidden="1" spans="1:5">
+    <row r="548" ht="37.5" hidden="1" spans="1:5">
       <c r="A548" s="1">
         <v>0</v>
       </c>
@@ -35086,7 +35094,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="549" ht="24" hidden="1" spans="2:4">
+    <row r="549" hidden="1" spans="2:4">
       <c r="B549" s="1" t="s">
         <v>1781</v>
       </c>
@@ -35097,7 +35105,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="550" ht="40" hidden="1" spans="1:4">
+    <row r="550" ht="37.5" hidden="1" spans="1:4">
       <c r="A550" s="1">
         <v>0</v>
       </c>
@@ -35125,7 +35133,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="552" ht="40" hidden="1" spans="2:4">
+    <row r="552" ht="37.5" hidden="1" spans="2:4">
       <c r="B552" s="1" t="s">
         <v>1790</v>
       </c>
@@ -35136,7 +35144,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="553" ht="40" hidden="1" spans="1:4">
+    <row r="553" ht="37.5" hidden="1" spans="1:4">
       <c r="A553" s="1">
         <v>0</v>
       </c>
@@ -35164,7 +35172,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="555" ht="24" hidden="1" spans="2:4">
+    <row r="555" hidden="1" spans="2:4">
       <c r="B555" s="1" t="s">
         <v>1799</v>
       </c>
@@ -35186,7 +35194,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="557" ht="24" hidden="1" spans="2:4">
+    <row r="557" hidden="1" spans="2:4">
       <c r="B557" s="1" t="s">
         <v>1805</v>
       </c>
@@ -35197,7 +35205,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="558" ht="40" hidden="1" spans="2:4">
+    <row r="558" ht="37.5" hidden="1" spans="2:4">
       <c r="B558" s="1" t="s">
         <v>1808</v>
       </c>
@@ -35208,7 +35216,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="559" ht="24" hidden="1" spans="2:5">
+    <row r="559" hidden="1" spans="2:5">
       <c r="B559" s="1" t="s">
         <v>1811</v>
       </c>
@@ -35222,7 +35230,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="560" ht="24" hidden="1" spans="2:4">
+    <row r="560" hidden="1" spans="2:4">
       <c r="B560" s="1" t="s">
         <v>1815</v>
       </c>
@@ -35275,7 +35283,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="564" ht="40" hidden="1" spans="2:4">
+    <row r="564" ht="37.5" hidden="1" spans="2:4">
       <c r="B564" s="1" t="s">
         <v>1829</v>
       </c>
@@ -35286,7 +35294,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="565" ht="24" hidden="1" spans="1:4">
+    <row r="565" hidden="1" spans="1:4">
       <c r="A565" s="1">
         <v>0</v>
       </c>
@@ -35300,7 +35308,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="566" ht="100" hidden="1" spans="2:5">
+    <row r="566" ht="75" hidden="1" spans="2:5">
       <c r="B566" s="1" t="s">
         <v>1835</v>
       </c>
@@ -35362,7 +35370,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="570" ht="40" hidden="1" spans="1:4">
+    <row r="570" ht="37.5" hidden="1" spans="1:4">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -35376,9 +35384,9 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="571" ht="24" spans="1:4">
+    <row r="571" hidden="1" spans="1:4">
       <c r="A571" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>1853</v>
@@ -35390,7 +35398,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="572" ht="23" hidden="1" spans="1:4">
+    <row r="572" hidden="1" spans="1:4">
       <c r="A572" s="1">
         <v>0</v>
       </c>
@@ -35418,7 +35426,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="574" ht="23" hidden="1" spans="2:4">
+    <row r="574" hidden="1" spans="2:4">
       <c r="B574" s="1" t="s">
         <v>1863</v>
       </c>
@@ -35429,7 +35437,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="575" ht="44" hidden="1" spans="2:4">
+    <row r="575" ht="37.5" hidden="1" spans="2:4">
       <c r="B575" s="1" t="s">
         <v>1866</v>
       </c>
@@ -35440,7 +35448,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="576" ht="24" hidden="1" spans="2:4">
+    <row r="576" hidden="1" spans="2:4">
       <c r="B576" s="1" t="s">
         <v>1869</v>
       </c>
@@ -35451,7 +35459,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="577" ht="24" hidden="1" spans="2:4">
+    <row r="577" hidden="1" spans="2:4">
       <c r="B577" s="1" t="s">
         <v>1872</v>
       </c>
@@ -35473,7 +35481,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="579" ht="24" hidden="1" spans="1:4">
+    <row r="579" hidden="1" spans="1:4">
       <c r="A579" s="1">
         <v>0</v>
       </c>
@@ -35487,7 +35495,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="580" ht="40" hidden="1" spans="2:4">
+    <row r="580" ht="37.5" hidden="1" spans="2:4">
       <c r="B580" s="1" t="s">
         <v>1881</v>
       </c>
@@ -35512,7 +35520,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="582" ht="24" hidden="1" spans="1:4">
+    <row r="582" hidden="1" spans="1:4">
       <c r="A582" s="1">
         <v>0</v>
       </c>
@@ -35593,7 +35601,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="588" ht="24" hidden="1" spans="2:4">
+    <row r="588" hidden="1" spans="2:4">
       <c r="B588" s="1" t="s">
         <v>1906</v>
       </c>
@@ -35615,7 +35623,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="590" ht="40" hidden="1" spans="2:4">
+    <row r="590" ht="37.5" hidden="1" spans="2:4">
       <c r="B590" s="1" t="s">
         <v>1912</v>
       </c>
@@ -35651,7 +35659,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="593" ht="40" hidden="1" spans="1:5">
+    <row r="593" ht="37.5" hidden="1" spans="1:5">
       <c r="A593" s="1">
         <v>0</v>
       </c>
@@ -35721,7 +35729,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="598" ht="40" hidden="1" spans="1:5">
+    <row r="598" ht="37.5" hidden="1" spans="1:5">
       <c r="A598" s="1">
         <v>0</v>
       </c>
@@ -35752,7 +35760,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="600" ht="24" hidden="1" spans="1:4">
+    <row r="600" hidden="1" spans="1:4">
       <c r="A600" s="1">
         <v>0</v>
       </c>
@@ -35766,7 +35774,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="601" ht="24" hidden="1" spans="2:4">
+    <row r="601" hidden="1" spans="2:4">
       <c r="B601" s="1" t="s">
         <v>1948</v>
       </c>
@@ -35805,7 +35813,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="604" ht="24" hidden="1" spans="2:5">
+    <row r="604" hidden="1" spans="2:5">
       <c r="B604" s="1" t="s">
         <v>1958</v>
       </c>
@@ -35833,7 +35841,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="606" ht="24" hidden="1" spans="2:4">
+    <row r="606" hidden="1" spans="2:4">
       <c r="B606" s="1" t="s">
         <v>1965</v>
       </c>
@@ -35844,7 +35852,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="607" ht="24" hidden="1" spans="1:5">
+    <row r="607" hidden="1" spans="1:5">
       <c r="A607" s="1">
         <v>0</v>
       </c>
@@ -35861,7 +35869,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="608" ht="24" hidden="1" spans="2:5">
+    <row r="608" hidden="1" spans="2:5">
       <c r="B608" s="1" t="s">
         <v>1972</v>
       </c>
@@ -35875,7 +35883,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="609" ht="40" hidden="1" spans="1:5">
+    <row r="609" ht="37.5" hidden="1" spans="1:5">
       <c r="A609" s="1">
         <v>0</v>
       </c>
@@ -35906,7 +35914,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="611" ht="24" hidden="1" spans="1:5">
+    <row r="611" hidden="1" spans="1:5">
       <c r="A611" s="1">
         <v>0</v>
       </c>
@@ -35965,7 +35973,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="615" ht="40" hidden="1" spans="2:4">
+    <row r="615" ht="37.5" hidden="1" spans="2:4">
       <c r="B615" s="1" t="s">
         <v>1996</v>
       </c>
@@ -36001,7 +36009,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="618" ht="24" hidden="1" spans="2:4">
+    <row r="618" hidden="1" spans="2:4">
       <c r="B618" s="1" t="s">
         <v>2005</v>
       </c>
@@ -36034,7 +36042,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="621" ht="24" hidden="1" spans="1:4">
+    <row r="621" hidden="1" spans="1:4">
       <c r="A621" s="1">
         <v>0</v>
       </c>
@@ -36065,7 +36073,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="623" ht="40" hidden="1" spans="1:4">
+    <row r="623" ht="37.5" hidden="1" spans="1:4">
       <c r="A623" s="1">
         <v>0</v>
       </c>
@@ -36104,7 +36112,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="626" ht="40" hidden="1" spans="2:4">
+    <row r="626" ht="37.5" hidden="1" spans="2:4">
       <c r="B626" s="1" t="s">
         <v>2030</v>
       </c>
@@ -36140,7 +36148,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="629" ht="23" hidden="1" spans="2:4">
+    <row r="629" hidden="1" spans="2:4">
       <c r="B629" s="1" t="s">
         <v>2039</v>
       </c>
@@ -36151,7 +36159,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="630" ht="40" hidden="1" spans="1:4">
+    <row r="630" ht="37.5" hidden="1" spans="1:4">
       <c r="A630" s="1">
         <v>0</v>
       </c>
@@ -36165,7 +36173,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="631" ht="24" hidden="1" spans="2:4">
+    <row r="631" hidden="1" spans="2:4">
       <c r="B631" s="1" t="s">
         <v>2045</v>
       </c>
@@ -36176,7 +36184,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="632" ht="24" hidden="1" spans="2:4">
+    <row r="632" hidden="1" spans="2:4">
       <c r="B632" s="1" t="s">
         <v>2048</v>
       </c>
@@ -36187,7 +36195,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="633" ht="40" hidden="1" spans="1:4">
+    <row r="633" ht="37.5" hidden="1" spans="1:4">
       <c r="A633" s="1">
         <v>0</v>
       </c>
@@ -36307,7 +36315,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="642" ht="40" hidden="1" spans="1:4">
+    <row r="642" ht="37.5" hidden="1" spans="1:4">
       <c r="A642" s="1">
         <v>0</v>
       </c>
@@ -36321,7 +36329,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="643" ht="40" hidden="1" spans="1:4">
+    <row r="643" ht="37.5" hidden="1" spans="1:4">
       <c r="A643" s="1">
         <v>0</v>
       </c>
@@ -36397,7 +36405,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="648" ht="24" hidden="1" spans="2:4">
+    <row r="648" hidden="1" spans="2:4">
       <c r="B648" s="1" t="s">
         <v>2099</v>
       </c>
@@ -36408,7 +36416,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="649" ht="40" hidden="1" spans="1:5">
+    <row r="649" ht="37.5" hidden="1" spans="1:5">
       <c r="A649" s="1">
         <v>0</v>
       </c>
@@ -36425,7 +36433,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="650" ht="40" hidden="1" spans="2:4">
+    <row r="650" ht="37.5" hidden="1" spans="2:4">
       <c r="B650" s="1" t="s">
         <v>2106</v>
       </c>
@@ -36450,7 +36458,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="652" ht="24" hidden="1" spans="1:4">
+    <row r="652" hidden="1" spans="1:4">
       <c r="A652" s="1">
         <v>0</v>
       </c>
@@ -36464,7 +36472,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="653" ht="60" hidden="1" spans="1:5">
+    <row r="653" ht="37.5" hidden="1" spans="1:5">
       <c r="A653" s="1">
         <v>0</v>
       </c>
@@ -36481,7 +36489,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="654" ht="23" hidden="1" spans="1:4">
+    <row r="654" hidden="1" spans="1:4">
       <c r="A654" s="1">
         <v>0</v>
       </c>
@@ -36495,7 +36503,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="655" ht="40" hidden="1" spans="2:4">
+    <row r="655" ht="37.5" hidden="1" spans="2:4">
       <c r="B655" s="1" t="s">
         <v>2122</v>
       </c>
@@ -36523,7 +36531,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="657" ht="40" hidden="1" spans="2:5">
+    <row r="657" ht="37.5" hidden="1" spans="2:5">
       <c r="B657" s="1" t="s">
         <v>2128</v>
       </c>
@@ -36551,7 +36559,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="659" ht="24" hidden="1" spans="2:5">
+    <row r="659" hidden="1" spans="2:5">
       <c r="B659" s="1" t="s">
         <v>2134</v>
       </c>
@@ -36565,7 +36573,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="660" ht="24" hidden="1" spans="2:4">
+    <row r="660" hidden="1" spans="2:4">
       <c r="B660" s="1" t="s">
         <v>2138</v>
       </c>
@@ -36674,7 +36682,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="668" ht="24" hidden="1" spans="2:4">
+    <row r="668" hidden="1" spans="2:4">
       <c r="B668" s="1" t="s">
         <v>2163</v>
       </c>
@@ -36685,7 +36693,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="669" ht="40" hidden="1" spans="1:4">
+    <row r="669" ht="37.5" hidden="1" spans="1:4">
       <c r="A669" s="1">
         <v>0</v>
       </c>
@@ -36790,7 +36798,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="678" ht="40" hidden="1" spans="2:5">
+    <row r="678" hidden="1" spans="2:5">
       <c r="B678" s="1" t="s">
         <v>2193</v>
       </c>
@@ -36832,7 +36840,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="681" ht="40" hidden="1" spans="2:4">
+    <row r="681" ht="37.5" hidden="1" spans="2:4">
       <c r="B681" s="1" t="s">
         <v>2202</v>
       </c>
@@ -36843,7 +36851,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="682" ht="23" hidden="1" spans="1:4">
+    <row r="682" hidden="1" spans="1:4">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -36874,7 +36882,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="684" ht="40" hidden="1" spans="1:5">
+    <row r="684" ht="37.5" hidden="1" spans="1:5">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -36905,7 +36913,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="686" ht="140" hidden="1" spans="1:5">
+    <row r="686" ht="112.5" hidden="1" spans="1:5">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -36936,7 +36944,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="688" ht="24" hidden="1" spans="2:4">
+    <row r="688" hidden="1" spans="2:4">
       <c r="B688" s="1" t="s">
         <v>2228</v>
       </c>
@@ -36961,7 +36969,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="690" ht="40" hidden="1" spans="2:4">
+    <row r="690" ht="37.5" hidden="1" spans="2:4">
       <c r="B690" s="1" t="s">
         <v>2234</v>
       </c>
@@ -36994,7 +37002,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="693" ht="23" hidden="1" spans="2:4">
+    <row r="693" hidden="1" spans="2:4">
       <c r="B693" s="1" t="s">
         <v>2243</v>
       </c>
@@ -37030,7 +37038,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="696" ht="23" hidden="1" spans="2:4">
+    <row r="696" hidden="1" spans="2:4">
       <c r="B696" s="1" t="s">
         <v>2252</v>
       </c>
@@ -37041,7 +37049,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="697" ht="24" hidden="1" spans="2:4">
+    <row r="697" hidden="1" spans="2:4">
       <c r="B697" s="1" t="s">
         <v>2255</v>
       </c>
@@ -37077,7 +37085,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="700" ht="40" hidden="1" spans="2:4">
+    <row r="700" ht="37.5" hidden="1" spans="2:4">
       <c r="B700" s="1" t="s">
         <v>2264</v>
       </c>
@@ -37119,7 +37127,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="703" ht="80" hidden="1" spans="2:5">
+    <row r="703" ht="56.25" hidden="1" spans="2:5">
       <c r="B703" s="1" t="s">
         <v>2274</v>
       </c>
@@ -37133,7 +37141,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="704" ht="40" hidden="1" spans="1:4">
+    <row r="704" ht="37.5" hidden="1" spans="1:4">
       <c r="A704" s="1">
         <v>0</v>
       </c>
@@ -37147,7 +37155,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="705" ht="24" hidden="1" spans="2:4">
+    <row r="705" hidden="1" spans="2:4">
       <c r="B705" s="1" t="s">
         <v>2281</v>
       </c>
@@ -37194,7 +37202,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="709" ht="24" hidden="1" spans="2:4">
+    <row r="709" hidden="1" spans="2:4">
       <c r="B709" s="1" t="s">
         <v>2294</v>
       </c>
@@ -37258,7 +37266,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="714" ht="24" hidden="1" spans="2:4">
+    <row r="714" hidden="1" spans="2:4">
       <c r="B714" s="1" t="s">
         <v>2310</v>
       </c>
@@ -37269,7 +37277,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="715" ht="40" hidden="1" spans="1:4">
+    <row r="715" ht="37.5" hidden="1" spans="1:4">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -37283,7 +37291,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="716" ht="40" hidden="1" spans="1:4">
+    <row r="716" ht="37.5" hidden="1" spans="1:4">
       <c r="A716" s="1">
         <v>0</v>
       </c>
@@ -37353,7 +37361,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="721" ht="40" hidden="1" spans="1:5">
+    <row r="721" ht="37.5" hidden="1" spans="1:5">
       <c r="A721" s="1">
         <v>0</v>
       </c>
@@ -37370,7 +37378,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="722" ht="23" hidden="1" spans="1:4">
+    <row r="722" hidden="1" spans="1:4">
       <c r="A722" s="1">
         <v>0</v>
       </c>
@@ -37470,7 +37478,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="730" ht="40" hidden="1" spans="2:4">
+    <row r="730" ht="37.5" hidden="1" spans="2:4">
       <c r="B730" s="1" t="s">
         <v>2360</v>
       </c>
@@ -37540,7 +37548,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="735" ht="24" hidden="1" spans="2:4">
+    <row r="735" hidden="1" spans="2:4">
       <c r="B735" s="1" t="s">
         <v>2378</v>
       </c>
@@ -37551,7 +37559,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="736" ht="24" hidden="1" spans="2:4">
+    <row r="736" hidden="1" spans="2:4">
       <c r="B736" s="1" t="s">
         <v>2381</v>
       </c>
@@ -37573,7 +37581,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="738" ht="40" hidden="1" spans="1:4">
+    <row r="738" ht="37.5" hidden="1" spans="1:4">
       <c r="A738" s="1">
         <v>0</v>
       </c>
@@ -37601,7 +37609,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="740" ht="40" hidden="1" spans="2:5">
+    <row r="740" ht="37.5" hidden="1" spans="2:5">
       <c r="B740" s="1" t="s">
         <v>2393</v>
       </c>
@@ -37615,7 +37623,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="741" ht="40" hidden="1" spans="1:4">
+    <row r="741" ht="37.5" hidden="1" spans="1:4">
       <c r="A741" s="1">
         <v>0</v>
       </c>
@@ -37643,7 +37651,7 @@
         <v>2402</v>
       </c>
     </row>
-    <row r="743" ht="23" hidden="1" spans="2:4">
+    <row r="743" hidden="1" spans="2:4">
       <c r="B743" s="1" t="s">
         <v>2403</v>
       </c>
@@ -37709,7 +37717,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="749" ht="24" hidden="1" spans="2:4">
+    <row r="749" hidden="1" spans="2:4">
       <c r="B749" s="1" t="s">
         <v>2421</v>
       </c>
@@ -37765,7 +37773,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="753" ht="24" hidden="1" spans="2:4">
+    <row r="753" hidden="1" spans="2:4">
       <c r="B753" s="1" t="s">
         <v>2434</v>
       </c>
@@ -37801,7 +37809,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="756" ht="24" hidden="1" spans="2:4">
+    <row r="756" hidden="1" spans="2:4">
       <c r="B756" s="1" t="s">
         <v>2443</v>
       </c>
@@ -37812,7 +37820,7 @@
         <v>2445</v>
       </c>
     </row>
-    <row r="757" ht="40" hidden="1" spans="1:4">
+    <row r="757" ht="37.5" hidden="1" spans="1:4">
       <c r="A757" s="1">
         <v>0</v>
       </c>
@@ -37868,7 +37876,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="761" ht="24" hidden="1" spans="2:4">
+    <row r="761" hidden="1" spans="2:4">
       <c r="B761" s="1" t="s">
         <v>2459</v>
       </c>
@@ -37879,7 +37887,7 @@
         <v>2461</v>
       </c>
     </row>
-    <row r="762" ht="24" hidden="1" spans="2:4">
+    <row r="762" hidden="1" spans="2:4">
       <c r="B762" s="1" t="s">
         <v>2462</v>
       </c>
@@ -37901,7 +37909,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="764" ht="24" hidden="1" spans="2:4">
+    <row r="764" hidden="1" spans="2:4">
       <c r="B764" s="1" t="s">
         <v>2468</v>
       </c>
@@ -37926,7 +37934,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="766" ht="24" hidden="1" spans="2:4">
+    <row r="766" hidden="1" spans="2:4">
       <c r="B766" s="1" t="s">
         <v>2474</v>
       </c>
@@ -37937,7 +37945,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="767" ht="24" hidden="1" spans="1:4">
+    <row r="767" hidden="1" spans="1:4">
       <c r="A767" s="1">
         <v>0</v>
       </c>
@@ -37962,7 +37970,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="769" ht="24" hidden="1" spans="2:5">
+    <row r="769" hidden="1" spans="2:5">
       <c r="B769" s="1" t="s">
         <v>2483</v>
       </c>
@@ -37990,7 +37998,7 @@
         <v>2489</v>
       </c>
     </row>
-    <row r="771" ht="24" hidden="1" spans="1:4">
+    <row r="771" hidden="1" spans="1:4">
       <c r="A771" s="1">
         <v>0</v>
       </c>
@@ -38004,7 +38012,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="772" ht="40" hidden="1" spans="1:4">
+    <row r="772" ht="37.5" hidden="1" spans="1:4">
       <c r="A772" s="1">
         <v>0</v>
       </c>
@@ -38018,7 +38026,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="773" ht="24" hidden="1" spans="2:4">
+    <row r="773" hidden="1" spans="2:4">
       <c r="B773" s="1" t="s">
         <v>2495</v>
       </c>
@@ -38029,7 +38037,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="774" ht="24" hidden="1" spans="2:4">
+    <row r="774" hidden="1" spans="2:4">
       <c r="B774" s="1" t="s">
         <v>2498</v>
       </c>
@@ -38040,7 +38048,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="775" ht="40" hidden="1" spans="1:4">
+    <row r="775" ht="37.5" hidden="1" spans="1:4">
       <c r="A775" s="1">
         <v>0</v>
       </c>
@@ -38082,7 +38090,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="778" ht="40" hidden="1" spans="1:5">
+    <row r="778" ht="37.5" hidden="1" spans="1:5">
       <c r="A778" s="1">
         <v>0</v>
       </c>
@@ -38196,7 +38204,7 @@
         <v>2538</v>
       </c>
     </row>
-    <row r="787" ht="140" hidden="1" spans="1:5">
+    <row r="787" ht="131.25" hidden="1" spans="1:5">
       <c r="A787" s="1">
         <v>0</v>
       </c>
@@ -38213,7 +38221,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="788" ht="24" hidden="1" spans="1:4">
+    <row r="788" hidden="1" spans="1:4">
       <c r="A788" s="1">
         <v>0</v>
       </c>
@@ -38249,7 +38257,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="791" ht="40" hidden="1" spans="2:5">
+    <row r="791" ht="37.5" hidden="1" spans="2:5">
       <c r="B791" s="1" t="s">
         <v>2552</v>
       </c>
@@ -38280,7 +38288,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="793" ht="23" hidden="1" spans="1:4">
+    <row r="793" hidden="1" spans="1:4">
       <c r="A793" s="1">
         <v>0</v>
       </c>
@@ -38344,7 +38352,7 @@
         <v>2574</v>
       </c>
     </row>
-    <row r="798" ht="40" hidden="1" spans="2:4">
+    <row r="798" ht="37.5" hidden="1" spans="2:4">
       <c r="B798" s="1" t="s">
         <v>2575</v>
       </c>
@@ -38366,7 +38374,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="800" ht="140" hidden="1" spans="2:5">
+    <row r="800" ht="112.5" hidden="1" spans="2:5">
       <c r="B800" s="1" t="s">
         <v>2581</v>
       </c>
@@ -38391,7 +38399,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="802" ht="24" hidden="1" spans="2:4">
+    <row r="802" hidden="1" spans="2:4">
       <c r="B802" s="1" t="s">
         <v>2588</v>
       </c>
@@ -38402,7 +38410,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="803" ht="23" hidden="1" spans="1:4">
+    <row r="803" hidden="1" spans="1:4">
       <c r="A803" s="1">
         <v>0</v>
       </c>
@@ -38438,7 +38446,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="806" ht="24" hidden="1" spans="2:4">
+    <row r="806" hidden="1" spans="2:4">
       <c r="B806" s="1" t="s">
         <v>2600</v>
       </c>
@@ -38477,7 +38485,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="809" ht="40" hidden="1" spans="1:4">
+    <row r="809" ht="37.5" hidden="1" spans="1:4">
       <c r="A809" s="1">
         <v>0</v>
       </c>
@@ -38516,7 +38524,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="812" ht="24" hidden="1" spans="2:4">
+    <row r="812" hidden="1" spans="2:4">
       <c r="B812" s="1" t="s">
         <v>2619</v>
       </c>
@@ -38527,7 +38535,7 @@
         <v>2621</v>
       </c>
     </row>
-    <row r="813" ht="24" hidden="1" spans="1:4">
+    <row r="813" hidden="1" spans="1:4">
       <c r="A813" s="1">
         <v>0</v>
       </c>
@@ -38541,7 +38549,7 @@
         <v>2624</v>
       </c>
     </row>
-    <row r="814" ht="40" hidden="1" spans="1:5">
+    <row r="814" ht="37.5" hidden="1" spans="1:5">
       <c r="A814" s="1">
         <v>0</v>
       </c>
@@ -38608,7 +38616,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="819" ht="40" hidden="1" spans="2:4">
+    <row r="819" ht="37.5" hidden="1" spans="2:4">
       <c r="B819" s="1" t="s">
         <v>2641</v>
       </c>
@@ -38661,7 +38669,7 @@
         <v>2653</v>
       </c>
     </row>
-    <row r="823" ht="40" hidden="1" spans="1:5">
+    <row r="823" ht="37.5" hidden="1" spans="1:5">
       <c r="A823" s="1">
         <v>0</v>
       </c>
@@ -38689,7 +38697,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="825" ht="23" hidden="1" spans="1:4">
+    <row r="825" hidden="1" spans="1:4">
       <c r="A825" s="1">
         <v>0</v>
       </c>
@@ -38703,7 +38711,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="826" ht="24" hidden="1" spans="2:4">
+    <row r="826" hidden="1" spans="2:4">
       <c r="B826" s="1" t="s">
         <v>2664</v>
       </c>
@@ -38725,7 +38733,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="828" ht="23" hidden="1" spans="1:4">
+    <row r="828" hidden="1" spans="1:4">
       <c r="A828" s="1">
         <v>0</v>
       </c>
@@ -38739,7 +38747,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="829" ht="160" hidden="1" spans="2:5">
+    <row r="829" ht="150" hidden="1" spans="2:5">
       <c r="B829" s="1" t="s">
         <v>2673</v>
       </c>
@@ -38781,7 +38789,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="832" ht="24" hidden="1" spans="1:4">
+    <row r="832" hidden="1" spans="1:4">
       <c r="A832" s="1">
         <v>0</v>
       </c>
@@ -38795,9 +38803,9 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="833" ht="120" spans="1:5">
+    <row r="833" ht="112.5" hidden="1" spans="1:5">
       <c r="A833" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>2687</v>
@@ -38834,7 +38842,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="836" ht="40" hidden="1" spans="1:5">
+    <row r="836" ht="37.5" hidden="1" spans="1:5">
       <c r="A836" s="1">
         <v>0</v>
       </c>
@@ -38876,7 +38884,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="839" ht="24" hidden="1" spans="2:4">
+    <row r="839" hidden="1" spans="2:4">
       <c r="B839" s="1" t="s">
         <v>2706</v>
       </c>
@@ -38948,7 +38956,7 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="845" ht="24" hidden="1" spans="2:4">
+    <row r="845" hidden="1" spans="2:4">
       <c r="B845" s="1" t="s">
         <v>2724</v>
       </c>
@@ -38976,7 +38984,7 @@
         <v>2730</v>
       </c>
     </row>
-    <row r="847" ht="40" hidden="1" spans="1:4">
+    <row r="847" ht="37.5" hidden="1" spans="1:4">
       <c r="A847" s="1">
         <v>0</v>
       </c>
@@ -39068,7 +39076,7 @@
         <v>2752</v>
       </c>
     </row>
-    <row r="854" ht="24" hidden="1" spans="2:4">
+    <row r="854" ht="37.5" hidden="1" spans="2:4">
       <c r="B854" s="1" t="s">
         <v>2753</v>
       </c>
@@ -39112,7 +39120,7 @@
         <v>2764</v>
       </c>
     </row>
-    <row r="858" ht="23" hidden="1" spans="1:4">
+    <row r="858" hidden="1" spans="1:4">
       <c r="A858" s="1">
         <v>0</v>
       </c>
@@ -39162,7 +39170,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="862" ht="24" hidden="1" spans="2:5">
+    <row r="862" hidden="1" spans="2:5">
       <c r="B862" s="1" t="s">
         <v>2777</v>
       </c>
@@ -39176,7 +39184,7 @@
         <v>2780</v>
       </c>
     </row>
-    <row r="863" ht="40" hidden="1" spans="2:4">
+    <row r="863" ht="37.5" hidden="1" spans="2:4">
       <c r="B863" s="1" t="s">
         <v>2781</v>
       </c>
@@ -39187,7 +39195,7 @@
         <v>2783</v>
       </c>
     </row>
-    <row r="864" ht="40" hidden="1" spans="2:4">
+    <row r="864" ht="37.5" hidden="1" spans="2:4">
       <c r="B864" s="1" t="s">
         <v>2784</v>
       </c>
@@ -39198,7 +39206,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="865" ht="24" hidden="1" spans="2:4">
+    <row r="865" hidden="1" spans="2:4">
       <c r="B865" s="1" t="s">
         <v>2787</v>
       </c>
@@ -39242,7 +39250,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="869" ht="24" hidden="1" spans="1:4">
+    <row r="869" hidden="1" spans="1:4">
       <c r="A869" s="1">
         <v>0</v>
       </c>
@@ -39273,7 +39281,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="871" ht="24" hidden="1" spans="1:4">
+    <row r="871" hidden="1" spans="1:4">
       <c r="A871" s="1">
         <v>0</v>
       </c>
@@ -39301,7 +39309,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="873" ht="24" hidden="1" spans="2:4">
+    <row r="873" hidden="1" spans="2:4">
       <c r="B873" s="1" t="s">
         <v>2812</v>
       </c>
@@ -39323,7 +39331,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="875" ht="24" hidden="1" spans="2:4">
+    <row r="875" hidden="1" spans="2:4">
       <c r="B875" s="1" t="s">
         <v>2818</v>
       </c>
@@ -39376,7 +39384,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="879" ht="40" hidden="1" spans="1:5">
+    <row r="879" ht="37.5" hidden="1" spans="1:5">
       <c r="A879" s="1">
         <v>0</v>
       </c>
@@ -39393,7 +39401,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="880" ht="24" hidden="1" spans="2:4">
+    <row r="880" hidden="1" spans="2:4">
       <c r="B880" s="1" t="s">
         <v>2835</v>
       </c>
@@ -39418,7 +39426,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="882" ht="23" hidden="1" spans="2:4">
+    <row r="882" hidden="1" spans="2:4">
       <c r="B882" s="1" t="s">
         <v>2841</v>
       </c>
@@ -39485,7 +39493,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="887" ht="23" hidden="1" spans="2:4">
+    <row r="887" hidden="1" spans="2:4">
       <c r="B887" s="1" t="s">
         <v>2857</v>
       </c>
@@ -39535,7 +39543,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="891" ht="96" hidden="1" spans="2:5">
+    <row r="891" ht="75" hidden="1" spans="2:5">
       <c r="B891" s="1" t="s">
         <v>2869</v>
       </c>
@@ -39560,7 +39568,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="893" ht="24" hidden="1" spans="2:4">
+    <row r="893" hidden="1" spans="2:4">
       <c r="B893" s="1" t="s">
         <v>2876</v>
       </c>
@@ -39585,7 +39593,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="895" ht="40" hidden="1" spans="2:4">
+    <row r="895" ht="37.5" hidden="1" spans="2:4">
       <c r="B895" s="1" t="s">
         <v>2882</v>
       </c>
@@ -39596,9 +39604,9 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="896" spans="1:4">
+    <row r="896" hidden="1" spans="1:4">
       <c r="A896" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B896" s="1" t="s">
         <v>2885</v>
@@ -39665,7 +39673,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="902" ht="24" hidden="1" spans="2:4">
+    <row r="902" hidden="1" spans="2:4">
       <c r="B902" s="1" t="s">
         <v>2903</v>
       </c>
@@ -39676,7 +39684,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="903" ht="24" hidden="1" spans="2:4">
+    <row r="903" hidden="1" spans="2:4">
       <c r="B903" s="1" t="s">
         <v>2906</v>
       </c>
@@ -39698,7 +39706,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="905" ht="40" hidden="1" spans="1:4">
+    <row r="905" ht="37.5" hidden="1" spans="1:4">
       <c r="A905" s="1">
         <v>0</v>
       </c>
@@ -39773,7 +39781,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="911" ht="24" hidden="1" spans="1:4">
+    <row r="911" hidden="1" spans="1:4">
       <c r="A911" s="1">
         <v>0</v>
       </c>
@@ -39787,7 +39795,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="912" ht="100" hidden="1" spans="1:5">
+    <row r="912" ht="75" hidden="1" spans="1:5">
       <c r="A912" s="1">
         <v>0</v>
       </c>
@@ -39804,7 +39812,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="913" ht="60" hidden="1" spans="2:5">
+    <row r="913" ht="56.25" hidden="1" spans="2:5">
       <c r="B913" s="1" t="s">
         <v>2937</v>
       </c>
@@ -39818,7 +39826,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="914" ht="60" hidden="1" spans="2:5">
+    <row r="914" ht="56.25" hidden="1" spans="2:5">
       <c r="B914" s="1" t="s">
         <v>2941</v>
       </c>
@@ -39863,7 +39871,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="917" ht="24" hidden="1" spans="2:4">
+    <row r="917" hidden="1" spans="2:4">
       <c r="B917" s="1" t="s">
         <v>2952</v>
       </c>
@@ -39910,7 +39918,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="921" ht="24" hidden="1" spans="2:4">
+    <row r="921" hidden="1" spans="2:4">
       <c r="B921" s="1" t="s">
         <v>2964</v>
       </c>
@@ -39921,7 +39929,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="922" ht="44" hidden="1" spans="2:4">
+    <row r="922" hidden="1" spans="2:4">
       <c r="B922" s="1" t="s">
         <v>2967</v>
       </c>
@@ -39946,9 +39954,9 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="924" ht="116" spans="1:5">
+    <row r="924" ht="93.75" hidden="1" spans="1:5">
       <c r="A924" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B924" s="1" t="s">
         <v>2973</v>
@@ -39988,7 +39996,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="927" ht="24" hidden="1" spans="2:4">
+    <row r="927" hidden="1" spans="2:4">
       <c r="B927" s="1" t="s">
         <v>2983</v>
       </c>
@@ -40027,7 +40035,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="930" ht="24" hidden="1" spans="2:5">
+    <row r="930" hidden="1" spans="2:5">
       <c r="B930" s="1" t="s">
         <v>2992</v>
       </c>
@@ -40055,7 +40063,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="932" ht="24" hidden="1" spans="2:4">
+    <row r="932" hidden="1" spans="2:4">
       <c r="B932" s="1" t="s">
         <v>2999</v>
       </c>
@@ -40066,7 +40074,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="933" ht="40" hidden="1" spans="1:4">
+    <row r="933" ht="37.5" hidden="1" spans="1:4">
       <c r="A933" s="1">
         <v>0</v>
       </c>
@@ -40141,7 +40149,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="939" ht="40" hidden="1" spans="1:4">
+    <row r="939" ht="37.5" hidden="1" spans="1:4">
       <c r="A939" s="1">
         <v>0</v>
       </c>
@@ -40202,7 +40210,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="944" ht="24" hidden="1" spans="1:5">
+    <row r="944" hidden="1" spans="1:5">
       <c r="A944" s="1">
         <v>0</v>
       </c>
@@ -40219,7 +40227,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="945" ht="40" hidden="1" spans="1:4">
+    <row r="945" ht="37.5" hidden="1" spans="1:4">
       <c r="A945" s="1">
         <v>0</v>
       </c>
@@ -40233,7 +40241,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="946" ht="60" hidden="1" spans="1:5">
+    <row r="946" ht="56.25" hidden="1" spans="1:5">
       <c r="A946" s="1">
         <v>0</v>
       </c>
@@ -40261,7 +40269,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="948" ht="24" hidden="1" spans="2:4">
+    <row r="948" hidden="1" spans="2:4">
       <c r="B948" s="1" t="s">
         <v>3050</v>
       </c>
@@ -40272,7 +40280,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="949" ht="23" hidden="1" spans="2:4">
+    <row r="949" hidden="1" spans="2:4">
       <c r="B949" s="1" t="s">
         <v>3053</v>
       </c>
@@ -40283,7 +40291,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="950" ht="23" hidden="1" spans="2:5">
+    <row r="950" hidden="1" spans="2:5">
       <c r="B950" s="1" t="s">
         <v>3056</v>
       </c>
@@ -40308,7 +40316,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="952" ht="24" hidden="1" spans="2:4">
+    <row r="952" hidden="1" spans="2:4">
       <c r="B952" s="1" t="s">
         <v>3062</v>
       </c>
@@ -40319,9 +40327,9 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="953" ht="40" spans="1:5">
+    <row r="953" ht="37.5" hidden="1" spans="1:5">
       <c r="A953" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B953" s="1" t="s">
         <v>3065</v>
@@ -40336,7 +40344,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="954" ht="120" hidden="1" spans="2:5">
+    <row r="954" ht="112.5" hidden="1" spans="2:5">
       <c r="B954" s="1" t="s">
         <v>3069</v>
       </c>
@@ -40350,7 +40358,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="955" ht="120" hidden="1" spans="2:5">
+    <row r="955" ht="93.75" hidden="1" spans="2:5">
       <c r="B955" s="1" t="s">
         <v>3073</v>
       </c>
@@ -40364,7 +40372,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="956" ht="24" hidden="1" spans="2:4">
+    <row r="956" hidden="1" spans="2:4">
       <c r="B956" s="1" t="s">
         <v>3077</v>
       </c>
@@ -40375,7 +40383,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="957" ht="40" hidden="1" spans="2:4">
+    <row r="957" ht="37.5" hidden="1" spans="2:4">
       <c r="B957" s="1" t="s">
         <v>3080</v>
       </c>
@@ -40414,7 +40422,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="960" ht="40" hidden="1" spans="1:4">
+    <row r="960" ht="37.5" hidden="1" spans="1:4">
       <c r="A960" s="1">
         <v>0</v>
       </c>
@@ -40428,7 +40436,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="961" ht="24" hidden="1" spans="2:4">
+    <row r="961" hidden="1" spans="2:4">
       <c r="B961" s="1" t="s">
         <v>3092</v>
       </c>
@@ -40439,7 +40447,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="962" ht="24" hidden="1" spans="2:5">
+    <row r="962" hidden="1" spans="2:5">
       <c r="B962" s="1" t="s">
         <v>3095</v>
       </c>
@@ -40453,7 +40461,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="963" ht="40" hidden="1" spans="1:5">
+    <row r="963" ht="37.5" hidden="1" spans="1:5">
       <c r="A963" s="1">
         <v>0</v>
       </c>
@@ -40470,7 +40478,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="964" ht="24" hidden="1" spans="2:5">
+    <row r="964" hidden="1" spans="2:5">
       <c r="B964" s="1" t="s">
         <v>3103</v>
       </c>
@@ -40484,9 +40492,9 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="965" ht="23" spans="1:4">
+    <row r="965" hidden="1" spans="1:4">
       <c r="A965" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B965" s="1" t="s">
         <v>3107</v>
@@ -40534,7 +40542,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="969" ht="24" hidden="1" spans="2:4">
+    <row r="969" hidden="1" spans="2:4">
       <c r="B969" s="1" t="s">
         <v>3119</v>
       </c>
@@ -40562,9 +40570,9 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="971" spans="1:4">
+    <row r="971" hidden="1" spans="1:4">
       <c r="A971" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B971" s="1" t="s">
         <v>3125</v>
@@ -40609,7 +40617,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="975" ht="40" hidden="1" spans="2:4">
+    <row r="975" ht="37.5" hidden="1" spans="2:4">
       <c r="B975" s="1" t="s">
         <v>3137</v>
       </c>
@@ -40665,9 +40673,9 @@
         <v>3149</v>
       </c>
     </row>
-    <row r="979" spans="1:5">
+    <row r="979" hidden="1" spans="1:5">
       <c r="A979" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B979" s="1" t="s">
         <v>3150</v>
@@ -40699,7 +40707,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="981" ht="24" hidden="1" spans="2:4">
+    <row r="981" hidden="1" spans="2:4">
       <c r="B981" s="1" t="s">
         <v>3158</v>
       </c>
@@ -40710,7 +40718,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="982" ht="24" hidden="1" spans="2:4">
+    <row r="982" hidden="1" spans="2:4">
       <c r="B982" s="1" t="s">
         <v>3161</v>
       </c>
@@ -40771,7 +40779,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="987" ht="40" hidden="1" spans="1:4">
+    <row r="987" ht="37.5" hidden="1" spans="1:4">
       <c r="A987" s="1">
         <v>0</v>
       </c>
@@ -40796,7 +40804,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="989" ht="43" hidden="1" spans="2:4">
+    <row r="989" hidden="1" spans="2:4">
       <c r="B989" s="1" t="s">
         <v>3182</v>
       </c>
@@ -40818,7 +40826,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="991" ht="40" hidden="1" spans="2:4">
+    <row r="991" ht="37.5" hidden="1" spans="2:4">
       <c r="B991" s="1" t="s">
         <v>3188</v>
       </c>
@@ -40843,7 +40851,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="993" ht="24" hidden="1" spans="1:4">
+    <row r="993" hidden="1" spans="1:4">
       <c r="A993" s="1">
         <v>0</v>
       </c>
@@ -40857,7 +40865,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="994" ht="40" hidden="1" spans="1:5">
+    <row r="994" ht="37.5" hidden="1" spans="1:5">
       <c r="A994" s="1">
         <v>0</v>
       </c>
@@ -40874,9 +40882,9 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="995" spans="1:5">
+    <row r="995" hidden="1" spans="1:5">
       <c r="A995" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B995" s="1" t="s">
         <v>3200</v>
@@ -40902,7 +40910,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="997" ht="120" hidden="1" spans="2:5">
+    <row r="997" ht="93.75" hidden="1" spans="2:5">
       <c r="B997" s="1" t="s">
         <v>3207</v>
       </c>
@@ -40944,7 +40952,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="1000" ht="120" hidden="1" spans="2:5">
+    <row r="1000" ht="93.75" hidden="1" spans="2:5">
       <c r="B1000" s="1" t="s">
         <v>3218</v>
       </c>
@@ -40958,7 +40966,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="1001" ht="40" hidden="1" spans="2:4">
+    <row r="1001" ht="37.5" hidden="1" spans="2:4">
       <c r="B1001" s="1" t="s">
         <v>3222</v>
       </c>
@@ -40969,7 +40977,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="1002" ht="40" hidden="1" spans="1:5">
+    <row r="1002" ht="37.5" hidden="1" spans="1:5">
       <c r="A1002" s="1">
         <v>0</v>
       </c>
@@ -40986,9 +40994,9 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="1003" ht="40" spans="1:4">
+    <row r="1003" ht="37.5" hidden="1" spans="1:4">
       <c r="A1003" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1003" s="1" t="s">
         <v>3229</v>
@@ -41000,9 +41008,9 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="1004" spans="1:4">
+    <row r="1004" hidden="1" spans="1:4">
       <c r="A1004" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1004" s="1" t="s">
         <v>3232</v>
@@ -41045,7 +41053,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="1007" ht="24" hidden="1" spans="2:4">
+    <row r="1007" hidden="1" spans="2:4">
       <c r="B1007" s="1" t="s">
         <v>3242</v>
       </c>
@@ -41067,7 +41075,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="1009" ht="24" hidden="1" spans="2:4">
+    <row r="1009" hidden="1" spans="2:4">
       <c r="B1009" s="1" t="s">
         <v>3248</v>
       </c>
@@ -41078,9 +41086,9 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="1010" spans="1:5">
+    <row r="1010" hidden="1" spans="1:5">
       <c r="A1010" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1010" s="1" t="s">
         <v>3251</v>
@@ -41170,7 +41178,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="1017" ht="23" hidden="1" spans="2:4">
+    <row r="1017" hidden="1" spans="2:4">
       <c r="B1017" s="1" t="s">
         <v>3274</v>
       </c>
@@ -41217,7 +41225,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="1021" ht="24" hidden="1" spans="2:4">
+    <row r="1021" hidden="1" spans="2:4">
       <c r="B1021" s="1" t="s">
         <v>3286</v>
       </c>
@@ -41228,7 +41236,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="1022" ht="23" hidden="1" spans="2:4">
+    <row r="1022" hidden="1" spans="2:4">
       <c r="B1022" s="1" t="s">
         <v>3289</v>
       </c>
@@ -41239,9 +41247,9 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="1023" spans="1:5">
+    <row r="1023" hidden="1" spans="1:5">
       <c r="A1023" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1023" s="1" t="s">
         <v>3292</v>
@@ -41256,7 +41264,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="1024" ht="24" hidden="1" spans="2:4">
+    <row r="1024" hidden="1" spans="2:4">
       <c r="B1024" s="1" t="s">
         <v>3295</v>
       </c>
@@ -41284,7 +41292,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="1026" ht="24" hidden="1" spans="2:4">
+    <row r="1026" hidden="1" spans="2:4">
       <c r="B1026" s="1" t="s">
         <v>3302</v>
       </c>
@@ -41342,7 +41350,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="1031" ht="24" hidden="1" spans="1:4">
+    <row r="1031" hidden="1" spans="1:4">
       <c r="A1031" s="1">
         <v>0</v>
       </c>
@@ -41370,7 +41378,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="1033" ht="40" hidden="1" spans="1:5">
+    <row r="1033" ht="37.5" hidden="1" spans="1:5">
       <c r="A1033" s="1">
         <v>0</v>
       </c>
@@ -41398,9 +41406,9 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="1035" ht="40" spans="1:4">
+    <row r="1035" ht="37.5" hidden="1" spans="1:4">
       <c r="A1035" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1035" s="1" t="s">
         <v>3329</v>
@@ -41412,9 +41420,9 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="1036" ht="80" spans="1:5">
+    <row r="1036" ht="56.25" hidden="1" spans="1:5">
       <c r="A1036" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1036" s="1" t="s">
         <v>3332</v>
@@ -41429,7 +41437,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="1037" ht="40" hidden="1" spans="1:4">
+    <row r="1037" ht="37.5" hidden="1" spans="1:4">
       <c r="A1037" s="1">
         <v>0</v>
       </c>
@@ -41504,7 +41512,7 @@
         <v>3352</v>
       </c>
     </row>
-    <row r="1043" ht="80" hidden="1" spans="1:5">
+    <row r="1043" ht="56.25" hidden="1" spans="1:5">
       <c r="A1043" s="1">
         <v>0</v>
       </c>
@@ -41521,7 +41529,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="1044" ht="40" hidden="1" spans="2:4">
+    <row r="1044" ht="37.5" hidden="1" spans="2:4">
       <c r="B1044" s="1" t="s">
         <v>3357</v>
       </c>
@@ -41604,7 +41612,7 @@
         <v>3377</v>
       </c>
     </row>
-    <row r="1051" ht="24" hidden="1" spans="1:5">
+    <row r="1051" hidden="1" spans="1:5">
       <c r="A1051" s="1">
         <v>0</v>
       </c>
@@ -41632,7 +41640,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="1053" ht="40" hidden="1" spans="2:4">
+    <row r="1053" ht="37.5" hidden="1" spans="2:4">
       <c r="B1053" s="1" t="s">
         <v>3385</v>
       </c>
@@ -41654,7 +41662,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="1055" ht="24" hidden="1" spans="2:4">
+    <row r="1055" hidden="1" spans="2:4">
       <c r="B1055" s="1" t="s">
         <v>3391</v>
       </c>
@@ -41676,7 +41684,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="1057" ht="80" hidden="1" spans="2:5">
+    <row r="1057" ht="75" hidden="1" spans="2:5">
       <c r="B1057" s="1" t="s">
         <v>3397</v>
       </c>
@@ -41701,7 +41709,7 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="1059" ht="40" hidden="1" spans="1:4">
+    <row r="1059" ht="37.5" hidden="1" spans="1:4">
       <c r="A1059" s="1">
         <v>0</v>
       </c>
@@ -41787,7 +41795,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="1066" ht="24" hidden="1" spans="2:4">
+    <row r="1066" hidden="1" spans="2:4">
       <c r="B1066" s="1" t="s">
         <v>3425</v>
       </c>
@@ -41798,7 +41806,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="1067" ht="23" hidden="1" spans="2:4">
+    <row r="1067" hidden="1" spans="2:4">
       <c r="B1067" s="1" t="s">
         <v>3428</v>
       </c>
@@ -41809,9 +41817,9 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="1068" spans="1:4">
+    <row r="1068" hidden="1" spans="1:4">
       <c r="A1068" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1068" s="1" t="s">
         <v>3431</v>
@@ -41823,7 +41831,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1069" ht="24" hidden="1" spans="1:4">
+    <row r="1069" hidden="1" spans="1:4">
       <c r="A1069" s="1">
         <v>0</v>
       </c>
@@ -41876,7 +41884,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="1073" ht="24" hidden="1" spans="2:4">
+    <row r="1073" hidden="1" spans="2:4">
       <c r="B1073" s="1" t="s">
         <v>3447</v>
